--- a/Godlibrary/BackLog.xlsx
+++ b/Godlibrary/BackLog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FreewheelExciter\Godlibrary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3888" yWindow="3048" windowWidth="19236" windowHeight="12120" tabRatio="658" activeTab="2"/>
+    <workbookView xWindow="3885" yWindow="3045" windowWidth="19230" windowHeight="12120" tabRatio="658" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ(第１）" sheetId="2" r:id="rId1"/>
@@ -659,7 +659,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="312">
   <si>
     <t>担当者</t>
   </si>
@@ -2864,6 +2864,252 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>キャラクターの保存するステータスを設定</t>
+    <rPh sb="7" eb="9">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>キャラクターステータスの保存</t>
+    <rPh sb="12" eb="14">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>キャラクターステータスのロード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>キャラクターの所持アイテムデータを保存</t>
+    <rPh sb="7" eb="9">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>キャラクターの所持アイテムデーターのロード</t>
+    <rPh sb="7" eb="9">
+      <t>ショジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>キャラクターの所持武器の保存するステータスを設定</t>
+    <rPh sb="7" eb="9">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>キャラクターの所持武器のステータスの保存</t>
+    <rPh sb="7" eb="9">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>キャラクターの所持武器のステータスロード</t>
+    <rPh sb="7" eb="9">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ロードしたデータをもとに武器のステータスを設定し追加</t>
+    <rPh sb="12" eb="14">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>土橋</t>
+    <rPh sb="0" eb="2">
+      <t>ドバシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>上級クラスのレベル設定</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クラスチェンジ先の設定</t>
+    <rPh sb="7" eb="8">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クラスごとの使用できる武器の設定</t>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クラスごとにステータスの上限値の設定</t>
+    <rPh sb="12" eb="15">
+      <t>ジョウゲンチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>地形補正による回避率の設定</t>
+    <rPh sb="0" eb="2">
+      <t>チケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>地形補正による命中率の設定</t>
+    <rPh sb="0" eb="2">
+      <t>チケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>メイチュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>地形による移動力の補正の設定</t>
+    <rPh sb="0" eb="2">
+      <t>チケイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>リョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>遠距離武器の命中補正の設定</t>
+    <rPh sb="0" eb="3">
+      <t>エンキョリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>メイチュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>味方キャラクタープレハブの追加</t>
+    <rPh sb="0" eb="2">
+      <t>ミカタ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -3652,12 +3898,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3665,6 +3905,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -10008,7 +10254,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>162</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -10127,37 +10373,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>162</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>147</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>132</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>117</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>103</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>73</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10580,7 +10826,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -10708,7 +10953,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -10918,7 +11162,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -11316,7 +11559,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>162</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -11435,37 +11678,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>162</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>147</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>132</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>117</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>103</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>73</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12624,7 +12867,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>162</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -12743,37 +12986,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>162</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>147</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>132</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>117</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>103</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>73</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13196,7 +13439,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -13324,7 +13566,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -13534,7 +13775,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -14123,42 +14363,42 @@
         </row>
         <row r="3">
           <cell r="K3">
-            <v>162</v>
+            <v>123</v>
           </cell>
           <cell r="L3">
-            <v>147</v>
+            <v>111</v>
           </cell>
           <cell r="M3">
-            <v>132</v>
+            <v>100</v>
           </cell>
           <cell r="N3">
-            <v>117</v>
+            <v>89</v>
           </cell>
           <cell r="O3">
-            <v>103</v>
+            <v>78</v>
           </cell>
           <cell r="P3">
-            <v>88</v>
+            <v>67</v>
           </cell>
           <cell r="Q3">
-            <v>73</v>
+            <v>55</v>
           </cell>
           <cell r="R3">
-            <v>58</v>
+            <v>44</v>
           </cell>
           <cell r="S3">
-            <v>44</v>
+            <v>33</v>
           </cell>
           <cell r="T3">
-            <v>29</v>
+            <v>22</v>
           </cell>
           <cell r="U3">
-            <v>14</v>
+            <v>11</v>
           </cell>
         </row>
         <row r="4">
           <cell r="K4">
-            <v>162</v>
+            <v>123</v>
           </cell>
           <cell r="L4">
             <v>0</v>
@@ -14601,21 +14841,21 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="27" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="8.21875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="6.88671875" style="5" customWidth="1"/>
-    <col min="7" max="8" width="6.88671875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="6.77734375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="4.77734375" style="7" customWidth="1"/>
-    <col min="11" max="16" width="4.6640625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="2.88671875" customWidth="1"/>
-    <col min="28" max="28" width="14.21875" customWidth="1"/>
-    <col min="29" max="29" width="4.77734375" customWidth="1"/>
-    <col min="30" max="30" width="3.77734375" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="1" customWidth="1"/>
+    <col min="5" max="6" width="6.875" style="5" customWidth="1"/>
+    <col min="7" max="8" width="6.875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="6.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.75" style="7" customWidth="1"/>
+    <col min="11" max="16" width="4.625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="2.875" customWidth="1"/>
+    <col min="28" max="28" width="14.25" customWidth="1"/>
+    <col min="29" max="29" width="4.75" customWidth="1"/>
+    <col min="30" max="30" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="8" customFormat="1" ht="15" customHeight="1">
@@ -18415,28 +18655,28 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.77734375" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.77734375" style="25" customWidth="1"/>
-    <col min="13" max="13" width="5.77734375" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.77734375" customWidth="1"/>
-    <col min="27" max="27" width="3.77734375" customWidth="1"/>
-    <col min="28" max="28" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.75" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.75" style="25" customWidth="1"/>
+    <col min="13" max="13" width="5.75" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.75" customWidth="1"/>
+    <col min="27" max="27" width="3.75" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="8" customFormat="1" ht="15" customHeight="1">
@@ -18449,7 +18689,7 @@
       <c r="C1" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="108" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="102" t="s">
@@ -18473,8 +18713,8 @@
       <c r="K1" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="108"/>
-      <c r="M1" s="109"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="112"/>
       <c r="N1" s="74"/>
       <c r="O1" s="74"/>
       <c r="P1" s="74"/>
@@ -18489,7 +18729,7 @@
       <c r="A2" s="102"/>
       <c r="B2" s="103"/>
       <c r="C2" s="103"/>
-      <c r="D2" s="111"/>
+      <c r="D2" s="109"/>
       <c r="E2" s="102"/>
       <c r="F2" s="105"/>
       <c r="G2" s="105"/>
@@ -18510,7 +18750,7 @@
       <c r="A3" s="102"/>
       <c r="B3" s="103"/>
       <c r="C3" s="103"/>
-      <c r="D3" s="111"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="102"/>
       <c r="F3" s="105"/>
       <c r="G3" s="105"/>
@@ -18534,7 +18774,7 @@
       <c r="A4" s="102"/>
       <c r="B4" s="103"/>
       <c r="C4" s="104"/>
-      <c r="D4" s="112"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="102"/>
       <c r="F4" s="105"/>
       <c r="G4" s="105"/>
@@ -20269,17 +20509,17 @@
   </sheetData>
   <autoFilter ref="C1:D125"/>
   <mergeCells count="11">
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:M1"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:D4"/>
     <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D45:D65416">
@@ -21389,36 +21629,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.77734375" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.77734375" style="25" customWidth="1"/>
-    <col min="13" max="13" width="5.77734375" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.75" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.75" style="25" customWidth="1"/>
+    <col min="13" max="13" width="5.75" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.875" customWidth="1"/>
     <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.77734375" customWidth="1"/>
-    <col min="28" max="28" width="3.77734375" customWidth="1"/>
-    <col min="29" max="29" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.75" customWidth="1"/>
+    <col min="28" max="28" width="3.75" customWidth="1"/>
+    <col min="29" max="29" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="8" customFormat="1" ht="15" customHeight="1">
@@ -21429,7 +21669,7 @@
       <c r="C1" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="108" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="102" t="s">
@@ -21453,13 +21693,13 @@
       <c r="K1" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="109"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="112"/>
       <c r="S1" s="74"/>
       <c r="T1" s="74"/>
       <c r="U1" s="74"/>
@@ -21470,7 +21710,7 @@
       <c r="A2" s="102"/>
       <c r="B2" s="103"/>
       <c r="C2" s="103"/>
-      <c r="D2" s="111"/>
+      <c r="D2" s="109"/>
       <c r="E2" s="102"/>
       <c r="F2" s="105"/>
       <c r="G2" s="105"/>
@@ -21506,7 +21746,7 @@
       <c r="A3" s="102"/>
       <c r="B3" s="103"/>
       <c r="C3" s="103"/>
-      <c r="D3" s="111"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="102"/>
       <c r="F3" s="105"/>
       <c r="G3" s="105"/>
@@ -21550,7 +21790,7 @@
       <c r="A4" s="102"/>
       <c r="B4" s="103"/>
       <c r="C4" s="104"/>
-      <c r="D4" s="112"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="102"/>
       <c r="F4" s="105"/>
       <c r="G4" s="105"/>
@@ -23014,7 +23254,7 @@
       </c>
       <c r="U42" s="10">
         <f>SUMIF($C$5:$C$200,T42,$H$5:$H$200)</f>
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="V42" s="10">
         <f>SUMIF($C$5:$C$200,U42,$H$5:$H$200)</f>
@@ -26550,16 +26790,26 @@
       <c r="A140" s="16">
         <v>136</v>
       </c>
-      <c r="B140" s="17"/>
-      <c r="C140" s="18"/>
-      <c r="D140" s="18"/>
+      <c r="B140" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="C140" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D140" s="18" t="s">
+        <v>298</v>
+      </c>
       <c r="E140" s="12" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F140" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F140" s="4">
+        <v>43097</v>
+      </c>
       <c r="G140" s="4"/>
-      <c r="H140" s="19"/>
+      <c r="H140" s="19">
+        <v>3</v>
+      </c>
       <c r="I140" s="19"/>
       <c r="J140" s="12" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -26578,16 +26828,26 @@
       <c r="A141" s="16">
         <v>137</v>
       </c>
-      <c r="B141" s="17"/>
-      <c r="C141" s="18"/>
-      <c r="D141" s="18"/>
+      <c r="B141" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C141" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D141" s="18" t="s">
+        <v>299</v>
+      </c>
       <c r="E141" s="12" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F141" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F141" s="4">
+        <v>43097</v>
+      </c>
       <c r="G141" s="4"/>
-      <c r="H141" s="19"/>
+      <c r="H141" s="19">
+        <v>3</v>
+      </c>
       <c r="I141" s="19"/>
       <c r="J141" s="12" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -26606,16 +26866,26 @@
       <c r="A142" s="16">
         <v>138</v>
       </c>
-      <c r="B142" s="17"/>
-      <c r="C142" s="18"/>
-      <c r="D142" s="18"/>
+      <c r="B142" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C142" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D142" s="18" t="s">
+        <v>298</v>
+      </c>
       <c r="E142" s="12" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F142" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F142" s="4">
+        <v>43097</v>
+      </c>
       <c r="G142" s="4"/>
-      <c r="H142" s="19"/>
+      <c r="H142" s="19">
+        <v>3</v>
+      </c>
       <c r="I142" s="19"/>
       <c r="J142" s="12" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -26634,16 +26904,26 @@
       <c r="A143" s="16">
         <v>139</v>
       </c>
-      <c r="B143" s="17"/>
-      <c r="C143" s="18"/>
-      <c r="D143" s="18"/>
+      <c r="B143" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C143" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D143" s="18" t="s">
+        <v>299</v>
+      </c>
       <c r="E143" s="12" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F143" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F143" s="4">
+        <v>43098</v>
+      </c>
       <c r="G143" s="4"/>
-      <c r="H143" s="19"/>
+      <c r="H143" s="19">
+        <v>3</v>
+      </c>
       <c r="I143" s="19"/>
       <c r="J143" s="12" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -26662,16 +26942,26 @@
       <c r="A144" s="16">
         <v>140</v>
       </c>
-      <c r="B144" s="17"/>
-      <c r="C144" s="18"/>
-      <c r="D144" s="18"/>
+      <c r="B144" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="C144" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D144" s="18" t="s">
+        <v>298</v>
+      </c>
       <c r="E144" s="12" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F144" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F144" s="4">
+        <v>43098</v>
+      </c>
       <c r="G144" s="4"/>
-      <c r="H144" s="19"/>
+      <c r="H144" s="19">
+        <v>3</v>
+      </c>
       <c r="I144" s="19"/>
       <c r="J144" s="12" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -26690,16 +26980,26 @@
       <c r="A145" s="16">
         <v>141</v>
       </c>
-      <c r="B145" s="17"/>
-      <c r="C145" s="18"/>
-      <c r="D145" s="18"/>
+      <c r="B145" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="C145" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D145" s="18" t="s">
+        <v>299</v>
+      </c>
       <c r="E145" s="12" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F145" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F145" s="4">
+        <v>43098</v>
+      </c>
       <c r="G145" s="4"/>
-      <c r="H145" s="19"/>
+      <c r="H145" s="19">
+        <v>3</v>
+      </c>
       <c r="I145" s="19"/>
       <c r="J145" s="12" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -26718,16 +27018,26 @@
       <c r="A146" s="16">
         <v>142</v>
       </c>
-      <c r="B146" s="17"/>
-      <c r="C146" s="18"/>
-      <c r="D146" s="18"/>
+      <c r="B146" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="C146" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D146" s="18" t="s">
+        <v>298</v>
+      </c>
       <c r="E146" s="12" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F146" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F146" s="4">
+        <v>43099</v>
+      </c>
       <c r="G146" s="4"/>
-      <c r="H146" s="19"/>
+      <c r="H146" s="19">
+        <v>3</v>
+      </c>
       <c r="I146" s="19"/>
       <c r="J146" s="12" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -26746,16 +27056,26 @@
       <c r="A147" s="16">
         <v>143</v>
       </c>
-      <c r="B147" s="17"/>
-      <c r="C147" s="18"/>
-      <c r="D147" s="18"/>
+      <c r="B147" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="C147" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D147" s="18" t="s">
+        <v>299</v>
+      </c>
       <c r="E147" s="12" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F147" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F147" s="4">
+        <v>43099</v>
+      </c>
       <c r="G147" s="4"/>
-      <c r="H147" s="19"/>
+      <c r="H147" s="19">
+        <v>3</v>
+      </c>
       <c r="I147" s="19"/>
       <c r="J147" s="12" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -26774,16 +27094,26 @@
       <c r="A148" s="16">
         <v>144</v>
       </c>
-      <c r="B148" s="17"/>
-      <c r="C148" s="18"/>
-      <c r="D148" s="18"/>
+      <c r="B148" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D148" s="18" t="s">
+        <v>298</v>
+      </c>
       <c r="E148" s="12" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F148" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F148" s="4">
+        <v>43099</v>
+      </c>
       <c r="G148" s="4"/>
-      <c r="H148" s="19"/>
+      <c r="H148" s="19">
+        <v>3</v>
+      </c>
       <c r="I148" s="19"/>
       <c r="J148" s="12" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -26802,16 +27132,26 @@
       <c r="A149" s="16">
         <v>145</v>
       </c>
-      <c r="B149" s="17"/>
-      <c r="C149" s="18"/>
-      <c r="D149" s="18"/>
+      <c r="B149" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="C149" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D149" s="18" t="s">
+        <v>48</v>
+      </c>
       <c r="E149" s="12" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F149" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F149" s="4">
+        <v>42739</v>
+      </c>
       <c r="G149" s="4"/>
-      <c r="H149" s="19"/>
+      <c r="H149" s="19">
+        <v>3</v>
+      </c>
       <c r="I149" s="19"/>
       <c r="J149" s="12" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -26830,16 +27170,26 @@
       <c r="A150" s="16">
         <v>146</v>
       </c>
-      <c r="B150" s="17"/>
-      <c r="C150" s="18"/>
-      <c r="D150" s="18"/>
+      <c r="B150" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C150" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D150" s="18" t="s">
+        <v>48</v>
+      </c>
       <c r="E150" s="12" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F150" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F150" s="4">
+        <v>42739</v>
+      </c>
       <c r="G150" s="4"/>
-      <c r="H150" s="19"/>
+      <c r="H150" s="19">
+        <v>3</v>
+      </c>
       <c r="I150" s="19"/>
       <c r="J150" s="12" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -26858,16 +27208,26 @@
       <c r="A151" s="16">
         <v>147</v>
       </c>
-      <c r="B151" s="17"/>
-      <c r="C151" s="18"/>
-      <c r="D151" s="18"/>
+      <c r="B151" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="C151" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D151" s="18" t="s">
+        <v>306</v>
+      </c>
       <c r="E151" s="12" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F151" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F151" s="4">
+        <v>42739</v>
+      </c>
       <c r="G151" s="4"/>
-      <c r="H151" s="19"/>
+      <c r="H151" s="19">
+        <v>3</v>
+      </c>
       <c r="I151" s="19"/>
       <c r="J151" s="12" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -26886,16 +27246,26 @@
       <c r="A152" s="16">
         <v>148</v>
       </c>
-      <c r="B152" s="17"/>
-      <c r="C152" s="18"/>
-      <c r="D152" s="18"/>
+      <c r="B152" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="C152" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D152" s="18" t="s">
+        <v>48</v>
+      </c>
       <c r="E152" s="12" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F152" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F152" s="4">
+        <v>42740</v>
+      </c>
       <c r="G152" s="4"/>
-      <c r="H152" s="19"/>
+      <c r="H152" s="19">
+        <v>3</v>
+      </c>
       <c r="I152" s="19"/>
       <c r="J152" s="12" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -26914,16 +27284,26 @@
       <c r="A153" s="16">
         <v>149</v>
       </c>
-      <c r="B153" s="17"/>
-      <c r="C153" s="18"/>
-      <c r="D153" s="18"/>
+      <c r="B153" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="C153" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D153" s="18" t="s">
+        <v>48</v>
+      </c>
       <c r="E153" s="12" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F153" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F153" s="4">
+        <v>42740</v>
+      </c>
       <c r="G153" s="4"/>
-      <c r="H153" s="19"/>
+      <c r="H153" s="19">
+        <v>3</v>
+      </c>
       <c r="I153" s="19"/>
       <c r="J153" s="12" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -26942,16 +27322,26 @@
       <c r="A154" s="16">
         <v>150</v>
       </c>
-      <c r="B154" s="17"/>
-      <c r="C154" s="18"/>
-      <c r="D154" s="18"/>
+      <c r="B154" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C154" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D154" s="18" t="s">
+        <v>48</v>
+      </c>
       <c r="E154" s="12" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F154" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F154" s="4">
+        <v>42740</v>
+      </c>
       <c r="G154" s="4"/>
-      <c r="H154" s="19"/>
+      <c r="H154" s="19">
+        <v>3</v>
+      </c>
       <c r="I154" s="19"/>
       <c r="J154" s="12" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -26970,16 +27360,26 @@
       <c r="A155" s="16">
         <v>151</v>
       </c>
-      <c r="B155" s="17"/>
-      <c r="C155" s="18"/>
-      <c r="D155" s="18"/>
+      <c r="B155" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C155" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D155" s="18" t="s">
+        <v>309</v>
+      </c>
       <c r="E155" s="12" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F155" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F155" s="4">
+        <v>42741</v>
+      </c>
       <c r="G155" s="4"/>
-      <c r="H155" s="19"/>
+      <c r="H155" s="19">
+        <v>4</v>
+      </c>
       <c r="I155" s="19"/>
       <c r="J155" s="12" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -26998,16 +27398,26 @@
       <c r="A156" s="16">
         <v>152</v>
       </c>
-      <c r="B156" s="17"/>
-      <c r="C156" s="18"/>
-      <c r="D156" s="18"/>
+      <c r="B156" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="C156" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D156" s="18" t="s">
+        <v>309</v>
+      </c>
       <c r="E156" s="12" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F156" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F156" s="4">
+        <v>42741</v>
+      </c>
       <c r="G156" s="4"/>
-      <c r="H156" s="19"/>
+      <c r="H156" s="19">
+        <v>3</v>
+      </c>
       <c r="I156" s="19"/>
       <c r="J156" s="12" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -27026,16 +27436,26 @@
       <c r="A157" s="16">
         <v>153</v>
       </c>
-      <c r="B157" s="17"/>
-      <c r="C157" s="18"/>
-      <c r="D157" s="18"/>
+      <c r="B157" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="C157" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D157" s="18" t="s">
+        <v>310</v>
+      </c>
       <c r="E157" s="12" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F157" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F157" s="4">
+        <v>43095</v>
+      </c>
       <c r="G157" s="4"/>
-      <c r="H157" s="19"/>
+      <c r="H157" s="19">
+        <v>6</v>
+      </c>
       <c r="I157" s="19"/>
       <c r="J157" s="12" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -29249,31 +29669,31 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.77734375" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.77734375" style="25" customWidth="1"/>
-    <col min="13" max="13" width="5.77734375" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.88671875" customWidth="1"/>
-    <col min="24" max="24" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.77734375" customWidth="1"/>
-    <col min="27" max="27" width="3.77734375" customWidth="1"/>
-    <col min="28" max="28" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.75" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.75" style="25" customWidth="1"/>
+    <col min="13" max="13" width="5.75" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.875" customWidth="1"/>
+    <col min="24" max="24" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.75" customWidth="1"/>
+    <col min="27" max="27" width="3.75" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="8" customFormat="1" ht="15" customHeight="1">
@@ -29286,7 +29706,7 @@
       <c r="C1" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="108" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="102" t="s">
@@ -29326,7 +29746,7 @@
       <c r="A2" s="102"/>
       <c r="B2" s="103"/>
       <c r="C2" s="103"/>
-      <c r="D2" s="111"/>
+      <c r="D2" s="109"/>
       <c r="E2" s="102"/>
       <c r="F2" s="105"/>
       <c r="G2" s="105"/>
@@ -29359,7 +29779,7 @@
       <c r="A3" s="102"/>
       <c r="B3" s="103"/>
       <c r="C3" s="103"/>
-      <c r="D3" s="111"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="102"/>
       <c r="F3" s="105"/>
       <c r="G3" s="105"/>
@@ -29399,7 +29819,7 @@
       <c r="A4" s="102"/>
       <c r="B4" s="103"/>
       <c r="C4" s="104"/>
-      <c r="D4" s="112"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="102"/>
       <c r="F4" s="105"/>
       <c r="G4" s="105"/>
@@ -30889,17 +31309,17 @@
   </sheetData>
   <autoFilter ref="C1:D49"/>
   <mergeCells count="11">
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:Q1"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:D4"/>
     <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D50:D65389">
@@ -31565,30 +31985,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.109375" style="28" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="28" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" style="28" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="28" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="28" customWidth="1"/>
     <col min="5" max="5" width="13" style="28" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="28" customWidth="1"/>
-    <col min="7" max="7" width="41.44140625" style="28" customWidth="1"/>
-    <col min="8" max="8" width="26.44140625" style="28" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="28" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" style="28" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="41.5" style="28" customWidth="1"/>
+    <col min="8" max="8" width="26.5" style="28" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="28" customWidth="1"/>
+    <col min="10" max="10" width="12.875" style="28" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="28" customWidth="1"/>
     <col min="12" max="12" width="9" style="28"/>
-    <col min="13" max="13" width="5.88671875" style="28" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" style="28" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" style="28" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" style="28" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" style="28" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" style="28" customWidth="1"/>
+    <col min="13" max="13" width="5.875" style="28" customWidth="1"/>
+    <col min="14" max="14" width="13.875" style="28" customWidth="1"/>
+    <col min="15" max="15" width="10.875" style="28" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="28" customWidth="1"/>
+    <col min="17" max="17" width="12.375" style="28" customWidth="1"/>
+    <col min="18" max="18" width="13.875" style="28" customWidth="1"/>
     <col min="19" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="13.8" thickBot="1">
+    <row r="1" spans="1:18" ht="15" thickBot="1">
       <c r="A1" s="26" t="s">
         <v>21</v>
       </c>
@@ -31804,7 +32224,7 @@
       <c r="Q9" s="35"/>
       <c r="R9" s="36"/>
     </row>
-    <row r="10" spans="1:18" ht="13.8" thickBot="1">
+    <row r="10" spans="1:18" ht="14.25" thickBot="1">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>

--- a/Godlibrary/BackLog.xlsx
+++ b/Godlibrary/BackLog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hagur\Documents\GitHub\FreewheelExciter\Godlibrary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="3045" windowWidth="19230" windowHeight="12120" tabRatio="658" activeTab="2"/>
+    <workbookView xWindow="3885" yWindow="3045" windowWidth="19230" windowHeight="12120" tabRatio="658" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ(第１）" sheetId="2" r:id="rId1"/>
@@ -659,7 +659,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="310">
   <si>
     <t>担当者</t>
   </si>
@@ -1512,23 +1512,6 @@
   </si>
   <si>
     <t>S</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>[セーブデータ]キャラクタークラス保存</t>
-    <rPh sb="17" eb="19">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>[セーブデータ]キャラクタークラス読み込み</t>
-    <rPh sb="17" eb="18">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>コ</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -3898,6 +3881,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3905,12 +3894,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -10826,6 +10809,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -10953,6 +10937,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -11162,6 +11147,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -12131,7 +12117,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -12259,7 +12244,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -12469,7 +12453,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -18651,8 +18634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18684,12 +18667,12 @@
         <v>1</v>
       </c>
       <c r="B1" s="102" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C1" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="110" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="102" t="s">
@@ -18713,8 +18696,8 @@
       <c r="K1" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="111"/>
-      <c r="M1" s="112"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="109"/>
       <c r="N1" s="74"/>
       <c r="O1" s="74"/>
       <c r="P1" s="74"/>
@@ -18729,7 +18712,7 @@
       <c r="A2" s="102"/>
       <c r="B2" s="103"/>
       <c r="C2" s="103"/>
-      <c r="D2" s="109"/>
+      <c r="D2" s="111"/>
       <c r="E2" s="102"/>
       <c r="F2" s="105"/>
       <c r="G2" s="105"/>
@@ -18740,17 +18723,17 @@
         <v>44</v>
       </c>
       <c r="L2" s="23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="8" customFormat="1">
       <c r="A3" s="102"/>
       <c r="B3" s="103"/>
       <c r="C3" s="103"/>
-      <c r="D3" s="109"/>
+      <c r="D3" s="111"/>
       <c r="E3" s="102"/>
       <c r="F3" s="105"/>
       <c r="G3" s="105"/>
@@ -18759,22 +18742,22 @@
       <c r="J3" s="102"/>
       <c r="K3" s="20">
         <f>INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$M$2))))</f>
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L3" s="20">
         <f>INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$M$2))))</f>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M3" s="20">
         <f>INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$M$2))))</f>
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="8" customFormat="1">
       <c r="A4" s="102"/>
       <c r="B4" s="103"/>
       <c r="C4" s="104"/>
-      <c r="D4" s="110"/>
+      <c r="D4" s="112"/>
       <c r="E4" s="102"/>
       <c r="F4" s="105"/>
       <c r="G4" s="105"/>
@@ -18783,15 +18766,15 @@
       <c r="J4" s="102"/>
       <c r="K4" s="21">
         <f>SUM(K5:K39)</f>
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L4" s="21">
         <f>SUM(L5:L39)</f>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M4" s="21">
         <f>SUM(M5:M78)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -18821,7 +18804,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="96" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="87"/>
@@ -18843,7 +18826,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="87"/>
@@ -18983,7 +18966,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C11" s="87"/>
       <c r="D11" s="87"/>
@@ -19005,10 +18988,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="87" t="s">
         <v>176</v>
-      </c>
-      <c r="C12" s="87" t="s">
-        <v>178</v>
       </c>
       <c r="D12" s="87" t="s">
         <v>106</v>
@@ -19046,13 +19029,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="95" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="87" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="87" t="s">
         <v>177</v>
-      </c>
-      <c r="C13" s="87" t="s">
-        <v>178</v>
-      </c>
-      <c r="D13" s="87" t="s">
-        <v>179</v>
       </c>
       <c r="E13" s="88" t="str">
         <f ca="1">IF(ISBLANK($B13),"",IF(ISBLANK($G13),"未着手",IF('スプリントバックログ(第3)'!$J62=0,"完了","作業中")))</f>
@@ -19087,13 +19070,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>96</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E14" s="12" t="str">
         <f ca="1">IF(ISBLANK($B14),"",IF(ISBLANK($G14),"未着手",IF($J14=0,"完了","作業中")))</f>
@@ -19128,7 +19111,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="92" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -19308,7 +19291,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="92" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -19466,10 +19449,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>106</v>
@@ -19505,13 +19488,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E26" s="12" t="str">
         <f ca="1">IF(ISBLANK($B26),"",IF(ISBLANK($G26),"未着手",IF($J26=0,"完了","作業中")))</f>
@@ -19546,7 +19529,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="67" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C27" s="58"/>
       <c r="D27" s="58"/>
@@ -19709,38 +19692,19 @@
       <c r="A32" s="16">
         <v>28</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>122</v>
-      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="12" t="str">
-        <f t="shared" ref="E32:E44" ca="1" si="2">IF(ISBLANK($B32),"",IF(ISBLANK($G32),"未着手",IF($J32=0,"完了","作業中")))</f>
-        <v>作業中</v>
-      </c>
-      <c r="F32" s="4">
-        <v>43086</v>
-      </c>
-      <c r="G32" s="4">
-        <v>43086</v>
-      </c>
-      <c r="H32" s="19">
-        <v>3</v>
-      </c>
-      <c r="I32" s="19">
-        <v>3</v>
-      </c>
-      <c r="J32" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="K32" s="22">
-        <v>3</v>
-      </c>
+        <f t="shared" ref="E32:E44" si="2">IF(ISBLANK($B32),"",IF(ISBLANK($G32),"未着手",IF($J32=0,"完了","作業中")))</f>
+        <v/>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="22"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
     </row>
@@ -19748,38 +19712,19 @@
       <c r="A33" s="16">
         <v>29</v>
       </c>
-      <c r="B33" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>87</v>
-      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>作業中</v>
-      </c>
-      <c r="F33" s="4">
-        <v>43086</v>
-      </c>
-      <c r="G33" s="4">
-        <v>43086</v>
-      </c>
-      <c r="H33" s="19">
-        <v>3</v>
-      </c>
-      <c r="I33" s="19">
-        <v>3</v>
-      </c>
-      <c r="J33" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="K33" s="22">
-        <v>3</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="22"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
     </row>
@@ -19788,7 +19733,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>66</v>
@@ -19798,7 +19743,7 @@
       </c>
       <c r="E34" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F34" s="4">
         <v>43087</v>
@@ -19814,12 +19759,14 @@
       </c>
       <c r="J34" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K34" s="22">
         <v>3</v>
       </c>
-      <c r="L34" s="22"/>
+      <c r="L34" s="22">
+        <v>0</v>
+      </c>
       <c r="M34" s="22"/>
     </row>
     <row r="35" spans="1:20">
@@ -19827,7 +19774,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>66</v>
@@ -19837,7 +19784,7 @@
       </c>
       <c r="E35" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F35" s="4">
         <v>43087</v>
@@ -19853,12 +19800,14 @@
       </c>
       <c r="J35" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K35" s="22">
         <v>3</v>
       </c>
-      <c r="L35" s="22"/>
+      <c r="L35" s="22">
+        <v>0</v>
+      </c>
       <c r="M35" s="22"/>
     </row>
     <row r="36" spans="1:20">
@@ -19866,7 +19815,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>66</v>
@@ -19892,20 +19841,24 @@
       </c>
       <c r="J36" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K36" s="22">
         <v>3</v>
       </c>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
+      <c r="L36" s="22">
+        <v>2</v>
+      </c>
+      <c r="M36" s="22">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="16">
         <v>33</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>66</v>
@@ -19915,7 +19868,7 @@
       </c>
       <c r="E37" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F37" s="4">
         <v>43089</v>
@@ -19931,12 +19884,14 @@
       </c>
       <c r="J37" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K37" s="22">
         <v>3</v>
       </c>
-      <c r="L37" s="22"/>
+      <c r="L37" s="22">
+        <v>0</v>
+      </c>
       <c r="M37" s="22"/>
     </row>
     <row r="38" spans="1:20">
@@ -19944,7 +19899,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>66</v>
@@ -19970,13 +19925,17 @@
       </c>
       <c r="J38" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K38" s="22">
         <v>3</v>
       </c>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
+      <c r="L38" s="22">
+        <v>2</v>
+      </c>
+      <c r="M38" s="22">
+        <v>2</v>
+      </c>
       <c r="O38" s="13"/>
       <c r="P38" s="13" t="s">
         <v>7</v>
@@ -19999,7 +19958,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>66</v>
@@ -20009,7 +19968,7 @@
       </c>
       <c r="E39" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F39" s="4">
         <v>43089</v>
@@ -20025,12 +19984,14 @@
       </c>
       <c r="J39" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K39" s="22">
         <v>3</v>
       </c>
-      <c r="L39" s="22"/>
+      <c r="L39" s="22">
+        <v>0</v>
+      </c>
       <c r="M39" s="22"/>
       <c r="O39" s="11" t="s">
         <v>47</v>
@@ -20060,10 +20021,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>80</v>
@@ -20121,13 +20082,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="C41" s="18" t="s">
-        <v>207</v>
-      </c>
       <c r="D41" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E41" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -20182,13 +20143,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E42" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -20220,22 +20181,22 @@
       </c>
       <c r="P42" s="10">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Q42" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="R42" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S42" s="14">
         <v>0</v>
       </c>
       <c r="T42" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -20243,7 +20204,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>47</v>
@@ -20305,7 +20266,7 @@
         <v>40</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>47</v>
@@ -20509,17 +20470,17 @@
   </sheetData>
   <autoFilter ref="C1:D125"/>
   <mergeCells count="11">
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:M1"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:D4"/>
     <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D45:D65416">
@@ -20577,7 +20538,7 @@
       <formula>OR($D45="終了",$D45="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I13 B32:E34 A5:IN6 B35:C35 E35 F32:I35 C7:M7 B14:I14 C15:I15 K20 B8:I11 K8:K15 M8:M13 L8:L14 K16:M19 B16:I20 J8:J20 B27:I31 J27:M44 B36:I42 A7:A44 B21:M26 F43:I44">
+  <conditionalFormatting sqref="I12:I13 B32:E34 A5:IN6 B35:C35 E35 F32:I35 C7:M7 B14:I14 C15:I15 K20 B8:I11 K8:K15 M8:M13 L8:L14 K16:M19 B16:I20 J8:J20 B27:I31 B36:I42 A7:A44 B21:M26 F43:I44 J27:M44">
     <cfRule type="expression" dxfId="656" priority="187" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>
@@ -21629,7 +21590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+    <sheetView topLeftCell="A87" workbookViewId="0">
       <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
@@ -21669,7 +21630,7 @@
       <c r="C1" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="110" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="102" t="s">
@@ -21693,13 +21654,13 @@
       <c r="K1" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="112"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="109"/>
       <c r="S1" s="74"/>
       <c r="T1" s="74"/>
       <c r="U1" s="74"/>
@@ -21710,7 +21671,7 @@
       <c r="A2" s="102"/>
       <c r="B2" s="103"/>
       <c r="C2" s="103"/>
-      <c r="D2" s="109"/>
+      <c r="D2" s="111"/>
       <c r="E2" s="102"/>
       <c r="F2" s="105"/>
       <c r="G2" s="105"/>
@@ -21718,35 +21679,35 @@
       <c r="I2" s="107"/>
       <c r="J2" s="102"/>
       <c r="K2" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L2" s="75" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M2" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="N2" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="O2" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="N2" s="75" t="s">
+      <c r="P2" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="O2" s="75" t="s">
+      <c r="Q2" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="R2" s="23" t="s">
         <v>134</v>
-      </c>
-      <c r="P2" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q2" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="R2" s="23" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="8" customFormat="1">
       <c r="A3" s="102"/>
       <c r="B3" s="103"/>
       <c r="C3" s="103"/>
-      <c r="D3" s="109"/>
+      <c r="D3" s="111"/>
       <c r="E3" s="102"/>
       <c r="F3" s="105"/>
       <c r="G3" s="105"/>
@@ -21790,7 +21751,7 @@
       <c r="A4" s="102"/>
       <c r="B4" s="103"/>
       <c r="C4" s="104"/>
-      <c r="D4" s="110"/>
+      <c r="D4" s="112"/>
       <c r="E4" s="102"/>
       <c r="F4" s="105"/>
       <c r="G4" s="105"/>
@@ -21835,7 +21796,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C5" s="51"/>
       <c r="D5" s="51"/>
@@ -21862,7 +21823,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
@@ -21886,7 +21847,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="93" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="87"/>
@@ -22214,7 +22175,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="93" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -22428,7 +22389,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="92" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -22452,7 +22413,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>96</v>
@@ -22604,7 +22565,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="93" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -22628,7 +22589,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>96</v>
@@ -22666,7 +22627,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>96</v>
@@ -22704,7 +22665,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>96</v>
@@ -22742,7 +22703,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="92" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
@@ -22766,7 +22727,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>96</v>
@@ -22918,16 +22879,16 @@
         <v>32</v>
       </c>
       <c r="B36" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="E36" s="12" t="s">
         <v>186</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>188</v>
       </c>
       <c r="F36" s="4">
         <v>43094</v>
@@ -22955,13 +22916,13 @@
         <v>90</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F37" s="4">
         <v>43094</v>
@@ -23111,7 +23072,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="93" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C40" s="87"/>
       <c r="D40" s="87"/>
@@ -23157,7 +23118,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>81</v>
@@ -23217,7 +23178,7 @@
         <v>38</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>81</v>
@@ -23277,7 +23238,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>81</v>
@@ -23337,7 +23298,7 @@
         <v>40</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>81</v>
@@ -23375,7 +23336,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>81</v>
@@ -23413,7 +23374,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>81</v>
@@ -23451,7 +23412,7 @@
         <v>43</v>
       </c>
       <c r="B47" s="92" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
@@ -23478,7 +23439,7 @@
         <v>44</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>81</v>
@@ -23516,7 +23477,7 @@
         <v>45</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>81</v>
@@ -23554,7 +23515,7 @@
         <v>46</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>81</v>
@@ -23668,7 +23629,7 @@
         <v>49</v>
       </c>
       <c r="B53" s="93" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
@@ -23701,7 +23662,7 @@
         <v>81</v>
       </c>
       <c r="D54" s="63" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E54" s="64" t="str">
         <f t="shared" si="9"/>
@@ -23885,7 +23846,7 @@
         <v>55</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C59" s="67"/>
       <c r="D59" s="67"/>
@@ -23912,7 +23873,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="94" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C60" s="91"/>
       <c r="D60" s="91"/>
@@ -23936,7 +23897,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>63</v>
@@ -23974,7 +23935,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>63</v>
@@ -24012,13 +23973,13 @@
         <v>59</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E63" s="12" t="str">
         <f>IF(ISBLANK($B63),"",IF(ISBLANK($G63),"未着手",IF($J63=0,"完了","作業中")))</f>
@@ -24050,13 +24011,13 @@
         <v>60</v>
       </c>
       <c r="B64" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="D64" s="18" t="s">
         <v>193</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>195</v>
       </c>
       <c r="E64" s="12" t="str">
         <f>IF(ISBLANK($B64),"",IF(ISBLANK($G64),"未着手",IF($J64=0,"完了","作業中")))</f>
@@ -24088,7 +24049,7 @@
         <v>61</v>
       </c>
       <c r="B65" s="92" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
@@ -24115,10 +24076,10 @@
         <v>62</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D66" s="18" t="s">
         <v>80</v>
@@ -24153,13 +24114,13 @@
         <v>63</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E67" s="12" t="str">
         <f>IF(ISBLANK($B67),"",IF(ISBLANK($G67),"未着手",IF($J67=0,"完了","作業中")))</f>
@@ -24191,10 +24152,10 @@
         <v>64</v>
       </c>
       <c r="B68" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C68" s="18" t="s">
         <v>198</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>200</v>
       </c>
       <c r="D68" s="18" t="s">
         <v>80</v>
@@ -24229,10 +24190,10 @@
         <v>65</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D69" s="18" t="s">
         <v>80</v>
@@ -24267,7 +24228,7 @@
         <v>66</v>
       </c>
       <c r="B70" s="93" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C70" s="18"/>
       <c r="D70" s="18"/>
@@ -24294,13 +24255,13 @@
         <v>67</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E71" s="12" t="str">
         <f t="shared" ref="E71:E134" si="12">IF(ISBLANK($B71),"",IF(ISBLANK($G71),"未着手",IF($J71=0,"完了","作業中")))</f>
@@ -24332,10 +24293,10 @@
         <v>68</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D72" s="18" t="s">
         <v>80</v>
@@ -24370,13 +24331,13 @@
         <v>69</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E73" s="12" t="str">
         <f t="shared" si="12"/>
@@ -24408,10 +24369,10 @@
         <v>70</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D74" s="18" t="s">
         <v>80</v>
@@ -24446,13 +24407,13 @@
         <v>71</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E75" s="12" t="str">
         <f t="shared" si="12"/>
@@ -24484,10 +24445,10 @@
         <v>72</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D76" s="18" t="s">
         <v>80</v>
@@ -24522,13 +24483,13 @@
         <v>73</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E77" s="12" t="str">
         <f t="shared" si="12"/>
@@ -24560,10 +24521,10 @@
         <v>74</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D78" s="18" t="s">
         <v>80</v>
@@ -24598,13 +24559,13 @@
         <v>75</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E79" s="12" t="str">
         <f t="shared" si="12"/>
@@ -24636,10 +24597,10 @@
         <v>76</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D80" s="18" t="s">
         <v>80</v>
@@ -24702,7 +24663,7 @@
         <v>78</v>
       </c>
       <c r="B82" s="93" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
@@ -24729,13 +24690,13 @@
         <v>79</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D83" s="63" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E83" s="12" t="str">
         <f t="shared" si="12"/>
@@ -24767,13 +24728,13 @@
         <v>80</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D84" s="63" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E84" s="12" t="str">
         <f t="shared" si="12"/>
@@ -24805,13 +24766,13 @@
         <v>81</v>
       </c>
       <c r="B85" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="D85" s="63" t="s">
         <v>232</v>
-      </c>
-      <c r="C85" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="D85" s="63" t="s">
-        <v>234</v>
       </c>
       <c r="E85" s="12" t="str">
         <f t="shared" si="12"/>
@@ -24843,13 +24804,13 @@
         <v>82</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D86" s="63" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E86" s="12" t="str">
         <f t="shared" si="12"/>
@@ -24881,13 +24842,13 @@
         <v>83</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D87" s="63" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E87" s="12" t="str">
         <f t="shared" si="12"/>
@@ -24919,13 +24880,13 @@
         <v>84</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D88" s="63" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E88" s="12" t="str">
         <f t="shared" si="12"/>
@@ -24957,10 +24918,10 @@
         <v>85</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D89" s="18" t="s">
         <v>69</v>
@@ -24995,10 +24956,10 @@
         <v>86</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D90" s="18" t="s">
         <v>69</v>
@@ -25033,10 +24994,10 @@
         <v>87</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D91" s="18" t="s">
         <v>69</v>
@@ -25099,7 +25060,7 @@
         <v>89</v>
       </c>
       <c r="B93" s="93" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C93" s="18"/>
       <c r="D93" s="18"/>
@@ -25126,13 +25087,13 @@
         <v>90</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E94" s="12" t="str">
         <f t="shared" si="12"/>
@@ -25164,13 +25125,13 @@
         <v>91</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E95" s="12" t="str">
         <f t="shared" si="12"/>
@@ -25202,13 +25163,13 @@
         <v>92</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E96" s="12" t="str">
         <f t="shared" si="12"/>
@@ -25240,13 +25201,13 @@
         <v>93</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E97" s="12" t="str">
         <f t="shared" si="12"/>
@@ -25278,13 +25239,13 @@
         <v>94</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E98" s="12" t="str">
         <f t="shared" si="12"/>
@@ -25316,13 +25277,13 @@
         <v>95</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E99" s="12" t="str">
         <f t="shared" si="12"/>
@@ -25382,7 +25343,7 @@
         <v>97</v>
       </c>
       <c r="B101" s="93" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C101" s="18"/>
       <c r="D101" s="18"/>
@@ -25409,13 +25370,13 @@
         <v>98</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E102" s="12" t="str">
         <f t="shared" si="12"/>
@@ -25447,13 +25408,13 @@
         <v>99</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E103" s="12" t="str">
         <f t="shared" si="12"/>
@@ -25485,13 +25446,13 @@
         <v>100</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E104" s="12" t="str">
         <f t="shared" si="12"/>
@@ -25523,13 +25484,13 @@
         <v>101</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E105" s="12" t="str">
         <f t="shared" si="12"/>
@@ -25561,13 +25522,13 @@
         <v>102</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E106" s="12" t="str">
         <f t="shared" si="12"/>
@@ -25599,13 +25560,13 @@
         <v>103</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E107" s="12" t="str">
         <f t="shared" si="12"/>
@@ -25637,13 +25598,13 @@
         <v>104</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E108" s="12" t="str">
         <f t="shared" si="12"/>
@@ -25703,7 +25664,7 @@
         <v>106</v>
       </c>
       <c r="B110" s="93" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C110" s="18"/>
       <c r="D110" s="18"/>
@@ -25730,13 +25691,13 @@
         <v>107</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E111" s="12" t="str">
         <f t="shared" si="12"/>
@@ -25768,13 +25729,13 @@
         <v>108</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E112" s="12" t="str">
         <f t="shared" si="12"/>
@@ -25806,13 +25767,13 @@
         <v>109</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E113" s="12" t="str">
         <f t="shared" si="12"/>
@@ -25844,13 +25805,13 @@
         <v>110</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E114" s="12" t="str">
         <f t="shared" si="12"/>
@@ -25882,13 +25843,13 @@
         <v>111</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E115" s="12" t="str">
         <f t="shared" si="12"/>
@@ -25920,13 +25881,13 @@
         <v>112</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E116" s="12" t="str">
         <f t="shared" si="12"/>
@@ -25958,13 +25919,13 @@
         <v>113</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E117" s="12" t="str">
         <f t="shared" si="12"/>
@@ -25996,13 +25957,13 @@
         <v>114</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E118" s="12" t="str">
         <f t="shared" si="12"/>
@@ -26034,13 +25995,13 @@
         <v>115</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E119" s="12" t="str">
         <f t="shared" si="12"/>
@@ -26072,13 +26033,13 @@
         <v>116</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E120" s="12" t="str">
         <f t="shared" si="12"/>
@@ -26110,13 +26071,13 @@
         <v>117</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E121" s="12" t="str">
         <f t="shared" si="12"/>
@@ -26148,13 +26109,13 @@
         <v>118</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E122" s="12" t="str">
         <f t="shared" si="12"/>
@@ -26186,13 +26147,13 @@
         <v>119</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E123" s="12" t="str">
         <f t="shared" si="12"/>
@@ -26224,13 +26185,13 @@
         <v>120</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E124" s="12" t="str">
         <f t="shared" si="12"/>
@@ -26262,13 +26223,13 @@
         <v>121</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E125" s="12" t="str">
         <f t="shared" si="12"/>
@@ -26300,13 +26261,13 @@
         <v>122</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E126" s="12" t="str">
         <f t="shared" si="12"/>
@@ -26366,7 +26327,7 @@
         <v>124</v>
       </c>
       <c r="B128" s="93" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C128" s="18"/>
       <c r="D128" s="18"/>
@@ -26393,13 +26354,13 @@
         <v>125</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D129" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E129" s="12" t="str">
         <f t="shared" si="12"/>
@@ -26431,13 +26392,13 @@
         <v>126</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D130" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E130" s="12" t="str">
         <f t="shared" si="12"/>
@@ -26469,13 +26430,13 @@
         <v>127</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D131" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E131" s="12" t="str">
         <f t="shared" si="12"/>
@@ -26507,13 +26468,13 @@
         <v>128</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D132" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E132" s="12" t="str">
         <f t="shared" si="12"/>
@@ -26545,13 +26506,13 @@
         <v>129</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C133" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="D133" s="18" t="s">
         <v>273</v>
-      </c>
-      <c r="D133" s="18" t="s">
-        <v>275</v>
       </c>
       <c r="E133" s="12" t="str">
         <f t="shared" si="12"/>
@@ -26583,13 +26544,13 @@
         <v>130</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C134" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="D134" s="18" t="s">
         <v>273</v>
-      </c>
-      <c r="D134" s="18" t="s">
-        <v>275</v>
       </c>
       <c r="E134" s="12" t="str">
         <f t="shared" si="12"/>
@@ -26649,13 +26610,13 @@
         <v>132</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D136" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E136" s="12" t="str">
         <f t="shared" si="14"/>
@@ -26687,13 +26648,13 @@
         <v>133</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C137" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="D137" s="18" t="s">
         <v>273</v>
-      </c>
-      <c r="D137" s="18" t="s">
-        <v>275</v>
       </c>
       <c r="E137" s="12" t="str">
         <f t="shared" si="14"/>
@@ -26725,13 +26686,13 @@
         <v>134</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E138" s="12" t="str">
         <f t="shared" si="14"/>
@@ -26791,13 +26752,13 @@
         <v>136</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C140" s="18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D140" s="18" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E140" s="12" t="str">
         <f t="shared" si="14"/>
@@ -26829,13 +26790,13 @@
         <v>137</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C141" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="D141" s="18" t="s">
         <v>297</v>
-      </c>
-      <c r="D141" s="18" t="s">
-        <v>299</v>
       </c>
       <c r="E141" s="12" t="str">
         <f t="shared" si="14"/>
@@ -26867,13 +26828,13 @@
         <v>138</v>
       </c>
       <c r="B142" s="17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C142" s="18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D142" s="18" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E142" s="12" t="str">
         <f t="shared" si="14"/>
@@ -26905,13 +26866,13 @@
         <v>139</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C143" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="D143" s="18" t="s">
         <v>297</v>
-      </c>
-      <c r="D143" s="18" t="s">
-        <v>299</v>
       </c>
       <c r="E143" s="12" t="str">
         <f t="shared" si="14"/>
@@ -26943,13 +26904,13 @@
         <v>140</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C144" s="18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D144" s="18" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E144" s="12" t="str">
         <f t="shared" si="14"/>
@@ -26981,13 +26942,13 @@
         <v>141</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C145" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="D145" s="18" t="s">
         <v>297</v>
-      </c>
-      <c r="D145" s="18" t="s">
-        <v>299</v>
       </c>
       <c r="E145" s="12" t="str">
         <f t="shared" si="14"/>
@@ -27019,13 +26980,13 @@
         <v>142</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C146" s="18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D146" s="18" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E146" s="12" t="str">
         <f t="shared" si="14"/>
@@ -27057,13 +27018,13 @@
         <v>143</v>
       </c>
       <c r="B147" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="C147" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="C147" s="18" t="s">
+      <c r="D147" s="18" t="s">
         <v>297</v>
-      </c>
-      <c r="D147" s="18" t="s">
-        <v>299</v>
       </c>
       <c r="E147" s="12" t="str">
         <f t="shared" si="14"/>
@@ -27095,13 +27056,13 @@
         <v>144</v>
       </c>
       <c r="B148" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="D148" s="18" t="s">
         <v>296</v>
-      </c>
-      <c r="C148" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="D148" s="18" t="s">
-        <v>298</v>
       </c>
       <c r="E148" s="12" t="str">
         <f t="shared" si="14"/>
@@ -27133,10 +27094,10 @@
         <v>145</v>
       </c>
       <c r="B149" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C149" s="18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D149" s="18" t="s">
         <v>48</v>
@@ -27171,10 +27132,10 @@
         <v>146</v>
       </c>
       <c r="B150" s="17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C150" s="18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D150" s="18" t="s">
         <v>48</v>
@@ -27209,13 +27170,13 @@
         <v>147</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C151" s="18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D151" s="18" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E151" s="12" t="str">
         <f t="shared" si="14"/>
@@ -27247,10 +27208,10 @@
         <v>148</v>
       </c>
       <c r="B152" s="17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C152" s="18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D152" s="18" t="s">
         <v>48</v>
@@ -27285,10 +27246,10 @@
         <v>149</v>
       </c>
       <c r="B153" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C153" s="18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D153" s="18" t="s">
         <v>48</v>
@@ -27323,10 +27284,10 @@
         <v>150</v>
       </c>
       <c r="B154" s="17" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C154" s="18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D154" s="18" t="s">
         <v>48</v>
@@ -27361,13 +27322,13 @@
         <v>151</v>
       </c>
       <c r="B155" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C155" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="D155" s="18" t="s">
         <v>307</v>
-      </c>
-      <c r="C155" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="D155" s="18" t="s">
-        <v>309</v>
       </c>
       <c r="E155" s="12" t="str">
         <f t="shared" si="14"/>
@@ -27399,13 +27360,13 @@
         <v>152</v>
       </c>
       <c r="B156" s="17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C156" s="18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D156" s="18" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E156" s="12" t="str">
         <f t="shared" si="14"/>
@@ -27437,13 +27398,13 @@
         <v>153</v>
       </c>
       <c r="B157" s="17" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C157" s="18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D157" s="18" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E157" s="12" t="str">
         <f t="shared" si="14"/>
@@ -29706,7 +29667,7 @@
       <c r="C1" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="110" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="102" t="s">
@@ -29746,7 +29707,7 @@
       <c r="A2" s="102"/>
       <c r="B2" s="103"/>
       <c r="C2" s="103"/>
-      <c r="D2" s="109"/>
+      <c r="D2" s="111"/>
       <c r="E2" s="102"/>
       <c r="F2" s="105"/>
       <c r="G2" s="105"/>
@@ -29754,32 +29715,32 @@
       <c r="I2" s="107"/>
       <c r="J2" s="102"/>
       <c r="K2" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="L2" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="L2" s="75" t="s">
+      <c r="N2" s="75" t="s">
         <v>145</v>
       </c>
-      <c r="M2" s="75" t="s">
+      <c r="O2" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="N2" s="75" t="s">
+      <c r="P2" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="O2" s="75" t="s">
+      <c r="Q2" s="23" t="s">
         <v>148</v>
-      </c>
-      <c r="P2" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q2" s="23" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="8" customFormat="1">
       <c r="A3" s="102"/>
       <c r="B3" s="103"/>
       <c r="C3" s="103"/>
-      <c r="D3" s="109"/>
+      <c r="D3" s="111"/>
       <c r="E3" s="102"/>
       <c r="F3" s="105"/>
       <c r="G3" s="105"/>
@@ -29819,7 +29780,7 @@
       <c r="A4" s="102"/>
       <c r="B4" s="103"/>
       <c r="C4" s="104"/>
-      <c r="D4" s="110"/>
+      <c r="D4" s="112"/>
       <c r="E4" s="102"/>
       <c r="F4" s="105"/>
       <c r="G4" s="105"/>
@@ -29860,7 +29821,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C5" s="51"/>
       <c r="D5" s="51"/>
@@ -29886,7 +29847,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
@@ -29950,7 +29911,7 @@
         <v>65</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E8" s="12" t="str">
         <f t="shared" si="2"/>
@@ -29985,7 +29946,7 @@
         <v>65</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E9" s="12" t="str">
         <f t="shared" si="2"/>
@@ -30020,7 +29981,7 @@
         <v>65</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E10" s="12" t="str">
         <f t="shared" si="2"/>
@@ -30055,7 +30016,7 @@
         <v>47</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E11" s="12" t="str">
         <f t="shared" si="2"/>
@@ -30090,7 +30051,7 @@
         <v>65</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E12" s="12" t="str">
         <f t="shared" si="2"/>
@@ -31309,17 +31270,17 @@
   </sheetData>
   <autoFilter ref="C1:D49"/>
   <mergeCells count="11">
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:Q1"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:D4"/>
     <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D50:D65389">

--- a/Godlibrary/BackLog.xlsx
+++ b/Godlibrary/BackLog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hagur\Documents\GitHub\FreewheelExciter\Godlibrary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FreewheelExciter\Godlibrary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="3045" windowWidth="19230" windowHeight="12120" tabRatio="658" activeTab="1"/>
+    <workbookView xWindow="3888" yWindow="3048" windowWidth="19236" windowHeight="12120" tabRatio="658" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ(第１）" sheetId="2" r:id="rId1"/>
@@ -659,7 +659,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="314">
   <si>
     <t>担当者</t>
   </si>
@@ -1136,13 +1136,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>斎藤</t>
-    <rPh sb="0" eb="2">
-      <t>サイトウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>B</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -2738,10 +2731,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>B</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -2754,10 +2743,6 @@
     <rPh sb="0" eb="2">
       <t>チケイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>A</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -3093,6 +3078,67 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ユニット関連</t>
+    <rPh sb="4" eb="6">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>地形・武器関連</t>
+    <rPh sb="0" eb="2">
+      <t>チケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ストーリー読み込みCSV修正</t>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>テキストウィンドウ表示不具合修正</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>齋藤</t>
+    <rPh sb="0" eb="2">
+      <t>サイトウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -3881,12 +3927,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3894,6 +3934,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3906,7 +3952,7 @@
     <cellStyle name="標準_チーム編成_スプリントバックログ（第４）" xfId="2"/>
     <cellStyle name="標準_バグシート" xfId="3"/>
   </cellStyles>
-  <dxfs count="687">
+  <dxfs count="690">
     <dxf>
       <font>
         <condense val="0"/>
@@ -3944,6 +3990,27 @@
           <bgColor indexed="43"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -12117,6 +12184,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -12244,6 +12312,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -12453,6 +12522,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -14820,25 +14890,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W188"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
     <col min="2" max="2" width="27" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="8.25" style="1" customWidth="1"/>
-    <col min="5" max="6" width="6.875" style="5" customWidth="1"/>
-    <col min="7" max="8" width="6.875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="4.75" style="7" customWidth="1"/>
-    <col min="11" max="16" width="4.625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="2.875" customWidth="1"/>
-    <col min="28" max="28" width="14.25" customWidth="1"/>
-    <col min="29" max="29" width="4.75" customWidth="1"/>
-    <col min="30" max="30" width="3.75" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="6.88671875" style="5" customWidth="1"/>
+    <col min="7" max="8" width="6.88671875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="6.77734375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.77734375" style="7" customWidth="1"/>
+    <col min="11" max="16" width="4.6640625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="2.88671875" customWidth="1"/>
+    <col min="28" max="28" width="14.21875" customWidth="1"/>
+    <col min="29" max="29" width="4.77734375" customWidth="1"/>
+    <col min="30" max="30" width="3.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="8" customFormat="1" ht="15" customHeight="1">
@@ -18568,57 +18638,57 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D105:D65536">
-    <cfRule type="expression" dxfId="686" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="689" priority="1" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="685" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="688" priority="2" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="684" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="687" priority="3" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD104">
-    <cfRule type="expression" dxfId="683" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="686" priority="4" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="682" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="685" priority="5" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="681" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="684" priority="6" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="680" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="683" priority="7" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="679" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="682" priority="8" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="678" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="681" priority="9" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="677" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="680" priority="10" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="676" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="679" priority="11" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="675" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="678" priority="12" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:P65536">
-    <cfRule type="expression" dxfId="674" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="677" priority="13" stopIfTrue="1">
       <formula>$D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="673" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="676" priority="14" stopIfTrue="1">
       <formula>$D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="672" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="675" priority="15" stopIfTrue="1">
       <formula>OR($D105="終了",$D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18634,32 +18704,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.75" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.75" style="25" customWidth="1"/>
-    <col min="13" max="13" width="5.75" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.75" customWidth="1"/>
-    <col min="27" max="27" width="3.75" customWidth="1"/>
-    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.77734375" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.77734375" style="25" customWidth="1"/>
+    <col min="13" max="13" width="5.77734375" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.77734375" customWidth="1"/>
+    <col min="27" max="27" width="3.77734375" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="8" customFormat="1" ht="15" customHeight="1">
@@ -18667,12 +18737,12 @@
         <v>1</v>
       </c>
       <c r="B1" s="102" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C1" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="108" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="102" t="s">
@@ -18696,8 +18766,8 @@
       <c r="K1" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="108"/>
-      <c r="M1" s="109"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="112"/>
       <c r="N1" s="74"/>
       <c r="O1" s="74"/>
       <c r="P1" s="74"/>
@@ -18712,7 +18782,7 @@
       <c r="A2" s="102"/>
       <c r="B2" s="103"/>
       <c r="C2" s="103"/>
-      <c r="D2" s="111"/>
+      <c r="D2" s="109"/>
       <c r="E2" s="102"/>
       <c r="F2" s="105"/>
       <c r="G2" s="105"/>
@@ -18723,17 +18793,17 @@
         <v>44</v>
       </c>
       <c r="L2" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="M2" s="23" t="s">
         <v>171</v>
-      </c>
-      <c r="M2" s="23" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="8" customFormat="1">
       <c r="A3" s="102"/>
       <c r="B3" s="103"/>
       <c r="C3" s="103"/>
-      <c r="D3" s="111"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="102"/>
       <c r="F3" s="105"/>
       <c r="G3" s="105"/>
@@ -18757,7 +18827,7 @@
       <c r="A4" s="102"/>
       <c r="B4" s="103"/>
       <c r="C4" s="104"/>
-      <c r="D4" s="112"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="102"/>
       <c r="F4" s="105"/>
       <c r="G4" s="105"/>
@@ -18804,7 +18874,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="96" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="87"/>
@@ -18826,7 +18896,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="93" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="87"/>
@@ -18845,13 +18915,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>47</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" s="12" t="str">
         <f ca="1">IF(ISBLANK($B8),"",IF(ISBLANK($G8),"未着手",IF($J8=0,"完了","作業中")))</f>
@@ -18886,13 +18956,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E9" s="88" t="str">
         <f ca="1">IF(ISBLANK($B9),"",IF(ISBLANK($G9),"未着手",IF($J9=0,"完了","作業中")))</f>
@@ -18966,7 +19036,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="93" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="87"/>
       <c r="D11" s="87"/>
@@ -18988,13 +19058,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="95" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C12" s="87" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D12" s="87" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" s="88" t="str">
         <f ca="1">IF(ISBLANK($B12),"",IF(ISBLANK($G12),"未着手",IF('スプリントバックログ(第3)'!$J61=0,"完了","作業中")))</f>
@@ -19029,13 +19099,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="C13" s="87" t="s">
+      <c r="D13" s="87" t="s">
         <v>176</v>
-      </c>
-      <c r="D13" s="87" t="s">
-        <v>177</v>
       </c>
       <c r="E13" s="88" t="str">
         <f ca="1">IF(ISBLANK($B13),"",IF(ISBLANK($G13),"未着手",IF('スプリントバックログ(第3)'!$J62=0,"完了","作業中")))</f>
@@ -19070,13 +19140,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E14" s="12" t="str">
         <f ca="1">IF(ISBLANK($B14),"",IF(ISBLANK($G14),"未着手",IF($J14=0,"完了","作業中")))</f>
@@ -19111,7 +19181,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="92" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -19133,13 +19203,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>63</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E16" s="12" t="str">
         <f ca="1">IF(ISBLANK($B16),"",IF(ISBLANK($G16),"未着手",IF($J16=0,"完了","作業中")))</f>
@@ -19172,7 +19242,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>63</v>
@@ -19211,7 +19281,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>63</v>
@@ -19250,7 +19320,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>47</v>
@@ -19291,7 +19361,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="92" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -19313,7 +19383,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>63</v>
@@ -19352,13 +19422,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>63</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" s="12" t="str">
         <f ca="1">IF(ISBLANK($B22),"",IF(ISBLANK($G22),"未着手",IF($J22=0,"完了","作業中")))</f>
@@ -19391,7 +19461,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C23" s="44"/>
       <c r="D23" s="44"/>
@@ -19410,10 +19480,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>69</v>
@@ -19449,13 +19519,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>201</v>
-      </c>
       <c r="D25" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E25" s="12" t="str">
         <f ca="1">IF(ISBLANK($B25),"",IF(ISBLANK($G25),"未着手",IF($J25=0,"完了","作業中")))</f>
@@ -19488,13 +19558,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>219</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>220</v>
       </c>
       <c r="E26" s="12" t="str">
         <f ca="1">IF(ISBLANK($B26),"",IF(ISBLANK($G26),"未着手",IF($J26=0,"完了","作業中")))</f>
@@ -19529,7 +19599,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="67" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C27" s="58"/>
       <c r="D27" s="58"/>
@@ -19548,13 +19618,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>116</v>
-      </c>
       <c r="D28" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E28" s="12" t="str">
         <f ca="1">IF(ISBLANK($B28),"",IF(ISBLANK($G28),"未着手",IF($J28=0,"完了","作業中")))</f>
@@ -19589,13 +19659,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>118</v>
-      </c>
       <c r="D29" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" s="12" t="str">
         <f ca="1">IF(ISBLANK($B29),"",IF(ISBLANK($G29),"未着手",IF($J29=0,"完了","作業中")))</f>
@@ -19630,13 +19700,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>68</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E30" s="12" t="str">
         <f ca="1">IF(ISBLANK($B30),"",IF(ISBLANK($G30),"未着手",IF($J30=0,"完了","作業中")))</f>
@@ -19671,7 +19741,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C31" s="69"/>
       <c r="D31" s="69"/>
@@ -19733,13 +19803,13 @@
         <v>30</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>66</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E34" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -19774,13 +19844,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>66</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E35" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -19815,13 +19885,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>66</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E36" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -19858,13 +19928,13 @@
         <v>33</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>66</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E37" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -19899,13 +19969,13 @@
         <v>34</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>66</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E38" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -19958,13 +20028,13 @@
         <v>35</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>66</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E39" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -20021,13 +20091,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E40" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -20055,7 +20125,7 @@
       </c>
       <c r="M40" s="22"/>
       <c r="O40" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P40" s="10">
         <f t="shared" ref="P40:P44" si="3">SUMIF($C$5:$C$44,O40,$H$5:$H$44)</f>
@@ -20082,13 +20152,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C41" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="D41" s="18" t="s">
         <v>205</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>206</v>
       </c>
       <c r="E41" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -20143,13 +20213,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="C42" s="18" t="s">
-        <v>205</v>
-      </c>
       <c r="D42" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E42" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -20204,7 +20274,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>47</v>
@@ -20266,7 +20336,7 @@
         <v>40</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>47</v>
@@ -20301,7 +20371,7 @@
       </c>
       <c r="M44" s="22"/>
       <c r="O44" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P44" s="10">
         <f t="shared" si="3"/>
@@ -20470,874 +20540,874 @@
   </sheetData>
   <autoFilter ref="C1:D125"/>
   <mergeCells count="11">
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:M1"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:D4"/>
     <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D45:D65416">
-    <cfRule type="expression" dxfId="671" priority="307" stopIfTrue="1">
+    <cfRule type="expression" dxfId="674" priority="307" stopIfTrue="1">
       <formula>D45="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="670" priority="308" stopIfTrue="1">
+    <cfRule type="expression" dxfId="673" priority="308" stopIfTrue="1">
       <formula>D45="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="669" priority="309" stopIfTrue="1">
+    <cfRule type="expression" dxfId="672" priority="309" stopIfTrue="1">
       <formula>OR(D45="終了",D45="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO5:XFD6">
-    <cfRule type="expression" dxfId="668" priority="310" stopIfTrue="1">
+    <cfRule type="expression" dxfId="671" priority="310" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="667" priority="311" stopIfTrue="1">
+    <cfRule type="expression" dxfId="670" priority="311" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="666" priority="312" stopIfTrue="1">
+    <cfRule type="expression" dxfId="669" priority="312" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B65416">
-    <cfRule type="expression" dxfId="665" priority="313" stopIfTrue="1">
+    <cfRule type="expression" dxfId="668" priority="313" stopIfTrue="1">
       <formula>D45="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="664" priority="314" stopIfTrue="1">
+    <cfRule type="expression" dxfId="667" priority="314" stopIfTrue="1">
       <formula>D45="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="663" priority="315" stopIfTrue="1">
+    <cfRule type="expression" dxfId="666" priority="315" stopIfTrue="1">
       <formula>OR(D45="終了",D45="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C65416">
-    <cfRule type="expression" dxfId="662" priority="316" stopIfTrue="1">
+    <cfRule type="expression" dxfId="665" priority="316" stopIfTrue="1">
       <formula>D45="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="661" priority="317" stopIfTrue="1">
+    <cfRule type="expression" dxfId="664" priority="317" stopIfTrue="1">
       <formula>D45="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="660" priority="318" stopIfTrue="1">
+    <cfRule type="expression" dxfId="663" priority="318" stopIfTrue="1">
       <formula>OR(D45="終了",D45="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45:M65416">
-    <cfRule type="expression" dxfId="659" priority="319" stopIfTrue="1">
+    <cfRule type="expression" dxfId="662" priority="319" stopIfTrue="1">
       <formula>$D45="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="658" priority="320" stopIfTrue="1">
+    <cfRule type="expression" dxfId="661" priority="320" stopIfTrue="1">
       <formula>$D45="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="657" priority="321" stopIfTrue="1">
+    <cfRule type="expression" dxfId="660" priority="321" stopIfTrue="1">
       <formula>OR($D45="終了",$D45="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I13 B32:E34 A5:IN6 B35:C35 E35 F32:I35 C7:M7 B14:I14 C15:I15 K20 B8:I11 K8:K15 M8:M13 L8:L14 K16:M19 B16:I20 J8:J20 B27:I31 B36:I42 A7:A44 B21:M26 F43:I44 J27:M44">
-    <cfRule type="expression" dxfId="656" priority="187" stopIfTrue="1">
+    <cfRule type="expression" dxfId="659" priority="187" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="655" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="658" priority="188" stopIfTrue="1">
       <formula>$E5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="654" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="657" priority="189" stopIfTrue="1">
       <formula>OR($E5="終了",$E5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7:IN7">
-    <cfRule type="expression" dxfId="653" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="656" priority="193" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="652" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="655" priority="194" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="651" priority="195" stopIfTrue="1">
+    <cfRule type="expression" dxfId="654" priority="195" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:IN11">
-    <cfRule type="expression" dxfId="650" priority="199" stopIfTrue="1">
+    <cfRule type="expression" dxfId="653" priority="199" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="649" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="652" priority="200" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="648" priority="201" stopIfTrue="1">
+    <cfRule type="expression" dxfId="651" priority="201" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:IN19">
-    <cfRule type="expression" dxfId="647" priority="205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="650" priority="205" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="646" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="649" priority="206" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="645" priority="207" stopIfTrue="1">
+    <cfRule type="expression" dxfId="648" priority="207" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25:N26 AA25:IN26">
-    <cfRule type="expression" dxfId="644" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="647" priority="217" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="643" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="646" priority="218" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="642" priority="219" stopIfTrue="1">
+    <cfRule type="expression" dxfId="645" priority="219" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29:IN30 N28 AA28:IN28">
-    <cfRule type="expression" dxfId="641" priority="220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="644" priority="220" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="640" priority="221" stopIfTrue="1">
+    <cfRule type="expression" dxfId="643" priority="221" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="639" priority="222" stopIfTrue="1">
+    <cfRule type="expression" dxfId="642" priority="222" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32:IN32">
-    <cfRule type="expression" dxfId="638" priority="229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="641" priority="229" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="637" priority="230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="640" priority="230" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="636" priority="231" stopIfTrue="1">
+    <cfRule type="expression" dxfId="639" priority="231" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N65:V65 AC65:IN66 S66:T66">
-    <cfRule type="expression" dxfId="635" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="638" priority="238" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="634" priority="239" stopIfTrue="1">
+    <cfRule type="expression" dxfId="637" priority="239" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="633" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="636" priority="240" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N35:N40 Y39:IN40 S35:IH37 U38:IH38">
-    <cfRule type="expression" dxfId="632" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="635" priority="241" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="631" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="634" priority="242" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="630" priority="243" stopIfTrue="1">
+    <cfRule type="expression" dxfId="633" priority="243" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N42:N47 U42:IN47 N48:IN49">
-    <cfRule type="expression" dxfId="629" priority="244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="632" priority="244" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="628" priority="245" stopIfTrue="1">
+    <cfRule type="expression" dxfId="631" priority="245" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="627" priority="246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="630" priority="246" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41 U41:IN41">
-    <cfRule type="expression" dxfId="626" priority="247" stopIfTrue="1">
+    <cfRule type="expression" dxfId="629" priority="247" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="625" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="628" priority="248" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="624" priority="249" stopIfTrue="1">
+    <cfRule type="expression" dxfId="627" priority="249" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50:IN52">
-    <cfRule type="expression" dxfId="623" priority="253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="626" priority="253" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="622" priority="254" stopIfTrue="1">
+    <cfRule type="expression" dxfId="625" priority="254" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="621" priority="255" stopIfTrue="1">
+    <cfRule type="expression" dxfId="624" priority="255" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N62:IN64">
-    <cfRule type="expression" dxfId="620" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="623" priority="265" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="619" priority="266" stopIfTrue="1">
+    <cfRule type="expression" dxfId="622" priority="266" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="618" priority="267" stopIfTrue="1">
+    <cfRule type="expression" dxfId="621" priority="267" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC69:IN69 S69:T69">
-    <cfRule type="expression" dxfId="617" priority="271" stopIfTrue="1">
+    <cfRule type="expression" dxfId="620" priority="271" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="616" priority="272" stopIfTrue="1">
+    <cfRule type="expression" dxfId="619" priority="272" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="615" priority="273" stopIfTrue="1">
+    <cfRule type="expression" dxfId="618" priority="273" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC71:IN71 S71:T71">
-    <cfRule type="expression" dxfId="614" priority="277" stopIfTrue="1">
+    <cfRule type="expression" dxfId="617" priority="277" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="613" priority="278" stopIfTrue="1">
+    <cfRule type="expression" dxfId="616" priority="278" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="612" priority="279" stopIfTrue="1">
+    <cfRule type="expression" dxfId="615" priority="279" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N73:IN73">
-    <cfRule type="expression" dxfId="611" priority="280" stopIfTrue="1">
+    <cfRule type="expression" dxfId="614" priority="280" stopIfTrue="1">
       <formula>$E13="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="610" priority="281" stopIfTrue="1">
+    <cfRule type="expression" dxfId="613" priority="281" stopIfTrue="1">
       <formula>$E13="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="609" priority="282" stopIfTrue="1">
+    <cfRule type="expression" dxfId="612" priority="282" stopIfTrue="1">
       <formula>OR($E13="終了",$E13="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q72:IN72">
-    <cfRule type="expression" dxfId="608" priority="289" stopIfTrue="1">
+    <cfRule type="expression" dxfId="611" priority="289" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="607" priority="290" stopIfTrue="1">
+    <cfRule type="expression" dxfId="610" priority="290" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="606" priority="291" stopIfTrue="1">
+    <cfRule type="expression" dxfId="609" priority="291" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N74:IN76">
-    <cfRule type="expression" dxfId="605" priority="295" stopIfTrue="1">
+    <cfRule type="expression" dxfId="608" priority="295" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="604" priority="296" stopIfTrue="1">
+    <cfRule type="expression" dxfId="607" priority="296" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="603" priority="297" stopIfTrue="1">
+    <cfRule type="expression" dxfId="606" priority="297" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N80:IN80">
-    <cfRule type="expression" dxfId="602" priority="298" stopIfTrue="1">
+    <cfRule type="expression" dxfId="605" priority="298" stopIfTrue="1">
       <formula>$E21="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="601" priority="299" stopIfTrue="1">
+    <cfRule type="expression" dxfId="604" priority="299" stopIfTrue="1">
       <formula>$E21="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="600" priority="300" stopIfTrue="1">
+    <cfRule type="expression" dxfId="603" priority="300" stopIfTrue="1">
       <formula>OR($E21="終了",$E21="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N81:IN83">
-    <cfRule type="expression" dxfId="599" priority="304" stopIfTrue="1">
+    <cfRule type="expression" dxfId="602" priority="304" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="598" priority="305" stopIfTrue="1">
+    <cfRule type="expression" dxfId="601" priority="305" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="597" priority="306" stopIfTrue="1">
+    <cfRule type="expression" dxfId="600" priority="306" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="596" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="599" priority="67" stopIfTrue="1">
       <formula>$E35="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="595" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="598" priority="68" stopIfTrue="1">
       <formula>$E35="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="594" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="597" priority="69" stopIfTrue="1">
       <formula>OR($E35="終了",$E35="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:IN12">
-    <cfRule type="expression" dxfId="593" priority="352" stopIfTrue="1">
+    <cfRule type="expression" dxfId="596" priority="352" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="592" priority="353" stopIfTrue="1">
+    <cfRule type="expression" dxfId="595" priority="353" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="591" priority="354" stopIfTrue="1">
+    <cfRule type="expression" dxfId="594" priority="354" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20:IN20">
-    <cfRule type="expression" dxfId="590" priority="379" stopIfTrue="1">
+    <cfRule type="expression" dxfId="593" priority="379" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="589" priority="380" stopIfTrue="1">
+    <cfRule type="expression" dxfId="592" priority="380" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="588" priority="381" stopIfTrue="1">
+    <cfRule type="expression" dxfId="591" priority="381" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N78:IN78">
-    <cfRule type="expression" dxfId="587" priority="523" stopIfTrue="1">
+    <cfRule type="expression" dxfId="590" priority="523" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="586" priority="524" stopIfTrue="1">
+    <cfRule type="expression" dxfId="589" priority="524" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="585" priority="525" stopIfTrue="1">
+    <cfRule type="expression" dxfId="588" priority="525" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO18:XFD18">
-    <cfRule type="expression" dxfId="584" priority="1510" stopIfTrue="1">
+    <cfRule type="expression" dxfId="587" priority="1510" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="583" priority="1511" stopIfTrue="1">
+    <cfRule type="expression" dxfId="586" priority="1511" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="582" priority="1512" stopIfTrue="1">
+    <cfRule type="expression" dxfId="585" priority="1512" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31:IN31">
-    <cfRule type="expression" dxfId="581" priority="1534" stopIfTrue="1">
+    <cfRule type="expression" dxfId="584" priority="1534" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="580" priority="1535" stopIfTrue="1">
+    <cfRule type="expression" dxfId="583" priority="1535" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="579" priority="1536" stopIfTrue="1">
+    <cfRule type="expression" dxfId="582" priority="1536" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N53:IN54">
-    <cfRule type="expression" dxfId="578" priority="1570" stopIfTrue="1">
+    <cfRule type="expression" dxfId="581" priority="1570" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="577" priority="1571" stopIfTrue="1">
+    <cfRule type="expression" dxfId="580" priority="1571" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="576" priority="1572" stopIfTrue="1">
+    <cfRule type="expression" dxfId="579" priority="1572" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO23:XFD26 IO13:XFD14">
-    <cfRule type="expression" dxfId="575" priority="1618" stopIfTrue="1">
+    <cfRule type="expression" dxfId="578" priority="1618" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="574" priority="1619" stopIfTrue="1">
+    <cfRule type="expression" dxfId="577" priority="1619" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="573" priority="1620" stopIfTrue="1">
+    <cfRule type="expression" dxfId="576" priority="1620" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO32:XFD32">
-    <cfRule type="expression" dxfId="572" priority="1801" stopIfTrue="1">
+    <cfRule type="expression" dxfId="575" priority="1801" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="571" priority="1802" stopIfTrue="1">
+    <cfRule type="expression" dxfId="574" priority="1802" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="570" priority="1803" stopIfTrue="1">
+    <cfRule type="expression" dxfId="573" priority="1803" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N60:IN60">
-    <cfRule type="expression" dxfId="569" priority="1816" stopIfTrue="1">
+    <cfRule type="expression" dxfId="572" priority="1816" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="568" priority="1817" stopIfTrue="1">
+    <cfRule type="expression" dxfId="571" priority="1817" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="567" priority="1818" stopIfTrue="1">
+    <cfRule type="expression" dxfId="570" priority="1818" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO46:XFD48">
-    <cfRule type="expression" dxfId="566" priority="1870" stopIfTrue="1">
+    <cfRule type="expression" dxfId="569" priority="1870" stopIfTrue="1">
       <formula>$D16="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="565" priority="1871" stopIfTrue="1">
+    <cfRule type="expression" dxfId="568" priority="1871" stopIfTrue="1">
       <formula>$D16="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="564" priority="1872" stopIfTrue="1">
+    <cfRule type="expression" dxfId="567" priority="1872" stopIfTrue="1">
       <formula>OR($D16="終了",$D16="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO77:XFD77 IO72:XFD72 IO20:XFD20">
-    <cfRule type="expression" dxfId="563" priority="1930" stopIfTrue="1">
+    <cfRule type="expression" dxfId="566" priority="1930" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="562" priority="1931" stopIfTrue="1">
+    <cfRule type="expression" dxfId="565" priority="1931" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="561" priority="1932" stopIfTrue="1">
+    <cfRule type="expression" dxfId="564" priority="1932" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:IN21 AA22:IN22 N22">
-    <cfRule type="expression" dxfId="560" priority="2350" stopIfTrue="1">
+    <cfRule type="expression" dxfId="563" priority="2350" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="559" priority="2351" stopIfTrue="1">
+    <cfRule type="expression" dxfId="562" priority="2351" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="558" priority="2352" stopIfTrue="1">
+    <cfRule type="expression" dxfId="561" priority="2352" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S67:T67 AC67:IN67 N61:IN61">
-    <cfRule type="expression" dxfId="557" priority="2446" stopIfTrue="1">
+    <cfRule type="expression" dxfId="560" priority="2446" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="556" priority="2447" stopIfTrue="1">
+    <cfRule type="expression" dxfId="559" priority="2447" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="555" priority="2448" stopIfTrue="1">
+    <cfRule type="expression" dxfId="558" priority="2448" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="II34:XFD34">
-    <cfRule type="expression" dxfId="554" priority="2470" stopIfTrue="1">
+    <cfRule type="expression" dxfId="557" priority="2470" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="553" priority="2471" stopIfTrue="1">
+    <cfRule type="expression" dxfId="556" priority="2471" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="552" priority="2472" stopIfTrue="1">
+    <cfRule type="expression" dxfId="555" priority="2472" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO42:XFD44">
-    <cfRule type="expression" dxfId="551" priority="2518" stopIfTrue="1">
+    <cfRule type="expression" dxfId="554" priority="2518" stopIfTrue="1">
       <formula>$D11="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="550" priority="2519" stopIfTrue="1">
+    <cfRule type="expression" dxfId="553" priority="2519" stopIfTrue="1">
       <formula>$D11="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="549" priority="2520" stopIfTrue="1">
+    <cfRule type="expression" dxfId="552" priority="2520" stopIfTrue="1">
       <formula>OR($D11="終了",$D11="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO41:XFD41">
-    <cfRule type="expression" dxfId="548" priority="2521" stopIfTrue="1">
+    <cfRule type="expression" dxfId="551" priority="2521" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="547" priority="2522" stopIfTrue="1">
+    <cfRule type="expression" dxfId="550" priority="2522" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="546" priority="2523" stopIfTrue="1">
+    <cfRule type="expression" dxfId="549" priority="2523" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:H13">
-    <cfRule type="expression" dxfId="545" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="548" priority="13" stopIfTrue="1">
       <formula>$E12="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="544" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="547" priority="14" stopIfTrue="1">
       <formula>$E12="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="543" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="546" priority="15" stopIfTrue="1">
       <formula>OR($E12="終了",$E12="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N55:IN59">
-    <cfRule type="expression" dxfId="542" priority="2701" stopIfTrue="1">
+    <cfRule type="expression" dxfId="545" priority="2701" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="541" priority="2702" stopIfTrue="1">
+    <cfRule type="expression" dxfId="544" priority="2702" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="540" priority="2703" stopIfTrue="1">
+    <cfRule type="expression" dxfId="543" priority="2703" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO27:XFD31">
-    <cfRule type="expression" dxfId="539" priority="2704" stopIfTrue="1">
+    <cfRule type="expression" dxfId="542" priority="2704" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="538" priority="2705" stopIfTrue="1">
+    <cfRule type="expression" dxfId="541" priority="2705" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="537" priority="2706" stopIfTrue="1">
+    <cfRule type="expression" dxfId="540" priority="2706" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO33:XFD33">
-    <cfRule type="expression" dxfId="536" priority="2746" stopIfTrue="1">
+    <cfRule type="expression" dxfId="539" priority="2746" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="535" priority="2747" stopIfTrue="1">
+    <cfRule type="expression" dxfId="538" priority="2747" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="534" priority="2748" stopIfTrue="1">
+    <cfRule type="expression" dxfId="537" priority="2748" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC70:IN70 S70:T70">
-    <cfRule type="expression" dxfId="533" priority="2773" stopIfTrue="1">
+    <cfRule type="expression" dxfId="536" priority="2773" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="2774" stopIfTrue="1">
+    <cfRule type="expression" dxfId="535" priority="2774" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="531" priority="2775" stopIfTrue="1">
+    <cfRule type="expression" dxfId="534" priority="2775" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="II35:XFD38">
-    <cfRule type="expression" dxfId="530" priority="2797" stopIfTrue="1">
+    <cfRule type="expression" dxfId="533" priority="2797" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="529" priority="2798" stopIfTrue="1">
+    <cfRule type="expression" dxfId="532" priority="2798" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="528" priority="2799" stopIfTrue="1">
+    <cfRule type="expression" dxfId="531" priority="2799" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO39:XFD39">
-    <cfRule type="expression" dxfId="527" priority="2899" stopIfTrue="1">
+    <cfRule type="expression" dxfId="530" priority="2899" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="526" priority="2900" stopIfTrue="1">
+    <cfRule type="expression" dxfId="529" priority="2900" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="525" priority="2901" stopIfTrue="1">
+    <cfRule type="expression" dxfId="528" priority="2901" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S68:T68 AC68:IN68">
-    <cfRule type="expression" dxfId="524" priority="2929" stopIfTrue="1">
+    <cfRule type="expression" dxfId="527" priority="2929" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="523" priority="2930" stopIfTrue="1">
+    <cfRule type="expression" dxfId="526" priority="2930" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="522" priority="2931" stopIfTrue="1">
+    <cfRule type="expression" dxfId="525" priority="2931" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO40:XFD40 IO54:XFD54">
-    <cfRule type="expression" dxfId="521" priority="2938" stopIfTrue="1">
+    <cfRule type="expression" dxfId="524" priority="2938" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="2939" stopIfTrue="1">
+    <cfRule type="expression" dxfId="523" priority="2939" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="519" priority="2940" stopIfTrue="1">
+    <cfRule type="expression" dxfId="522" priority="2940" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO55:XFD55 IO57:XFD59">
-    <cfRule type="expression" dxfId="518" priority="2980" stopIfTrue="1">
+    <cfRule type="expression" dxfId="521" priority="2980" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="517" priority="2981" stopIfTrue="1">
+    <cfRule type="expression" dxfId="520" priority="2981" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="516" priority="2982" stopIfTrue="1">
+    <cfRule type="expression" dxfId="519" priority="2982" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO65:XFD65">
-    <cfRule type="expression" dxfId="515" priority="3010" stopIfTrue="1">
+    <cfRule type="expression" dxfId="518" priority="3010" stopIfTrue="1">
       <formula>$D23="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="514" priority="3011" stopIfTrue="1">
+    <cfRule type="expression" dxfId="517" priority="3011" stopIfTrue="1">
       <formula>$D23="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="513" priority="3012" stopIfTrue="1">
+    <cfRule type="expression" dxfId="516" priority="3012" stopIfTrue="1">
       <formula>OR($D23="終了",$D23="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO61:XFD61">
-    <cfRule type="expression" dxfId="512" priority="3013" stopIfTrue="1">
+    <cfRule type="expression" dxfId="515" priority="3013" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="511" priority="3014" stopIfTrue="1">
+    <cfRule type="expression" dxfId="514" priority="3014" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="510" priority="3015" stopIfTrue="1">
+    <cfRule type="expression" dxfId="513" priority="3015" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="509" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="512" priority="10" stopIfTrue="1">
       <formula>$E7="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="508" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="511" priority="11" stopIfTrue="1">
       <formula>$E7="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="507" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="510" priority="12" stopIfTrue="1">
       <formula>OR($E7="終了",$E7="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34:IH34">
-    <cfRule type="expression" dxfId="506" priority="3127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="509" priority="3127" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="505" priority="3128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="508" priority="3128" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="504" priority="3129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="507" priority="3129" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO21:XFD21">
-    <cfRule type="expression" dxfId="503" priority="3142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="506" priority="3142" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="502" priority="3143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="505" priority="3143" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="501" priority="3144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="504" priority="3144" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO22:XFD22">
-    <cfRule type="expression" dxfId="500" priority="3145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="503" priority="3145" stopIfTrue="1">
       <formula>$D10="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="499" priority="3146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="502" priority="3146" stopIfTrue="1">
       <formula>$D10="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="3147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="501" priority="3147" stopIfTrue="1">
       <formula>OR($D10="終了",$D10="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20:M20 L15:M15 M14 N8:IN9">
-    <cfRule type="expression" dxfId="497" priority="3163" stopIfTrue="1">
+    <cfRule type="expression" dxfId="500" priority="3163" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="3164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="499" priority="3164" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="495" priority="3165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="498" priority="3165" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N77:IN77">
-    <cfRule type="expression" dxfId="494" priority="3181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="497" priority="3181" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="493" priority="3182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="496" priority="3182" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="492" priority="3183" stopIfTrue="1">
+    <cfRule type="expression" dxfId="495" priority="3183" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO60:XFD60">
-    <cfRule type="expression" dxfId="491" priority="3184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="494" priority="3184" stopIfTrue="1">
       <formula>$D14="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="3185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="493" priority="3185" stopIfTrue="1">
       <formula>$D14="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="489" priority="3186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="492" priority="3186" stopIfTrue="1">
       <formula>OR($D14="終了",$D14="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO45:XFD45">
-    <cfRule type="expression" dxfId="488" priority="3190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="491" priority="3190" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="487" priority="3191" stopIfTrue="1">
+    <cfRule type="expression" dxfId="490" priority="3191" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="3192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="489" priority="3192" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO50:XFD50">
-    <cfRule type="expression" dxfId="485" priority="3259" stopIfTrue="1">
+    <cfRule type="expression" dxfId="488" priority="3259" stopIfTrue="1">
       <formula>$D21="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="3260" stopIfTrue="1">
+    <cfRule type="expression" dxfId="487" priority="3260" stopIfTrue="1">
       <formula>$D21="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="3261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="486" priority="3261" stopIfTrue="1">
       <formula>OR($D21="終了",$D21="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="482" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="485" priority="4" stopIfTrue="1">
       <formula>$E15="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="481" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="484" priority="5" stopIfTrue="1">
       <formula>$E15="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="480" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="483" priority="6" stopIfTrue="1">
       <formula>OR($E15="終了",$E15="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO51:XFD52">
-    <cfRule type="expression" dxfId="479" priority="3307" stopIfTrue="1">
+    <cfRule type="expression" dxfId="482" priority="3307" stopIfTrue="1">
       <formula>$D8="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="3308" stopIfTrue="1">
+    <cfRule type="expression" dxfId="481" priority="3308" stopIfTrue="1">
       <formula>$D8="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="477" priority="3309" stopIfTrue="1">
+    <cfRule type="expression" dxfId="480" priority="3309" stopIfTrue="1">
       <formula>OR($D8="終了",$D8="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO64:XFD64">
-    <cfRule type="expression" dxfId="476" priority="3352" stopIfTrue="1">
+    <cfRule type="expression" dxfId="479" priority="3352" stopIfTrue="1">
       <formula>$D22="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="475" priority="3353" stopIfTrue="1">
+    <cfRule type="expression" dxfId="478" priority="3353" stopIfTrue="1">
       <formula>$D22="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="474" priority="3354" stopIfTrue="1">
+    <cfRule type="expression" dxfId="477" priority="3354" stopIfTrue="1">
       <formula>OR($D22="終了",$D22="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO76:XFD76">
-    <cfRule type="expression" dxfId="473" priority="3406" stopIfTrue="1">
+    <cfRule type="expression" dxfId="476" priority="3406" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="472" priority="3407" stopIfTrue="1">
+    <cfRule type="expression" dxfId="475" priority="3407" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="471" priority="3408" stopIfTrue="1">
+    <cfRule type="expression" dxfId="474" priority="3408" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO56:XFD56">
-    <cfRule type="expression" dxfId="470" priority="3445" stopIfTrue="1">
+    <cfRule type="expression" dxfId="473" priority="3445" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="469" priority="3446" stopIfTrue="1">
+    <cfRule type="expression" dxfId="472" priority="3446" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="468" priority="3447" stopIfTrue="1">
+    <cfRule type="expression" dxfId="471" priority="3447" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO73:XFD75">
-    <cfRule type="expression" dxfId="467" priority="3478" stopIfTrue="1">
+    <cfRule type="expression" dxfId="470" priority="3478" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="466" priority="3479" stopIfTrue="1">
+    <cfRule type="expression" dxfId="469" priority="3479" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="465" priority="3480" stopIfTrue="1">
+    <cfRule type="expression" dxfId="468" priority="3480" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO66:XFD71">
-    <cfRule type="expression" dxfId="464" priority="3505" stopIfTrue="1">
+    <cfRule type="expression" dxfId="467" priority="3505" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="463" priority="3506" stopIfTrue="1">
+    <cfRule type="expression" dxfId="466" priority="3506" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="462" priority="3507" stopIfTrue="1">
+    <cfRule type="expression" dxfId="465" priority="3507" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27 AA27:IN27">
-    <cfRule type="expression" dxfId="461" priority="3637" stopIfTrue="1">
+    <cfRule type="expression" dxfId="464" priority="3637" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="3638" stopIfTrue="1">
+    <cfRule type="expression" dxfId="463" priority="3638" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="459" priority="3639" stopIfTrue="1">
+    <cfRule type="expression" dxfId="462" priority="3639" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13:IN13">
-    <cfRule type="expression" dxfId="458" priority="3643" stopIfTrue="1">
+    <cfRule type="expression" dxfId="461" priority="3643" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="457" priority="3644" stopIfTrue="1">
+    <cfRule type="expression" dxfId="460" priority="3644" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="3645" stopIfTrue="1">
+    <cfRule type="expression" dxfId="459" priority="3645" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO7:XFD11">
-    <cfRule type="expression" dxfId="455" priority="3658" stopIfTrue="1">
+    <cfRule type="expression" dxfId="458" priority="3658" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="454" priority="3659" stopIfTrue="1">
+    <cfRule type="expression" dxfId="457" priority="3659" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="453" priority="3660" stopIfTrue="1">
+    <cfRule type="expression" dxfId="456" priority="3660" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA23:IN24 N23:N24">
-    <cfRule type="expression" dxfId="452" priority="3661" stopIfTrue="1">
+    <cfRule type="expression" dxfId="455" priority="3661" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="451" priority="3662" stopIfTrue="1">
+    <cfRule type="expression" dxfId="454" priority="3662" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="3663" stopIfTrue="1">
+    <cfRule type="expression" dxfId="453" priority="3663" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO15:XFD17">
-    <cfRule type="expression" dxfId="449" priority="3667" stopIfTrue="1">
+    <cfRule type="expression" dxfId="452" priority="3667" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="3668" stopIfTrue="1">
+    <cfRule type="expression" dxfId="451" priority="3668" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="447" priority="3669" stopIfTrue="1">
+    <cfRule type="expression" dxfId="450" priority="3669" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO62:XFD62">
-    <cfRule type="expression" dxfId="446" priority="3706" stopIfTrue="1">
+    <cfRule type="expression" dxfId="449" priority="3706" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="445" priority="3707" stopIfTrue="1">
+    <cfRule type="expression" dxfId="448" priority="3707" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="444" priority="3708" stopIfTrue="1">
+    <cfRule type="expression" dxfId="447" priority="3708" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO63:XFD63">
-    <cfRule type="expression" dxfId="443" priority="3709" stopIfTrue="1">
+    <cfRule type="expression" dxfId="446" priority="3709" stopIfTrue="1">
       <formula>$D19="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="3710" stopIfTrue="1">
+    <cfRule type="expression" dxfId="445" priority="3710" stopIfTrue="1">
       <formula>$D19="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="441" priority="3711" stopIfTrue="1">
+    <cfRule type="expression" dxfId="444" priority="3711" stopIfTrue="1">
       <formula>OR($D19="終了",$D19="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:E44">
-    <cfRule type="expression" dxfId="440" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="443" priority="1" stopIfTrue="1">
       <formula>$E43="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="439" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="442" priority="2" stopIfTrue="1">
       <formula>$E43="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="441" priority="3" stopIfTrue="1">
       <formula>OR($E43="終了",$E43="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21588,38 +21658,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y200"/>
+  <dimension ref="A1:Y202"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.75" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.75" style="25" customWidth="1"/>
-    <col min="13" max="13" width="5.75" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.875" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.77734375" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.77734375" style="25" customWidth="1"/>
+    <col min="13" max="13" width="5.77734375" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.88671875" customWidth="1"/>
     <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.75" customWidth="1"/>
-    <col min="28" max="28" width="3.75" customWidth="1"/>
-    <col min="29" max="29" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.77734375" customWidth="1"/>
+    <col min="28" max="28" width="3.77734375" customWidth="1"/>
+    <col min="29" max="29" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="8" customFormat="1" ht="15" customHeight="1">
@@ -21630,7 +21700,7 @@
       <c r="C1" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="108" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="102" t="s">
@@ -21654,13 +21724,13 @@
       <c r="K1" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="109"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="112"/>
       <c r="S1" s="74"/>
       <c r="T1" s="74"/>
       <c r="U1" s="74"/>
@@ -21671,7 +21741,7 @@
       <c r="A2" s="102"/>
       <c r="B2" s="103"/>
       <c r="C2" s="103"/>
-      <c r="D2" s="111"/>
+      <c r="D2" s="109"/>
       <c r="E2" s="102"/>
       <c r="F2" s="105"/>
       <c r="G2" s="105"/>
@@ -21679,35 +21749,35 @@
       <c r="I2" s="107"/>
       <c r="J2" s="102"/>
       <c r="K2" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="L2" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="L2" s="75" t="s">
-        <v>139</v>
-      </c>
       <c r="M2" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="N2" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="N2" s="75" t="s">
+      <c r="O2" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="O2" s="75" t="s">
+      <c r="P2" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="Q2" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="R2" s="23" t="s">
         <v>133</v>
-      </c>
-      <c r="Q2" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="R2" s="23" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="8" customFormat="1">
       <c r="A3" s="102"/>
       <c r="B3" s="103"/>
       <c r="C3" s="103"/>
-      <c r="D3" s="111"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="102"/>
       <c r="F3" s="105"/>
       <c r="G3" s="105"/>
@@ -21751,7 +21821,7 @@
       <c r="A4" s="102"/>
       <c r="B4" s="103"/>
       <c r="C4" s="104"/>
-      <c r="D4" s="112"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="102"/>
       <c r="F4" s="105"/>
       <c r="G4" s="105"/>
@@ -21796,7 +21866,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="51"/>
       <c r="D5" s="51"/>
@@ -21823,7 +21893,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
@@ -21847,7 +21917,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="93" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="87"/>
@@ -22074,7 +22144,7 @@
         <v>未着手</v>
       </c>
       <c r="F13" s="4">
-        <v>42738</v>
+        <v>43103</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="19">
@@ -22112,7 +22182,7 @@
         <v>未着手</v>
       </c>
       <c r="F14" s="4">
-        <v>42738</v>
+        <v>43103</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="19">
@@ -22150,7 +22220,7 @@
         <v>未着手</v>
       </c>
       <c r="F15" s="4">
-        <v>42738</v>
+        <v>43103</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="19">
@@ -22175,7 +22245,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="93" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -22202,17 +22272,17 @@
         <v>73</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" s="12" t="str">
         <f>IF(ISBLANK($B17),"",IF(ISBLANK($G17),"未着手",IF($J17=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F17" s="4">
-        <v>42738</v>
+        <v>43103</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="19">
@@ -22237,20 +22307,20 @@
         <v>14</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18" s="12" t="str">
         <f>IF(ISBLANK($B18),"",IF(ISBLANK($G18),"未着手",IF($J18=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F18" s="4">
-        <v>42738</v>
+        <v>43103</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="19">
@@ -22275,20 +22345,20 @@
         <v>15</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" s="12" t="str">
         <f>IF(ISBLANK($B19),"",IF(ISBLANK($G19),"未着手",IF($J19=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F19" s="4">
-        <v>42740</v>
+        <v>42739</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="19">
@@ -22313,20 +22383,20 @@
         <v>16</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E20" s="12" t="str">
         <f>IF(ISBLANK($B20),"",IF(ISBLANK($G20),"未着手",IF($J20=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F20" s="4">
-        <v>42742</v>
+        <v>42740</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="19">
@@ -22351,10 +22421,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>50</v>
@@ -22364,7 +22434,7 @@
         <v>未着手</v>
       </c>
       <c r="F21" s="4">
-        <v>42742</v>
+        <v>42740</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="19">
@@ -22389,7 +22459,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="92" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -22413,20 +22483,20 @@
         <v>19</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E23" s="12" t="str">
         <f>IF(ISBLANK($B23),"",IF(ISBLANK($G23),"未着手",IF($J23=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F23" s="4">
-        <v>43092</v>
+        <v>43100</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="19">
@@ -22451,20 +22521,20 @@
         <v>20</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24" s="12" t="str">
         <f>IF(ISBLANK($B24),"",IF(ISBLANK($G24),"未着手",IF($J24=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F24" s="4">
-        <v>43096</v>
+        <v>42736</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="19">
@@ -22489,20 +22559,20 @@
         <v>21</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>80</v>
+        <v>307</v>
       </c>
       <c r="E25" s="12" t="str">
         <f>IF(ISBLANK($B25),"",IF(ISBLANK($G25),"未着手",IF($J25=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F25" s="4">
-        <v>43096</v>
+        <v>42737</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="19">
@@ -22527,20 +22597,20 @@
         <v>22</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>47</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="E26" s="12" t="str">
         <f>IF(ISBLANK($B26),"",IF(ISBLANK($G26),"未着手",IF($J26=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F26" s="4">
-        <v>42740</v>
+        <v>43105</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="19">
@@ -22565,7 +22635,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="93" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -22589,13 +22659,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E28" s="12" t="str">
         <f>IF(ISBLANK($B28),"",IF(ISBLANK($G28),"未着手",IF($J28=0,"完了","作業中")))</f>
@@ -22627,13 +22697,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E29" s="12" t="str">
         <f>IF(ISBLANK($B29),"",IF(ISBLANK($G29),"未着手",IF($J29=0,"完了","作業中")))</f>
@@ -22665,13 +22735,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E30" s="12" t="str">
         <f>IF(ISBLANK($B30),"",IF(ISBLANK($G30),"未着手",IF($J30=0,"完了","作業中")))</f>
@@ -22703,7 +22773,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="92" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
@@ -22727,20 +22797,20 @@
         <v>28</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E32" s="12" t="str">
         <f>IF(ISBLANK($B32),"",IF(ISBLANK($G32),"未着手",IF($J32=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F32" s="4">
-        <v>42738</v>
+        <v>43094</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="19">
@@ -22765,20 +22835,20 @@
         <v>29</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E33" s="12" t="str">
         <f>IF(ISBLANK($B33),"",IF(ISBLANK($G33),"未着手",IF($J33=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F33" s="4">
-        <v>42738</v>
+        <v>43095</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="19">
@@ -22803,20 +22873,20 @@
         <v>30</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E34" s="12" t="str">
         <f>IF(ISBLANK($B34),"",IF(ISBLANK($G34),"未着手",IF($J34=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F34" s="4">
-        <v>42738</v>
+        <v>43095</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="19">
@@ -22841,20 +22911,20 @@
         <v>31</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E35" s="12" t="str">
         <f>IF(ISBLANK($B35),"",IF(ISBLANK($G35),"未着手",IF($J35=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F35" s="4">
-        <v>42738</v>
+        <v>43096</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="19">
@@ -22879,16 +22949,16 @@
         <v>32</v>
       </c>
       <c r="B36" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="D36" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="E36" s="12" t="s">
         <v>185</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>186</v>
       </c>
       <c r="F36" s="4">
         <v>43094</v>
@@ -22913,16 +22983,16 @@
         <v>33</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F37" s="4">
         <v>43094</v>
@@ -22966,13 +23036,13 @@
         <v>34</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>63</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E38" s="12" t="str">
         <f>IF(ISBLANK($B38),"",IF(ISBLANK($G38),"未着手",IF($J38=0,"完了","作業中")))</f>
@@ -23002,22 +23072,22 @@
         <v>47</v>
       </c>
       <c r="U38" s="10">
-        <f>SUMIF($C$5:$C$200,T38,$H$5:$H$200)</f>
+        <f>SUMIF($C$5:$C$202,T38,$H$5:$H$202)</f>
         <v>27</v>
       </c>
       <c r="V38" s="10">
-        <f>SUMIF($C$5:$C$200,U38,$H$5:$H$200)</f>
+        <f ca="1">SUMIF($C$5:$C$202,T38,$J$5:$J$202)</f>
         <v>0</v>
       </c>
       <c r="W38" s="10">
-        <f>SUMIF($C$5:$C$97,U38,$I$5:$I$97)</f>
+        <f>SUMIF($C$5:$C$200,T38,$I$5:$I$200)</f>
         <v>0</v>
       </c>
       <c r="X38" s="14">
         <v>0</v>
       </c>
       <c r="Y38" s="15">
-        <f>IF(X38&gt;V38,0,V38-X38)</f>
+        <f ca="1">IF(X38&gt;V38,0,V38-X38)</f>
         <v>0</v>
       </c>
     </row>
@@ -23026,7 +23096,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="76" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C39" s="77"/>
       <c r="D39" s="77"/>
@@ -23045,25 +23115,25 @@
       <c r="Q39" s="81"/>
       <c r="R39" s="81"/>
       <c r="T39" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U39" s="10">
-        <f t="shared" ref="U39:V40" si="5">SUMIF($C$5:$C$200,T39,$H$5:$H$200)</f>
-        <v>52</v>
+        <f>SUMIF($C$5:$C$202,T39,$H$5:$H$202)</f>
+        <v>56</v>
       </c>
       <c r="V39" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="V39:V43" ca="1" si="5">SUMIF($C$5:$C$202,T39,$J$5:$J$202)</f>
         <v>0</v>
       </c>
       <c r="W39" s="10">
-        <f t="shared" ref="W39:W42" si="6">SUMIF($C$5:$C$97,U39,$I$5:$I$97)</f>
+        <f t="shared" ref="W39:W43" si="6">SUMIF($C$5:$C$200,T39,$I$5:$I$200)</f>
         <v>0</v>
       </c>
       <c r="X39" s="14">
         <v>0</v>
       </c>
       <c r="Y39" s="15">
-        <f t="shared" ref="Y39:Y43" si="7">IF(X39&gt;V39,0,V39-X39)</f>
+        <f t="shared" ref="Y39:Y43" ca="1" si="7">IF(X39&gt;V39,0,V39-X39)</f>
         <v>0</v>
       </c>
     </row>
@@ -23072,7 +23142,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="93" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C40" s="87"/>
       <c r="D40" s="87"/>
@@ -23094,11 +23164,11 @@
         <v>63</v>
       </c>
       <c r="U40" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="U38:V43" si="8">SUMIF($C$5:$C$202,T40,$H$5:$H$202)</f>
         <v>14</v>
       </c>
       <c r="V40" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="W40" s="10">
@@ -23109,7 +23179,7 @@
         <v>0</v>
       </c>
       <c r="Y40" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -23118,13 +23188,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E41" s="12" t="str">
         <f>IF(ISBLANK($B41),"",IF(ISBLANK($G41),"未着手",IF(#REF!=0,"完了","作業中")))</f>
@@ -23139,7 +23209,7 @@
       </c>
       <c r="I41" s="19"/>
       <c r="J41" s="12" t="str">
-        <f t="shared" ref="J41:J59" ca="1" si="8">IF(ISBLANK(K41)=FALSE,OFFSET(J41,0,COUNTA(K41:M41)),"")</f>
+        <f t="shared" ref="J41:J59" ca="1" si="9">IF(ISBLANK(K41)=FALSE,OFFSET(J41,0,COUNTA(K41:M41)),"")</f>
         <v/>
       </c>
       <c r="K41" s="19"/>
@@ -23154,22 +23224,22 @@
         <v>66</v>
       </c>
       <c r="U41" s="10">
-        <f>SUMIF($C$5:$C$200,T41,$H$5:$H$200)</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="V41" s="10">
-        <f>SUMIF($C$5:$C$200,U41,$H$5:$H$200)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="W41" s="10">
-        <f>SUMIF($C$5:$C$200,U41,$I$5:$I$200)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X41" s="14">
         <v>0</v>
       </c>
       <c r="Y41" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -23178,10 +23248,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>58</v>
@@ -23199,7 +23269,7 @@
       </c>
       <c r="I42" s="19"/>
       <c r="J42" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K42" s="19"/>
@@ -23214,11 +23284,11 @@
         <v>65</v>
       </c>
       <c r="U42" s="10">
-        <f>SUMIF($C$5:$C$200,T42,$H$5:$H$200)</f>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="V42" s="10">
-        <f>SUMIF($C$5:$C$200,U42,$H$5:$H$200)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="W42" s="10">
@@ -23229,7 +23299,7 @@
         <v>0</v>
       </c>
       <c r="Y42" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -23238,16 +23308,16 @@
         <v>39</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E43" s="12" t="str">
-        <f t="shared" ref="E43:E58" si="9">IF(ISBLANK($B43),"",IF(ISBLANK($G43),"未着手",IF($J41=0,"完了","作業中")))</f>
+        <f t="shared" ref="E43:E58" si="10">IF(ISBLANK($B43),"",IF(ISBLANK($G43),"未着手",IF($J41=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F43" s="4">
@@ -23259,7 +23329,7 @@
       </c>
       <c r="I43" s="19"/>
       <c r="J43" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K43" s="19"/>
@@ -23271,25 +23341,25 @@
       <c r="Q43" s="19"/>
       <c r="R43" s="19"/>
       <c r="T43" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U43" s="10">
-        <f t="shared" ref="U43:V43" si="10">SUMIF($C$5:$C$200,T43,$H$5:$H$200)</f>
+        <f t="shared" si="8"/>
         <v>59</v>
       </c>
       <c r="V43" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="W43" s="10">
-        <f ca="1">SUMIF($C$5:$C$200,U43,$I$5:$I$97)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="X43" s="14">
         <v>0</v>
       </c>
       <c r="Y43" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -23298,20 +23368,20 @@
         <v>40</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="E44" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F44" s="4">
-        <v>43096</v>
+        <v>43103</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="19">
@@ -23319,7 +23389,7 @@
       </c>
       <c r="I44" s="19"/>
       <c r="J44" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K44" s="19"/>
@@ -23336,20 +23406,20 @@
         <v>41</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>80</v>
+        <v>307</v>
       </c>
       <c r="E45" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F45" s="4">
-        <v>43096</v>
+        <v>43103</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="19">
@@ -23357,7 +23427,7 @@
       </c>
       <c r="I45" s="19"/>
       <c r="J45" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K45" s="19"/>
@@ -23374,20 +23444,20 @@
         <v>42</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E46" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F46" s="4">
-        <v>43096</v>
+        <v>43103</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="19">
@@ -23395,7 +23465,7 @@
       </c>
       <c r="I46" s="19"/>
       <c r="J46" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K46" s="22"/>
@@ -23412,7 +23482,7 @@
         <v>43</v>
       </c>
       <c r="B47" s="92" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
@@ -23422,7 +23492,7 @@
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K47" s="22"/>
@@ -23439,20 +23509,20 @@
         <v>44</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D48" s="63" t="s">
-        <v>84</v>
+        <v>308</v>
       </c>
       <c r="E48" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F48" s="4">
-        <v>42738</v>
+        <v>43095</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="19">
@@ -23460,7 +23530,7 @@
       </c>
       <c r="I48" s="19"/>
       <c r="J48" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K48" s="22"/>
@@ -23477,20 +23547,20 @@
         <v>45</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D49" s="63" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="E49" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F49" s="4">
-        <v>42738</v>
+        <v>43095</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="19">
@@ -23498,7 +23568,7 @@
       </c>
       <c r="I49" s="19"/>
       <c r="J49" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K49" s="22"/>
@@ -23515,20 +23585,20 @@
         <v>46</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D50" s="63" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="E50" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F50" s="4">
-        <v>42740</v>
+        <v>43096</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="19">
@@ -23536,7 +23606,7 @@
       </c>
       <c r="I50" s="19"/>
       <c r="J50" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K50" s="22"/>
@@ -23553,20 +23623,20 @@
         <v>47</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>50</v>
       </c>
       <c r="E51" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F51" s="4">
-        <v>42740</v>
+        <v>43096</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="19">
@@ -23574,7 +23644,7 @@
       </c>
       <c r="I51" s="19"/>
       <c r="J51" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K51" s="22"/>
@@ -23591,20 +23661,20 @@
         <v>48</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="E52" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F52" s="4">
-        <v>42738</v>
+        <v>43097</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="19">
@@ -23612,7 +23682,7 @@
       </c>
       <c r="I52" s="19"/>
       <c r="J52" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K52" s="22"/>
@@ -23629,7 +23699,7 @@
         <v>49</v>
       </c>
       <c r="B53" s="93" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
@@ -23639,7 +23709,7 @@
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
       <c r="J53" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K53" s="22"/>
@@ -23656,20 +23726,20 @@
         <v>50</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D54" s="63" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E54" s="64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F54" s="4">
-        <v>43098</v>
+        <v>43094</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="19">
@@ -23677,7 +23747,7 @@
       </c>
       <c r="I54" s="19"/>
       <c r="J54" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K54" s="22"/>
@@ -23694,20 +23764,20 @@
         <v>51</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="E55" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F55" s="4">
-        <v>43098</v>
+        <v>42736</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="19">
@@ -23715,7 +23785,7 @@
       </c>
       <c r="I55" s="19"/>
       <c r="J55" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K55" s="22"/>
@@ -23732,20 +23802,20 @@
         <v>52</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>84</v>
+        <v>307</v>
       </c>
       <c r="E56" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F56" s="4">
-        <v>43098</v>
+        <v>42736</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="19">
@@ -23753,7 +23823,7 @@
       </c>
       <c r="I56" s="19"/>
       <c r="J56" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K56" s="22"/>
@@ -23770,20 +23840,20 @@
         <v>53</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="E57" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F57" s="4">
-        <v>43099</v>
+        <v>42737</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="19">
@@ -23791,7 +23861,7 @@
       </c>
       <c r="I57" s="65"/>
       <c r="J57" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K57" s="66"/>
@@ -23808,20 +23878,20 @@
         <v>54</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="E58" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F58" s="4">
-        <v>43099</v>
+        <v>42737</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="19">
@@ -23829,7 +23899,7 @@
       </c>
       <c r="I58" s="19"/>
       <c r="J58" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K58" s="22"/>
@@ -23846,7 +23916,7 @@
         <v>55</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C59" s="67"/>
       <c r="D59" s="67"/>
@@ -23856,7 +23926,7 @@
       <c r="H59" s="84"/>
       <c r="I59" s="84"/>
       <c r="J59" s="82" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K59" s="85"/>
@@ -23873,7 +23943,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="94" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C60" s="91"/>
       <c r="D60" s="91"/>
@@ -23897,13 +23967,13 @@
         <v>57</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>63</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E61" s="12" t="str">
         <f>IF(ISBLANK($B61),"",IF(ISBLANK($G61),"未着手",IF($J61=0,"完了","作業中")))</f>
@@ -23935,13 +24005,13 @@
         <v>58</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>63</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E62" s="12" t="str">
         <f>IF(ISBLANK($B62),"",IF(ISBLANK($G62),"未着手",IF($J62=0,"完了","作業中")))</f>
@@ -23973,13 +24043,13 @@
         <v>59</v>
       </c>
       <c r="B63" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="D63" s="18" t="s">
         <v>189</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>190</v>
       </c>
       <c r="E63" s="12" t="str">
         <f>IF(ISBLANK($B63),"",IF(ISBLANK($G63),"未着手",IF($J63=0,"完了","作業中")))</f>
@@ -24011,13 +24081,13 @@
         <v>60</v>
       </c>
       <c r="B64" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="D64" s="18" t="s">
         <v>192</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>193</v>
       </c>
       <c r="E64" s="12" t="str">
         <f>IF(ISBLANK($B64),"",IF(ISBLANK($G64),"未着手",IF($J64=0,"完了","作業中")))</f>
@@ -24049,7 +24119,7 @@
         <v>61</v>
       </c>
       <c r="B65" s="92" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
@@ -24076,20 +24146,20 @@
         <v>62</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E66" s="12" t="str">
         <f>IF(ISBLANK($B66),"",IF(ISBLANK($G66),"未着手",IF($J66=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F66" s="4">
-        <v>43097</v>
+        <v>42738</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="19">
@@ -24114,20 +24184,20 @@
         <v>63</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>199</v>
+        <v>50</v>
       </c>
       <c r="E67" s="12" t="str">
         <f>IF(ISBLANK($B67),"",IF(ISBLANK($G67),"未着手",IF($J67=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F67" s="4">
-        <v>43098</v>
+        <v>42738</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="19">
@@ -24152,20 +24222,20 @@
         <v>64</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E68" s="12" t="str">
         <f>IF(ISBLANK($B68),"",IF(ISBLANK($G68),"未着手",IF($J68=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F68" s="4">
-        <v>43099</v>
+        <v>42739</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="19">
@@ -24190,20 +24260,20 @@
         <v>65</v>
       </c>
       <c r="B69" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C69" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="C69" s="18" t="s">
-        <v>198</v>
-      </c>
       <c r="D69" s="18" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E69" s="12" t="str">
         <f>IF(ISBLANK($B69),"",IF(ISBLANK($G69),"未着手",IF($J69=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F69" s="4">
-        <v>43100</v>
+        <v>42739</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="19">
@@ -24228,7 +24298,7 @@
         <v>66</v>
       </c>
       <c r="B70" s="93" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C70" s="18"/>
       <c r="D70" s="18"/>
@@ -24255,13 +24325,13 @@
         <v>67</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E71" s="12" t="str">
         <f t="shared" ref="E71:E134" si="12">IF(ISBLANK($B71),"",IF(ISBLANK($G71),"未着手",IF($J71=0,"完了","作業中")))</f>
@@ -24293,13 +24363,13 @@
         <v>68</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E72" s="12" t="str">
         <f t="shared" si="12"/>
@@ -24331,13 +24401,13 @@
         <v>69</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E73" s="12" t="str">
         <f t="shared" si="12"/>
@@ -24369,13 +24439,13 @@
         <v>70</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E74" s="12" t="str">
         <f t="shared" si="12"/>
@@ -24407,13 +24477,13 @@
         <v>71</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E75" s="12" t="str">
         <f t="shared" si="12"/>
@@ -24445,13 +24515,13 @@
         <v>72</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E76" s="12" t="str">
         <f t="shared" si="12"/>
@@ -24483,13 +24553,13 @@
         <v>73</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E77" s="12" t="str">
         <f t="shared" si="12"/>
@@ -24521,13 +24591,13 @@
         <v>74</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E78" s="12" t="str">
         <f t="shared" si="12"/>
@@ -24559,13 +24629,13 @@
         <v>75</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E79" s="12" t="str">
         <f t="shared" si="12"/>
@@ -24597,13 +24667,13 @@
         <v>76</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E80" s="12" t="str">
         <f t="shared" si="12"/>
@@ -24663,7 +24733,7 @@
         <v>78</v>
       </c>
       <c r="B82" s="93" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
@@ -24690,13 +24760,13 @@
         <v>79</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D83" s="63" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E83" s="12" t="str">
         <f t="shared" si="12"/>
@@ -24728,13 +24798,13 @@
         <v>80</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D84" s="63" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E84" s="12" t="str">
         <f t="shared" si="12"/>
@@ -24766,13 +24836,13 @@
         <v>81</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D85" s="63" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E85" s="12" t="str">
         <f t="shared" si="12"/>
@@ -24804,13 +24874,13 @@
         <v>82</v>
       </c>
       <c r="B86" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="D86" s="63" t="s">
         <v>231</v>
-      </c>
-      <c r="C86" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="D86" s="63" t="s">
-        <v>232</v>
       </c>
       <c r="E86" s="12" t="str">
         <f t="shared" si="12"/>
@@ -24842,13 +24912,13 @@
         <v>83</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D87" s="63" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E87" s="12" t="str">
         <f t="shared" si="12"/>
@@ -24880,13 +24950,13 @@
         <v>84</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D88" s="63" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E88" s="12" t="str">
         <f t="shared" si="12"/>
@@ -24918,10 +24988,10 @@
         <v>85</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D89" s="18" t="s">
         <v>69</v>
@@ -24956,10 +25026,10 @@
         <v>86</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D90" s="18" t="s">
         <v>69</v>
@@ -24994,10 +25064,10 @@
         <v>87</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D91" s="18" t="s">
         <v>69</v>
@@ -25060,7 +25130,7 @@
         <v>89</v>
       </c>
       <c r="B93" s="93" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C93" s="18"/>
       <c r="D93" s="18"/>
@@ -25087,13 +25157,13 @@
         <v>90</v>
       </c>
       <c r="B94" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="D94" s="18" t="s">
         <v>239</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="D94" s="18" t="s">
-        <v>240</v>
       </c>
       <c r="E94" s="12" t="str">
         <f t="shared" si="12"/>
@@ -25125,13 +25195,13 @@
         <v>91</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E95" s="12" t="str">
         <f t="shared" si="12"/>
@@ -25163,13 +25233,13 @@
         <v>92</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E96" s="12" t="str">
         <f t="shared" si="12"/>
@@ -25201,13 +25271,13 @@
         <v>93</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E97" s="12" t="str">
         <f t="shared" si="12"/>
@@ -25239,13 +25309,13 @@
         <v>94</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E98" s="12" t="str">
         <f t="shared" si="12"/>
@@ -25260,7 +25330,7 @@
       </c>
       <c r="I98" s="19"/>
       <c r="J98" s="12" t="str">
-        <f t="shared" ref="J98:J161" ca="1" si="13">IF(ISBLANK(K98)=FALSE,OFFSET(J98,0,COUNTA(K98:M98)),"")</f>
+        <f t="shared" ref="J98:J163" ca="1" si="13">IF(ISBLANK(K98)=FALSE,OFFSET(J98,0,COUNTA(K98:M98)),"")</f>
         <v/>
       </c>
       <c r="K98" s="22"/>
@@ -25277,13 +25347,13 @@
         <v>95</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E99" s="12" t="str">
         <f t="shared" si="12"/>
@@ -25343,7 +25413,7 @@
         <v>97</v>
       </c>
       <c r="B101" s="93" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C101" s="18"/>
       <c r="D101" s="18"/>
@@ -25370,13 +25440,13 @@
         <v>98</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E102" s="12" t="str">
         <f t="shared" si="12"/>
@@ -25408,13 +25478,13 @@
         <v>99</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E103" s="12" t="str">
         <f t="shared" si="12"/>
@@ -25446,13 +25516,13 @@
         <v>100</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E104" s="12" t="str">
         <f t="shared" si="12"/>
@@ -25484,13 +25554,13 @@
         <v>101</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E105" s="12" t="str">
         <f t="shared" si="12"/>
@@ -25522,20 +25592,20 @@
         <v>102</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E106" s="12" t="str">
         <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F106" s="4">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="19">
@@ -25560,20 +25630,20 @@
         <v>103</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E107" s="12" t="str">
         <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F107" s="4">
-        <v>42737</v>
+        <v>43102</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="19">
@@ -25598,20 +25668,20 @@
         <v>104</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E108" s="12" t="str">
         <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F108" s="4">
-        <v>42738</v>
+        <v>43103</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="19">
@@ -25664,7 +25734,7 @@
         <v>106</v>
       </c>
       <c r="B110" s="93" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C110" s="18"/>
       <c r="D110" s="18"/>
@@ -25691,20 +25761,20 @@
         <v>107</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E111" s="12" t="str">
         <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F111" s="4">
-        <v>42739</v>
+        <v>43104</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="19">
@@ -25729,20 +25799,20 @@
         <v>108</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E112" s="12" t="str">
         <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F112" s="4">
-        <v>42739</v>
+        <v>43104</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="19">
@@ -25767,20 +25837,20 @@
         <v>109</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E113" s="12" t="str">
         <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F113" s="4">
-        <v>42740</v>
+        <v>43105</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="19">
@@ -25805,20 +25875,20 @@
         <v>110</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E114" s="12" t="str">
         <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F114" s="4">
-        <v>42740</v>
+        <v>43105</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="19">
@@ -25843,20 +25913,20 @@
         <v>111</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E115" s="12" t="str">
         <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F115" s="4">
-        <v>42740</v>
+        <v>43105</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="19">
@@ -25881,20 +25951,20 @@
         <v>112</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E116" s="12" t="str">
         <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F116" s="4">
-        <v>42740</v>
+        <v>43105</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="19">
@@ -25919,20 +25989,20 @@
         <v>113</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E117" s="12" t="str">
         <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F117" s="4">
-        <v>42741</v>
+        <v>43106</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="19">
@@ -25957,20 +26027,20 @@
         <v>114</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E118" s="12" t="str">
         <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F118" s="4">
-        <v>42741</v>
+        <v>43106</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="19">
@@ -25995,20 +26065,20 @@
         <v>115</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E119" s="12" t="str">
         <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F119" s="4">
-        <v>42742</v>
+        <v>43107</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="19">
@@ -26033,20 +26103,20 @@
         <v>116</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E120" s="12" t="str">
         <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F120" s="4">
-        <v>42742</v>
+        <v>43107</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="19">
@@ -26071,20 +26141,20 @@
         <v>117</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E121" s="12" t="str">
         <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F121" s="4">
-        <v>42743</v>
+        <v>43108</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="19">
@@ -26109,20 +26179,20 @@
         <v>118</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E122" s="12" t="str">
         <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F122" s="4">
-        <v>42743</v>
+        <v>43108</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="19">
@@ -26147,20 +26217,20 @@
         <v>119</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E123" s="12" t="str">
         <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F123" s="4">
-        <v>42744</v>
+        <v>43109</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="19">
@@ -26185,20 +26255,20 @@
         <v>120</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E124" s="12" t="str">
         <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F124" s="4">
-        <v>42744</v>
+        <v>43109</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="19">
@@ -26223,20 +26293,20 @@
         <v>121</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E125" s="12" t="str">
         <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F125" s="4">
-        <v>42744</v>
+        <v>43109</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="19">
@@ -26261,20 +26331,20 @@
         <v>122</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E126" s="12" t="str">
         <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F126" s="4">
-        <v>42745</v>
+        <v>43110</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="19">
@@ -26327,7 +26397,7 @@
         <v>124</v>
       </c>
       <c r="B128" s="93" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C128" s="18"/>
       <c r="D128" s="18"/>
@@ -26354,13 +26424,13 @@
         <v>125</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D129" s="18" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="E129" s="12" t="str">
         <f t="shared" si="12"/>
@@ -26392,13 +26462,13 @@
         <v>126</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D130" s="18" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="E130" s="12" t="str">
         <f t="shared" si="12"/>
@@ -26430,20 +26500,20 @@
         <v>127</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D131" s="18" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="E131" s="12" t="str">
         <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F131" s="4">
-        <v>42740</v>
+        <v>42741</v>
       </c>
       <c r="G131" s="4"/>
       <c r="H131" s="19">
@@ -26468,13 +26538,13 @@
         <v>128</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D132" s="18" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="E132" s="12" t="str">
         <f t="shared" si="12"/>
@@ -26506,20 +26576,20 @@
         <v>129</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C133" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="D133" s="18" t="s">
         <v>271</v>
-      </c>
-      <c r="D133" s="18" t="s">
-        <v>273</v>
       </c>
       <c r="E133" s="12" t="str">
         <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F133" s="4">
-        <v>42741</v>
+        <v>42742</v>
       </c>
       <c r="G133" s="4"/>
       <c r="H133" s="19">
@@ -26544,20 +26614,20 @@
         <v>130</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C134" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="D134" s="18" t="s">
         <v>271</v>
-      </c>
-      <c r="D134" s="18" t="s">
-        <v>273</v>
       </c>
       <c r="E134" s="12" t="str">
         <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F134" s="4">
-        <v>42741</v>
+        <v>42742</v>
       </c>
       <c r="G134" s="4"/>
       <c r="H134" s="19">
@@ -26585,7 +26655,7 @@
       <c r="C135" s="18"/>
       <c r="D135" s="18"/>
       <c r="E135" s="12" t="str">
-        <f t="shared" ref="E135:E198" si="14">IF(ISBLANK($B135),"",IF(ISBLANK($G135),"未着手",IF($J135=0,"完了","作業中")))</f>
+        <f t="shared" ref="E135:E200" si="14">IF(ISBLANK($B135),"",IF(ISBLANK($G135),"未着手",IF($J135=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F135" s="4"/>
@@ -26610,20 +26680,20 @@
         <v>132</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D136" s="18" t="s">
-        <v>276</v>
+        <v>83</v>
       </c>
       <c r="E136" s="12" t="str">
         <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="F136" s="4">
-        <v>42738</v>
+        <v>43096</v>
       </c>
       <c r="G136" s="4"/>
       <c r="H136" s="19">
@@ -26648,20 +26718,20 @@
         <v>133</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C137" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="D137" s="18" t="s">
         <v>271</v>
-      </c>
-      <c r="D137" s="18" t="s">
-        <v>273</v>
       </c>
       <c r="E137" s="12" t="str">
         <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="F137" s="4">
-        <v>42738</v>
+        <v>42743</v>
       </c>
       <c r="G137" s="4"/>
       <c r="H137" s="19">
@@ -26686,31 +26756,37 @@
         <v>134</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E138" s="12" t="str">
-        <f t="shared" si="14"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>完了</v>
       </c>
       <c r="F138" s="4">
-        <v>42739</v>
-      </c>
-      <c r="G138" s="4"/>
+        <v>42743</v>
+      </c>
+      <c r="G138" s="4">
+        <v>43091</v>
+      </c>
       <c r="H138" s="19">
         <v>2</v>
       </c>
-      <c r="I138" s="19"/>
-      <c r="J138" s="12" t="str">
+      <c r="I138" s="19">
+        <v>2</v>
+      </c>
+      <c r="J138" s="12">
         <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="K138" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="K138" s="22">
+        <v>0</v>
+      </c>
       <c r="L138" s="22"/>
       <c r="M138" s="22"/>
       <c r="N138" s="22"/>
@@ -26726,18 +26802,12 @@
       <c r="B139" s="17"/>
       <c r="C139" s="18"/>
       <c r="D139" s="18"/>
-      <c r="E139" s="12" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
+      <c r="E139" s="12"/>
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
-      <c r="J139" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
+      <c r="J139" s="12"/>
       <c r="K139" s="22"/>
       <c r="L139" s="22"/>
       <c r="M139" s="22"/>
@@ -26751,26 +26821,15 @@
       <c r="A140" s="16">
         <v>136</v>
       </c>
-      <c r="B140" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="C140" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="D140" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="E140" s="12" t="str">
-        <f t="shared" si="14"/>
-        <v>未着手</v>
-      </c>
-      <c r="F140" s="4">
-        <v>43097</v>
-      </c>
+      <c r="B140" s="93" t="s">
+        <v>309</v>
+      </c>
+      <c r="C140" s="18"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="4"/>
       <c r="G140" s="4"/>
-      <c r="H140" s="19">
-        <v>3</v>
-      </c>
+      <c r="H140" s="19"/>
       <c r="I140" s="19"/>
       <c r="J140" s="12" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -26790,13 +26849,13 @@
         <v>137</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C141" s="18" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D141" s="18" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E141" s="12" t="str">
         <f t="shared" si="14"/>
@@ -26828,13 +26887,13 @@
         <v>138</v>
       </c>
       <c r="B142" s="17" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C142" s="18" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D142" s="18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E142" s="12" t="str">
         <f t="shared" si="14"/>
@@ -26866,20 +26925,20 @@
         <v>139</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C143" s="18" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D143" s="18" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E143" s="12" t="str">
         <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="F143" s="4">
-        <v>43098</v>
+        <v>43097</v>
       </c>
       <c r="G143" s="4"/>
       <c r="H143" s="19">
@@ -26904,13 +26963,13 @@
         <v>140</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C144" s="18" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D144" s="18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E144" s="12" t="str">
         <f t="shared" si="14"/>
@@ -26942,13 +27001,13 @@
         <v>141</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C145" s="18" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D145" s="18" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E145" s="12" t="str">
         <f t="shared" si="14"/>
@@ -26980,20 +27039,20 @@
         <v>142</v>
       </c>
       <c r="B146" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="C146" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="C146" s="18" t="s">
-        <v>295</v>
-      </c>
       <c r="D146" s="18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E146" s="12" t="str">
         <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="F146" s="4">
-        <v>43099</v>
+        <v>43098</v>
       </c>
       <c r="G146" s="4"/>
       <c r="H146" s="19">
@@ -27018,13 +27077,13 @@
         <v>143</v>
       </c>
       <c r="B147" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C147" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="D147" s="18" t="s">
         <v>293</v>
-      </c>
-      <c r="C147" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="D147" s="18" t="s">
-        <v>297</v>
       </c>
       <c r="E147" s="12" t="str">
         <f t="shared" si="14"/>
@@ -27056,13 +27115,13 @@
         <v>144</v>
       </c>
       <c r="B148" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="D148" s="18" t="s">
         <v>294</v>
-      </c>
-      <c r="C148" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="D148" s="18" t="s">
-        <v>296</v>
       </c>
       <c r="E148" s="12" t="str">
         <f t="shared" si="14"/>
@@ -27094,20 +27153,20 @@
         <v>145</v>
       </c>
       <c r="B149" s="17" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C149" s="18" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D149" s="18" t="s">
-        <v>48</v>
+        <v>293</v>
       </c>
       <c r="E149" s="12" t="str">
         <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="F149" s="4">
-        <v>42739</v>
+        <v>43099</v>
       </c>
       <c r="G149" s="4"/>
       <c r="H149" s="19">
@@ -27132,10 +27191,10 @@
         <v>146</v>
       </c>
       <c r="B150" s="17" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C150" s="18" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D150" s="18" t="s">
         <v>48</v>
@@ -27145,7 +27204,7 @@
         <v>未着手</v>
       </c>
       <c r="F150" s="4">
-        <v>42739</v>
+        <v>43104</v>
       </c>
       <c r="G150" s="4"/>
       <c r="H150" s="19">
@@ -27170,20 +27229,20 @@
         <v>147</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C151" s="18" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D151" s="18" t="s">
-        <v>304</v>
+        <v>48</v>
       </c>
       <c r="E151" s="12" t="str">
         <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="F151" s="4">
-        <v>42739</v>
+        <v>43104</v>
       </c>
       <c r="G151" s="4"/>
       <c r="H151" s="19">
@@ -27208,20 +27267,20 @@
         <v>148</v>
       </c>
       <c r="B152" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C152" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="D152" s="18" t="s">
         <v>301</v>
-      </c>
-      <c r="C152" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="D152" s="18" t="s">
-        <v>48</v>
       </c>
       <c r="E152" s="12" t="str">
         <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="F152" s="4">
-        <v>42740</v>
+        <v>43104</v>
       </c>
       <c r="G152" s="4"/>
       <c r="H152" s="19">
@@ -27246,10 +27305,10 @@
         <v>149</v>
       </c>
       <c r="B153" s="17" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C153" s="18" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D153" s="18" t="s">
         <v>48</v>
@@ -27259,7 +27318,7 @@
         <v>未着手</v>
       </c>
       <c r="F153" s="4">
-        <v>42740</v>
+        <v>43105</v>
       </c>
       <c r="G153" s="4"/>
       <c r="H153" s="19">
@@ -27284,28 +27343,28 @@
         <v>150</v>
       </c>
       <c r="B154" s="17" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C154" s="18" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D154" s="18" t="s">
-        <v>48</v>
+        <v>305</v>
       </c>
       <c r="E154" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK($B154),"",IF(ISBLANK($G154),"未着手",IF($J154=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F154" s="4">
-        <v>42740</v>
+        <v>43095</v>
       </c>
       <c r="G154" s="4"/>
       <c r="H154" s="19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I154" s="19"/>
       <c r="J154" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(ISBLANK(K154)=FALSE,OFFSET(J154,0,COUNTA(K154:M154)),"")</f>
         <v/>
       </c>
       <c r="K154" s="22"/>
@@ -27321,31 +27380,17 @@
       <c r="A155" s="16">
         <v>151</v>
       </c>
-      <c r="B155" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="C155" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="D155" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="E155" s="12" t="str">
-        <f t="shared" si="14"/>
-        <v>未着手</v>
-      </c>
-      <c r="F155" s="4">
-        <v>42741</v>
-      </c>
+      <c r="B155" s="93" t="s">
+        <v>310</v>
+      </c>
+      <c r="C155" s="18"/>
+      <c r="D155" s="18"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="4"/>
       <c r="G155" s="4"/>
-      <c r="H155" s="19">
-        <v>4</v>
-      </c>
+      <c r="H155" s="19"/>
       <c r="I155" s="19"/>
-      <c r="J155" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
+      <c r="J155" s="12"/>
       <c r="K155" s="22"/>
       <c r="L155" s="22"/>
       <c r="M155" s="22"/>
@@ -27360,20 +27405,20 @@
         <v>152</v>
       </c>
       <c r="B156" s="17" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C156" s="18" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D156" s="18" t="s">
-        <v>307</v>
+        <v>48</v>
       </c>
       <c r="E156" s="12" t="str">
         <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="F156" s="4">
-        <v>42741</v>
+        <v>43105</v>
       </c>
       <c r="G156" s="4"/>
       <c r="H156" s="19">
@@ -27398,24 +27443,24 @@
         <v>153</v>
       </c>
       <c r="B157" s="17" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C157" s="18" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D157" s="18" t="s">
-        <v>308</v>
+        <v>48</v>
       </c>
       <c r="E157" s="12" t="str">
         <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="F157" s="4">
-        <v>43095</v>
+        <v>43105</v>
       </c>
       <c r="G157" s="4"/>
       <c r="H157" s="19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I157" s="19"/>
       <c r="J157" s="12" t="str">
@@ -27435,16 +27480,26 @@
       <c r="A158" s="16">
         <v>154</v>
       </c>
-      <c r="B158" s="17"/>
-      <c r="C158" s="18"/>
-      <c r="D158" s="18"/>
+      <c r="B158" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="C158" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="D158" s="18" t="s">
+        <v>304</v>
+      </c>
       <c r="E158" s="12" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F158" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F158" s="4">
+        <v>43106</v>
+      </c>
       <c r="G158" s="4"/>
-      <c r="H158" s="19"/>
+      <c r="H158" s="19">
+        <v>4</v>
+      </c>
       <c r="I158" s="19"/>
       <c r="J158" s="12" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -27463,16 +27518,26 @@
       <c r="A159" s="16">
         <v>155</v>
       </c>
-      <c r="B159" s="17"/>
-      <c r="C159" s="18"/>
-      <c r="D159" s="18"/>
+      <c r="B159" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="C159" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="D159" s="18" t="s">
+        <v>304</v>
+      </c>
       <c r="E159" s="12" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F159" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F159" s="4">
+        <v>43106</v>
+      </c>
       <c r="G159" s="4"/>
-      <c r="H159" s="19"/>
+      <c r="H159" s="19">
+        <v>3</v>
+      </c>
       <c r="I159" s="19"/>
       <c r="J159" s="12" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -27519,16 +27584,26 @@
       <c r="A161" s="16">
         <v>157</v>
       </c>
-      <c r="B161" s="17"/>
-      <c r="C161" s="18"/>
-      <c r="D161" s="18"/>
+      <c r="B161" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="C161" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="D161" s="18" t="s">
+        <v>97</v>
+      </c>
       <c r="E161" s="12" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F161" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F161" s="4">
+        <v>43092</v>
+      </c>
       <c r="G161" s="4"/>
-      <c r="H161" s="19"/>
+      <c r="H161" s="19">
+        <v>2</v>
+      </c>
       <c r="I161" s="19"/>
       <c r="J161" s="12" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -27547,19 +27622,29 @@
       <c r="A162" s="16">
         <v>158</v>
       </c>
-      <c r="B162" s="17"/>
-      <c r="C162" s="18"/>
-      <c r="D162" s="18"/>
+      <c r="B162" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="C162" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="D162" s="18" t="s">
+        <v>97</v>
+      </c>
       <c r="E162" s="12" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F162" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F162" s="4">
+        <v>43092</v>
+      </c>
       <c r="G162" s="4"/>
-      <c r="H162" s="19"/>
+      <c r="H162" s="19">
+        <v>2</v>
+      </c>
       <c r="I162" s="19"/>
       <c r="J162" s="12" t="str">
-        <f t="shared" ref="J162:J200" ca="1" si="15">IF(ISBLANK(K162)=FALSE,OFFSET(J162,0,COUNTA(K162:M162)),"")</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K162" s="22"/>
@@ -27587,7 +27672,7 @@
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
       <c r="J163" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K163" s="22"/>
@@ -27615,7 +27700,7 @@
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
       <c r="J164" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ref="J164:J202" ca="1" si="15">IF(ISBLANK(K164)=FALSE,OFFSET(J164,0,COUNTA(K164:M164)),"")</f>
         <v/>
       </c>
       <c r="K164" s="22"/>
@@ -28587,7 +28672,7 @@
       <c r="C199" s="18"/>
       <c r="D199" s="18"/>
       <c r="E199" s="12" t="str">
-        <f t="shared" ref="E199:E200" si="16">IF(ISBLANK($B199),"",IF(ISBLANK($G199),"未着手",IF($J199=0,"完了","作業中")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F199" s="4"/>
@@ -28615,7 +28700,7 @@
       <c r="C200" s="18"/>
       <c r="D200" s="18"/>
       <c r="E200" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F200" s="4"/>
@@ -28634,6 +28719,62 @@
       <c r="P200" s="22"/>
       <c r="Q200" s="22"/>
       <c r="R200" s="22"/>
+    </row>
+    <row r="201" spans="1:18">
+      <c r="A201" s="16">
+        <v>197</v>
+      </c>
+      <c r="B201" s="17"/>
+      <c r="C201" s="18"/>
+      <c r="D201" s="18"/>
+      <c r="E201" s="12" t="str">
+        <f t="shared" ref="E201:E202" si="16">IF(ISBLANK($B201),"",IF(ISBLANK($G201),"未着手",IF($J201=0,"完了","作業中")))</f>
+        <v/>
+      </c>
+      <c r="F201" s="4"/>
+      <c r="G201" s="4"/>
+      <c r="H201" s="19"/>
+      <c r="I201" s="19"/>
+      <c r="J201" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="K201" s="22"/>
+      <c r="L201" s="22"/>
+      <c r="M201" s="22"/>
+      <c r="N201" s="22"/>
+      <c r="O201" s="22"/>
+      <c r="P201" s="22"/>
+      <c r="Q201" s="22"/>
+      <c r="R201" s="22"/>
+    </row>
+    <row r="202" spans="1:18">
+      <c r="A202" s="16">
+        <v>198</v>
+      </c>
+      <c r="B202" s="17"/>
+      <c r="C202" s="18"/>
+      <c r="D202" s="18"/>
+      <c r="E202" s="12" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="F202" s="4"/>
+      <c r="G202" s="4"/>
+      <c r="H202" s="19"/>
+      <c r="I202" s="19"/>
+      <c r="J202" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="K202" s="22"/>
+      <c r="L202" s="22"/>
+      <c r="M202" s="22"/>
+      <c r="N202" s="22"/>
+      <c r="O202" s="22"/>
+      <c r="P202" s="22"/>
+      <c r="Q202" s="22"/>
+      <c r="R202" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:D97"/>
@@ -28651,828 +28792,828 @@
     <mergeCell ref="H1:H4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
-  <conditionalFormatting sqref="D201:D65437">
-    <cfRule type="expression" dxfId="416" priority="325" stopIfTrue="1">
-      <formula>D201="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="415" priority="326" stopIfTrue="1">
-      <formula>D201="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="414" priority="327" stopIfTrue="1">
-      <formula>OR(D201="終了",D201="完了")</formula>
+  <conditionalFormatting sqref="D203:D65439">
+    <cfRule type="expression" dxfId="419" priority="325" stopIfTrue="1">
+      <formula>D203="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="418" priority="326" stopIfTrue="1">
+      <formula>D203="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="417" priority="327" stopIfTrue="1">
+      <formula>OR(D203="終了",D203="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP5:XFD5">
-    <cfRule type="expression" dxfId="413" priority="328" stopIfTrue="1">
+    <cfRule type="expression" dxfId="416" priority="328" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="329" stopIfTrue="1">
+    <cfRule type="expression" dxfId="415" priority="329" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="330" stopIfTrue="1">
+    <cfRule type="expression" dxfId="414" priority="330" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B201:B65437">
-    <cfRule type="expression" dxfId="410" priority="331" stopIfTrue="1">
-      <formula>D201="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="409" priority="332" stopIfTrue="1">
-      <formula>D201="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="408" priority="333" stopIfTrue="1">
-      <formula>OR(D201="終了",D201="完了")</formula>
+  <conditionalFormatting sqref="B203:B65439">
+    <cfRule type="expression" dxfId="413" priority="331" stopIfTrue="1">
+      <formula>D203="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="412" priority="332" stopIfTrue="1">
+      <formula>D203="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="411" priority="333" stopIfTrue="1">
+      <formula>OR(D203="終了",D203="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C201:C65437">
-    <cfRule type="expression" dxfId="407" priority="334" stopIfTrue="1">
-      <formula>D201="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="406" priority="335" stopIfTrue="1">
-      <formula>D201="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="405" priority="336" stopIfTrue="1">
-      <formula>OR(D201="終了",D201="完了")</formula>
+  <conditionalFormatting sqref="C203:C65439">
+    <cfRule type="expression" dxfId="410" priority="334" stopIfTrue="1">
+      <formula>D203="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="409" priority="335" stopIfTrue="1">
+      <formula>D203="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="408" priority="336" stopIfTrue="1">
+      <formula>OR(D203="終了",D203="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E201:H65437">
-    <cfRule type="expression" dxfId="404" priority="337" stopIfTrue="1">
-      <formula>$D201="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="403" priority="338" stopIfTrue="1">
-      <formula>$D201="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="402" priority="339" stopIfTrue="1">
-      <formula>OR($D201="終了",$D201="完了")</formula>
+  <conditionalFormatting sqref="E203:H65439">
+    <cfRule type="expression" dxfId="407" priority="337" stopIfTrue="1">
+      <formula>$D203="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="406" priority="338" stopIfTrue="1">
+      <formula>$D203="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="405" priority="339" stopIfTrue="1">
+      <formula>OR($D203="終了",$D203="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:IO5 A6:R6 B8:J8 G9:J12 B27:J27 K27:R30 G28:J30 I13:J13 I15:I16 J14:J16 B16:H16 G13:H15 B9:F15 K8:R24 B17:J24 B41:H58 B25:R26 B59:R61 B37:E37 H37 G31:R36 B28:F36 B38:M40 N37:R40 A7:A200 B63:R121 B122:B126 D122:R126 B127:R200">
-    <cfRule type="expression" dxfId="401" priority="205" stopIfTrue="1">
+  <conditionalFormatting sqref="A5:IO5 A6:R6 B8:J8 G9:J12 B27:J27 K27:R30 G28:J30 I13:J13 I15:I16 J14:J16 B16:H16 G13:H15 K8:R24 B25:R26 B59:R61 B37:E37 H37 G31:R36 B38:M40 N37:R40 B122:B126 B9:F15 B17:J24 B28:F36 B41:H58 B63:R121 D122:R126 B127:R153 A7:A153 A154:R202">
+    <cfRule type="expression" dxfId="404" priority="205" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="403" priority="206" stopIfTrue="1">
       <formula>$E5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="399" priority="207" stopIfTrue="1">
+    <cfRule type="expression" dxfId="402" priority="207" stopIfTrue="1">
       <formula>OR($E5="終了",$E5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14 C123">
-    <cfRule type="expression" dxfId="398" priority="208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="401" priority="208" stopIfTrue="1">
       <formula>$E13="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="400" priority="209" stopIfTrue="1">
       <formula>$E13="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="399" priority="210" stopIfTrue="1">
       <formula>OR($E13="終了",$E13="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:IO6">
-    <cfRule type="expression" dxfId="395" priority="211" stopIfTrue="1">
+    <cfRule type="expression" dxfId="398" priority="211" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="397" priority="212" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="396" priority="213" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9:IO10">
-    <cfRule type="expression" dxfId="392" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="395" priority="217" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="391" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="394" priority="218" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="219" stopIfTrue="1">
+    <cfRule type="expression" dxfId="393" priority="219" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12:IO16">
-    <cfRule type="expression" dxfId="389" priority="223" stopIfTrue="1">
+    <cfRule type="expression" dxfId="392" priority="223" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="224" stopIfTrue="1">
+    <cfRule type="expression" dxfId="391" priority="224" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="225" stopIfTrue="1">
+    <cfRule type="expression" dxfId="390" priority="225" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB20:IO20">
-    <cfRule type="expression" dxfId="386" priority="235" stopIfTrue="1">
+    <cfRule type="expression" dxfId="389" priority="235" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="236" stopIfTrue="1">
+    <cfRule type="expression" dxfId="388" priority="236" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="387" priority="237" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB23:IO23 S24:IO24">
-    <cfRule type="expression" dxfId="383" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="386" priority="238" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="239" stopIfTrue="1">
+    <cfRule type="expression" dxfId="385" priority="239" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="384" priority="240" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB21:IO22">
-    <cfRule type="expression" dxfId="380" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="383" priority="241" stopIfTrue="1">
       <formula>$E15="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="382" priority="242" stopIfTrue="1">
       <formula>$E15="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="243" stopIfTrue="1">
+    <cfRule type="expression" dxfId="381" priority="243" stopIfTrue="1">
       <formula>OR($E15="終了",$E15="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26:IO26">
-    <cfRule type="expression" dxfId="377" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="380" priority="250" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="251" stopIfTrue="1">
+    <cfRule type="expression" dxfId="379" priority="251" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="252" stopIfTrue="1">
+    <cfRule type="expression" dxfId="378" priority="252" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S44 AD44:IO45">
-    <cfRule type="expression" dxfId="374" priority="256" stopIfTrue="1">
+    <cfRule type="expression" dxfId="377" priority="256" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="257" stopIfTrue="1">
+    <cfRule type="expression" dxfId="376" priority="257" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="258" stopIfTrue="1">
+    <cfRule type="expression" dxfId="375" priority="258" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S29:S30 Z28:IO30">
-    <cfRule type="expression" dxfId="371" priority="259" stopIfTrue="1">
+    <cfRule type="expression" dxfId="374" priority="259" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="260" stopIfTrue="1">
+    <cfRule type="expression" dxfId="373" priority="260" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="372" priority="261" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z32:IO33 V30:Y31">
-    <cfRule type="expression" dxfId="368" priority="262" stopIfTrue="1">
+    <cfRule type="expression" dxfId="371" priority="262" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="367" priority="263" stopIfTrue="1">
+    <cfRule type="expression" dxfId="370" priority="263" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="264" stopIfTrue="1">
+    <cfRule type="expression" dxfId="369" priority="264" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z31:IO31 V29:Y29">
-    <cfRule type="expression" dxfId="365" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="368" priority="265" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="266" stopIfTrue="1">
+    <cfRule type="expression" dxfId="367" priority="266" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="267" stopIfTrue="1">
+    <cfRule type="expression" dxfId="366" priority="267" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S42:S43 Z42:IO43">
-    <cfRule type="expression" dxfId="362" priority="283" stopIfTrue="1">
+    <cfRule type="expression" dxfId="365" priority="283" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="284" stopIfTrue="1">
+    <cfRule type="expression" dxfId="364" priority="284" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="285" stopIfTrue="1">
+    <cfRule type="expression" dxfId="363" priority="285" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD49:IO49 T47:U47">
-    <cfRule type="expression" dxfId="359" priority="289" stopIfTrue="1">
+    <cfRule type="expression" dxfId="362" priority="289" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="290" stopIfTrue="1">
+    <cfRule type="expression" dxfId="361" priority="290" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="291" stopIfTrue="1">
+    <cfRule type="expression" dxfId="360" priority="291" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:M58">
-    <cfRule type="expression" dxfId="356" priority="292" stopIfTrue="1">
+    <cfRule type="expression" dxfId="359" priority="292" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="293" stopIfTrue="1">
+    <cfRule type="expression" dxfId="358" priority="293" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="294" stopIfTrue="1">
+    <cfRule type="expression" dxfId="357" priority="294" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD51:IO51 T49:U49">
-    <cfRule type="expression" dxfId="353" priority="295" stopIfTrue="1">
+    <cfRule type="expression" dxfId="356" priority="295" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="296" stopIfTrue="1">
+    <cfRule type="expression" dxfId="355" priority="296" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="351" priority="297" stopIfTrue="1">
+    <cfRule type="expression" dxfId="354" priority="297" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD47:IO47 Z53:IO53 S53">
-    <cfRule type="expression" dxfId="350" priority="298" stopIfTrue="1">
+    <cfRule type="expression" dxfId="353" priority="298" stopIfTrue="1">
       <formula>$E24="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="299" stopIfTrue="1">
+    <cfRule type="expression" dxfId="352" priority="299" stopIfTrue="1">
       <formula>$E24="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="300" stopIfTrue="1">
+    <cfRule type="expression" dxfId="351" priority="300" stopIfTrue="1">
       <formula>OR($E24="終了",$E24="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S57 Z57:IO57 T55:Y55">
-    <cfRule type="expression" dxfId="347" priority="310" stopIfTrue="1">
+    <cfRule type="expression" dxfId="350" priority="310" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="311" stopIfTrue="1">
+    <cfRule type="expression" dxfId="349" priority="311" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="312" stopIfTrue="1">
+    <cfRule type="expression" dxfId="348" priority="312" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S54:S56 Z54:IO56 T52:Y54">
-    <cfRule type="expression" dxfId="344" priority="313" stopIfTrue="1">
+    <cfRule type="expression" dxfId="347" priority="313" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="314" stopIfTrue="1">
+    <cfRule type="expression" dxfId="346" priority="314" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="315" stopIfTrue="1">
+    <cfRule type="expression" dxfId="345" priority="315" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S58:S60 Z58:IO60 T56:Y58">
-    <cfRule type="expression" dxfId="341" priority="316" stopIfTrue="1">
+    <cfRule type="expression" dxfId="344" priority="316" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="317" stopIfTrue="1">
+    <cfRule type="expression" dxfId="343" priority="317" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="318" stopIfTrue="1">
+    <cfRule type="expression" dxfId="342" priority="318" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S61 Z61:IO61 T59:Y59">
-    <cfRule type="expression" dxfId="338" priority="322" stopIfTrue="1">
+    <cfRule type="expression" dxfId="341" priority="322" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="323" stopIfTrue="1">
+    <cfRule type="expression" dxfId="340" priority="323" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="324" stopIfTrue="1">
+    <cfRule type="expression" dxfId="339" priority="324" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17:IO17">
-    <cfRule type="expression" dxfId="335" priority="646" stopIfTrue="1">
+    <cfRule type="expression" dxfId="338" priority="646" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="647" stopIfTrue="1">
+    <cfRule type="expression" dxfId="337" priority="647" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="648" stopIfTrue="1">
+    <cfRule type="expression" dxfId="336" priority="648" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:IO19">
-    <cfRule type="expression" dxfId="332" priority="679" stopIfTrue="1">
+    <cfRule type="expression" dxfId="335" priority="679" stopIfTrue="1">
       <formula>$E13="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="680" stopIfTrue="1">
+    <cfRule type="expression" dxfId="334" priority="680" stopIfTrue="1">
       <formula>$E13="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="681" stopIfTrue="1">
+    <cfRule type="expression" dxfId="333" priority="681" stopIfTrue="1">
       <formula>OR($E13="終了",$E13="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z27:IO27">
-    <cfRule type="expression" dxfId="329" priority="718" stopIfTrue="1">
+    <cfRule type="expression" dxfId="332" priority="718" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="719" stopIfTrue="1">
+    <cfRule type="expression" dxfId="331" priority="719" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="720" stopIfTrue="1">
+    <cfRule type="expression" dxfId="330" priority="720" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S41 Z41:IO41 S35:S39 Z35:IO39">
-    <cfRule type="expression" dxfId="326" priority="814" stopIfTrue="1">
+    <cfRule type="expression" dxfId="329" priority="814" stopIfTrue="1">
       <formula>$E17="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="815" stopIfTrue="1">
+    <cfRule type="expression" dxfId="328" priority="815" stopIfTrue="1">
       <formula>$E17="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="816" stopIfTrue="1">
+    <cfRule type="expression" dxfId="327" priority="816" stopIfTrue="1">
       <formula>OR($E17="終了",$E17="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S40 Z40:IO40">
-    <cfRule type="expression" dxfId="323" priority="871" stopIfTrue="1">
+    <cfRule type="expression" dxfId="326" priority="871" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="872" stopIfTrue="1">
+    <cfRule type="expression" dxfId="325" priority="872" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="873" stopIfTrue="1">
+    <cfRule type="expression" dxfId="324" priority="873" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP21:XFD22 IP24:XFD25 IP28:XFD29">
-    <cfRule type="expression" dxfId="320" priority="922" stopIfTrue="1">
+    <cfRule type="expression" dxfId="323" priority="922" stopIfTrue="1">
       <formula>$D17="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="319" priority="923" stopIfTrue="1">
+    <cfRule type="expression" dxfId="322" priority="923" stopIfTrue="1">
       <formula>$D17="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="924" stopIfTrue="1">
+    <cfRule type="expression" dxfId="321" priority="924" stopIfTrue="1">
       <formula>OR($D17="終了",$D17="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP57:XFD57">
-    <cfRule type="expression" dxfId="317" priority="952" stopIfTrue="1">
+    <cfRule type="expression" dxfId="320" priority="952" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="953" stopIfTrue="1">
+    <cfRule type="expression" dxfId="319" priority="953" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="954" stopIfTrue="1">
+    <cfRule type="expression" dxfId="318" priority="954" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I201:M65437">
-    <cfRule type="expression" dxfId="314" priority="955" stopIfTrue="1">
-      <formula>$D201="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="313" priority="956" stopIfTrue="1">
-      <formula>$D201="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="312" priority="957" stopIfTrue="1">
-      <formula>OR($D201="終了",$D201="完了")</formula>
+  <conditionalFormatting sqref="I203:M65439">
+    <cfRule type="expression" dxfId="317" priority="955" stopIfTrue="1">
+      <formula>$D203="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="316" priority="956" stopIfTrue="1">
+      <formula>$D203="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="315" priority="957" stopIfTrue="1">
+      <formula>OR($D203="終了",$D203="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:R56">
-    <cfRule type="expression" dxfId="311" priority="961" stopIfTrue="1">
+    <cfRule type="expression" dxfId="314" priority="961" stopIfTrue="1">
       <formula>$E43="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="962" stopIfTrue="1">
+    <cfRule type="expression" dxfId="313" priority="962" stopIfTrue="1">
       <formula>$E43="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="963" stopIfTrue="1">
+    <cfRule type="expression" dxfId="312" priority="963" stopIfTrue="1">
       <formula>OR($E43="終了",$E43="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD48:IO48 T48:U48">
-    <cfRule type="expression" dxfId="308" priority="1048" stopIfTrue="1">
+    <cfRule type="expression" dxfId="311" priority="1048" stopIfTrue="1">
       <formula>$E24="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="1049" stopIfTrue="1">
+    <cfRule type="expression" dxfId="310" priority="1049" stopIfTrue="1">
       <formula>$E24="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="1050" stopIfTrue="1">
+    <cfRule type="expression" dxfId="309" priority="1050" stopIfTrue="1">
       <formula>OR($E24="終了",$E24="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP36:XFD36">
-    <cfRule type="expression" dxfId="305" priority="1063" stopIfTrue="1">
+    <cfRule type="expression" dxfId="308" priority="1063" stopIfTrue="1">
       <formula>$D38="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="1064" stopIfTrue="1">
+    <cfRule type="expression" dxfId="307" priority="1064" stopIfTrue="1">
       <formula>$D38="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="1065" stopIfTrue="1">
+    <cfRule type="expression" dxfId="306" priority="1065" stopIfTrue="1">
       <formula>OR($D38="終了",$D38="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S25:IO25">
-    <cfRule type="expression" dxfId="302" priority="1177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="305" priority="1177" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="1178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="304" priority="1178" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="1179" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="1179" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD50:IO50">
-    <cfRule type="expression" dxfId="299" priority="1180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="302" priority="1180" stopIfTrue="1">
       <formula>$E24="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="1181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="301" priority="1181" stopIfTrue="1">
       <formula>$E24="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="1182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="300" priority="1182" stopIfTrue="1">
       <formula>OR($E24="終了",$E24="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP6:XFD10">
-    <cfRule type="expression" dxfId="296" priority="1204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="1204" stopIfTrue="1">
       <formula>$D8="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="1205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="298" priority="1205" stopIfTrue="1">
       <formula>$D8="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="1206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="297" priority="1206" stopIfTrue="1">
       <formula>OR($D8="終了",$D8="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP15:XFD17 IP11:XFD11">
-    <cfRule type="expression" dxfId="293" priority="1207" stopIfTrue="1">
+    <cfRule type="expression" dxfId="296" priority="1207" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="1208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="1208" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="1209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="294" priority="1209" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP12:XFD14">
-    <cfRule type="expression" dxfId="290" priority="1984" stopIfTrue="1">
+    <cfRule type="expression" dxfId="293" priority="1984" stopIfTrue="1">
       <formula>$D13="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="1985" stopIfTrue="1">
+    <cfRule type="expression" dxfId="292" priority="1985" stopIfTrue="1">
       <formula>$D13="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="1986" stopIfTrue="1">
+    <cfRule type="expression" dxfId="291" priority="1986" stopIfTrue="1">
       <formula>OR($D13="終了",$D13="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:IO8 C7:R7 S11:IO11">
-    <cfRule type="expression" dxfId="287" priority="1987" stopIfTrue="1">
+    <cfRule type="expression" dxfId="290" priority="1987" stopIfTrue="1">
       <formula>$E8="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="1988" stopIfTrue="1">
+    <cfRule type="expression" dxfId="289" priority="1988" stopIfTrue="1">
       <formula>$E8="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="1989" stopIfTrue="1">
+    <cfRule type="expression" dxfId="288" priority="1989" stopIfTrue="1">
       <formula>OR($E8="終了",$E8="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP23:XFD23 IP48:XFD56">
-    <cfRule type="expression" dxfId="284" priority="2011" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="2011" stopIfTrue="1">
       <formula>$D18="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="2012" stopIfTrue="1">
+    <cfRule type="expression" dxfId="286" priority="2012" stopIfTrue="1">
       <formula>$D18="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="2013" stopIfTrue="1">
+    <cfRule type="expression" dxfId="285" priority="2013" stopIfTrue="1">
       <formula>OR($D18="終了",$D18="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD46:IO46">
-    <cfRule type="expression" dxfId="281" priority="2047" stopIfTrue="1">
+    <cfRule type="expression" dxfId="284" priority="2047" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="2048" stopIfTrue="1">
+    <cfRule type="expression" dxfId="283" priority="2048" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="2049" stopIfTrue="1">
+    <cfRule type="expression" dxfId="282" priority="2049" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP26:XFD26 IP35:XFD35">
-    <cfRule type="expression" dxfId="278" priority="2065" stopIfTrue="1">
+    <cfRule type="expression" dxfId="281" priority="2065" stopIfTrue="1">
       <formula>$D23="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="2066" stopIfTrue="1">
+    <cfRule type="expression" dxfId="280" priority="2066" stopIfTrue="1">
       <formula>$D23="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="2067" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="2067" stopIfTrue="1">
       <formula>OR($D23="終了",$D23="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP27:XFD27">
-    <cfRule type="expression" dxfId="275" priority="2071" stopIfTrue="1">
+    <cfRule type="expression" dxfId="278" priority="2071" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="2072" stopIfTrue="1">
+    <cfRule type="expression" dxfId="277" priority="2072" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="2073" stopIfTrue="1">
+    <cfRule type="expression" dxfId="276" priority="2073" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="272" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="52" stopIfTrue="1">
       <formula>$E7="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="274" priority="53" stopIfTrue="1">
       <formula>$E7="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="273" priority="54" stopIfTrue="1">
       <formula>OR($E7="終了",$E7="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP31:XFD31">
-    <cfRule type="expression" dxfId="269" priority="2170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="272" priority="2170" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="2171" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="2171" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="2172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="270" priority="2172" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP38:XFD39">
-    <cfRule type="expression" dxfId="266" priority="2278" stopIfTrue="1">
+    <cfRule type="expression" dxfId="269" priority="2278" stopIfTrue="1">
       <formula>$D33="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="2279" stopIfTrue="1">
+    <cfRule type="expression" dxfId="268" priority="2279" stopIfTrue="1">
       <formula>$D33="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="2280" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="2280" stopIfTrue="1">
       <formula>OR($D33="終了",$D33="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP42:XFD42">
-    <cfRule type="expression" dxfId="263" priority="2296" stopIfTrue="1">
+    <cfRule type="expression" dxfId="266" priority="2296" stopIfTrue="1">
       <formula>$D26="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="2297" stopIfTrue="1">
+    <cfRule type="expression" dxfId="265" priority="2297" stopIfTrue="1">
       <formula>$D26="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="2298" stopIfTrue="1">
+    <cfRule type="expression" dxfId="264" priority="2298" stopIfTrue="1">
       <formula>OR($D26="終了",$D26="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP41:XFD41">
-    <cfRule type="expression" dxfId="260" priority="2320" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="2320" stopIfTrue="1">
       <formula>$D35="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="2321" stopIfTrue="1">
+    <cfRule type="expression" dxfId="262" priority="2321" stopIfTrue="1">
       <formula>$D35="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="2322" stopIfTrue="1">
+    <cfRule type="expression" dxfId="261" priority="2322" stopIfTrue="1">
       <formula>OR($D35="終了",$D35="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J57">
-    <cfRule type="expression" dxfId="257" priority="2587" stopIfTrue="1">
+    <cfRule type="expression" dxfId="260" priority="2587" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="2588" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="2588" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="2589" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="2589" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP32:XFD33">
-    <cfRule type="expression" dxfId="254" priority="3046" stopIfTrue="1">
+    <cfRule type="expression" dxfId="257" priority="3046" stopIfTrue="1">
       <formula>$D29="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="3047" stopIfTrue="1">
+    <cfRule type="expression" dxfId="256" priority="3047" stopIfTrue="1">
       <formula>$D29="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="3048" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="3048" stopIfTrue="1">
       <formula>OR($D29="終了",$D29="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP30:XFD30">
-    <cfRule type="expression" dxfId="251" priority="3061" stopIfTrue="1">
+    <cfRule type="expression" dxfId="254" priority="3061" stopIfTrue="1">
       <formula>$D28="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="3062" stopIfTrue="1">
+    <cfRule type="expression" dxfId="253" priority="3062" stopIfTrue="1">
       <formula>$D28="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="3063" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="3063" stopIfTrue="1">
       <formula>OR($D28="終了",$D28="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP40:XFD40">
-    <cfRule type="expression" dxfId="248" priority="3085" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="3085" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="3086" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="3086" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="3087" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="3087" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="expression" dxfId="245" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="22" stopIfTrue="1">
       <formula>$E62="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="23" stopIfTrue="1">
       <formula>$E62="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="24" stopIfTrue="1">
       <formula>OR($E62="終了",$E62="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62:F62">
-    <cfRule type="expression" dxfId="242" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="245" priority="25" stopIfTrue="1">
       <formula>$E62="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="244" priority="26" stopIfTrue="1">
       <formula>$E62="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="27" stopIfTrue="1">
       <formula>OR($E62="終了",$E62="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N58:R58">
-    <cfRule type="expression" dxfId="239" priority="3592" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="3592" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="3593" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="3593" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="3594" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="3594" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP44:XFD44">
-    <cfRule type="expression" dxfId="236" priority="3739" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="3739" stopIfTrue="1">
       <formula>$D39="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="3740" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="3740" stopIfTrue="1">
       <formula>$D39="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="3741" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="3741" stopIfTrue="1">
       <formula>OR($D39="終了",$D39="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP43:XFD43">
-    <cfRule type="expression" dxfId="233" priority="3760" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="3760" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="3761" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="3761" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="3762" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="3762" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP45:XFD47">
-    <cfRule type="expression" dxfId="230" priority="3823" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="3823" stopIfTrue="1">
       <formula>$D41="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="3824" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="3824" stopIfTrue="1">
       <formula>$D41="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="3825" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="3825" stopIfTrue="1">
       <formula>OR($D41="終了",$D41="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="expression" dxfId="227" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="13" stopIfTrue="1">
       <formula>$E37="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="14" stopIfTrue="1">
       <formula>$E37="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="15" stopIfTrue="1">
       <formula>OR($E37="終了",$E37="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP34:XFD34">
-    <cfRule type="expression" dxfId="224" priority="3922" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="3922" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="3923" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="3923" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="3924" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="3924" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP37:XFD37">
-    <cfRule type="expression" dxfId="221" priority="3961" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="3961" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="3962" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="3962" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="3963" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="3963" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S34 Z34:IO34 T32:Y32">
-    <cfRule type="expression" dxfId="218" priority="1150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="1150" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="1151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="1151" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="1152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="1152" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP18:XFD20">
-    <cfRule type="expression" dxfId="215" priority="1156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="1156" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="1157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="1157" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="1158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="1158" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="expression" dxfId="212" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="10" stopIfTrue="1">
       <formula>$E122="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="11" stopIfTrue="1">
       <formula>$E122="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="12" stopIfTrue="1">
       <formula>OR($E122="終了",$E122="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C124">
-    <cfRule type="expression" dxfId="209" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="7" stopIfTrue="1">
       <formula>$E123="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="8" stopIfTrue="1">
       <formula>$E123="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="9" stopIfTrue="1">
       <formula>OR($E123="終了",$E123="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C125">
-    <cfRule type="expression" dxfId="206" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="4" stopIfTrue="1">
       <formula>$E124="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="5" stopIfTrue="1">
       <formula>$E124="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="6" stopIfTrue="1">
       <formula>OR($E124="終了",$E124="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C126">
-    <cfRule type="expression" dxfId="203" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="1" stopIfTrue="1">
       <formula>$E125="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="2" stopIfTrue="1">
       <formula>$E125="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="3" stopIfTrue="1">
       <formula>OR($E125="終了",$E125="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T45:U45 T51:Y51">
-    <cfRule type="expression" dxfId="200" priority="3994" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="3994" stopIfTrue="1">
       <formula>$E24="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="3995" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="3995" stopIfTrue="1">
       <formula>$E24="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="3996" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="3996" stopIfTrue="1">
       <formula>OR($E24="終了",$E24="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T46:U46">
-    <cfRule type="expression" dxfId="197" priority="4021" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="4021" stopIfTrue="1">
       <formula>$E24="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="4022" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="4022" stopIfTrue="1">
       <formula>$E24="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="4023" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="4023" stopIfTrue="1">
       <formula>OR($E24="終了",$E24="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T33:Y35">
-    <cfRule type="expression" dxfId="194" priority="4030" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="4030" stopIfTrue="1">
       <formula>$E17="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="4031" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="4031" stopIfTrue="1">
       <formula>$E17="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="4032" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="4032" stopIfTrue="1">
       <formula>OR($E17="終了",$E17="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29626,35 +29767,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.75" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.75" style="25" customWidth="1"/>
-    <col min="13" max="13" width="5.75" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.875" customWidth="1"/>
-    <col min="24" max="24" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.75" customWidth="1"/>
-    <col min="27" max="27" width="3.75" customWidth="1"/>
-    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.77734375" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.77734375" style="25" customWidth="1"/>
+    <col min="13" max="13" width="5.77734375" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.88671875" customWidth="1"/>
+    <col min="24" max="24" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.77734375" customWidth="1"/>
+    <col min="27" max="27" width="3.77734375" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="8" customFormat="1" ht="15" customHeight="1">
@@ -29667,7 +29808,7 @@
       <c r="C1" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="108" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="102" t="s">
@@ -29707,7 +29848,7 @@
       <c r="A2" s="102"/>
       <c r="B2" s="103"/>
       <c r="C2" s="103"/>
-      <c r="D2" s="111"/>
+      <c r="D2" s="109"/>
       <c r="E2" s="102"/>
       <c r="F2" s="105"/>
       <c r="G2" s="105"/>
@@ -29715,32 +29856,32 @@
       <c r="I2" s="107"/>
       <c r="J2" s="102"/>
       <c r="K2" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="L2" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="L2" s="75" t="s">
+      <c r="M2" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="M2" s="75" t="s">
+      <c r="N2" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="N2" s="75" t="s">
+      <c r="O2" s="75" t="s">
         <v>145</v>
       </c>
-      <c r="O2" s="75" t="s">
+      <c r="P2" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="Q2" s="23" t="s">
         <v>147</v>
-      </c>
-      <c r="Q2" s="23" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="8" customFormat="1">
       <c r="A3" s="102"/>
       <c r="B3" s="103"/>
       <c r="C3" s="103"/>
-      <c r="D3" s="111"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="102"/>
       <c r="F3" s="105"/>
       <c r="G3" s="105"/>
@@ -29780,7 +29921,7 @@
       <c r="A4" s="102"/>
       <c r="B4" s="103"/>
       <c r="C4" s="104"/>
-      <c r="D4" s="112"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="102"/>
       <c r="F4" s="105"/>
       <c r="G4" s="105"/>
@@ -29821,7 +29962,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C5" s="51"/>
       <c r="D5" s="51"/>
@@ -29847,7 +29988,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
@@ -29911,7 +30052,7 @@
         <v>65</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E8" s="12" t="str">
         <f t="shared" si="2"/>
@@ -29946,7 +30087,7 @@
         <v>65</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E9" s="12" t="str">
         <f t="shared" si="2"/>
@@ -29981,7 +30122,7 @@
         <v>65</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E10" s="12" t="str">
         <f t="shared" si="2"/>
@@ -30016,7 +30157,7 @@
         <v>47</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E11" s="12" t="str">
         <f t="shared" si="2"/>
@@ -30051,7 +30192,7 @@
         <v>65</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E12" s="12" t="str">
         <f t="shared" si="2"/>
@@ -30080,13 +30221,13 @@
         <v>21</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="E13" s="12" t="str">
         <f>IF(ISBLANK($B13),"",IF(ISBLANK($G13),"未着手",IF($J13=0,"完了","作業中")))</f>
@@ -30116,7 +30257,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="76" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="77"/>
       <c r="D14" s="77"/>
@@ -30867,22 +31008,22 @@
         <v>47</v>
       </c>
       <c r="T38" s="10">
-        <f t="shared" ref="T38:T43" si="8">SUMIF($C$5:$C$14,S38,$H$5:$H$14)</f>
+        <f>SUMIF($C$5:$C$100,S38,$H$5:$H$100)</f>
         <v>4</v>
       </c>
       <c r="U38" s="10">
-        <f t="shared" ref="U38:U43" si="9">SUMIF($C$5:$C$14,S38,$I$5:$I$14)</f>
+        <f ca="1">SUMIF($C$5:$C$100,S38,$J$5:$J$100)</f>
         <v>0</v>
       </c>
       <c r="V38" s="10">
-        <f t="shared" ref="V38:V43" si="10">T38-U38</f>
+        <f t="shared" ref="V38:V43" ca="1" si="8">T38-U38</f>
         <v>4</v>
       </c>
       <c r="W38" s="14">
         <v>0</v>
       </c>
       <c r="X38" s="15">
-        <f>IF(W38&gt;U38,0,U38-W38)</f>
+        <f ca="1">IF(W38&gt;U38,0,U38-W38)</f>
         <v>0</v>
       </c>
     </row>
@@ -30912,20 +31053,20 @@
       <c r="O39" s="22"/>
       <c r="P39" s="22"/>
       <c r="Q39" s="22"/>
-      <c r="S39" s="11" t="s">
-        <v>74</v>
+      <c r="S39" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="T39" s="10">
+        <f t="shared" ref="T39:T43" si="9">SUMIF($C$5:$C$100,S39,$H$5:$H$100)</f>
+        <v>2</v>
+      </c>
+      <c r="U39" s="10">
+        <f t="shared" ref="U39:U43" si="10">SUMIF($C$5:$C$14,S39,$I$5:$I$14)</f>
+        <v>0</v>
+      </c>
+      <c r="V39" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U39" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V39" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W39" s="14">
         <v>0</v>
@@ -30965,15 +31106,15 @@
         <v>63</v>
       </c>
       <c r="T40" s="10">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="U40" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V40" s="10">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="U40" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V40" s="10">
-        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="W40" s="14">
@@ -31014,15 +31155,15 @@
         <v>66</v>
       </c>
       <c r="T41" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U41" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="U41" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="V41" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W41" s="14">
@@ -31063,15 +31204,15 @@
         <v>65</v>
       </c>
       <c r="T42" s="10">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="U42" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V42" s="10">
         <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="U42" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V42" s="10">
-        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="W42" s="14">
@@ -31109,18 +31250,18 @@
       <c r="P43" s="22"/>
       <c r="Q43" s="22"/>
       <c r="S43" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T43" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U43" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="U43" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="V43" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W43" s="14">
@@ -31270,350 +31411,361 @@
   </sheetData>
   <autoFilter ref="C1:D49"/>
   <mergeCells count="11">
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:Q1"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:D4"/>
     <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D50:D65389">
-    <cfRule type="expression" dxfId="179" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="127" stopIfTrue="1">
       <formula>D50="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="128" stopIfTrue="1">
       <formula>D50="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="129" stopIfTrue="1">
       <formula>OR(D50="終了",D50="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO5:XFD5">
-    <cfRule type="expression" dxfId="176" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="130" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="131" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="132" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B65389">
-    <cfRule type="expression" dxfId="173" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="133" stopIfTrue="1">
       <formula>D50="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="134" stopIfTrue="1">
       <formula>D50="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="135" stopIfTrue="1">
       <formula>OR(D50="終了",D50="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:C65389">
-    <cfRule type="expression" dxfId="170" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="136" stopIfTrue="1">
       <formula>D50="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="137" stopIfTrue="1">
       <formula>D50="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="138" stopIfTrue="1">
       <formula>OR(D50="終了",D50="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50:J65389">
-    <cfRule type="expression" dxfId="167" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="139" stopIfTrue="1">
       <formula>$D50="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="140" stopIfTrue="1">
       <formula>$D50="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="141" stopIfTrue="1">
       <formula>OR($D50="終了",$D50="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:Q6 B7:Q7 B14:Q14 D9 D11 C10 B11 E10:I10 B15:I47 A7:A12 J8:Q12 A5:IN5 A14:A47">
-    <cfRule type="expression" dxfId="164" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="58" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="59" stopIfTrue="1">
       <formula>$E5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="60" stopIfTrue="1">
       <formula>OR($E5="終了",$E5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:IN6">
-    <cfRule type="expression" dxfId="161" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="64" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="65" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="66" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9:IN10">
-    <cfRule type="expression" dxfId="158" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="67" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="68" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="69" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:IN12 R14:IN15 S13:IN13">
-    <cfRule type="expression" dxfId="155" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="70" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="71" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="72" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA19:IN19">
-    <cfRule type="expression" dxfId="152" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="73" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="74" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="75" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R22:IN23 AA21:IN21">
-    <cfRule type="expression" dxfId="149" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="76" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="77" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="78" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R24:IN24">
-    <cfRule type="expression" dxfId="146" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="82" stopIfTrue="1">
       <formula>$E7="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="83" stopIfTrue="1">
       <formula>$E7="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="84" stopIfTrue="1">
       <formula>OR($E7="終了",$E7="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R25:IN25">
-    <cfRule type="expression" dxfId="143" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="85" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="86" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="87" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R43 AC43:IN44 S44:T44">
-    <cfRule type="expression" dxfId="140" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="88" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="89" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="90" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R29:R30 Y27:IN30">
-    <cfRule type="expression" dxfId="137" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="91" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="92" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="93" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U32:IN33">
-    <cfRule type="expression" dxfId="134" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="94" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="95" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="96" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U31:IN31">
-    <cfRule type="expression" dxfId="131" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="97" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="98" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="99" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R41:R42 Y41:IN42">
-    <cfRule type="expression" dxfId="128" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="100" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="101" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="102" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC48:IN48 S48:T48">
-    <cfRule type="expression" dxfId="125" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="103" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="104" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="105" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC50:IN50 S50:T50">
-    <cfRule type="expression" dxfId="122" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="109" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="110" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="111" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R56:IN56">
-    <cfRule type="expression" dxfId="119" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="115" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="116" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="117" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R53:IN55">
-    <cfRule type="expression" dxfId="116" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="118" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="119" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="120" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R57:IN58">
-    <cfRule type="expression" dxfId="113" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="121" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="122" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="123" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R59:IN59">
-    <cfRule type="expression" dxfId="110" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="124" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="125" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="126" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16:IN16">
-    <cfRule type="expression" dxfId="107" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="142" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="143" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="144" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y26:IN26">
-    <cfRule type="expression" dxfId="104" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="148" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="149" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="150" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R39 Y39:IN39">
-    <cfRule type="expression" dxfId="101" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="157" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="155" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="158" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="159" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO56:XFD56">
-    <cfRule type="expression" dxfId="98" priority="163" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="166" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="167" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="168" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:Q45 J15:J47">
-    <cfRule type="expression" dxfId="95" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="172" stopIfTrue="1">
       <formula>$E17="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="173" stopIfTrue="1">
       <formula>$E17="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="171" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="174" stopIfTrue="1">
       <formula>OR($E17="終了",$E17="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO43:XFD43">
-    <cfRule type="expression" dxfId="92" priority="181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="184" stopIfTrue="1">
       <formula>$D14="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="185" stopIfTrue="1">
       <formula>$D14="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="183" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="186" stopIfTrue="1">
       <formula>OR($D14="終了",$D14="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9 B8:E8 E11:E12 B9:C9 E9 D10 D12 B10 C11:C12 B12 H12">
+    <cfRule type="expression" dxfId="92" priority="31" stopIfTrue="1">
+      <formula>$E8="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="32" stopIfTrue="1">
+      <formula>$E8="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="33" stopIfTrue="1">
+      <formula>OR($E8="終了",$E8="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8 H11">
     <cfRule type="expression" dxfId="89" priority="28" stopIfTrue="1">
       <formula>$E8="未着手"</formula>
     </cfRule>
@@ -31624,260 +31776,260 @@
       <formula>OR($E8="終了",$E8="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8 H11">
+  <conditionalFormatting sqref="F9:G9 F12:G12">
     <cfRule type="expression" dxfId="86" priority="25" stopIfTrue="1">
-      <formula>$E8="未着手"</formula>
+      <formula>$E9="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="85" priority="26" stopIfTrue="1">
-      <formula>$E8="作業中"</formula>
+      <formula>$E9="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="84" priority="27" stopIfTrue="1">
-      <formula>OR($E8="終了",$E8="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9:G9 F12:G12">
-    <cfRule type="expression" dxfId="83" priority="22" stopIfTrue="1">
-      <formula>$E9="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="23" stopIfTrue="1">
-      <formula>$E9="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="24" stopIfTrue="1">
       <formula>OR($E9="終了",$E9="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:G8 F11:G11">
-    <cfRule type="expression" dxfId="80" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="22" stopIfTrue="1">
       <formula>$E8="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="23" stopIfTrue="1">
       <formula>$E8="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="24" stopIfTrue="1">
       <formula>OR($E8="終了",$E8="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:IN11 R7:IN8">
-    <cfRule type="expression" dxfId="77" priority="1180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="1183" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="1181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="1184" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="1182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="1185" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA20:IN20">
-    <cfRule type="expression" dxfId="74" priority="1195" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="1198" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="1196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="1199" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="1197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="1200" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA17:IN18">
-    <cfRule type="expression" dxfId="71" priority="1210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="1213" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="1211" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="1214" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="1212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="1215" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO6:XFD14">
-    <cfRule type="expression" dxfId="68" priority="1225" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="1228" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="1226" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="1229" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="1227" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="1230" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO15:XFD15">
-    <cfRule type="expression" dxfId="65" priority="1255" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="1258" stopIfTrue="1">
       <formula>$D7="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="1256" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="1259" stopIfTrue="1">
       <formula>$D7="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="1257" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="1260" stopIfTrue="1">
       <formula>OR($D7="終了",$D7="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO16:XFD16">
-    <cfRule type="expression" dxfId="62" priority="1258" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="1261" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="1259" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="1262" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="1260" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="1263" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R52:IN52 AC45:IN46 S45:T46">
-    <cfRule type="expression" dxfId="59" priority="1270" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="1273" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="1271" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="1274" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="1272" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="1275" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA51:IN51 S51:T51">
-    <cfRule type="expression" dxfId="56" priority="1279" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="1282" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="1280" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="1283" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="1281" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="1284" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40 Y40:IN40 R35:IN36">
-    <cfRule type="expression" dxfId="53" priority="1285" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="1288" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="1286" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="1289" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="1287" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="1290" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R37:R38 Y37:IN38">
-    <cfRule type="expression" dxfId="50" priority="1294" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="1297" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="1295" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="1298" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="1296" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="1299" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO20:XFD42">
-    <cfRule type="expression" dxfId="47" priority="1300" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="1303" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="1301" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="1304" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="1302" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="1305" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC47:IN47 S47:T47">
-    <cfRule type="expression" dxfId="44" priority="1303" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="1306" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="1304" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="1307" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="1305" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="1308" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S49:T49 AC49:IN49">
-    <cfRule type="expression" dxfId="41" priority="1312" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="1315" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="1313" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="1316" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="1314" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="1317" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50:K65388">
-    <cfRule type="expression" dxfId="38" priority="1339" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="1342" stopIfTrue="1">
       <formula>$D51="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="1340" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="1343" stopIfTrue="1">
       <formula>$D51="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="1341" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="1344" stopIfTrue="1">
       <formula>OR($D51="終了",$D51="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:K46">
-    <cfRule type="expression" dxfId="35" priority="1420" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="1423" stopIfTrue="1">
       <formula>$E16="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="1421" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="1424" stopIfTrue="1">
       <formula>$E16="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="1422" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="1425" stopIfTrue="1">
       <formula>OR($E16="終了",$E16="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L50:M65387">
-    <cfRule type="expression" dxfId="32" priority="1429" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="1432" stopIfTrue="1">
       <formula>$D52="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="1430" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="1433" stopIfTrue="1">
       <formula>$D52="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="1431" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="1434" stopIfTrue="1">
       <formula>OR($D52="終了",$D52="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L46:Q47">
-    <cfRule type="expression" dxfId="29" priority="1678" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="1681" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="1679" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="1682" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="1680" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="1683" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K47">
-    <cfRule type="expression" dxfId="26" priority="1687" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="1690" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="1688" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="1691" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="1689" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="1692" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO47:XFD55">
-    <cfRule type="expression" dxfId="23" priority="1717" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="1720" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="1718" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="1721" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="1719" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="1722" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO44:XFD46">
-    <cfRule type="expression" dxfId="20" priority="1726" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="1729" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="1727" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="1730" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="1728" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="1731" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:R13 A13:E13">
+    <cfRule type="expression" dxfId="20" priority="7" stopIfTrue="1">
+      <formula>$E13="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="8" stopIfTrue="1">
+      <formula>$E13="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="9" stopIfTrue="1">
+      <formula>OR($E13="終了",$E13="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
     <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
       <formula>$E13="未着手"</formula>
     </cfRule>
@@ -31888,48 +32040,48 @@
       <formula>OR($E13="終了",$E13="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="14" priority="1" stopIfTrue="1">
-      <formula>$E13="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="2" stopIfTrue="1">
-      <formula>$E13="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="3" stopIfTrue="1">
-      <formula>OR($E13="終了",$E13="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I8:I9 I11:I12">
-    <cfRule type="expression" dxfId="11" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="187" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="188" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="189" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R34:IN34">
-    <cfRule type="expression" dxfId="8" priority="187" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="190" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="191" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="192" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO17:XFD19">
-    <cfRule type="expression" dxfId="5" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="193" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="191" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="194" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="195" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S39">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+      <formula>$E39="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+      <formula>$E39="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>OR($E39="終了",$E39="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -31946,30 +32098,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="28" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="28" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="28" customWidth="1"/>
     <col min="5" max="5" width="13" style="28" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="28" customWidth="1"/>
-    <col min="7" max="7" width="41.5" style="28" customWidth="1"/>
-    <col min="8" max="8" width="26.5" style="28" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="28" customWidth="1"/>
-    <col min="10" max="10" width="12.875" style="28" customWidth="1"/>
-    <col min="11" max="11" width="12.5" style="28" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" style="28" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="28" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" style="28" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" style="28" customWidth="1"/>
     <col min="12" max="12" width="9" style="28"/>
-    <col min="13" max="13" width="5.875" style="28" customWidth="1"/>
-    <col min="14" max="14" width="13.875" style="28" customWidth="1"/>
-    <col min="15" max="15" width="10.875" style="28" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="28" customWidth="1"/>
-    <col min="17" max="17" width="12.375" style="28" customWidth="1"/>
-    <col min="18" max="18" width="13.875" style="28" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" style="28" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" style="28" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" style="28" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" style="28" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="28" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" style="28" customWidth="1"/>
     <col min="19" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1">
+    <row r="1" spans="1:18" ht="13.8" thickBot="1">
       <c r="A1" s="26" t="s">
         <v>21</v>
       </c>
@@ -32185,7 +32337,7 @@
       <c r="Q9" s="35"/>
       <c r="R9" s="36"/>
     </row>
-    <row r="10" spans="1:18" ht="14.25" thickBot="1">
+    <row r="10" spans="1:18" ht="13.8" thickBot="1">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>

--- a/Godlibrary/BackLog.xlsx
+++ b/Godlibrary/BackLog.xlsx
@@ -22,7 +22,7 @@
     <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'スプリントバックログ(第2)'!$C$1:$D$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'スプリントバックログ(第2)'!$C$1:$D$123</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'スプリントバックログ(第3)'!$C$1:$D$97</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'スプリントバックログ(第4)'!$C$1:$D$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">デバッグシート!$B$1:$K$51</definedName>
@@ -659,7 +659,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="331">
   <si>
     <t>担当者</t>
   </si>
@@ -1257,25 +1257,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>編成[編成情報を取得しマップに反映]</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンセイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヘンセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ハンエイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>マップ[マップの表示]</t>
     <rPh sb="8" eb="10">
       <t>ヒョウジ</t>
@@ -3139,6 +3120,195 @@
     <t>齋藤</t>
     <rPh sb="0" eb="2">
       <t>サイトウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>マップエディタ　未実装の地形追加</t>
+    <rPh sb="8" eb="11">
+      <t>ミジッソウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チケイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>齋藤</t>
+    <rPh sb="0" eb="2">
+      <t>サイトウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>編成[編成並び順の情報を取得しマップに反映]</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>エネミープレハブ追加</t>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ロード時のエネミー配置調整機能追加</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>エネミー攻撃範囲実装</t>
+    <rPh sb="4" eb="8">
+      <t>コウゲキハンイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>中東</t>
+    <rPh sb="0" eb="2">
+      <t>ナカヒガシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>キャラクター選択時のバグ</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ステージ1ストーリー時　ケン出現時のウィンドウがおかしい</t>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>敵味方の移動速度が違う</t>
+    <rPh sb="0" eb="3">
+      <t>テキミカタ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>イドウソクド</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>タイトル連打すると動作不良</t>
+    <rPh sb="4" eb="6">
+      <t>レンダ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ドウサフリョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>常時</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ターン表示もっと長くしたい</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>倒れるアニメが冗長</t>
+    <rPh sb="0" eb="1">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ターン開始時に主人公にカーソルが固定される機能</t>
+    <rPh sb="3" eb="6">
+      <t>カイシジ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キノウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -3573,7 +3743,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3927,6 +4097,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3936,14 +4112,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3952,7 +4126,7 @@
     <cellStyle name="標準_チーム編成_スプリントバックログ（第４）" xfId="2"/>
     <cellStyle name="標準_バグシート" xfId="3"/>
   </cellStyles>
-  <dxfs count="690">
+  <dxfs count="687">
     <dxf>
       <font>
         <condense val="0"/>
@@ -5266,27 +5440,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="12"/>
@@ -10876,7 +11029,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -11004,7 +11156,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -11214,7 +11365,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -18638,57 +18788,57 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D105:D65536">
-    <cfRule type="expression" dxfId="689" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="686" priority="1" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="688" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="685" priority="2" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="687" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="684" priority="3" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD104">
-    <cfRule type="expression" dxfId="686" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="683" priority="4" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="685" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="682" priority="5" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="684" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="681" priority="6" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="683" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="680" priority="7" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="682" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="679" priority="8" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="681" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="678" priority="9" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="680" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="677" priority="10" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="679" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="676" priority="11" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="678" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="675" priority="12" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:P65536">
-    <cfRule type="expression" dxfId="677" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="674" priority="13" stopIfTrue="1">
       <formula>$D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="676" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="673" priority="14" stopIfTrue="1">
       <formula>$D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="675" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="672" priority="15" stopIfTrue="1">
       <formula>OR($D105="終了",$D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18702,9 +18852,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V68"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
@@ -18737,12 +18887,12 @@
         <v>1</v>
       </c>
       <c r="B1" s="102" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="110" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="102" t="s">
@@ -18766,8 +18916,8 @@
       <c r="K1" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="111"/>
-      <c r="M1" s="112"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="109"/>
       <c r="N1" s="74"/>
       <c r="O1" s="74"/>
       <c r="P1" s="74"/>
@@ -18782,7 +18932,7 @@
       <c r="A2" s="102"/>
       <c r="B2" s="103"/>
       <c r="C2" s="103"/>
-      <c r="D2" s="109"/>
+      <c r="D2" s="111"/>
       <c r="E2" s="102"/>
       <c r="F2" s="105"/>
       <c r="G2" s="105"/>
@@ -18793,17 +18943,17 @@
         <v>44</v>
       </c>
       <c r="L2" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="M2" s="23" t="s">
         <v>170</v>
-      </c>
-      <c r="M2" s="23" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="8" customFormat="1">
       <c r="A3" s="102"/>
       <c r="B3" s="103"/>
       <c r="C3" s="103"/>
-      <c r="D3" s="109"/>
+      <c r="D3" s="111"/>
       <c r="E3" s="102"/>
       <c r="F3" s="105"/>
       <c r="G3" s="105"/>
@@ -18827,7 +18977,7 @@
       <c r="A4" s="102"/>
       <c r="B4" s="103"/>
       <c r="C4" s="104"/>
-      <c r="D4" s="110"/>
+      <c r="D4" s="112"/>
       <c r="E4" s="102"/>
       <c r="F4" s="105"/>
       <c r="G4" s="105"/>
@@ -18835,16 +18985,16 @@
       <c r="I4" s="107"/>
       <c r="J4" s="102"/>
       <c r="K4" s="21">
-        <f>SUM(K5:K39)</f>
+        <f>SUM(K5:K37)</f>
         <v>65</v>
       </c>
       <c r="L4" s="21">
-        <f>SUM(L5:L39)</f>
+        <f>SUM(L5:L37)</f>
         <v>36</v>
       </c>
       <c r="M4" s="21">
-        <f>SUM(M5:M78)</f>
-        <v>4</v>
+        <f>SUM(M5:M76)</f>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -18874,29 +19024,29 @@
         <v>2</v>
       </c>
       <c r="B6" s="96" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="88" t="str">
+        <v>176</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="45" t="str">
         <f ca="1">IF(ISBLANK(K6)=FALSE,OFFSET(J6,0,COUNTA(K6:M6)),"")</f>
         <v/>
       </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="16">
         <v>3</v>
       </c>
       <c r="B7" s="93" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="87"/>
@@ -18915,13 +19065,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>47</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="12" t="str">
         <f ca="1">IF(ISBLANK($B8),"",IF(ISBLANK($G8),"未着手",IF($J8=0,"完了","作業中")))</f>
@@ -18949,20 +19099,22 @@
       <c r="L8" s="22">
         <v>0</v>
       </c>
-      <c r="M8" s="22"/>
+      <c r="M8" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="16">
         <v>5</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="88" t="str">
         <f ca="1">IF(ISBLANK($B9),"",IF(ISBLANK($G9),"未着手",IF($J9=0,"完了","作業中")))</f>
@@ -18977,7 +19129,9 @@
       <c r="H9" s="19">
         <v>3</v>
       </c>
-      <c r="I9" s="19"/>
+      <c r="I9" s="19">
+        <v>0</v>
+      </c>
       <c r="J9" s="88">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
@@ -18988,7 +19142,9 @@
       <c r="L9" s="22">
         <v>3</v>
       </c>
-      <c r="M9" s="22"/>
+      <c r="M9" s="22">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="16">
@@ -19003,7 +19159,7 @@
       <c r="D10" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="88" t="str">
+      <c r="E10" s="12" t="str">
         <f ca="1">IF(ISBLANK($B10),"",IF(ISBLANK($G10),"未着手",IF($J10=0,"完了","作業中")))</f>
         <v>作業中</v>
       </c>
@@ -19029,14 +19185,16 @@
       <c r="L10" s="22">
         <v>1</v>
       </c>
-      <c r="M10" s="22"/>
+      <c r="M10" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="16">
         <v>7</v>
       </c>
       <c r="B11" s="93" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="87"/>
       <c r="D11" s="87"/>
@@ -19058,17 +19216,17 @@
         <v>8</v>
       </c>
       <c r="B12" s="95" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" s="87" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D12" s="87" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="88" t="str">
-        <f ca="1">IF(ISBLANK($B12),"",IF(ISBLANK($G12),"未着手",IF('スプリントバックログ(第3)'!$J61=0,"完了","作業中")))</f>
-        <v>作業中</v>
+        <v>104</v>
+      </c>
+      <c r="E12" s="12" t="str">
+        <f ca="1">IF(ISBLANK($B12),"",IF(ISBLANK($G12),"未着手",IF($J12=0,"完了","作業中")))</f>
+        <v>完了</v>
       </c>
       <c r="F12" s="89">
         <v>43088</v>
@@ -19080,11 +19238,11 @@
         <v>6</v>
       </c>
       <c r="I12" s="90">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J12" s="88">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <f ca="1">IF(ISBLANK(K12)=FALSE,OFFSET(J12,0,COUNTA(K12:M12)),"")</f>
+        <v>0</v>
       </c>
       <c r="K12" s="22">
         <v>6</v>
@@ -19092,23 +19250,25 @@
       <c r="L12" s="22">
         <v>4</v>
       </c>
-      <c r="M12" s="22"/>
+      <c r="M12" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="16">
         <v>9</v>
       </c>
       <c r="B13" s="95" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="87" t="s">
         <v>174</v>
       </c>
-      <c r="C13" s="87" t="s">
+      <c r="D13" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="D13" s="87" t="s">
-        <v>176</v>
-      </c>
-      <c r="E13" s="88" t="str">
-        <f ca="1">IF(ISBLANK($B13),"",IF(ISBLANK($G13),"未着手",IF('スプリントバックログ(第3)'!$J62=0,"完了","作業中")))</f>
+      <c r="E13" s="12" t="str">
+        <f ca="1">IF(ISBLANK($B13),"",IF(ISBLANK($G13),"未着手",IF($J13=0,"完了","作業中")))</f>
         <v>作業中</v>
       </c>
       <c r="F13" s="89">
@@ -19121,11 +19281,11 @@
         <v>6</v>
       </c>
       <c r="I13" s="90">
+        <v>4</v>
+      </c>
+      <c r="J13" s="88">
+        <f ca="1">IF(ISBLANK(K13)=FALSE,OFFSET(J13,0,COUNTA(K13:M13)),"")</f>
         <v>2</v>
-      </c>
-      <c r="J13" s="88">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
       </c>
       <c r="K13" s="22">
         <v>6</v>
@@ -19133,20 +19293,22 @@
       <c r="L13" s="22">
         <v>4</v>
       </c>
-      <c r="M13" s="22"/>
+      <c r="M13" s="22">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="16">
         <v>10</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E14" s="12" t="str">
         <f ca="1">IF(ISBLANK($B14),"",IF(ISBLANK($G14),"未着手",IF($J14=0,"完了","作業中")))</f>
@@ -19174,14 +19336,16 @@
       <c r="L14" s="22">
         <v>0</v>
       </c>
-      <c r="M14" s="87"/>
+      <c r="M14" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="16">
         <v>11</v>
       </c>
       <c r="B15" s="92" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -19224,7 +19388,9 @@
       <c r="H16" s="19">
         <v>3</v>
       </c>
-      <c r="I16" s="19"/>
+      <c r="I16" s="19">
+        <v>0</v>
+      </c>
       <c r="J16" s="88">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
@@ -19235,7 +19401,9 @@
       <c r="L16" s="22">
         <v>3</v>
       </c>
-      <c r="M16" s="22"/>
+      <c r="M16" s="22">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="16">
@@ -19263,7 +19431,9 @@
       <c r="H17" s="19">
         <v>3</v>
       </c>
-      <c r="I17" s="19"/>
+      <c r="I17" s="19">
+        <v>0</v>
+      </c>
       <c r="J17" s="88">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
@@ -19274,7 +19444,9 @@
       <c r="L17" s="22">
         <v>3</v>
       </c>
-      <c r="M17" s="22"/>
+      <c r="M17" s="22">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="16">
@@ -19302,7 +19474,9 @@
       <c r="H18" s="19">
         <v>3</v>
       </c>
-      <c r="I18" s="19"/>
+      <c r="I18" s="19">
+        <v>0</v>
+      </c>
       <c r="J18" s="88">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
@@ -19313,14 +19487,16 @@
       <c r="L18" s="22">
         <v>3</v>
       </c>
-      <c r="M18" s="22"/>
+      <c r="M18" s="22">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="16">
         <v>15</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>47</v>
@@ -19354,14 +19530,16 @@
       <c r="L19" s="22">
         <v>0</v>
       </c>
-      <c r="M19" s="22"/>
+      <c r="M19" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="16">
         <v>16</v>
       </c>
       <c r="B20" s="92" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -19383,7 +19561,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>90</v>
+        <v>316</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>63</v>
@@ -19404,10 +19582,12 @@
       <c r="H21" s="19">
         <v>2</v>
       </c>
-      <c r="I21" s="19"/>
+      <c r="I21" s="19">
+        <v>1</v>
+      </c>
       <c r="J21" s="88">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K21" s="22">
         <v>2</v>
@@ -19415,14 +19595,16 @@
       <c r="L21" s="22">
         <v>2</v>
       </c>
-      <c r="M21" s="22"/>
+      <c r="M21" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="16">
         <v>18</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>63</v>
@@ -19432,7 +19614,7 @@
       </c>
       <c r="E22" s="12" t="str">
         <f ca="1">IF(ISBLANK($B22),"",IF(ISBLANK($G22),"未着手",IF($J22=0,"完了","作業中")))</f>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F22" s="4">
         <v>43084</v>
@@ -19443,10 +19625,12 @@
       <c r="H22" s="19">
         <v>3</v>
       </c>
-      <c r="I22" s="19"/>
+      <c r="I22" s="19">
+        <v>3</v>
+      </c>
       <c r="J22" s="88">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K22" s="22">
         <v>3</v>
@@ -19454,14 +19638,16 @@
       <c r="L22" s="22">
         <v>3</v>
       </c>
-      <c r="M22" s="22"/>
+      <c r="M22" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="16">
         <v>19</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23" s="44"/>
       <c r="D23" s="44"/>
@@ -19480,7 +19666,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>80</v>
@@ -19501,7 +19687,9 @@
       <c r="H24" s="19">
         <v>3</v>
       </c>
-      <c r="I24" s="19"/>
+      <c r="I24" s="19">
+        <v>0</v>
+      </c>
       <c r="J24" s="12">
         <f ca="1">IF(ISBLANK(K24)=FALSE,OFFSET(J24,0,COUNTA(K24:M24)),"")</f>
         <v>3</v>
@@ -19512,20 +19700,22 @@
       <c r="L24" s="22">
         <v>3</v>
       </c>
-      <c r="M24" s="22"/>
+      <c r="M24" s="22">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="16">
         <v>21</v>
       </c>
       <c r="B25" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>200</v>
-      </c>
       <c r="D25" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E25" s="12" t="str">
         <f ca="1">IF(ISBLANK($B25),"",IF(ISBLANK($G25),"未着手",IF($J25=0,"完了","作業中")))</f>
@@ -19540,7 +19730,9 @@
       <c r="H25" s="19">
         <v>3</v>
       </c>
-      <c r="I25" s="19"/>
+      <c r="I25" s="19">
+        <v>0</v>
+      </c>
       <c r="J25" s="12">
         <f ca="1">IF(ISBLANK(K25)=FALSE,OFFSET(J25,0,COUNTA(K25:M25)),"")</f>
         <v>3</v>
@@ -19551,20 +19743,22 @@
       <c r="L25" s="22">
         <v>3</v>
       </c>
-      <c r="M25" s="22"/>
+      <c r="M25" s="22">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="16">
         <v>22</v>
       </c>
       <c r="B26" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>218</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>219</v>
       </c>
       <c r="E26" s="12" t="str">
         <f ca="1">IF(ISBLANK($B26),"",IF(ISBLANK($G26),"未着手",IF($J26=0,"完了","作業中")))</f>
@@ -19592,14 +19786,16 @@
       <c r="L26" s="22">
         <v>0</v>
       </c>
-      <c r="M26" s="22"/>
+      <c r="M26" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="16">
         <v>23</v>
       </c>
       <c r="B27" s="67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C27" s="58"/>
       <c r="D27" s="58"/>
@@ -19618,10 +19814,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>114</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>115</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>86</v>
@@ -19652,17 +19848,19 @@
       <c r="L28" s="22">
         <v>0</v>
       </c>
-      <c r="M28" s="22"/>
+      <c r="M28" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="16">
         <v>25</v>
       </c>
       <c r="B29" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>116</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>117</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>74</v>
@@ -19693,20 +19891,22 @@
       <c r="L29" s="22">
         <v>0</v>
       </c>
-      <c r="M29" s="22"/>
+      <c r="M29" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="16">
         <v>26</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>68</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E30" s="12" t="str">
         <f ca="1">IF(ISBLANK($B30),"",IF(ISBLANK($G30),"未着手",IF($J30=0,"完了","作業中")))</f>
@@ -19734,14 +19934,16 @@
       <c r="L30" s="22">
         <v>0</v>
       </c>
-      <c r="M30" s="22"/>
+      <c r="M30" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="16">
         <v>27</v>
       </c>
       <c r="B31" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C31" s="69"/>
       <c r="D31" s="69"/>
@@ -19760,66 +19962,112 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="16">
-        <v>28</v>
-      </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>120</v>
+      </c>
       <c r="E32" s="12" t="str">
-        <f t="shared" ref="E32:E44" si="2">IF(ISBLANK($B32),"",IF(ISBLANK($G32),"未着手",IF($J32=0,"完了","作業中")))</f>
-        <v/>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
+        <f t="shared" ref="E32:E42" ca="1" si="2">IF(ISBLANK($B32),"",IF(ISBLANK($G32),"未着手",IF($J32=0,"完了","作業中")))</f>
+        <v>完了</v>
+      </c>
+      <c r="F32" s="4">
+        <v>43087</v>
+      </c>
+      <c r="G32" s="4">
+        <v>43087</v>
+      </c>
+      <c r="H32" s="19">
+        <v>3</v>
+      </c>
+      <c r="I32" s="19">
+        <v>3</v>
+      </c>
+      <c r="J32" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="22">
+        <v>3</v>
+      </c>
+      <c r="L32" s="22">
+        <v>0</v>
+      </c>
+      <c r="M32" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="16">
-        <v>29</v>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>86</v>
+      </c>
       <c r="E33" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
+      </c>
+      <c r="F33" s="4">
+        <v>43087</v>
+      </c>
+      <c r="G33" s="4">
+        <v>43087</v>
+      </c>
+      <c r="H33" s="19">
+        <v>3</v>
+      </c>
+      <c r="I33" s="19">
+        <v>3</v>
+      </c>
+      <c r="J33" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="22">
+        <v>3</v>
+      </c>
+      <c r="L33" s="22">
+        <v>0</v>
+      </c>
+      <c r="M33" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="16">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>66</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E34" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F34" s="4">
-        <v>43087</v>
+        <v>43089</v>
       </c>
       <c r="G34" s="4">
-        <v>43087</v>
+        <v>43089</v>
       </c>
       <c r="H34" s="19">
         <v>3</v>
@@ -19835,32 +20083,34 @@
         <v>3</v>
       </c>
       <c r="L34" s="22">
+        <v>2</v>
+      </c>
+      <c r="M34" s="22">
         <v>0</v>
       </c>
-      <c r="M34" s="22"/>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="16">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>66</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E35" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F35" s="4">
-        <v>43087</v>
+        <v>43089</v>
       </c>
       <c r="G35" s="4">
-        <v>43087</v>
+        <v>43089</v>
       </c>
       <c r="H35" s="19">
         <v>3</v>
@@ -19878,24 +20128,26 @@
       <c r="L35" s="22">
         <v>0</v>
       </c>
-      <c r="M35" s="22"/>
+      <c r="M35" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="16">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>66</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="E36" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F36" s="4">
         <v>43089</v>
@@ -19911,7 +20163,7 @@
       </c>
       <c r="J36" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K36" s="22">
         <v>3</v>
@@ -19920,21 +20172,21 @@
         <v>2</v>
       </c>
       <c r="M36" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="16">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>66</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="E37" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -19962,49 +20214,51 @@
       <c r="L37" s="22">
         <v>0</v>
       </c>
-      <c r="M37" s="22"/>
+      <c r="M37" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="16">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E38" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F38" s="4">
-        <v>43089</v>
+        <v>43088</v>
       </c>
       <c r="G38" s="4">
-        <v>43089</v>
+        <v>43088</v>
       </c>
       <c r="H38" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J38" s="12">
         <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="22">
         <v>2</v>
       </c>
-      <c r="K38" s="22">
-        <v>3</v>
-      </c>
       <c r="L38" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M38" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O38" s="13"/>
       <c r="P38" s="13" t="s">
@@ -20025,79 +20279,81 @@
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="16">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c r="E39" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>完了</v>
+        <v>作業中</v>
       </c>
       <c r="F39" s="4">
-        <v>43089</v>
+        <v>43088</v>
       </c>
       <c r="G39" s="4">
-        <v>43089</v>
+        <v>43088</v>
       </c>
       <c r="H39" s="19">
         <v>3</v>
       </c>
       <c r="I39" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J39" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K39" s="22">
         <v>3</v>
       </c>
       <c r="L39" s="22">
-        <v>0</v>
-      </c>
-      <c r="M39" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="M39" s="22">
+        <v>2</v>
+      </c>
       <c r="O39" s="11" t="s">
         <v>47</v>
       </c>
       <c r="P39" s="10">
-        <f>SUMIF($C$5:$C$44,O39,$H$5:$H$44)</f>
+        <f t="shared" ref="P39:P44" si="3">SUMIF($C$5:$C$42,O39,$H$5:$H$42)</f>
         <v>20</v>
       </c>
       <c r="Q39" s="10">
-        <f ca="1">SUMIF($C$5:$C$44,O39,$J$5:$J$44)</f>
-        <v>10</v>
+        <f t="shared" ref="Q39:Q44" ca="1" si="4">SUMIF($C$5:$C$42,O39,$J$5:$J$42)</f>
+        <v>4</v>
       </c>
       <c r="R39" s="10">
         <f ca="1">P39-Q39</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="S39" s="14">
         <v>0</v>
       </c>
       <c r="T39" s="15">
         <f ca="1">IF(S39&gt;Q39,0,Q39-S39)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="16">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="E40" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -20110,59 +20366,63 @@
         <v>43088</v>
       </c>
       <c r="H40" s="19">
-        <v>2</v>
-      </c>
-      <c r="I40" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="I40" s="19">
+        <v>1</v>
+      </c>
       <c r="J40" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K40" s="22">
+        <v>3</v>
+      </c>
+      <c r="L40" s="22">
+        <v>3</v>
+      </c>
+      <c r="M40" s="22">
         <v>2</v>
       </c>
-      <c r="L40" s="22">
-        <v>1</v>
-      </c>
-      <c r="M40" s="22"/>
       <c r="O40" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P40" s="10">
-        <f t="shared" ref="P40:P44" si="3">SUMIF($C$5:$C$44,O40,$H$5:$H$44)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="Q40" s="10">
-        <f t="shared" ref="Q40:Q44" ca="1" si="4">SUMIF($C$5:$C$44,O40,$J$5:$J$44)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="R40" s="10">
         <f t="shared" ref="R40:R44" ca="1" si="5">P40-Q40</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="S40" s="14">
         <v>0</v>
       </c>
       <c r="T40" s="15">
         <f t="shared" ref="T40:T44" ca="1" si="6">IF(S40&gt;Q40,0,Q40-S40)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="16">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>204</v>
+        <v>47</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>205</v>
+        <v>69</v>
       </c>
       <c r="E41" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F41" s="4">
         <v>43088</v>
@@ -20173,10 +20433,12 @@
       <c r="H41" s="19">
         <v>3</v>
       </c>
-      <c r="I41" s="19"/>
+      <c r="I41" s="19">
+        <v>0</v>
+      </c>
       <c r="J41" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K41" s="22">
         <v>3</v>
@@ -20184,7 +20446,9 @@
       <c r="L41" s="22">
         <v>3</v>
       </c>
-      <c r="M41" s="22"/>
+      <c r="M41" s="22">
+        <v>0</v>
+      </c>
       <c r="O41" s="11" t="s">
         <v>63</v>
       </c>
@@ -20194,36 +20458,36 @@
       </c>
       <c r="Q41" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="R41" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S41" s="14">
         <v>0</v>
       </c>
       <c r="T41" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="16">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>204</v>
+        <v>47</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>189</v>
+        <v>69</v>
       </c>
       <c r="E42" s="12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F42" s="4">
         <v>43088</v>
@@ -20234,10 +20498,12 @@
       <c r="H42" s="19">
         <v>3</v>
       </c>
-      <c r="I42" s="19"/>
+      <c r="I42" s="19">
+        <v>3</v>
+      </c>
       <c r="J42" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K42" s="22">
         <v>3</v>
@@ -20245,7 +20511,9 @@
       <c r="L42" s="22">
         <v>3</v>
       </c>
-      <c r="M42" s="22"/>
+      <c r="M42" s="22">
+        <v>0</v>
+      </c>
       <c r="O42" s="11" t="s">
         <v>66</v>
       </c>
@@ -20255,59 +20523,25 @@
       </c>
       <c r="Q42" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R42" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="S42" s="14">
         <v>0</v>
       </c>
       <c r="T42" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:20">
-      <c r="A43" s="16">
-        <v>39</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>作業中</v>
-      </c>
-      <c r="F43" s="4">
-        <v>43088</v>
-      </c>
-      <c r="G43" s="4">
-        <v>43088</v>
-      </c>
-      <c r="H43" s="19">
-        <v>3</v>
-      </c>
-      <c r="I43" s="19">
-        <v>0</v>
-      </c>
-      <c r="J43" s="12">
-        <v>3</v>
-      </c>
-      <c r="K43" s="22">
-        <v>3</v>
-      </c>
-      <c r="L43" s="22">
-        <v>3</v>
-      </c>
-      <c r="M43" s="22"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
       <c r="O43" s="11" t="s">
         <v>65</v>
       </c>
@@ -20317,59 +20551,25 @@
       </c>
       <c r="Q43" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R43" s="10">
         <f ca="1">P43-Q43</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S43" s="14">
         <v>0</v>
       </c>
       <c r="T43" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:20">
-      <c r="A44" s="16">
-        <v>40</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E44" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>作業中</v>
-      </c>
-      <c r="F44" s="4">
-        <v>43088</v>
-      </c>
-      <c r="G44" s="4">
-        <v>43088</v>
-      </c>
-      <c r="H44" s="19">
-        <v>3</v>
-      </c>
-      <c r="I44" s="19">
-        <v>0</v>
-      </c>
-      <c r="J44" s="12">
-        <v>3</v>
-      </c>
-      <c r="K44" s="22">
-        <v>3</v>
-      </c>
-      <c r="L44" s="22">
-        <v>3</v>
-      </c>
-      <c r="M44" s="22"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
       <c r="O44" s="11" t="s">
         <v>80</v>
       </c>
@@ -20525,890 +20725,878 @@
       <c r="L66" s="24"/>
       <c r="M66" s="24"/>
     </row>
-    <row r="67" spans="10:13">
-      <c r="J67" s="24"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="24"/>
-    </row>
-    <row r="68" spans="10:13">
-      <c r="J68" s="24"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="24"/>
-      <c r="M68" s="24"/>
-    </row>
   </sheetData>
-  <autoFilter ref="C1:D125"/>
+  <autoFilter ref="C1:D123"/>
   <mergeCells count="11">
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:M1"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:D4"/>
     <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
-  <conditionalFormatting sqref="D45:D65416">
-    <cfRule type="expression" dxfId="674" priority="307" stopIfTrue="1">
-      <formula>D45="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="673" priority="308" stopIfTrue="1">
-      <formula>D45="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="672" priority="309" stopIfTrue="1">
-      <formula>OR(D45="終了",D45="完了")</formula>
+  <conditionalFormatting sqref="D43:D65414">
+    <cfRule type="expression" dxfId="671" priority="307" stopIfTrue="1">
+      <formula>D43="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="670" priority="308" stopIfTrue="1">
+      <formula>D43="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="669" priority="309" stopIfTrue="1">
+      <formula>OR(D43="終了",D43="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO5:XFD6">
-    <cfRule type="expression" dxfId="671" priority="310" stopIfTrue="1">
+    <cfRule type="expression" dxfId="668" priority="310" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="670" priority="311" stopIfTrue="1">
+    <cfRule type="expression" dxfId="667" priority="311" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="669" priority="312" stopIfTrue="1">
+    <cfRule type="expression" dxfId="666" priority="312" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45:B65416">
-    <cfRule type="expression" dxfId="668" priority="313" stopIfTrue="1">
-      <formula>D45="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="667" priority="314" stopIfTrue="1">
-      <formula>D45="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="666" priority="315" stopIfTrue="1">
-      <formula>OR(D45="終了",D45="完了")</formula>
+  <conditionalFormatting sqref="B43:B65414">
+    <cfRule type="expression" dxfId="665" priority="313" stopIfTrue="1">
+      <formula>D43="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="664" priority="314" stopIfTrue="1">
+      <formula>D43="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="663" priority="315" stopIfTrue="1">
+      <formula>OR(D43="終了",D43="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C45:C65416">
-    <cfRule type="expression" dxfId="665" priority="316" stopIfTrue="1">
-      <formula>D45="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="664" priority="317" stopIfTrue="1">
-      <formula>D45="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="663" priority="318" stopIfTrue="1">
-      <formula>OR(D45="終了",D45="完了")</formula>
+  <conditionalFormatting sqref="C43:C65414">
+    <cfRule type="expression" dxfId="662" priority="316" stopIfTrue="1">
+      <formula>D43="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="661" priority="317" stopIfTrue="1">
+      <formula>D43="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="660" priority="318" stopIfTrue="1">
+      <formula>OR(D43="終了",D43="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45:M65416">
-    <cfRule type="expression" dxfId="662" priority="319" stopIfTrue="1">
-      <formula>$D45="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="661" priority="320" stopIfTrue="1">
-      <formula>$D45="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="660" priority="321" stopIfTrue="1">
-      <formula>OR($D45="終了",$D45="完了")</formula>
+  <conditionalFormatting sqref="E43:M65414">
+    <cfRule type="expression" dxfId="659" priority="319" stopIfTrue="1">
+      <formula>$D43="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="658" priority="320" stopIfTrue="1">
+      <formula>$D43="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="657" priority="321" stopIfTrue="1">
+      <formula>OR($D43="終了",$D43="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I13 B32:E34 A5:IN6 B35:C35 E35 F32:I35 C7:M7 B14:I14 C15:I15 K20 B8:I11 K8:K15 M8:M13 L8:L14 K16:M19 B16:I20 J8:J20 B27:I31 B36:I42 A7:A44 B21:M26 F43:I44 J27:M44">
-    <cfRule type="expression" dxfId="659" priority="187" stopIfTrue="1">
+  <conditionalFormatting sqref="I12:I13 A5:IN6 B33:C33 E33 C7:M7 B14:I14 C15:I15 K20 B8:I9 K8:K15 K16:M19 B16:I20 J8:J20 B27:I31 B34:I40 B21:M26 F41:I42 L8:M14 B10:D11 F10:I11 E10:E13 B32:E32 F32:I33 A7:A42 J27:M42">
+    <cfRule type="expression" dxfId="656" priority="187" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="658" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="655" priority="188" stopIfTrue="1">
       <formula>$E5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="657" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="654" priority="189" stopIfTrue="1">
       <formula>OR($E5="終了",$E5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7:IN7">
-    <cfRule type="expression" dxfId="656" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="653" priority="193" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="655" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="652" priority="194" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="654" priority="195" stopIfTrue="1">
+    <cfRule type="expression" dxfId="651" priority="195" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:IN11">
-    <cfRule type="expression" dxfId="653" priority="199" stopIfTrue="1">
+    <cfRule type="expression" dxfId="650" priority="199" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="652" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="649" priority="200" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="651" priority="201" stopIfTrue="1">
+    <cfRule type="expression" dxfId="648" priority="201" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:IN19">
-    <cfRule type="expression" dxfId="650" priority="205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="647" priority="205" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="649" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="646" priority="206" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="648" priority="207" stopIfTrue="1">
+    <cfRule type="expression" dxfId="645" priority="207" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25:N26 AA25:IN26">
-    <cfRule type="expression" dxfId="647" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="644" priority="217" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="646" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="643" priority="218" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="645" priority="219" stopIfTrue="1">
+    <cfRule type="expression" dxfId="642" priority="219" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29:IN30 N28 AA28:IN28">
-    <cfRule type="expression" dxfId="644" priority="220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="641" priority="220" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="643" priority="221" stopIfTrue="1">
+    <cfRule type="expression" dxfId="640" priority="221" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="642" priority="222" stopIfTrue="1">
+    <cfRule type="expression" dxfId="639" priority="222" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32:IN32">
-    <cfRule type="expression" dxfId="641" priority="229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="638" priority="229" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="640" priority="230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="637" priority="230" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="639" priority="231" stopIfTrue="1">
+    <cfRule type="expression" dxfId="636" priority="231" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N65:V65 AC65:IN66 S66:T66">
-    <cfRule type="expression" dxfId="638" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="635" priority="238" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="637" priority="239" stopIfTrue="1">
+    <cfRule type="expression" dxfId="634" priority="239" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="636" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="633" priority="240" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N35:N40 Y39:IN40 S35:IH37 U38:IH38">
-    <cfRule type="expression" dxfId="635" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="632" priority="241" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="634" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="631" priority="242" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="633" priority="243" stopIfTrue="1">
+    <cfRule type="expression" dxfId="630" priority="243" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N42:N47 U42:IN47 N48:IN49">
-    <cfRule type="expression" dxfId="632" priority="244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="629" priority="244" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="631" priority="245" stopIfTrue="1">
+    <cfRule type="expression" dxfId="628" priority="245" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="630" priority="246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="627" priority="246" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41 U41:IN41">
-    <cfRule type="expression" dxfId="629" priority="247" stopIfTrue="1">
+    <cfRule type="expression" dxfId="626" priority="247" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="628" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="625" priority="248" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="627" priority="249" stopIfTrue="1">
+    <cfRule type="expression" dxfId="624" priority="249" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50:IN52">
-    <cfRule type="expression" dxfId="626" priority="253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="623" priority="253" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="625" priority="254" stopIfTrue="1">
+    <cfRule type="expression" dxfId="622" priority="254" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="624" priority="255" stopIfTrue="1">
+    <cfRule type="expression" dxfId="621" priority="255" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N62:IN64">
-    <cfRule type="expression" dxfId="623" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="620" priority="265" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="622" priority="266" stopIfTrue="1">
+    <cfRule type="expression" dxfId="619" priority="266" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="621" priority="267" stopIfTrue="1">
+    <cfRule type="expression" dxfId="618" priority="267" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC69:IN69 S69:T69">
-    <cfRule type="expression" dxfId="620" priority="271" stopIfTrue="1">
+    <cfRule type="expression" dxfId="617" priority="271" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="619" priority="272" stopIfTrue="1">
+    <cfRule type="expression" dxfId="616" priority="272" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="618" priority="273" stopIfTrue="1">
+    <cfRule type="expression" dxfId="615" priority="273" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC71:IN71 S71:T71">
-    <cfRule type="expression" dxfId="617" priority="277" stopIfTrue="1">
+    <cfRule type="expression" dxfId="614" priority="277" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="616" priority="278" stopIfTrue="1">
+    <cfRule type="expression" dxfId="613" priority="278" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="615" priority="279" stopIfTrue="1">
+    <cfRule type="expression" dxfId="612" priority="279" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N73:IN73">
-    <cfRule type="expression" dxfId="614" priority="280" stopIfTrue="1">
+    <cfRule type="expression" dxfId="611" priority="280" stopIfTrue="1">
       <formula>$E13="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="613" priority="281" stopIfTrue="1">
+    <cfRule type="expression" dxfId="610" priority="281" stopIfTrue="1">
       <formula>$E13="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="612" priority="282" stopIfTrue="1">
+    <cfRule type="expression" dxfId="609" priority="282" stopIfTrue="1">
       <formula>OR($E13="終了",$E13="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q72:IN72">
-    <cfRule type="expression" dxfId="611" priority="289" stopIfTrue="1">
+    <cfRule type="expression" dxfId="608" priority="289" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="610" priority="290" stopIfTrue="1">
+    <cfRule type="expression" dxfId="607" priority="290" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="609" priority="291" stopIfTrue="1">
+    <cfRule type="expression" dxfId="606" priority="291" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N74:IN76">
-    <cfRule type="expression" dxfId="608" priority="295" stopIfTrue="1">
+    <cfRule type="expression" dxfId="605" priority="295" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="607" priority="296" stopIfTrue="1">
+    <cfRule type="expression" dxfId="604" priority="296" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="606" priority="297" stopIfTrue="1">
+    <cfRule type="expression" dxfId="603" priority="297" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N80:IN80">
-    <cfRule type="expression" dxfId="605" priority="298" stopIfTrue="1">
+    <cfRule type="expression" dxfId="602" priority="298" stopIfTrue="1">
       <formula>$E21="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="604" priority="299" stopIfTrue="1">
+    <cfRule type="expression" dxfId="601" priority="299" stopIfTrue="1">
       <formula>$E21="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="603" priority="300" stopIfTrue="1">
+    <cfRule type="expression" dxfId="600" priority="300" stopIfTrue="1">
       <formula>OR($E21="終了",$E21="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N81:IN83">
-    <cfRule type="expression" dxfId="602" priority="304" stopIfTrue="1">
+    <cfRule type="expression" dxfId="599" priority="304" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="601" priority="305" stopIfTrue="1">
+    <cfRule type="expression" dxfId="598" priority="305" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="600" priority="306" stopIfTrue="1">
+    <cfRule type="expression" dxfId="597" priority="306" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="599" priority="67" stopIfTrue="1">
-      <formula>$E35="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="598" priority="68" stopIfTrue="1">
-      <formula>$E35="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="597" priority="69" stopIfTrue="1">
-      <formula>OR($E35="終了",$E35="完了")</formula>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="596" priority="67" stopIfTrue="1">
+      <formula>$E33="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="595" priority="68" stopIfTrue="1">
+      <formula>$E33="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="594" priority="69" stopIfTrue="1">
+      <formula>OR($E33="終了",$E33="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:IN12">
-    <cfRule type="expression" dxfId="596" priority="352" stopIfTrue="1">
+    <cfRule type="expression" dxfId="593" priority="352" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="595" priority="353" stopIfTrue="1">
+    <cfRule type="expression" dxfId="592" priority="353" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="594" priority="354" stopIfTrue="1">
+    <cfRule type="expression" dxfId="591" priority="354" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20:IN20">
-    <cfRule type="expression" dxfId="593" priority="379" stopIfTrue="1">
+    <cfRule type="expression" dxfId="590" priority="379" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="592" priority="380" stopIfTrue="1">
+    <cfRule type="expression" dxfId="589" priority="380" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="591" priority="381" stopIfTrue="1">
+    <cfRule type="expression" dxfId="588" priority="381" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N78:IN78">
-    <cfRule type="expression" dxfId="590" priority="523" stopIfTrue="1">
+    <cfRule type="expression" dxfId="587" priority="523" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="589" priority="524" stopIfTrue="1">
+    <cfRule type="expression" dxfId="586" priority="524" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="588" priority="525" stopIfTrue="1">
+    <cfRule type="expression" dxfId="585" priority="525" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO18:XFD18">
-    <cfRule type="expression" dxfId="587" priority="1510" stopIfTrue="1">
+    <cfRule type="expression" dxfId="584" priority="1510" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="586" priority="1511" stopIfTrue="1">
+    <cfRule type="expression" dxfId="583" priority="1511" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="585" priority="1512" stopIfTrue="1">
+    <cfRule type="expression" dxfId="582" priority="1512" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31:IN31">
-    <cfRule type="expression" dxfId="584" priority="1534" stopIfTrue="1">
+    <cfRule type="expression" dxfId="581" priority="1534" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="583" priority="1535" stopIfTrue="1">
+    <cfRule type="expression" dxfId="580" priority="1535" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="582" priority="1536" stopIfTrue="1">
+    <cfRule type="expression" dxfId="579" priority="1536" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N53:IN54">
-    <cfRule type="expression" dxfId="581" priority="1570" stopIfTrue="1">
+    <cfRule type="expression" dxfId="578" priority="1570" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="580" priority="1571" stopIfTrue="1">
+    <cfRule type="expression" dxfId="577" priority="1571" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="579" priority="1572" stopIfTrue="1">
+    <cfRule type="expression" dxfId="576" priority="1572" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO23:XFD26 IO13:XFD14">
-    <cfRule type="expression" dxfId="578" priority="1618" stopIfTrue="1">
+    <cfRule type="expression" dxfId="575" priority="1618" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="577" priority="1619" stopIfTrue="1">
+    <cfRule type="expression" dxfId="574" priority="1619" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="576" priority="1620" stopIfTrue="1">
+    <cfRule type="expression" dxfId="573" priority="1620" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO32:XFD32">
-    <cfRule type="expression" dxfId="575" priority="1801" stopIfTrue="1">
+    <cfRule type="expression" dxfId="572" priority="1801" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="574" priority="1802" stopIfTrue="1">
+    <cfRule type="expression" dxfId="571" priority="1802" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="573" priority="1803" stopIfTrue="1">
+    <cfRule type="expression" dxfId="570" priority="1803" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N60:IN60">
-    <cfRule type="expression" dxfId="572" priority="1816" stopIfTrue="1">
+    <cfRule type="expression" dxfId="569" priority="1816" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="571" priority="1817" stopIfTrue="1">
+    <cfRule type="expression" dxfId="568" priority="1817" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="570" priority="1818" stopIfTrue="1">
+    <cfRule type="expression" dxfId="567" priority="1818" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO46:XFD48">
-    <cfRule type="expression" dxfId="569" priority="1870" stopIfTrue="1">
+    <cfRule type="expression" dxfId="566" priority="1870" stopIfTrue="1">
       <formula>$D16="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="568" priority="1871" stopIfTrue="1">
+    <cfRule type="expression" dxfId="565" priority="1871" stopIfTrue="1">
       <formula>$D16="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="567" priority="1872" stopIfTrue="1">
+    <cfRule type="expression" dxfId="564" priority="1872" stopIfTrue="1">
       <formula>OR($D16="終了",$D16="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO77:XFD77 IO72:XFD72 IO20:XFD20">
-    <cfRule type="expression" dxfId="566" priority="1930" stopIfTrue="1">
+    <cfRule type="expression" dxfId="563" priority="1930" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="565" priority="1931" stopIfTrue="1">
+    <cfRule type="expression" dxfId="562" priority="1931" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="564" priority="1932" stopIfTrue="1">
+    <cfRule type="expression" dxfId="561" priority="1932" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:IN21 AA22:IN22 N22">
-    <cfRule type="expression" dxfId="563" priority="2350" stopIfTrue="1">
+    <cfRule type="expression" dxfId="560" priority="2350" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="562" priority="2351" stopIfTrue="1">
+    <cfRule type="expression" dxfId="559" priority="2351" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="561" priority="2352" stopIfTrue="1">
+    <cfRule type="expression" dxfId="558" priority="2352" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S67:T67 AC67:IN67 N61:IN61">
-    <cfRule type="expression" dxfId="560" priority="2446" stopIfTrue="1">
+    <cfRule type="expression" dxfId="557" priority="2446" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="559" priority="2447" stopIfTrue="1">
+    <cfRule type="expression" dxfId="556" priority="2447" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="558" priority="2448" stopIfTrue="1">
+    <cfRule type="expression" dxfId="555" priority="2448" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="II34:XFD34">
-    <cfRule type="expression" dxfId="557" priority="2470" stopIfTrue="1">
+    <cfRule type="expression" dxfId="554" priority="2470" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="556" priority="2471" stopIfTrue="1">
+    <cfRule type="expression" dxfId="553" priority="2471" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="555" priority="2472" stopIfTrue="1">
+    <cfRule type="expression" dxfId="552" priority="2472" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO42:XFD44">
-    <cfRule type="expression" dxfId="554" priority="2518" stopIfTrue="1">
+    <cfRule type="expression" dxfId="551" priority="2518" stopIfTrue="1">
       <formula>$D11="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="553" priority="2519" stopIfTrue="1">
+    <cfRule type="expression" dxfId="550" priority="2519" stopIfTrue="1">
       <formula>$D11="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="552" priority="2520" stopIfTrue="1">
+    <cfRule type="expression" dxfId="549" priority="2520" stopIfTrue="1">
       <formula>OR($D11="終了",$D11="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO41:XFD41">
-    <cfRule type="expression" dxfId="551" priority="2521" stopIfTrue="1">
+    <cfRule type="expression" dxfId="548" priority="2521" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="550" priority="2522" stopIfTrue="1">
+    <cfRule type="expression" dxfId="547" priority="2522" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="549" priority="2523" stopIfTrue="1">
+    <cfRule type="expression" dxfId="546" priority="2523" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:H13">
-    <cfRule type="expression" dxfId="548" priority="13" stopIfTrue="1">
+  <conditionalFormatting sqref="B12:D13 F12:H13">
+    <cfRule type="expression" dxfId="545" priority="13" stopIfTrue="1">
       <formula>$E12="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="547" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="544" priority="14" stopIfTrue="1">
       <formula>$E12="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="546" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="543" priority="15" stopIfTrue="1">
       <formula>OR($E12="終了",$E12="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N55:IN59">
-    <cfRule type="expression" dxfId="545" priority="2701" stopIfTrue="1">
+    <cfRule type="expression" dxfId="542" priority="2701" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="544" priority="2702" stopIfTrue="1">
+    <cfRule type="expression" dxfId="541" priority="2702" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="543" priority="2703" stopIfTrue="1">
+    <cfRule type="expression" dxfId="540" priority="2703" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO27:XFD31">
-    <cfRule type="expression" dxfId="542" priority="2704" stopIfTrue="1">
+    <cfRule type="expression" dxfId="539" priority="2704" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="541" priority="2705" stopIfTrue="1">
+    <cfRule type="expression" dxfId="538" priority="2705" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="540" priority="2706" stopIfTrue="1">
+    <cfRule type="expression" dxfId="537" priority="2706" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO33:XFD33">
-    <cfRule type="expression" dxfId="539" priority="2746" stopIfTrue="1">
+    <cfRule type="expression" dxfId="536" priority="2746" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="538" priority="2747" stopIfTrue="1">
+    <cfRule type="expression" dxfId="535" priority="2747" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="537" priority="2748" stopIfTrue="1">
+    <cfRule type="expression" dxfId="534" priority="2748" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC70:IN70 S70:T70">
-    <cfRule type="expression" dxfId="536" priority="2773" stopIfTrue="1">
+    <cfRule type="expression" dxfId="533" priority="2773" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="535" priority="2774" stopIfTrue="1">
+    <cfRule type="expression" dxfId="532" priority="2774" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="534" priority="2775" stopIfTrue="1">
+    <cfRule type="expression" dxfId="531" priority="2775" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="II35:XFD38">
-    <cfRule type="expression" dxfId="533" priority="2797" stopIfTrue="1">
+    <cfRule type="expression" dxfId="530" priority="2797" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="2798" stopIfTrue="1">
+    <cfRule type="expression" dxfId="529" priority="2798" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="531" priority="2799" stopIfTrue="1">
+    <cfRule type="expression" dxfId="528" priority="2799" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO39:XFD39">
-    <cfRule type="expression" dxfId="530" priority="2899" stopIfTrue="1">
+    <cfRule type="expression" dxfId="527" priority="2899" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="529" priority="2900" stopIfTrue="1">
+    <cfRule type="expression" dxfId="526" priority="2900" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="528" priority="2901" stopIfTrue="1">
+    <cfRule type="expression" dxfId="525" priority="2901" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S68:T68 AC68:IN68">
-    <cfRule type="expression" dxfId="527" priority="2929" stopIfTrue="1">
+    <cfRule type="expression" dxfId="524" priority="2929" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="526" priority="2930" stopIfTrue="1">
+    <cfRule type="expression" dxfId="523" priority="2930" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="525" priority="2931" stopIfTrue="1">
+    <cfRule type="expression" dxfId="522" priority="2931" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO40:XFD40 IO54:XFD54">
-    <cfRule type="expression" dxfId="524" priority="2938" stopIfTrue="1">
+    <cfRule type="expression" dxfId="521" priority="2938" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="523" priority="2939" stopIfTrue="1">
+    <cfRule type="expression" dxfId="520" priority="2939" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="522" priority="2940" stopIfTrue="1">
+    <cfRule type="expression" dxfId="519" priority="2940" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO55:XFD55 IO57:XFD59">
-    <cfRule type="expression" dxfId="521" priority="2980" stopIfTrue="1">
+    <cfRule type="expression" dxfId="518" priority="2980" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="2981" stopIfTrue="1">
+    <cfRule type="expression" dxfId="517" priority="2981" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="519" priority="2982" stopIfTrue="1">
+    <cfRule type="expression" dxfId="516" priority="2982" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO65:XFD65">
-    <cfRule type="expression" dxfId="518" priority="3010" stopIfTrue="1">
+    <cfRule type="expression" dxfId="515" priority="3010" stopIfTrue="1">
       <formula>$D23="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="517" priority="3011" stopIfTrue="1">
+    <cfRule type="expression" dxfId="514" priority="3011" stopIfTrue="1">
       <formula>$D23="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="516" priority="3012" stopIfTrue="1">
+    <cfRule type="expression" dxfId="513" priority="3012" stopIfTrue="1">
       <formula>OR($D23="終了",$D23="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO61:XFD61">
-    <cfRule type="expression" dxfId="515" priority="3013" stopIfTrue="1">
+    <cfRule type="expression" dxfId="512" priority="3013" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="514" priority="3014" stopIfTrue="1">
+    <cfRule type="expression" dxfId="511" priority="3014" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="513" priority="3015" stopIfTrue="1">
+    <cfRule type="expression" dxfId="510" priority="3015" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="512" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="509" priority="10" stopIfTrue="1">
       <formula>$E7="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="511" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="508" priority="11" stopIfTrue="1">
       <formula>$E7="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="510" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="507" priority="12" stopIfTrue="1">
       <formula>OR($E7="終了",$E7="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34:IH34">
-    <cfRule type="expression" dxfId="509" priority="3127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="506" priority="3127" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="508" priority="3128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="505" priority="3128" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="507" priority="3129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="504" priority="3129" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO21:XFD21">
-    <cfRule type="expression" dxfId="506" priority="3142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="503" priority="3142" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="505" priority="3143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="502" priority="3143" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="504" priority="3144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="501" priority="3144" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO22:XFD22">
-    <cfRule type="expression" dxfId="503" priority="3145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="500" priority="3145" stopIfTrue="1">
       <formula>$D10="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="502" priority="3146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="499" priority="3146" stopIfTrue="1">
       <formula>$D10="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="501" priority="3147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="498" priority="3147" stopIfTrue="1">
       <formula>OR($D10="終了",$D10="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20:M20 L15:M15 M14 N8:IN9">
-    <cfRule type="expression" dxfId="500" priority="3163" stopIfTrue="1">
+  <conditionalFormatting sqref="L20:M20 L15:M15 N8:IN9">
+    <cfRule type="expression" dxfId="497" priority="3163" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="499" priority="3164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="496" priority="3164" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="3165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="495" priority="3165" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N77:IN77">
-    <cfRule type="expression" dxfId="497" priority="3181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="494" priority="3181" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="3182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="493" priority="3182" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="495" priority="3183" stopIfTrue="1">
+    <cfRule type="expression" dxfId="492" priority="3183" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO60:XFD60">
-    <cfRule type="expression" dxfId="494" priority="3184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="491" priority="3184" stopIfTrue="1">
       <formula>$D14="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="493" priority="3185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="490" priority="3185" stopIfTrue="1">
       <formula>$D14="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="492" priority="3186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="489" priority="3186" stopIfTrue="1">
       <formula>OR($D14="終了",$D14="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO45:XFD45">
-    <cfRule type="expression" dxfId="491" priority="3190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="488" priority="3190" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="3191" stopIfTrue="1">
+    <cfRule type="expression" dxfId="487" priority="3191" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="489" priority="3192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="486" priority="3192" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO50:XFD50">
-    <cfRule type="expression" dxfId="488" priority="3259" stopIfTrue="1">
+    <cfRule type="expression" dxfId="485" priority="3259" stopIfTrue="1">
       <formula>$D21="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="487" priority="3260" stopIfTrue="1">
+    <cfRule type="expression" dxfId="484" priority="3260" stopIfTrue="1">
       <formula>$D21="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="3261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="483" priority="3261" stopIfTrue="1">
       <formula>OR($D21="終了",$D21="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="485" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="482" priority="4" stopIfTrue="1">
       <formula>$E15="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="481" priority="5" stopIfTrue="1">
       <formula>$E15="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="480" priority="6" stopIfTrue="1">
       <formula>OR($E15="終了",$E15="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO51:XFD52">
-    <cfRule type="expression" dxfId="482" priority="3307" stopIfTrue="1">
+    <cfRule type="expression" dxfId="479" priority="3307" stopIfTrue="1">
       <formula>$D8="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="481" priority="3308" stopIfTrue="1">
+    <cfRule type="expression" dxfId="478" priority="3308" stopIfTrue="1">
       <formula>$D8="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="480" priority="3309" stopIfTrue="1">
+    <cfRule type="expression" dxfId="477" priority="3309" stopIfTrue="1">
       <formula>OR($D8="終了",$D8="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO64:XFD64">
-    <cfRule type="expression" dxfId="479" priority="3352" stopIfTrue="1">
+    <cfRule type="expression" dxfId="476" priority="3352" stopIfTrue="1">
       <formula>$D22="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="3353" stopIfTrue="1">
+    <cfRule type="expression" dxfId="475" priority="3353" stopIfTrue="1">
       <formula>$D22="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="477" priority="3354" stopIfTrue="1">
+    <cfRule type="expression" dxfId="474" priority="3354" stopIfTrue="1">
       <formula>OR($D22="終了",$D22="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO76:XFD76">
-    <cfRule type="expression" dxfId="476" priority="3406" stopIfTrue="1">
+    <cfRule type="expression" dxfId="473" priority="3406" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="475" priority="3407" stopIfTrue="1">
+    <cfRule type="expression" dxfId="472" priority="3407" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="474" priority="3408" stopIfTrue="1">
+    <cfRule type="expression" dxfId="471" priority="3408" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO56:XFD56">
-    <cfRule type="expression" dxfId="473" priority="3445" stopIfTrue="1">
+    <cfRule type="expression" dxfId="470" priority="3445" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="472" priority="3446" stopIfTrue="1">
+    <cfRule type="expression" dxfId="469" priority="3446" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="471" priority="3447" stopIfTrue="1">
+    <cfRule type="expression" dxfId="468" priority="3447" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO73:XFD75">
-    <cfRule type="expression" dxfId="470" priority="3478" stopIfTrue="1">
+    <cfRule type="expression" dxfId="467" priority="3478" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="469" priority="3479" stopIfTrue="1">
+    <cfRule type="expression" dxfId="466" priority="3479" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="468" priority="3480" stopIfTrue="1">
+    <cfRule type="expression" dxfId="465" priority="3480" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO66:XFD71">
-    <cfRule type="expression" dxfId="467" priority="3505" stopIfTrue="1">
+    <cfRule type="expression" dxfId="464" priority="3505" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="466" priority="3506" stopIfTrue="1">
+    <cfRule type="expression" dxfId="463" priority="3506" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="465" priority="3507" stopIfTrue="1">
+    <cfRule type="expression" dxfId="462" priority="3507" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27 AA27:IN27">
-    <cfRule type="expression" dxfId="464" priority="3637" stopIfTrue="1">
+    <cfRule type="expression" dxfId="461" priority="3637" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="463" priority="3638" stopIfTrue="1">
+    <cfRule type="expression" dxfId="460" priority="3638" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="462" priority="3639" stopIfTrue="1">
+    <cfRule type="expression" dxfId="459" priority="3639" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13:IN13">
-    <cfRule type="expression" dxfId="461" priority="3643" stopIfTrue="1">
+    <cfRule type="expression" dxfId="458" priority="3643" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="3644" stopIfTrue="1">
+    <cfRule type="expression" dxfId="457" priority="3644" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="459" priority="3645" stopIfTrue="1">
+    <cfRule type="expression" dxfId="456" priority="3645" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO7:XFD11">
-    <cfRule type="expression" dxfId="458" priority="3658" stopIfTrue="1">
+    <cfRule type="expression" dxfId="455" priority="3658" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="457" priority="3659" stopIfTrue="1">
+    <cfRule type="expression" dxfId="454" priority="3659" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="3660" stopIfTrue="1">
+    <cfRule type="expression" dxfId="453" priority="3660" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA23:IN24 N23:N24">
-    <cfRule type="expression" dxfId="455" priority="3661" stopIfTrue="1">
+    <cfRule type="expression" dxfId="452" priority="3661" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="454" priority="3662" stopIfTrue="1">
+    <cfRule type="expression" dxfId="451" priority="3662" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="453" priority="3663" stopIfTrue="1">
+    <cfRule type="expression" dxfId="450" priority="3663" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO15:XFD17">
-    <cfRule type="expression" dxfId="452" priority="3667" stopIfTrue="1">
+    <cfRule type="expression" dxfId="449" priority="3667" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="451" priority="3668" stopIfTrue="1">
+    <cfRule type="expression" dxfId="448" priority="3668" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="3669" stopIfTrue="1">
+    <cfRule type="expression" dxfId="447" priority="3669" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO62:XFD62">
-    <cfRule type="expression" dxfId="449" priority="3706" stopIfTrue="1">
+    <cfRule type="expression" dxfId="446" priority="3706" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="3707" stopIfTrue="1">
+    <cfRule type="expression" dxfId="445" priority="3707" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="447" priority="3708" stopIfTrue="1">
+    <cfRule type="expression" dxfId="444" priority="3708" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO63:XFD63">
-    <cfRule type="expression" dxfId="446" priority="3709" stopIfTrue="1">
+    <cfRule type="expression" dxfId="443" priority="3709" stopIfTrue="1">
       <formula>$D19="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="445" priority="3710" stopIfTrue="1">
+    <cfRule type="expression" dxfId="442" priority="3710" stopIfTrue="1">
       <formula>$D19="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="444" priority="3711" stopIfTrue="1">
+    <cfRule type="expression" dxfId="441" priority="3711" stopIfTrue="1">
       <formula>OR($D19="終了",$D19="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43:E44">
-    <cfRule type="expression" dxfId="443" priority="1" stopIfTrue="1">
-      <formula>$E43="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="442" priority="2" stopIfTrue="1">
-      <formula>$E43="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="441" priority="3" stopIfTrue="1">
-      <formula>OR($E43="終了",$E43="完了")</formula>
+  <conditionalFormatting sqref="B41:E42">
+    <cfRule type="expression" dxfId="440" priority="1" stopIfTrue="1">
+      <formula>$E41="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="439" priority="2" stopIfTrue="1">
+      <formula>$E41="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="438" priority="3" stopIfTrue="1">
+      <formula>OR($E41="終了",$E41="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -21700,7 +21888,7 @@
       <c r="C1" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="110" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="102" t="s">
@@ -21724,13 +21912,13 @@
       <c r="K1" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="112"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="109"/>
       <c r="S1" s="74"/>
       <c r="T1" s="74"/>
       <c r="U1" s="74"/>
@@ -21741,7 +21929,7 @@
       <c r="A2" s="102"/>
       <c r="B2" s="103"/>
       <c r="C2" s="103"/>
-      <c r="D2" s="109"/>
+      <c r="D2" s="111"/>
       <c r="E2" s="102"/>
       <c r="F2" s="105"/>
       <c r="G2" s="105"/>
@@ -21749,35 +21937,35 @@
       <c r="I2" s="107"/>
       <c r="J2" s="102"/>
       <c r="K2" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="L2" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="L2" s="75" t="s">
-        <v>138</v>
-      </c>
       <c r="M2" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="N2" s="75" t="s">
+      <c r="O2" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="O2" s="75" t="s">
+      <c r="P2" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="Q2" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="R2" s="23" t="s">
         <v>132</v>
-      </c>
-      <c r="Q2" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="R2" s="23" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="8" customFormat="1">
       <c r="A3" s="102"/>
       <c r="B3" s="103"/>
       <c r="C3" s="103"/>
-      <c r="D3" s="109"/>
+      <c r="D3" s="111"/>
       <c r="E3" s="102"/>
       <c r="F3" s="105"/>
       <c r="G3" s="105"/>
@@ -21821,7 +22009,7 @@
       <c r="A4" s="102"/>
       <c r="B4" s="103"/>
       <c r="C4" s="104"/>
-      <c r="D4" s="110"/>
+      <c r="D4" s="112"/>
       <c r="E4" s="102"/>
       <c r="F4" s="105"/>
       <c r="G4" s="105"/>
@@ -21866,7 +22054,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="51"/>
       <c r="D5" s="51"/>
@@ -21893,7 +22081,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
@@ -21917,7 +22105,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="93" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="87"/>
@@ -21962,7 +22150,7 @@
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="12" t="str">
-        <f t="shared" ref="J8:J15" ca="1" si="3">IF(ISBLANK(K8)=FALSE,OFFSET(J8,0,COUNTA(K8:M8)),"")</f>
+        <f ca="1">IF(ISBLANK(K8)=FALSE,OFFSET(J8,0,COUNTA(K8:R8)),"")</f>
         <v/>
       </c>
       <c r="K8" s="22"/>
@@ -22000,7 +22188,7 @@
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ref="J9:J72" ca="1" si="3">IF(ISBLANK(K9)=FALSE,OFFSET(J9,0,COUNTA(K9:R9)),"")</f>
         <v/>
       </c>
       <c r="K9" s="22"/>
@@ -22245,7 +22433,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="93" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -22254,7 +22442,10 @@
       <c r="G16" s="4"/>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
-      <c r="J16" s="12"/>
+      <c r="J16" s="12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
@@ -22272,7 +22463,7 @@
         <v>73</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>74</v>
@@ -22290,7 +22481,7 @@
       </c>
       <c r="I17" s="19"/>
       <c r="J17" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K17)=FALSE,OFFSET(J17,0,COUNTA(K17:M17)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K17" s="22"/>
@@ -22310,7 +22501,7 @@
         <v>75</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>74</v>
@@ -22328,7 +22519,7 @@
       </c>
       <c r="I18" s="19"/>
       <c r="J18" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K18)=FALSE,OFFSET(J18,0,COUNTA(K18:M18)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K18" s="22"/>
@@ -22348,7 +22539,7 @@
         <v>76</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>74</v>
@@ -22366,7 +22557,7 @@
       </c>
       <c r="I19" s="19"/>
       <c r="J19" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K19)=FALSE,OFFSET(J19,0,COUNTA(K19:M19)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K19" s="22"/>
@@ -22386,7 +22577,7 @@
         <v>77</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>74</v>
@@ -22404,7 +22595,7 @@
       </c>
       <c r="I20" s="19"/>
       <c r="J20" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K20)=FALSE,OFFSET(J20,0,COUNTA(K20:M20)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K20" s="22"/>
@@ -22424,7 +22615,7 @@
         <v>78</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>50</v>
@@ -22442,7 +22633,7 @@
       </c>
       <c r="I21" s="19"/>
       <c r="J21" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K21)=FALSE,OFFSET(J21,0,COUNTA(K21:M21)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K21" s="22"/>
@@ -22459,7 +22650,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="92" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -22468,7 +22659,10 @@
       <c r="G22" s="4"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
-      <c r="J22" s="12"/>
+      <c r="J22" s="12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
@@ -22483,10 +22677,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>50</v>
@@ -22504,7 +22698,7 @@
       </c>
       <c r="I23" s="19"/>
       <c r="J23" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K23)=FALSE,OFFSET(J23,0,COUNTA(K23:M23)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K23" s="22"/>
@@ -22524,7 +22718,7 @@
         <v>81</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>74</v>
@@ -22542,7 +22736,7 @@
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K24)=FALSE,OFFSET(J24,0,COUNTA(K24:M24)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K24" s="22"/>
@@ -22562,10 +22756,10 @@
         <v>84</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E25" s="12" t="str">
         <f>IF(ISBLANK($B25),"",IF(ISBLANK($G25),"未着手",IF($J25=0,"完了","作業中")))</f>
@@ -22580,7 +22774,7 @@
       </c>
       <c r="I25" s="19"/>
       <c r="J25" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K25)=FALSE,OFFSET(J25,0,COUNTA(K25:M25)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K25" s="22"/>
@@ -22597,7 +22791,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>47</v>
@@ -22618,7 +22812,7 @@
       </c>
       <c r="I26" s="19"/>
       <c r="J26" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K26)=FALSE,OFFSET(J26,0,COUNTA(K26:M26)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K26" s="22"/>
@@ -22635,7 +22829,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="93" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -22644,7 +22838,10 @@
       <c r="G27" s="4"/>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
-      <c r="J27" s="12"/>
+      <c r="J27" s="12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
       <c r="M27" s="22"/>
@@ -22659,10 +22856,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>79</v>
@@ -22680,7 +22877,7 @@
       </c>
       <c r="I28" s="19"/>
       <c r="J28" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K28)=FALSE,OFFSET(J28,0,COUNTA(K28:M28)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K28" s="22"/>
@@ -22697,10 +22894,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>79</v>
@@ -22718,7 +22915,7 @@
       </c>
       <c r="I29" s="19"/>
       <c r="J29" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K29)=FALSE,OFFSET(J29,0,COUNTA(K29:M29)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K29" s="22"/>
@@ -22735,10 +22932,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>83</v>
@@ -22756,7 +22953,7 @@
       </c>
       <c r="I30" s="19"/>
       <c r="J30" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K30)=FALSE,OFFSET(J30,0,COUNTA(K30:M30)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K30" s="22"/>
@@ -22773,7 +22970,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="92" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
@@ -22782,7 +22979,10 @@
       <c r="G31" s="4"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
-      <c r="J31" s="12"/>
+      <c r="J31" s="12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
       <c r="M31" s="22"/>
@@ -22797,13 +22997,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E32" s="12" t="str">
         <f>IF(ISBLANK($B32),"",IF(ISBLANK($G32),"未着手",IF($J32=0,"完了","作業中")))</f>
@@ -22818,7 +23018,7 @@
       </c>
       <c r="I32" s="19"/>
       <c r="J32" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K32)=FALSE,OFFSET(J32,0,COUNTA(K32:M32)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K32" s="22"/>
@@ -22835,13 +23035,13 @@
         <v>29</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E33" s="12" t="str">
         <f>IF(ISBLANK($B33),"",IF(ISBLANK($G33),"未着手",IF($J33=0,"完了","作業中")))</f>
@@ -22856,7 +23056,7 @@
       </c>
       <c r="I33" s="19"/>
       <c r="J33" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K33)=FALSE,OFFSET(J33,0,COUNTA(K33:M33)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K33" s="22"/>
@@ -22873,10 +23073,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>83</v>
@@ -22894,7 +23094,7 @@
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K34)=FALSE,OFFSET(J34,0,COUNTA(K34:M34)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K34" s="22"/>
@@ -22911,10 +23111,10 @@
         <v>31</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>83</v>
@@ -22932,7 +23132,7 @@
       </c>
       <c r="I35" s="19"/>
       <c r="J35" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K35)=FALSE,OFFSET(J35,0,COUNTA(K35:M35)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K35" s="22"/>
@@ -22949,16 +23149,16 @@
         <v>32</v>
       </c>
       <c r="B36" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="D36" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="E36" s="12" t="s">
         <v>184</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>185</v>
       </c>
       <c r="F36" s="4">
         <v>43094</v>
@@ -22968,7 +23168,10 @@
         <v>2</v>
       </c>
       <c r="I36" s="19"/>
-      <c r="J36" s="12"/>
+      <c r="J36" s="12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="K36" s="22"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
@@ -22986,13 +23189,13 @@
         <v>89</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F37" s="4">
         <v>43094</v>
@@ -23002,8 +23205,8 @@
         <v>3</v>
       </c>
       <c r="I37" s="19"/>
-      <c r="J37" s="88" t="str">
-        <f ca="1">IF(ISBLANK(K37)=FALSE,OFFSET(J37,0,COUNTA(K37:M37)),"")</f>
+      <c r="J37" s="12" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K37" s="22"/>
@@ -23036,13 +23239,13 @@
         <v>34</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>63</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E38" s="12" t="str">
         <f>IF(ISBLANK($B38),"",IF(ISBLANK($G38),"未着手",IF($J38=0,"完了","作業中")))</f>
@@ -23057,7 +23260,7 @@
       </c>
       <c r="I38" s="19"/>
       <c r="J38" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K38)=FALSE,OFFSET(J38,0,COUNTA(K38:M38)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K38" s="22"/>
@@ -23073,7 +23276,7 @@
       </c>
       <c r="U38" s="10">
         <f>SUMIF($C$5:$C$202,T38,$H$5:$H$202)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="V38" s="10">
         <f ca="1">SUMIF($C$5:$C$202,T38,$J$5:$J$202)</f>
@@ -23081,7 +23284,7 @@
       </c>
       <c r="W38" s="10">
         <f>SUMIF($C$5:$C$200,T38,$I$5:$I$200)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X38" s="14">
         <v>0</v>
@@ -23096,7 +23299,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="76" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C39" s="77"/>
       <c r="D39" s="77"/>
@@ -23105,7 +23308,10 @@
       <c r="G39" s="79"/>
       <c r="H39" s="80"/>
       <c r="I39" s="80"/>
-      <c r="J39" s="80"/>
+      <c r="J39" s="78" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="K39" s="81"/>
       <c r="L39" s="81"/>
       <c r="M39" s="81"/>
@@ -23115,11 +23321,11 @@
       <c r="Q39" s="81"/>
       <c r="R39" s="81"/>
       <c r="T39" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U39" s="10">
         <f>SUMIF($C$5:$C$202,T39,$H$5:$H$202)</f>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="V39" s="10">
         <f t="shared" ref="V39:V43" ca="1" si="5">SUMIF($C$5:$C$202,T39,$J$5:$J$202)</f>
@@ -23142,7 +23348,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="93" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C40" s="87"/>
       <c r="D40" s="87"/>
@@ -23151,7 +23357,10 @@
       <c r="G40" s="89"/>
       <c r="H40" s="90"/>
       <c r="I40" s="90"/>
-      <c r="J40" s="90"/>
+      <c r="J40" s="12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="K40" s="22"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
@@ -23164,7 +23373,7 @@
         <v>63</v>
       </c>
       <c r="U40" s="10">
-        <f t="shared" ref="U38:V43" si="8">SUMIF($C$5:$C$202,T40,$H$5:$H$202)</f>
+        <f t="shared" ref="U40:U43" si="8">SUMIF($C$5:$C$202,T40,$H$5:$H$202)</f>
         <v>14</v>
       </c>
       <c r="V40" s="10">
@@ -23188,13 +23397,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>80</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E41" s="12" t="str">
         <f>IF(ISBLANK($B41),"",IF(ISBLANK($G41),"未着手",IF(#REF!=0,"完了","作業中")))</f>
@@ -23209,7 +23418,7 @@
       </c>
       <c r="I41" s="19"/>
       <c r="J41" s="12" t="str">
-        <f t="shared" ref="J41:J59" ca="1" si="9">IF(ISBLANK(K41)=FALSE,OFFSET(J41,0,COUNTA(K41:M41)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K41" s="19"/>
@@ -23248,7 +23457,7 @@
         <v>38</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>80</v>
@@ -23269,7 +23478,7 @@
       </c>
       <c r="I42" s="19"/>
       <c r="J42" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K42" s="19"/>
@@ -23308,16 +23517,16 @@
         <v>39</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>80</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E43" s="12" t="str">
-        <f t="shared" ref="E43:E58" si="10">IF(ISBLANK($B43),"",IF(ISBLANK($G43),"未着手",IF($J41=0,"完了","作業中")))</f>
+        <f t="shared" ref="E43:E58" si="9">IF(ISBLANK($B43),"",IF(ISBLANK($G43),"未着手",IF($J41=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F43" s="4">
@@ -23329,7 +23538,7 @@
       </c>
       <c r="I43" s="19"/>
       <c r="J43" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K43" s="19"/>
@@ -23368,7 +23577,7 @@
         <v>40</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>80</v>
@@ -23377,7 +23586,7 @@
         <v>50</v>
       </c>
       <c r="E44" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>未着手</v>
       </c>
       <c r="F44" s="4">
@@ -23389,7 +23598,7 @@
       </c>
       <c r="I44" s="19"/>
       <c r="J44" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K44" s="19"/>
@@ -23406,16 +23615,16 @@
         <v>41</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>80</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E45" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>未着手</v>
       </c>
       <c r="F45" s="4">
@@ -23427,7 +23636,7 @@
       </c>
       <c r="I45" s="19"/>
       <c r="J45" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K45" s="19"/>
@@ -23444,7 +23653,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>80</v>
@@ -23453,7 +23662,7 @@
         <v>50</v>
       </c>
       <c r="E46" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>未着手</v>
       </c>
       <c r="F46" s="4">
@@ -23465,7 +23674,7 @@
       </c>
       <c r="I46" s="19"/>
       <c r="J46" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K46" s="22"/>
@@ -23482,7 +23691,7 @@
         <v>43</v>
       </c>
       <c r="B47" s="92" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
@@ -23492,7 +23701,7 @@
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K47" s="22"/>
@@ -23509,16 +23718,16 @@
         <v>44</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>80</v>
       </c>
       <c r="D48" s="63" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E48" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>未着手</v>
       </c>
       <c r="F48" s="4">
@@ -23530,7 +23739,7 @@
       </c>
       <c r="I48" s="19"/>
       <c r="J48" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K48" s="22"/>
@@ -23547,7 +23756,7 @@
         <v>45</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>80</v>
@@ -23556,7 +23765,7 @@
         <v>50</v>
       </c>
       <c r="E49" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>未着手</v>
       </c>
       <c r="F49" s="4">
@@ -23568,7 +23777,7 @@
       </c>
       <c r="I49" s="19"/>
       <c r="J49" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K49" s="22"/>
@@ -23585,7 +23794,7 @@
         <v>46</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>80</v>
@@ -23594,7 +23803,7 @@
         <v>50</v>
       </c>
       <c r="E50" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>未着手</v>
       </c>
       <c r="F50" s="4">
@@ -23606,7 +23815,7 @@
       </c>
       <c r="I50" s="19"/>
       <c r="J50" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K50" s="22"/>
@@ -23623,7 +23832,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>80</v>
@@ -23632,7 +23841,7 @@
         <v>50</v>
       </c>
       <c r="E51" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>未着手</v>
       </c>
       <c r="F51" s="4">
@@ -23644,7 +23853,7 @@
       </c>
       <c r="I51" s="19"/>
       <c r="J51" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K51" s="22"/>
@@ -23661,7 +23870,7 @@
         <v>48</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>80</v>
@@ -23670,7 +23879,7 @@
         <v>50</v>
       </c>
       <c r="E52" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>未着手</v>
       </c>
       <c r="F52" s="4">
@@ -23682,7 +23891,7 @@
       </c>
       <c r="I52" s="19"/>
       <c r="J52" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K52" s="22"/>
@@ -23699,7 +23908,7 @@
         <v>49</v>
       </c>
       <c r="B53" s="93" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
@@ -23709,7 +23918,7 @@
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
       <c r="J53" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K53" s="22"/>
@@ -23726,16 +23935,16 @@
         <v>50</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>80</v>
       </c>
       <c r="D54" s="63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E54" s="64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>未着手</v>
       </c>
       <c r="F54" s="4">
@@ -23747,7 +23956,7 @@
       </c>
       <c r="I54" s="19"/>
       <c r="J54" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K54" s="22"/>
@@ -23764,7 +23973,7 @@
         <v>51</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>80</v>
@@ -23773,7 +23982,7 @@
         <v>50</v>
       </c>
       <c r="E55" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>未着手</v>
       </c>
       <c r="F55" s="4">
@@ -23785,7 +23994,7 @@
       </c>
       <c r="I55" s="19"/>
       <c r="J55" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K55" s="22"/>
@@ -23802,16 +24011,16 @@
         <v>52</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>80</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E56" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>未着手</v>
       </c>
       <c r="F56" s="4">
@@ -23823,7 +24032,7 @@
       </c>
       <c r="I56" s="19"/>
       <c r="J56" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K56" s="22"/>
@@ -23840,7 +24049,7 @@
         <v>53</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>80</v>
@@ -23849,7 +24058,7 @@
         <v>50</v>
       </c>
       <c r="E57" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>未着手</v>
       </c>
       <c r="F57" s="4">
@@ -23861,7 +24070,7 @@
       </c>
       <c r="I57" s="65"/>
       <c r="J57" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K57" s="66"/>
@@ -23878,7 +24087,7 @@
         <v>54</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>80</v>
@@ -23887,7 +24096,7 @@
         <v>50</v>
       </c>
       <c r="E58" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>未着手</v>
       </c>
       <c r="F58" s="4">
@@ -23899,7 +24108,7 @@
       </c>
       <c r="I58" s="19"/>
       <c r="J58" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K58" s="22"/>
@@ -23916,7 +24125,7 @@
         <v>55</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C59" s="67"/>
       <c r="D59" s="67"/>
@@ -23925,8 +24134,8 @@
       <c r="G59" s="83"/>
       <c r="H59" s="84"/>
       <c r="I59" s="84"/>
-      <c r="J59" s="82" t="str">
-        <f t="shared" ca="1" si="9"/>
+      <c r="J59" s="59" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K59" s="85"/>
@@ -23943,7 +24152,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="94" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C60" s="91"/>
       <c r="D60" s="91"/>
@@ -23952,7 +24161,10 @@
       <c r="G60" s="98"/>
       <c r="H60" s="99"/>
       <c r="I60" s="99"/>
-      <c r="J60" s="97"/>
+      <c r="J60" s="12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="K60" s="86"/>
       <c r="L60" s="86"/>
       <c r="M60" s="86"/>
@@ -23967,7 +24179,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>63</v>
@@ -23988,7 +24200,7 @@
       </c>
       <c r="I61" s="19"/>
       <c r="J61" s="12" t="str">
-        <f t="shared" ref="J61:J97" ca="1" si="11">IF(ISBLANK(K61)=FALSE,OFFSET(J61,0,COUNTA(K61:M61)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K61" s="22"/>
@@ -24005,7 +24217,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>63</v>
@@ -24026,7 +24238,7 @@
       </c>
       <c r="I62" s="19"/>
       <c r="J62" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K62" s="22"/>
@@ -24043,13 +24255,13 @@
         <v>59</v>
       </c>
       <c r="B63" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D63" s="18" t="s">
         <v>188</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>189</v>
       </c>
       <c r="E63" s="12" t="str">
         <f>IF(ISBLANK($B63),"",IF(ISBLANK($G63),"未着手",IF($J63=0,"完了","作業中")))</f>
@@ -24064,7 +24276,7 @@
       </c>
       <c r="I63" s="19"/>
       <c r="J63" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K63" s="22"/>
@@ -24081,13 +24293,13 @@
         <v>60</v>
       </c>
       <c r="B64" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C64" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="D64" s="18" t="s">
         <v>191</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>192</v>
       </c>
       <c r="E64" s="12" t="str">
         <f>IF(ISBLANK($B64),"",IF(ISBLANK($G64),"未着手",IF($J64=0,"完了","作業中")))</f>
@@ -24102,7 +24314,7 @@
       </c>
       <c r="I64" s="19"/>
       <c r="J64" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K64" s="22"/>
@@ -24119,7 +24331,7 @@
         <v>61</v>
       </c>
       <c r="B65" s="92" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
@@ -24129,7 +24341,7 @@
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
       <c r="J65" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K65" s="22"/>
@@ -24146,10 +24358,10 @@
         <v>62</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="18" t="s">
         <v>50</v>
@@ -24167,7 +24379,7 @@
       </c>
       <c r="I66" s="19"/>
       <c r="J66" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K66" s="22"/>
@@ -24184,10 +24396,10 @@
         <v>63</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="18" t="s">
         <v>50</v>
@@ -24205,7 +24417,7 @@
       </c>
       <c r="I67" s="19"/>
       <c r="J67" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K67" s="22"/>
@@ -24222,10 +24434,10 @@
         <v>64</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="18" t="s">
         <v>50</v>
@@ -24243,7 +24455,7 @@
       </c>
       <c r="I68" s="19"/>
       <c r="J68" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K68" s="22"/>
@@ -24260,10 +24472,10 @@
         <v>65</v>
       </c>
       <c r="B69" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C69" s="18" t="s">
         <v>196</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>197</v>
       </c>
       <c r="D69" s="18" t="s">
         <v>50</v>
@@ -24281,7 +24493,7 @@
       </c>
       <c r="I69" s="19"/>
       <c r="J69" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K69" s="22"/>
@@ -24298,7 +24510,7 @@
         <v>66</v>
       </c>
       <c r="B70" s="93" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C70" s="18"/>
       <c r="D70" s="18"/>
@@ -24308,7 +24520,7 @@
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
       <c r="J70" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K70" s="22"/>
@@ -24325,16 +24537,16 @@
         <v>67</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E71" s="12" t="str">
-        <f t="shared" ref="E71:E134" si="12">IF(ISBLANK($B71),"",IF(ISBLANK($G71),"未着手",IF($J71=0,"完了","作業中")))</f>
+        <f t="shared" ref="E71:E134" si="10">IF(ISBLANK($B71),"",IF(ISBLANK($G71),"未着手",IF($J71=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F71" s="4">
@@ -24346,7 +24558,7 @@
       </c>
       <c r="I71" s="19"/>
       <c r="J71" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K71" s="22"/>
@@ -24363,16 +24575,16 @@
         <v>68</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D72" s="18" t="s">
         <v>79</v>
       </c>
       <c r="E72" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F72" s="4">
@@ -24384,7 +24596,7 @@
       </c>
       <c r="I72" s="19"/>
       <c r="J72" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K72" s="22"/>
@@ -24401,16 +24613,16 @@
         <v>69</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E73" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F73" s="4">
@@ -24422,7 +24634,7 @@
       </c>
       <c r="I73" s="19"/>
       <c r="J73" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ref="J73:J136" ca="1" si="11">IF(ISBLANK(K73)=FALSE,OFFSET(J73,0,COUNTA(K73:R73)),"")</f>
         <v/>
       </c>
       <c r="K73" s="22"/>
@@ -24439,16 +24651,16 @@
         <v>70</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D74" s="18" t="s">
         <v>79</v>
       </c>
       <c r="E74" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F74" s="4">
@@ -24477,16 +24689,16 @@
         <v>71</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E75" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F75" s="4">
@@ -24515,16 +24727,16 @@
         <v>72</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D76" s="18" t="s">
         <v>79</v>
       </c>
       <c r="E76" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F76" s="4">
@@ -24553,16 +24765,16 @@
         <v>73</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E77" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F77" s="4">
@@ -24591,16 +24803,16 @@
         <v>74</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D78" s="18" t="s">
         <v>79</v>
       </c>
       <c r="E78" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F78" s="4">
@@ -24629,16 +24841,16 @@
         <v>75</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E79" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F79" s="4">
@@ -24667,16 +24879,16 @@
         <v>76</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D80" s="18" t="s">
         <v>79</v>
       </c>
       <c r="E80" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F80" s="4">
@@ -24708,7 +24920,7 @@
       <c r="C81" s="18"/>
       <c r="D81" s="18"/>
       <c r="E81" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F81" s="4"/>
@@ -24733,7 +24945,7 @@
         <v>78</v>
       </c>
       <c r="B82" s="93" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
@@ -24760,16 +24972,16 @@
         <v>79</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D83" s="63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E83" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F83" s="4">
@@ -24798,16 +25010,16 @@
         <v>80</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D84" s="63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E84" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F84" s="4">
@@ -24836,16 +25048,16 @@
         <v>81</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D85" s="63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E85" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F85" s="4">
@@ -24874,16 +25086,16 @@
         <v>82</v>
       </c>
       <c r="B86" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="D86" s="63" t="s">
         <v>230</v>
       </c>
-      <c r="C86" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="D86" s="63" t="s">
-        <v>231</v>
-      </c>
       <c r="E86" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F86" s="4">
@@ -24912,16 +25124,16 @@
         <v>83</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D87" s="63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E87" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F87" s="4">
@@ -24950,16 +25162,16 @@
         <v>84</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D88" s="63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E88" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F88" s="4">
@@ -24988,16 +25200,16 @@
         <v>85</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D89" s="18" t="s">
         <v>69</v>
       </c>
       <c r="E89" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F89" s="4">
@@ -25026,16 +25238,16 @@
         <v>86</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D90" s="18" t="s">
         <v>69</v>
       </c>
       <c r="E90" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F90" s="4">
@@ -25064,16 +25276,16 @@
         <v>87</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D91" s="18" t="s">
         <v>69</v>
       </c>
       <c r="E91" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F91" s="4">
@@ -25105,7 +25317,7 @@
       <c r="C92" s="18"/>
       <c r="D92" s="18"/>
       <c r="E92" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F92" s="4"/>
@@ -25130,7 +25342,7 @@
         <v>89</v>
       </c>
       <c r="B93" s="93" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C93" s="18"/>
       <c r="D93" s="18"/>
@@ -25157,16 +25369,16 @@
         <v>90</v>
       </c>
       <c r="B94" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="D94" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="C94" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="D94" s="18" t="s">
-        <v>239</v>
-      </c>
       <c r="E94" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F94" s="4">
@@ -25195,16 +25407,16 @@
         <v>91</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E95" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F95" s="4">
@@ -25233,16 +25445,16 @@
         <v>92</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E96" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F96" s="4">
@@ -25271,16 +25483,16 @@
         <v>93</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E97" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F97" s="4">
@@ -25309,16 +25521,16 @@
         <v>94</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E98" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F98" s="4">
@@ -25330,7 +25542,7 @@
       </c>
       <c r="I98" s="19"/>
       <c r="J98" s="12" t="str">
-        <f t="shared" ref="J98:J163" ca="1" si="13">IF(ISBLANK(K98)=FALSE,OFFSET(J98,0,COUNTA(K98:M98)),"")</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K98" s="22"/>
@@ -25347,16 +25559,16 @@
         <v>95</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E99" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F99" s="4">
@@ -25368,7 +25580,7 @@
       </c>
       <c r="I99" s="19"/>
       <c r="J99" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K99" s="22"/>
@@ -25388,7 +25600,7 @@
       <c r="C100" s="18"/>
       <c r="D100" s="18"/>
       <c r="E100" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F100" s="4"/>
@@ -25396,7 +25608,7 @@
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
       <c r="J100" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K100" s="22"/>
@@ -25413,7 +25625,7 @@
         <v>97</v>
       </c>
       <c r="B101" s="93" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C101" s="18"/>
       <c r="D101" s="18"/>
@@ -25423,7 +25635,7 @@
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
       <c r="J101" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K101" s="22"/>
@@ -25440,16 +25652,16 @@
         <v>98</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E102" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F102" s="4">
@@ -25461,7 +25673,7 @@
       </c>
       <c r="I102" s="19"/>
       <c r="J102" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K102" s="22"/>
@@ -25478,16 +25690,16 @@
         <v>99</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E103" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F103" s="4">
@@ -25499,7 +25711,7 @@
       </c>
       <c r="I103" s="19"/>
       <c r="J103" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K103" s="22"/>
@@ -25516,16 +25728,16 @@
         <v>100</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E104" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F104" s="4">
@@ -25537,7 +25749,7 @@
       </c>
       <c r="I104" s="19"/>
       <c r="J104" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K104" s="22"/>
@@ -25554,16 +25766,16 @@
         <v>101</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E105" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F105" s="4">
@@ -25575,7 +25787,7 @@
       </c>
       <c r="I105" s="19"/>
       <c r="J105" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K105" s="22"/>
@@ -25592,16 +25804,16 @@
         <v>102</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E106" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F106" s="4">
@@ -25613,7 +25825,7 @@
       </c>
       <c r="I106" s="19"/>
       <c r="J106" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K106" s="22"/>
@@ -25630,16 +25842,16 @@
         <v>103</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E107" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F107" s="4">
@@ -25651,7 +25863,7 @@
       </c>
       <c r="I107" s="19"/>
       <c r="J107" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K107" s="22"/>
@@ -25668,16 +25880,16 @@
         <v>104</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E108" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F108" s="4">
@@ -25689,7 +25901,7 @@
       </c>
       <c r="I108" s="19"/>
       <c r="J108" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K108" s="22"/>
@@ -25709,7 +25921,7 @@
       <c r="C109" s="18"/>
       <c r="D109" s="18"/>
       <c r="E109" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F109" s="4"/>
@@ -25717,7 +25929,7 @@
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
       <c r="J109" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K109" s="22"/>
@@ -25734,7 +25946,7 @@
         <v>106</v>
       </c>
       <c r="B110" s="93" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C110" s="18"/>
       <c r="D110" s="18"/>
@@ -25744,7 +25956,7 @@
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
       <c r="J110" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K110" s="22"/>
@@ -25761,16 +25973,16 @@
         <v>107</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E111" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F111" s="4">
@@ -25782,7 +25994,7 @@
       </c>
       <c r="I111" s="19"/>
       <c r="J111" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K111" s="22"/>
@@ -25799,16 +26011,16 @@
         <v>108</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E112" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F112" s="4">
@@ -25820,7 +26032,7 @@
       </c>
       <c r="I112" s="19"/>
       <c r="J112" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K112" s="22"/>
@@ -25837,16 +26049,16 @@
         <v>109</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E113" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F113" s="4">
@@ -25858,7 +26070,7 @@
       </c>
       <c r="I113" s="19"/>
       <c r="J113" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K113" s="22"/>
@@ -25875,16 +26087,16 @@
         <v>110</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E114" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F114" s="4">
@@ -25896,7 +26108,7 @@
       </c>
       <c r="I114" s="19"/>
       <c r="J114" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K114" s="22"/>
@@ -25913,16 +26125,16 @@
         <v>111</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E115" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F115" s="4">
@@ -25934,7 +26146,7 @@
       </c>
       <c r="I115" s="19"/>
       <c r="J115" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K115" s="22"/>
@@ -25951,16 +26163,16 @@
         <v>112</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E116" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F116" s="4">
@@ -25972,7 +26184,7 @@
       </c>
       <c r="I116" s="19"/>
       <c r="J116" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K116" s="22"/>
@@ -25989,16 +26201,16 @@
         <v>113</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E117" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F117" s="4">
@@ -26010,7 +26222,7 @@
       </c>
       <c r="I117" s="19"/>
       <c r="J117" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K117" s="22"/>
@@ -26027,16 +26239,16 @@
         <v>114</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E118" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F118" s="4">
@@ -26048,7 +26260,7 @@
       </c>
       <c r="I118" s="19"/>
       <c r="J118" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K118" s="22"/>
@@ -26065,16 +26277,16 @@
         <v>115</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E119" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F119" s="4">
@@ -26086,7 +26298,7 @@
       </c>
       <c r="I119" s="19"/>
       <c r="J119" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K119" s="22"/>
@@ -26103,16 +26315,16 @@
         <v>116</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E120" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F120" s="4">
@@ -26124,7 +26336,7 @@
       </c>
       <c r="I120" s="19"/>
       <c r="J120" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K120" s="22"/>
@@ -26141,16 +26353,16 @@
         <v>117</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E121" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F121" s="4">
@@ -26162,7 +26374,7 @@
       </c>
       <c r="I121" s="19"/>
       <c r="J121" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K121" s="22"/>
@@ -26179,16 +26391,16 @@
         <v>118</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E122" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F122" s="4">
@@ -26200,7 +26412,7 @@
       </c>
       <c r="I122" s="19"/>
       <c r="J122" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K122" s="22"/>
@@ -26217,16 +26429,16 @@
         <v>119</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E123" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F123" s="4">
@@ -26238,7 +26450,7 @@
       </c>
       <c r="I123" s="19"/>
       <c r="J123" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K123" s="22"/>
@@ -26255,16 +26467,16 @@
         <v>120</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E124" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F124" s="4">
@@ -26276,7 +26488,7 @@
       </c>
       <c r="I124" s="19"/>
       <c r="J124" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K124" s="22"/>
@@ -26293,16 +26505,16 @@
         <v>121</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E125" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F125" s="4">
@@ -26314,7 +26526,7 @@
       </c>
       <c r="I125" s="19"/>
       <c r="J125" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K125" s="22"/>
@@ -26331,16 +26543,16 @@
         <v>122</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E126" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F126" s="4">
@@ -26352,7 +26564,7 @@
       </c>
       <c r="I126" s="19"/>
       <c r="J126" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K126" s="22"/>
@@ -26372,7 +26584,7 @@
       <c r="C127" s="18"/>
       <c r="D127" s="18"/>
       <c r="E127" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F127" s="4"/>
@@ -26380,7 +26592,7 @@
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
       <c r="J127" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K127" s="22"/>
@@ -26397,7 +26609,7 @@
         <v>124</v>
       </c>
       <c r="B128" s="93" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C128" s="18"/>
       <c r="D128" s="18"/>
@@ -26407,7 +26619,7 @@
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
       <c r="J128" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K128" s="22"/>
@@ -26424,16 +26636,16 @@
         <v>125</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D129" s="18" t="s">
         <v>50</v>
       </c>
       <c r="E129" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F129" s="4">
@@ -26445,7 +26657,7 @@
       </c>
       <c r="I129" s="19"/>
       <c r="J129" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K129" s="22"/>
@@ -26462,16 +26674,16 @@
         <v>126</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D130" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E130" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F130" s="4">
@@ -26483,7 +26695,7 @@
       </c>
       <c r="I130" s="19"/>
       <c r="J130" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K130" s="22"/>
@@ -26500,16 +26712,16 @@
         <v>127</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D131" s="18" t="s">
         <v>50</v>
       </c>
       <c r="E131" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F131" s="4">
@@ -26521,7 +26733,7 @@
       </c>
       <c r="I131" s="19"/>
       <c r="J131" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K131" s="22"/>
@@ -26538,16 +26750,16 @@
         <v>128</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D132" s="18" t="s">
         <v>50</v>
       </c>
       <c r="E132" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F132" s="4">
@@ -26559,7 +26771,7 @@
       </c>
       <c r="I132" s="19"/>
       <c r="J132" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K132" s="22"/>
@@ -26576,16 +26788,16 @@
         <v>129</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C133" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="D133" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="D133" s="18" t="s">
-        <v>271</v>
-      </c>
       <c r="E133" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F133" s="4">
@@ -26597,7 +26809,7 @@
       </c>
       <c r="I133" s="19"/>
       <c r="J133" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K133" s="22"/>
@@ -26614,16 +26826,16 @@
         <v>130</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C134" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="D134" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="D134" s="18" t="s">
-        <v>271</v>
-      </c>
       <c r="E134" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F134" s="4">
@@ -26635,7 +26847,7 @@
       </c>
       <c r="I134" s="19"/>
       <c r="J134" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K134" s="22"/>
@@ -26655,7 +26867,7 @@
       <c r="C135" s="18"/>
       <c r="D135" s="18"/>
       <c r="E135" s="12" t="str">
-        <f t="shared" ref="E135:E200" si="14">IF(ISBLANK($B135),"",IF(ISBLANK($G135),"未着手",IF($J135=0,"完了","作業中")))</f>
+        <f t="shared" ref="E135:E200" si="12">IF(ISBLANK($B135),"",IF(ISBLANK($G135),"未着手",IF($J135=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F135" s="4"/>
@@ -26663,7 +26875,7 @@
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
       <c r="J135" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K135" s="22"/>
@@ -26680,16 +26892,16 @@
         <v>132</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D136" s="18" t="s">
         <v>83</v>
       </c>
       <c r="E136" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F136" s="4">
@@ -26701,7 +26913,7 @@
       </c>
       <c r="I136" s="19"/>
       <c r="J136" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K136" s="22"/>
@@ -26718,16 +26930,16 @@
         <v>133</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C137" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="D137" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="D137" s="18" t="s">
-        <v>271</v>
-      </c>
       <c r="E137" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F137" s="4">
@@ -26739,7 +26951,7 @@
       </c>
       <c r="I137" s="19"/>
       <c r="J137" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ref="J137:J200" ca="1" si="13">IF(ISBLANK(K137)=FALSE,OFFSET(J137,0,COUNTA(K137:R137)),"")</f>
         <v/>
       </c>
       <c r="K137" s="22"/>
@@ -26756,16 +26968,16 @@
         <v>134</v>
       </c>
       <c r="B138" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="C138" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="D138" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="C138" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="D138" s="18" t="s">
-        <v>276</v>
-      </c>
       <c r="E138" s="12" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="12"/>
         <v>完了</v>
       </c>
       <c r="F138" s="4">
@@ -26807,7 +27019,10 @@
       <c r="G139" s="4"/>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
-      <c r="J139" s="12"/>
+      <c r="J139" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
       <c r="K139" s="22"/>
       <c r="L139" s="22"/>
       <c r="M139" s="22"/>
@@ -26822,7 +27037,7 @@
         <v>136</v>
       </c>
       <c r="B140" s="93" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C140" s="18"/>
       <c r="D140" s="18"/>
@@ -26849,16 +27064,16 @@
         <v>137</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C141" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="D141" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="D141" s="18" t="s">
-        <v>293</v>
-      </c>
       <c r="E141" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F141" s="4">
@@ -26887,16 +27102,16 @@
         <v>138</v>
       </c>
       <c r="B142" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C142" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D142" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E142" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F142" s="4">
@@ -26925,16 +27140,16 @@
         <v>139</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C143" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="D143" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="D143" s="18" t="s">
-        <v>293</v>
-      </c>
       <c r="E143" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F143" s="4">
@@ -26963,16 +27178,16 @@
         <v>140</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C144" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D144" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E144" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F144" s="4">
@@ -27001,16 +27216,16 @@
         <v>141</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C145" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="D145" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="D145" s="18" t="s">
-        <v>293</v>
-      </c>
       <c r="E145" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F145" s="4">
@@ -27039,16 +27254,16 @@
         <v>142</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C146" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D146" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E146" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F146" s="4">
@@ -27077,16 +27292,16 @@
         <v>143</v>
       </c>
       <c r="B147" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C147" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="D147" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="D147" s="18" t="s">
-        <v>293</v>
-      </c>
       <c r="E147" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F147" s="4">
@@ -27115,16 +27330,16 @@
         <v>144</v>
       </c>
       <c r="B148" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C148" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D148" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E148" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F148" s="4">
@@ -27153,16 +27368,16 @@
         <v>145</v>
       </c>
       <c r="B149" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C149" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="C149" s="18" t="s">
+      <c r="D149" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="D149" s="18" t="s">
-        <v>293</v>
-      </c>
       <c r="E149" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F149" s="4">
@@ -27191,16 +27406,16 @@
         <v>146</v>
       </c>
       <c r="B150" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C150" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D150" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E150" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F150" s="4">
@@ -27229,16 +27444,16 @@
         <v>147</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C151" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D151" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E151" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F151" s="4">
@@ -27267,16 +27482,16 @@
         <v>148</v>
       </c>
       <c r="B152" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C152" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D152" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E152" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F152" s="4">
@@ -27305,16 +27520,16 @@
         <v>149</v>
       </c>
       <c r="B153" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C153" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D153" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E153" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F153" s="4">
@@ -27343,13 +27558,13 @@
         <v>150</v>
       </c>
       <c r="B154" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C154" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D154" s="18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E154" s="12" t="str">
         <f>IF(ISBLANK($B154),"",IF(ISBLANK($G154),"未着手",IF($J154=0,"完了","作業中")))</f>
@@ -27364,7 +27579,7 @@
       </c>
       <c r="I154" s="19"/>
       <c r="J154" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K154)=FALSE,OFFSET(J154,0,COUNTA(K154:M154)),"")</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K154" s="22"/>
@@ -27381,7 +27596,7 @@
         <v>151</v>
       </c>
       <c r="B155" s="93" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C155" s="18"/>
       <c r="D155" s="18"/>
@@ -27390,7 +27605,10 @@
       <c r="G155" s="4"/>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
-      <c r="J155" s="12"/>
+      <c r="J155" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
       <c r="K155" s="22"/>
       <c r="L155" s="22"/>
       <c r="M155" s="22"/>
@@ -27405,16 +27623,16 @@
         <v>152</v>
       </c>
       <c r="B156" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C156" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D156" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E156" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F156" s="4">
@@ -27443,16 +27661,16 @@
         <v>153</v>
       </c>
       <c r="B157" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C157" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D157" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E157" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F157" s="4">
@@ -27481,16 +27699,16 @@
         <v>154</v>
       </c>
       <c r="B158" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C158" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D158" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E158" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F158" s="4">
@@ -27519,16 +27737,16 @@
         <v>155</v>
       </c>
       <c r="B159" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="C159" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="D159" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="C159" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="D159" s="18" t="s">
-        <v>304</v>
-      </c>
       <c r="E159" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F159" s="4">
@@ -27560,7 +27778,7 @@
       <c r="C160" s="18"/>
       <c r="D160" s="18"/>
       <c r="E160" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F160" s="4"/>
@@ -27585,16 +27803,16 @@
         <v>157</v>
       </c>
       <c r="B161" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C161" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D161" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E161" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F161" s="4">
@@ -27623,16 +27841,16 @@
         <v>158</v>
       </c>
       <c r="B162" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="C162" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="C162" s="18" t="s">
-        <v>313</v>
-      </c>
       <c r="D162" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E162" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>未着手</v>
       </c>
       <c r="F162" s="4">
@@ -27660,16 +27878,26 @@
       <c r="A163" s="16">
         <v>159</v>
       </c>
-      <c r="B163" s="17"/>
-      <c r="C163" s="18"/>
-      <c r="D163" s="18"/>
+      <c r="B163" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C163" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="D163" s="18" t="s">
+        <v>315</v>
+      </c>
       <c r="E163" s="12" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F163" s="4"/>
+        <f t="shared" si="12"/>
+        <v>未着手</v>
+      </c>
+      <c r="F163" s="4">
+        <v>43093</v>
+      </c>
       <c r="G163" s="4"/>
-      <c r="H163" s="19"/>
+      <c r="H163" s="19">
+        <v>2</v>
+      </c>
       <c r="I163" s="19"/>
       <c r="J163" s="12" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -27688,19 +27916,29 @@
       <c r="A164" s="16">
         <v>160</v>
       </c>
-      <c r="B164" s="17"/>
-      <c r="C164" s="18"/>
-      <c r="D164" s="18"/>
+      <c r="B164" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C164" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="D164" s="18" t="s">
+        <v>69</v>
+      </c>
       <c r="E164" s="12" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F164" s="4"/>
+        <f t="shared" si="12"/>
+        <v>未着手</v>
+      </c>
+      <c r="F164" s="4">
+        <v>43095</v>
+      </c>
       <c r="G164" s="4"/>
-      <c r="H164" s="19"/>
+      <c r="H164" s="19">
+        <v>6</v>
+      </c>
       <c r="I164" s="19"/>
       <c r="J164" s="12" t="str">
-        <f t="shared" ref="J164:J202" ca="1" si="15">IF(ISBLANK(K164)=FALSE,OFFSET(J164,0,COUNTA(K164:M164)),"")</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K164" s="22"/>
@@ -27716,19 +27954,29 @@
       <c r="A165" s="16">
         <v>161</v>
       </c>
-      <c r="B165" s="17"/>
-      <c r="C165" s="18"/>
-      <c r="D165" s="18"/>
+      <c r="B165" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C165" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="D165" s="18" t="s">
+        <v>319</v>
+      </c>
       <c r="E165" s="12" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F165" s="4"/>
+        <f t="shared" si="12"/>
+        <v>未着手</v>
+      </c>
+      <c r="F165" s="4">
+        <v>43095</v>
+      </c>
       <c r="G165" s="4"/>
-      <c r="H165" s="19"/>
+      <c r="H165" s="19">
+        <v>2</v>
+      </c>
       <c r="I165" s="19"/>
       <c r="J165" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K165" s="22"/>
@@ -27748,7 +27996,7 @@
       <c r="C166" s="18"/>
       <c r="D166" s="18"/>
       <c r="E166" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F166" s="4"/>
@@ -27756,7 +28004,7 @@
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
       <c r="J166" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K166" s="22"/>
@@ -27772,22 +28020,38 @@
       <c r="A167" s="16">
         <v>163</v>
       </c>
-      <c r="B167" s="17"/>
-      <c r="C167" s="18"/>
-      <c r="D167" s="18"/>
+      <c r="B167" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="C167" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="D167" s="18" t="s">
+        <v>69</v>
+      </c>
       <c r="E167" s="12" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F167" s="4"/>
-      <c r="G167" s="4"/>
-      <c r="H167" s="19"/>
-      <c r="I167" s="19"/>
-      <c r="J167" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="K167" s="22"/>
+        <f t="shared" ca="1" si="12"/>
+        <v>完了</v>
+      </c>
+      <c r="F167" s="4">
+        <v>43092</v>
+      </c>
+      <c r="G167" s="4">
+        <v>43091</v>
+      </c>
+      <c r="H167" s="19">
+        <v>3</v>
+      </c>
+      <c r="I167" s="19">
+        <v>3</v>
+      </c>
+      <c r="J167" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K167" s="22">
+        <v>0</v>
+      </c>
       <c r="L167" s="22"/>
       <c r="M167" s="22"/>
       <c r="N167" s="22"/>
@@ -27800,19 +28064,29 @@
       <c r="A168" s="16">
         <v>164</v>
       </c>
-      <c r="B168" s="17"/>
-      <c r="C168" s="18"/>
-      <c r="D168" s="18"/>
+      <c r="B168" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="C168" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="D168" s="18" t="s">
+        <v>323</v>
+      </c>
       <c r="E168" s="12" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F168" s="4"/>
+        <f t="shared" si="12"/>
+        <v>未着手</v>
+      </c>
+      <c r="F168" s="4">
+        <v>43092</v>
+      </c>
       <c r="G168" s="4"/>
-      <c r="H168" s="19"/>
+      <c r="H168" s="19">
+        <v>1</v>
+      </c>
       <c r="I168" s="19"/>
       <c r="J168" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K168" s="22"/>
@@ -27832,7 +28106,7 @@
       <c r="C169" s="18"/>
       <c r="D169" s="18"/>
       <c r="E169" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F169" s="4"/>
@@ -27840,7 +28114,7 @@
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
       <c r="J169" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K169" s="22"/>
@@ -27860,7 +28134,7 @@
       <c r="C170" s="18"/>
       <c r="D170" s="18"/>
       <c r="E170" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F170" s="4"/>
@@ -27868,7 +28142,7 @@
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
       <c r="J170" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K170" s="22"/>
@@ -27888,7 +28162,7 @@
       <c r="C171" s="18"/>
       <c r="D171" s="18"/>
       <c r="E171" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F171" s="4"/>
@@ -27896,7 +28170,7 @@
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
       <c r="J171" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K171" s="22"/>
@@ -27916,7 +28190,7 @@
       <c r="C172" s="18"/>
       <c r="D172" s="18"/>
       <c r="E172" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F172" s="4"/>
@@ -27924,7 +28198,7 @@
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
       <c r="J172" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K172" s="22"/>
@@ -27944,7 +28218,7 @@
       <c r="C173" s="18"/>
       <c r="D173" s="18"/>
       <c r="E173" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F173" s="4"/>
@@ -27952,7 +28226,7 @@
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
       <c r="J173" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K173" s="22"/>
@@ -27972,7 +28246,7 @@
       <c r="C174" s="18"/>
       <c r="D174" s="18"/>
       <c r="E174" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F174" s="4"/>
@@ -27980,7 +28254,7 @@
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
       <c r="J174" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K174" s="22"/>
@@ -28000,7 +28274,7 @@
       <c r="C175" s="18"/>
       <c r="D175" s="18"/>
       <c r="E175" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F175" s="4"/>
@@ -28008,7 +28282,7 @@
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
       <c r="J175" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K175" s="22"/>
@@ -28028,7 +28302,7 @@
       <c r="C176" s="18"/>
       <c r="D176" s="18"/>
       <c r="E176" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F176" s="4"/>
@@ -28036,7 +28310,7 @@
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
       <c r="J176" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K176" s="22"/>
@@ -28056,7 +28330,7 @@
       <c r="C177" s="18"/>
       <c r="D177" s="18"/>
       <c r="E177" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F177" s="4"/>
@@ -28064,7 +28338,7 @@
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
       <c r="J177" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K177" s="22"/>
@@ -28084,7 +28358,7 @@
       <c r="C178" s="18"/>
       <c r="D178" s="18"/>
       <c r="E178" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F178" s="4"/>
@@ -28092,7 +28366,7 @@
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
       <c r="J178" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K178" s="22"/>
@@ -28112,7 +28386,7 @@
       <c r="C179" s="18"/>
       <c r="D179" s="18"/>
       <c r="E179" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F179" s="4"/>
@@ -28120,7 +28394,7 @@
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
       <c r="J179" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K179" s="22"/>
@@ -28140,7 +28414,7 @@
       <c r="C180" s="18"/>
       <c r="D180" s="18"/>
       <c r="E180" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F180" s="4"/>
@@ -28148,7 +28422,7 @@
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
       <c r="J180" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K180" s="22"/>
@@ -28168,7 +28442,7 @@
       <c r="C181" s="18"/>
       <c r="D181" s="18"/>
       <c r="E181" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F181" s="4"/>
@@ -28176,7 +28450,7 @@
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
       <c r="J181" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K181" s="22"/>
@@ -28196,7 +28470,7 @@
       <c r="C182" s="18"/>
       <c r="D182" s="18"/>
       <c r="E182" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F182" s="4"/>
@@ -28204,7 +28478,7 @@
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
       <c r="J182" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K182" s="22"/>
@@ -28224,7 +28498,7 @@
       <c r="C183" s="18"/>
       <c r="D183" s="18"/>
       <c r="E183" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F183" s="4"/>
@@ -28232,7 +28506,7 @@
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
       <c r="J183" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K183" s="22"/>
@@ -28252,7 +28526,7 @@
       <c r="C184" s="18"/>
       <c r="D184" s="18"/>
       <c r="E184" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F184" s="4"/>
@@ -28260,7 +28534,7 @@
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
       <c r="J184" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K184" s="22"/>
@@ -28280,7 +28554,7 @@
       <c r="C185" s="18"/>
       <c r="D185" s="18"/>
       <c r="E185" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F185" s="4"/>
@@ -28288,7 +28562,7 @@
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
       <c r="J185" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K185" s="22"/>
@@ -28308,7 +28582,7 @@
       <c r="C186" s="18"/>
       <c r="D186" s="18"/>
       <c r="E186" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F186" s="4"/>
@@ -28316,7 +28590,7 @@
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
       <c r="J186" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K186" s="22"/>
@@ -28336,7 +28610,7 @@
       <c r="C187" s="18"/>
       <c r="D187" s="18"/>
       <c r="E187" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F187" s="4"/>
@@ -28344,7 +28618,7 @@
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
       <c r="J187" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K187" s="22"/>
@@ -28364,7 +28638,7 @@
       <c r="C188" s="18"/>
       <c r="D188" s="18"/>
       <c r="E188" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F188" s="4"/>
@@ -28372,7 +28646,7 @@
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
       <c r="J188" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K188" s="22"/>
@@ -28392,7 +28666,7 @@
       <c r="C189" s="18"/>
       <c r="D189" s="18"/>
       <c r="E189" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F189" s="4"/>
@@ -28400,7 +28674,7 @@
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
       <c r="J189" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K189" s="22"/>
@@ -28420,7 +28694,7 @@
       <c r="C190" s="18"/>
       <c r="D190" s="18"/>
       <c r="E190" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F190" s="4"/>
@@ -28428,7 +28702,7 @@
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
       <c r="J190" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K190" s="22"/>
@@ -28448,7 +28722,7 @@
       <c r="C191" s="18"/>
       <c r="D191" s="18"/>
       <c r="E191" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F191" s="4"/>
@@ -28456,7 +28730,7 @@
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
       <c r="J191" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K191" s="22"/>
@@ -28476,7 +28750,7 @@
       <c r="C192" s="18"/>
       <c r="D192" s="18"/>
       <c r="E192" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F192" s="4"/>
@@ -28484,7 +28758,7 @@
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
       <c r="J192" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K192" s="22"/>
@@ -28504,7 +28778,7 @@
       <c r="C193" s="18"/>
       <c r="D193" s="18"/>
       <c r="E193" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F193" s="4"/>
@@ -28512,7 +28786,7 @@
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
       <c r="J193" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K193" s="22"/>
@@ -28532,7 +28806,7 @@
       <c r="C194" s="18"/>
       <c r="D194" s="18"/>
       <c r="E194" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F194" s="4"/>
@@ -28540,7 +28814,7 @@
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
       <c r="J194" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K194" s="22"/>
@@ -28560,7 +28834,7 @@
       <c r="C195" s="18"/>
       <c r="D195" s="18"/>
       <c r="E195" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F195" s="4"/>
@@ -28568,7 +28842,7 @@
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
       <c r="J195" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K195" s="22"/>
@@ -28588,7 +28862,7 @@
       <c r="C196" s="18"/>
       <c r="D196" s="18"/>
       <c r="E196" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F196" s="4"/>
@@ -28596,7 +28870,7 @@
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
       <c r="J196" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K196" s="22"/>
@@ -28616,7 +28890,7 @@
       <c r="C197" s="18"/>
       <c r="D197" s="18"/>
       <c r="E197" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F197" s="4"/>
@@ -28624,7 +28898,7 @@
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
       <c r="J197" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K197" s="22"/>
@@ -28644,7 +28918,7 @@
       <c r="C198" s="18"/>
       <c r="D198" s="18"/>
       <c r="E198" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F198" s="4"/>
@@ -28652,7 +28926,7 @@
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
       <c r="J198" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K198" s="22"/>
@@ -28672,7 +28946,7 @@
       <c r="C199" s="18"/>
       <c r="D199" s="18"/>
       <c r="E199" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F199" s="4"/>
@@ -28680,7 +28954,7 @@
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
       <c r="J199" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K199" s="22"/>
@@ -28700,7 +28974,7 @@
       <c r="C200" s="18"/>
       <c r="D200" s="18"/>
       <c r="E200" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F200" s="4"/>
@@ -28708,7 +28982,7 @@
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
       <c r="J200" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K200" s="22"/>
@@ -28728,7 +29002,7 @@
       <c r="C201" s="18"/>
       <c r="D201" s="18"/>
       <c r="E201" s="12" t="str">
-        <f t="shared" ref="E201:E202" si="16">IF(ISBLANK($B201),"",IF(ISBLANK($G201),"未着手",IF($J201=0,"完了","作業中")))</f>
+        <f t="shared" ref="E201:E202" si="14">IF(ISBLANK($B201),"",IF(ISBLANK($G201),"未着手",IF($J201=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F201" s="4"/>
@@ -28736,7 +29010,7 @@
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
       <c r="J201" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ref="J201:J202" ca="1" si="15">IF(ISBLANK(K201)=FALSE,OFFSET(J201,0,COUNTA(K201:R201)),"")</f>
         <v/>
       </c>
       <c r="K201" s="22"/>
@@ -28756,7 +29030,7 @@
       <c r="C202" s="18"/>
       <c r="D202" s="18"/>
       <c r="E202" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="F202" s="4"/>
@@ -28793,597 +29067,586 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D203:D65439">
-    <cfRule type="expression" dxfId="419" priority="325" stopIfTrue="1">
+    <cfRule type="expression" dxfId="416" priority="325" stopIfTrue="1">
       <formula>D203="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="326" stopIfTrue="1">
+    <cfRule type="expression" dxfId="415" priority="326" stopIfTrue="1">
       <formula>D203="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="417" priority="327" stopIfTrue="1">
+    <cfRule type="expression" dxfId="414" priority="327" stopIfTrue="1">
       <formula>OR(D203="終了",D203="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP5:XFD5">
-    <cfRule type="expression" dxfId="416" priority="328" stopIfTrue="1">
+    <cfRule type="expression" dxfId="413" priority="328" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="415" priority="329" stopIfTrue="1">
+    <cfRule type="expression" dxfId="412" priority="329" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="330" stopIfTrue="1">
+    <cfRule type="expression" dxfId="411" priority="330" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B203:B65439">
-    <cfRule type="expression" dxfId="413" priority="331" stopIfTrue="1">
+    <cfRule type="expression" dxfId="410" priority="331" stopIfTrue="1">
       <formula>D203="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="332" stopIfTrue="1">
+    <cfRule type="expression" dxfId="409" priority="332" stopIfTrue="1">
       <formula>D203="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="333" stopIfTrue="1">
+    <cfRule type="expression" dxfId="408" priority="333" stopIfTrue="1">
       <formula>OR(D203="終了",D203="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C203:C65439">
-    <cfRule type="expression" dxfId="410" priority="334" stopIfTrue="1">
+    <cfRule type="expression" dxfId="407" priority="334" stopIfTrue="1">
       <formula>D203="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="409" priority="335" stopIfTrue="1">
+    <cfRule type="expression" dxfId="406" priority="335" stopIfTrue="1">
       <formula>D203="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="336" stopIfTrue="1">
+    <cfRule type="expression" dxfId="405" priority="336" stopIfTrue="1">
       <formula>OR(D203="終了",D203="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E203:H65439">
-    <cfRule type="expression" dxfId="407" priority="337" stopIfTrue="1">
+    <cfRule type="expression" dxfId="404" priority="337" stopIfTrue="1">
       <formula>$D203="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="338" stopIfTrue="1">
+    <cfRule type="expression" dxfId="403" priority="338" stopIfTrue="1">
       <formula>$D203="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="339" stopIfTrue="1">
+    <cfRule type="expression" dxfId="402" priority="339" stopIfTrue="1">
       <formula>OR($D203="終了",$D203="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:IO5 A6:R6 B8:J8 G9:J12 B27:J27 K27:R30 G28:J30 I13:J13 I15:I16 J14:J16 B16:H16 G13:H15 K8:R24 B25:R26 B59:R61 B37:E37 H37 G31:R36 B38:M40 N37:R40 B122:B126 B9:F15 B17:J24 B28:F36 B41:H58 B63:R121 D122:R126 B127:R153 A7:A153 A154:R202">
-    <cfRule type="expression" dxfId="404" priority="205" stopIfTrue="1">
+  <conditionalFormatting sqref="A5:IO5 A6:R6 B8:J8 G9:I12 I13 I15:I16 B16:H16 G13:H15 B59:I61 B37:E37 H37 B17:I36 B38:I40 N37:R40 B122:B126 B9:F15 B41:H58 B63:I121 D122:I126 B127:I153 A7:A153 A154:I202 K63:R202 K38:M40 K59:R61 K8:R36 J9:J202">
+    <cfRule type="expression" dxfId="401" priority="205" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="400" priority="206" stopIfTrue="1">
       <formula>$E5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="207" stopIfTrue="1">
+    <cfRule type="expression" dxfId="399" priority="207" stopIfTrue="1">
       <formula>OR($E5="終了",$E5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14 C123">
-    <cfRule type="expression" dxfId="401" priority="208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="398" priority="208" stopIfTrue="1">
       <formula>$E13="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="397" priority="209" stopIfTrue="1">
       <formula>$E13="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="399" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="396" priority="210" stopIfTrue="1">
       <formula>OR($E13="終了",$E13="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:IO6">
-    <cfRule type="expression" dxfId="398" priority="211" stopIfTrue="1">
+    <cfRule type="expression" dxfId="395" priority="211" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="394" priority="212" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="393" priority="213" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9:IO10">
-    <cfRule type="expression" dxfId="395" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="392" priority="217" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="391" priority="218" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="219" stopIfTrue="1">
+    <cfRule type="expression" dxfId="390" priority="219" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12:IO16">
-    <cfRule type="expression" dxfId="392" priority="223" stopIfTrue="1">
+    <cfRule type="expression" dxfId="389" priority="223" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="391" priority="224" stopIfTrue="1">
+    <cfRule type="expression" dxfId="388" priority="224" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="225" stopIfTrue="1">
+    <cfRule type="expression" dxfId="387" priority="225" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB20:IO20">
-    <cfRule type="expression" dxfId="389" priority="235" stopIfTrue="1">
+    <cfRule type="expression" dxfId="386" priority="235" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="236" stopIfTrue="1">
+    <cfRule type="expression" dxfId="385" priority="236" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="384" priority="237" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB23:IO23 S24:IO24">
-    <cfRule type="expression" dxfId="386" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="383" priority="238" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="239" stopIfTrue="1">
+    <cfRule type="expression" dxfId="382" priority="239" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="381" priority="240" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB21:IO22">
-    <cfRule type="expression" dxfId="383" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="380" priority="241" stopIfTrue="1">
       <formula>$E15="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="379" priority="242" stopIfTrue="1">
       <formula>$E15="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="243" stopIfTrue="1">
+    <cfRule type="expression" dxfId="378" priority="243" stopIfTrue="1">
       <formula>OR($E15="終了",$E15="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26:IO26">
-    <cfRule type="expression" dxfId="380" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="377" priority="250" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="251" stopIfTrue="1">
+    <cfRule type="expression" dxfId="376" priority="251" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="252" stopIfTrue="1">
+    <cfRule type="expression" dxfId="375" priority="252" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S44 AD44:IO45">
-    <cfRule type="expression" dxfId="377" priority="256" stopIfTrue="1">
+    <cfRule type="expression" dxfId="374" priority="256" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="257" stopIfTrue="1">
+    <cfRule type="expression" dxfId="373" priority="257" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="258" stopIfTrue="1">
+    <cfRule type="expression" dxfId="372" priority="258" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S29:S30 Z28:IO30">
-    <cfRule type="expression" dxfId="374" priority="259" stopIfTrue="1">
+    <cfRule type="expression" dxfId="371" priority="259" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="260" stopIfTrue="1">
+    <cfRule type="expression" dxfId="370" priority="260" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="369" priority="261" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z32:IO33 V30:Y31">
-    <cfRule type="expression" dxfId="371" priority="262" stopIfTrue="1">
+    <cfRule type="expression" dxfId="368" priority="262" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="263" stopIfTrue="1">
+    <cfRule type="expression" dxfId="367" priority="263" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="264" stopIfTrue="1">
+    <cfRule type="expression" dxfId="366" priority="264" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z31:IO31 V29:Y29">
-    <cfRule type="expression" dxfId="368" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="365" priority="265" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="367" priority="266" stopIfTrue="1">
+    <cfRule type="expression" dxfId="364" priority="266" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="267" stopIfTrue="1">
+    <cfRule type="expression" dxfId="363" priority="267" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S42:S43 Z42:IO43">
-    <cfRule type="expression" dxfId="365" priority="283" stopIfTrue="1">
+    <cfRule type="expression" dxfId="362" priority="283" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="284" stopIfTrue="1">
+    <cfRule type="expression" dxfId="361" priority="284" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="285" stopIfTrue="1">
+    <cfRule type="expression" dxfId="360" priority="285" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD49:IO49 T47:U47">
-    <cfRule type="expression" dxfId="362" priority="289" stopIfTrue="1">
+    <cfRule type="expression" dxfId="359" priority="289" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="290" stopIfTrue="1">
+    <cfRule type="expression" dxfId="358" priority="290" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="291" stopIfTrue="1">
+    <cfRule type="expression" dxfId="357" priority="291" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:M58">
-    <cfRule type="expression" dxfId="359" priority="292" stopIfTrue="1">
+  <conditionalFormatting sqref="I58 K58:M58">
+    <cfRule type="expression" dxfId="356" priority="292" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="293" stopIfTrue="1">
+    <cfRule type="expression" dxfId="355" priority="293" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="294" stopIfTrue="1">
+    <cfRule type="expression" dxfId="354" priority="294" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD51:IO51 T49:U49">
-    <cfRule type="expression" dxfId="356" priority="295" stopIfTrue="1">
+    <cfRule type="expression" dxfId="353" priority="295" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="296" stopIfTrue="1">
+    <cfRule type="expression" dxfId="352" priority="296" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="297" stopIfTrue="1">
+    <cfRule type="expression" dxfId="351" priority="297" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD47:IO47 Z53:IO53 S53">
-    <cfRule type="expression" dxfId="353" priority="298" stopIfTrue="1">
+    <cfRule type="expression" dxfId="350" priority="298" stopIfTrue="1">
       <formula>$E24="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="299" stopIfTrue="1">
+    <cfRule type="expression" dxfId="349" priority="299" stopIfTrue="1">
       <formula>$E24="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="351" priority="300" stopIfTrue="1">
+    <cfRule type="expression" dxfId="348" priority="300" stopIfTrue="1">
       <formula>OR($E24="終了",$E24="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S57 Z57:IO57 T55:Y55">
-    <cfRule type="expression" dxfId="350" priority="310" stopIfTrue="1">
+    <cfRule type="expression" dxfId="347" priority="310" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="311" stopIfTrue="1">
+    <cfRule type="expression" dxfId="346" priority="311" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="312" stopIfTrue="1">
+    <cfRule type="expression" dxfId="345" priority="312" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S54:S56 Z54:IO56 T52:Y54">
-    <cfRule type="expression" dxfId="347" priority="313" stopIfTrue="1">
+    <cfRule type="expression" dxfId="344" priority="313" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="314" stopIfTrue="1">
+    <cfRule type="expression" dxfId="343" priority="314" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="315" stopIfTrue="1">
+    <cfRule type="expression" dxfId="342" priority="315" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S58:S60 Z58:IO60 T56:Y58">
-    <cfRule type="expression" dxfId="344" priority="316" stopIfTrue="1">
+    <cfRule type="expression" dxfId="341" priority="316" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="317" stopIfTrue="1">
+    <cfRule type="expression" dxfId="340" priority="317" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="318" stopIfTrue="1">
+    <cfRule type="expression" dxfId="339" priority="318" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S61 Z61:IO61 T59:Y59">
-    <cfRule type="expression" dxfId="341" priority="322" stopIfTrue="1">
+    <cfRule type="expression" dxfId="338" priority="322" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="323" stopIfTrue="1">
+    <cfRule type="expression" dxfId="337" priority="323" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="324" stopIfTrue="1">
+    <cfRule type="expression" dxfId="336" priority="324" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17:IO17">
-    <cfRule type="expression" dxfId="338" priority="646" stopIfTrue="1">
+    <cfRule type="expression" dxfId="335" priority="646" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="647" stopIfTrue="1">
+    <cfRule type="expression" dxfId="334" priority="647" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="648" stopIfTrue="1">
+    <cfRule type="expression" dxfId="333" priority="648" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:IO19">
-    <cfRule type="expression" dxfId="335" priority="679" stopIfTrue="1">
+    <cfRule type="expression" dxfId="332" priority="679" stopIfTrue="1">
       <formula>$E13="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="680" stopIfTrue="1">
+    <cfRule type="expression" dxfId="331" priority="680" stopIfTrue="1">
       <formula>$E13="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="681" stopIfTrue="1">
+    <cfRule type="expression" dxfId="330" priority="681" stopIfTrue="1">
       <formula>OR($E13="終了",$E13="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z27:IO27">
-    <cfRule type="expression" dxfId="332" priority="718" stopIfTrue="1">
+    <cfRule type="expression" dxfId="329" priority="718" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="719" stopIfTrue="1">
+    <cfRule type="expression" dxfId="328" priority="719" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="720" stopIfTrue="1">
+    <cfRule type="expression" dxfId="327" priority="720" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S41 Z41:IO41 S35:S39 Z35:IO39">
-    <cfRule type="expression" dxfId="329" priority="814" stopIfTrue="1">
+    <cfRule type="expression" dxfId="326" priority="814" stopIfTrue="1">
       <formula>$E17="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="815" stopIfTrue="1">
+    <cfRule type="expression" dxfId="325" priority="815" stopIfTrue="1">
       <formula>$E17="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="816" stopIfTrue="1">
+    <cfRule type="expression" dxfId="324" priority="816" stopIfTrue="1">
       <formula>OR($E17="終了",$E17="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S40 Z40:IO40">
-    <cfRule type="expression" dxfId="326" priority="871" stopIfTrue="1">
+    <cfRule type="expression" dxfId="323" priority="871" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="872" stopIfTrue="1">
+    <cfRule type="expression" dxfId="322" priority="872" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="873" stopIfTrue="1">
+    <cfRule type="expression" dxfId="321" priority="873" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP21:XFD22 IP24:XFD25 IP28:XFD29">
-    <cfRule type="expression" dxfId="323" priority="922" stopIfTrue="1">
+    <cfRule type="expression" dxfId="320" priority="922" stopIfTrue="1">
       <formula>$D17="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="923" stopIfTrue="1">
+    <cfRule type="expression" dxfId="319" priority="923" stopIfTrue="1">
       <formula>$D17="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="924" stopIfTrue="1">
+    <cfRule type="expression" dxfId="318" priority="924" stopIfTrue="1">
       <formula>OR($D17="終了",$D17="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP57:XFD57">
-    <cfRule type="expression" dxfId="320" priority="952" stopIfTrue="1">
+    <cfRule type="expression" dxfId="317" priority="952" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="319" priority="953" stopIfTrue="1">
+    <cfRule type="expression" dxfId="316" priority="953" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="954" stopIfTrue="1">
+    <cfRule type="expression" dxfId="315" priority="954" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I203:M65439">
-    <cfRule type="expression" dxfId="317" priority="955" stopIfTrue="1">
+    <cfRule type="expression" dxfId="314" priority="955" stopIfTrue="1">
       <formula>$D203="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="956" stopIfTrue="1">
+    <cfRule type="expression" dxfId="313" priority="956" stopIfTrue="1">
       <formula>$D203="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="957" stopIfTrue="1">
+    <cfRule type="expression" dxfId="312" priority="957" stopIfTrue="1">
       <formula>OR($D203="終了",$D203="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41:R56">
-    <cfRule type="expression" dxfId="314" priority="961" stopIfTrue="1">
+  <conditionalFormatting sqref="I41:I56 K41:R56">
+    <cfRule type="expression" dxfId="311" priority="961" stopIfTrue="1">
       <formula>$E43="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="962" stopIfTrue="1">
+    <cfRule type="expression" dxfId="310" priority="962" stopIfTrue="1">
       <formula>$E43="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="963" stopIfTrue="1">
+    <cfRule type="expression" dxfId="309" priority="963" stopIfTrue="1">
       <formula>OR($E43="終了",$E43="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD48:IO48 T48:U48">
-    <cfRule type="expression" dxfId="311" priority="1048" stopIfTrue="1">
+    <cfRule type="expression" dxfId="308" priority="1048" stopIfTrue="1">
       <formula>$E24="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="1049" stopIfTrue="1">
+    <cfRule type="expression" dxfId="307" priority="1049" stopIfTrue="1">
       <formula>$E24="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="1050" stopIfTrue="1">
+    <cfRule type="expression" dxfId="306" priority="1050" stopIfTrue="1">
       <formula>OR($E24="終了",$E24="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP36:XFD36">
-    <cfRule type="expression" dxfId="308" priority="1063" stopIfTrue="1">
+    <cfRule type="expression" dxfId="305" priority="1063" stopIfTrue="1">
       <formula>$D38="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="1064" stopIfTrue="1">
+    <cfRule type="expression" dxfId="304" priority="1064" stopIfTrue="1">
       <formula>$D38="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="1065" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="1065" stopIfTrue="1">
       <formula>OR($D38="終了",$D38="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S25:IO25">
-    <cfRule type="expression" dxfId="305" priority="1177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="302" priority="1177" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="1178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="301" priority="1178" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="1179" stopIfTrue="1">
+    <cfRule type="expression" dxfId="300" priority="1179" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD50:IO50">
-    <cfRule type="expression" dxfId="302" priority="1180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="1180" stopIfTrue="1">
       <formula>$E24="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="1181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="298" priority="1181" stopIfTrue="1">
       <formula>$E24="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="1182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="297" priority="1182" stopIfTrue="1">
       <formula>OR($E24="終了",$E24="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP6:XFD10">
-    <cfRule type="expression" dxfId="299" priority="1204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="296" priority="1204" stopIfTrue="1">
       <formula>$D8="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="1205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="1205" stopIfTrue="1">
       <formula>$D8="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="1206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="294" priority="1206" stopIfTrue="1">
       <formula>OR($D8="終了",$D8="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP15:XFD17 IP11:XFD11">
-    <cfRule type="expression" dxfId="296" priority="1207" stopIfTrue="1">
+    <cfRule type="expression" dxfId="293" priority="1207" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="1208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="292" priority="1208" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="1209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="291" priority="1209" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP12:XFD14">
-    <cfRule type="expression" dxfId="293" priority="1984" stopIfTrue="1">
+    <cfRule type="expression" dxfId="290" priority="1984" stopIfTrue="1">
       <formula>$D13="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="1985" stopIfTrue="1">
+    <cfRule type="expression" dxfId="289" priority="1985" stopIfTrue="1">
       <formula>$D13="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="1986" stopIfTrue="1">
+    <cfRule type="expression" dxfId="288" priority="1986" stopIfTrue="1">
       <formula>OR($D13="終了",$D13="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:IO8 C7:R7 S11:IO11">
-    <cfRule type="expression" dxfId="290" priority="1987" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="1987" stopIfTrue="1">
       <formula>$E8="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="1988" stopIfTrue="1">
+    <cfRule type="expression" dxfId="286" priority="1988" stopIfTrue="1">
       <formula>$E8="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="1989" stopIfTrue="1">
+    <cfRule type="expression" dxfId="285" priority="1989" stopIfTrue="1">
       <formula>OR($E8="終了",$E8="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP23:XFD23 IP48:XFD56">
-    <cfRule type="expression" dxfId="287" priority="2011" stopIfTrue="1">
+    <cfRule type="expression" dxfId="284" priority="2011" stopIfTrue="1">
       <formula>$D18="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="2012" stopIfTrue="1">
+    <cfRule type="expression" dxfId="283" priority="2012" stopIfTrue="1">
       <formula>$D18="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="2013" stopIfTrue="1">
+    <cfRule type="expression" dxfId="282" priority="2013" stopIfTrue="1">
       <formula>OR($D18="終了",$D18="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD46:IO46">
-    <cfRule type="expression" dxfId="284" priority="2047" stopIfTrue="1">
+    <cfRule type="expression" dxfId="281" priority="2047" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="2048" stopIfTrue="1">
+    <cfRule type="expression" dxfId="280" priority="2048" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="2049" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="2049" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP26:XFD26 IP35:XFD35">
-    <cfRule type="expression" dxfId="281" priority="2065" stopIfTrue="1">
+    <cfRule type="expression" dxfId="278" priority="2065" stopIfTrue="1">
       <formula>$D23="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="2066" stopIfTrue="1">
+    <cfRule type="expression" dxfId="277" priority="2066" stopIfTrue="1">
       <formula>$D23="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="2067" stopIfTrue="1">
+    <cfRule type="expression" dxfId="276" priority="2067" stopIfTrue="1">
       <formula>OR($D23="終了",$D23="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP27:XFD27">
-    <cfRule type="expression" dxfId="278" priority="2071" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="2071" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="2072" stopIfTrue="1">
+    <cfRule type="expression" dxfId="274" priority="2072" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="2073" stopIfTrue="1">
+    <cfRule type="expression" dxfId="273" priority="2073" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="275" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="272" priority="52" stopIfTrue="1">
       <formula>$E7="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="53" stopIfTrue="1">
       <formula>$E7="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="270" priority="54" stopIfTrue="1">
       <formula>OR($E7="終了",$E7="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP31:XFD31">
-    <cfRule type="expression" dxfId="272" priority="2170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="269" priority="2170" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="2171" stopIfTrue="1">
+    <cfRule type="expression" dxfId="268" priority="2171" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="2172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="2172" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP38:XFD39">
-    <cfRule type="expression" dxfId="269" priority="2278" stopIfTrue="1">
+    <cfRule type="expression" dxfId="266" priority="2278" stopIfTrue="1">
       <formula>$D33="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="2279" stopIfTrue="1">
+    <cfRule type="expression" dxfId="265" priority="2279" stopIfTrue="1">
       <formula>$D33="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="2280" stopIfTrue="1">
+    <cfRule type="expression" dxfId="264" priority="2280" stopIfTrue="1">
       <formula>OR($D33="終了",$D33="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP42:XFD42">
-    <cfRule type="expression" dxfId="266" priority="2296" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="2296" stopIfTrue="1">
       <formula>$D26="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="2297" stopIfTrue="1">
+    <cfRule type="expression" dxfId="262" priority="2297" stopIfTrue="1">
       <formula>$D26="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="2298" stopIfTrue="1">
+    <cfRule type="expression" dxfId="261" priority="2298" stopIfTrue="1">
       <formula>OR($D26="終了",$D26="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP41:XFD41">
-    <cfRule type="expression" dxfId="263" priority="2320" stopIfTrue="1">
+    <cfRule type="expression" dxfId="260" priority="2320" stopIfTrue="1">
       <formula>$D35="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="2321" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="2321" stopIfTrue="1">
       <formula>$D35="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="2322" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="2322" stopIfTrue="1">
       <formula>OR($D35="終了",$D35="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J57">
-    <cfRule type="expression" dxfId="260" priority="2587" stopIfTrue="1">
-      <formula>#REF!="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="259" priority="2588" stopIfTrue="1">
-      <formula>#REF!="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="258" priority="2589" stopIfTrue="1">
-      <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP32:XFD33">
@@ -29656,7 +29919,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I62:R62</xm:sqref>
+          <xm:sqref>I62 K62:R62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="2884" stopIfTrue="1" id="{B1778B91-E5A7-4A5B-B2B5-B33593DAF6A5}">
@@ -29693,7 +29956,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="16" stopIfTrue="1" id="{4C8022AC-DAFC-4A4E-9361-A9312F55886F}">
-            <xm:f>'スプリントバックログ(第2)'!$E38="未着手"</xm:f>
+            <xm:f>'スプリントバックログ(第2)'!$E36="未着手"</xm:f>
             <x14:dxf>
               <font>
                 <condense val="0"/>
@@ -29703,7 +29966,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="17" stopIfTrue="1" id="{3E556087-F85D-4F0D-87C4-EF1194E7007A}">
-            <xm:f>'スプリントバックログ(第2)'!$E38="作業中"</xm:f>
+            <xm:f>'スプリントバックログ(第2)'!$E36="作業中"</xm:f>
             <x14:dxf>
               <font>
                 <condense val="0"/>
@@ -29713,7 +29976,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="18" stopIfTrue="1" id="{09F6AD02-F2DD-479F-B799-695A5EFD8B84}">
-            <xm:f>OR('スプリントバックログ(第2)'!$E38="終了",'スプリントバックログ(第2)'!$E38="完了")</xm:f>
+            <xm:f>OR('スプリントバックログ(第2)'!$E36="終了",'スプリントバックログ(第2)'!$E36="完了")</xm:f>
             <x14:dxf>
               <font>
                 <condense val="0"/>
@@ -29722,7 +29985,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G37 I37:M37</xm:sqref>
+          <xm:sqref>G37 I37 K37:M37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="4051" stopIfTrue="1" id="{B1778B91-E5A7-4A5B-B2B5-B33593DAF6A5}">
@@ -29808,7 +30071,7 @@
       <c r="C1" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="110" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="102" t="s">
@@ -29848,7 +30111,7 @@
       <c r="A2" s="102"/>
       <c r="B2" s="103"/>
       <c r="C2" s="103"/>
-      <c r="D2" s="109"/>
+      <c r="D2" s="111"/>
       <c r="E2" s="102"/>
       <c r="F2" s="105"/>
       <c r="G2" s="105"/>
@@ -29856,32 +30119,32 @@
       <c r="I2" s="107"/>
       <c r="J2" s="102"/>
       <c r="K2" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="L2" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="L2" s="75" t="s">
+      <c r="M2" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="M2" s="75" t="s">
+      <c r="N2" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="N2" s="75" t="s">
+      <c r="O2" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="O2" s="75" t="s">
+      <c r="P2" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="Q2" s="23" t="s">
         <v>146</v>
-      </c>
-      <c r="Q2" s="23" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="8" customFormat="1">
       <c r="A3" s="102"/>
       <c r="B3" s="103"/>
       <c r="C3" s="103"/>
-      <c r="D3" s="109"/>
+      <c r="D3" s="111"/>
       <c r="E3" s="102"/>
       <c r="F3" s="105"/>
       <c r="G3" s="105"/>
@@ -29921,7 +30184,7 @@
       <c r="A4" s="102"/>
       <c r="B4" s="103"/>
       <c r="C4" s="104"/>
-      <c r="D4" s="110"/>
+      <c r="D4" s="112"/>
       <c r="E4" s="102"/>
       <c r="F4" s="105"/>
       <c r="G4" s="105"/>
@@ -29962,7 +30225,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C5" s="51"/>
       <c r="D5" s="51"/>
@@ -29988,7 +30251,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
@@ -30030,7 +30293,7 @@
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K7)=FALSE,OFFSET(J7,0,COUNTA(K7:M7)),"")</f>
+        <f ca="1">IF(ISBLANK(K7)=FALSE,OFFSET(J7,0,COUNTA(K7:Q7)),"")</f>
         <v/>
       </c>
       <c r="K7" s="22"/>
@@ -30052,7 +30315,7 @@
         <v>65</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E8" s="12" t="str">
         <f t="shared" si="2"/>
@@ -30065,7 +30328,7 @@
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K8)=FALSE,OFFSET(J8,0,COUNTA(K8:M8)),"")</f>
+        <f t="shared" ref="J8:J47" ca="1" si="3">IF(ISBLANK(K8)=FALSE,OFFSET(J8,0,COUNTA(K8:Q8)),"")</f>
         <v/>
       </c>
       <c r="K8" s="22"/>
@@ -30087,7 +30350,7 @@
         <v>65</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E9" s="12" t="str">
         <f t="shared" si="2"/>
@@ -30100,7 +30363,7 @@
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="12" t="str">
-        <f t="shared" ref="J9:J12" ca="1" si="3">IF(ISBLANK(K9)=FALSE,OFFSET(J9,0,COUNTA(K9:M9)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K9" s="22"/>
@@ -30122,7 +30385,7 @@
         <v>65</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E10" s="12" t="str">
         <f t="shared" si="2"/>
@@ -30157,7 +30420,7 @@
         <v>47</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" s="12" t="str">
         <f t="shared" si="2"/>
@@ -30192,7 +30455,7 @@
         <v>65</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E12" s="12" t="str">
         <f t="shared" si="2"/>
@@ -30224,10 +30487,10 @@
         <v>82</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13" s="12" t="str">
         <f>IF(ISBLANK($B13),"",IF(ISBLANK($G13),"未着手",IF($J13=0,"完了","作業中")))</f>
@@ -30240,7 +30503,7 @@
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K13)=FALSE,OFFSET(J13,0,COUNTA(K13:M13)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K13" s="22"/>
@@ -30257,7 +30520,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="76" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="77"/>
       <c r="D14" s="77"/>
@@ -30266,7 +30529,10 @@
       <c r="G14" s="79"/>
       <c r="H14" s="80"/>
       <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
+      <c r="J14" s="78" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="K14" s="81"/>
       <c r="L14" s="81"/>
       <c r="M14" s="81"/>
@@ -30291,7 +30557,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="J15" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K14)=FALSE,OFFSET(J15,0,COUNTA(#REF!)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K15" s="22"/>
@@ -30318,7 +30584,7 @@
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="12" t="str">
-        <f ca="1">IF(ISBLANK(#REF!)=FALSE,OFFSET(J16,0,COUNTA(K14:M14)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K16" s="22"/>
@@ -30345,7 +30611,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="12" t="str">
-        <f t="shared" ref="J17:J47" ca="1" si="5">IF(ISBLANK(K16)=FALSE,OFFSET(J17,0,COUNTA(K15:K15)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K17" s="22"/>
@@ -30372,7 +30638,7 @@
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="12" t="str">
-        <f ca="1">IF(ISBLANK(#REF!)=FALSE,OFFSET(J18,0,COUNTA(K16:M16)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K18" s="22"/>
@@ -30399,7 +30665,7 @@
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K19" s="22"/>
@@ -30426,7 +30692,7 @@
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="12" t="str">
-        <f ca="1">IF(ISBLANK(#REF!)=FALSE,OFFSET(J20,0,COUNTA(K18:M18)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K20" s="22"/>
@@ -30453,7 +30719,7 @@
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K21" s="22"/>
@@ -30480,7 +30746,7 @@
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="12" t="str">
-        <f ca="1">IF(ISBLANK(#REF!)=FALSE,OFFSET(J22,0,COUNTA(K20:M20)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K22" s="22"/>
@@ -30507,7 +30773,7 @@
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K23" s="22"/>
@@ -30534,7 +30800,7 @@
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="12" t="str">
-        <f ca="1">IF(ISBLANK(#REF!)=FALSE,OFFSET(J24,0,COUNTA(K22:M22)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K24" s="22"/>
@@ -30561,7 +30827,7 @@
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K25" s="22"/>
@@ -30588,7 +30854,7 @@
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="12" t="str">
-        <f ca="1">IF(ISBLANK(#REF!)=FALSE,OFFSET(J26,0,COUNTA(K24:M24)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K26" s="22"/>
@@ -30637,7 +30903,7 @@
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K27" s="22"/>
@@ -30686,7 +30952,7 @@
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="12" t="str">
-        <f ca="1">IF(ISBLANK(#REF!)=FALSE,OFFSET(J28,0,COUNTA(K26:M26)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K28" s="22"/>
@@ -30708,14 +30974,14 @@
         <v>0</v>
       </c>
       <c r="V28" s="10">
-        <f t="shared" ref="V28" si="6">T28-U28</f>
+        <f t="shared" ref="V28" si="5">T28-U28</f>
         <v>0</v>
       </c>
       <c r="W28" s="14">
         <v>0</v>
       </c>
       <c r="X28" s="15">
-        <f t="shared" ref="X28" si="7">IF(W28&gt;U28,0,U28-W28)</f>
+        <f t="shared" ref="X28" si="6">IF(W28&gt;U28,0,U28-W28)</f>
         <v>0</v>
       </c>
     </row>
@@ -30735,7 +31001,7 @@
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K29" s="22"/>
@@ -30762,7 +31028,7 @@
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="12" t="str">
-        <f ca="1">IF(ISBLANK(#REF!)=FALSE,OFFSET(J30,0,COUNTA(K28:M28)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K30" s="22"/>
@@ -30789,7 +31055,7 @@
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K31" s="22"/>
@@ -30816,7 +31082,7 @@
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="12" t="str">
-        <f ca="1">IF(ISBLANK(#REF!)=FALSE,OFFSET(J32,0,COUNTA(K30:M30)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K32" s="22"/>
@@ -30843,7 +31109,7 @@
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K33" s="22"/>
@@ -30870,7 +31136,7 @@
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="12" t="str">
-        <f ca="1">IF(ISBLANK(#REF!)=FALSE,OFFSET(J34,0,COUNTA(K32:M32)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K34" s="22"/>
@@ -30897,7 +31163,7 @@
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K35" s="22"/>
@@ -30924,7 +31190,7 @@
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="12" t="str">
-        <f ca="1">IF(ISBLANK(#REF!)=FALSE,OFFSET(J36,0,COUNTA(K34:M34)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K36" s="22"/>
@@ -30951,7 +31217,7 @@
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K37" s="22"/>
@@ -30994,7 +31260,7 @@
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="12" t="str">
-        <f ca="1">IF(ISBLANK(#REF!)=FALSE,OFFSET(J38,0,COUNTA(K36:M36)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K38" s="22"/>
@@ -31016,7 +31282,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="10">
-        <f t="shared" ref="V38:V43" ca="1" si="8">T38-U38</f>
+        <f t="shared" ref="V38:V43" ca="1" si="7">T38-U38</f>
         <v>4</v>
       </c>
       <c r="W38" s="14">
@@ -31043,7 +31309,7 @@
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K39" s="22"/>
@@ -31054,25 +31320,25 @@
       <c r="P39" s="22"/>
       <c r="Q39" s="22"/>
       <c r="S39" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T39" s="10">
-        <f t="shared" ref="T39:T43" si="9">SUMIF($C$5:$C$100,S39,$H$5:$H$100)</f>
+        <f t="shared" ref="T39:T43" si="8">SUMIF($C$5:$C$100,S39,$H$5:$H$100)</f>
         <v>2</v>
       </c>
       <c r="U39" s="10">
-        <f t="shared" ref="U39:U43" si="10">SUMIF($C$5:$C$14,S39,$I$5:$I$14)</f>
+        <f t="shared" ref="U39:U43" si="9">SUMIF($C$5:$C$14,S39,$I$5:$I$14)</f>
         <v>0</v>
       </c>
       <c r="V39" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="W39" s="14">
         <v>0</v>
       </c>
       <c r="X39" s="15">
-        <f t="shared" ref="X39:X43" si="11">IF(W39&gt;U39,0,U39-W39)</f>
+        <f t="shared" ref="X39:X43" si="10">IF(W39&gt;U39,0,U39-W39)</f>
         <v>0</v>
       </c>
     </row>
@@ -31092,7 +31358,7 @@
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="12" t="str">
-        <f ca="1">IF(ISBLANK(#REF!)=FALSE,OFFSET(J40,0,COUNTA(K38:M38)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K40" s="22"/>
@@ -31106,22 +31372,22 @@
         <v>63</v>
       </c>
       <c r="T40" s="10">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="U40" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V40" s="10">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
+      <c r="U40" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V40" s="10">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
       <c r="W40" s="14">
         <v>0</v>
       </c>
       <c r="X40" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -31141,7 +31407,7 @@
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K41" s="22"/>
@@ -31155,22 +31421,22 @@
         <v>66</v>
       </c>
       <c r="T41" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U41" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="V41" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W41" s="14">
         <v>0</v>
       </c>
       <c r="X41" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -31190,7 +31456,7 @@
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="12" t="str">
-        <f ca="1">IF(ISBLANK(#REF!)=FALSE,OFFSET(J42,0,COUNTA(K40:M40)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K42" s="22"/>
@@ -31204,22 +31470,22 @@
         <v>65</v>
       </c>
       <c r="T42" s="10">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="U42" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V42" s="10">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
+      <c r="U42" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V42" s="10">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
       <c r="W42" s="14">
         <v>0</v>
       </c>
       <c r="X42" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -31239,7 +31505,7 @@
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K43" s="22"/>
@@ -31253,22 +31519,22 @@
         <v>80</v>
       </c>
       <c r="T43" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U43" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="V43" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W43" s="14">
         <v>0</v>
       </c>
       <c r="X43" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -31288,7 +31554,7 @@
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="12" t="str">
-        <f ca="1">IF(ISBLANK(#REF!)=FALSE,OFFSET(J44,0,COUNTA(K42:M42)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K44" s="22"/>
@@ -31315,7 +31581,7 @@
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K45" s="22"/>
@@ -31342,7 +31608,7 @@
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="12" t="str">
-        <f ca="1">IF(ISBLANK(#REF!)=FALSE,OFFSET(J46,0,COUNTA(K44:M44)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K46" s="22"/>
@@ -31369,7 +31635,7 @@
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K47" s="22"/>
@@ -31411,17 +31677,17 @@
   </sheetData>
   <autoFilter ref="C1:D49"/>
   <mergeCells count="11">
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:Q1"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:D4"/>
     <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D50:D65389">
@@ -31479,7 +31745,7 @@
       <formula>OR($D50="終了",$D50="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:Q6 B7:Q7 B14:Q14 D9 D11 C10 B11 E10:I10 B15:I47 A7:A12 J8:Q12 A5:IN5 A14:A47">
+  <conditionalFormatting sqref="A6:Q6 B7:Q7 D9 D11 C10 B11 E10:I10 A14:I47 A7:A12 K8:Q12 A5:IN5 K14:Q14 J8:J47">
     <cfRule type="expression" dxfId="167" priority="58" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>
@@ -31732,7 +31998,7 @@
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L15:Q45 J15:J47">
+  <conditionalFormatting sqref="L15:Q45">
     <cfRule type="expression" dxfId="98" priority="172" stopIfTrue="1">
       <formula>$E17="未着手"</formula>
     </cfRule>
@@ -32018,7 +32284,7 @@
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:R13 A13:E13">
+  <conditionalFormatting sqref="G13:I13 A13:E13 K13:R13">
     <cfRule type="expression" dxfId="20" priority="7" stopIfTrue="1">
       <formula>$E13="未着手"</formula>
     </cfRule>
@@ -32173,12 +32439,18 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
+      <c r="B2" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="114" t="s">
+        <v>327</v>
+      </c>
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
       <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="G2" s="114" t="s">
+        <v>324</v>
+      </c>
       <c r="H2" s="32"/>
       <c r="I2" s="32"/>
       <c r="J2" s="33"/>
@@ -32197,12 +32469,18 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
+      <c r="B3" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="D3" s="32" t="s">
+        <v>41</v>
+      </c>
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="G3" s="114" t="s">
+        <v>328</v>
+      </c>
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
       <c r="J3" s="33"/>
@@ -32221,12 +32499,18 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
+      <c r="B4" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
+      <c r="D4" s="32" t="s">
+        <v>41</v>
+      </c>
       <c r="E4" s="32"/>
       <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+      <c r="G4" s="114" t="s">
+        <v>325</v>
+      </c>
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
       <c r="J4" s="33"/>
@@ -32245,12 +32529,18 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
+      <c r="B5" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
+      <c r="D5" s="32" t="s">
+        <v>41</v>
+      </c>
       <c r="E5" s="32"/>
       <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
+      <c r="G5" s="114" t="s">
+        <v>329</v>
+      </c>
       <c r="H5" s="32"/>
       <c r="I5" s="32"/>
       <c r="J5" s="33"/>
@@ -32265,14 +32555,20 @@
       <c r="Q5" s="35"/>
       <c r="R5" s="36"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" ht="26.4">
       <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
+      <c r="B6" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="D6" s="32" t="s">
+        <v>41</v>
+      </c>
       <c r="E6" s="32"/>
       <c r="F6" s="32"/>
-      <c r="G6" s="38"/>
+      <c r="G6" s="115" t="s">
+        <v>330</v>
+      </c>
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
       <c r="J6" s="33"/>
@@ -32285,12 +32581,16 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
+      <c r="B7" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+      <c r="G7" s="114" t="s">
+        <v>326</v>
+      </c>
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
       <c r="J7" s="33"/>

--- a/Godlibrary/BackLog.xlsx
+++ b/Godlibrary/BackLog.xlsx
@@ -4101,6 +4101,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4143,10 +4147,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4154,574 +4154,7 @@
     <cellStyle name="標準_チーム編成_スプリントバックログ（第４）" xfId="2"/>
     <cellStyle name="標準_バグシート" xfId="3"/>
   </cellStyles>
-  <dxfs count="813">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
+  <dxfs count="732">
     <dxf>
       <font>
         <condense val="0"/>
@@ -5352,6 +4785,48 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="55"/>
       </font>
     </dxf>
@@ -6248,6 +5723,27 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="55"/>
       </font>
     </dxf>
@@ -7227,48 +6723,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="55"/>
       </font>
     </dxf>
@@ -7292,27 +6746,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -10611,7 +10044,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -10731,7 +10163,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -10851,7 +10282,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -10964,7 +10394,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -15528,53 +14957,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="99" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="99" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="99" t="s">
+      <c r="B1" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="102" t="s">
+      <c r="E1" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="102" t="s">
+      <c r="F1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="99" t="s">
+      <c r="I1" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="97" t="s">
+      <c r="J1" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
     </row>
     <row r="2" spans="1:16" s="8" customFormat="1">
-      <c r="A2" s="99"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="100"/>
       <c r="J2" s="23" t="s">
         <v>11</v>
       </c>
@@ -15598,15 +15027,15 @@
       </c>
     </row>
     <row r="3" spans="1:16" s="8" customFormat="1">
-      <c r="A3" s="99"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="99"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="100"/>
       <c r="J3" s="20">
         <f t="shared" ref="J3:P3" si="0">INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$P$2))))</f>
         <v>0</v>
@@ -15637,15 +15066,15 @@
       </c>
     </row>
     <row r="4" spans="1:16" s="8" customFormat="1">
-      <c r="A4" s="99"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="99"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="100"/>
       <c r="J4" s="21">
         <f>SUM(J5:J104)</f>
         <v>0</v>
@@ -19254,57 +18683,57 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D105:D65536">
-    <cfRule type="expression" dxfId="812" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="731" priority="1" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="811" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="730" priority="2" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="810" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="729" priority="3" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD104">
-    <cfRule type="expression" dxfId="809" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="728" priority="4" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="808" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="727" priority="5" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="807" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="726" priority="6" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="806" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="725" priority="7" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="805" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="724" priority="8" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="804" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="723" priority="9" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="803" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="722" priority="10" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="802" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="721" priority="11" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="801" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="720" priority="12" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:P65536">
-    <cfRule type="expression" dxfId="800" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="719" priority="13" stopIfTrue="1">
       <formula>$D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="799" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="718" priority="14" stopIfTrue="1">
       <formula>$D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="798" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="717" priority="15" stopIfTrue="1">
       <formula>OR($D105="終了",$D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19321,7 +18750,7 @@
   <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -19349,41 +18778,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="99" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="105" t="s">
+      <c r="C1" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="102" t="s">
+      <c r="F1" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="102" t="s">
+      <c r="G1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="I1" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="99" t="s">
+      <c r="J1" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="97" t="s">
+      <c r="K1" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="108"/>
-      <c r="M1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="110"/>
       <c r="N1" s="71"/>
       <c r="O1" s="71"/>
       <c r="P1" s="71"/>
@@ -19395,16 +18824,16 @@
       <c r="V1" s="71"/>
     </row>
     <row r="2" spans="1:22" s="8" customFormat="1">
-      <c r="A2" s="99"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="100"/>
       <c r="K2" s="23" t="s">
         <v>44</v>
       </c>
@@ -19416,16 +18845,16 @@
       </c>
     </row>
     <row r="3" spans="1:22" s="8" customFormat="1">
-      <c r="A3" s="99"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="99"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="100"/>
       <c r="K3" s="20">
         <f>INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$M$2))))</f>
         <v>65</v>
@@ -19440,16 +18869,16 @@
       </c>
     </row>
     <row r="4" spans="1:22" s="8" customFormat="1">
-      <c r="A4" s="99"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="99"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="100"/>
       <c r="K4" s="21">
         <f>SUM(K5:K37)</f>
         <v>65</v>
@@ -21208,860 +20637,860 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D43:D65414">
-    <cfRule type="expression" dxfId="797" priority="307" stopIfTrue="1">
+    <cfRule type="expression" dxfId="716" priority="307" stopIfTrue="1">
       <formula>D43="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="796" priority="308" stopIfTrue="1">
+    <cfRule type="expression" dxfId="715" priority="308" stopIfTrue="1">
       <formula>D43="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="795" priority="309" stopIfTrue="1">
+    <cfRule type="expression" dxfId="714" priority="309" stopIfTrue="1">
       <formula>OR(D43="終了",D43="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO5:XFD6">
-    <cfRule type="expression" dxfId="794" priority="310" stopIfTrue="1">
+    <cfRule type="expression" dxfId="713" priority="310" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="793" priority="311" stopIfTrue="1">
+    <cfRule type="expression" dxfId="712" priority="311" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="792" priority="312" stopIfTrue="1">
+    <cfRule type="expression" dxfId="711" priority="312" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:B65414">
-    <cfRule type="expression" dxfId="791" priority="313" stopIfTrue="1">
+    <cfRule type="expression" dxfId="710" priority="313" stopIfTrue="1">
       <formula>D43="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="790" priority="314" stopIfTrue="1">
+    <cfRule type="expression" dxfId="709" priority="314" stopIfTrue="1">
       <formula>D43="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="789" priority="315" stopIfTrue="1">
+    <cfRule type="expression" dxfId="708" priority="315" stopIfTrue="1">
       <formula>OR(D43="終了",D43="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C65414">
-    <cfRule type="expression" dxfId="788" priority="316" stopIfTrue="1">
+    <cfRule type="expression" dxfId="707" priority="316" stopIfTrue="1">
       <formula>D43="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="787" priority="317" stopIfTrue="1">
+    <cfRule type="expression" dxfId="706" priority="317" stopIfTrue="1">
       <formula>D43="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="786" priority="318" stopIfTrue="1">
+    <cfRule type="expression" dxfId="705" priority="318" stopIfTrue="1">
       <formula>OR(D43="終了",D43="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:M65414">
-    <cfRule type="expression" dxfId="785" priority="319" stopIfTrue="1">
+    <cfRule type="expression" dxfId="704" priority="319" stopIfTrue="1">
       <formula>$D43="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="784" priority="320" stopIfTrue="1">
+    <cfRule type="expression" dxfId="703" priority="320" stopIfTrue="1">
       <formula>$D43="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="783" priority="321" stopIfTrue="1">
+    <cfRule type="expression" dxfId="702" priority="321" stopIfTrue="1">
       <formula>OR($D43="終了",$D43="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I13 A5:IN6 B33:C33 E33 C7:M7 B14:I14 C15:I15 K20 B8:I9 K8:K15 K16:M19 B16:I20 J8:J20 B27:I31 B34:I40 B21:M26 F41:I42 L8:M14 B10:D11 F10:I11 E10:E13 B32:E32 F32:I33 A7:A42 J27:M42">
-    <cfRule type="expression" dxfId="782" priority="187" stopIfTrue="1">
+    <cfRule type="expression" dxfId="701" priority="187" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="781" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="700" priority="188" stopIfTrue="1">
       <formula>$E5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="780" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="699" priority="189" stopIfTrue="1">
       <formula>OR($E5="終了",$E5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7:IN7">
-    <cfRule type="expression" dxfId="779" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="698" priority="193" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="778" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="697" priority="194" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="777" priority="195" stopIfTrue="1">
+    <cfRule type="expression" dxfId="696" priority="195" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:IN11">
-    <cfRule type="expression" dxfId="776" priority="199" stopIfTrue="1">
+    <cfRule type="expression" dxfId="695" priority="199" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="775" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="694" priority="200" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="774" priority="201" stopIfTrue="1">
+    <cfRule type="expression" dxfId="693" priority="201" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:IN19">
-    <cfRule type="expression" dxfId="773" priority="205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="692" priority="205" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="772" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="691" priority="206" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="771" priority="207" stopIfTrue="1">
+    <cfRule type="expression" dxfId="690" priority="207" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25:N26 AA25:IN26">
-    <cfRule type="expression" dxfId="770" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="689" priority="217" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="769" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="688" priority="218" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="768" priority="219" stopIfTrue="1">
+    <cfRule type="expression" dxfId="687" priority="219" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29:IN30 N28 AA28:IN28">
-    <cfRule type="expression" dxfId="767" priority="220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="686" priority="220" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="766" priority="221" stopIfTrue="1">
+    <cfRule type="expression" dxfId="685" priority="221" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="765" priority="222" stopIfTrue="1">
+    <cfRule type="expression" dxfId="684" priority="222" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32:IN32">
-    <cfRule type="expression" dxfId="764" priority="229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="683" priority="229" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="763" priority="230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="682" priority="230" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="762" priority="231" stopIfTrue="1">
+    <cfRule type="expression" dxfId="681" priority="231" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N65:V65 AC65:IN66 S66:T66">
-    <cfRule type="expression" dxfId="761" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="680" priority="238" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="760" priority="239" stopIfTrue="1">
+    <cfRule type="expression" dxfId="679" priority="239" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="759" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="678" priority="240" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N35:N40 Y39:IN40 S35:IH37 U38:IH38">
-    <cfRule type="expression" dxfId="758" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="677" priority="241" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="757" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="676" priority="242" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="756" priority="243" stopIfTrue="1">
+    <cfRule type="expression" dxfId="675" priority="243" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N42:N47 U42:IN47 N48:IN49">
-    <cfRule type="expression" dxfId="755" priority="244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="674" priority="244" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="754" priority="245" stopIfTrue="1">
+    <cfRule type="expression" dxfId="673" priority="245" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="753" priority="246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="672" priority="246" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41 U41:IN41">
-    <cfRule type="expression" dxfId="752" priority="247" stopIfTrue="1">
+    <cfRule type="expression" dxfId="671" priority="247" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="751" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="670" priority="248" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="750" priority="249" stopIfTrue="1">
+    <cfRule type="expression" dxfId="669" priority="249" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50:IN52">
-    <cfRule type="expression" dxfId="749" priority="253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="668" priority="253" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="748" priority="254" stopIfTrue="1">
+    <cfRule type="expression" dxfId="667" priority="254" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="747" priority="255" stopIfTrue="1">
+    <cfRule type="expression" dxfId="666" priority="255" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N62:IN64">
-    <cfRule type="expression" dxfId="746" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="665" priority="265" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="745" priority="266" stopIfTrue="1">
+    <cfRule type="expression" dxfId="664" priority="266" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="744" priority="267" stopIfTrue="1">
+    <cfRule type="expression" dxfId="663" priority="267" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC69:IN69 S69:T69">
-    <cfRule type="expression" dxfId="743" priority="271" stopIfTrue="1">
+    <cfRule type="expression" dxfId="662" priority="271" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="742" priority="272" stopIfTrue="1">
+    <cfRule type="expression" dxfId="661" priority="272" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="741" priority="273" stopIfTrue="1">
+    <cfRule type="expression" dxfId="660" priority="273" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC71:IN71 S71:T71">
-    <cfRule type="expression" dxfId="740" priority="277" stopIfTrue="1">
+    <cfRule type="expression" dxfId="659" priority="277" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="739" priority="278" stopIfTrue="1">
+    <cfRule type="expression" dxfId="658" priority="278" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="738" priority="279" stopIfTrue="1">
+    <cfRule type="expression" dxfId="657" priority="279" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N73:IN73">
-    <cfRule type="expression" dxfId="737" priority="280" stopIfTrue="1">
+    <cfRule type="expression" dxfId="656" priority="280" stopIfTrue="1">
       <formula>$E13="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="736" priority="281" stopIfTrue="1">
+    <cfRule type="expression" dxfId="655" priority="281" stopIfTrue="1">
       <formula>$E13="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="735" priority="282" stopIfTrue="1">
+    <cfRule type="expression" dxfId="654" priority="282" stopIfTrue="1">
       <formula>OR($E13="終了",$E13="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q72:IN72">
-    <cfRule type="expression" dxfId="734" priority="289" stopIfTrue="1">
+    <cfRule type="expression" dxfId="653" priority="289" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="733" priority="290" stopIfTrue="1">
+    <cfRule type="expression" dxfId="652" priority="290" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="732" priority="291" stopIfTrue="1">
+    <cfRule type="expression" dxfId="651" priority="291" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N74:IN76">
-    <cfRule type="expression" dxfId="731" priority="295" stopIfTrue="1">
+    <cfRule type="expression" dxfId="650" priority="295" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="730" priority="296" stopIfTrue="1">
+    <cfRule type="expression" dxfId="649" priority="296" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="729" priority="297" stopIfTrue="1">
+    <cfRule type="expression" dxfId="648" priority="297" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N80:IN80">
-    <cfRule type="expression" dxfId="728" priority="298" stopIfTrue="1">
+    <cfRule type="expression" dxfId="647" priority="298" stopIfTrue="1">
       <formula>$E21="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="727" priority="299" stopIfTrue="1">
+    <cfRule type="expression" dxfId="646" priority="299" stopIfTrue="1">
       <formula>$E21="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="726" priority="300" stopIfTrue="1">
+    <cfRule type="expression" dxfId="645" priority="300" stopIfTrue="1">
       <formula>OR($E21="終了",$E21="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N81:IN83">
-    <cfRule type="expression" dxfId="725" priority="304" stopIfTrue="1">
+    <cfRule type="expression" dxfId="644" priority="304" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="724" priority="305" stopIfTrue="1">
+    <cfRule type="expression" dxfId="643" priority="305" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="723" priority="306" stopIfTrue="1">
+    <cfRule type="expression" dxfId="642" priority="306" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="722" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="641" priority="67" stopIfTrue="1">
       <formula>$E33="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="721" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="640" priority="68" stopIfTrue="1">
       <formula>$E33="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="720" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="639" priority="69" stopIfTrue="1">
       <formula>OR($E33="終了",$E33="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:IN12">
-    <cfRule type="expression" dxfId="719" priority="352" stopIfTrue="1">
+    <cfRule type="expression" dxfId="638" priority="352" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="718" priority="353" stopIfTrue="1">
+    <cfRule type="expression" dxfId="637" priority="353" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="717" priority="354" stopIfTrue="1">
+    <cfRule type="expression" dxfId="636" priority="354" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20:IN20">
-    <cfRule type="expression" dxfId="716" priority="379" stopIfTrue="1">
+    <cfRule type="expression" dxfId="635" priority="379" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="715" priority="380" stopIfTrue="1">
+    <cfRule type="expression" dxfId="634" priority="380" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="714" priority="381" stopIfTrue="1">
+    <cfRule type="expression" dxfId="633" priority="381" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N78:IN78">
-    <cfRule type="expression" dxfId="713" priority="523" stopIfTrue="1">
+    <cfRule type="expression" dxfId="632" priority="523" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="712" priority="524" stopIfTrue="1">
+    <cfRule type="expression" dxfId="631" priority="524" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="711" priority="525" stopIfTrue="1">
+    <cfRule type="expression" dxfId="630" priority="525" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO18:XFD18">
-    <cfRule type="expression" dxfId="710" priority="1510" stopIfTrue="1">
+    <cfRule type="expression" dxfId="629" priority="1510" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="709" priority="1511" stopIfTrue="1">
+    <cfRule type="expression" dxfId="628" priority="1511" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="708" priority="1512" stopIfTrue="1">
+    <cfRule type="expression" dxfId="627" priority="1512" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31:IN31">
-    <cfRule type="expression" dxfId="707" priority="1534" stopIfTrue="1">
+    <cfRule type="expression" dxfId="626" priority="1534" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="706" priority="1535" stopIfTrue="1">
+    <cfRule type="expression" dxfId="625" priority="1535" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="705" priority="1536" stopIfTrue="1">
+    <cfRule type="expression" dxfId="624" priority="1536" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N53:IN54">
-    <cfRule type="expression" dxfId="704" priority="1570" stopIfTrue="1">
+    <cfRule type="expression" dxfId="623" priority="1570" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="703" priority="1571" stopIfTrue="1">
+    <cfRule type="expression" dxfId="622" priority="1571" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="702" priority="1572" stopIfTrue="1">
+    <cfRule type="expression" dxfId="621" priority="1572" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO23:XFD26 IO13:XFD14">
-    <cfRule type="expression" dxfId="701" priority="1618" stopIfTrue="1">
+    <cfRule type="expression" dxfId="620" priority="1618" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="700" priority="1619" stopIfTrue="1">
+    <cfRule type="expression" dxfId="619" priority="1619" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="699" priority="1620" stopIfTrue="1">
+    <cfRule type="expression" dxfId="618" priority="1620" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO32:XFD32">
-    <cfRule type="expression" dxfId="698" priority="1801" stopIfTrue="1">
+    <cfRule type="expression" dxfId="617" priority="1801" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="697" priority="1802" stopIfTrue="1">
+    <cfRule type="expression" dxfId="616" priority="1802" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="696" priority="1803" stopIfTrue="1">
+    <cfRule type="expression" dxfId="615" priority="1803" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N60:IN60">
-    <cfRule type="expression" dxfId="695" priority="1816" stopIfTrue="1">
+    <cfRule type="expression" dxfId="614" priority="1816" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="694" priority="1817" stopIfTrue="1">
+    <cfRule type="expression" dxfId="613" priority="1817" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="693" priority="1818" stopIfTrue="1">
+    <cfRule type="expression" dxfId="612" priority="1818" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO46:XFD48">
-    <cfRule type="expression" dxfId="692" priority="1870" stopIfTrue="1">
+    <cfRule type="expression" dxfId="611" priority="1870" stopIfTrue="1">
       <formula>$D16="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="691" priority="1871" stopIfTrue="1">
+    <cfRule type="expression" dxfId="610" priority="1871" stopIfTrue="1">
       <formula>$D16="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="690" priority="1872" stopIfTrue="1">
+    <cfRule type="expression" dxfId="609" priority="1872" stopIfTrue="1">
       <formula>OR($D16="終了",$D16="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO77:XFD77 IO72:XFD72 IO20:XFD20">
-    <cfRule type="expression" dxfId="689" priority="1930" stopIfTrue="1">
+    <cfRule type="expression" dxfId="608" priority="1930" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="688" priority="1931" stopIfTrue="1">
+    <cfRule type="expression" dxfId="607" priority="1931" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="687" priority="1932" stopIfTrue="1">
+    <cfRule type="expression" dxfId="606" priority="1932" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:IN21 AA22:IN22 N22">
-    <cfRule type="expression" dxfId="686" priority="2350" stopIfTrue="1">
+    <cfRule type="expression" dxfId="605" priority="2350" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="685" priority="2351" stopIfTrue="1">
+    <cfRule type="expression" dxfId="604" priority="2351" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="684" priority="2352" stopIfTrue="1">
+    <cfRule type="expression" dxfId="603" priority="2352" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S67:T67 AC67:IN67 N61:IN61">
-    <cfRule type="expression" dxfId="683" priority="2446" stopIfTrue="1">
+    <cfRule type="expression" dxfId="602" priority="2446" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="682" priority="2447" stopIfTrue="1">
+    <cfRule type="expression" dxfId="601" priority="2447" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="681" priority="2448" stopIfTrue="1">
+    <cfRule type="expression" dxfId="600" priority="2448" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="II34:XFD34">
-    <cfRule type="expression" dxfId="680" priority="2470" stopIfTrue="1">
+    <cfRule type="expression" dxfId="599" priority="2470" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="679" priority="2471" stopIfTrue="1">
+    <cfRule type="expression" dxfId="598" priority="2471" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="678" priority="2472" stopIfTrue="1">
+    <cfRule type="expression" dxfId="597" priority="2472" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO42:XFD44">
-    <cfRule type="expression" dxfId="677" priority="2518" stopIfTrue="1">
+    <cfRule type="expression" dxfId="596" priority="2518" stopIfTrue="1">
       <formula>$D11="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="676" priority="2519" stopIfTrue="1">
+    <cfRule type="expression" dxfId="595" priority="2519" stopIfTrue="1">
       <formula>$D11="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="675" priority="2520" stopIfTrue="1">
+    <cfRule type="expression" dxfId="594" priority="2520" stopIfTrue="1">
       <formula>OR($D11="終了",$D11="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO41:XFD41">
-    <cfRule type="expression" dxfId="674" priority="2521" stopIfTrue="1">
+    <cfRule type="expression" dxfId="593" priority="2521" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="673" priority="2522" stopIfTrue="1">
+    <cfRule type="expression" dxfId="592" priority="2522" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="672" priority="2523" stopIfTrue="1">
+    <cfRule type="expression" dxfId="591" priority="2523" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:D13 F12:H13">
-    <cfRule type="expression" dxfId="671" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="590" priority="13" stopIfTrue="1">
       <formula>$E12="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="670" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="589" priority="14" stopIfTrue="1">
       <formula>$E12="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="669" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="588" priority="15" stopIfTrue="1">
       <formula>OR($E12="終了",$E12="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N55:IN59">
-    <cfRule type="expression" dxfId="668" priority="2701" stopIfTrue="1">
+    <cfRule type="expression" dxfId="587" priority="2701" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="667" priority="2702" stopIfTrue="1">
+    <cfRule type="expression" dxfId="586" priority="2702" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="666" priority="2703" stopIfTrue="1">
+    <cfRule type="expression" dxfId="585" priority="2703" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO27:XFD31">
-    <cfRule type="expression" dxfId="665" priority="2704" stopIfTrue="1">
+    <cfRule type="expression" dxfId="584" priority="2704" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="664" priority="2705" stopIfTrue="1">
+    <cfRule type="expression" dxfId="583" priority="2705" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="663" priority="2706" stopIfTrue="1">
+    <cfRule type="expression" dxfId="582" priority="2706" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO33:XFD33">
-    <cfRule type="expression" dxfId="662" priority="2746" stopIfTrue="1">
+    <cfRule type="expression" dxfId="581" priority="2746" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="661" priority="2747" stopIfTrue="1">
+    <cfRule type="expression" dxfId="580" priority="2747" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="660" priority="2748" stopIfTrue="1">
+    <cfRule type="expression" dxfId="579" priority="2748" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC70:IN70 S70:T70">
-    <cfRule type="expression" dxfId="659" priority="2773" stopIfTrue="1">
+    <cfRule type="expression" dxfId="578" priority="2773" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="658" priority="2774" stopIfTrue="1">
+    <cfRule type="expression" dxfId="577" priority="2774" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="657" priority="2775" stopIfTrue="1">
+    <cfRule type="expression" dxfId="576" priority="2775" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="II35:XFD38">
-    <cfRule type="expression" dxfId="656" priority="2797" stopIfTrue="1">
+    <cfRule type="expression" dxfId="575" priority="2797" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="655" priority="2798" stopIfTrue="1">
+    <cfRule type="expression" dxfId="574" priority="2798" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="654" priority="2799" stopIfTrue="1">
+    <cfRule type="expression" dxfId="573" priority="2799" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO39:XFD39">
-    <cfRule type="expression" dxfId="653" priority="2899" stopIfTrue="1">
+    <cfRule type="expression" dxfId="572" priority="2899" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="652" priority="2900" stopIfTrue="1">
+    <cfRule type="expression" dxfId="571" priority="2900" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="651" priority="2901" stopIfTrue="1">
+    <cfRule type="expression" dxfId="570" priority="2901" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S68:T68 AC68:IN68">
-    <cfRule type="expression" dxfId="650" priority="2929" stopIfTrue="1">
+    <cfRule type="expression" dxfId="569" priority="2929" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="649" priority="2930" stopIfTrue="1">
+    <cfRule type="expression" dxfId="568" priority="2930" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="648" priority="2931" stopIfTrue="1">
+    <cfRule type="expression" dxfId="567" priority="2931" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO40:XFD40 IO54:XFD54">
-    <cfRule type="expression" dxfId="647" priority="2938" stopIfTrue="1">
+    <cfRule type="expression" dxfId="566" priority="2938" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="646" priority="2939" stopIfTrue="1">
+    <cfRule type="expression" dxfId="565" priority="2939" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="645" priority="2940" stopIfTrue="1">
+    <cfRule type="expression" dxfId="564" priority="2940" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO55:XFD55 IO57:XFD59">
-    <cfRule type="expression" dxfId="644" priority="2980" stopIfTrue="1">
+    <cfRule type="expression" dxfId="563" priority="2980" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="643" priority="2981" stopIfTrue="1">
+    <cfRule type="expression" dxfId="562" priority="2981" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="642" priority="2982" stopIfTrue="1">
+    <cfRule type="expression" dxfId="561" priority="2982" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO65:XFD65">
-    <cfRule type="expression" dxfId="641" priority="3010" stopIfTrue="1">
+    <cfRule type="expression" dxfId="560" priority="3010" stopIfTrue="1">
       <formula>$D23="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="640" priority="3011" stopIfTrue="1">
+    <cfRule type="expression" dxfId="559" priority="3011" stopIfTrue="1">
       <formula>$D23="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="639" priority="3012" stopIfTrue="1">
+    <cfRule type="expression" dxfId="558" priority="3012" stopIfTrue="1">
       <formula>OR($D23="終了",$D23="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO61:XFD61">
-    <cfRule type="expression" dxfId="638" priority="3013" stopIfTrue="1">
+    <cfRule type="expression" dxfId="557" priority="3013" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="637" priority="3014" stopIfTrue="1">
+    <cfRule type="expression" dxfId="556" priority="3014" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="636" priority="3015" stopIfTrue="1">
+    <cfRule type="expression" dxfId="555" priority="3015" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="635" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="554" priority="10" stopIfTrue="1">
       <formula>$E7="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="634" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="553" priority="11" stopIfTrue="1">
       <formula>$E7="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="633" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="552" priority="12" stopIfTrue="1">
       <formula>OR($E7="終了",$E7="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34:IH34">
-    <cfRule type="expression" dxfId="632" priority="3127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="551" priority="3127" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="631" priority="3128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="550" priority="3128" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="630" priority="3129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="549" priority="3129" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO21:XFD21">
-    <cfRule type="expression" dxfId="629" priority="3142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="548" priority="3142" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="628" priority="3143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="547" priority="3143" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="627" priority="3144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="546" priority="3144" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO22:XFD22">
-    <cfRule type="expression" dxfId="626" priority="3145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="545" priority="3145" stopIfTrue="1">
       <formula>$D10="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="625" priority="3146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="544" priority="3146" stopIfTrue="1">
       <formula>$D10="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="624" priority="3147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="543" priority="3147" stopIfTrue="1">
       <formula>OR($D10="終了",$D10="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20:M20 L15:M15 N8:IN9">
-    <cfRule type="expression" dxfId="623" priority="3163" stopIfTrue="1">
+    <cfRule type="expression" dxfId="542" priority="3163" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="622" priority="3164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="541" priority="3164" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="621" priority="3165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="540" priority="3165" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N77:IN77">
-    <cfRule type="expression" dxfId="620" priority="3181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="539" priority="3181" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="619" priority="3182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="538" priority="3182" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="618" priority="3183" stopIfTrue="1">
+    <cfRule type="expression" dxfId="537" priority="3183" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO60:XFD60">
-    <cfRule type="expression" dxfId="617" priority="3184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="536" priority="3184" stopIfTrue="1">
       <formula>$D14="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="616" priority="3185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="535" priority="3185" stopIfTrue="1">
       <formula>$D14="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="615" priority="3186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="534" priority="3186" stopIfTrue="1">
       <formula>OR($D14="終了",$D14="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO45:XFD45">
-    <cfRule type="expression" dxfId="614" priority="3190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="533" priority="3190" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="613" priority="3191" stopIfTrue="1">
+    <cfRule type="expression" dxfId="532" priority="3191" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="612" priority="3192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="531" priority="3192" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO50:XFD50">
-    <cfRule type="expression" dxfId="611" priority="3259" stopIfTrue="1">
+    <cfRule type="expression" dxfId="530" priority="3259" stopIfTrue="1">
       <formula>$D21="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="610" priority="3260" stopIfTrue="1">
+    <cfRule type="expression" dxfId="529" priority="3260" stopIfTrue="1">
       <formula>$D21="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="609" priority="3261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="528" priority="3261" stopIfTrue="1">
       <formula>OR($D21="終了",$D21="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="608" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="527" priority="4" stopIfTrue="1">
       <formula>$E15="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="607" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="526" priority="5" stopIfTrue="1">
       <formula>$E15="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="606" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="525" priority="6" stopIfTrue="1">
       <formula>OR($E15="終了",$E15="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO51:XFD52">
-    <cfRule type="expression" dxfId="605" priority="3307" stopIfTrue="1">
+    <cfRule type="expression" dxfId="524" priority="3307" stopIfTrue="1">
       <formula>$D8="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="604" priority="3308" stopIfTrue="1">
+    <cfRule type="expression" dxfId="523" priority="3308" stopIfTrue="1">
       <formula>$D8="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="603" priority="3309" stopIfTrue="1">
+    <cfRule type="expression" dxfId="522" priority="3309" stopIfTrue="1">
       <formula>OR($D8="終了",$D8="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO64:XFD64">
-    <cfRule type="expression" dxfId="602" priority="3352" stopIfTrue="1">
+    <cfRule type="expression" dxfId="521" priority="3352" stopIfTrue="1">
       <formula>$D22="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="601" priority="3353" stopIfTrue="1">
+    <cfRule type="expression" dxfId="520" priority="3353" stopIfTrue="1">
       <formula>$D22="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="600" priority="3354" stopIfTrue="1">
+    <cfRule type="expression" dxfId="519" priority="3354" stopIfTrue="1">
       <formula>OR($D22="終了",$D22="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO76:XFD76">
-    <cfRule type="expression" dxfId="599" priority="3406" stopIfTrue="1">
+    <cfRule type="expression" dxfId="518" priority="3406" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="598" priority="3407" stopIfTrue="1">
+    <cfRule type="expression" dxfId="517" priority="3407" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="597" priority="3408" stopIfTrue="1">
+    <cfRule type="expression" dxfId="516" priority="3408" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO56:XFD56">
-    <cfRule type="expression" dxfId="596" priority="3445" stopIfTrue="1">
+    <cfRule type="expression" dxfId="515" priority="3445" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="595" priority="3446" stopIfTrue="1">
+    <cfRule type="expression" dxfId="514" priority="3446" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="594" priority="3447" stopIfTrue="1">
+    <cfRule type="expression" dxfId="513" priority="3447" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO73:XFD75">
-    <cfRule type="expression" dxfId="593" priority="3478" stopIfTrue="1">
+    <cfRule type="expression" dxfId="512" priority="3478" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="592" priority="3479" stopIfTrue="1">
+    <cfRule type="expression" dxfId="511" priority="3479" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="591" priority="3480" stopIfTrue="1">
+    <cfRule type="expression" dxfId="510" priority="3480" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO66:XFD71">
-    <cfRule type="expression" dxfId="590" priority="3505" stopIfTrue="1">
+    <cfRule type="expression" dxfId="509" priority="3505" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="589" priority="3506" stopIfTrue="1">
+    <cfRule type="expression" dxfId="508" priority="3506" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="588" priority="3507" stopIfTrue="1">
+    <cfRule type="expression" dxfId="507" priority="3507" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27 AA27:IN27">
-    <cfRule type="expression" dxfId="587" priority="3637" stopIfTrue="1">
+    <cfRule type="expression" dxfId="506" priority="3637" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="586" priority="3638" stopIfTrue="1">
+    <cfRule type="expression" dxfId="505" priority="3638" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="585" priority="3639" stopIfTrue="1">
+    <cfRule type="expression" dxfId="504" priority="3639" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13:IN13">
-    <cfRule type="expression" dxfId="584" priority="3643" stopIfTrue="1">
+    <cfRule type="expression" dxfId="503" priority="3643" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="583" priority="3644" stopIfTrue="1">
+    <cfRule type="expression" dxfId="502" priority="3644" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="582" priority="3645" stopIfTrue="1">
+    <cfRule type="expression" dxfId="501" priority="3645" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO7:XFD11">
-    <cfRule type="expression" dxfId="581" priority="3658" stopIfTrue="1">
+    <cfRule type="expression" dxfId="500" priority="3658" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="580" priority="3659" stopIfTrue="1">
+    <cfRule type="expression" dxfId="499" priority="3659" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="579" priority="3660" stopIfTrue="1">
+    <cfRule type="expression" dxfId="498" priority="3660" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA23:IN24 N23:N24">
-    <cfRule type="expression" dxfId="578" priority="3661" stopIfTrue="1">
+    <cfRule type="expression" dxfId="497" priority="3661" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="577" priority="3662" stopIfTrue="1">
+    <cfRule type="expression" dxfId="496" priority="3662" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="576" priority="3663" stopIfTrue="1">
+    <cfRule type="expression" dxfId="495" priority="3663" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO15:XFD17">
-    <cfRule type="expression" dxfId="575" priority="3667" stopIfTrue="1">
+    <cfRule type="expression" dxfId="494" priority="3667" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="574" priority="3668" stopIfTrue="1">
+    <cfRule type="expression" dxfId="493" priority="3668" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="573" priority="3669" stopIfTrue="1">
+    <cfRule type="expression" dxfId="492" priority="3669" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO62:XFD62">
-    <cfRule type="expression" dxfId="572" priority="3706" stopIfTrue="1">
+    <cfRule type="expression" dxfId="491" priority="3706" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="571" priority="3707" stopIfTrue="1">
+    <cfRule type="expression" dxfId="490" priority="3707" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="570" priority="3708" stopIfTrue="1">
+    <cfRule type="expression" dxfId="489" priority="3708" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO63:XFD63">
-    <cfRule type="expression" dxfId="569" priority="3709" stopIfTrue="1">
+    <cfRule type="expression" dxfId="488" priority="3709" stopIfTrue="1">
       <formula>$D19="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="568" priority="3710" stopIfTrue="1">
+    <cfRule type="expression" dxfId="487" priority="3710" stopIfTrue="1">
       <formula>$D19="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="567" priority="3711" stopIfTrue="1">
+    <cfRule type="expression" dxfId="486" priority="3711" stopIfTrue="1">
       <formula>OR($D19="終了",$D19="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:E42">
-    <cfRule type="expression" dxfId="566" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="485" priority="1" stopIfTrue="1">
       <formula>$E41="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="565" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="484" priority="2" stopIfTrue="1">
       <formula>$E41="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="564" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="483" priority="3" stopIfTrue="1">
       <formula>OR($E41="終了",$E41="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22315,7 +21744,7 @@
   <dimension ref="A1:Y202"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="R134" sqref="R134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -22347,44 +21776,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="99"/>
-      <c r="B1" s="99" t="s">
+      <c r="A1" s="100"/>
+      <c r="B1" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="99" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="105" t="s">
+      <c r="C1" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="102" t="s">
+      <c r="F1" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="102" t="s">
+      <c r="G1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="I1" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="99" t="s">
+      <c r="J1" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="97" t="s">
+      <c r="K1" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="110"/>
       <c r="S1" s="71"/>
       <c r="T1" s="71"/>
       <c r="U1" s="71"/>
@@ -22392,16 +21821,16 @@
       <c r="W1" s="71"/>
     </row>
     <row r="2" spans="1:23" s="8" customFormat="1">
-      <c r="A2" s="99"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="100"/>
       <c r="K2" s="23" t="s">
         <v>136</v>
       </c>
@@ -22428,16 +21857,16 @@
       </c>
     </row>
     <row r="3" spans="1:23" s="8" customFormat="1">
-      <c r="A3" s="99"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="99"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="100"/>
       <c r="K3" s="20">
         <f>INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$R$2))))</f>
         <v>173</v>
@@ -22472,22 +21901,22 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="8" customFormat="1">
-      <c r="A4" s="99"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="99"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="100"/>
       <c r="K4" s="21">
         <f>SUM(K5:K95)</f>
         <v>173</v>
       </c>
       <c r="L4" s="21">
-        <f t="shared" ref="K4:R4" si="1">SUM(L5:L95)</f>
+        <f t="shared" ref="L4:R4" si="1">SUM(L5:L95)</f>
         <v>160</v>
       </c>
       <c r="M4" s="21">
@@ -24514,7 +23943,7 @@
       </c>
       <c r="V43" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="W43" s="10">
         <f t="shared" si="6"/>
@@ -24525,7 +23954,7 @@
       </c>
       <c r="Y43" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:25">
@@ -28796,7 +28225,7 @@
       </c>
       <c r="E129" s="12" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F129" s="4">
         <v>42740</v>
@@ -28812,7 +28241,7 @@
       </c>
       <c r="J129" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K129" s="22">
         <v>2</v>
@@ -28836,7 +28265,7 @@
         <v>1</v>
       </c>
       <c r="R129" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -28854,7 +28283,7 @@
       </c>
       <c r="E130" s="12" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F130" s="4">
         <v>42740</v>
@@ -28870,7 +28299,7 @@
       </c>
       <c r="J130" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K130" s="22">
         <v>2</v>
@@ -28894,7 +28323,7 @@
         <v>1</v>
       </c>
       <c r="R130" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -28912,7 +28341,7 @@
       </c>
       <c r="E131" s="12" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F131" s="4">
         <v>42741</v>
@@ -28928,7 +28357,7 @@
       </c>
       <c r="J131" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K131" s="22">
         <v>2</v>
@@ -28952,7 +28381,7 @@
         <v>2</v>
       </c>
       <c r="R131" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -28970,7 +28399,7 @@
       </c>
       <c r="E132" s="12" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F132" s="4">
         <v>42741</v>
@@ -28986,7 +28415,7 @@
       </c>
       <c r="J132" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K132" s="22">
         <v>2</v>
@@ -29010,7 +28439,7 @@
         <v>2</v>
       </c>
       <c r="R132" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -29028,7 +28457,7 @@
       </c>
       <c r="E133" s="12" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F133" s="4">
         <v>42742</v>
@@ -29044,7 +28473,7 @@
       </c>
       <c r="J133" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K133" s="22">
         <v>2</v>
@@ -29068,7 +28497,7 @@
         <v>2</v>
       </c>
       <c r="R133" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -31840,783 +31269,783 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D203:D65439">
-    <cfRule type="expression" dxfId="542" priority="325" stopIfTrue="1">
+    <cfRule type="expression" dxfId="461" priority="325" stopIfTrue="1">
       <formula>D203="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="541" priority="326" stopIfTrue="1">
+    <cfRule type="expression" dxfId="460" priority="326" stopIfTrue="1">
       <formula>D203="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="540" priority="327" stopIfTrue="1">
+    <cfRule type="expression" dxfId="459" priority="327" stopIfTrue="1">
       <formula>OR(D203="終了",D203="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP5:XFD5">
-    <cfRule type="expression" dxfId="539" priority="328" stopIfTrue="1">
+    <cfRule type="expression" dxfId="458" priority="328" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="538" priority="329" stopIfTrue="1">
+    <cfRule type="expression" dxfId="457" priority="329" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="537" priority="330" stopIfTrue="1">
+    <cfRule type="expression" dxfId="456" priority="330" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B203:B65439">
-    <cfRule type="expression" dxfId="536" priority="331" stopIfTrue="1">
+    <cfRule type="expression" dxfId="455" priority="331" stopIfTrue="1">
       <formula>D203="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="535" priority="332" stopIfTrue="1">
+    <cfRule type="expression" dxfId="454" priority="332" stopIfTrue="1">
       <formula>D203="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="534" priority="333" stopIfTrue="1">
+    <cfRule type="expression" dxfId="453" priority="333" stopIfTrue="1">
       <formula>OR(D203="終了",D203="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C203:C65439">
-    <cfRule type="expression" dxfId="533" priority="334" stopIfTrue="1">
+    <cfRule type="expression" dxfId="452" priority="334" stopIfTrue="1">
       <formula>D203="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="335" stopIfTrue="1">
+    <cfRule type="expression" dxfId="451" priority="335" stopIfTrue="1">
       <formula>D203="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="531" priority="336" stopIfTrue="1">
+    <cfRule type="expression" dxfId="450" priority="336" stopIfTrue="1">
       <formula>OR(D203="終了",D203="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E203:H65439">
-    <cfRule type="expression" dxfId="530" priority="337" stopIfTrue="1">
+    <cfRule type="expression" dxfId="449" priority="337" stopIfTrue="1">
       <formula>$D203="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="529" priority="338" stopIfTrue="1">
+    <cfRule type="expression" dxfId="448" priority="338" stopIfTrue="1">
       <formula>$D203="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="528" priority="339" stopIfTrue="1">
+    <cfRule type="expression" dxfId="447" priority="339" stopIfTrue="1">
       <formula>OR($D203="終了",$D203="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:IO5 A6:R6 G9:I10 B37:E37 H37 B16:H36 B122:B126 B9:F15 D122:D126 B127:D153 A7:A153 A154:D202 B63:D121 F63:I202 B43:D61 F43:H58 F59:I61 E43:E202 J9:J202 B38:H42 G11:H15 I12:I14 I16:I18 I20:I22 I24:I26 I28:I30 I32:I34 I36:I58 K36:R61 G62 B8:R8 K29:R34 K9:R27 K63:R202">
-    <cfRule type="expression" dxfId="527" priority="205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="446" priority="205" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="526" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="445" priority="206" stopIfTrue="1">
       <formula>$E5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="525" priority="207" stopIfTrue="1">
+    <cfRule type="expression" dxfId="444" priority="207" stopIfTrue="1">
       <formula>OR($E5="終了",$E5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C123">
-    <cfRule type="expression" dxfId="524" priority="208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="443" priority="208" stopIfTrue="1">
       <formula>$E122="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="523" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="442" priority="209" stopIfTrue="1">
       <formula>$E122="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="522" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="441" priority="210" stopIfTrue="1">
       <formula>OR($E122="終了",$E122="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:IO6">
-    <cfRule type="expression" dxfId="521" priority="211" stopIfTrue="1">
+    <cfRule type="expression" dxfId="440" priority="211" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="439" priority="212" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="519" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="438" priority="213" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9:IO10">
-    <cfRule type="expression" dxfId="518" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="437" priority="217" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="517" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="436" priority="218" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="516" priority="219" stopIfTrue="1">
+    <cfRule type="expression" dxfId="435" priority="219" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12:IO16">
-    <cfRule type="expression" dxfId="515" priority="223" stopIfTrue="1">
+    <cfRule type="expression" dxfId="434" priority="223" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="514" priority="224" stopIfTrue="1">
+    <cfRule type="expression" dxfId="433" priority="224" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="513" priority="225" stopIfTrue="1">
+    <cfRule type="expression" dxfId="432" priority="225" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB20:IO20">
-    <cfRule type="expression" dxfId="512" priority="235" stopIfTrue="1">
+    <cfRule type="expression" dxfId="431" priority="235" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="511" priority="236" stopIfTrue="1">
+    <cfRule type="expression" dxfId="430" priority="236" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="510" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="429" priority="237" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB23:IO23 S24:IO24">
-    <cfRule type="expression" dxfId="509" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="428" priority="238" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="508" priority="239" stopIfTrue="1">
+    <cfRule type="expression" dxfId="427" priority="239" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="507" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="426" priority="240" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB21:IO22">
-    <cfRule type="expression" dxfId="506" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="425" priority="241" stopIfTrue="1">
       <formula>$E15="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="505" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="424" priority="242" stopIfTrue="1">
       <formula>$E15="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="504" priority="243" stopIfTrue="1">
+    <cfRule type="expression" dxfId="423" priority="243" stopIfTrue="1">
       <formula>OR($E15="終了",$E15="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26:IO26">
-    <cfRule type="expression" dxfId="503" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="422" priority="250" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="502" priority="251" stopIfTrue="1">
+    <cfRule type="expression" dxfId="421" priority="251" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="501" priority="252" stopIfTrue="1">
+    <cfRule type="expression" dxfId="420" priority="252" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S44 AD44:IO45">
-    <cfRule type="expression" dxfId="500" priority="256" stopIfTrue="1">
+    <cfRule type="expression" dxfId="419" priority="256" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="499" priority="257" stopIfTrue="1">
+    <cfRule type="expression" dxfId="418" priority="257" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="258" stopIfTrue="1">
+    <cfRule type="expression" dxfId="417" priority="258" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S29:S30 Z28:IO30">
-    <cfRule type="expression" dxfId="497" priority="259" stopIfTrue="1">
+    <cfRule type="expression" dxfId="416" priority="259" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="260" stopIfTrue="1">
+    <cfRule type="expression" dxfId="415" priority="260" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="495" priority="261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="414" priority="261" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z32:IO33 V30:Y31">
-    <cfRule type="expression" dxfId="494" priority="262" stopIfTrue="1">
+    <cfRule type="expression" dxfId="413" priority="262" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="493" priority="263" stopIfTrue="1">
+    <cfRule type="expression" dxfId="412" priority="263" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="492" priority="264" stopIfTrue="1">
+    <cfRule type="expression" dxfId="411" priority="264" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z31:IO31 V29:Y29">
-    <cfRule type="expression" dxfId="491" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="410" priority="265" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="266" stopIfTrue="1">
+    <cfRule type="expression" dxfId="409" priority="266" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="489" priority="267" stopIfTrue="1">
+    <cfRule type="expression" dxfId="408" priority="267" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S42:S43 Z42:IO43">
-    <cfRule type="expression" dxfId="488" priority="283" stopIfTrue="1">
+    <cfRule type="expression" dxfId="407" priority="283" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="487" priority="284" stopIfTrue="1">
+    <cfRule type="expression" dxfId="406" priority="284" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="285" stopIfTrue="1">
+    <cfRule type="expression" dxfId="405" priority="285" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD49:IO49 T47:U47">
-    <cfRule type="expression" dxfId="485" priority="289" stopIfTrue="1">
+    <cfRule type="expression" dxfId="404" priority="289" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="290" stopIfTrue="1">
+    <cfRule type="expression" dxfId="403" priority="290" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="291" stopIfTrue="1">
+    <cfRule type="expression" dxfId="402" priority="291" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD51:IO51 T49:U49">
-    <cfRule type="expression" dxfId="479" priority="295" stopIfTrue="1">
+    <cfRule type="expression" dxfId="401" priority="295" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="296" stopIfTrue="1">
+    <cfRule type="expression" dxfId="400" priority="296" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="477" priority="297" stopIfTrue="1">
+    <cfRule type="expression" dxfId="399" priority="297" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD47:IO47 Z53:IO53 S53">
-    <cfRule type="expression" dxfId="476" priority="298" stopIfTrue="1">
+    <cfRule type="expression" dxfId="398" priority="298" stopIfTrue="1">
       <formula>$E24="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="475" priority="299" stopIfTrue="1">
+    <cfRule type="expression" dxfId="397" priority="299" stopIfTrue="1">
       <formula>$E24="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="474" priority="300" stopIfTrue="1">
+    <cfRule type="expression" dxfId="396" priority="300" stopIfTrue="1">
       <formula>OR($E24="終了",$E24="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S57 Z57:IO57 T55:Y55">
-    <cfRule type="expression" dxfId="473" priority="310" stopIfTrue="1">
+    <cfRule type="expression" dxfId="395" priority="310" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="472" priority="311" stopIfTrue="1">
+    <cfRule type="expression" dxfId="394" priority="311" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="471" priority="312" stopIfTrue="1">
+    <cfRule type="expression" dxfId="393" priority="312" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S54:S56 Z54:IO56 T52:Y54">
-    <cfRule type="expression" dxfId="470" priority="313" stopIfTrue="1">
+    <cfRule type="expression" dxfId="392" priority="313" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="469" priority="314" stopIfTrue="1">
+    <cfRule type="expression" dxfId="391" priority="314" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="468" priority="315" stopIfTrue="1">
+    <cfRule type="expression" dxfId="390" priority="315" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S58:S60 Z58:IO60 T56:Y58">
-    <cfRule type="expression" dxfId="467" priority="316" stopIfTrue="1">
+    <cfRule type="expression" dxfId="389" priority="316" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="466" priority="317" stopIfTrue="1">
+    <cfRule type="expression" dxfId="388" priority="317" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="465" priority="318" stopIfTrue="1">
+    <cfRule type="expression" dxfId="387" priority="318" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S61 Z61:IO61 T59:Y59">
-    <cfRule type="expression" dxfId="464" priority="322" stopIfTrue="1">
+    <cfRule type="expression" dxfId="386" priority="322" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="463" priority="323" stopIfTrue="1">
+    <cfRule type="expression" dxfId="385" priority="323" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="462" priority="324" stopIfTrue="1">
+    <cfRule type="expression" dxfId="384" priority="324" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17:IO17">
-    <cfRule type="expression" dxfId="461" priority="646" stopIfTrue="1">
+    <cfRule type="expression" dxfId="383" priority="646" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="647" stopIfTrue="1">
+    <cfRule type="expression" dxfId="382" priority="647" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="459" priority="648" stopIfTrue="1">
+    <cfRule type="expression" dxfId="381" priority="648" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:IO19">
-    <cfRule type="expression" dxfId="458" priority="679" stopIfTrue="1">
+    <cfRule type="expression" dxfId="380" priority="679" stopIfTrue="1">
       <formula>$E13="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="457" priority="680" stopIfTrue="1">
+    <cfRule type="expression" dxfId="379" priority="680" stopIfTrue="1">
       <formula>$E13="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="681" stopIfTrue="1">
+    <cfRule type="expression" dxfId="378" priority="681" stopIfTrue="1">
       <formula>OR($E13="終了",$E13="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z27:IO27">
-    <cfRule type="expression" dxfId="455" priority="718" stopIfTrue="1">
+    <cfRule type="expression" dxfId="377" priority="718" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="454" priority="719" stopIfTrue="1">
+    <cfRule type="expression" dxfId="376" priority="719" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="453" priority="720" stopIfTrue="1">
+    <cfRule type="expression" dxfId="375" priority="720" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S41 Z41:IO41 S35:S39 Z35:IO39">
-    <cfRule type="expression" dxfId="452" priority="814" stopIfTrue="1">
+    <cfRule type="expression" dxfId="374" priority="814" stopIfTrue="1">
       <formula>$E17="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="451" priority="815" stopIfTrue="1">
+    <cfRule type="expression" dxfId="373" priority="815" stopIfTrue="1">
       <formula>$E17="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="816" stopIfTrue="1">
+    <cfRule type="expression" dxfId="372" priority="816" stopIfTrue="1">
       <formula>OR($E17="終了",$E17="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S40 Z40:IO40">
-    <cfRule type="expression" dxfId="449" priority="871" stopIfTrue="1">
+    <cfRule type="expression" dxfId="371" priority="871" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="872" stopIfTrue="1">
+    <cfRule type="expression" dxfId="370" priority="872" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="447" priority="873" stopIfTrue="1">
+    <cfRule type="expression" dxfId="369" priority="873" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP21:XFD22 IP24:XFD25 IP28:XFD29">
-    <cfRule type="expression" dxfId="446" priority="922" stopIfTrue="1">
+    <cfRule type="expression" dxfId="368" priority="922" stopIfTrue="1">
       <formula>$D17="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="445" priority="923" stopIfTrue="1">
+    <cfRule type="expression" dxfId="367" priority="923" stopIfTrue="1">
       <formula>$D17="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="444" priority="924" stopIfTrue="1">
+    <cfRule type="expression" dxfId="366" priority="924" stopIfTrue="1">
       <formula>OR($D17="終了",$D17="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP57:XFD57">
-    <cfRule type="expression" dxfId="443" priority="952" stopIfTrue="1">
+    <cfRule type="expression" dxfId="365" priority="952" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="953" stopIfTrue="1">
+    <cfRule type="expression" dxfId="364" priority="953" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="441" priority="954" stopIfTrue="1">
+    <cfRule type="expression" dxfId="363" priority="954" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I203:M65439">
-    <cfRule type="expression" dxfId="440" priority="955" stopIfTrue="1">
+    <cfRule type="expression" dxfId="362" priority="955" stopIfTrue="1">
       <formula>$D203="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="439" priority="956" stopIfTrue="1">
+    <cfRule type="expression" dxfId="361" priority="956" stopIfTrue="1">
       <formula>$D203="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="957" stopIfTrue="1">
+    <cfRule type="expression" dxfId="360" priority="957" stopIfTrue="1">
       <formula>OR($D203="終了",$D203="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD48:IO48 T48:U48">
-    <cfRule type="expression" dxfId="434" priority="1048" stopIfTrue="1">
+    <cfRule type="expression" dxfId="359" priority="1048" stopIfTrue="1">
       <formula>$E24="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="1049" stopIfTrue="1">
+    <cfRule type="expression" dxfId="358" priority="1049" stopIfTrue="1">
       <formula>$E24="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="1050" stopIfTrue="1">
+    <cfRule type="expression" dxfId="357" priority="1050" stopIfTrue="1">
       <formula>OR($E24="終了",$E24="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP36:XFD36">
-    <cfRule type="expression" dxfId="431" priority="1063" stopIfTrue="1">
+    <cfRule type="expression" dxfId="356" priority="1063" stopIfTrue="1">
       <formula>$D38="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="1064" stopIfTrue="1">
+    <cfRule type="expression" dxfId="355" priority="1064" stopIfTrue="1">
       <formula>$D38="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="429" priority="1065" stopIfTrue="1">
+    <cfRule type="expression" dxfId="354" priority="1065" stopIfTrue="1">
       <formula>OR($D38="終了",$D38="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S25:IO25">
-    <cfRule type="expression" dxfId="428" priority="1177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="353" priority="1177" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="427" priority="1178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="352" priority="1178" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="1179" stopIfTrue="1">
+    <cfRule type="expression" dxfId="351" priority="1179" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD50:IO50">
-    <cfRule type="expression" dxfId="425" priority="1180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="350" priority="1180" stopIfTrue="1">
       <formula>$E24="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="1181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="349" priority="1181" stopIfTrue="1">
       <formula>$E24="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="423" priority="1182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="348" priority="1182" stopIfTrue="1">
       <formula>OR($E24="終了",$E24="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP6:XFD10">
-    <cfRule type="expression" dxfId="422" priority="1204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="347" priority="1204" stopIfTrue="1">
       <formula>$D8="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="1205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="346" priority="1205" stopIfTrue="1">
       <formula>$D8="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="1206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="345" priority="1206" stopIfTrue="1">
       <formula>OR($D8="終了",$D8="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP15:XFD17 IP11:XFD11">
-    <cfRule type="expression" dxfId="419" priority="1207" stopIfTrue="1">
+    <cfRule type="expression" dxfId="344" priority="1207" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="1208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="343" priority="1208" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="417" priority="1209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="342" priority="1209" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP12:XFD14">
-    <cfRule type="expression" dxfId="416" priority="1984" stopIfTrue="1">
+    <cfRule type="expression" dxfId="341" priority="1984" stopIfTrue="1">
       <formula>$D13="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="415" priority="1985" stopIfTrue="1">
+    <cfRule type="expression" dxfId="340" priority="1985" stopIfTrue="1">
       <formula>$D13="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="1986" stopIfTrue="1">
+    <cfRule type="expression" dxfId="339" priority="1986" stopIfTrue="1">
       <formula>OR($D13="終了",$D13="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:IO8 C7:R7 S11:IO11 I11 I15 I19 I23 I27 I31 I35 K28:R28 K35:R35">
-    <cfRule type="expression" dxfId="413" priority="1987" stopIfTrue="1">
+    <cfRule type="expression" dxfId="338" priority="1987" stopIfTrue="1">
       <formula>$E8="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="1988" stopIfTrue="1">
+    <cfRule type="expression" dxfId="337" priority="1988" stopIfTrue="1">
       <formula>$E8="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="1989" stopIfTrue="1">
+    <cfRule type="expression" dxfId="336" priority="1989" stopIfTrue="1">
       <formula>OR($E8="終了",$E8="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP23:XFD23 IP48:XFD56">
-    <cfRule type="expression" dxfId="410" priority="2011" stopIfTrue="1">
+    <cfRule type="expression" dxfId="335" priority="2011" stopIfTrue="1">
       <formula>$D18="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="409" priority="2012" stopIfTrue="1">
+    <cfRule type="expression" dxfId="334" priority="2012" stopIfTrue="1">
       <formula>$D18="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="2013" stopIfTrue="1">
+    <cfRule type="expression" dxfId="333" priority="2013" stopIfTrue="1">
       <formula>OR($D18="終了",$D18="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD46:IO46">
-    <cfRule type="expression" dxfId="407" priority="2047" stopIfTrue="1">
+    <cfRule type="expression" dxfId="332" priority="2047" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="2048" stopIfTrue="1">
+    <cfRule type="expression" dxfId="331" priority="2048" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="2049" stopIfTrue="1">
+    <cfRule type="expression" dxfId="330" priority="2049" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP26:XFD26 IP35:XFD35">
-    <cfRule type="expression" dxfId="404" priority="2065" stopIfTrue="1">
+    <cfRule type="expression" dxfId="329" priority="2065" stopIfTrue="1">
       <formula>$D23="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="2066" stopIfTrue="1">
+    <cfRule type="expression" dxfId="328" priority="2066" stopIfTrue="1">
       <formula>$D23="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="2067" stopIfTrue="1">
+    <cfRule type="expression" dxfId="327" priority="2067" stopIfTrue="1">
       <formula>OR($D23="終了",$D23="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP27:XFD27">
-    <cfRule type="expression" dxfId="401" priority="2071" stopIfTrue="1">
+    <cfRule type="expression" dxfId="326" priority="2071" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="2072" stopIfTrue="1">
+    <cfRule type="expression" dxfId="325" priority="2072" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="399" priority="2073" stopIfTrue="1">
+    <cfRule type="expression" dxfId="324" priority="2073" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="398" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="323" priority="52" stopIfTrue="1">
       <formula>$E7="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="322" priority="53" stopIfTrue="1">
       <formula>$E7="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="321" priority="54" stopIfTrue="1">
       <formula>OR($E7="終了",$E7="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP31:XFD31">
-    <cfRule type="expression" dxfId="395" priority="2170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="320" priority="2170" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="2171" stopIfTrue="1">
+    <cfRule type="expression" dxfId="319" priority="2171" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="2172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="318" priority="2172" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP38:XFD39">
-    <cfRule type="expression" dxfId="392" priority="2278" stopIfTrue="1">
+    <cfRule type="expression" dxfId="317" priority="2278" stopIfTrue="1">
       <formula>$D33="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="391" priority="2279" stopIfTrue="1">
+    <cfRule type="expression" dxfId="316" priority="2279" stopIfTrue="1">
       <formula>$D33="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="2280" stopIfTrue="1">
+    <cfRule type="expression" dxfId="315" priority="2280" stopIfTrue="1">
       <formula>OR($D33="終了",$D33="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP42:XFD42">
-    <cfRule type="expression" dxfId="389" priority="2296" stopIfTrue="1">
+    <cfRule type="expression" dxfId="314" priority="2296" stopIfTrue="1">
       <formula>$D26="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="2297" stopIfTrue="1">
+    <cfRule type="expression" dxfId="313" priority="2297" stopIfTrue="1">
       <formula>$D26="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="2298" stopIfTrue="1">
+    <cfRule type="expression" dxfId="312" priority="2298" stopIfTrue="1">
       <formula>OR($D26="終了",$D26="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP41:XFD41">
-    <cfRule type="expression" dxfId="386" priority="2320" stopIfTrue="1">
+    <cfRule type="expression" dxfId="311" priority="2320" stopIfTrue="1">
       <formula>$D35="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="2321" stopIfTrue="1">
+    <cfRule type="expression" dxfId="310" priority="2321" stopIfTrue="1">
       <formula>$D35="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="2322" stopIfTrue="1">
+    <cfRule type="expression" dxfId="309" priority="2322" stopIfTrue="1">
       <formula>OR($D35="終了",$D35="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP32:XFD33">
-    <cfRule type="expression" dxfId="383" priority="3046" stopIfTrue="1">
+    <cfRule type="expression" dxfId="308" priority="3046" stopIfTrue="1">
       <formula>$D29="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="3047" stopIfTrue="1">
+    <cfRule type="expression" dxfId="307" priority="3047" stopIfTrue="1">
       <formula>$D29="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="3048" stopIfTrue="1">
+    <cfRule type="expression" dxfId="306" priority="3048" stopIfTrue="1">
       <formula>OR($D29="終了",$D29="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP30:XFD30">
-    <cfRule type="expression" dxfId="380" priority="3061" stopIfTrue="1">
+    <cfRule type="expression" dxfId="305" priority="3061" stopIfTrue="1">
       <formula>$D28="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="3062" stopIfTrue="1">
+    <cfRule type="expression" dxfId="304" priority="3062" stopIfTrue="1">
       <formula>$D28="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="3063" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="3063" stopIfTrue="1">
       <formula>OR($D28="終了",$D28="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP40:XFD40">
-    <cfRule type="expression" dxfId="377" priority="3085" stopIfTrue="1">
+    <cfRule type="expression" dxfId="302" priority="3085" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="3086" stopIfTrue="1">
+    <cfRule type="expression" dxfId="301" priority="3086" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="3087" stopIfTrue="1">
+    <cfRule type="expression" dxfId="300" priority="3087" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="expression" dxfId="374" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="22" stopIfTrue="1">
       <formula>$E62="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="298" priority="23" stopIfTrue="1">
       <formula>$E62="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="297" priority="24" stopIfTrue="1">
       <formula>OR($E62="終了",$E62="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62:D62 F62">
-    <cfRule type="expression" dxfId="371" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="296" priority="25" stopIfTrue="1">
       <formula>$E62="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="26" stopIfTrue="1">
       <formula>$E62="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="294" priority="27" stopIfTrue="1">
       <formula>OR($E62="終了",$E62="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP44:XFD44">
-    <cfRule type="expression" dxfId="365" priority="3739" stopIfTrue="1">
+    <cfRule type="expression" dxfId="293" priority="3739" stopIfTrue="1">
       <formula>$D39="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="3740" stopIfTrue="1">
+    <cfRule type="expression" dxfId="292" priority="3740" stopIfTrue="1">
       <formula>$D39="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="3741" stopIfTrue="1">
+    <cfRule type="expression" dxfId="291" priority="3741" stopIfTrue="1">
       <formula>OR($D39="終了",$D39="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP43:XFD43">
-    <cfRule type="expression" dxfId="362" priority="3760" stopIfTrue="1">
+    <cfRule type="expression" dxfId="290" priority="3760" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="3761" stopIfTrue="1">
+    <cfRule type="expression" dxfId="289" priority="3761" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="3762" stopIfTrue="1">
+    <cfRule type="expression" dxfId="288" priority="3762" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP45:XFD47">
-    <cfRule type="expression" dxfId="359" priority="3823" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="3823" stopIfTrue="1">
       <formula>$D41="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="3824" stopIfTrue="1">
+    <cfRule type="expression" dxfId="286" priority="3824" stopIfTrue="1">
       <formula>$D41="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="3825" stopIfTrue="1">
+    <cfRule type="expression" dxfId="285" priority="3825" stopIfTrue="1">
       <formula>OR($D41="終了",$D41="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="expression" dxfId="356" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="284" priority="13" stopIfTrue="1">
       <formula>$E37="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="283" priority="14" stopIfTrue="1">
       <formula>$E37="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="282" priority="15" stopIfTrue="1">
       <formula>OR($E37="終了",$E37="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP34:XFD34">
-    <cfRule type="expression" dxfId="353" priority="3922" stopIfTrue="1">
+    <cfRule type="expression" dxfId="281" priority="3922" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="3923" stopIfTrue="1">
+    <cfRule type="expression" dxfId="280" priority="3923" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="351" priority="3924" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="3924" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP37:XFD37">
-    <cfRule type="expression" dxfId="350" priority="3961" stopIfTrue="1">
+    <cfRule type="expression" dxfId="278" priority="3961" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="3962" stopIfTrue="1">
+    <cfRule type="expression" dxfId="277" priority="3962" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="3963" stopIfTrue="1">
+    <cfRule type="expression" dxfId="276" priority="3963" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S34 Z34:IO34 T32:Y32">
-    <cfRule type="expression" dxfId="347" priority="1150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="1150" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="1151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="274" priority="1151" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="1152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="273" priority="1152" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP18:XFD20">
-    <cfRule type="expression" dxfId="344" priority="1156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="272" priority="1156" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="1157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="1157" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="1158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="270" priority="1158" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="expression" dxfId="341" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="269" priority="10" stopIfTrue="1">
       <formula>$E122="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="268" priority="11" stopIfTrue="1">
       <formula>$E122="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="12" stopIfTrue="1">
       <formula>OR($E122="終了",$E122="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C124">
-    <cfRule type="expression" dxfId="338" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="266" priority="7" stopIfTrue="1">
       <formula>$E123="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="265" priority="8" stopIfTrue="1">
       <formula>$E123="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="264" priority="9" stopIfTrue="1">
       <formula>OR($E123="終了",$E123="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C125">
-    <cfRule type="expression" dxfId="335" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="4" stopIfTrue="1">
       <formula>$E124="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="262" priority="5" stopIfTrue="1">
       <formula>$E124="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="261" priority="6" stopIfTrue="1">
       <formula>OR($E124="終了",$E124="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C126">
-    <cfRule type="expression" dxfId="332" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="260" priority="1" stopIfTrue="1">
       <formula>$E125="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="2" stopIfTrue="1">
       <formula>$E125="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="3" stopIfTrue="1">
       <formula>OR($E125="終了",$E125="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T45:U45 T51:Y51">
-    <cfRule type="expression" dxfId="329" priority="3994" stopIfTrue="1">
+    <cfRule type="expression" dxfId="257" priority="3994" stopIfTrue="1">
       <formula>$E24="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="3995" stopIfTrue="1">
+    <cfRule type="expression" dxfId="256" priority="3995" stopIfTrue="1">
       <formula>$E24="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="3996" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="3996" stopIfTrue="1">
       <formula>OR($E24="終了",$E24="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T46:U46">
-    <cfRule type="expression" dxfId="326" priority="4021" stopIfTrue="1">
+    <cfRule type="expression" dxfId="254" priority="4021" stopIfTrue="1">
       <formula>$E24="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="4022" stopIfTrue="1">
+    <cfRule type="expression" dxfId="253" priority="4022" stopIfTrue="1">
       <formula>$E24="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="4023" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="4023" stopIfTrue="1">
       <formula>OR($E24="終了",$E24="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T33:Y35">
-    <cfRule type="expression" dxfId="323" priority="4030" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="4030" stopIfTrue="1">
       <formula>$E17="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="4031" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="4031" stopIfTrue="1">
       <formula>$E17="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="4032" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="4032" stopIfTrue="1">
       <formula>OR($E17="終了",$E17="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32802,45 +32231,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="99" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="105" t="s">
+      <c r="C1" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="102" t="s">
+      <c r="F1" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="102" t="s">
+      <c r="G1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="I1" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="99" t="s">
+      <c r="J1" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="110" t="s">
+      <c r="K1" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
       <c r="R1" s="71"/>
       <c r="S1" s="71"/>
       <c r="T1" s="71"/>
@@ -32848,16 +32277,16 @@
       <c r="V1" s="71"/>
     </row>
     <row r="2" spans="1:22" s="8" customFormat="1">
-      <c r="A2" s="99"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="100"/>
       <c r="K2" s="23" t="s">
         <v>140</v>
       </c>
@@ -32881,31 +32310,31 @@
       </c>
     </row>
     <row r="3" spans="1:22" s="8" customFormat="1">
-      <c r="A3" s="99"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="99"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="100"/>
       <c r="K3" s="20">
         <f>INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$Q$2))))</f>
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L3" s="20">
         <f t="shared" ref="L3:Q3" si="0">INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$Q$2))))</f>
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M3" s="20">
         <f t="shared" si="0"/>
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N3" s="20">
         <f t="shared" si="0"/>
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O3" s="20">
         <f t="shared" si="0"/>
@@ -32913,7 +32342,7 @@
       </c>
       <c r="P3" s="20">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q3" s="20">
         <f t="shared" si="0"/>
@@ -32921,19 +32350,19 @@
       </c>
     </row>
     <row r="4" spans="1:22" s="8" customFormat="1">
-      <c r="A4" s="99"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="99"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="100"/>
       <c r="K4" s="21">
         <f>SUM(K5:K200)</f>
-        <v>235</v>
+        <v>233.5</v>
       </c>
       <c r="L4" s="21">
         <f t="shared" ref="L4:Q4" si="1">SUM(L5:L45)</f>
@@ -33259,7 +32688,7 @@
       <c r="A14" s="16">
         <v>10</v>
       </c>
-      <c r="B14" s="111"/>
+      <c r="B14" s="97"/>
       <c r="C14" s="83"/>
       <c r="D14" s="83"/>
       <c r="E14" s="84"/>
@@ -34292,7 +33721,7 @@
         <v>66</v>
       </c>
       <c r="V39" s="10">
-        <f t="shared" ref="V38:V43" ca="1" si="9">T39-U39</f>
+        <f t="shared" ref="V39:V43" ca="1" si="9">T39-U39</f>
         <v>2</v>
       </c>
       <c r="W39" s="14">
@@ -34459,18 +33888,18 @@
       </c>
       <c r="U42" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>20.5</v>
+        <v>19</v>
       </c>
       <c r="V42" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="W42" s="14">
         <v>0</v>
       </c>
       <c r="X42" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>20.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -36463,7 +35892,7 @@
       <c r="C96" s="18"/>
       <c r="D96" s="18"/>
       <c r="E96" s="12" t="str">
-        <f t="shared" ref="E79:E142" si="14">IF(ISBLANK($B96),"",IF(ISBLANK($G96),"未着手",IF($J96=0,"完了","作業中")))</f>
+        <f t="shared" ref="E96:E142" si="14">IF(ISBLANK($B96),"",IF(ISBLANK($G96),"未着手",IF($J96=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F96" s="4"/>
@@ -36471,7 +35900,7 @@
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
       <c r="J96" s="12" t="str">
-        <f t="shared" ref="J48:J111" ca="1" si="15">IF(ISBLANK(K96)=FALSE,OFFSET(J96,0,COUNTA(K96:Q96)),"")</f>
+        <f t="shared" ref="J96:J111" ca="1" si="15">IF(ISBLANK(K96)=FALSE,OFFSET(J96,0,COUNTA(K96:Q96)),"")</f>
         <v/>
       </c>
       <c r="K96" s="22"/>
@@ -36523,7 +35952,7 @@
       </c>
       <c r="E98" s="12" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F98" s="4">
         <v>43104</v>
@@ -36535,14 +35964,14 @@
         <v>3</v>
       </c>
       <c r="I98" s="19">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="J98" s="12">
         <f t="shared" ca="1" si="15"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K98" s="22">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="L98" s="22"/>
       <c r="M98" s="22"/>
@@ -37037,7 +36466,7 @@
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
       <c r="J112" s="12" t="str">
-        <f t="shared" ref="J112:J118" ca="1" si="17">IF(ISBLANK(K112)=FALSE,OFFSET(J112,0,COUNTA(K112:Q112)),"")</f>
+        <f t="shared" ref="J112" ca="1" si="17">IF(ISBLANK(K112)=FALSE,OFFSET(J112,0,COUNTA(K112:Q112)),"")</f>
         <v/>
       </c>
       <c r="K112" s="22"/>
@@ -37063,7 +36492,7 @@
       <c r="H113" s="77"/>
       <c r="I113" s="77"/>
       <c r="J113" s="75" t="str">
-        <f t="shared" ref="J113:J125" ca="1" si="18">IF(ISBLANK(K113)=FALSE,OFFSET(J113,0,COUNTA(K113:R113)),"")</f>
+        <f t="shared" ref="J113:J120" ca="1" si="18">IF(ISBLANK(K113)=FALSE,OFFSET(J113,0,COUNTA(K113:R113)),"")</f>
         <v/>
       </c>
       <c r="K113" s="78"/>
@@ -37349,7 +36778,7 @@
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
       <c r="J121" s="12" t="str">
-        <f t="shared" ref="J119:J182" ca="1" si="20">IF(ISBLANK(K121)=FALSE,OFFSET(J121,0,COUNTA(K121:Q121)),"")</f>
+        <f t="shared" ref="J121:J182" ca="1" si="20">IF(ISBLANK(K121)=FALSE,OFFSET(J121,0,COUNTA(K121:Q121)),"")</f>
         <v/>
       </c>
       <c r="K121" s="22"/>
@@ -39682,827 +39111,827 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D205:D65389">
-    <cfRule type="expression" dxfId="308" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="196" stopIfTrue="1">
       <formula>D205="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="197" stopIfTrue="1">
       <formula>D205="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="198" stopIfTrue="1">
       <formula>OR(D205="終了",D205="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO5:XFD5">
-    <cfRule type="expression" dxfId="305" priority="199" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="199" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="200" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="201" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="201" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B205:B65389">
-    <cfRule type="expression" dxfId="302" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="202" stopIfTrue="1">
       <formula>D205="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="203" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="203" stopIfTrue="1">
       <formula>D205="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="204" stopIfTrue="1">
       <formula>OR(D205="終了",D205="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C205:C65389">
-    <cfRule type="expression" dxfId="299" priority="205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="205" stopIfTrue="1">
       <formula>D205="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="206" stopIfTrue="1">
       <formula>D205="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="207" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="207" stopIfTrue="1">
       <formula>OR(D205="終了",D205="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E205:J65389">
-    <cfRule type="expression" dxfId="296" priority="208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="208" stopIfTrue="1">
       <formula>$D205="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="209" stopIfTrue="1">
       <formula>$D205="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="210" stopIfTrue="1">
       <formula>OR($D205="終了",$D205="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:Q6 B7:Q7 D9 D11 C10 B11 E10:I10 A14:I15 A7:A12 A5:IN5 J8:J15 A96:J96 A16:A95 A100:J100 I98:J99 A97:A99 C97:J97 A101:A111 I101:J111 A112:J112 A126:J204 A113:A125 I121:J125 I17:J95 K8:Q204">
-    <cfRule type="expression" dxfId="2" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="127" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="128" stopIfTrue="1">
       <formula>$E5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="129" stopIfTrue="1">
       <formula>OR($E5="終了",$E5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:IN6">
-    <cfRule type="expression" dxfId="293" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="133" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="134" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="135" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9:IN10">
-    <cfRule type="expression" dxfId="290" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="136" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="137" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="138" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:IN12 R14:IN15 S13:IN13">
-    <cfRule type="expression" dxfId="287" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="139" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="140" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="141" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA19:IN19">
-    <cfRule type="expression" dxfId="284" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="142" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="143" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="144" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R22:IN23 AA21:IN21">
-    <cfRule type="expression" dxfId="281" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="145" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="146" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="147" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R24:IN24">
-    <cfRule type="expression" dxfId="278" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="151" stopIfTrue="1">
       <formula>$E7="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="152" stopIfTrue="1">
       <formula>$E7="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="153" stopIfTrue="1">
       <formula>OR($E7="終了",$E7="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R25:IN25">
-    <cfRule type="expression" dxfId="275" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="154" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="155" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="155" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="156" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R43 AC43:IN44 S44:T44">
-    <cfRule type="expression" dxfId="272" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="157" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="158" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="159" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R29:R30 Y27:IN30">
-    <cfRule type="expression" dxfId="269" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="160" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="161" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="162" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U32:IN33">
-    <cfRule type="expression" dxfId="266" priority="163" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="163" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="164" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="165" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U31:IN31">
-    <cfRule type="expression" dxfId="263" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="166" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="167" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="168" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R41:R42 Y41:IN42">
-    <cfRule type="expression" dxfId="260" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="169" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="170" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="171" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="171" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC48:IN48 S48:T48">
-    <cfRule type="expression" dxfId="257" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="172" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="173" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="174" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC50:IN50 S50:T50">
-    <cfRule type="expression" dxfId="254" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="178" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="179" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="179" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="180" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R56:IN56">
-    <cfRule type="expression" dxfId="251" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="184" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="185" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="186" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R53:IN55">
-    <cfRule type="expression" dxfId="248" priority="187" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="187" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="188" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="189" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R57:IN58">
-    <cfRule type="expression" dxfId="245" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="190" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="191" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="191" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="192" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R59:IN59">
-    <cfRule type="expression" dxfId="242" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="193" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="194" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="195" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="195" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16:IN16">
-    <cfRule type="expression" dxfId="239" priority="211" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="211" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="212" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="213" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y26:IN26">
-    <cfRule type="expression" dxfId="236" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="217" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="218" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="219" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="219" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R39 Y39:IN39">
-    <cfRule type="expression" dxfId="233" priority="226" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="226" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="227" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="227" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="228" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="228" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO56:XFD56">
-    <cfRule type="expression" dxfId="230" priority="235" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="235" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="236" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="236" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="237" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO43:XFD43">
-    <cfRule type="expression" dxfId="227" priority="253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="253" stopIfTrue="1">
       <formula>$D14="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="254" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="254" stopIfTrue="1">
       <formula>$D14="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="255" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="255" stopIfTrue="1">
       <formula>OR($D14="終了",$D14="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9 B8:E8 E11:E12 B9:C9 E9 D10 D12 B10 C11:C12 B12 H12">
-    <cfRule type="expression" dxfId="224" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="100" stopIfTrue="1">
       <formula>$E8="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="101" stopIfTrue="1">
       <formula>$E8="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="102" stopIfTrue="1">
       <formula>OR($E8="終了",$E8="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8 H11">
-    <cfRule type="expression" dxfId="221" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="97" stopIfTrue="1">
       <formula>$E8="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="98" stopIfTrue="1">
       <formula>$E8="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="99" stopIfTrue="1">
       <formula>OR($E8="終了",$E8="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9 F12:G12">
-    <cfRule type="expression" dxfId="218" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="94" stopIfTrue="1">
       <formula>$E9="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="95" stopIfTrue="1">
       <formula>$E9="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="96" stopIfTrue="1">
       <formula>OR($E9="終了",$E9="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:G8 F11:G11">
-    <cfRule type="expression" dxfId="215" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="91" stopIfTrue="1">
       <formula>$E8="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="92" stopIfTrue="1">
       <formula>$E8="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="93" stopIfTrue="1">
       <formula>OR($E8="終了",$E8="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:IN11 R7:IN8">
-    <cfRule type="expression" dxfId="212" priority="1252" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="1252" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="1253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="1253" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="1254" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="1254" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA20:IN20">
-    <cfRule type="expression" dxfId="209" priority="1267" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="1267" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="1268" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="1268" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="1269" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="1269" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA17:IN18">
-    <cfRule type="expression" dxfId="206" priority="1282" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="1282" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="1283" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="1283" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="1284" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="1284" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO6:XFD14">
-    <cfRule type="expression" dxfId="203" priority="1297" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="1297" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="1298" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="1298" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="1299" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="1299" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO15:XFD15">
-    <cfRule type="expression" dxfId="200" priority="1327" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="1327" stopIfTrue="1">
       <formula>$D7="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="1328" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="1328" stopIfTrue="1">
       <formula>$D7="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="1329" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="1329" stopIfTrue="1">
       <formula>OR($D7="終了",$D7="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO16:XFD16">
-    <cfRule type="expression" dxfId="197" priority="1330" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="1330" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="1331" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="1331" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="1332" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="1332" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R52:IN52 AC45:IN46 S45:T46">
-    <cfRule type="expression" dxfId="194" priority="1342" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="1342" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="1343" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="1343" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="1344" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="1344" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA51:IN51 S51:T51">
-    <cfRule type="expression" dxfId="191" priority="1351" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="1351" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="1352" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="1352" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="1353" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="1353" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40 Y40:IN40 R35:IN36">
-    <cfRule type="expression" dxfId="188" priority="1357" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="1357" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="1358" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="1358" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="1359" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="1359" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R37:R38 Y37:IN38">
-    <cfRule type="expression" dxfId="185" priority="1366" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="1366" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="1367" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="1367" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="1368" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="1368" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO20:XFD42">
-    <cfRule type="expression" dxfId="182" priority="1372" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="1372" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="1373" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="1373" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="1374" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="1374" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC47:IN47 S47:T47">
-    <cfRule type="expression" dxfId="179" priority="1375" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="1375" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="1376" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="1376" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="1377" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="1377" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S49:T49 AC49:IN49">
-    <cfRule type="expression" dxfId="176" priority="1384" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="1384" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="1385" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="1385" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="1386" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="1386" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K205:K65388">
-    <cfRule type="expression" dxfId="173" priority="1411" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="1411" stopIfTrue="1">
       <formula>$D206="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="1412" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="1412" stopIfTrue="1">
       <formula>$D206="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="1413" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="1413" stopIfTrue="1">
       <formula>OR($D206="終了",$D206="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L205:M65387">
-    <cfRule type="expression" dxfId="170" priority="1501" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="1501" stopIfTrue="1">
       <formula>$D207="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="1502" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="1502" stopIfTrue="1">
       <formula>$D207="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="1503" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="1503" stopIfTrue="1">
       <formula>OR($D207="終了",$D207="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO47:XFD55">
-    <cfRule type="expression" dxfId="167" priority="1789" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="1789" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="1790" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="1790" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="1791" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="1791" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO44:XFD46">
-    <cfRule type="expression" dxfId="164" priority="1798" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="1798" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="1799" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="1799" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="1800" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="1800" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:I13 A13:E13 R13">
-    <cfRule type="expression" dxfId="161" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="76" stopIfTrue="1">
       <formula>$E13="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="77" stopIfTrue="1">
       <formula>$E13="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="78" stopIfTrue="1">
       <formula>OR($E13="終了",$E13="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="158" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="73" stopIfTrue="1">
       <formula>$E13="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="74" stopIfTrue="1">
       <formula>$E13="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="75" stopIfTrue="1">
       <formula>OR($E13="終了",$E13="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I9 I11:I12">
-    <cfRule type="expression" dxfId="155" priority="256" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="256" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="257" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="257" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="258" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="258" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R34:IN34">
-    <cfRule type="expression" dxfId="152" priority="259" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="259" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="260" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="260" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="261" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO17:XFD19">
-    <cfRule type="expression" dxfId="149" priority="262" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="262" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="263" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="263" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="264" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="264" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:J16">
-    <cfRule type="expression" dxfId="143" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="67" stopIfTrue="1">
       <formula>$E16="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="68" stopIfTrue="1">
       <formula>$E16="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="69" stopIfTrue="1">
       <formula>OR($E16="終了",$E16="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:H25">
-    <cfRule type="expression" dxfId="116" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="61" stopIfTrue="1">
       <formula>$E18="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="62" stopIfTrue="1">
       <formula>$E18="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="63" stopIfTrue="1">
       <formula>OR($E18="終了",$E18="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:H17">
-    <cfRule type="expression" dxfId="113" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="64" stopIfTrue="1">
       <formula>$E18="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="65" stopIfTrue="1">
       <formula>$E18="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="66" stopIfTrue="1">
       <formula>OR($E18="終了",$E18="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="110" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="58" stopIfTrue="1">
       <formula>$E17="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="59" stopIfTrue="1">
       <formula>$E17="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="60" stopIfTrue="1">
       <formula>OR($E17="終了",$E17="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:H31">
-    <cfRule type="expression" dxfId="107" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="55" stopIfTrue="1">
       <formula>$E26="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="56" stopIfTrue="1">
       <formula>$E26="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="57" stopIfTrue="1">
       <formula>OR($E26="終了",$E26="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:H35">
-    <cfRule type="expression" dxfId="101" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="52" stopIfTrue="1">
       <formula>$E32="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="53" stopIfTrue="1">
       <formula>$E32="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="54" stopIfTrue="1">
       <formula>OR($E32="終了",$E32="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:H39">
-    <cfRule type="expression" dxfId="98" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="49" stopIfTrue="1">
       <formula>$E36="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="50" stopIfTrue="1">
       <formula>$E36="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="51" stopIfTrue="1">
       <formula>OR($E36="終了",$E36="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:E46 H46 B40:H45 B47:H47">
-    <cfRule type="expression" dxfId="95" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="46" stopIfTrue="1">
       <formula>$E40="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="47" stopIfTrue="1">
       <formula>$E40="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="48" stopIfTrue="1">
       <formula>OR($E40="終了",$E40="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="expression" dxfId="92" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="40" stopIfTrue="1">
       <formula>$E46="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="41" stopIfTrue="1">
       <formula>$E46="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="42" stopIfTrue="1">
       <formula>OR($E46="終了",$E46="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:H50">
-    <cfRule type="expression" dxfId="86" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="37" stopIfTrue="1">
       <formula>$E50="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="38" stopIfTrue="1">
       <formula>$E50="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="39" stopIfTrue="1">
       <formula>OR($E50="終了",$E50="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:H49">
-    <cfRule type="expression" dxfId="77" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="34" stopIfTrue="1">
       <formula>$E48="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="35" stopIfTrue="1">
       <formula>$E48="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="36" stopIfTrue="1">
       <formula>OR($E48="終了",$E48="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91:B95 D91:D95 B51:D90 E51:H95">
-    <cfRule type="expression" dxfId="53" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="28" stopIfTrue="1">
       <formula>$E51="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="29" stopIfTrue="1">
       <formula>$E51="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="30" stopIfTrue="1">
       <formula>OR($E51="終了",$E51="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92">
-    <cfRule type="expression" dxfId="50" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="31" stopIfTrue="1">
       <formula>$E91="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="32" stopIfTrue="1">
       <formula>$E91="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="33" stopIfTrue="1">
       <formula>OR($E91="終了",$E91="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91">
-    <cfRule type="expression" dxfId="47" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="25" stopIfTrue="1">
       <formula>$E91="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="26" stopIfTrue="1">
       <formula>$E91="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="27" stopIfTrue="1">
       <formula>OR($E91="終了",$E91="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93">
-    <cfRule type="expression" dxfId="44" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="22" stopIfTrue="1">
       <formula>$E92="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="23" stopIfTrue="1">
       <formula>$E92="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="24" stopIfTrue="1">
       <formula>OR($E92="終了",$E92="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C94">
-    <cfRule type="expression" dxfId="41" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="19" stopIfTrue="1">
       <formula>$E93="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="20" stopIfTrue="1">
       <formula>$E93="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="21" stopIfTrue="1">
       <formula>OR($E93="終了",$E93="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C95">
-    <cfRule type="expression" dxfId="38" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="16" stopIfTrue="1">
       <formula>$E94="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="17" stopIfTrue="1">
       <formula>$E94="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="18" stopIfTrue="1">
       <formula>OR($E94="終了",$E94="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B98:H99">
-    <cfRule type="expression" dxfId="35" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="13" stopIfTrue="1">
       <formula>$E98="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="14" stopIfTrue="1">
       <formula>$E98="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="15" stopIfTrue="1">
       <formula>OR($E98="終了",$E98="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97">
-    <cfRule type="expression" dxfId="32" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="10" stopIfTrue="1">
       <formula>$E97="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="11" stopIfTrue="1">
       <formula>$E97="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="12" stopIfTrue="1">
       <formula>OR($E97="終了",$E97="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101:H111">
-    <cfRule type="expression" dxfId="29" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
       <formula>$E101="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
       <formula>$E101="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="9" stopIfTrue="1">
       <formula>OR($E101="終了",$E101="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40518,13 +39947,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:H125">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
       <formula>$E121="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
       <formula>$E121="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
       <formula>OR($E121="終了",$E121="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41413,13 +40842,13 @@
   <autoFilter ref="B1:K51"/>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="A2:K51">
-    <cfRule type="expression" dxfId="83" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>$D2="要望"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$D2="確認済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$D2="対応"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Godlibrary/BackLog.xlsx
+++ b/Godlibrary/BackLog.xlsx
@@ -656,7 +656,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="336">
   <si>
     <t>担当者</t>
   </si>
@@ -4129,6 +4129,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4136,12 +4142,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4154,7 +4154,28 @@
     <cellStyle name="標準_チーム編成_スプリントバックログ（第４）" xfId="2"/>
     <cellStyle name="標準_バグシート" xfId="3"/>
   </cellStyles>
-  <dxfs count="732">
+  <dxfs count="723">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -4218,615 +4239,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="55"/>
       </font>
     </dxf>
@@ -4883,6 +4295,34 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color indexed="55"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="22"/>
       </font>
     </dxf>
@@ -4899,6 +4339,524 @@
         <extend val="0"/>
         <color indexed="10"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="55"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="55"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -18683,57 +18641,57 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D105:D65536">
-    <cfRule type="expression" dxfId="731" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="722" priority="1" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="730" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="721" priority="2" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="729" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="720" priority="3" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD104">
-    <cfRule type="expression" dxfId="728" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="719" priority="4" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="727" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="718" priority="5" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="726" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="717" priority="6" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="725" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="716" priority="7" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="724" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="715" priority="8" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="723" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="714" priority="9" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="722" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="713" priority="10" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="721" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="712" priority="11" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="720" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="711" priority="12" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:P65536">
-    <cfRule type="expression" dxfId="719" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="710" priority="13" stopIfTrue="1">
       <formula>$D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="718" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="709" priority="14" stopIfTrue="1">
       <formula>$D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="717" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="708" priority="15" stopIfTrue="1">
       <formula>OR($D105="終了",$D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18750,7 +18708,7 @@
   <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -18787,7 +18745,7 @@
       <c r="C1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="108" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="100" t="s">
@@ -18811,8 +18769,8 @@
       <c r="K1" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="109"/>
-      <c r="M1" s="110"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="107"/>
       <c r="N1" s="71"/>
       <c r="O1" s="71"/>
       <c r="P1" s="71"/>
@@ -18827,7 +18785,7 @@
       <c r="A2" s="100"/>
       <c r="B2" s="101"/>
       <c r="C2" s="101"/>
-      <c r="D2" s="107"/>
+      <c r="D2" s="109"/>
       <c r="E2" s="100"/>
       <c r="F2" s="103"/>
       <c r="G2" s="103"/>
@@ -18848,7 +18806,7 @@
       <c r="A3" s="100"/>
       <c r="B3" s="101"/>
       <c r="C3" s="101"/>
-      <c r="D3" s="107"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="100"/>
       <c r="F3" s="103"/>
       <c r="G3" s="103"/>
@@ -18872,7 +18830,7 @@
       <c r="A4" s="100"/>
       <c r="B4" s="101"/>
       <c r="C4" s="102"/>
-      <c r="D4" s="108"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="100"/>
       <c r="F4" s="103"/>
       <c r="G4" s="103"/>
@@ -18889,7 +18847,7 @@
       </c>
       <c r="M4" s="21">
         <f>SUM(M5:M76)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -19164,7 +19122,7 @@
       </c>
       <c r="E13" s="12" t="str">
         <f ca="1">IF(ISBLANK($B13),"",IF(ISBLANK($G13),"未着手",IF($J13=0,"完了","作業中")))</f>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F13" s="85">
         <v>43088</v>
@@ -19180,7 +19138,7 @@
       </c>
       <c r="J13" s="84">
         <f ca="1">IF(ISBLANK(K13)=FALSE,OFFSET(J13,0,COUNTA(K13:M13)),"")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K13" s="22">
         <v>6</v>
@@ -19189,7 +19147,7 @@
         <v>4</v>
       </c>
       <c r="M13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -20288,18 +20246,18 @@
       </c>
       <c r="Q40" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R40" s="10">
         <f t="shared" ref="R40:R44" ca="1" si="5">P40-Q40</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="S40" s="14">
         <v>0</v>
       </c>
       <c r="T40" s="15">
         <f t="shared" ref="T40:T44" ca="1" si="6">IF(S40&gt;Q40,0,Q40-S40)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -20623,874 +20581,874 @@
   </sheetData>
   <autoFilter ref="C1:D123"/>
   <mergeCells count="11">
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:M1"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:D4"/>
     <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D43:D65414">
-    <cfRule type="expression" dxfId="716" priority="307" stopIfTrue="1">
+    <cfRule type="expression" dxfId="707" priority="307" stopIfTrue="1">
       <formula>D43="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="715" priority="308" stopIfTrue="1">
+    <cfRule type="expression" dxfId="706" priority="308" stopIfTrue="1">
       <formula>D43="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="714" priority="309" stopIfTrue="1">
+    <cfRule type="expression" dxfId="705" priority="309" stopIfTrue="1">
       <formula>OR(D43="終了",D43="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO5:XFD6">
-    <cfRule type="expression" dxfId="713" priority="310" stopIfTrue="1">
+    <cfRule type="expression" dxfId="704" priority="310" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="712" priority="311" stopIfTrue="1">
+    <cfRule type="expression" dxfId="703" priority="311" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="711" priority="312" stopIfTrue="1">
+    <cfRule type="expression" dxfId="702" priority="312" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:B65414">
-    <cfRule type="expression" dxfId="710" priority="313" stopIfTrue="1">
+    <cfRule type="expression" dxfId="701" priority="313" stopIfTrue="1">
       <formula>D43="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="709" priority="314" stopIfTrue="1">
+    <cfRule type="expression" dxfId="700" priority="314" stopIfTrue="1">
       <formula>D43="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="708" priority="315" stopIfTrue="1">
+    <cfRule type="expression" dxfId="699" priority="315" stopIfTrue="1">
       <formula>OR(D43="終了",D43="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C65414">
-    <cfRule type="expression" dxfId="707" priority="316" stopIfTrue="1">
+    <cfRule type="expression" dxfId="698" priority="316" stopIfTrue="1">
       <formula>D43="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="706" priority="317" stopIfTrue="1">
+    <cfRule type="expression" dxfId="697" priority="317" stopIfTrue="1">
       <formula>D43="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="705" priority="318" stopIfTrue="1">
+    <cfRule type="expression" dxfId="696" priority="318" stopIfTrue="1">
       <formula>OR(D43="終了",D43="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:M65414">
-    <cfRule type="expression" dxfId="704" priority="319" stopIfTrue="1">
+    <cfRule type="expression" dxfId="695" priority="319" stopIfTrue="1">
       <formula>$D43="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="703" priority="320" stopIfTrue="1">
+    <cfRule type="expression" dxfId="694" priority="320" stopIfTrue="1">
       <formula>$D43="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="702" priority="321" stopIfTrue="1">
+    <cfRule type="expression" dxfId="693" priority="321" stopIfTrue="1">
       <formula>OR($D43="終了",$D43="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I13 A5:IN6 B33:C33 E33 C7:M7 B14:I14 C15:I15 K20 B8:I9 K8:K15 K16:M19 B16:I20 J8:J20 B27:I31 B34:I40 B21:M26 F41:I42 L8:M14 B10:D11 F10:I11 E10:E13 B32:E32 F32:I33 A7:A42 J27:M42">
-    <cfRule type="expression" dxfId="701" priority="187" stopIfTrue="1">
+    <cfRule type="expression" dxfId="692" priority="187" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="700" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="691" priority="188" stopIfTrue="1">
       <formula>$E5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="699" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="690" priority="189" stopIfTrue="1">
       <formula>OR($E5="終了",$E5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7:IN7">
-    <cfRule type="expression" dxfId="698" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="689" priority="193" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="697" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="688" priority="194" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="696" priority="195" stopIfTrue="1">
+    <cfRule type="expression" dxfId="687" priority="195" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:IN11">
-    <cfRule type="expression" dxfId="695" priority="199" stopIfTrue="1">
+    <cfRule type="expression" dxfId="686" priority="199" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="694" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="685" priority="200" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="693" priority="201" stopIfTrue="1">
+    <cfRule type="expression" dxfId="684" priority="201" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:IN19">
-    <cfRule type="expression" dxfId="692" priority="205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="683" priority="205" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="691" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="682" priority="206" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="690" priority="207" stopIfTrue="1">
+    <cfRule type="expression" dxfId="681" priority="207" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25:N26 AA25:IN26">
-    <cfRule type="expression" dxfId="689" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="680" priority="217" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="688" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="679" priority="218" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="687" priority="219" stopIfTrue="1">
+    <cfRule type="expression" dxfId="678" priority="219" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29:IN30 N28 AA28:IN28">
-    <cfRule type="expression" dxfId="686" priority="220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="677" priority="220" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="685" priority="221" stopIfTrue="1">
+    <cfRule type="expression" dxfId="676" priority="221" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="684" priority="222" stopIfTrue="1">
+    <cfRule type="expression" dxfId="675" priority="222" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32:IN32">
-    <cfRule type="expression" dxfId="683" priority="229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="674" priority="229" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="682" priority="230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="673" priority="230" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="681" priority="231" stopIfTrue="1">
+    <cfRule type="expression" dxfId="672" priority="231" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N65:V65 AC65:IN66 S66:T66">
-    <cfRule type="expression" dxfId="680" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="671" priority="238" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="679" priority="239" stopIfTrue="1">
+    <cfRule type="expression" dxfId="670" priority="239" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="678" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="669" priority="240" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N35:N40 Y39:IN40 S35:IH37 U38:IH38">
-    <cfRule type="expression" dxfId="677" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="668" priority="241" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="676" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="667" priority="242" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="675" priority="243" stopIfTrue="1">
+    <cfRule type="expression" dxfId="666" priority="243" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N42:N47 U42:IN47 N48:IN49">
-    <cfRule type="expression" dxfId="674" priority="244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="665" priority="244" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="673" priority="245" stopIfTrue="1">
+    <cfRule type="expression" dxfId="664" priority="245" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="672" priority="246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="663" priority="246" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41 U41:IN41">
-    <cfRule type="expression" dxfId="671" priority="247" stopIfTrue="1">
+    <cfRule type="expression" dxfId="662" priority="247" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="670" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="661" priority="248" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="669" priority="249" stopIfTrue="1">
+    <cfRule type="expression" dxfId="660" priority="249" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50:IN52">
-    <cfRule type="expression" dxfId="668" priority="253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="659" priority="253" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="667" priority="254" stopIfTrue="1">
+    <cfRule type="expression" dxfId="658" priority="254" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="666" priority="255" stopIfTrue="1">
+    <cfRule type="expression" dxfId="657" priority="255" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N62:IN64">
-    <cfRule type="expression" dxfId="665" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="656" priority="265" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="664" priority="266" stopIfTrue="1">
+    <cfRule type="expression" dxfId="655" priority="266" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="663" priority="267" stopIfTrue="1">
+    <cfRule type="expression" dxfId="654" priority="267" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC69:IN69 S69:T69">
-    <cfRule type="expression" dxfId="662" priority="271" stopIfTrue="1">
+    <cfRule type="expression" dxfId="653" priority="271" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="661" priority="272" stopIfTrue="1">
+    <cfRule type="expression" dxfId="652" priority="272" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="660" priority="273" stopIfTrue="1">
+    <cfRule type="expression" dxfId="651" priority="273" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC71:IN71 S71:T71">
-    <cfRule type="expression" dxfId="659" priority="277" stopIfTrue="1">
+    <cfRule type="expression" dxfId="650" priority="277" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="658" priority="278" stopIfTrue="1">
+    <cfRule type="expression" dxfId="649" priority="278" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="657" priority="279" stopIfTrue="1">
+    <cfRule type="expression" dxfId="648" priority="279" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N73:IN73">
-    <cfRule type="expression" dxfId="656" priority="280" stopIfTrue="1">
+    <cfRule type="expression" dxfId="647" priority="280" stopIfTrue="1">
       <formula>$E13="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="655" priority="281" stopIfTrue="1">
+    <cfRule type="expression" dxfId="646" priority="281" stopIfTrue="1">
       <formula>$E13="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="654" priority="282" stopIfTrue="1">
+    <cfRule type="expression" dxfId="645" priority="282" stopIfTrue="1">
       <formula>OR($E13="終了",$E13="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q72:IN72">
-    <cfRule type="expression" dxfId="653" priority="289" stopIfTrue="1">
+    <cfRule type="expression" dxfId="644" priority="289" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="652" priority="290" stopIfTrue="1">
+    <cfRule type="expression" dxfId="643" priority="290" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="651" priority="291" stopIfTrue="1">
+    <cfRule type="expression" dxfId="642" priority="291" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N74:IN76">
-    <cfRule type="expression" dxfId="650" priority="295" stopIfTrue="1">
+    <cfRule type="expression" dxfId="641" priority="295" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="649" priority="296" stopIfTrue="1">
+    <cfRule type="expression" dxfId="640" priority="296" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="648" priority="297" stopIfTrue="1">
+    <cfRule type="expression" dxfId="639" priority="297" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N80:IN80">
-    <cfRule type="expression" dxfId="647" priority="298" stopIfTrue="1">
+    <cfRule type="expression" dxfId="638" priority="298" stopIfTrue="1">
       <formula>$E21="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="646" priority="299" stopIfTrue="1">
+    <cfRule type="expression" dxfId="637" priority="299" stopIfTrue="1">
       <formula>$E21="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="645" priority="300" stopIfTrue="1">
+    <cfRule type="expression" dxfId="636" priority="300" stopIfTrue="1">
       <formula>OR($E21="終了",$E21="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N81:IN83">
-    <cfRule type="expression" dxfId="644" priority="304" stopIfTrue="1">
+    <cfRule type="expression" dxfId="635" priority="304" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="643" priority="305" stopIfTrue="1">
+    <cfRule type="expression" dxfId="634" priority="305" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="642" priority="306" stopIfTrue="1">
+    <cfRule type="expression" dxfId="633" priority="306" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="641" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="632" priority="67" stopIfTrue="1">
       <formula>$E33="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="640" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="631" priority="68" stopIfTrue="1">
       <formula>$E33="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="639" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="630" priority="69" stopIfTrue="1">
       <formula>OR($E33="終了",$E33="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:IN12">
-    <cfRule type="expression" dxfId="638" priority="352" stopIfTrue="1">
+    <cfRule type="expression" dxfId="629" priority="352" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="637" priority="353" stopIfTrue="1">
+    <cfRule type="expression" dxfId="628" priority="353" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="636" priority="354" stopIfTrue="1">
+    <cfRule type="expression" dxfId="627" priority="354" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20:IN20">
-    <cfRule type="expression" dxfId="635" priority="379" stopIfTrue="1">
+    <cfRule type="expression" dxfId="626" priority="379" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="634" priority="380" stopIfTrue="1">
+    <cfRule type="expression" dxfId="625" priority="380" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="633" priority="381" stopIfTrue="1">
+    <cfRule type="expression" dxfId="624" priority="381" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N78:IN78">
-    <cfRule type="expression" dxfId="632" priority="523" stopIfTrue="1">
+    <cfRule type="expression" dxfId="623" priority="523" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="631" priority="524" stopIfTrue="1">
+    <cfRule type="expression" dxfId="622" priority="524" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="630" priority="525" stopIfTrue="1">
+    <cfRule type="expression" dxfId="621" priority="525" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO18:XFD18">
-    <cfRule type="expression" dxfId="629" priority="1510" stopIfTrue="1">
+    <cfRule type="expression" dxfId="620" priority="1510" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="628" priority="1511" stopIfTrue="1">
+    <cfRule type="expression" dxfId="619" priority="1511" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="627" priority="1512" stopIfTrue="1">
+    <cfRule type="expression" dxfId="618" priority="1512" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31:IN31">
-    <cfRule type="expression" dxfId="626" priority="1534" stopIfTrue="1">
+    <cfRule type="expression" dxfId="617" priority="1534" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="625" priority="1535" stopIfTrue="1">
+    <cfRule type="expression" dxfId="616" priority="1535" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="624" priority="1536" stopIfTrue="1">
+    <cfRule type="expression" dxfId="615" priority="1536" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N53:IN54">
-    <cfRule type="expression" dxfId="623" priority="1570" stopIfTrue="1">
+    <cfRule type="expression" dxfId="614" priority="1570" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="622" priority="1571" stopIfTrue="1">
+    <cfRule type="expression" dxfId="613" priority="1571" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="621" priority="1572" stopIfTrue="1">
+    <cfRule type="expression" dxfId="612" priority="1572" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO23:XFD26 IO13:XFD14">
-    <cfRule type="expression" dxfId="620" priority="1618" stopIfTrue="1">
+    <cfRule type="expression" dxfId="611" priority="1618" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="619" priority="1619" stopIfTrue="1">
+    <cfRule type="expression" dxfId="610" priority="1619" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="618" priority="1620" stopIfTrue="1">
+    <cfRule type="expression" dxfId="609" priority="1620" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO32:XFD32">
-    <cfRule type="expression" dxfId="617" priority="1801" stopIfTrue="1">
+    <cfRule type="expression" dxfId="608" priority="1801" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="616" priority="1802" stopIfTrue="1">
+    <cfRule type="expression" dxfId="607" priority="1802" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="615" priority="1803" stopIfTrue="1">
+    <cfRule type="expression" dxfId="606" priority="1803" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N60:IN60">
-    <cfRule type="expression" dxfId="614" priority="1816" stopIfTrue="1">
+    <cfRule type="expression" dxfId="605" priority="1816" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="613" priority="1817" stopIfTrue="1">
+    <cfRule type="expression" dxfId="604" priority="1817" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="612" priority="1818" stopIfTrue="1">
+    <cfRule type="expression" dxfId="603" priority="1818" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO46:XFD48">
-    <cfRule type="expression" dxfId="611" priority="1870" stopIfTrue="1">
+    <cfRule type="expression" dxfId="602" priority="1870" stopIfTrue="1">
       <formula>$D16="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="610" priority="1871" stopIfTrue="1">
+    <cfRule type="expression" dxfId="601" priority="1871" stopIfTrue="1">
       <formula>$D16="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="609" priority="1872" stopIfTrue="1">
+    <cfRule type="expression" dxfId="600" priority="1872" stopIfTrue="1">
       <formula>OR($D16="終了",$D16="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO77:XFD77 IO72:XFD72 IO20:XFD20">
-    <cfRule type="expression" dxfId="608" priority="1930" stopIfTrue="1">
+    <cfRule type="expression" dxfId="599" priority="1930" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="607" priority="1931" stopIfTrue="1">
+    <cfRule type="expression" dxfId="598" priority="1931" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="606" priority="1932" stopIfTrue="1">
+    <cfRule type="expression" dxfId="597" priority="1932" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:IN21 AA22:IN22 N22">
-    <cfRule type="expression" dxfId="605" priority="2350" stopIfTrue="1">
+    <cfRule type="expression" dxfId="596" priority="2350" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="604" priority="2351" stopIfTrue="1">
+    <cfRule type="expression" dxfId="595" priority="2351" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="603" priority="2352" stopIfTrue="1">
+    <cfRule type="expression" dxfId="594" priority="2352" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S67:T67 AC67:IN67 N61:IN61">
-    <cfRule type="expression" dxfId="602" priority="2446" stopIfTrue="1">
+    <cfRule type="expression" dxfId="593" priority="2446" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="601" priority="2447" stopIfTrue="1">
+    <cfRule type="expression" dxfId="592" priority="2447" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="600" priority="2448" stopIfTrue="1">
+    <cfRule type="expression" dxfId="591" priority="2448" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="II34:XFD34">
-    <cfRule type="expression" dxfId="599" priority="2470" stopIfTrue="1">
+    <cfRule type="expression" dxfId="590" priority="2470" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="598" priority="2471" stopIfTrue="1">
+    <cfRule type="expression" dxfId="589" priority="2471" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="597" priority="2472" stopIfTrue="1">
+    <cfRule type="expression" dxfId="588" priority="2472" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO42:XFD44">
-    <cfRule type="expression" dxfId="596" priority="2518" stopIfTrue="1">
+    <cfRule type="expression" dxfId="587" priority="2518" stopIfTrue="1">
       <formula>$D11="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="595" priority="2519" stopIfTrue="1">
+    <cfRule type="expression" dxfId="586" priority="2519" stopIfTrue="1">
       <formula>$D11="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="594" priority="2520" stopIfTrue="1">
+    <cfRule type="expression" dxfId="585" priority="2520" stopIfTrue="1">
       <formula>OR($D11="終了",$D11="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO41:XFD41">
-    <cfRule type="expression" dxfId="593" priority="2521" stopIfTrue="1">
+    <cfRule type="expression" dxfId="584" priority="2521" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="592" priority="2522" stopIfTrue="1">
+    <cfRule type="expression" dxfId="583" priority="2522" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="591" priority="2523" stopIfTrue="1">
+    <cfRule type="expression" dxfId="582" priority="2523" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:D13 F12:H13">
-    <cfRule type="expression" dxfId="590" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="581" priority="13" stopIfTrue="1">
       <formula>$E12="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="589" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="580" priority="14" stopIfTrue="1">
       <formula>$E12="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="588" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="579" priority="15" stopIfTrue="1">
       <formula>OR($E12="終了",$E12="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N55:IN59">
-    <cfRule type="expression" dxfId="587" priority="2701" stopIfTrue="1">
+    <cfRule type="expression" dxfId="578" priority="2701" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="586" priority="2702" stopIfTrue="1">
+    <cfRule type="expression" dxfId="577" priority="2702" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="585" priority="2703" stopIfTrue="1">
+    <cfRule type="expression" dxfId="576" priority="2703" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO27:XFD31">
-    <cfRule type="expression" dxfId="584" priority="2704" stopIfTrue="1">
+    <cfRule type="expression" dxfId="575" priority="2704" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="583" priority="2705" stopIfTrue="1">
+    <cfRule type="expression" dxfId="574" priority="2705" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="582" priority="2706" stopIfTrue="1">
+    <cfRule type="expression" dxfId="573" priority="2706" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO33:XFD33">
-    <cfRule type="expression" dxfId="581" priority="2746" stopIfTrue="1">
+    <cfRule type="expression" dxfId="572" priority="2746" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="580" priority="2747" stopIfTrue="1">
+    <cfRule type="expression" dxfId="571" priority="2747" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="579" priority="2748" stopIfTrue="1">
+    <cfRule type="expression" dxfId="570" priority="2748" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC70:IN70 S70:T70">
-    <cfRule type="expression" dxfId="578" priority="2773" stopIfTrue="1">
+    <cfRule type="expression" dxfId="569" priority="2773" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="577" priority="2774" stopIfTrue="1">
+    <cfRule type="expression" dxfId="568" priority="2774" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="576" priority="2775" stopIfTrue="1">
+    <cfRule type="expression" dxfId="567" priority="2775" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="II35:XFD38">
-    <cfRule type="expression" dxfId="575" priority="2797" stopIfTrue="1">
+    <cfRule type="expression" dxfId="566" priority="2797" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="574" priority="2798" stopIfTrue="1">
+    <cfRule type="expression" dxfId="565" priority="2798" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="573" priority="2799" stopIfTrue="1">
+    <cfRule type="expression" dxfId="564" priority="2799" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO39:XFD39">
-    <cfRule type="expression" dxfId="572" priority="2899" stopIfTrue="1">
+    <cfRule type="expression" dxfId="563" priority="2899" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="571" priority="2900" stopIfTrue="1">
+    <cfRule type="expression" dxfId="562" priority="2900" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="570" priority="2901" stopIfTrue="1">
+    <cfRule type="expression" dxfId="561" priority="2901" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S68:T68 AC68:IN68">
-    <cfRule type="expression" dxfId="569" priority="2929" stopIfTrue="1">
+    <cfRule type="expression" dxfId="560" priority="2929" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="568" priority="2930" stopIfTrue="1">
+    <cfRule type="expression" dxfId="559" priority="2930" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="567" priority="2931" stopIfTrue="1">
+    <cfRule type="expression" dxfId="558" priority="2931" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO40:XFD40 IO54:XFD54">
-    <cfRule type="expression" dxfId="566" priority="2938" stopIfTrue="1">
+    <cfRule type="expression" dxfId="557" priority="2938" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="565" priority="2939" stopIfTrue="1">
+    <cfRule type="expression" dxfId="556" priority="2939" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="564" priority="2940" stopIfTrue="1">
+    <cfRule type="expression" dxfId="555" priority="2940" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO55:XFD55 IO57:XFD59">
-    <cfRule type="expression" dxfId="563" priority="2980" stopIfTrue="1">
+    <cfRule type="expression" dxfId="554" priority="2980" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="562" priority="2981" stopIfTrue="1">
+    <cfRule type="expression" dxfId="553" priority="2981" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="561" priority="2982" stopIfTrue="1">
+    <cfRule type="expression" dxfId="552" priority="2982" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO65:XFD65">
-    <cfRule type="expression" dxfId="560" priority="3010" stopIfTrue="1">
+    <cfRule type="expression" dxfId="551" priority="3010" stopIfTrue="1">
       <formula>$D23="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="559" priority="3011" stopIfTrue="1">
+    <cfRule type="expression" dxfId="550" priority="3011" stopIfTrue="1">
       <formula>$D23="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="558" priority="3012" stopIfTrue="1">
+    <cfRule type="expression" dxfId="549" priority="3012" stopIfTrue="1">
       <formula>OR($D23="終了",$D23="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO61:XFD61">
-    <cfRule type="expression" dxfId="557" priority="3013" stopIfTrue="1">
+    <cfRule type="expression" dxfId="548" priority="3013" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="556" priority="3014" stopIfTrue="1">
+    <cfRule type="expression" dxfId="547" priority="3014" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="555" priority="3015" stopIfTrue="1">
+    <cfRule type="expression" dxfId="546" priority="3015" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="554" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="545" priority="10" stopIfTrue="1">
       <formula>$E7="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="553" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="544" priority="11" stopIfTrue="1">
       <formula>$E7="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="552" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="543" priority="12" stopIfTrue="1">
       <formula>OR($E7="終了",$E7="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34:IH34">
-    <cfRule type="expression" dxfId="551" priority="3127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="542" priority="3127" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="550" priority="3128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="541" priority="3128" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="549" priority="3129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="540" priority="3129" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO21:XFD21">
-    <cfRule type="expression" dxfId="548" priority="3142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="539" priority="3142" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="547" priority="3143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="538" priority="3143" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="546" priority="3144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="537" priority="3144" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO22:XFD22">
-    <cfRule type="expression" dxfId="545" priority="3145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="536" priority="3145" stopIfTrue="1">
       <formula>$D10="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="544" priority="3146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="535" priority="3146" stopIfTrue="1">
       <formula>$D10="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="543" priority="3147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="534" priority="3147" stopIfTrue="1">
       <formula>OR($D10="終了",$D10="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20:M20 L15:M15 N8:IN9">
-    <cfRule type="expression" dxfId="542" priority="3163" stopIfTrue="1">
+    <cfRule type="expression" dxfId="533" priority="3163" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="541" priority="3164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="532" priority="3164" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="540" priority="3165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="531" priority="3165" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N77:IN77">
-    <cfRule type="expression" dxfId="539" priority="3181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="530" priority="3181" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="538" priority="3182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="529" priority="3182" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="537" priority="3183" stopIfTrue="1">
+    <cfRule type="expression" dxfId="528" priority="3183" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO60:XFD60">
-    <cfRule type="expression" dxfId="536" priority="3184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="527" priority="3184" stopIfTrue="1">
       <formula>$D14="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="535" priority="3185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="526" priority="3185" stopIfTrue="1">
       <formula>$D14="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="534" priority="3186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="525" priority="3186" stopIfTrue="1">
       <formula>OR($D14="終了",$D14="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO45:XFD45">
-    <cfRule type="expression" dxfId="533" priority="3190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="524" priority="3190" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="3191" stopIfTrue="1">
+    <cfRule type="expression" dxfId="523" priority="3191" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="531" priority="3192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="522" priority="3192" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO50:XFD50">
-    <cfRule type="expression" dxfId="530" priority="3259" stopIfTrue="1">
+    <cfRule type="expression" dxfId="521" priority="3259" stopIfTrue="1">
       <formula>$D21="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="529" priority="3260" stopIfTrue="1">
+    <cfRule type="expression" dxfId="520" priority="3260" stopIfTrue="1">
       <formula>$D21="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="528" priority="3261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="519" priority="3261" stopIfTrue="1">
       <formula>OR($D21="終了",$D21="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="527" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="518" priority="4" stopIfTrue="1">
       <formula>$E15="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="526" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="517" priority="5" stopIfTrue="1">
       <formula>$E15="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="525" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="516" priority="6" stopIfTrue="1">
       <formula>OR($E15="終了",$E15="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO51:XFD52">
-    <cfRule type="expression" dxfId="524" priority="3307" stopIfTrue="1">
+    <cfRule type="expression" dxfId="515" priority="3307" stopIfTrue="1">
       <formula>$D8="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="523" priority="3308" stopIfTrue="1">
+    <cfRule type="expression" dxfId="514" priority="3308" stopIfTrue="1">
       <formula>$D8="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="522" priority="3309" stopIfTrue="1">
+    <cfRule type="expression" dxfId="513" priority="3309" stopIfTrue="1">
       <formula>OR($D8="終了",$D8="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO64:XFD64">
-    <cfRule type="expression" dxfId="521" priority="3352" stopIfTrue="1">
+    <cfRule type="expression" dxfId="512" priority="3352" stopIfTrue="1">
       <formula>$D22="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="3353" stopIfTrue="1">
+    <cfRule type="expression" dxfId="511" priority="3353" stopIfTrue="1">
       <formula>$D22="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="519" priority="3354" stopIfTrue="1">
+    <cfRule type="expression" dxfId="510" priority="3354" stopIfTrue="1">
       <formula>OR($D22="終了",$D22="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO76:XFD76">
-    <cfRule type="expression" dxfId="518" priority="3406" stopIfTrue="1">
+    <cfRule type="expression" dxfId="509" priority="3406" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="517" priority="3407" stopIfTrue="1">
+    <cfRule type="expression" dxfId="508" priority="3407" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="516" priority="3408" stopIfTrue="1">
+    <cfRule type="expression" dxfId="507" priority="3408" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO56:XFD56">
-    <cfRule type="expression" dxfId="515" priority="3445" stopIfTrue="1">
+    <cfRule type="expression" dxfId="506" priority="3445" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="514" priority="3446" stopIfTrue="1">
+    <cfRule type="expression" dxfId="505" priority="3446" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="513" priority="3447" stopIfTrue="1">
+    <cfRule type="expression" dxfId="504" priority="3447" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO73:XFD75">
-    <cfRule type="expression" dxfId="512" priority="3478" stopIfTrue="1">
+    <cfRule type="expression" dxfId="503" priority="3478" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="511" priority="3479" stopIfTrue="1">
+    <cfRule type="expression" dxfId="502" priority="3479" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="510" priority="3480" stopIfTrue="1">
+    <cfRule type="expression" dxfId="501" priority="3480" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO66:XFD71">
-    <cfRule type="expression" dxfId="509" priority="3505" stopIfTrue="1">
+    <cfRule type="expression" dxfId="500" priority="3505" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="508" priority="3506" stopIfTrue="1">
+    <cfRule type="expression" dxfId="499" priority="3506" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="507" priority="3507" stopIfTrue="1">
+    <cfRule type="expression" dxfId="498" priority="3507" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27 AA27:IN27">
-    <cfRule type="expression" dxfId="506" priority="3637" stopIfTrue="1">
+    <cfRule type="expression" dxfId="497" priority="3637" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="505" priority="3638" stopIfTrue="1">
+    <cfRule type="expression" dxfId="496" priority="3638" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="504" priority="3639" stopIfTrue="1">
+    <cfRule type="expression" dxfId="495" priority="3639" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13:IN13">
-    <cfRule type="expression" dxfId="503" priority="3643" stopIfTrue="1">
+    <cfRule type="expression" dxfId="494" priority="3643" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="502" priority="3644" stopIfTrue="1">
+    <cfRule type="expression" dxfId="493" priority="3644" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="501" priority="3645" stopIfTrue="1">
+    <cfRule type="expression" dxfId="492" priority="3645" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO7:XFD11">
-    <cfRule type="expression" dxfId="500" priority="3658" stopIfTrue="1">
+    <cfRule type="expression" dxfId="491" priority="3658" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="499" priority="3659" stopIfTrue="1">
+    <cfRule type="expression" dxfId="490" priority="3659" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="3660" stopIfTrue="1">
+    <cfRule type="expression" dxfId="489" priority="3660" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA23:IN24 N23:N24">
-    <cfRule type="expression" dxfId="497" priority="3661" stopIfTrue="1">
+    <cfRule type="expression" dxfId="488" priority="3661" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="3662" stopIfTrue="1">
+    <cfRule type="expression" dxfId="487" priority="3662" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="495" priority="3663" stopIfTrue="1">
+    <cfRule type="expression" dxfId="486" priority="3663" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO15:XFD17">
-    <cfRule type="expression" dxfId="494" priority="3667" stopIfTrue="1">
+    <cfRule type="expression" dxfId="485" priority="3667" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="493" priority="3668" stopIfTrue="1">
+    <cfRule type="expression" dxfId="484" priority="3668" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="492" priority="3669" stopIfTrue="1">
+    <cfRule type="expression" dxfId="483" priority="3669" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO62:XFD62">
-    <cfRule type="expression" dxfId="491" priority="3706" stopIfTrue="1">
+    <cfRule type="expression" dxfId="482" priority="3706" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="3707" stopIfTrue="1">
+    <cfRule type="expression" dxfId="481" priority="3707" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="489" priority="3708" stopIfTrue="1">
+    <cfRule type="expression" dxfId="480" priority="3708" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO63:XFD63">
-    <cfRule type="expression" dxfId="488" priority="3709" stopIfTrue="1">
+    <cfRule type="expression" dxfId="479" priority="3709" stopIfTrue="1">
       <formula>$D19="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="487" priority="3710" stopIfTrue="1">
+    <cfRule type="expression" dxfId="478" priority="3710" stopIfTrue="1">
       <formula>$D19="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="3711" stopIfTrue="1">
+    <cfRule type="expression" dxfId="477" priority="3711" stopIfTrue="1">
       <formula>OR($D19="終了",$D19="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:E42">
-    <cfRule type="expression" dxfId="485" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="476" priority="1" stopIfTrue="1">
       <formula>$E41="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="475" priority="2" stopIfTrue="1">
       <formula>$E41="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="474" priority="3" stopIfTrue="1">
       <formula>OR($E41="終了",$E41="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21744,7 +21702,7 @@
   <dimension ref="A1:Y202"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R134" sqref="R134"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -21783,7 +21741,7 @@
       <c r="C1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="108" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="100" t="s">
@@ -21807,13 +21765,13 @@
       <c r="K1" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="110"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="107"/>
       <c r="S1" s="71"/>
       <c r="T1" s="71"/>
       <c r="U1" s="71"/>
@@ -21824,7 +21782,7 @@
       <c r="A2" s="100"/>
       <c r="B2" s="101"/>
       <c r="C2" s="101"/>
-      <c r="D2" s="107"/>
+      <c r="D2" s="109"/>
       <c r="E2" s="100"/>
       <c r="F2" s="103"/>
       <c r="G2" s="103"/>
@@ -21860,7 +21818,7 @@
       <c r="A3" s="100"/>
       <c r="B3" s="101"/>
       <c r="C3" s="101"/>
-      <c r="D3" s="107"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="100"/>
       <c r="F3" s="103"/>
       <c r="G3" s="103"/>
@@ -21904,7 +21862,7 @@
       <c r="A4" s="100"/>
       <c r="B4" s="101"/>
       <c r="C4" s="102"/>
-      <c r="D4" s="108"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="100"/>
       <c r="F4" s="103"/>
       <c r="G4" s="103"/>
@@ -21941,7 +21899,7 @@
       </c>
       <c r="R4" s="21">
         <f t="shared" si="1"/>
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -23943,7 +23901,7 @@
       </c>
       <c r="V43" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W43" s="10">
         <f t="shared" si="6"/>
@@ -23954,7 +23912,7 @@
       </c>
       <c r="Y43" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:25">
@@ -24484,7 +24442,7 @@
       </c>
       <c r="E54" s="12" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F54" s="4">
         <v>43094</v>
@@ -24500,7 +24458,7 @@
       </c>
       <c r="J54" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="22">
         <v>2</v>
@@ -24524,7 +24482,7 @@
         <v>1</v>
       </c>
       <c r="R54" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -31269,783 +31227,783 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D203:D65439">
-    <cfRule type="expression" dxfId="461" priority="325" stopIfTrue="1">
+    <cfRule type="expression" dxfId="452" priority="325" stopIfTrue="1">
       <formula>D203="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="326" stopIfTrue="1">
+    <cfRule type="expression" dxfId="451" priority="326" stopIfTrue="1">
       <formula>D203="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="459" priority="327" stopIfTrue="1">
+    <cfRule type="expression" dxfId="450" priority="327" stopIfTrue="1">
       <formula>OR(D203="終了",D203="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP5:XFD5">
-    <cfRule type="expression" dxfId="458" priority="328" stopIfTrue="1">
+    <cfRule type="expression" dxfId="449" priority="328" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="457" priority="329" stopIfTrue="1">
+    <cfRule type="expression" dxfId="448" priority="329" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="330" stopIfTrue="1">
+    <cfRule type="expression" dxfId="447" priority="330" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B203:B65439">
-    <cfRule type="expression" dxfId="455" priority="331" stopIfTrue="1">
+    <cfRule type="expression" dxfId="446" priority="331" stopIfTrue="1">
       <formula>D203="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="454" priority="332" stopIfTrue="1">
+    <cfRule type="expression" dxfId="445" priority="332" stopIfTrue="1">
       <formula>D203="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="453" priority="333" stopIfTrue="1">
+    <cfRule type="expression" dxfId="444" priority="333" stopIfTrue="1">
       <formula>OR(D203="終了",D203="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C203:C65439">
-    <cfRule type="expression" dxfId="452" priority="334" stopIfTrue="1">
+    <cfRule type="expression" dxfId="443" priority="334" stopIfTrue="1">
       <formula>D203="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="451" priority="335" stopIfTrue="1">
+    <cfRule type="expression" dxfId="442" priority="335" stopIfTrue="1">
       <formula>D203="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="336" stopIfTrue="1">
+    <cfRule type="expression" dxfId="441" priority="336" stopIfTrue="1">
       <formula>OR(D203="終了",D203="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E203:H65439">
-    <cfRule type="expression" dxfId="449" priority="337" stopIfTrue="1">
+    <cfRule type="expression" dxfId="440" priority="337" stopIfTrue="1">
       <formula>$D203="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="338" stopIfTrue="1">
+    <cfRule type="expression" dxfId="439" priority="338" stopIfTrue="1">
       <formula>$D203="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="447" priority="339" stopIfTrue="1">
+    <cfRule type="expression" dxfId="438" priority="339" stopIfTrue="1">
       <formula>OR($D203="終了",$D203="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:IO5 A6:R6 G9:I10 B37:E37 H37 B16:H36 B122:B126 B9:F15 D122:D126 B127:D153 A7:A153 A154:D202 B63:D121 F63:I202 B43:D61 F43:H58 F59:I61 E43:E202 J9:J202 B38:H42 G11:H15 I12:I14 I16:I18 I20:I22 I24:I26 I28:I30 I32:I34 I36:I58 K36:R61 G62 B8:R8 K29:R34 K9:R27 K63:R202">
-    <cfRule type="expression" dxfId="446" priority="205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="437" priority="205" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="445" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="436" priority="206" stopIfTrue="1">
       <formula>$E5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="444" priority="207" stopIfTrue="1">
+    <cfRule type="expression" dxfId="435" priority="207" stopIfTrue="1">
       <formula>OR($E5="終了",$E5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C123">
-    <cfRule type="expression" dxfId="443" priority="208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="434" priority="208" stopIfTrue="1">
       <formula>$E122="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="433" priority="209" stopIfTrue="1">
       <formula>$E122="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="441" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="432" priority="210" stopIfTrue="1">
       <formula>OR($E122="終了",$E122="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:IO6">
-    <cfRule type="expression" dxfId="440" priority="211" stopIfTrue="1">
+    <cfRule type="expression" dxfId="431" priority="211" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="439" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="430" priority="212" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="429" priority="213" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9:IO10">
-    <cfRule type="expression" dxfId="437" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="428" priority="217" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="427" priority="218" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="435" priority="219" stopIfTrue="1">
+    <cfRule type="expression" dxfId="426" priority="219" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12:IO16">
-    <cfRule type="expression" dxfId="434" priority="223" stopIfTrue="1">
+    <cfRule type="expression" dxfId="425" priority="223" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="224" stopIfTrue="1">
+    <cfRule type="expression" dxfId="424" priority="224" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="225" stopIfTrue="1">
+    <cfRule type="expression" dxfId="423" priority="225" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB20:IO20">
-    <cfRule type="expression" dxfId="431" priority="235" stopIfTrue="1">
+    <cfRule type="expression" dxfId="422" priority="235" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="236" stopIfTrue="1">
+    <cfRule type="expression" dxfId="421" priority="236" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="429" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="420" priority="237" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB23:IO23 S24:IO24">
-    <cfRule type="expression" dxfId="428" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="419" priority="238" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="427" priority="239" stopIfTrue="1">
+    <cfRule type="expression" dxfId="418" priority="239" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="417" priority="240" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB21:IO22">
-    <cfRule type="expression" dxfId="425" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="416" priority="241" stopIfTrue="1">
       <formula>$E15="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="415" priority="242" stopIfTrue="1">
       <formula>$E15="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="423" priority="243" stopIfTrue="1">
+    <cfRule type="expression" dxfId="414" priority="243" stopIfTrue="1">
       <formula>OR($E15="終了",$E15="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26:IO26">
-    <cfRule type="expression" dxfId="422" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="413" priority="250" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="251" stopIfTrue="1">
+    <cfRule type="expression" dxfId="412" priority="251" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="252" stopIfTrue="1">
+    <cfRule type="expression" dxfId="411" priority="252" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S44 AD44:IO45">
-    <cfRule type="expression" dxfId="419" priority="256" stopIfTrue="1">
+    <cfRule type="expression" dxfId="410" priority="256" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="257" stopIfTrue="1">
+    <cfRule type="expression" dxfId="409" priority="257" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="417" priority="258" stopIfTrue="1">
+    <cfRule type="expression" dxfId="408" priority="258" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S29:S30 Z28:IO30">
-    <cfRule type="expression" dxfId="416" priority="259" stopIfTrue="1">
+    <cfRule type="expression" dxfId="407" priority="259" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="415" priority="260" stopIfTrue="1">
+    <cfRule type="expression" dxfId="406" priority="260" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="405" priority="261" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z32:IO33 V30:Y31">
-    <cfRule type="expression" dxfId="413" priority="262" stopIfTrue="1">
+    <cfRule type="expression" dxfId="404" priority="262" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="263" stopIfTrue="1">
+    <cfRule type="expression" dxfId="403" priority="263" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="264" stopIfTrue="1">
+    <cfRule type="expression" dxfId="402" priority="264" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z31:IO31 V29:Y29">
-    <cfRule type="expression" dxfId="410" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="401" priority="265" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="409" priority="266" stopIfTrue="1">
+    <cfRule type="expression" dxfId="400" priority="266" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="267" stopIfTrue="1">
+    <cfRule type="expression" dxfId="399" priority="267" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S42:S43 Z42:IO43">
-    <cfRule type="expression" dxfId="407" priority="283" stopIfTrue="1">
+    <cfRule type="expression" dxfId="398" priority="283" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="284" stopIfTrue="1">
+    <cfRule type="expression" dxfId="397" priority="284" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="285" stopIfTrue="1">
+    <cfRule type="expression" dxfId="396" priority="285" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD49:IO49 T47:U47">
-    <cfRule type="expression" dxfId="404" priority="289" stopIfTrue="1">
+    <cfRule type="expression" dxfId="395" priority="289" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="290" stopIfTrue="1">
+    <cfRule type="expression" dxfId="394" priority="290" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="291" stopIfTrue="1">
+    <cfRule type="expression" dxfId="393" priority="291" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD51:IO51 T49:U49">
-    <cfRule type="expression" dxfId="401" priority="295" stopIfTrue="1">
+    <cfRule type="expression" dxfId="392" priority="295" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="296" stopIfTrue="1">
+    <cfRule type="expression" dxfId="391" priority="296" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="399" priority="297" stopIfTrue="1">
+    <cfRule type="expression" dxfId="390" priority="297" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD47:IO47 Z53:IO53 S53">
-    <cfRule type="expression" dxfId="398" priority="298" stopIfTrue="1">
+    <cfRule type="expression" dxfId="389" priority="298" stopIfTrue="1">
       <formula>$E24="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="299" stopIfTrue="1">
+    <cfRule type="expression" dxfId="388" priority="299" stopIfTrue="1">
       <formula>$E24="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="300" stopIfTrue="1">
+    <cfRule type="expression" dxfId="387" priority="300" stopIfTrue="1">
       <formula>OR($E24="終了",$E24="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S57 Z57:IO57 T55:Y55">
-    <cfRule type="expression" dxfId="395" priority="310" stopIfTrue="1">
+    <cfRule type="expression" dxfId="386" priority="310" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="311" stopIfTrue="1">
+    <cfRule type="expression" dxfId="385" priority="311" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="312" stopIfTrue="1">
+    <cfRule type="expression" dxfId="384" priority="312" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S54:S56 Z54:IO56 T52:Y54">
-    <cfRule type="expression" dxfId="392" priority="313" stopIfTrue="1">
+    <cfRule type="expression" dxfId="383" priority="313" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="391" priority="314" stopIfTrue="1">
+    <cfRule type="expression" dxfId="382" priority="314" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="315" stopIfTrue="1">
+    <cfRule type="expression" dxfId="381" priority="315" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S58:S60 Z58:IO60 T56:Y58">
-    <cfRule type="expression" dxfId="389" priority="316" stopIfTrue="1">
+    <cfRule type="expression" dxfId="380" priority="316" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="317" stopIfTrue="1">
+    <cfRule type="expression" dxfId="379" priority="317" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="318" stopIfTrue="1">
+    <cfRule type="expression" dxfId="378" priority="318" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S61 Z61:IO61 T59:Y59">
-    <cfRule type="expression" dxfId="386" priority="322" stopIfTrue="1">
+    <cfRule type="expression" dxfId="377" priority="322" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="323" stopIfTrue="1">
+    <cfRule type="expression" dxfId="376" priority="323" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="324" stopIfTrue="1">
+    <cfRule type="expression" dxfId="375" priority="324" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17:IO17">
-    <cfRule type="expression" dxfId="383" priority="646" stopIfTrue="1">
+    <cfRule type="expression" dxfId="374" priority="646" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="647" stopIfTrue="1">
+    <cfRule type="expression" dxfId="373" priority="647" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="648" stopIfTrue="1">
+    <cfRule type="expression" dxfId="372" priority="648" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:IO19">
-    <cfRule type="expression" dxfId="380" priority="679" stopIfTrue="1">
+    <cfRule type="expression" dxfId="371" priority="679" stopIfTrue="1">
       <formula>$E13="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="680" stopIfTrue="1">
+    <cfRule type="expression" dxfId="370" priority="680" stopIfTrue="1">
       <formula>$E13="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="681" stopIfTrue="1">
+    <cfRule type="expression" dxfId="369" priority="681" stopIfTrue="1">
       <formula>OR($E13="終了",$E13="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z27:IO27">
-    <cfRule type="expression" dxfId="377" priority="718" stopIfTrue="1">
+    <cfRule type="expression" dxfId="368" priority="718" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="719" stopIfTrue="1">
+    <cfRule type="expression" dxfId="367" priority="719" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="720" stopIfTrue="1">
+    <cfRule type="expression" dxfId="366" priority="720" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S41 Z41:IO41 S35:S39 Z35:IO39">
-    <cfRule type="expression" dxfId="374" priority="814" stopIfTrue="1">
+    <cfRule type="expression" dxfId="365" priority="814" stopIfTrue="1">
       <formula>$E17="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="815" stopIfTrue="1">
+    <cfRule type="expression" dxfId="364" priority="815" stopIfTrue="1">
       <formula>$E17="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="816" stopIfTrue="1">
+    <cfRule type="expression" dxfId="363" priority="816" stopIfTrue="1">
       <formula>OR($E17="終了",$E17="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S40 Z40:IO40">
-    <cfRule type="expression" dxfId="371" priority="871" stopIfTrue="1">
+    <cfRule type="expression" dxfId="362" priority="871" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="872" stopIfTrue="1">
+    <cfRule type="expression" dxfId="361" priority="872" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="873" stopIfTrue="1">
+    <cfRule type="expression" dxfId="360" priority="873" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP21:XFD22 IP24:XFD25 IP28:XFD29">
-    <cfRule type="expression" dxfId="368" priority="922" stopIfTrue="1">
+    <cfRule type="expression" dxfId="359" priority="922" stopIfTrue="1">
       <formula>$D17="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="367" priority="923" stopIfTrue="1">
+    <cfRule type="expression" dxfId="358" priority="923" stopIfTrue="1">
       <formula>$D17="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="924" stopIfTrue="1">
+    <cfRule type="expression" dxfId="357" priority="924" stopIfTrue="1">
       <formula>OR($D17="終了",$D17="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP57:XFD57">
-    <cfRule type="expression" dxfId="365" priority="952" stopIfTrue="1">
+    <cfRule type="expression" dxfId="356" priority="952" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="953" stopIfTrue="1">
+    <cfRule type="expression" dxfId="355" priority="953" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="954" stopIfTrue="1">
+    <cfRule type="expression" dxfId="354" priority="954" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I203:M65439">
-    <cfRule type="expression" dxfId="362" priority="955" stopIfTrue="1">
+    <cfRule type="expression" dxfId="353" priority="955" stopIfTrue="1">
       <formula>$D203="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="956" stopIfTrue="1">
+    <cfRule type="expression" dxfId="352" priority="956" stopIfTrue="1">
       <formula>$D203="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="957" stopIfTrue="1">
+    <cfRule type="expression" dxfId="351" priority="957" stopIfTrue="1">
       <formula>OR($D203="終了",$D203="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD48:IO48 T48:U48">
-    <cfRule type="expression" dxfId="359" priority="1048" stopIfTrue="1">
+    <cfRule type="expression" dxfId="350" priority="1048" stopIfTrue="1">
       <formula>$E24="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="1049" stopIfTrue="1">
+    <cfRule type="expression" dxfId="349" priority="1049" stopIfTrue="1">
       <formula>$E24="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="1050" stopIfTrue="1">
+    <cfRule type="expression" dxfId="348" priority="1050" stopIfTrue="1">
       <formula>OR($E24="終了",$E24="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP36:XFD36">
-    <cfRule type="expression" dxfId="356" priority="1063" stopIfTrue="1">
+    <cfRule type="expression" dxfId="347" priority="1063" stopIfTrue="1">
       <formula>$D38="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="1064" stopIfTrue="1">
+    <cfRule type="expression" dxfId="346" priority="1064" stopIfTrue="1">
       <formula>$D38="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="1065" stopIfTrue="1">
+    <cfRule type="expression" dxfId="345" priority="1065" stopIfTrue="1">
       <formula>OR($D38="終了",$D38="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S25:IO25">
-    <cfRule type="expression" dxfId="353" priority="1177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="344" priority="1177" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="1178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="343" priority="1178" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="351" priority="1179" stopIfTrue="1">
+    <cfRule type="expression" dxfId="342" priority="1179" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD50:IO50">
-    <cfRule type="expression" dxfId="350" priority="1180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="341" priority="1180" stopIfTrue="1">
       <formula>$E24="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="1181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="340" priority="1181" stopIfTrue="1">
       <formula>$E24="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="1182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="339" priority="1182" stopIfTrue="1">
       <formula>OR($E24="終了",$E24="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP6:XFD10">
-    <cfRule type="expression" dxfId="347" priority="1204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="338" priority="1204" stopIfTrue="1">
       <formula>$D8="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="1205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="337" priority="1205" stopIfTrue="1">
       <formula>$D8="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="1206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="336" priority="1206" stopIfTrue="1">
       <formula>OR($D8="終了",$D8="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP15:XFD17 IP11:XFD11">
-    <cfRule type="expression" dxfId="344" priority="1207" stopIfTrue="1">
+    <cfRule type="expression" dxfId="335" priority="1207" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="1208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="334" priority="1208" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="1209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="333" priority="1209" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP12:XFD14">
-    <cfRule type="expression" dxfId="341" priority="1984" stopIfTrue="1">
+    <cfRule type="expression" dxfId="332" priority="1984" stopIfTrue="1">
       <formula>$D13="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="1985" stopIfTrue="1">
+    <cfRule type="expression" dxfId="331" priority="1985" stopIfTrue="1">
       <formula>$D13="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="1986" stopIfTrue="1">
+    <cfRule type="expression" dxfId="330" priority="1986" stopIfTrue="1">
       <formula>OR($D13="終了",$D13="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:IO8 C7:R7 S11:IO11 I11 I15 I19 I23 I27 I31 I35 K28:R28 K35:R35">
-    <cfRule type="expression" dxfId="338" priority="1987" stopIfTrue="1">
+    <cfRule type="expression" dxfId="329" priority="1987" stopIfTrue="1">
       <formula>$E8="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="1988" stopIfTrue="1">
+    <cfRule type="expression" dxfId="328" priority="1988" stopIfTrue="1">
       <formula>$E8="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="1989" stopIfTrue="1">
+    <cfRule type="expression" dxfId="327" priority="1989" stopIfTrue="1">
       <formula>OR($E8="終了",$E8="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP23:XFD23 IP48:XFD56">
-    <cfRule type="expression" dxfId="335" priority="2011" stopIfTrue="1">
+    <cfRule type="expression" dxfId="326" priority="2011" stopIfTrue="1">
       <formula>$D18="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="2012" stopIfTrue="1">
+    <cfRule type="expression" dxfId="325" priority="2012" stopIfTrue="1">
       <formula>$D18="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="2013" stopIfTrue="1">
+    <cfRule type="expression" dxfId="324" priority="2013" stopIfTrue="1">
       <formula>OR($D18="終了",$D18="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD46:IO46">
-    <cfRule type="expression" dxfId="332" priority="2047" stopIfTrue="1">
+    <cfRule type="expression" dxfId="323" priority="2047" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="2048" stopIfTrue="1">
+    <cfRule type="expression" dxfId="322" priority="2048" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="2049" stopIfTrue="1">
+    <cfRule type="expression" dxfId="321" priority="2049" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP26:XFD26 IP35:XFD35">
-    <cfRule type="expression" dxfId="329" priority="2065" stopIfTrue="1">
+    <cfRule type="expression" dxfId="320" priority="2065" stopIfTrue="1">
       <formula>$D23="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="2066" stopIfTrue="1">
+    <cfRule type="expression" dxfId="319" priority="2066" stopIfTrue="1">
       <formula>$D23="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="2067" stopIfTrue="1">
+    <cfRule type="expression" dxfId="318" priority="2067" stopIfTrue="1">
       <formula>OR($D23="終了",$D23="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP27:XFD27">
-    <cfRule type="expression" dxfId="326" priority="2071" stopIfTrue="1">
+    <cfRule type="expression" dxfId="317" priority="2071" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="2072" stopIfTrue="1">
+    <cfRule type="expression" dxfId="316" priority="2072" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="2073" stopIfTrue="1">
+    <cfRule type="expression" dxfId="315" priority="2073" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="323" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="314" priority="52" stopIfTrue="1">
       <formula>$E7="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="313" priority="53" stopIfTrue="1">
       <formula>$E7="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="312" priority="54" stopIfTrue="1">
       <formula>OR($E7="終了",$E7="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP31:XFD31">
-    <cfRule type="expression" dxfId="320" priority="2170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="311" priority="2170" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="319" priority="2171" stopIfTrue="1">
+    <cfRule type="expression" dxfId="310" priority="2171" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="2172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="309" priority="2172" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP38:XFD39">
-    <cfRule type="expression" dxfId="317" priority="2278" stopIfTrue="1">
+    <cfRule type="expression" dxfId="308" priority="2278" stopIfTrue="1">
       <formula>$D33="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="2279" stopIfTrue="1">
+    <cfRule type="expression" dxfId="307" priority="2279" stopIfTrue="1">
       <formula>$D33="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="2280" stopIfTrue="1">
+    <cfRule type="expression" dxfId="306" priority="2280" stopIfTrue="1">
       <formula>OR($D33="終了",$D33="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP42:XFD42">
-    <cfRule type="expression" dxfId="314" priority="2296" stopIfTrue="1">
+    <cfRule type="expression" dxfId="305" priority="2296" stopIfTrue="1">
       <formula>$D26="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="2297" stopIfTrue="1">
+    <cfRule type="expression" dxfId="304" priority="2297" stopIfTrue="1">
       <formula>$D26="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="2298" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="2298" stopIfTrue="1">
       <formula>OR($D26="終了",$D26="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP41:XFD41">
-    <cfRule type="expression" dxfId="311" priority="2320" stopIfTrue="1">
+    <cfRule type="expression" dxfId="302" priority="2320" stopIfTrue="1">
       <formula>$D35="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="2321" stopIfTrue="1">
+    <cfRule type="expression" dxfId="301" priority="2321" stopIfTrue="1">
       <formula>$D35="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="2322" stopIfTrue="1">
+    <cfRule type="expression" dxfId="300" priority="2322" stopIfTrue="1">
       <formula>OR($D35="終了",$D35="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP32:XFD33">
-    <cfRule type="expression" dxfId="308" priority="3046" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="3046" stopIfTrue="1">
       <formula>$D29="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="3047" stopIfTrue="1">
+    <cfRule type="expression" dxfId="298" priority="3047" stopIfTrue="1">
       <formula>$D29="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="3048" stopIfTrue="1">
+    <cfRule type="expression" dxfId="297" priority="3048" stopIfTrue="1">
       <formula>OR($D29="終了",$D29="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP30:XFD30">
-    <cfRule type="expression" dxfId="305" priority="3061" stopIfTrue="1">
+    <cfRule type="expression" dxfId="296" priority="3061" stopIfTrue="1">
       <formula>$D28="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="3062" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="3062" stopIfTrue="1">
       <formula>$D28="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="3063" stopIfTrue="1">
+    <cfRule type="expression" dxfId="294" priority="3063" stopIfTrue="1">
       <formula>OR($D28="終了",$D28="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP40:XFD40">
-    <cfRule type="expression" dxfId="302" priority="3085" stopIfTrue="1">
+    <cfRule type="expression" dxfId="293" priority="3085" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="3086" stopIfTrue="1">
+    <cfRule type="expression" dxfId="292" priority="3086" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="3087" stopIfTrue="1">
+    <cfRule type="expression" dxfId="291" priority="3087" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="expression" dxfId="299" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="290" priority="22" stopIfTrue="1">
       <formula>$E62="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="289" priority="23" stopIfTrue="1">
       <formula>$E62="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="288" priority="24" stopIfTrue="1">
       <formula>OR($E62="終了",$E62="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62:D62 F62">
-    <cfRule type="expression" dxfId="296" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="25" stopIfTrue="1">
       <formula>$E62="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="286" priority="26" stopIfTrue="1">
       <formula>$E62="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="285" priority="27" stopIfTrue="1">
       <formula>OR($E62="終了",$E62="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP44:XFD44">
-    <cfRule type="expression" dxfId="293" priority="3739" stopIfTrue="1">
+    <cfRule type="expression" dxfId="284" priority="3739" stopIfTrue="1">
       <formula>$D39="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="3740" stopIfTrue="1">
+    <cfRule type="expression" dxfId="283" priority="3740" stopIfTrue="1">
       <formula>$D39="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="3741" stopIfTrue="1">
+    <cfRule type="expression" dxfId="282" priority="3741" stopIfTrue="1">
       <formula>OR($D39="終了",$D39="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP43:XFD43">
-    <cfRule type="expression" dxfId="290" priority="3760" stopIfTrue="1">
+    <cfRule type="expression" dxfId="281" priority="3760" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="3761" stopIfTrue="1">
+    <cfRule type="expression" dxfId="280" priority="3761" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="3762" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="3762" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP45:XFD47">
-    <cfRule type="expression" dxfId="287" priority="3823" stopIfTrue="1">
+    <cfRule type="expression" dxfId="278" priority="3823" stopIfTrue="1">
       <formula>$D41="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="3824" stopIfTrue="1">
+    <cfRule type="expression" dxfId="277" priority="3824" stopIfTrue="1">
       <formula>$D41="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="3825" stopIfTrue="1">
+    <cfRule type="expression" dxfId="276" priority="3825" stopIfTrue="1">
       <formula>OR($D41="終了",$D41="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="expression" dxfId="284" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="13" stopIfTrue="1">
       <formula>$E37="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="274" priority="14" stopIfTrue="1">
       <formula>$E37="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="273" priority="15" stopIfTrue="1">
       <formula>OR($E37="終了",$E37="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP34:XFD34">
-    <cfRule type="expression" dxfId="281" priority="3922" stopIfTrue="1">
+    <cfRule type="expression" dxfId="272" priority="3922" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="3923" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="3923" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="3924" stopIfTrue="1">
+    <cfRule type="expression" dxfId="270" priority="3924" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP37:XFD37">
-    <cfRule type="expression" dxfId="278" priority="3961" stopIfTrue="1">
+    <cfRule type="expression" dxfId="269" priority="3961" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="3962" stopIfTrue="1">
+    <cfRule type="expression" dxfId="268" priority="3962" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="3963" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="3963" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S34 Z34:IO34 T32:Y32">
-    <cfRule type="expression" dxfId="275" priority="1150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="266" priority="1150" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="1151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="265" priority="1151" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="1152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="264" priority="1152" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP18:XFD20">
-    <cfRule type="expression" dxfId="272" priority="1156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="1156" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="1157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="262" priority="1157" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="1158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="261" priority="1158" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="expression" dxfId="269" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="260" priority="10" stopIfTrue="1">
       <formula>$E122="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="11" stopIfTrue="1">
       <formula>$E122="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="12" stopIfTrue="1">
       <formula>OR($E122="終了",$E122="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C124">
-    <cfRule type="expression" dxfId="266" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="257" priority="7" stopIfTrue="1">
       <formula>$E123="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="256" priority="8" stopIfTrue="1">
       <formula>$E123="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="9" stopIfTrue="1">
       <formula>OR($E123="終了",$E123="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C125">
-    <cfRule type="expression" dxfId="263" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="254" priority="4" stopIfTrue="1">
       <formula>$E124="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="253" priority="5" stopIfTrue="1">
       <formula>$E124="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="6" stopIfTrue="1">
       <formula>OR($E124="終了",$E124="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C126">
-    <cfRule type="expression" dxfId="260" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="1" stopIfTrue="1">
       <formula>$E125="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="2" stopIfTrue="1">
       <formula>$E125="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="3" stopIfTrue="1">
       <formula>OR($E125="終了",$E125="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T45:U45 T51:Y51">
-    <cfRule type="expression" dxfId="257" priority="3994" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="3994" stopIfTrue="1">
       <formula>$E24="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="3995" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="3995" stopIfTrue="1">
       <formula>$E24="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="3996" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="3996" stopIfTrue="1">
       <formula>OR($E24="終了",$E24="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T46:U46">
-    <cfRule type="expression" dxfId="254" priority="4021" stopIfTrue="1">
+    <cfRule type="expression" dxfId="245" priority="4021" stopIfTrue="1">
       <formula>$E24="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="4022" stopIfTrue="1">
+    <cfRule type="expression" dxfId="244" priority="4022" stopIfTrue="1">
       <formula>$E24="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="4023" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="4023" stopIfTrue="1">
       <formula>OR($E24="終了",$E24="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T33:Y35">
-    <cfRule type="expression" dxfId="251" priority="4030" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="4030" stopIfTrue="1">
       <formula>$E17="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="4031" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="4031" stopIfTrue="1">
       <formula>$E17="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="4032" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="4032" stopIfTrue="1">
       <formula>OR($E17="終了",$E17="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32240,7 +32198,7 @@
       <c r="C1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="108" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="100" t="s">
@@ -32280,7 +32238,7 @@
       <c r="A2" s="100"/>
       <c r="B2" s="101"/>
       <c r="C2" s="101"/>
-      <c r="D2" s="107"/>
+      <c r="D2" s="109"/>
       <c r="E2" s="100"/>
       <c r="F2" s="103"/>
       <c r="G2" s="103"/>
@@ -32313,7 +32271,7 @@
       <c r="A3" s="100"/>
       <c r="B3" s="101"/>
       <c r="C3" s="101"/>
-      <c r="D3" s="107"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="100"/>
       <c r="F3" s="103"/>
       <c r="G3" s="103"/>
@@ -32322,38 +32280,38 @@
       <c r="J3" s="100"/>
       <c r="K3" s="20">
         <f>INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$Q$2))))</f>
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="L3" s="20">
         <f t="shared" ref="L3:Q3" si="0">INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$Q$2))))</f>
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="M3" s="20">
         <f t="shared" si="0"/>
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="N3" s="20">
         <f t="shared" si="0"/>
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="O3" s="20">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="P3" s="20">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="Q3" s="20">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="8" customFormat="1">
       <c r="A4" s="100"/>
       <c r="B4" s="101"/>
       <c r="C4" s="102"/>
-      <c r="D4" s="108"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="100"/>
       <c r="F4" s="103"/>
       <c r="G4" s="103"/>
@@ -32361,8 +32319,8 @@
       <c r="I4" s="105"/>
       <c r="J4" s="100"/>
       <c r="K4" s="21">
-        <f>SUM(K5:K200)</f>
-        <v>233.5</v>
+        <f>SUM(K5:K183)</f>
+        <v>192.5</v>
       </c>
       <c r="L4" s="21">
         <f t="shared" ref="L4:Q4" si="1">SUM(L5:L45)</f>
@@ -32650,7 +32608,7 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="16">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>82</v>
@@ -33132,7 +33090,7 @@
         <v>28</v>
       </c>
       <c r="U26" s="10">
-        <f ca="1">SUMIF($C$5:$C$89,S26,$J$5:$J$89)</f>
+        <f ca="1">SUMIF($C$5:$C$78,S26,$J$5:$J$78)</f>
         <v>22.5</v>
       </c>
       <c r="V26" s="10">
@@ -33193,7 +33151,7 @@
         <v>17</v>
       </c>
       <c r="U27" s="10">
-        <f ca="1">SUMIF($C$5:$C$89,S27,$J$5:$J$89)</f>
+        <f ca="1">SUMIF($C$5:$C$78,S27,$J$5:$J$78)</f>
         <v>9</v>
       </c>
       <c r="V27" s="10">
@@ -33254,19 +33212,19 @@
         <v>0</v>
       </c>
       <c r="U28" s="10">
-        <f ca="1">SUMIF($C$5:$C$89,S28,$J$5:$J$89)</f>
-        <v>85</v>
+        <f ca="1">SUMIF($C$5:$C$78,S28,$J$5:$J$78)</f>
+        <v>59</v>
       </c>
       <c r="V28" s="10">
         <f t="shared" ref="V28" ca="1" si="5">T28-U28</f>
-        <v>-85</v>
+        <v>-59</v>
       </c>
       <c r="W28" s="14">
         <v>0</v>
       </c>
       <c r="X28" s="15">
         <f t="shared" ref="X28" ca="1" si="6">IF(W28&gt;U28,0,U28-W28)</f>
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -33652,11 +33610,11 @@
         <v>47</v>
       </c>
       <c r="T38" s="10">
-        <f>SUMIF($C$5:$C$200,S38,$H$5:$H$200)</f>
+        <f t="shared" ref="T38:T43" si="7">SUMIF($C$5:$C$183,S38,$H$5:$H$183)</f>
         <v>28</v>
       </c>
       <c r="U38" s="10">
-        <f ca="1">SUMIF($C$5:$C$200,S38,$J$5:$J$200)</f>
+        <f t="shared" ref="U38:U43" ca="1" si="8">SUMIF($C$5:$C$183,S38,$J$5:$J$183)</f>
         <v>22.5</v>
       </c>
       <c r="V38" s="10">
@@ -33713,11 +33671,11 @@
         <v>94</v>
       </c>
       <c r="T39" s="10">
-        <f t="shared" ref="T39:T43" si="7">SUMIF($C$5:$C$200,S39,$H$5:$H$200)</f>
+        <f t="shared" si="7"/>
         <v>68</v>
       </c>
       <c r="U39" s="10">
-        <f t="shared" ref="U39:U43" ca="1" si="8">SUMIF($C$5:$C$200,S39,$J$5:$J$200)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>66</v>
       </c>
       <c r="V39" s="10">
@@ -33823,11 +33781,11 @@
       </c>
       <c r="T41" s="10">
         <f t="shared" si="7"/>
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="U41" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="V41" s="10">
         <f t="shared" ca="1" si="9"/>
@@ -33838,7 +33796,7 @@
       </c>
       <c r="X41" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>100</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -33888,18 +33846,18 @@
       </c>
       <c r="U42" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="V42" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="W42" s="14">
         <v>0</v>
       </c>
       <c r="X42" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -34257,7 +34215,7 @@
         <v>58</v>
       </c>
       <c r="E52" s="12" t="str">
-        <f t="shared" ref="E52:E95" si="12">IF(ISBLANK($B52),"",IF(ISBLANK($G52),"未着手",IF($J52=0,"完了","作業中")))</f>
+        <f t="shared" ref="E52:E78" si="12">IF(ISBLANK($B52),"",IF(ISBLANK($G52),"未着手",IF($J52=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F52" s="4">
@@ -34999,7 +34957,7 @@
       </c>
       <c r="I72" s="19"/>
       <c r="J72" s="12">
-        <f t="shared" ref="J72:J95" ca="1" si="13">IF(ISBLANK(K72)=FALSE,OFFSET(J72,0,COUNTA(K72:Q72)),"")</f>
+        <f t="shared" ref="J72:J78" ca="1" si="13">IF(ISBLANK(K72)=FALSE,OFFSET(J72,0,COUNTA(K72:Q72)),"")</f>
         <v>3</v>
       </c>
       <c r="K72" s="22">
@@ -35238,18 +35196,19 @@
       <c r="A79" s="16">
         <v>75</v>
       </c>
-      <c r="B79" s="89" t="s">
-        <v>252</v>
-      </c>
+      <c r="B79" s="17"/>
       <c r="C79" s="18"/>
       <c r="D79" s="18"/>
-      <c r="E79" s="12"/>
+      <c r="E79" s="12" t="str">
+        <f t="shared" ref="E79:E125" si="14">IF(ISBLANK($B79),"",IF(ISBLANK($G79),"未着手",IF($J79=0,"完了","作業中")))</f>
+        <v/>
+      </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
       <c r="J79" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ref="J79:J110" ca="1" si="15">IF(ISBLANK(K79)=FALSE,OFFSET(J79,0,COUNTA(K79:Q79)),"")</f>
         <v/>
       </c>
       <c r="K79" s="22"/>
@@ -35264,34 +35223,21 @@
       <c r="A80" s="16">
         <v>76</v>
       </c>
-      <c r="B80" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="C80" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D80" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E80" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>未着手</v>
-      </c>
-      <c r="F80" s="4">
-        <v>43104</v>
-      </c>
+      <c r="B80" s="89" t="s">
+        <v>308</v>
+      </c>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="4"/>
       <c r="G80" s="4"/>
-      <c r="H80" s="19">
-        <v>2</v>
-      </c>
+      <c r="H80" s="19"/>
       <c r="I80" s="19"/>
-      <c r="J80" s="12">
-        <f t="shared" ca="1" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="K80" s="22">
-        <v>2</v>
-      </c>
+      <c r="J80" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="K80" s="22"/>
       <c r="L80" s="22"/>
       <c r="M80" s="22"/>
       <c r="N80" s="22"/>
@@ -35304,34 +35250,40 @@
         <v>77</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E81" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>完了</v>
       </c>
       <c r="F81" s="4">
         <v>43104</v>
       </c>
-      <c r="G81" s="4"/>
+      <c r="G81" s="4">
+        <v>43109</v>
+      </c>
       <c r="H81" s="19">
-        <v>4</v>
-      </c>
-      <c r="I81" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="I81" s="19">
+        <v>3</v>
+      </c>
       <c r="J81" s="12">
-        <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
       <c r="K81" s="22">
-        <v>4</v>
-      </c>
-      <c r="L81" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="L81" s="22">
+        <v>0</v>
+      </c>
       <c r="M81" s="22"/>
       <c r="N81" s="22"/>
       <c r="O81" s="22"/>
@@ -35343,34 +35295,40 @@
         <v>78</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E82" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>完了</v>
       </c>
       <c r="F82" s="4">
         <v>43105</v>
       </c>
-      <c r="G82" s="4"/>
+      <c r="G82" s="4">
+        <v>43112</v>
+      </c>
       <c r="H82" s="19">
-        <v>2</v>
-      </c>
-      <c r="I82" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="I82" s="19">
+        <v>3</v>
+      </c>
       <c r="J82" s="12">
-        <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
       <c r="K82" s="22">
-        <v>2</v>
-      </c>
-      <c r="L82" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="L82" s="22">
+        <v>0</v>
+      </c>
       <c r="M82" s="22"/>
       <c r="N82" s="22"/>
       <c r="O82" s="22"/>
@@ -35381,34 +35339,22 @@
       <c r="A83" s="16">
         <v>79</v>
       </c>
-      <c r="B83" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D83" s="18" t="s">
-        <v>58</v>
-      </c>
+      <c r="B83" s="17"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
       <c r="E83" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>未着手</v>
-      </c>
-      <c r="F83" s="4">
-        <v>43105</v>
-      </c>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="F83" s="4"/>
       <c r="G83" s="4"/>
-      <c r="H83" s="19">
-        <v>2</v>
-      </c>
+      <c r="H83" s="19"/>
       <c r="I83" s="19"/>
-      <c r="J83" s="12">
-        <f t="shared" ca="1" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="K83" s="22">
-        <v>2</v>
-      </c>
+      <c r="J83" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="K83" s="22"/>
       <c r="L83" s="22"/>
       <c r="M83" s="22"/>
       <c r="N83" s="22"/>
@@ -35420,34 +35366,21 @@
       <c r="A84" s="16">
         <v>80</v>
       </c>
-      <c r="B84" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="C84" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D84" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E84" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>未着手</v>
-      </c>
-      <c r="F84" s="4">
-        <v>43105</v>
-      </c>
+      <c r="B84" s="89" t="s">
+        <v>309</v>
+      </c>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="4"/>
       <c r="G84" s="4"/>
-      <c r="H84" s="19">
-        <v>2</v>
-      </c>
+      <c r="H84" s="19"/>
       <c r="I84" s="19"/>
-      <c r="J84" s="12">
-        <f t="shared" ca="1" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="K84" s="22">
-        <v>2</v>
-      </c>
+      <c r="J84" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="K84" s="22"/>
       <c r="L84" s="22"/>
       <c r="M84" s="22"/>
       <c r="N84" s="22"/>
@@ -35460,16 +35393,16 @@
         <v>81</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E85" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="E85:E94" si="16">IF(ISBLANK($B85),"",IF(ISBLANK($G85),"未着手",IF($J85=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F85" s="4">
@@ -35477,15 +35410,15 @@
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I85" s="19"/>
       <c r="J85" s="12">
-        <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>3</v>
       </c>
       <c r="K85" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L85" s="22"/>
       <c r="M85" s="22"/>
@@ -35499,20 +35432,20 @@
         <v>82</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E86" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F86" s="4">
-        <v>43106</v>
+        <v>43105</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="19">
@@ -35520,7 +35453,7 @@
       </c>
       <c r="I86" s="19"/>
       <c r="J86" s="12">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3</v>
       </c>
       <c r="K86" s="22">
@@ -35538,16 +35471,16 @@
         <v>83</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E87" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F87" s="4">
@@ -35555,15 +35488,15 @@
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I87" s="19"/>
       <c r="J87" s="12">
-        <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>4</v>
       </c>
       <c r="K87" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L87" s="22"/>
       <c r="M87" s="22"/>
@@ -35577,32 +35510,32 @@
         <v>84</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E88" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F88" s="4">
-        <v>43107</v>
+        <v>43106</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I88" s="19"/>
       <c r="J88" s="12">
-        <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <f ca="1">IF(ISBLANK(K88)=FALSE,OFFSET(J88,0,COUNTA(K88:Q88)),"")</f>
+        <v>3</v>
       </c>
       <c r="K88" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L88" s="22"/>
       <c r="M88" s="22"/>
@@ -35615,34 +35548,22 @@
       <c r="A89" s="16">
         <v>85</v>
       </c>
-      <c r="B89" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="C89" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D89" s="18" t="s">
-        <v>58</v>
-      </c>
+      <c r="B89" s="17"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
       <c r="E89" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>未着手</v>
-      </c>
-      <c r="F89" s="4">
-        <v>43107</v>
-      </c>
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="F89" s="4"/>
       <c r="G89" s="4"/>
-      <c r="H89" s="19">
-        <v>4</v>
-      </c>
+      <c r="H89" s="19"/>
       <c r="I89" s="19"/>
-      <c r="J89" s="12">
-        <f t="shared" ca="1" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="K89" s="22">
-        <v>4</v>
-      </c>
+      <c r="J89" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="K89" s="22"/>
       <c r="L89" s="22"/>
       <c r="M89" s="22"/>
       <c r="N89" s="22"/>
@@ -35655,20 +35576,20 @@
         <v>86</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>263</v>
+        <v>310</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="E90" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F90" s="4">
-        <v>43108</v>
+        <v>43092</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="19">
@@ -35676,7 +35597,7 @@
       </c>
       <c r="I90" s="19"/>
       <c r="J90" s="12">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
       <c r="K90" s="22">
@@ -35694,32 +35615,32 @@
         <v>87</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>264</v>
+        <v>311</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="E91" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F91" s="4">
-        <v>43108</v>
+        <v>43092</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I91" s="19"/>
       <c r="J91" s="12">
-        <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2</v>
       </c>
       <c r="K91" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L91" s="22"/>
       <c r="M91" s="22"/>
@@ -35733,20 +35654,20 @@
         <v>88</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>58</v>
+        <v>315</v>
       </c>
       <c r="E92" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F92" s="4">
-        <v>43109</v>
+        <v>43093</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="19">
@@ -35754,7 +35675,7 @@
       </c>
       <c r="I92" s="19"/>
       <c r="J92" s="12">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
       <c r="K92" s="22">
@@ -35772,32 +35693,32 @@
         <v>89</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>266</v>
+        <v>317</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E93" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F93" s="4">
-        <v>43109</v>
+        <v>43095</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I93" s="19"/>
       <c r="J93" s="12">
-        <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>6</v>
       </c>
       <c r="K93" s="22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L93" s="22"/>
       <c r="M93" s="22"/>
@@ -35811,20 +35732,20 @@
         <v>90</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>267</v>
+        <v>318</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="E94" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F94" s="4">
-        <v>43109</v>
+        <v>43095</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="19">
@@ -35832,7 +35753,7 @@
       </c>
       <c r="I94" s="19"/>
       <c r="J94" s="12">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>2</v>
       </c>
       <c r="K94" s="22">
@@ -35849,34 +35770,22 @@
       <c r="A95" s="16">
         <v>91</v>
       </c>
-      <c r="B95" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="C95" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D95" s="18" t="s">
-        <v>58</v>
-      </c>
+      <c r="B95" s="17"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
       <c r="E95" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>未着手</v>
-      </c>
-      <c r="F95" s="4">
-        <v>43110</v>
-      </c>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="F95" s="4"/>
       <c r="G95" s="4"/>
-      <c r="H95" s="19">
-        <v>3</v>
-      </c>
+      <c r="H95" s="19"/>
       <c r="I95" s="19"/>
-      <c r="J95" s="12">
-        <f t="shared" ca="1" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="K95" s="22">
-        <v>3</v>
-      </c>
+      <c r="J95" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="K95" s="22"/>
       <c r="L95" s="22"/>
       <c r="M95" s="22"/>
       <c r="N95" s="22"/>
@@ -35888,42 +35797,41 @@
       <c r="A96" s="16">
         <v>92</v>
       </c>
-      <c r="B96" s="17"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="12" t="str">
-        <f t="shared" ref="E96:E142" si="14">IF(ISBLANK($B96),"",IF(ISBLANK($G96),"未着手",IF($J96=0,"完了","作業中")))</f>
-        <v/>
-      </c>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="12" t="str">
-        <f t="shared" ref="J96:J111" ca="1" si="15">IF(ISBLANK(K96)=FALSE,OFFSET(J96,0,COUNTA(K96:Q96)),"")</f>
-        <v/>
-      </c>
-      <c r="K96" s="22"/>
-      <c r="L96" s="22"/>
-      <c r="M96" s="22"/>
-      <c r="N96" s="22"/>
-      <c r="O96" s="22"/>
-      <c r="P96" s="22"/>
-      <c r="Q96" s="22"/>
+      <c r="B96" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96" s="74"/>
+      <c r="D96" s="74"/>
+      <c r="E96" s="75"/>
+      <c r="F96" s="76"/>
+      <c r="G96" s="76"/>
+      <c r="H96" s="77"/>
+      <c r="I96" s="77"/>
+      <c r="J96" s="75" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="K96" s="78"/>
+      <c r="L96" s="78"/>
+      <c r="M96" s="78"/>
+      <c r="N96" s="78"/>
+      <c r="O96" s="78"/>
+      <c r="P96" s="78"/>
+      <c r="Q96" s="78"/>
     </row>
     <row r="97" spans="1:17">
       <c r="A97" s="16">
         <v>93</v>
       </c>
       <c r="B97" s="89" t="s">
-        <v>308</v>
-      </c>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="19"/>
+        <v>164</v>
+      </c>
+      <c r="C97" s="83"/>
+      <c r="D97" s="83"/>
+      <c r="E97" s="84"/>
+      <c r="F97" s="85"/>
+      <c r="G97" s="85"/>
+      <c r="H97" s="86"/>
       <c r="I97" s="19"/>
       <c r="J97" s="12" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -35942,36 +35850,32 @@
         <v>94</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>296</v>
+        <v>153</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E98" s="12" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>完了</v>
+        <f>IF(ISBLANK($B98),"",IF(ISBLANK($G98),"未着手",IF($J98=0,"完了","作業中")))</f>
+        <v>未着手</v>
       </c>
       <c r="F98" s="4">
-        <v>43104</v>
-      </c>
-      <c r="G98" s="4">
-        <v>43109</v>
-      </c>
+        <v>43094</v>
+      </c>
+      <c r="G98" s="4"/>
       <c r="H98" s="19">
-        <v>3</v>
-      </c>
-      <c r="I98" s="19">
-        <v>3</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="I98" s="19"/>
       <c r="J98" s="12">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="K98" s="22">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L98" s="22"/>
       <c r="M98" s="22"/>
@@ -35985,32 +35889,32 @@
         <v>95</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>297</v>
+        <v>150</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E99" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(ISBLANK($B99),"",IF(ISBLANK($G99),"未着手",IF($J99=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F99" s="4">
-        <v>43105</v>
+        <v>43094</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="19">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="I99" s="19"/>
       <c r="J99" s="12">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K99" s="22">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L99" s="22"/>
       <c r="M99" s="22"/>
@@ -36023,22 +35927,34 @@
       <c r="A100" s="16">
         <v>96</v>
       </c>
-      <c r="B100" s="17"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
+      <c r="B100" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="E100" s="12" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F100" s="4"/>
+        <f t="shared" ref="E100:E103" si="17">IF(ISBLANK($B100),"",IF(ISBLANK($G100),"未着手",IF($J100=0,"完了","作業中")))</f>
+        <v>未着手</v>
+      </c>
+      <c r="F100" s="4">
+        <v>43094</v>
+      </c>
       <c r="G100" s="4"/>
-      <c r="H100" s="19"/>
+      <c r="H100" s="19">
+        <v>1.5</v>
+      </c>
       <c r="I100" s="19"/>
-      <c r="J100" s="12" t="str">
+      <c r="J100" s="12">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="K100" s="22"/>
+        <v>1.5</v>
+      </c>
+      <c r="K100" s="22">
+        <v>1.5</v>
+      </c>
       <c r="L100" s="22"/>
       <c r="M100" s="22"/>
       <c r="N100" s="22"/>
@@ -36050,21 +35966,34 @@
       <c r="A101" s="16">
         <v>97</v>
       </c>
-      <c r="B101" s="89" t="s">
-        <v>309</v>
-      </c>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="4"/>
+      <c r="B101" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E101" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>未着手</v>
+      </c>
+      <c r="F101" s="4">
+        <v>43103</v>
+      </c>
       <c r="G101" s="4"/>
-      <c r="H101" s="19"/>
+      <c r="H101" s="19">
+        <v>1.5</v>
+      </c>
       <c r="I101" s="19"/>
-      <c r="J101" s="12" t="str">
+      <c r="J101" s="12">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="K101" s="22"/>
+        <v>1.5</v>
+      </c>
+      <c r="K101" s="22">
+        <v>1.5</v>
+      </c>
       <c r="L101" s="22"/>
       <c r="M101" s="22"/>
       <c r="N101" s="22"/>
@@ -36077,32 +36006,32 @@
         <v>98</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>298</v>
+        <v>154</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D102" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E102" s="12" t="str">
-        <f t="shared" ref="E102:E111" si="16">IF(ISBLANK($B102),"",IF(ISBLANK($G102),"未着手",IF($J102=0,"完了","作業中")))</f>
+        <f t="shared" si="17"/>
         <v>未着手</v>
       </c>
       <c r="F102" s="4">
-        <v>43105</v>
+        <v>43103</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="19">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="I102" s="19"/>
       <c r="J102" s="12">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K102" s="22">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L102" s="22"/>
       <c r="M102" s="22"/>
@@ -36116,32 +36045,32 @@
         <v>99</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>299</v>
+        <v>155</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D103" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E103" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>未着手</v>
       </c>
       <c r="F103" s="4">
-        <v>43105</v>
+        <v>43103</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="19">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="I103" s="19"/>
       <c r="J103" s="12">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K103" s="22">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L103" s="22"/>
       <c r="M103" s="22"/>
@@ -36154,34 +36083,21 @@
       <c r="A104" s="16">
         <v>100</v>
       </c>
-      <c r="B104" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D104" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E104" s="12" t="str">
-        <f t="shared" si="16"/>
-        <v>未着手</v>
-      </c>
-      <c r="F104" s="4">
-        <v>43106</v>
-      </c>
+      <c r="B104" s="88" t="s">
+        <v>219</v>
+      </c>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="4"/>
       <c r="G104" s="4"/>
-      <c r="H104" s="19">
-        <v>4</v>
-      </c>
+      <c r="H104" s="19"/>
       <c r="I104" s="19"/>
-      <c r="J104" s="12">
+      <c r="J104" s="12" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="K104" s="22">
-        <v>4</v>
-      </c>
+        <v/>
+      </c>
+      <c r="K104" s="22"/>
       <c r="L104" s="22"/>
       <c r="M104" s="22"/>
       <c r="N104" s="22"/>
@@ -36194,32 +36110,32 @@
         <v>101</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>302</v>
+        <v>192</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D105" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E105" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="E105:E108" si="18">IF(ISBLANK($B105),"",IF(ISBLANK($G105),"未着手",IF($J105=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F105" s="4">
-        <v>43106</v>
+        <v>42738</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105" s="19"/>
       <c r="J105" s="12">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K105" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L105" s="22"/>
       <c r="M105" s="22"/>
@@ -36232,22 +36148,34 @@
       <c r="A106" s="16">
         <v>102</v>
       </c>
-      <c r="B106" s="17"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
+      <c r="B106" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>48</v>
+      </c>
       <c r="E106" s="12" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="F106" s="4"/>
+        <f t="shared" si="18"/>
+        <v>未着手</v>
+      </c>
+      <c r="F106" s="4">
+        <v>42738</v>
+      </c>
       <c r="G106" s="4"/>
-      <c r="H106" s="19"/>
+      <c r="H106" s="19">
+        <v>2</v>
+      </c>
       <c r="I106" s="19"/>
-      <c r="J106" s="12" t="str">
+      <c r="J106" s="12">
         <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="K106" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="K106" s="22">
+        <v>2</v>
+      </c>
       <c r="L106" s="22"/>
       <c r="M106" s="22"/>
       <c r="N106" s="22"/>
@@ -36260,20 +36188,20 @@
         <v>103</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>310</v>
+        <v>194</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E107" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>未着手</v>
       </c>
       <c r="F107" s="4">
-        <v>43092</v>
+        <v>42739</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="19">
@@ -36299,20 +36227,20 @@
         <v>104</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>311</v>
+        <v>195</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E108" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>未着手</v>
       </c>
       <c r="F108" s="4">
-        <v>43092</v>
+        <v>42739</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="19">
@@ -36337,34 +36265,22 @@
       <c r="A109" s="16">
         <v>105</v>
       </c>
-      <c r="B109" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="C109" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D109" s="18" t="s">
-        <v>315</v>
-      </c>
+      <c r="B109" s="17"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
       <c r="E109" s="12" t="str">
-        <f t="shared" si="16"/>
-        <v>未着手</v>
-      </c>
-      <c r="F109" s="4">
-        <v>43093</v>
-      </c>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="F109" s="4"/>
       <c r="G109" s="4"/>
-      <c r="H109" s="19">
-        <v>2</v>
-      </c>
+      <c r="H109" s="19"/>
       <c r="I109" s="19"/>
-      <c r="J109" s="12">
+      <c r="J109" s="12" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="K109" s="22">
-        <v>2</v>
-      </c>
+        <v/>
+      </c>
+      <c r="K109" s="22"/>
       <c r="L109" s="22"/>
       <c r="M109" s="22"/>
       <c r="N109" s="22"/>
@@ -36377,32 +36293,36 @@
         <v>106</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>94</v>
+        <v>334</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>69</v>
+        <v>335</v>
       </c>
       <c r="E110" s="12" t="str">
-        <f t="shared" si="16"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>完了</v>
       </c>
       <c r="F110" s="4">
-        <v>43095</v>
-      </c>
-      <c r="G110" s="4"/>
+        <v>43109</v>
+      </c>
+      <c r="G110" s="4">
+        <v>43109</v>
+      </c>
       <c r="H110" s="19">
-        <v>6</v>
-      </c>
-      <c r="I110" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="I110" s="19">
+        <v>2</v>
+      </c>
       <c r="J110" s="12">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K110" s="22">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L110" s="22"/>
       <c r="M110" s="22"/>
@@ -36415,34 +36335,22 @@
       <c r="A111" s="16">
         <v>107</v>
       </c>
-      <c r="B111" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="C111" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D111" s="18" t="s">
-        <v>79</v>
-      </c>
+      <c r="B111" s="17"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="18"/>
       <c r="E111" s="12" t="str">
-        <f t="shared" si="16"/>
-        <v>未着手</v>
-      </c>
-      <c r="F111" s="4">
-        <v>43095</v>
-      </c>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="F111" s="4"/>
       <c r="G111" s="4"/>
-      <c r="H111" s="19">
-        <v>2</v>
-      </c>
+      <c r="H111" s="19"/>
       <c r="I111" s="19"/>
-      <c r="J111" s="12">
-        <f t="shared" ca="1" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="K111" s="22">
-        <v>2</v>
-      </c>
+      <c r="J111" s="12" t="str">
+        <f t="shared" ref="J104:J165" ca="1" si="19">IF(ISBLANK(K111)=FALSE,OFFSET(J111,0,COUNTA(K111:Q111)),"")</f>
+        <v/>
+      </c>
+      <c r="K111" s="22"/>
       <c r="L111" s="22"/>
       <c r="M111" s="22"/>
       <c r="N111" s="22"/>
@@ -36466,7 +36374,7 @@
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
       <c r="J112" s="12" t="str">
-        <f t="shared" ref="J112" ca="1" si="17">IF(ISBLANK(K112)=FALSE,OFFSET(J112,0,COUNTA(K112:Q112)),"")</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K112" s="22"/>
@@ -36481,44 +36389,46 @@
       <c r="A113" s="16">
         <v>109</v>
       </c>
-      <c r="B113" s="73" t="s">
-        <v>103</v>
-      </c>
-      <c r="C113" s="74"/>
-      <c r="D113" s="74"/>
-      <c r="E113" s="75"/>
-      <c r="F113" s="76"/>
-      <c r="G113" s="76"/>
-      <c r="H113" s="77"/>
-      <c r="I113" s="77"/>
-      <c r="J113" s="75" t="str">
-        <f t="shared" ref="J113:J120" ca="1" si="18">IF(ISBLANK(K113)=FALSE,OFFSET(J113,0,COUNTA(K113:R113)),"")</f>
-        <v/>
-      </c>
-      <c r="K113" s="78"/>
-      <c r="L113" s="78"/>
-      <c r="M113" s="78"/>
-      <c r="N113" s="78"/>
-      <c r="O113" s="78"/>
-      <c r="P113" s="78"/>
-      <c r="Q113" s="78"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="12" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="K113" s="22"/>
+      <c r="L113" s="22"/>
+      <c r="M113" s="22"/>
+      <c r="N113" s="22"/>
+      <c r="O113" s="22"/>
+      <c r="P113" s="22"/>
+      <c r="Q113" s="22"/>
     </row>
     <row r="114" spans="1:17">
       <c r="A114" s="16">
         <v>110</v>
       </c>
-      <c r="B114" s="89" t="s">
-        <v>164</v>
-      </c>
-      <c r="C114" s="83"/>
-      <c r="D114" s="83"/>
-      <c r="E114" s="84"/>
-      <c r="F114" s="85"/>
-      <c r="G114" s="85"/>
-      <c r="H114" s="86"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="19"/>
       <c r="I114" s="19"/>
       <c r="J114" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K114" s="22"/>
@@ -36533,34 +36443,22 @@
       <c r="A115" s="16">
         <v>111</v>
       </c>
-      <c r="B115" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C115" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D115" s="18" t="s">
-        <v>58</v>
-      </c>
+      <c r="B115" s="17"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
       <c r="E115" s="12" t="str">
-        <f>IF(ISBLANK($B115),"",IF(ISBLANK($G115),"未着手",IF($J115=0,"完了","作業中")))</f>
-        <v>未着手</v>
-      </c>
-      <c r="F115" s="4">
-        <v>43094</v>
-      </c>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="F115" s="4"/>
       <c r="G115" s="4"/>
-      <c r="H115" s="19">
-        <v>1.5</v>
-      </c>
+      <c r="H115" s="19"/>
       <c r="I115" s="19"/>
-      <c r="J115" s="12">
-        <f t="shared" ca="1" si="18"/>
-        <v>1.5</v>
-      </c>
-      <c r="K115" s="22">
-        <v>1.5</v>
-      </c>
+      <c r="J115" s="12" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="K115" s="22"/>
       <c r="L115" s="22"/>
       <c r="M115" s="22"/>
       <c r="N115" s="22"/>
@@ -36572,34 +36470,22 @@
       <c r="A116" s="16">
         <v>112</v>
       </c>
-      <c r="B116" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C116" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D116" s="18" t="s">
-        <v>58</v>
-      </c>
+      <c r="B116" s="17"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="18"/>
       <c r="E116" s="12" t="str">
-        <f>IF(ISBLANK($B116),"",IF(ISBLANK($G116),"未着手",IF($J116=0,"完了","作業中")))</f>
-        <v>未着手</v>
-      </c>
-      <c r="F116" s="4">
-        <v>43094</v>
-      </c>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="F116" s="4"/>
       <c r="G116" s="4"/>
-      <c r="H116" s="19">
-        <v>1.5</v>
-      </c>
+      <c r="H116" s="19"/>
       <c r="I116" s="19"/>
-      <c r="J116" s="12">
-        <f t="shared" ca="1" si="18"/>
-        <v>1.5</v>
-      </c>
-      <c r="K116" s="22">
-        <v>1.5</v>
-      </c>
+      <c r="J116" s="12" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="K116" s="22"/>
       <c r="L116" s="22"/>
       <c r="M116" s="22"/>
       <c r="N116" s="22"/>
@@ -36611,34 +36497,22 @@
       <c r="A117" s="16">
         <v>113</v>
       </c>
-      <c r="B117" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C117" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D117" s="18" t="s">
-        <v>58</v>
-      </c>
+      <c r="B117" s="17"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="18"/>
       <c r="E117" s="12" t="str">
-        <f t="shared" ref="E117:E120" si="19">IF(ISBLANK($B117),"",IF(ISBLANK($G117),"未着手",IF($J117=0,"完了","作業中")))</f>
-        <v>未着手</v>
-      </c>
-      <c r="F117" s="4">
-        <v>43094</v>
-      </c>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="F117" s="4"/>
       <c r="G117" s="4"/>
-      <c r="H117" s="19">
-        <v>1.5</v>
-      </c>
+      <c r="H117" s="19"/>
       <c r="I117" s="19"/>
-      <c r="J117" s="12">
-        <f t="shared" ca="1" si="18"/>
-        <v>1.5</v>
-      </c>
-      <c r="K117" s="22">
-        <v>1.5</v>
-      </c>
+      <c r="J117" s="12" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="K117" s="22"/>
       <c r="L117" s="22"/>
       <c r="M117" s="22"/>
       <c r="N117" s="22"/>
@@ -36650,34 +36524,22 @@
       <c r="A118" s="16">
         <v>114</v>
       </c>
-      <c r="B118" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="C118" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D118" s="18" t="s">
-        <v>48</v>
-      </c>
+      <c r="B118" s="17"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
       <c r="E118" s="12" t="str">
-        <f t="shared" si="19"/>
-        <v>未着手</v>
-      </c>
-      <c r="F118" s="4">
-        <v>43103</v>
-      </c>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="F118" s="4"/>
       <c r="G118" s="4"/>
-      <c r="H118" s="19">
-        <v>1.5</v>
-      </c>
+      <c r="H118" s="19"/>
       <c r="I118" s="19"/>
-      <c r="J118" s="12">
-        <f t="shared" ca="1" si="18"/>
-        <v>1.5</v>
-      </c>
-      <c r="K118" s="22">
-        <v>1.5</v>
-      </c>
+      <c r="J118" s="12" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="K118" s="22"/>
       <c r="L118" s="22"/>
       <c r="M118" s="22"/>
       <c r="N118" s="22"/>
@@ -36689,34 +36551,22 @@
       <c r="A119" s="16">
         <v>115</v>
       </c>
-      <c r="B119" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C119" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D119" s="18" t="s">
-        <v>48</v>
-      </c>
+      <c r="B119" s="17"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="18"/>
       <c r="E119" s="12" t="str">
-        <f t="shared" si="19"/>
-        <v>未着手</v>
-      </c>
-      <c r="F119" s="4">
-        <v>43103</v>
-      </c>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="F119" s="4"/>
       <c r="G119" s="4"/>
-      <c r="H119" s="19">
-        <v>1.5</v>
-      </c>
+      <c r="H119" s="19"/>
       <c r="I119" s="19"/>
-      <c r="J119" s="12">
-        <f t="shared" ca="1" si="18"/>
-        <v>1.5</v>
-      </c>
-      <c r="K119" s="22">
-        <v>1.5</v>
-      </c>
+      <c r="J119" s="12" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="K119" s="22"/>
       <c r="L119" s="22"/>
       <c r="M119" s="22"/>
       <c r="N119" s="22"/>
@@ -36728,34 +36578,22 @@
       <c r="A120" s="16">
         <v>116</v>
       </c>
-      <c r="B120" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="C120" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D120" s="18" t="s">
-        <v>48</v>
-      </c>
+      <c r="B120" s="17"/>
+      <c r="C120" s="18"/>
+      <c r="D120" s="18"/>
       <c r="E120" s="12" t="str">
-        <f t="shared" si="19"/>
-        <v>未着手</v>
-      </c>
-      <c r="F120" s="4">
-        <v>43103</v>
-      </c>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="F120" s="4"/>
       <c r="G120" s="4"/>
-      <c r="H120" s="19">
-        <v>1.5</v>
-      </c>
+      <c r="H120" s="19"/>
       <c r="I120" s="19"/>
-      <c r="J120" s="12">
-        <f t="shared" ca="1" si="18"/>
-        <v>1.5</v>
-      </c>
-      <c r="K120" s="22">
-        <v>1.5</v>
-      </c>
+      <c r="J120" s="12" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="K120" s="22"/>
       <c r="L120" s="22"/>
       <c r="M120" s="22"/>
       <c r="N120" s="22"/>
@@ -36767,18 +36605,19 @@
       <c r="A121" s="16">
         <v>117</v>
       </c>
-      <c r="B121" s="88" t="s">
-        <v>219</v>
-      </c>
+      <c r="B121" s="17"/>
       <c r="C121" s="18"/>
       <c r="D121" s="18"/>
-      <c r="E121" s="12"/>
+      <c r="E121" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
       <c r="J121" s="12" t="str">
-        <f t="shared" ref="J121:J182" ca="1" si="20">IF(ISBLANK(K121)=FALSE,OFFSET(J121,0,COUNTA(K121:Q121)),"")</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K121" s="22"/>
@@ -36793,34 +36632,22 @@
       <c r="A122" s="16">
         <v>118</v>
       </c>
-      <c r="B122" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C122" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D122" s="18" t="s">
-        <v>48</v>
-      </c>
+      <c r="B122" s="17"/>
+      <c r="C122" s="18"/>
+      <c r="D122" s="18"/>
       <c r="E122" s="12" t="str">
-        <f t="shared" ref="E122:E125" si="21">IF(ISBLANK($B122),"",IF(ISBLANK($G122),"未着手",IF($J122=0,"完了","作業中")))</f>
-        <v>未着手</v>
-      </c>
-      <c r="F122" s="4">
-        <v>42738</v>
-      </c>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="F122" s="4"/>
       <c r="G122" s="4"/>
-      <c r="H122" s="19">
-        <v>2</v>
-      </c>
+      <c r="H122" s="19"/>
       <c r="I122" s="19"/>
-      <c r="J122" s="12">
-        <f t="shared" ca="1" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="K122" s="22">
-        <v>2</v>
-      </c>
+      <c r="J122" s="12" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="K122" s="22"/>
       <c r="L122" s="22"/>
       <c r="M122" s="22"/>
       <c r="N122" s="22"/>
@@ -36832,34 +36659,22 @@
       <c r="A123" s="16">
         <v>119</v>
       </c>
-      <c r="B123" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C123" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D123" s="18" t="s">
-        <v>48</v>
-      </c>
+      <c r="B123" s="17"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="18"/>
       <c r="E123" s="12" t="str">
-        <f t="shared" si="21"/>
-        <v>未着手</v>
-      </c>
-      <c r="F123" s="4">
-        <v>42738</v>
-      </c>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="F123" s="4"/>
       <c r="G123" s="4"/>
-      <c r="H123" s="19">
-        <v>2</v>
-      </c>
+      <c r="H123" s="19"/>
       <c r="I123" s="19"/>
-      <c r="J123" s="12">
-        <f t="shared" ca="1" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="K123" s="22">
-        <v>2</v>
-      </c>
+      <c r="J123" s="12" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="K123" s="22"/>
       <c r="L123" s="22"/>
       <c r="M123" s="22"/>
       <c r="N123" s="22"/>
@@ -36871,34 +36686,22 @@
       <c r="A124" s="16">
         <v>120</v>
       </c>
-      <c r="B124" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="C124" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D124" s="18" t="s">
-        <v>48</v>
-      </c>
+      <c r="B124" s="17"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="18"/>
       <c r="E124" s="12" t="str">
-        <f t="shared" si="21"/>
-        <v>未着手</v>
-      </c>
-      <c r="F124" s="4">
-        <v>42739</v>
-      </c>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="F124" s="4"/>
       <c r="G124" s="4"/>
-      <c r="H124" s="19">
-        <v>2</v>
-      </c>
+      <c r="H124" s="19"/>
       <c r="I124" s="19"/>
-      <c r="J124" s="12">
-        <f t="shared" ca="1" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="K124" s="22">
-        <v>2</v>
-      </c>
+      <c r="J124" s="12" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="K124" s="22"/>
       <c r="L124" s="22"/>
       <c r="M124" s="22"/>
       <c r="N124" s="22"/>
@@ -36910,34 +36713,22 @@
       <c r="A125" s="16">
         <v>121</v>
       </c>
-      <c r="B125" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="C125" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D125" s="18" t="s">
-        <v>48</v>
-      </c>
+      <c r="B125" s="17"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="18"/>
       <c r="E125" s="12" t="str">
-        <f t="shared" si="21"/>
-        <v>未着手</v>
-      </c>
-      <c r="F125" s="4">
-        <v>42739</v>
-      </c>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="F125" s="4"/>
       <c r="G125" s="4"/>
-      <c r="H125" s="19">
-        <v>2</v>
-      </c>
+      <c r="H125" s="19"/>
       <c r="I125" s="19"/>
-      <c r="J125" s="12">
-        <f t="shared" ca="1" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="K125" s="22">
-        <v>2</v>
-      </c>
+      <c r="J125" s="12" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="K125" s="22"/>
       <c r="L125" s="22"/>
       <c r="M125" s="22"/>
       <c r="N125" s="22"/>
@@ -36953,7 +36744,7 @@
       <c r="C126" s="18"/>
       <c r="D126" s="18"/>
       <c r="E126" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="E126:E187" si="20">IF(ISBLANK($B126),"",IF(ISBLANK($G126),"未着手",IF($J126=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F126" s="4"/>
@@ -36961,7 +36752,7 @@
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
       <c r="J126" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K126" s="22"/>
@@ -36976,38 +36767,22 @@
       <c r="A127" s="16">
         <v>123</v>
       </c>
-      <c r="B127" s="17" t="s">
-        <v>333</v>
-      </c>
-      <c r="C127" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="D127" s="18" t="s">
-        <v>335</v>
-      </c>
+      <c r="B127" s="17"/>
+      <c r="C127" s="18"/>
+      <c r="D127" s="18"/>
       <c r="E127" s="12" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>完了</v>
-      </c>
-      <c r="F127" s="4">
-        <v>43109</v>
-      </c>
-      <c r="G127" s="4">
-        <v>43109</v>
-      </c>
-      <c r="H127" s="19">
-        <v>2</v>
-      </c>
-      <c r="I127" s="19">
-        <v>2</v>
-      </c>
-      <c r="J127" s="12">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K127" s="22">
-        <v>0</v>
-      </c>
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="19"/>
+      <c r="I127" s="19"/>
+      <c r="J127" s="12" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="K127" s="22"/>
       <c r="L127" s="22"/>
       <c r="M127" s="22"/>
       <c r="N127" s="22"/>
@@ -37023,7 +36798,7 @@
       <c r="C128" s="18"/>
       <c r="D128" s="18"/>
       <c r="E128" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F128" s="4"/>
@@ -37031,7 +36806,7 @@
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
       <c r="J128" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K128" s="22"/>
@@ -37050,7 +36825,7 @@
       <c r="C129" s="18"/>
       <c r="D129" s="18"/>
       <c r="E129" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F129" s="4"/>
@@ -37058,7 +36833,7 @@
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
       <c r="J129" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K129" s="22"/>
@@ -37077,7 +36852,7 @@
       <c r="C130" s="18"/>
       <c r="D130" s="18"/>
       <c r="E130" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F130" s="4"/>
@@ -37085,7 +36860,7 @@
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
       <c r="J130" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K130" s="22"/>
@@ -37104,7 +36879,7 @@
       <c r="C131" s="18"/>
       <c r="D131" s="18"/>
       <c r="E131" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F131" s="4"/>
@@ -37112,7 +36887,7 @@
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
       <c r="J131" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K131" s="22"/>
@@ -37131,7 +36906,7 @@
       <c r="C132" s="18"/>
       <c r="D132" s="18"/>
       <c r="E132" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F132" s="4"/>
@@ -37139,7 +36914,7 @@
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
       <c r="J132" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K132" s="22"/>
@@ -37158,7 +36933,7 @@
       <c r="C133" s="18"/>
       <c r="D133" s="18"/>
       <c r="E133" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F133" s="4"/>
@@ -37166,7 +36941,7 @@
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
       <c r="J133" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K133" s="22"/>
@@ -37185,7 +36960,7 @@
       <c r="C134" s="18"/>
       <c r="D134" s="18"/>
       <c r="E134" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F134" s="4"/>
@@ -37193,7 +36968,7 @@
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
       <c r="J134" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K134" s="22"/>
@@ -37212,7 +36987,7 @@
       <c r="C135" s="18"/>
       <c r="D135" s="18"/>
       <c r="E135" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F135" s="4"/>
@@ -37220,7 +36995,7 @@
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
       <c r="J135" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K135" s="22"/>
@@ -37239,7 +37014,7 @@
       <c r="C136" s="18"/>
       <c r="D136" s="18"/>
       <c r="E136" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F136" s="4"/>
@@ -37247,7 +37022,7 @@
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
       <c r="J136" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K136" s="22"/>
@@ -37266,7 +37041,7 @@
       <c r="C137" s="18"/>
       <c r="D137" s="18"/>
       <c r="E137" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F137" s="4"/>
@@ -37274,7 +37049,7 @@
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
       <c r="J137" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K137" s="22"/>
@@ -37293,7 +37068,7 @@
       <c r="C138" s="18"/>
       <c r="D138" s="18"/>
       <c r="E138" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F138" s="4"/>
@@ -37301,7 +37076,7 @@
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
       <c r="J138" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K138" s="22"/>
@@ -37320,7 +37095,7 @@
       <c r="C139" s="18"/>
       <c r="D139" s="18"/>
       <c r="E139" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F139" s="4"/>
@@ -37328,7 +37103,7 @@
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
       <c r="J139" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K139" s="22"/>
@@ -37347,7 +37122,7 @@
       <c r="C140" s="18"/>
       <c r="D140" s="18"/>
       <c r="E140" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F140" s="4"/>
@@ -37355,7 +37130,7 @@
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
       <c r="J140" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K140" s="22"/>
@@ -37374,7 +37149,7 @@
       <c r="C141" s="18"/>
       <c r="D141" s="18"/>
       <c r="E141" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F141" s="4"/>
@@ -37382,7 +37157,7 @@
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
       <c r="J141" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K141" s="22"/>
@@ -37401,7 +37176,7 @@
       <c r="C142" s="18"/>
       <c r="D142" s="18"/>
       <c r="E142" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F142" s="4"/>
@@ -37409,7 +37184,7 @@
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
       <c r="J142" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K142" s="22"/>
@@ -37428,7 +37203,7 @@
       <c r="C143" s="18"/>
       <c r="D143" s="18"/>
       <c r="E143" s="12" t="str">
-        <f t="shared" ref="E143:E204" si="22">IF(ISBLANK($B143),"",IF(ISBLANK($G143),"未着手",IF($J143=0,"完了","作業中")))</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F143" s="4"/>
@@ -37436,7 +37211,7 @@
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
       <c r="J143" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K143" s="22"/>
@@ -37455,7 +37230,7 @@
       <c r="C144" s="18"/>
       <c r="D144" s="18"/>
       <c r="E144" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F144" s="4"/>
@@ -37463,7 +37238,7 @@
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
       <c r="J144" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K144" s="22"/>
@@ -37482,7 +37257,7 @@
       <c r="C145" s="18"/>
       <c r="D145" s="18"/>
       <c r="E145" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F145" s="4"/>
@@ -37490,7 +37265,7 @@
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
       <c r="J145" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K145" s="22"/>
@@ -37509,7 +37284,7 @@
       <c r="C146" s="18"/>
       <c r="D146" s="18"/>
       <c r="E146" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F146" s="4"/>
@@ -37517,7 +37292,7 @@
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
       <c r="J146" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K146" s="22"/>
@@ -37536,7 +37311,7 @@
       <c r="C147" s="18"/>
       <c r="D147" s="18"/>
       <c r="E147" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F147" s="4"/>
@@ -37544,7 +37319,7 @@
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
       <c r="J147" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K147" s="22"/>
@@ -37563,7 +37338,7 @@
       <c r="C148" s="18"/>
       <c r="D148" s="18"/>
       <c r="E148" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F148" s="4"/>
@@ -37571,7 +37346,7 @@
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
       <c r="J148" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K148" s="22"/>
@@ -37590,7 +37365,7 @@
       <c r="C149" s="18"/>
       <c r="D149" s="18"/>
       <c r="E149" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F149" s="4"/>
@@ -37598,7 +37373,7 @@
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
       <c r="J149" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K149" s="22"/>
@@ -37617,7 +37392,7 @@
       <c r="C150" s="18"/>
       <c r="D150" s="18"/>
       <c r="E150" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F150" s="4"/>
@@ -37625,7 +37400,7 @@
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
       <c r="J150" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K150" s="22"/>
@@ -37644,7 +37419,7 @@
       <c r="C151" s="18"/>
       <c r="D151" s="18"/>
       <c r="E151" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F151" s="4"/>
@@ -37652,7 +37427,7 @@
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
       <c r="J151" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K151" s="22"/>
@@ -37671,7 +37446,7 @@
       <c r="C152" s="18"/>
       <c r="D152" s="18"/>
       <c r="E152" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F152" s="4"/>
@@ -37679,7 +37454,7 @@
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
       <c r="J152" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K152" s="22"/>
@@ -37698,7 +37473,7 @@
       <c r="C153" s="18"/>
       <c r="D153" s="18"/>
       <c r="E153" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F153" s="4"/>
@@ -37706,7 +37481,7 @@
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
       <c r="J153" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K153" s="22"/>
@@ -37725,7 +37500,7 @@
       <c r="C154" s="18"/>
       <c r="D154" s="18"/>
       <c r="E154" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F154" s="4"/>
@@ -37733,7 +37508,7 @@
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
       <c r="J154" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K154" s="22"/>
@@ -37752,7 +37527,7 @@
       <c r="C155" s="18"/>
       <c r="D155" s="18"/>
       <c r="E155" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F155" s="4"/>
@@ -37760,7 +37535,7 @@
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
       <c r="J155" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K155" s="22"/>
@@ -37779,7 +37554,7 @@
       <c r="C156" s="18"/>
       <c r="D156" s="18"/>
       <c r="E156" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F156" s="4"/>
@@ -37787,7 +37562,7 @@
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
       <c r="J156" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K156" s="22"/>
@@ -37806,7 +37581,7 @@
       <c r="C157" s="18"/>
       <c r="D157" s="18"/>
       <c r="E157" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F157" s="4"/>
@@ -37814,7 +37589,7 @@
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
       <c r="J157" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K157" s="22"/>
@@ -37833,7 +37608,7 @@
       <c r="C158" s="18"/>
       <c r="D158" s="18"/>
       <c r="E158" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F158" s="4"/>
@@ -37841,7 +37616,7 @@
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
       <c r="J158" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K158" s="22"/>
@@ -37860,7 +37635,7 @@
       <c r="C159" s="18"/>
       <c r="D159" s="18"/>
       <c r="E159" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F159" s="4"/>
@@ -37868,7 +37643,7 @@
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
       <c r="J159" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K159" s="22"/>
@@ -37887,7 +37662,7 @@
       <c r="C160" s="18"/>
       <c r="D160" s="18"/>
       <c r="E160" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F160" s="4"/>
@@ -37895,7 +37670,7 @@
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
       <c r="J160" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K160" s="22"/>
@@ -37914,7 +37689,7 @@
       <c r="C161" s="18"/>
       <c r="D161" s="18"/>
       <c r="E161" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F161" s="4"/>
@@ -37922,7 +37697,7 @@
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
       <c r="J161" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K161" s="22"/>
@@ -37941,7 +37716,7 @@
       <c r="C162" s="18"/>
       <c r="D162" s="18"/>
       <c r="E162" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F162" s="4"/>
@@ -37949,7 +37724,7 @@
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
       <c r="J162" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K162" s="22"/>
@@ -37968,7 +37743,7 @@
       <c r="C163" s="18"/>
       <c r="D163" s="18"/>
       <c r="E163" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F163" s="4"/>
@@ -37976,7 +37751,7 @@
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
       <c r="J163" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K163" s="22"/>
@@ -37995,7 +37770,7 @@
       <c r="C164" s="18"/>
       <c r="D164" s="18"/>
       <c r="E164" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F164" s="4"/>
@@ -38003,7 +37778,7 @@
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
       <c r="J164" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K164" s="22"/>
@@ -38022,7 +37797,7 @@
       <c r="C165" s="18"/>
       <c r="D165" s="18"/>
       <c r="E165" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F165" s="4"/>
@@ -38030,7 +37805,7 @@
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
       <c r="J165" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K165" s="22"/>
@@ -38049,7 +37824,7 @@
       <c r="C166" s="18"/>
       <c r="D166" s="18"/>
       <c r="E166" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F166" s="4"/>
@@ -38057,7 +37832,7 @@
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
       <c r="J166" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ref="J166:J187" ca="1" si="21">IF(ISBLANK(K166)=FALSE,OFFSET(J166,0,COUNTA(K166:Q166)),"")</f>
         <v/>
       </c>
       <c r="K166" s="22"/>
@@ -38076,7 +37851,7 @@
       <c r="C167" s="18"/>
       <c r="D167" s="18"/>
       <c r="E167" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F167" s="4"/>
@@ -38084,7 +37859,7 @@
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
       <c r="J167" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K167" s="22"/>
@@ -38103,7 +37878,7 @@
       <c r="C168" s="18"/>
       <c r="D168" s="18"/>
       <c r="E168" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F168" s="4"/>
@@ -38111,7 +37886,7 @@
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
       <c r="J168" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K168" s="22"/>
@@ -38130,7 +37905,7 @@
       <c r="C169" s="18"/>
       <c r="D169" s="18"/>
       <c r="E169" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F169" s="4"/>
@@ -38138,7 +37913,7 @@
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
       <c r="J169" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K169" s="22"/>
@@ -38157,7 +37932,7 @@
       <c r="C170" s="18"/>
       <c r="D170" s="18"/>
       <c r="E170" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F170" s="4"/>
@@ -38165,7 +37940,7 @@
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
       <c r="J170" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K170" s="22"/>
@@ -38184,7 +37959,7 @@
       <c r="C171" s="18"/>
       <c r="D171" s="18"/>
       <c r="E171" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F171" s="4"/>
@@ -38192,7 +37967,7 @@
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
       <c r="J171" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K171" s="22"/>
@@ -38211,7 +37986,7 @@
       <c r="C172" s="18"/>
       <c r="D172" s="18"/>
       <c r="E172" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F172" s="4"/>
@@ -38219,7 +37994,7 @@
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
       <c r="J172" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K172" s="22"/>
@@ -38238,7 +38013,7 @@
       <c r="C173" s="18"/>
       <c r="D173" s="18"/>
       <c r="E173" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F173" s="4"/>
@@ -38246,7 +38021,7 @@
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
       <c r="J173" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K173" s="22"/>
@@ -38265,7 +38040,7 @@
       <c r="C174" s="18"/>
       <c r="D174" s="18"/>
       <c r="E174" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F174" s="4"/>
@@ -38273,7 +38048,7 @@
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
       <c r="J174" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K174" s="22"/>
@@ -38292,7 +38067,7 @@
       <c r="C175" s="18"/>
       <c r="D175" s="18"/>
       <c r="E175" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F175" s="4"/>
@@ -38300,7 +38075,7 @@
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
       <c r="J175" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K175" s="22"/>
@@ -38319,7 +38094,7 @@
       <c r="C176" s="18"/>
       <c r="D176" s="18"/>
       <c r="E176" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F176" s="4"/>
@@ -38327,7 +38102,7 @@
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
       <c r="J176" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K176" s="22"/>
@@ -38346,7 +38121,7 @@
       <c r="C177" s="18"/>
       <c r="D177" s="18"/>
       <c r="E177" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F177" s="4"/>
@@ -38354,7 +38129,7 @@
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
       <c r="J177" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K177" s="22"/>
@@ -38373,7 +38148,7 @@
       <c r="C178" s="18"/>
       <c r="D178" s="18"/>
       <c r="E178" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F178" s="4"/>
@@ -38381,7 +38156,7 @@
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
       <c r="J178" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K178" s="22"/>
@@ -38400,7 +38175,7 @@
       <c r="C179" s="18"/>
       <c r="D179" s="18"/>
       <c r="E179" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F179" s="4"/>
@@ -38408,7 +38183,7 @@
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
       <c r="J179" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K179" s="22"/>
@@ -38427,7 +38202,7 @@
       <c r="C180" s="18"/>
       <c r="D180" s="18"/>
       <c r="E180" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F180" s="4"/>
@@ -38435,7 +38210,7 @@
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
       <c r="J180" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K180" s="22"/>
@@ -38454,7 +38229,7 @@
       <c r="C181" s="18"/>
       <c r="D181" s="18"/>
       <c r="E181" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F181" s="4"/>
@@ -38462,7 +38237,7 @@
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
       <c r="J181" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K181" s="22"/>
@@ -38481,7 +38256,7 @@
       <c r="C182" s="18"/>
       <c r="D182" s="18"/>
       <c r="E182" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F182" s="4"/>
@@ -38489,7 +38264,7 @@
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
       <c r="J182" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K182" s="22"/>
@@ -38508,7 +38283,7 @@
       <c r="C183" s="18"/>
       <c r="D183" s="18"/>
       <c r="E183" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F183" s="4"/>
@@ -38516,7 +38291,7 @@
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
       <c r="J183" s="12" t="str">
-        <f t="shared" ref="J183:J204" ca="1" si="23">IF(ISBLANK(K183)=FALSE,OFFSET(J183,0,COUNTA(K183:Q183)),"")</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K183" s="22"/>
@@ -38535,7 +38310,7 @@
       <c r="C184" s="18"/>
       <c r="D184" s="18"/>
       <c r="E184" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F184" s="4"/>
@@ -38543,7 +38318,7 @@
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
       <c r="J184" s="12" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K184" s="22"/>
@@ -38562,7 +38337,7 @@
       <c r="C185" s="18"/>
       <c r="D185" s="18"/>
       <c r="E185" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F185" s="4"/>
@@ -38570,7 +38345,7 @@
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
       <c r="J185" s="12" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K185" s="22"/>
@@ -38589,7 +38364,7 @@
       <c r="C186" s="18"/>
       <c r="D186" s="18"/>
       <c r="E186" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F186" s="4"/>
@@ -38597,7 +38372,7 @@
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
       <c r="J186" s="12" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K186" s="22"/>
@@ -38616,7 +38391,7 @@
       <c r="C187" s="18"/>
       <c r="D187" s="18"/>
       <c r="E187" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F187" s="4"/>
@@ -38624,7 +38399,7 @@
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
       <c r="J187" s="12" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K187" s="22"/>
@@ -38636,1325 +38411,986 @@
       <c r="Q187" s="22"/>
     </row>
     <row r="188" spans="1:17">
-      <c r="A188" s="16">
-        <v>184</v>
-      </c>
-      <c r="B188" s="17"/>
-      <c r="C188" s="18"/>
-      <c r="D188" s="18"/>
-      <c r="E188" s="12" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="F188" s="4"/>
-      <c r="G188" s="4"/>
-      <c r="H188" s="19"/>
-      <c r="I188" s="19"/>
-      <c r="J188" s="12" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="K188" s="22"/>
-      <c r="L188" s="22"/>
-      <c r="M188" s="22"/>
-      <c r="N188" s="22"/>
-      <c r="O188" s="22"/>
-      <c r="P188" s="22"/>
-      <c r="Q188" s="22"/>
+      <c r="A188" s="3"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="5"/>
+      <c r="F188" s="9"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="25"/>
+      <c r="M188"/>
     </row>
     <row r="189" spans="1:17">
-      <c r="A189" s="16">
-        <v>185</v>
-      </c>
-      <c r="B189" s="17"/>
-      <c r="C189" s="18"/>
-      <c r="D189" s="18"/>
-      <c r="E189" s="12" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="F189" s="4"/>
-      <c r="G189" s="4"/>
-      <c r="H189" s="19"/>
-      <c r="I189" s="19"/>
-      <c r="J189" s="12" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="K189" s="22"/>
-      <c r="L189" s="22"/>
-      <c r="M189" s="22"/>
-      <c r="N189" s="22"/>
-      <c r="O189" s="22"/>
-      <c r="P189" s="22"/>
-      <c r="Q189" s="22"/>
+      <c r="A189" s="3"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="5"/>
+      <c r="F189" s="9"/>
+      <c r="H189" s="2"/>
+      <c r="I189" s="25"/>
+      <c r="M189"/>
     </row>
     <row r="190" spans="1:17">
-      <c r="A190" s="16">
-        <v>186</v>
-      </c>
-      <c r="B190" s="17"/>
-      <c r="C190" s="18"/>
-      <c r="D190" s="18"/>
-      <c r="E190" s="12" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="F190" s="4"/>
-      <c r="G190" s="4"/>
-      <c r="H190" s="19"/>
-      <c r="I190" s="19"/>
-      <c r="J190" s="12" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="K190" s="22"/>
-      <c r="L190" s="22"/>
-      <c r="M190" s="22"/>
-      <c r="N190" s="22"/>
-      <c r="O190" s="22"/>
-      <c r="P190" s="22"/>
-      <c r="Q190" s="22"/>
+      <c r="A190" s="3"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="5"/>
+      <c r="F190" s="9"/>
+      <c r="H190" s="2"/>
+      <c r="I190" s="25"/>
+      <c r="M190"/>
     </row>
     <row r="191" spans="1:17">
-      <c r="A191" s="16">
-        <v>187</v>
-      </c>
-      <c r="B191" s="17"/>
-      <c r="C191" s="18"/>
-      <c r="D191" s="18"/>
-      <c r="E191" s="12" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="F191" s="4"/>
-      <c r="G191" s="4"/>
-      <c r="H191" s="19"/>
-      <c r="I191" s="19"/>
-      <c r="J191" s="12" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="K191" s="22"/>
-      <c r="L191" s="22"/>
-      <c r="M191" s="22"/>
-      <c r="N191" s="22"/>
-      <c r="O191" s="22"/>
-      <c r="P191" s="22"/>
-      <c r="Q191" s="22"/>
+      <c r="A191" s="3"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="5"/>
+      <c r="F191" s="9"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="25"/>
+      <c r="M191"/>
     </row>
     <row r="192" spans="1:17">
-      <c r="A192" s="16">
-        <v>188</v>
-      </c>
-      <c r="B192" s="17"/>
-      <c r="C192" s="18"/>
-      <c r="D192" s="18"/>
-      <c r="E192" s="12" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="F192" s="4"/>
-      <c r="G192" s="4"/>
-      <c r="H192" s="19"/>
-      <c r="I192" s="19"/>
-      <c r="J192" s="12" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="K192" s="22"/>
-      <c r="L192" s="22"/>
-      <c r="M192" s="22"/>
-      <c r="N192" s="22"/>
-      <c r="O192" s="22"/>
-      <c r="P192" s="22"/>
-      <c r="Q192" s="22"/>
-    </row>
-    <row r="193" spans="1:17">
-      <c r="A193" s="16">
-        <v>189</v>
-      </c>
-      <c r="B193" s="17"/>
-      <c r="C193" s="18"/>
-      <c r="D193" s="18"/>
-      <c r="E193" s="12" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="F193" s="4"/>
-      <c r="G193" s="4"/>
-      <c r="H193" s="19"/>
-      <c r="I193" s="19"/>
-      <c r="J193" s="12" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="K193" s="22"/>
-      <c r="L193" s="22"/>
-      <c r="M193" s="22"/>
-      <c r="N193" s="22"/>
-      <c r="O193" s="22"/>
-      <c r="P193" s="22"/>
-      <c r="Q193" s="22"/>
-    </row>
-    <row r="194" spans="1:17">
-      <c r="A194" s="16">
-        <v>190</v>
-      </c>
-      <c r="B194" s="17"/>
-      <c r="C194" s="18"/>
-      <c r="D194" s="18"/>
-      <c r="E194" s="12" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="F194" s="4"/>
-      <c r="G194" s="4"/>
-      <c r="H194" s="19"/>
-      <c r="I194" s="19"/>
-      <c r="J194" s="12" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="K194" s="22"/>
-      <c r="L194" s="22"/>
-      <c r="M194" s="22"/>
-      <c r="N194" s="22"/>
-      <c r="O194" s="22"/>
-      <c r="P194" s="22"/>
-      <c r="Q194" s="22"/>
-    </row>
-    <row r="195" spans="1:17">
-      <c r="A195" s="16">
-        <v>191</v>
-      </c>
-      <c r="B195" s="17"/>
-      <c r="C195" s="18"/>
-      <c r="D195" s="18"/>
-      <c r="E195" s="12" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="F195" s="4"/>
-      <c r="G195" s="4"/>
-      <c r="H195" s="19"/>
-      <c r="I195" s="19"/>
-      <c r="J195" s="12" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="K195" s="22"/>
-      <c r="L195" s="22"/>
-      <c r="M195" s="22"/>
-      <c r="N195" s="22"/>
-      <c r="O195" s="22"/>
-      <c r="P195" s="22"/>
-      <c r="Q195" s="22"/>
-    </row>
-    <row r="196" spans="1:17">
-      <c r="A196" s="16">
-        <v>192</v>
-      </c>
-      <c r="B196" s="17"/>
-      <c r="C196" s="18"/>
-      <c r="D196" s="18"/>
-      <c r="E196" s="12" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="F196" s="4"/>
-      <c r="G196" s="4"/>
-      <c r="H196" s="19"/>
-      <c r="I196" s="19"/>
-      <c r="J196" s="12" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="K196" s="22"/>
-      <c r="L196" s="22"/>
-      <c r="M196" s="22"/>
-      <c r="N196" s="22"/>
-      <c r="O196" s="22"/>
-      <c r="P196" s="22"/>
-      <c r="Q196" s="22"/>
-    </row>
-    <row r="197" spans="1:17">
-      <c r="A197" s="16">
-        <v>193</v>
-      </c>
-      <c r="B197" s="17"/>
-      <c r="C197" s="18"/>
-      <c r="D197" s="18"/>
-      <c r="E197" s="12" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="F197" s="4"/>
-      <c r="G197" s="4"/>
-      <c r="H197" s="19"/>
-      <c r="I197" s="19"/>
-      <c r="J197" s="12" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="K197" s="22"/>
-      <c r="L197" s="22"/>
-      <c r="M197" s="22"/>
-      <c r="N197" s="22"/>
-      <c r="O197" s="22"/>
-      <c r="P197" s="22"/>
-      <c r="Q197" s="22"/>
-    </row>
-    <row r="198" spans="1:17">
-      <c r="A198" s="16">
-        <v>194</v>
-      </c>
-      <c r="B198" s="17"/>
-      <c r="C198" s="18"/>
-      <c r="D198" s="18"/>
-      <c r="E198" s="12" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="F198" s="4"/>
-      <c r="G198" s="4"/>
-      <c r="H198" s="19"/>
-      <c r="I198" s="19"/>
-      <c r="J198" s="12" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="K198" s="22"/>
-      <c r="L198" s="22"/>
-      <c r="M198" s="22"/>
-      <c r="N198" s="22"/>
-      <c r="O198" s="22"/>
-      <c r="P198" s="22"/>
-      <c r="Q198" s="22"/>
-    </row>
-    <row r="199" spans="1:17">
-      <c r="A199" s="16">
-        <v>195</v>
-      </c>
-      <c r="B199" s="17"/>
-      <c r="C199" s="18"/>
-      <c r="D199" s="18"/>
-      <c r="E199" s="12" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="F199" s="4"/>
-      <c r="G199" s="4"/>
-      <c r="H199" s="19"/>
-      <c r="I199" s="19"/>
-      <c r="J199" s="12" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="K199" s="22"/>
-      <c r="L199" s="22"/>
-      <c r="M199" s="22"/>
-      <c r="N199" s="22"/>
-      <c r="O199" s="22"/>
-      <c r="P199" s="22"/>
-      <c r="Q199" s="22"/>
-    </row>
-    <row r="200" spans="1:17">
-      <c r="A200" s="16">
-        <v>196</v>
-      </c>
-      <c r="B200" s="17"/>
-      <c r="C200" s="18"/>
-      <c r="D200" s="18"/>
-      <c r="E200" s="12" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="F200" s="4"/>
-      <c r="G200" s="4"/>
-      <c r="H200" s="19"/>
-      <c r="I200" s="19"/>
-      <c r="J200" s="12" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="K200" s="22"/>
-      <c r="L200" s="22"/>
-      <c r="M200" s="22"/>
-      <c r="N200" s="22"/>
-      <c r="O200" s="22"/>
-      <c r="P200" s="22"/>
-      <c r="Q200" s="22"/>
-    </row>
-    <row r="201" spans="1:17">
-      <c r="A201" s="16">
-        <v>197</v>
-      </c>
-      <c r="B201" s="17"/>
-      <c r="C201" s="18"/>
-      <c r="D201" s="18"/>
-      <c r="E201" s="12" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="F201" s="4"/>
-      <c r="G201" s="4"/>
-      <c r="H201" s="19"/>
-      <c r="I201" s="19"/>
-      <c r="J201" s="12" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="K201" s="22"/>
-      <c r="L201" s="22"/>
-      <c r="M201" s="22"/>
-      <c r="N201" s="22"/>
-      <c r="O201" s="22"/>
-      <c r="P201" s="22"/>
-      <c r="Q201" s="22"/>
-    </row>
-    <row r="202" spans="1:17">
-      <c r="A202" s="16">
-        <v>198</v>
-      </c>
-      <c r="B202" s="17"/>
-      <c r="C202" s="18"/>
-      <c r="D202" s="18"/>
-      <c r="E202" s="12" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="F202" s="4"/>
-      <c r="G202" s="4"/>
-      <c r="H202" s="19"/>
-      <c r="I202" s="19"/>
-      <c r="J202" s="12" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="K202" s="22"/>
-      <c r="L202" s="22"/>
-      <c r="M202" s="22"/>
-      <c r="N202" s="22"/>
-      <c r="O202" s="22"/>
-      <c r="P202" s="22"/>
-      <c r="Q202" s="22"/>
-    </row>
-    <row r="203" spans="1:17">
-      <c r="A203" s="16">
-        <v>199</v>
-      </c>
-      <c r="B203" s="17"/>
-      <c r="C203" s="18"/>
-      <c r="D203" s="18"/>
-      <c r="E203" s="12" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="F203" s="4"/>
-      <c r="G203" s="4"/>
-      <c r="H203" s="19"/>
-      <c r="I203" s="19"/>
-      <c r="J203" s="12" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="K203" s="22"/>
-      <c r="L203" s="22"/>
-      <c r="M203" s="22"/>
-      <c r="N203" s="22"/>
-      <c r="O203" s="22"/>
-      <c r="P203" s="22"/>
-      <c r="Q203" s="22"/>
-    </row>
-    <row r="204" spans="1:17">
-      <c r="A204" s="16">
-        <v>200</v>
-      </c>
-      <c r="B204" s="17"/>
-      <c r="C204" s="18"/>
-      <c r="D204" s="18"/>
-      <c r="E204" s="12" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="F204" s="4"/>
-      <c r="G204" s="4"/>
-      <c r="H204" s="19"/>
-      <c r="I204" s="19"/>
-      <c r="J204" s="12" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="K204" s="22"/>
-      <c r="L204" s="22"/>
-      <c r="M204" s="22"/>
-      <c r="N204" s="22"/>
-      <c r="O204" s="22"/>
-      <c r="P204" s="22"/>
-      <c r="Q204" s="22"/>
+      <c r="A192" s="3"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="5"/>
+      <c r="F192" s="9"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="25"/>
+      <c r="M192"/>
+    </row>
+    <row r="193" spans="1:13">
+      <c r="A193" s="3"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="5"/>
+      <c r="F193" s="9"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="25"/>
+      <c r="M193"/>
+    </row>
+    <row r="194" spans="1:13">
+      <c r="A194" s="3"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="5"/>
+      <c r="F194" s="9"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="25"/>
+      <c r="M194"/>
+    </row>
+    <row r="195" spans="1:13">
+      <c r="A195" s="3"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="5"/>
+      <c r="F195" s="9"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="25"/>
+      <c r="M195"/>
+    </row>
+    <row r="196" spans="1:13">
+      <c r="A196" s="3"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="5"/>
+      <c r="F196" s="9"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="25"/>
+      <c r="M196"/>
+    </row>
+    <row r="197" spans="1:13">
+      <c r="A197" s="3"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="5"/>
+      <c r="F197" s="9"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="25"/>
+      <c r="M197"/>
+    </row>
+    <row r="198" spans="1:13">
+      <c r="A198" s="3"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="5"/>
+      <c r="F198" s="9"/>
+      <c r="H198" s="2"/>
+      <c r="I198" s="25"/>
+      <c r="M198"/>
+    </row>
+    <row r="199" spans="1:13">
+      <c r="A199" s="3"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="5"/>
+      <c r="F199" s="9"/>
+      <c r="H199" s="2"/>
+      <c r="I199" s="25"/>
+      <c r="M199"/>
+    </row>
+    <row r="200" spans="1:13">
+      <c r="A200" s="3"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="5"/>
+      <c r="F200" s="9"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="25"/>
+      <c r="M200"/>
+    </row>
+    <row r="201" spans="1:13">
+      <c r="A201" s="3"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="5"/>
+      <c r="F201" s="9"/>
+      <c r="H201" s="2"/>
+      <c r="I201" s="25"/>
+      <c r="M201"/>
+    </row>
+    <row r="202" spans="1:13">
+      <c r="A202" s="3"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="5"/>
+      <c r="F202" s="9"/>
+      <c r="H202" s="2"/>
+      <c r="I202" s="25"/>
+      <c r="M202"/>
+    </row>
+    <row r="203" spans="1:13">
+      <c r="A203" s="3"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="5"/>
+      <c r="F203" s="9"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="25"/>
+      <c r="M203"/>
+    </row>
+    <row r="204" spans="1:13">
+      <c r="A204" s="3"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="5"/>
+      <c r="F204" s="9"/>
+      <c r="H204" s="2"/>
+      <c r="I204" s="25"/>
+      <c r="M204"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:D49"/>
   <mergeCells count="11">
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:Q1"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:D4"/>
     <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
-  <conditionalFormatting sqref="D205:D65389">
-    <cfRule type="expression" dxfId="236" priority="196" stopIfTrue="1">
-      <formula>D205="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="235" priority="197" stopIfTrue="1">
-      <formula>D205="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="234" priority="198" stopIfTrue="1">
-      <formula>OR(D205="終了",D205="完了")</formula>
+  <conditionalFormatting sqref="D205:D65372 C188:C204">
+    <cfRule type="expression" dxfId="227" priority="196" stopIfTrue="1">
+      <formula>C188="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="226" priority="197" stopIfTrue="1">
+      <formula>C188="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="225" priority="198" stopIfTrue="1">
+      <formula>OR(C188="終了",C188="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO5:XFD5">
-    <cfRule type="expression" dxfId="233" priority="199" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="199" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="200" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="201" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="201" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B205:B65389">
-    <cfRule type="expression" dxfId="230" priority="202" stopIfTrue="1">
-      <formula>D205="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="229" priority="203" stopIfTrue="1">
-      <formula>D205="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="228" priority="204" stopIfTrue="1">
-      <formula>OR(D205="終了",D205="完了")</formula>
+  <conditionalFormatting sqref="B205:B65372 A188:A204">
+    <cfRule type="expression" dxfId="221" priority="202" stopIfTrue="1">
+      <formula>C188="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="220" priority="203" stopIfTrue="1">
+      <formula>C188="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="219" priority="204" stopIfTrue="1">
+      <formula>OR(C188="終了",C188="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C205:C65389">
-    <cfRule type="expression" dxfId="227" priority="205" stopIfTrue="1">
-      <formula>D205="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="226" priority="206" stopIfTrue="1">
-      <formula>D205="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="225" priority="207" stopIfTrue="1">
-      <formula>OR(D205="終了",D205="完了")</formula>
+  <conditionalFormatting sqref="C205:C65372 B188:B204">
+    <cfRule type="expression" dxfId="218" priority="205" stopIfTrue="1">
+      <formula>C188="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="217" priority="206" stopIfTrue="1">
+      <formula>C188="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="216" priority="207" stopIfTrue="1">
+      <formula>OR(C188="終了",C188="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E205:J65389">
-    <cfRule type="expression" dxfId="224" priority="208" stopIfTrue="1">
+  <conditionalFormatting sqref="E205:J65372">
+    <cfRule type="expression" dxfId="215" priority="208" stopIfTrue="1">
       <formula>$D205="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="209" stopIfTrue="1">
       <formula>$D205="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="210" stopIfTrue="1">
       <formula>OR($D205="終了",$D205="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:Q6 B7:Q7 D9 D11 C10 B11 E10:I10 A14:I15 A7:A12 A5:IN5 J8:J15 A96:J96 A16:A95 A100:J100 I98:J99 A97:A99 C97:J97 A101:A111 I101:J111 A112:J112 A126:J204 A113:A125 I121:J125 I17:J95 K8:Q204">
-    <cfRule type="expression" dxfId="221" priority="127" stopIfTrue="1">
+  <conditionalFormatting sqref="A6:Q6 B7:Q7 D9 D11 C10 B11 E10:I10 B14:I15 A5:IN5 J8:J15 I81:J82 C80:J80 I84:J94 I104:I108 B79:J79 B83:J83 B95:I95 B111:J187 I17:J78 K8:Q187 B51:H78 A7:A187 B109:I110 J95:J110">
+    <cfRule type="expression" dxfId="2" priority="127" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="128" stopIfTrue="1">
       <formula>$E5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="129" stopIfTrue="1">
       <formula>OR($E5="終了",$E5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:IN6">
-    <cfRule type="expression" dxfId="218" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="133" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="134" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="135" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9:IN10">
-    <cfRule type="expression" dxfId="215" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="136" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="137" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="138" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:IN12 R14:IN15 S13:IN13">
-    <cfRule type="expression" dxfId="212" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="139" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="140" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="141" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA19:IN19">
-    <cfRule type="expression" dxfId="209" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="142" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="143" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="144" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R22:IN23 AA21:IN21">
-    <cfRule type="expression" dxfId="206" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="145" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="146" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="147" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R24:IN24">
-    <cfRule type="expression" dxfId="203" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="151" stopIfTrue="1">
       <formula>$E7="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="152" stopIfTrue="1">
       <formula>$E7="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="153" stopIfTrue="1">
       <formula>OR($E7="終了",$E7="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R25:IN25">
-    <cfRule type="expression" dxfId="200" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="154" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="155" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="155" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="156" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R43 AC43:IN44 S44:T44">
-    <cfRule type="expression" dxfId="197" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="157" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="158" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="159" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R29:R30 Y27:IN30">
-    <cfRule type="expression" dxfId="194" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="160" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="161" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="162" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U32:IN33">
-    <cfRule type="expression" dxfId="191" priority="163" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="163" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="164" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="165" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U31:IN31">
-    <cfRule type="expression" dxfId="188" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="166" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="167" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="168" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R41:R42 Y41:IN42">
-    <cfRule type="expression" dxfId="185" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="169" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="170" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="171" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="171" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC48:IN48 S48:T48">
-    <cfRule type="expression" dxfId="182" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="172" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="173" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="174" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC50:IN50 S50:T50">
-    <cfRule type="expression" dxfId="179" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="178" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="179" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="179" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="180" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R56:IN56">
-    <cfRule type="expression" dxfId="176" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="184" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="185" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="186" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R53:IN55">
-    <cfRule type="expression" dxfId="173" priority="187" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="187" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="188" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="189" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R57:IN58">
-    <cfRule type="expression" dxfId="170" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="190" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="191" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="191" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="192" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R59:IN59">
-    <cfRule type="expression" dxfId="167" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="193" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="194" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="195" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="195" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16:IN16">
-    <cfRule type="expression" dxfId="164" priority="211" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="211" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="212" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="213" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y26:IN26">
-    <cfRule type="expression" dxfId="161" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="217" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="218" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="219" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="219" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R39 Y39:IN39">
-    <cfRule type="expression" dxfId="158" priority="226" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="226" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="227" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="227" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="228" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="228" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO56:XFD56">
-    <cfRule type="expression" dxfId="155" priority="235" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="235" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="236" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="236" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="237" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO43:XFD43">
-    <cfRule type="expression" dxfId="152" priority="253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="253" stopIfTrue="1">
       <formula>$D14="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="254" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="254" stopIfTrue="1">
       <formula>$D14="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="255" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="255" stopIfTrue="1">
       <formula>OR($D14="終了",$D14="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9 B8:E8 E11:E12 B9:C9 E9 D10 D12 B10 C11:C12 B12 H12">
-    <cfRule type="expression" dxfId="149" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="100" stopIfTrue="1">
       <formula>$E8="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="101" stopIfTrue="1">
       <formula>$E8="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="102" stopIfTrue="1">
       <formula>OR($E8="終了",$E8="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8 H11">
-    <cfRule type="expression" dxfId="146" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="97" stopIfTrue="1">
       <formula>$E8="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="98" stopIfTrue="1">
       <formula>$E8="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="99" stopIfTrue="1">
       <formula>OR($E8="終了",$E8="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9 F12:G12">
-    <cfRule type="expression" dxfId="143" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="94" stopIfTrue="1">
       <formula>$E9="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="95" stopIfTrue="1">
       <formula>$E9="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="96" stopIfTrue="1">
       <formula>OR($E9="終了",$E9="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:G8 F11:G11">
-    <cfRule type="expression" dxfId="140" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="91" stopIfTrue="1">
       <formula>$E8="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="92" stopIfTrue="1">
       <formula>$E8="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="93" stopIfTrue="1">
       <formula>OR($E8="終了",$E8="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:IN11 R7:IN8">
-    <cfRule type="expression" dxfId="137" priority="1252" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="1252" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="1253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="1253" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="1254" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="1254" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA20:IN20">
-    <cfRule type="expression" dxfId="134" priority="1267" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="1267" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="1268" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="1268" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="1269" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="1269" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA17:IN18">
-    <cfRule type="expression" dxfId="131" priority="1282" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="1282" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="1283" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="1283" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="1284" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="1284" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO6:XFD14">
-    <cfRule type="expression" dxfId="128" priority="1297" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="1297" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="1298" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="1298" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="1299" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="1299" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO15:XFD15">
-    <cfRule type="expression" dxfId="125" priority="1327" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="1327" stopIfTrue="1">
       <formula>$D7="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="1328" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="1328" stopIfTrue="1">
       <formula>$D7="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="1329" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="1329" stopIfTrue="1">
       <formula>OR($D7="終了",$D7="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO16:XFD16">
-    <cfRule type="expression" dxfId="122" priority="1330" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="1330" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="1331" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="1331" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="1332" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="1332" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R52:IN52 AC45:IN46 S45:T46">
-    <cfRule type="expression" dxfId="119" priority="1342" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="1342" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="1343" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="1343" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="1344" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="1344" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA51:IN51 S51:T51">
-    <cfRule type="expression" dxfId="116" priority="1351" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="1351" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="1352" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="1352" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="1353" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="1353" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40 Y40:IN40 R35:IN36">
-    <cfRule type="expression" dxfId="113" priority="1357" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="1357" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="1358" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="1358" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="1359" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="1359" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R37:R38 Y37:IN38">
-    <cfRule type="expression" dxfId="110" priority="1366" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="1366" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="1367" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="1367" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="1368" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="1368" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO20:XFD42">
-    <cfRule type="expression" dxfId="107" priority="1372" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="1372" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="1373" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="1373" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="1374" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="1374" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC47:IN47 S47:T47">
-    <cfRule type="expression" dxfId="104" priority="1375" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="1375" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="1376" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="1376" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="1377" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="1377" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S49:T49 AC49:IN49">
-    <cfRule type="expression" dxfId="101" priority="1384" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="1384" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="1385" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="1385" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="1386" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="1386" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K205:K65388">
-    <cfRule type="expression" dxfId="98" priority="1411" stopIfTrue="1">
-      <formula>$D206="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="97" priority="1412" stopIfTrue="1">
-      <formula>$D206="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="1413" stopIfTrue="1">
-      <formula>OR($D206="終了",$D206="完了")</formula>
+  <conditionalFormatting sqref="K205:K65371 J204">
+    <cfRule type="expression" dxfId="92" priority="1411" stopIfTrue="1">
+      <formula>$D205="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="1412" stopIfTrue="1">
+      <formula>$D205="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="1413" stopIfTrue="1">
+      <formula>OR($D205="終了",$D205="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L205:M65387">
-    <cfRule type="expression" dxfId="95" priority="1501" stopIfTrue="1">
-      <formula>$D207="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="94" priority="1502" stopIfTrue="1">
-      <formula>$D207="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="93" priority="1503" stopIfTrue="1">
-      <formula>OR($D207="終了",$D207="完了")</formula>
+  <conditionalFormatting sqref="L205:M65370 K203:L204">
+    <cfRule type="expression" dxfId="89" priority="1501" stopIfTrue="1">
+      <formula>$D205="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="1502" stopIfTrue="1">
+      <formula>$D205="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="1503" stopIfTrue="1">
+      <formula>OR($D205="終了",$D205="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO47:XFD55">
-    <cfRule type="expression" dxfId="92" priority="1789" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="1789" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="1790" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="1790" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="1791" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="1791" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO44:XFD46">
-    <cfRule type="expression" dxfId="89" priority="1798" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="1798" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="1799" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="1799" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="1800" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="1800" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:I13 A13:E13 R13">
-    <cfRule type="expression" dxfId="86" priority="76" stopIfTrue="1">
+  <conditionalFormatting sqref="G13:I13 B13:E13 R13">
+    <cfRule type="expression" dxfId="80" priority="76" stopIfTrue="1">
       <formula>$E13="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="77" stopIfTrue="1">
       <formula>$E13="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="78" stopIfTrue="1">
       <formula>OR($E13="終了",$E13="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="83" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="73" stopIfTrue="1">
       <formula>$E13="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="74" stopIfTrue="1">
       <formula>$E13="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="75" stopIfTrue="1">
       <formula>OR($E13="終了",$E13="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I9 I11:I12">
-    <cfRule type="expression" dxfId="80" priority="256" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="256" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="257" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="257" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="258" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="258" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R34:IN34">
-    <cfRule type="expression" dxfId="77" priority="259" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="259" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="260" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="260" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="261" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO17:XFD19">
-    <cfRule type="expression" dxfId="74" priority="262" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="262" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="263" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="263" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="264" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="264" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:J16">
-    <cfRule type="expression" dxfId="71" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="67" stopIfTrue="1">
       <formula>$E16="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="68" stopIfTrue="1">
       <formula>$E16="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="69" stopIfTrue="1">
       <formula>OR($E16="終了",$E16="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:H25">
-    <cfRule type="expression" dxfId="68" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="61" stopIfTrue="1">
       <formula>$E18="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="62" stopIfTrue="1">
       <formula>$E18="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="63" stopIfTrue="1">
       <formula>OR($E18="終了",$E18="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:H17">
-    <cfRule type="expression" dxfId="65" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="64" stopIfTrue="1">
       <formula>$E18="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="65" stopIfTrue="1">
       <formula>$E18="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="66" stopIfTrue="1">
       <formula>OR($E18="終了",$E18="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="62" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="58" stopIfTrue="1">
       <formula>$E17="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="59" stopIfTrue="1">
       <formula>$E17="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="60" stopIfTrue="1">
       <formula>OR($E17="終了",$E17="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:H31">
-    <cfRule type="expression" dxfId="59" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="55" stopIfTrue="1">
       <formula>$E26="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="56" stopIfTrue="1">
       <formula>$E26="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="57" stopIfTrue="1">
       <formula>OR($E26="終了",$E26="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:H35">
-    <cfRule type="expression" dxfId="56" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="52" stopIfTrue="1">
       <formula>$E32="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="53" stopIfTrue="1">
       <formula>$E32="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="54" stopIfTrue="1">
       <formula>OR($E32="終了",$E32="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:H39">
-    <cfRule type="expression" dxfId="53" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="49" stopIfTrue="1">
       <formula>$E36="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="50" stopIfTrue="1">
       <formula>$E36="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="51" stopIfTrue="1">
       <formula>OR($E36="終了",$E36="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:E46 H46 B40:H45 B47:H47">
-    <cfRule type="expression" dxfId="50" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="46" stopIfTrue="1">
       <formula>$E40="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="47" stopIfTrue="1">
       <formula>$E40="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="48" stopIfTrue="1">
       <formula>OR($E40="終了",$E40="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="expression" dxfId="47" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="40" stopIfTrue="1">
       <formula>$E46="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
       <formula>$E46="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="42" stopIfTrue="1">
       <formula>OR($E46="終了",$E46="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:H50">
-    <cfRule type="expression" dxfId="44" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="37" stopIfTrue="1">
       <formula>$E50="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="38" stopIfTrue="1">
       <formula>$E50="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="39" stopIfTrue="1">
       <formula>OR($E50="終了",$E50="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:H49">
-    <cfRule type="expression" dxfId="41" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="34" stopIfTrue="1">
       <formula>$E48="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="35" stopIfTrue="1">
       <formula>$E48="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="36" stopIfTrue="1">
       <formula>OR($E48="終了",$E48="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B91:B95 D91:D95 B51:D90 E51:H95">
-    <cfRule type="expression" dxfId="38" priority="28" stopIfTrue="1">
-      <formula>$E51="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="29" stopIfTrue="1">
-      <formula>$E51="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="30" stopIfTrue="1">
-      <formula>OR($E51="終了",$E51="完了")</formula>
+  <conditionalFormatting sqref="B81:H82">
+    <cfRule type="expression" dxfId="32" priority="13" stopIfTrue="1">
+      <formula>$E81="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="14" stopIfTrue="1">
+      <formula>$E81="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="15" stopIfTrue="1">
+      <formula>OR($E81="終了",$E81="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C92">
-    <cfRule type="expression" dxfId="35" priority="31" stopIfTrue="1">
-      <formula>$E91="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="32" stopIfTrue="1">
-      <formula>$E91="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="33" stopIfTrue="1">
-      <formula>OR($E91="終了",$E91="完了")</formula>
+  <conditionalFormatting sqref="B80">
+    <cfRule type="expression" dxfId="29" priority="10" stopIfTrue="1">
+      <formula>$E80="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="11" stopIfTrue="1">
+      <formula>$E80="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="12" stopIfTrue="1">
+      <formula>OR($E80="終了",$E80="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C91">
-    <cfRule type="expression" dxfId="32" priority="25" stopIfTrue="1">
-      <formula>$E91="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="26" stopIfTrue="1">
-      <formula>$E91="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="27" stopIfTrue="1">
-      <formula>OR($E91="終了",$E91="完了")</formula>
+  <conditionalFormatting sqref="B84:H94">
+    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
+      <formula>$E84="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
+      <formula>$E84="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="9" stopIfTrue="1">
+      <formula>OR($E84="終了",$E84="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C93">
-    <cfRule type="expression" dxfId="29" priority="22" stopIfTrue="1">
-      <formula>$E92="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="23" stopIfTrue="1">
-      <formula>$E92="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="24" stopIfTrue="1">
-      <formula>OR($E92="終了",$E92="完了")</formula>
+  <conditionalFormatting sqref="B96:I103">
+    <cfRule type="expression" dxfId="23" priority="4" stopIfTrue="1">
+      <formula>$E96="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="5" stopIfTrue="1">
+      <formula>$E96="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="6" stopIfTrue="1">
+      <formula>OR($E96="終了",$E96="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C94">
-    <cfRule type="expression" dxfId="26" priority="19" stopIfTrue="1">
-      <formula>$E93="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="20" stopIfTrue="1">
-      <formula>$E93="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="21" stopIfTrue="1">
-      <formula>OR($E93="終了",$E93="完了")</formula>
+  <conditionalFormatting sqref="B104:H108">
+    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
+      <formula>$E104="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
+      <formula>$E104="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
+      <formula>OR($E104="終了",$E104="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C95">
-    <cfRule type="expression" dxfId="23" priority="16" stopIfTrue="1">
-      <formula>$E94="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="17" stopIfTrue="1">
-      <formula>$E94="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="18" stopIfTrue="1">
-      <formula>OR($E94="終了",$E94="完了")</formula>
+  <conditionalFormatting sqref="D188:I204">
+    <cfRule type="expression" dxfId="17" priority="4108" stopIfTrue="1">
+      <formula>$C188="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="4109" stopIfTrue="1">
+      <formula>$C188="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="4110" stopIfTrue="1">
+      <formula>OR($C188="終了",$C188="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B98:H99">
-    <cfRule type="expression" dxfId="20" priority="13" stopIfTrue="1">
-      <formula>$E98="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="14" stopIfTrue="1">
-      <formula>$E98="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="15" stopIfTrue="1">
-      <formula>OR($E98="終了",$E98="完了")</formula>
+  <conditionalFormatting sqref="J188:J203">
+    <cfRule type="expression" dxfId="14" priority="4117" stopIfTrue="1">
+      <formula>$C189="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="4118" stopIfTrue="1">
+      <formula>$C189="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="4119" stopIfTrue="1">
+      <formula>OR($C189="終了",$C189="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B97">
-    <cfRule type="expression" dxfId="17" priority="10" stopIfTrue="1">
-      <formula>$E97="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="11" stopIfTrue="1">
-      <formula>$E97="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="12" stopIfTrue="1">
-      <formula>OR($E97="終了",$E97="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B101:H111">
-    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
-      <formula>$E101="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
-      <formula>$E101="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="9" stopIfTrue="1">
-      <formula>OR($E101="終了",$E101="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B113:J120">
-    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
-      <formula>$E113="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
-      <formula>$E113="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
-      <formula>OR($E113="終了",$E113="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B121:H125">
-    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
-      <formula>$E121="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
-      <formula>$E121="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
-      <formula>OR($E121="終了",$E121="完了")</formula>
+  <conditionalFormatting sqref="K188:L202">
+    <cfRule type="expression" dxfId="11" priority="4126" stopIfTrue="1">
+      <formula>$C190="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="4127" stopIfTrue="1">
+      <formula>$C190="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="4128" stopIfTrue="1">
+      <formula>OR($C190="終了",$C190="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -40842,13 +40278,13 @@
   <autoFilter ref="B1:K51"/>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="A2:K51">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>$D2="要望"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>$D2="確認済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>$D2="対応"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Godlibrary/BackLog.xlsx
+++ b/Godlibrary/BackLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3888" yWindow="3048" windowWidth="19236" windowHeight="12120" tabRatio="658" activeTab="3"/>
+    <workbookView xWindow="3888" yWindow="3048" windowWidth="19236" windowHeight="12120" tabRatio="658" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ(第１）" sheetId="2" r:id="rId1"/>
@@ -656,7 +656,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="339">
   <si>
     <t>担当者</t>
   </si>
@@ -3346,6 +3346,24 @@
     <t>遠藤</t>
     <rPh sb="0" eb="2">
       <t>エンドウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>バトルマネージャー修正</t>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>土橋</t>
+    <rPh sb="0" eb="2">
+      <t>ドバシ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -4129,12 +4147,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4142,6 +4154,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4159,27 +4177,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color auto="1"/>
       </font>
       <fill>
@@ -4857,6 +4854,27 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -18745,7 +18763,7 @@
       <c r="C1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="106" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="100" t="s">
@@ -18769,8 +18787,8 @@
       <c r="K1" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="106"/>
-      <c r="M1" s="107"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="110"/>
       <c r="N1" s="71"/>
       <c r="O1" s="71"/>
       <c r="P1" s="71"/>
@@ -18785,7 +18803,7 @@
       <c r="A2" s="100"/>
       <c r="B2" s="101"/>
       <c r="C2" s="101"/>
-      <c r="D2" s="109"/>
+      <c r="D2" s="107"/>
       <c r="E2" s="100"/>
       <c r="F2" s="103"/>
       <c r="G2" s="103"/>
@@ -18806,7 +18824,7 @@
       <c r="A3" s="100"/>
       <c r="B3" s="101"/>
       <c r="C3" s="101"/>
-      <c r="D3" s="109"/>
+      <c r="D3" s="107"/>
       <c r="E3" s="100"/>
       <c r="F3" s="103"/>
       <c r="G3" s="103"/>
@@ -18830,7 +18848,7 @@
       <c r="A4" s="100"/>
       <c r="B4" s="101"/>
       <c r="C4" s="102"/>
-      <c r="D4" s="110"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="100"/>
       <c r="F4" s="103"/>
       <c r="G4" s="103"/>
@@ -18847,7 +18865,7 @@
       </c>
       <c r="M4" s="21">
         <f>SUM(M5:M76)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -19424,7 +19442,7 @@
       </c>
       <c r="E21" s="12" t="str">
         <f ca="1">IF(ISBLANK($B21),"",IF(ISBLANK($G21),"未着手",IF($J21=0,"完了","作業中")))</f>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F21" s="4">
         <v>43048</v>
@@ -19440,7 +19458,7 @@
       </c>
       <c r="J21" s="84">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="22">
         <v>2</v>
@@ -19449,7 +19467,7 @@
         <v>2</v>
       </c>
       <c r="M21" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -20311,18 +20329,18 @@
       </c>
       <c r="Q41" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R41" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S41" s="14">
         <v>0</v>
       </c>
       <c r="T41" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -20581,17 +20599,17 @@
   </sheetData>
   <autoFilter ref="C1:D123"/>
   <mergeCells count="11">
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:M1"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:D4"/>
     <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D43:D65414">
@@ -21701,7 +21719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y202"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
@@ -21741,7 +21759,7 @@
       <c r="C1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="106" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="100" t="s">
@@ -21765,13 +21783,13 @@
       <c r="K1" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="107"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="110"/>
       <c r="S1" s="71"/>
       <c r="T1" s="71"/>
       <c r="U1" s="71"/>
@@ -21782,7 +21800,7 @@
       <c r="A2" s="100"/>
       <c r="B2" s="101"/>
       <c r="C2" s="101"/>
-      <c r="D2" s="109"/>
+      <c r="D2" s="107"/>
       <c r="E2" s="100"/>
       <c r="F2" s="103"/>
       <c r="G2" s="103"/>
@@ -21818,7 +21836,7 @@
       <c r="A3" s="100"/>
       <c r="B3" s="101"/>
       <c r="C3" s="101"/>
-      <c r="D3" s="109"/>
+      <c r="D3" s="107"/>
       <c r="E3" s="100"/>
       <c r="F3" s="103"/>
       <c r="G3" s="103"/>
@@ -21862,7 +21880,7 @@
       <c r="A4" s="100"/>
       <c r="B4" s="101"/>
       <c r="C4" s="102"/>
-      <c r="D4" s="110"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="100"/>
       <c r="F4" s="103"/>
       <c r="G4" s="103"/>
@@ -21899,7 +21917,7 @@
       </c>
       <c r="R4" s="21">
         <f t="shared" si="1"/>
-        <v>142</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -21991,20 +22009,24 @@
         <v>48</v>
       </c>
       <c r="E8" s="12" t="str">
-        <f t="shared" ref="E8:E12" si="2">IF(ISBLANK($B8),"",IF(ISBLANK($G8),"未着手",IF($J8=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f t="shared" ref="E8:E12" ca="1" si="2">IF(ISBLANK($B8),"",IF(ISBLANK($G8),"未着手",IF($J8=0,"完了","作業中")))</f>
+        <v>完了</v>
       </c>
       <c r="F8" s="4">
         <v>43094</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4">
+        <v>43112</v>
+      </c>
       <c r="H8" s="19">
         <v>3</v>
       </c>
-      <c r="I8" s="19"/>
+      <c r="I8" s="19">
+        <v>3</v>
+      </c>
       <c r="J8" s="12">
         <f ca="1">IF(ISBLANK(K8)=FALSE,OFFSET(J8,0,COUNTA(K8:R8)),"")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K8" s="22">
         <v>3</v>
@@ -22028,7 +22050,7 @@
         <v>3</v>
       </c>
       <c r="R8" s="22">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -22045,20 +22067,24 @@
         <v>50</v>
       </c>
       <c r="E9" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
       </c>
       <c r="F9" s="4">
         <v>43094</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4">
+        <v>43112</v>
+      </c>
       <c r="H9" s="19">
         <v>3</v>
       </c>
-      <c r="I9" s="19"/>
+      <c r="I9" s="19">
+        <v>3</v>
+      </c>
       <c r="J9" s="12">
         <f t="shared" ref="J9:J72" ca="1" si="3">IF(ISBLANK(K9)=FALSE,OFFSET(J9,0,COUNTA(K9:R9)),"")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K9" s="22">
         <v>3</v>
@@ -22082,7 +22108,7 @@
         <v>3</v>
       </c>
       <c r="R9" s="22">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -22099,20 +22125,24 @@
         <v>52</v>
       </c>
       <c r="E10" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
       </c>
       <c r="F10" s="4">
         <v>43094</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4">
+        <v>43112</v>
+      </c>
       <c r="H10" s="19">
         <v>3</v>
       </c>
-      <c r="I10" s="19"/>
+      <c r="I10" s="19">
+        <v>3</v>
+      </c>
       <c r="J10" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K10" s="22">
         <v>3</v>
@@ -22136,7 +22166,7 @@
         <v>3</v>
       </c>
       <c r="R10" s="22">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -22153,20 +22183,24 @@
         <v>54</v>
       </c>
       <c r="E11" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
       </c>
       <c r="F11" s="4">
         <v>43094</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4">
+        <v>43112</v>
+      </c>
       <c r="H11" s="19">
         <v>3</v>
       </c>
-      <c r="I11" s="86"/>
+      <c r="I11" s="86">
+        <v>3</v>
+      </c>
       <c r="J11" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K11" s="22">
         <v>3</v>
@@ -22190,7 +22224,7 @@
         <v>3</v>
       </c>
       <c r="R11" s="22">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -22207,20 +22241,24 @@
         <v>48</v>
       </c>
       <c r="E12" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
       </c>
       <c r="F12" s="4">
         <v>43094</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4">
+        <v>43112</v>
+      </c>
       <c r="H12" s="19">
         <v>3</v>
       </c>
-      <c r="I12" s="19"/>
+      <c r="I12" s="19">
+        <v>3</v>
+      </c>
       <c r="J12" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K12" s="22">
         <v>3</v>
@@ -22244,7 +22282,7 @@
         <v>3</v>
       </c>
       <c r="R12" s="22">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -22261,20 +22299,24 @@
         <v>50</v>
       </c>
       <c r="E13" s="12" t="str">
-        <f t="shared" ref="E13:E15" si="4">IF(ISBLANK($B13),"",IF(ISBLANK($G13),"未着手",IF($J13=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f t="shared" ref="E13:E15" ca="1" si="4">IF(ISBLANK($B13),"",IF(ISBLANK($G13),"未着手",IF($J13=0,"完了","作業中")))</f>
+        <v>完了</v>
       </c>
       <c r="F13" s="4">
         <v>43103</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4">
+        <v>43112</v>
+      </c>
       <c r="H13" s="19">
         <v>3</v>
       </c>
-      <c r="I13" s="19"/>
+      <c r="I13" s="19">
+        <v>3</v>
+      </c>
       <c r="J13" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K13" s="22">
         <v>3</v>
@@ -22298,7 +22340,7 @@
         <v>3</v>
       </c>
       <c r="R13" s="22">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -22315,20 +22357,24 @@
         <v>50</v>
       </c>
       <c r="E14" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>完了</v>
       </c>
       <c r="F14" s="4">
         <v>43103</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4">
+        <v>43112</v>
+      </c>
       <c r="H14" s="19">
         <v>3</v>
       </c>
-      <c r="I14" s="19"/>
+      <c r="I14" s="19">
+        <v>3</v>
+      </c>
       <c r="J14" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K14" s="22">
         <v>3</v>
@@ -22352,7 +22398,7 @@
         <v>3</v>
       </c>
       <c r="R14" s="22">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -22369,20 +22415,24 @@
         <v>50</v>
       </c>
       <c r="E15" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>完了</v>
       </c>
       <c r="F15" s="4">
         <v>43103</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4">
+        <v>43112</v>
+      </c>
       <c r="H15" s="19">
         <v>3</v>
       </c>
-      <c r="I15" s="86"/>
+      <c r="I15" s="19">
+        <v>3</v>
+      </c>
       <c r="J15" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K15" s="22">
         <v>3</v>
@@ -22406,7 +22456,7 @@
         <v>3</v>
       </c>
       <c r="R15" s="22">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -22568,7 +22618,7 @@
       <c r="H19" s="19">
         <v>6</v>
       </c>
-      <c r="I19" s="86"/>
+      <c r="I19" s="19"/>
       <c r="J19" s="12">
         <f t="shared" ca="1" si="3"/>
         <v>6</v>
@@ -22757,7 +22807,7 @@
       <c r="H23" s="19">
         <v>4</v>
       </c>
-      <c r="I23" s="86"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="12">
         <f t="shared" ca="1" si="3"/>
         <v>4</v>
@@ -22966,7 +23016,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="19"/>
-      <c r="I27" s="86"/>
+      <c r="I27" s="19"/>
       <c r="J27" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -23155,7 +23205,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="19"/>
-      <c r="I31" s="86"/>
+      <c r="I31" s="19"/>
       <c r="J31" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -23345,20 +23395,24 @@
         <v>83</v>
       </c>
       <c r="E35" s="12" t="str">
-        <f>IF(ISBLANK($B35),"",IF(ISBLANK($G35),"未着手",IF($J35=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($B35),"",IF(ISBLANK($G35),"未着手",IF($J35=0,"完了","作業中")))</f>
+        <v>完了</v>
       </c>
       <c r="F35" s="4">
         <v>43096</v>
       </c>
-      <c r="G35" s="4"/>
+      <c r="G35" s="4">
+        <v>43112</v>
+      </c>
       <c r="H35" s="19">
         <v>3</v>
       </c>
-      <c r="I35" s="86"/>
+      <c r="I35" s="19">
+        <v>3</v>
+      </c>
       <c r="J35" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K35" s="22">
         <v>3</v>
@@ -23382,7 +23436,7 @@
         <v>3</v>
       </c>
       <c r="R35" s="22">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -23569,18 +23623,18 @@
       </c>
       <c r="V38" s="10">
         <f ca="1">SUMIF($C$5:$C$202,T38,$J$5:$J$202)</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="W38" s="10">
         <f>SUMIF($C$5:$C$200,T38,$I$5:$I$200)</f>
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="X38" s="14">
         <v>0</v>
       </c>
       <c r="Y38" s="15">
         <f ca="1">IF(X38&gt;V38,0,V38-X38)</f>
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:25">
@@ -23618,18 +23672,18 @@
       </c>
       <c r="V39" s="10">
         <f t="shared" ref="V39:V43" ca="1" si="5">SUMIF($C$5:$C$202,T39,$J$5:$J$202)</f>
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="W39" s="10">
         <f t="shared" ref="W39:W43" si="6">SUMIF($C$5:$C$200,T39,$I$5:$I$200)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X39" s="14">
         <v>0</v>
       </c>
       <c r="Y39" s="15">
         <f t="shared" ref="Y39:Y43" ca="1" si="7">IF(X39&gt;V39,0,V39-X39)</f>
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:25">
@@ -23667,18 +23721,18 @@
       </c>
       <c r="V40" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="W40" s="10">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="X40" s="14">
         <v>0</v>
       </c>
       <c r="Y40" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:25">
@@ -23823,18 +23877,18 @@
       </c>
       <c r="V42" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="W42" s="10">
         <f t="shared" si="6"/>
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="X42" s="14">
         <v>0</v>
       </c>
       <c r="Y42" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -23901,18 +23955,18 @@
       </c>
       <c r="V43" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W43" s="10">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X43" s="14">
         <v>0</v>
       </c>
       <c r="Y43" s="15">
         <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:25">
@@ -24844,7 +24898,7 @@
       </c>
       <c r="E62" s="12" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F62" s="4">
         <v>43095</v>
@@ -24856,11 +24910,11 @@
         <v>2</v>
       </c>
       <c r="I62" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="22">
         <v>2</v>
@@ -24884,7 +24938,7 @@
         <v>1</v>
       </c>
       <c r="R62" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -24901,20 +24955,24 @@
         <v>188</v>
       </c>
       <c r="E63" s="12" t="str">
-        <f t="shared" si="9"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>完了</v>
       </c>
       <c r="F63" s="4">
         <v>43096</v>
       </c>
-      <c r="G63" s="4"/>
+      <c r="G63" s="4">
+        <v>43112</v>
+      </c>
       <c r="H63" s="19">
         <v>4</v>
       </c>
-      <c r="I63" s="19"/>
+      <c r="I63" s="19">
+        <v>4</v>
+      </c>
       <c r="J63" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K63" s="22">
         <v>4</v>
@@ -24938,7 +24996,7 @@
         <v>4</v>
       </c>
       <c r="R63" s="22">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -25036,20 +25094,24 @@
         <v>50</v>
       </c>
       <c r="E66" s="12" t="str">
-        <f t="shared" si="9"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>作業中</v>
       </c>
       <c r="F66" s="4">
         <v>42738</v>
       </c>
-      <c r="G66" s="4"/>
+      <c r="G66" s="4">
+        <v>43112</v>
+      </c>
       <c r="H66" s="19">
         <v>2</v>
       </c>
-      <c r="I66" s="19"/>
+      <c r="I66" s="19">
+        <v>1</v>
+      </c>
       <c r="J66" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K66" s="22">
         <v>2</v>
@@ -25073,7 +25135,7 @@
         <v>2</v>
       </c>
       <c r="R66" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -29421,20 +29483,24 @@
         <v>300</v>
       </c>
       <c r="E152" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>完了</v>
       </c>
       <c r="F152" s="4">
         <v>43104</v>
       </c>
-      <c r="G152" s="4"/>
+      <c r="G152" s="4">
+        <v>43112</v>
+      </c>
       <c r="H152" s="19">
         <v>3</v>
       </c>
-      <c r="I152" s="19"/>
+      <c r="I152" s="19">
+        <v>3</v>
+      </c>
       <c r="J152" s="12">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K152" s="22">
         <v>3</v>
@@ -29458,7 +29524,7 @@
         <v>3</v>
       </c>
       <c r="R152" s="22">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -29475,20 +29541,24 @@
         <v>48</v>
       </c>
       <c r="E153" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>完了</v>
       </c>
       <c r="F153" s="4">
         <v>43105</v>
       </c>
-      <c r="G153" s="4"/>
+      <c r="G153" s="4">
+        <v>43112</v>
+      </c>
       <c r="H153" s="19">
         <v>3</v>
       </c>
-      <c r="I153" s="19"/>
+      <c r="I153" s="19">
+        <v>3</v>
+      </c>
       <c r="J153" s="12">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K153" s="22">
         <v>3</v>
@@ -29512,7 +29582,7 @@
         <v>3</v>
       </c>
       <c r="R153" s="22">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -31281,7 +31351,7 @@
       <formula>OR($D203="終了",$D203="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:IO5 A6:R6 G9:I10 B37:E37 H37 B16:H36 B122:B126 B9:F15 D122:D126 B127:D153 A7:A153 A154:D202 B63:D121 F63:I202 B43:D61 F43:H58 F59:I61 E43:E202 J9:J202 B38:H42 G11:H15 I12:I14 I16:I18 I20:I22 I24:I26 I28:I30 I32:I34 I36:I58 K36:R61 G62 B8:R8 K29:R34 K9:R27 K63:R202">
+  <conditionalFormatting sqref="A5:IO5 A6:R6 H9:I10 B37:E37 H37 B16:H36 B122:B126 D122:D126 B127:D153 A7:A153 A154:D202 B63:D121 F63:I202 B43:D61 F43:H58 F59:I61 E43:E202 J9:J202 B38:H42 H11:H15 K36:R61 G62 B8:R8 K29:R34 K9:R27 K63:R202 B9:G15 I12:I58">
     <cfRule type="expression" dxfId="437" priority="205" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>
@@ -31677,7 +31747,7 @@
       <formula>OR($D13="終了",$D13="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S7:IO8 C7:R7 S11:IO11 I11 I15 I19 I23 I27 I31 I35 K28:R28 K35:R35">
+  <conditionalFormatting sqref="S7:IO8 C7:R7 S11:IO11 I11 K28:R28 K35:R35">
     <cfRule type="expression" dxfId="329" priority="1987" stopIfTrue="1">
       <formula>$E8="未着手"</formula>
     </cfRule>
@@ -32155,7 +32225,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X204"/>
+  <dimension ref="A1:X196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:A4"/>
@@ -32198,7 +32268,7 @@
       <c r="C1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="106" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="100" t="s">
@@ -32238,7 +32308,7 @@
       <c r="A2" s="100"/>
       <c r="B2" s="101"/>
       <c r="C2" s="101"/>
-      <c r="D2" s="109"/>
+      <c r="D2" s="107"/>
       <c r="E2" s="100"/>
       <c r="F2" s="103"/>
       <c r="G2" s="103"/>
@@ -32271,7 +32341,7 @@
       <c r="A3" s="100"/>
       <c r="B3" s="101"/>
       <c r="C3" s="101"/>
-      <c r="D3" s="109"/>
+      <c r="D3" s="107"/>
       <c r="E3" s="100"/>
       <c r="F3" s="103"/>
       <c r="G3" s="103"/>
@@ -32280,38 +32350,38 @@
       <c r="J3" s="100"/>
       <c r="K3" s="20">
         <f>INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$Q$2))))</f>
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="L3" s="20">
         <f t="shared" ref="L3:Q3" si="0">INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$Q$2))))</f>
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="M3" s="20">
         <f t="shared" si="0"/>
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="N3" s="20">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="O3" s="20">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="P3" s="20">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="Q3" s="20">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="8" customFormat="1">
       <c r="A4" s="100"/>
       <c r="B4" s="101"/>
       <c r="C4" s="102"/>
-      <c r="D4" s="110"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="100"/>
       <c r="F4" s="103"/>
       <c r="G4" s="103"/>
@@ -32319,12 +32389,12 @@
       <c r="I4" s="105"/>
       <c r="J4" s="100"/>
       <c r="K4" s="21">
-        <f>SUM(K5:K183)</f>
-        <v>192.5</v>
+        <f>SUM(K5:K175)</f>
+        <v>167.5</v>
       </c>
       <c r="L4" s="21">
         <f t="shared" ref="L4:Q4" si="1">SUM(L5:L45)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M4" s="21">
         <f t="shared" si="1"/>
@@ -32455,7 +32525,7 @@
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="12" t="str">
-        <f t="shared" ref="J8:J71" ca="1" si="3">IF(ISBLANK(K8)=FALSE,OFFSET(J8,0,COUNTA(K8:Q8)),"")</f>
+        <f t="shared" ref="J8:J69" ca="1" si="3">IF(ISBLANK(K8)=FALSE,OFFSET(J8,0,COUNTA(K8:Q8)),"")</f>
         <v/>
       </c>
       <c r="K8" s="22"/>
@@ -32755,25 +32825,31 @@
         <v>48</v>
       </c>
       <c r="E18" s="12" t="str">
-        <f t="shared" ref="E18:E25" si="4">IF(ISBLANK($B18),"",IF(ISBLANK($G18),"未着手",IF($J18=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f t="shared" ref="E18:E25" ca="1" si="4">IF(ISBLANK($B18),"",IF(ISBLANK($G18),"未着手",IF($J18=0,"完了","作業中")))</f>
+        <v>作業中</v>
       </c>
       <c r="F18" s="4">
         <v>43094</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4">
+        <v>43112</v>
+      </c>
       <c r="H18" s="19">
         <v>3</v>
       </c>
-      <c r="I18" s="19"/>
+      <c r="I18" s="19">
+        <v>2</v>
+      </c>
       <c r="J18" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K18" s="22">
         <v>3</v>
       </c>
-      <c r="L18" s="22"/>
+      <c r="L18" s="22">
+        <v>1</v>
+      </c>
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
@@ -32807,16 +32883,18 @@
         <v>3</v>
       </c>
       <c r="I19" s="19">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="J19" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K19" s="22">
         <v>1.5</v>
       </c>
-      <c r="L19" s="22"/>
+      <c r="L19" s="22">
+        <v>1</v>
+      </c>
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
@@ -32837,25 +32915,31 @@
         <v>48</v>
       </c>
       <c r="E20" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>作業中</v>
       </c>
       <c r="F20" s="4">
         <v>43094</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="4">
+        <v>43112</v>
+      </c>
       <c r="H20" s="19">
         <v>3</v>
       </c>
-      <c r="I20" s="19"/>
+      <c r="I20" s="19">
+        <v>2</v>
+      </c>
       <c r="J20" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K20" s="22">
         <v>3</v>
       </c>
-      <c r="L20" s="22"/>
+      <c r="L20" s="22">
+        <v>1</v>
+      </c>
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
@@ -32876,25 +32960,31 @@
         <v>48</v>
       </c>
       <c r="E21" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>作業中</v>
       </c>
       <c r="F21" s="4">
         <v>43094</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="4">
+        <v>43112</v>
+      </c>
       <c r="H21" s="19">
         <v>3</v>
       </c>
-      <c r="I21" s="19"/>
+      <c r="I21" s="19">
+        <v>2</v>
+      </c>
       <c r="J21" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K21" s="22">
         <v>3</v>
       </c>
-      <c r="L21" s="22"/>
+      <c r="L21" s="22">
+        <v>1</v>
+      </c>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
@@ -32915,25 +33005,31 @@
         <v>48</v>
       </c>
       <c r="E22" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>作業中</v>
       </c>
       <c r="F22" s="4">
         <v>43094</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4">
+        <v>43112</v>
+      </c>
       <c r="H22" s="19">
         <v>3</v>
       </c>
-      <c r="I22" s="19"/>
+      <c r="I22" s="19">
+        <v>2</v>
+      </c>
       <c r="J22" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K22" s="22">
         <v>3</v>
       </c>
-      <c r="L22" s="22"/>
+      <c r="L22" s="22">
+        <v>1</v>
+      </c>
       <c r="M22" s="22"/>
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
@@ -32954,25 +33050,31 @@
         <v>48</v>
       </c>
       <c r="E23" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>作業中</v>
       </c>
       <c r="F23" s="4">
         <v>43103</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="4">
+        <v>43112</v>
+      </c>
       <c r="H23" s="19">
         <v>3</v>
       </c>
-      <c r="I23" s="19"/>
+      <c r="I23" s="19">
+        <v>2</v>
+      </c>
       <c r="J23" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K23" s="22">
         <v>3</v>
       </c>
-      <c r="L23" s="22"/>
+      <c r="L23" s="22">
+        <v>1</v>
+      </c>
       <c r="M23" s="22"/>
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
@@ -32993,25 +33095,31 @@
         <v>48</v>
       </c>
       <c r="E24" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>作業中</v>
       </c>
       <c r="F24" s="4">
         <v>43103</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4">
+        <v>43112</v>
+      </c>
       <c r="H24" s="19">
         <v>3</v>
       </c>
-      <c r="I24" s="19"/>
+      <c r="I24" s="19">
+        <v>2</v>
+      </c>
       <c r="J24" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K24" s="22">
         <v>3</v>
       </c>
-      <c r="L24" s="22"/>
+      <c r="L24" s="22">
+        <v>1</v>
+      </c>
       <c r="M24" s="22"/>
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
@@ -33032,25 +33140,31 @@
         <v>48</v>
       </c>
       <c r="E25" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>作業中</v>
       </c>
       <c r="F25" s="4">
         <v>43103</v>
       </c>
-      <c r="G25" s="4"/>
+      <c r="G25" s="4">
+        <v>43112</v>
+      </c>
       <c r="H25" s="19">
         <v>3</v>
       </c>
-      <c r="I25" s="19"/>
+      <c r="I25" s="19">
+        <v>2</v>
+      </c>
       <c r="J25" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K25" s="22">
         <v>3</v>
       </c>
-      <c r="L25" s="22"/>
+      <c r="L25" s="22">
+        <v>1</v>
+      </c>
       <c r="M25" s="22"/>
       <c r="N25" s="22"/>
       <c r="O25" s="22"/>
@@ -33090,19 +33204,19 @@
         <v>28</v>
       </c>
       <c r="U26" s="10">
-        <f ca="1">SUMIF($C$5:$C$78,S26,$J$5:$J$78)</f>
-        <v>22.5</v>
+        <f ca="1">SUMIF($C$5:$C$70,S26,$J$5:$J$70)</f>
+        <v>8</v>
       </c>
       <c r="V26" s="10">
         <f ca="1">T26-U26</f>
-        <v>5.5</v>
+        <v>20</v>
       </c>
       <c r="W26" s="14">
         <v>0</v>
       </c>
       <c r="X26" s="15">
         <f ca="1">IF(W26&gt;U26,0,U26-W26)</f>
-        <v>22.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -33151,19 +33265,19 @@
         <v>17</v>
       </c>
       <c r="U27" s="10">
-        <f ca="1">SUMIF($C$5:$C$78,S27,$J$5:$J$78)</f>
-        <v>9</v>
+        <f ca="1">SUMIF($C$5:$C$70,S27,$J$5:$J$70)</f>
+        <v>5</v>
       </c>
       <c r="V27" s="10">
         <f ca="1">T27-U27</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="W27" s="14">
         <v>0</v>
       </c>
       <c r="X27" s="15">
         <f ca="1">IF(W27&gt;U27,0,U27-W27)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -33212,19 +33326,19 @@
         <v>0</v>
       </c>
       <c r="U28" s="10">
-        <f ca="1">SUMIF($C$5:$C$78,S28,$J$5:$J$78)</f>
-        <v>59</v>
+        <f ca="1">SUMIF($C$5:$C$70,S28,$J$5:$J$70)</f>
+        <v>12</v>
       </c>
       <c r="V28" s="10">
         <f t="shared" ref="V28" ca="1" si="5">T28-U28</f>
-        <v>-59</v>
+        <v>-12</v>
       </c>
       <c r="W28" s="14">
         <v>0</v>
       </c>
       <c r="X28" s="15">
         <f t="shared" ref="X28" ca="1" si="6">IF(W28&gt;U28,0,U28-W28)</f>
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -33610,23 +33724,23 @@
         <v>47</v>
       </c>
       <c r="T38" s="10">
-        <f t="shared" ref="T38:T43" si="7">SUMIF($C$5:$C$183,S38,$H$5:$H$183)</f>
+        <f>SUMIF($C$5:$C$175,S38,$H$5:$H$175)</f>
         <v>28</v>
       </c>
       <c r="U38" s="10">
-        <f t="shared" ref="U38:U43" ca="1" si="8">SUMIF($C$5:$C$183,S38,$J$5:$J$183)</f>
-        <v>22.5</v>
+        <f ca="1">SUMIF($C$5:$C$175,S38,$J$5:$J$175)</f>
+        <v>8</v>
       </c>
       <c r="V38" s="10">
         <f ca="1">T38-U38</f>
-        <v>5.5</v>
+        <v>20</v>
       </c>
       <c r="W38" s="14">
         <v>0</v>
       </c>
       <c r="X38" s="15">
         <f ca="1">IF(W38&gt;U38,0,U38-W38)</f>
-        <v>22.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -33671,23 +33785,23 @@
         <v>94</v>
       </c>
       <c r="T39" s="10">
-        <f t="shared" si="7"/>
+        <f>SUMIF($C$5:$C$175,S39,$H$5:$H$175)</f>
         <v>68</v>
       </c>
       <c r="U39" s="10">
-        <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <f ca="1">SUMIF($C$5:$C$175,S39,$J$5:$J$175)</f>
+        <v>57</v>
       </c>
       <c r="V39" s="10">
-        <f t="shared" ref="V39:V43" ca="1" si="9">T39-U39</f>
-        <v>2</v>
+        <f t="shared" ref="V39:V43" ca="1" si="7">T39-U39</f>
+        <v>11</v>
       </c>
       <c r="W39" s="14">
         <v>0</v>
       </c>
       <c r="X39" s="15">
-        <f t="shared" ref="X39:X43" ca="1" si="10">IF(W39&gt;U39,0,U39-W39)</f>
-        <v>66</v>
+        <f t="shared" ref="X39:X43" ca="1" si="8">IF(W39&gt;U39,0,U39-W39)</f>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -33719,23 +33833,23 @@
         <v>63</v>
       </c>
       <c r="T40" s="10">
-        <f t="shared" si="7"/>
+        <f>SUMIF($C$5:$C$175,S40,$H$5:$H$175)</f>
         <v>17</v>
       </c>
       <c r="U40" s="10">
-        <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <f ca="1">SUMIF($C$5:$C$175,S40,$J$5:$J$175)</f>
+        <v>5</v>
       </c>
       <c r="V40" s="10">
-        <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>12</v>
       </c>
       <c r="W40" s="14">
         <v>0</v>
       </c>
       <c r="X40" s="15">
-        <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -33780,23 +33894,23 @@
         <v>66</v>
       </c>
       <c r="T41" s="10">
-        <f t="shared" si="7"/>
-        <v>59</v>
+        <f>SUMIF($C$5:$C$175,S41,$H$5:$H$175)</f>
+        <v>30</v>
       </c>
       <c r="U41" s="10">
-        <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <f ca="1">SUMIF($C$5:$C$175,S41,$J$5:$J$175)</f>
+        <v>12</v>
       </c>
       <c r="V41" s="10">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>18</v>
       </c>
       <c r="W41" s="14">
         <v>0</v>
       </c>
       <c r="X41" s="15">
-        <f t="shared" ca="1" si="10"/>
-        <v>59</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -33841,22 +33955,22 @@
         <v>65</v>
       </c>
       <c r="T42" s="10">
-        <f t="shared" si="7"/>
-        <v>32</v>
+        <f>SUMIF($C$5:$C$175,S42,$H$5:$H$175)</f>
+        <v>34</v>
       </c>
       <c r="U42" s="10">
-        <f t="shared" ca="1" si="8"/>
+        <f ca="1">SUMIF($C$5:$C$175,S42,$J$5:$J$175)</f>
         <v>16</v>
       </c>
       <c r="V42" s="10">
-        <f t="shared" ca="1" si="9"/>
-        <v>16</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>18</v>
       </c>
       <c r="W42" s="14">
         <v>0</v>
       </c>
       <c r="X42" s="15">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="8"/>
         <v>16</v>
       </c>
     </row>
@@ -33902,23 +34016,23 @@
         <v>80</v>
       </c>
       <c r="T43" s="10">
-        <f t="shared" si="7"/>
+        <f>SUMIF($C$5:$C$175,S43,$H$5:$H$175)</f>
         <v>19</v>
       </c>
       <c r="U43" s="10">
-        <f t="shared" ca="1" si="8"/>
-        <v>17</v>
+        <f ca="1">SUMIF($C$5:$C$175,S43,$J$5:$J$175)</f>
+        <v>16</v>
       </c>
       <c r="V43" s="10">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
       </c>
       <c r="W43" s="14">
         <v>0</v>
       </c>
       <c r="X43" s="15">
-        <f t="shared" ca="1" si="10"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -33935,25 +34049,31 @@
         <v>83</v>
       </c>
       <c r="E44" s="12" t="str">
-        <f>IF(ISBLANK($B44),"",IF(ISBLANK($G44),"未着手",IF($J44=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($B44),"",IF(ISBLANK($G44),"未着手",IF($J44=0,"完了","作業中")))</f>
+        <v>完了</v>
       </c>
       <c r="F44" s="4">
         <v>43096</v>
       </c>
-      <c r="G44" s="4"/>
+      <c r="G44" s="4">
+        <v>43112</v>
+      </c>
       <c r="H44" s="19">
         <v>3</v>
       </c>
-      <c r="I44" s="19"/>
+      <c r="I44" s="19">
+        <v>3</v>
+      </c>
       <c r="J44" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K44" s="22">
         <v>3</v>
       </c>
-      <c r="L44" s="22"/>
+      <c r="L44" s="22">
+        <v>0</v>
+      </c>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -34087,25 +34207,31 @@
         <v>79</v>
       </c>
       <c r="E48" s="12" t="str">
-        <f t="shared" ref="E48:E49" si="11">IF(ISBLANK($B48),"",IF(ISBLANK($G48),"未着手",IF($J48=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f t="shared" ref="E48:E49" ca="1" si="9">IF(ISBLANK($B48),"",IF(ISBLANK($G48),"未着手",IF($J48=0,"完了","作業中")))</f>
+        <v>完了</v>
       </c>
       <c r="F48" s="4">
         <v>43096</v>
       </c>
-      <c r="G48" s="4"/>
+      <c r="G48" s="4">
+        <v>43112</v>
+      </c>
       <c r="H48" s="19">
         <v>4</v>
       </c>
-      <c r="I48" s="86"/>
+      <c r="I48" s="86">
+        <v>4</v>
+      </c>
       <c r="J48" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K48" s="22">
         <v>4</v>
       </c>
-      <c r="L48" s="22"/>
+      <c r="L48" s="22">
+        <v>0</v>
+      </c>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -34126,7 +34252,7 @@
         <v>191</v>
       </c>
       <c r="E49" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>未着手</v>
       </c>
       <c r="F49" s="4">
@@ -34215,25 +34341,31 @@
         <v>58</v>
       </c>
       <c r="E52" s="12" t="str">
-        <f t="shared" ref="E52:E78" si="12">IF(ISBLANK($B52),"",IF(ISBLANK($G52),"未着手",IF($J52=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f t="shared" ref="E52:E70" ca="1" si="10">IF(ISBLANK($B52),"",IF(ISBLANK($G52),"未着手",IF($J52=0,"完了","作業中")))</f>
+        <v>完了</v>
       </c>
       <c r="F52" s="4">
         <v>43094</v>
       </c>
-      <c r="G52" s="4"/>
+      <c r="G52" s="4">
+        <v>43094</v>
+      </c>
       <c r="H52" s="19">
         <v>1.5</v>
       </c>
-      <c r="I52" s="86"/>
+      <c r="I52" s="19">
+        <v>1.5</v>
+      </c>
       <c r="J52" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K52" s="22">
         <v>1.5</v>
       </c>
-      <c r="L52" s="22"/>
+      <c r="L52" s="22">
+        <v>0</v>
+      </c>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -34254,25 +34386,31 @@
         <v>58</v>
       </c>
       <c r="E53" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>完了</v>
       </c>
       <c r="F53" s="4">
         <v>43094</v>
       </c>
-      <c r="G53" s="4"/>
+      <c r="G53" s="4">
+        <v>43094</v>
+      </c>
       <c r="H53" s="19">
         <v>1.5</v>
       </c>
-      <c r="I53" s="86"/>
+      <c r="I53" s="19">
+        <v>1.5</v>
+      </c>
       <c r="J53" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K53" s="22">
         <v>1.5</v>
       </c>
-      <c r="L53" s="22"/>
+      <c r="L53" s="22">
+        <v>0</v>
+      </c>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -34293,25 +34431,31 @@
         <v>58</v>
       </c>
       <c r="E54" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>完了</v>
       </c>
       <c r="F54" s="4">
         <v>43094</v>
       </c>
-      <c r="G54" s="4"/>
+      <c r="G54" s="4">
+        <v>43094</v>
+      </c>
       <c r="H54" s="19">
         <v>1.5</v>
       </c>
-      <c r="I54" s="86"/>
+      <c r="I54" s="19">
+        <v>1.5</v>
+      </c>
       <c r="J54" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K54" s="22">
         <v>1.5</v>
       </c>
-      <c r="L54" s="22"/>
+      <c r="L54" s="22">
+        <v>0</v>
+      </c>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -34332,25 +34476,31 @@
         <v>58</v>
       </c>
       <c r="E55" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>完了</v>
       </c>
       <c r="F55" s="4">
         <v>43094</v>
       </c>
-      <c r="G55" s="4"/>
+      <c r="G55" s="4">
+        <v>43094</v>
+      </c>
       <c r="H55" s="19">
         <v>1.5</v>
       </c>
-      <c r="I55" s="86"/>
+      <c r="I55" s="19">
+        <v>1.5</v>
+      </c>
       <c r="J55" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K55" s="22">
         <v>1.5</v>
       </c>
-      <c r="L55" s="22"/>
+      <c r="L55" s="22">
+        <v>0</v>
+      </c>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -34371,25 +34521,31 @@
         <v>58</v>
       </c>
       <c r="E56" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>完了</v>
       </c>
       <c r="F56" s="4">
         <v>43095</v>
       </c>
-      <c r="G56" s="4"/>
+      <c r="G56" s="4">
+        <v>43095</v>
+      </c>
       <c r="H56" s="19">
         <v>3</v>
       </c>
-      <c r="I56" s="86"/>
+      <c r="I56" s="19">
+        <v>3</v>
+      </c>
       <c r="J56" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K56" s="22">
         <v>3</v>
       </c>
-      <c r="L56" s="22"/>
+      <c r="L56" s="22">
+        <v>0</v>
+      </c>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -34410,25 +34566,31 @@
         <v>58</v>
       </c>
       <c r="E57" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>完了</v>
       </c>
       <c r="F57" s="4">
         <v>43095</v>
       </c>
-      <c r="G57" s="4"/>
+      <c r="G57" s="4">
+        <v>43095</v>
+      </c>
       <c r="H57" s="19">
         <v>1</v>
       </c>
-      <c r="I57" s="86"/>
+      <c r="I57" s="19">
+        <v>1</v>
+      </c>
       <c r="J57" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="22">
         <v>1</v>
       </c>
-      <c r="L57" s="22"/>
+      <c r="L57" s="22">
+        <v>0</v>
+      </c>
       <c r="M57" s="22"/>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
@@ -34449,25 +34611,31 @@
         <v>69</v>
       </c>
       <c r="E58" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>完了</v>
       </c>
       <c r="F58" s="4">
         <v>43095</v>
       </c>
-      <c r="G58" s="4"/>
+      <c r="G58" s="4">
+        <v>43095</v>
+      </c>
       <c r="H58" s="19">
-        <v>3</v>
-      </c>
-      <c r="I58" s="86"/>
+        <v>1</v>
+      </c>
+      <c r="I58" s="19">
+        <v>1</v>
+      </c>
       <c r="J58" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K58" s="22">
         <v>3</v>
       </c>
-      <c r="L58" s="22"/>
+      <c r="L58" s="22">
+        <v>0</v>
+      </c>
       <c r="M58" s="22"/>
       <c r="N58" s="22"/>
       <c r="O58" s="22"/>
@@ -34488,25 +34656,31 @@
         <v>69</v>
       </c>
       <c r="E59" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>完了</v>
       </c>
       <c r="F59" s="4">
         <v>43096</v>
       </c>
-      <c r="G59" s="4"/>
+      <c r="G59" s="4">
+        <v>43096</v>
+      </c>
       <c r="H59" s="19">
         <v>2</v>
       </c>
-      <c r="I59" s="86"/>
+      <c r="I59" s="19">
+        <v>2</v>
+      </c>
       <c r="J59" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K59" s="22">
         <v>2</v>
       </c>
-      <c r="L59" s="22"/>
+      <c r="L59" s="22">
+        <v>0</v>
+      </c>
       <c r="M59" s="22"/>
       <c r="N59" s="22"/>
       <c r="O59" s="22"/>
@@ -34527,25 +34701,31 @@
         <v>69</v>
       </c>
       <c r="E60" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>完了</v>
       </c>
       <c r="F60" s="4">
         <v>43096</v>
       </c>
-      <c r="G60" s="4"/>
+      <c r="G60" s="4">
+        <v>43096</v>
+      </c>
       <c r="H60" s="19">
         <v>4</v>
       </c>
-      <c r="I60" s="86"/>
+      <c r="I60" s="19">
+        <v>4</v>
+      </c>
       <c r="J60" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K60" s="22">
         <v>4</v>
       </c>
-      <c r="L60" s="22"/>
+      <c r="L60" s="22">
+        <v>0</v>
+      </c>
       <c r="M60" s="22"/>
       <c r="N60" s="22"/>
       <c r="O60" s="22"/>
@@ -34560,7 +34740,7 @@
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
       <c r="E61" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F61" s="4"/>
@@ -34619,25 +34799,29 @@
         <v>58</v>
       </c>
       <c r="E63" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>完了</v>
       </c>
       <c r="F63" s="4">
         <v>43097</v>
       </c>
-      <c r="G63" s="4"/>
+      <c r="G63" s="4">
+        <v>43097</v>
+      </c>
       <c r="H63" s="19">
         <v>1</v>
       </c>
       <c r="I63" s="86"/>
       <c r="J63" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" s="22">
         <v>1</v>
       </c>
-      <c r="L63" s="22"/>
+      <c r="L63" s="22">
+        <v>0</v>
+      </c>
       <c r="M63" s="22"/>
       <c r="N63" s="22"/>
       <c r="O63" s="22"/>
@@ -34658,7 +34842,7 @@
         <v>58</v>
       </c>
       <c r="E64" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F64" s="4">
@@ -34697,7 +34881,7 @@
         <v>58</v>
       </c>
       <c r="E65" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F65" s="4">
@@ -34736,7 +34920,7 @@
         <v>58</v>
       </c>
       <c r="E66" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F66" s="4">
@@ -34775,7 +34959,7 @@
         <v>58</v>
       </c>
       <c r="E67" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F67" s="4">
@@ -34814,7 +34998,7 @@
         <v>58</v>
       </c>
       <c r="E68" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
       <c r="F68" s="4">
@@ -34847,7 +35031,7 @@
       <c r="C69" s="18"/>
       <c r="D69" s="18"/>
       <c r="E69" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F69" s="4"/>
@@ -34868,20 +35052,21 @@
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="16">
-        <v>66</v>
-      </c>
-      <c r="B70" s="89" t="s">
-        <v>244</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B70" s="17"/>
       <c r="C70" s="18"/>
       <c r="D70" s="18"/>
-      <c r="E70" s="12"/>
+      <c r="E70" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
       <c r="J70" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ref="J70" ca="1" si="11">IF(ISBLANK(K70)=FALSE,OFFSET(J70,0,COUNTA(K70:Q70)),"")</f>
         <v/>
       </c>
       <c r="K70" s="22"/>
@@ -34894,36 +35079,24 @@
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="16">
-        <v>67</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D71" s="18" t="s">
-        <v>58</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
       <c r="E71" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>未着手</v>
-      </c>
-      <c r="F71" s="4">
-        <v>43099</v>
-      </c>
+        <f t="shared" ref="E71:E117" si="12">IF(ISBLANK($B71),"",IF(ISBLANK($G71),"未着手",IF($J71=0,"完了","作業中")))</f>
+        <v/>
+      </c>
+      <c r="F71" s="4"/>
       <c r="G71" s="4"/>
-      <c r="H71" s="19">
-        <v>6</v>
-      </c>
+      <c r="H71" s="19"/>
       <c r="I71" s="19"/>
-      <c r="J71" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="K71" s="22">
-        <v>6</v>
-      </c>
+      <c r="J71" s="12" t="str">
+        <f t="shared" ref="J71:J102" ca="1" si="13">IF(ISBLANK(K71)=FALSE,OFFSET(J71,0,COUNTA(K71:Q71)),"")</f>
+        <v/>
+      </c>
+      <c r="K71" s="22"/>
       <c r="L71" s="22"/>
       <c r="M71" s="22"/>
       <c r="N71" s="22"/>
@@ -34933,36 +35106,23 @@
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="16">
-        <v>68</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D72" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E72" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>未着手</v>
-      </c>
-      <c r="F72" s="4">
-        <v>43100</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B72" s="89" t="s">
+        <v>308</v>
+      </c>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="4"/>
       <c r="G72" s="4"/>
-      <c r="H72" s="19">
-        <v>3</v>
-      </c>
+      <c r="H72" s="19"/>
       <c r="I72" s="19"/>
-      <c r="J72" s="12">
-        <f t="shared" ref="J72:J78" ca="1" si="13">IF(ISBLANK(K72)=FALSE,OFFSET(J72,0,COUNTA(K72:Q72)),"")</f>
-        <v>3</v>
-      </c>
-      <c r="K72" s="22">
-        <v>3</v>
-      </c>
+      <c r="J72" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="K72" s="22"/>
       <c r="L72" s="22"/>
       <c r="M72" s="22"/>
       <c r="N72" s="22"/>
@@ -34972,37 +35132,43 @@
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="16">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>247</v>
+        <v>296</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E73" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>完了</v>
       </c>
       <c r="F73" s="4">
-        <v>43100</v>
-      </c>
-      <c r="G73" s="4"/>
+        <v>43104</v>
+      </c>
+      <c r="G73" s="4">
+        <v>43109</v>
+      </c>
       <c r="H73" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="I73" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="I73" s="19">
+        <v>3</v>
+      </c>
       <c r="J73" s="12">
         <f t="shared" ca="1" si="13"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K73" s="22">
-        <v>1.5</v>
-      </c>
-      <c r="L73" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="L73" s="22">
+        <v>0</v>
+      </c>
       <c r="M73" s="22"/>
       <c r="N73" s="22"/>
       <c r="O73" s="22"/>
@@ -35011,37 +35177,43 @@
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="16">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>248</v>
+        <v>297</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E74" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>完了</v>
       </c>
       <c r="F74" s="4">
-        <v>43100</v>
-      </c>
-      <c r="G74" s="4"/>
+        <v>43105</v>
+      </c>
+      <c r="G74" s="4">
+        <v>43112</v>
+      </c>
       <c r="H74" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="I74" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="I74" s="19">
+        <v>3</v>
+      </c>
       <c r="J74" s="12">
         <f t="shared" ca="1" si="13"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K74" s="22">
-        <v>1.5</v>
-      </c>
-      <c r="L74" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="L74" s="22">
+        <v>0</v>
+      </c>
       <c r="M74" s="22"/>
       <c r="N74" s="22"/>
       <c r="O74" s="22"/>
@@ -35050,36 +35222,24 @@
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="16">
-        <v>71</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D75" s="18" t="s">
-        <v>58</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B75" s="17"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
       <c r="E75" s="12" t="str">
         <f t="shared" si="12"/>
-        <v>未着手</v>
-      </c>
-      <c r="F75" s="4">
-        <v>43101</v>
-      </c>
+        <v/>
+      </c>
+      <c r="F75" s="4"/>
       <c r="G75" s="4"/>
-      <c r="H75" s="19">
-        <v>3</v>
-      </c>
+      <c r="H75" s="19"/>
       <c r="I75" s="19"/>
-      <c r="J75" s="12">
+      <c r="J75" s="12" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="K75" s="22">
-        <v>3</v>
-      </c>
+        <v/>
+      </c>
+      <c r="K75" s="22"/>
       <c r="L75" s="22"/>
       <c r="M75" s="22"/>
       <c r="N75" s="22"/>
@@ -35089,36 +35249,23 @@
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="16">
-        <v>72</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="C76" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D76" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E76" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>未着手</v>
-      </c>
-      <c r="F76" s="4">
-        <v>43102</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B76" s="89" t="s">
+        <v>309</v>
+      </c>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="4"/>
       <c r="G76" s="4"/>
-      <c r="H76" s="19">
-        <v>6</v>
-      </c>
+      <c r="H76" s="19"/>
       <c r="I76" s="19"/>
-      <c r="J76" s="12">
+      <c r="J76" s="12" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="K76" s="22">
-        <v>6</v>
-      </c>
+        <v/>
+      </c>
+      <c r="K76" s="22"/>
       <c r="L76" s="22"/>
       <c r="M76" s="22"/>
       <c r="N76" s="22"/>
@@ -35128,35 +35275,35 @@
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="16">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>251</v>
+        <v>298</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E77" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="E77:E86" si="14">IF(ISBLANK($B77),"",IF(ISBLANK($G77),"未着手",IF($J77=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F77" s="4">
-        <v>43103</v>
+        <v>43105</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I77" s="19"/>
       <c r="J77" s="12">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K77" s="22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L77" s="22"/>
       <c r="M77" s="22"/>
@@ -35167,24 +35314,36 @@
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="16">
-        <v>74</v>
-      </c>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
+        <v>82</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>48</v>
+      </c>
       <c r="E78" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F78" s="4"/>
+        <f t="shared" si="14"/>
+        <v>未着手</v>
+      </c>
+      <c r="F78" s="4">
+        <v>43105</v>
+      </c>
       <c r="G78" s="4"/>
-      <c r="H78" s="19"/>
+      <c r="H78" s="19">
+        <v>3</v>
+      </c>
       <c r="I78" s="19"/>
-      <c r="J78" s="12" t="str">
+      <c r="J78" s="12">
         <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="K78" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="K78" s="22">
+        <v>3</v>
+      </c>
       <c r="L78" s="22"/>
       <c r="M78" s="22"/>
       <c r="N78" s="22"/>
@@ -35194,24 +35353,36 @@
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="16">
-        <v>75</v>
-      </c>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
+        <v>83</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>48</v>
+      </c>
       <c r="E79" s="12" t="str">
-        <f t="shared" ref="E79:E125" si="14">IF(ISBLANK($B79),"",IF(ISBLANK($G79),"未着手",IF($J79=0,"完了","作業中")))</f>
-        <v/>
-      </c>
-      <c r="F79" s="4"/>
+        <f t="shared" si="14"/>
+        <v>未着手</v>
+      </c>
+      <c r="F79" s="4">
+        <v>43106</v>
+      </c>
       <c r="G79" s="4"/>
-      <c r="H79" s="19"/>
+      <c r="H79" s="19">
+        <v>4</v>
+      </c>
       <c r="I79" s="19"/>
-      <c r="J79" s="12" t="str">
-        <f t="shared" ref="J79:J110" ca="1" si="15">IF(ISBLANK(K79)=FALSE,OFFSET(J79,0,COUNTA(K79:Q79)),"")</f>
-        <v/>
-      </c>
-      <c r="K79" s="22"/>
+      <c r="J79" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="K79" s="22">
+        <v>4</v>
+      </c>
       <c r="L79" s="22"/>
       <c r="M79" s="22"/>
       <c r="N79" s="22"/>
@@ -35221,23 +35392,36 @@
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="16">
-        <v>76</v>
-      </c>
-      <c r="B80" s="89" t="s">
-        <v>308</v>
-      </c>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E80" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v>未着手</v>
+      </c>
+      <c r="F80" s="4">
+        <v>43106</v>
+      </c>
       <c r="G80" s="4"/>
-      <c r="H80" s="19"/>
+      <c r="H80" s="19">
+        <v>3</v>
+      </c>
       <c r="I80" s="19"/>
-      <c r="J80" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="K80" s="22"/>
+      <c r="J80" s="12">
+        <f ca="1">IF(ISBLANK(K80)=FALSE,OFFSET(J80,0,COUNTA(K80:Q80)),"")</f>
+        <v>3</v>
+      </c>
+      <c r="K80" s="22">
+        <v>3</v>
+      </c>
       <c r="L80" s="22"/>
       <c r="M80" s="22"/>
       <c r="N80" s="22"/>
@@ -35247,43 +35431,25 @@
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="16">
-        <v>77</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="C81" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D81" s="18" t="s">
-        <v>48</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B81" s="17"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
       <c r="E81" s="12" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>完了</v>
-      </c>
-      <c r="F81" s="4">
-        <v>43104</v>
-      </c>
-      <c r="G81" s="4">
-        <v>43109</v>
-      </c>
-      <c r="H81" s="19">
-        <v>3</v>
-      </c>
-      <c r="I81" s="19">
-        <v>3</v>
-      </c>
-      <c r="J81" s="12">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K81" s="22">
-        <v>0</v>
-      </c>
-      <c r="L81" s="22">
-        <v>0</v>
-      </c>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="K81" s="22"/>
+      <c r="L81" s="22"/>
       <c r="M81" s="22"/>
       <c r="N81" s="22"/>
       <c r="O81" s="22"/>
@@ -35292,43 +35458,37 @@
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="16">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="E82" s="12" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>完了</v>
+        <f t="shared" si="14"/>
+        <v>未着手</v>
       </c>
       <c r="F82" s="4">
-        <v>43105</v>
-      </c>
-      <c r="G82" s="4">
-        <v>43112</v>
-      </c>
+        <v>43092</v>
+      </c>
+      <c r="G82" s="4"/>
       <c r="H82" s="19">
-        <v>3</v>
-      </c>
-      <c r="I82" s="19">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I82" s="19"/>
       <c r="J82" s="12">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
       </c>
       <c r="K82" s="22">
-        <v>3</v>
-      </c>
-      <c r="L82" s="22">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L82" s="22"/>
       <c r="M82" s="22"/>
       <c r="N82" s="22"/>
       <c r="O82" s="22"/>
@@ -35337,24 +35497,36 @@
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="16">
+        <v>87</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D83" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B83" s="17"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
       <c r="E83" s="12" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F83" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F83" s="4">
+        <v>43092</v>
+      </c>
       <c r="G83" s="4"/>
-      <c r="H83" s="19"/>
+      <c r="H83" s="19">
+        <v>2</v>
+      </c>
       <c r="I83" s="19"/>
-      <c r="J83" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="K83" s="22"/>
+      <c r="J83" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="K83" s="22">
+        <v>2</v>
+      </c>
       <c r="L83" s="22"/>
       <c r="M83" s="22"/>
       <c r="N83" s="22"/>
@@ -35364,24 +35536,43 @@
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="16">
-        <v>80</v>
-      </c>
-      <c r="B84" s="89" t="s">
-        <v>309</v>
-      </c>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="K84" s="22"/>
-      <c r="L84" s="22"/>
+        <v>88</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="E84" s="12" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>作業中</v>
+      </c>
+      <c r="F84" s="4">
+        <v>43093</v>
+      </c>
+      <c r="G84" s="4">
+        <v>43112</v>
+      </c>
+      <c r="H84" s="19">
+        <v>2</v>
+      </c>
+      <c r="I84" s="19">
+        <v>1</v>
+      </c>
+      <c r="J84" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="K84" s="22">
+        <v>2</v>
+      </c>
+      <c r="L84" s="22">
+        <v>1</v>
+      </c>
       <c r="M84" s="22"/>
       <c r="N84" s="22"/>
       <c r="O84" s="22"/>
@@ -35390,37 +35581,43 @@
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="16">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="E85" s="12" t="str">
-        <f t="shared" ref="E85:E94" si="16">IF(ISBLANK($B85),"",IF(ISBLANK($G85),"未着手",IF($J85=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>作業中</v>
       </c>
       <c r="F85" s="4">
-        <v>43105</v>
-      </c>
-      <c r="G85" s="4"/>
+        <v>43095</v>
+      </c>
+      <c r="G85" s="4">
+        <v>43112</v>
+      </c>
       <c r="H85" s="19">
-        <v>3</v>
-      </c>
-      <c r="I85" s="19"/>
+        <v>6</v>
+      </c>
+      <c r="I85" s="19">
+        <v>3</v>
+      </c>
       <c r="J85" s="12">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="K85" s="22">
-        <v>3</v>
-      </c>
-      <c r="L85" s="22"/>
+        <v>6</v>
+      </c>
+      <c r="L85" s="22">
+        <v>3</v>
+      </c>
       <c r="M85" s="22"/>
       <c r="N85" s="22"/>
       <c r="O85" s="22"/>
@@ -35429,37 +35626,43 @@
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="16">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="E86" s="12" t="str">
-        <f t="shared" si="16"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>完了</v>
       </c>
       <c r="F86" s="4">
-        <v>43105</v>
-      </c>
-      <c r="G86" s="4"/>
+        <v>43095</v>
+      </c>
+      <c r="G86" s="4">
+        <v>43112</v>
+      </c>
       <c r="H86" s="19">
-        <v>3</v>
-      </c>
-      <c r="I86" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="I86" s="19">
+        <v>2</v>
+      </c>
       <c r="J86" s="12">
-        <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
       </c>
       <c r="K86" s="22">
-        <v>3</v>
-      </c>
-      <c r="L86" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="L86" s="22">
+        <v>0</v>
+      </c>
       <c r="M86" s="22"/>
       <c r="N86" s="22"/>
       <c r="O86" s="22"/>
@@ -35468,36 +35671,24 @@
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="16">
-        <v>83</v>
-      </c>
-      <c r="B87" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="C87" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D87" s="18" t="s">
-        <v>48</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B87" s="17"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
       <c r="E87" s="12" t="str">
-        <f t="shared" si="16"/>
-        <v>未着手</v>
-      </c>
-      <c r="F87" s="4">
-        <v>43106</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F87" s="4"/>
       <c r="G87" s="4"/>
-      <c r="H87" s="19">
-        <v>4</v>
-      </c>
+      <c r="H87" s="19"/>
       <c r="I87" s="19"/>
-      <c r="J87" s="12">
-        <f t="shared" ca="1" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="K87" s="22">
-        <v>4</v>
-      </c>
+      <c r="J87" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="K87" s="22"/>
       <c r="L87" s="22"/>
       <c r="M87" s="22"/>
       <c r="N87" s="22"/>
@@ -35507,60 +35698,46 @@
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="16">
-        <v>84</v>
-      </c>
-      <c r="B88" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="C88" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D88" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E88" s="12" t="str">
-        <f t="shared" si="16"/>
-        <v>未着手</v>
-      </c>
-      <c r="F88" s="4">
-        <v>43106</v>
-      </c>
-      <c r="G88" s="4"/>
-      <c r="H88" s="19">
-        <v>3</v>
-      </c>
-      <c r="I88" s="19"/>
-      <c r="J88" s="12">
-        <f ca="1">IF(ISBLANK(K88)=FALSE,OFFSET(J88,0,COUNTA(K88:Q88)),"")</f>
-        <v>3</v>
-      </c>
-      <c r="K88" s="22">
-        <v>3</v>
-      </c>
-      <c r="L88" s="22"/>
-      <c r="M88" s="22"/>
-      <c r="N88" s="22"/>
-      <c r="O88" s="22"/>
-      <c r="P88" s="22"/>
-      <c r="Q88" s="22"/>
+        <v>92</v>
+      </c>
+      <c r="B88" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="C88" s="74"/>
+      <c r="D88" s="74"/>
+      <c r="E88" s="75"/>
+      <c r="F88" s="76"/>
+      <c r="G88" s="76"/>
+      <c r="H88" s="77"/>
+      <c r="I88" s="77"/>
+      <c r="J88" s="75" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="K88" s="78"/>
+      <c r="L88" s="78"/>
+      <c r="M88" s="78"/>
+      <c r="N88" s="78"/>
+      <c r="O88" s="78"/>
+      <c r="P88" s="78"/>
+      <c r="Q88" s="78"/>
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="16">
-        <v>85</v>
-      </c>
-      <c r="B89" s="17"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="12" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="19"/>
+        <v>93</v>
+      </c>
+      <c r="B89" s="89" t="s">
+        <v>164</v>
+      </c>
+      <c r="C89" s="83"/>
+      <c r="D89" s="83"/>
+      <c r="E89" s="84"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="85"/>
+      <c r="H89" s="86"/>
       <c r="I89" s="19"/>
       <c r="J89" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K89" s="22"/>
@@ -35573,35 +35750,35 @@
     </row>
     <row r="90" spans="1:17">
       <c r="A90" s="16">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>310</v>
+        <v>153</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="E90" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(ISBLANK($B90),"",IF(ISBLANK($G90),"未着手",IF($J90=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F90" s="4">
-        <v>43092</v>
+        <v>43094</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="19">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I90" s="19"/>
       <c r="J90" s="12">
-        <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1.5</v>
       </c>
       <c r="K90" s="22">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L90" s="22"/>
       <c r="M90" s="22"/>
@@ -35612,35 +35789,35 @@
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="16">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>311</v>
+        <v>150</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="E91" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(ISBLANK($B91),"",IF(ISBLANK($G91),"未着手",IF($J91=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F91" s="4">
-        <v>43092</v>
+        <v>43094</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="19">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I91" s="19"/>
       <c r="J91" s="12">
-        <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1.5</v>
       </c>
       <c r="K91" s="22">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L91" s="22"/>
       <c r="M91" s="22"/>
@@ -35651,35 +35828,35 @@
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="16">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>313</v>
+        <v>151</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>315</v>
+        <v>58</v>
       </c>
       <c r="E92" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="E92:E95" si="15">IF(ISBLANK($B92),"",IF(ISBLANK($G92),"未着手",IF($J92=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F92" s="4">
-        <v>43093</v>
+        <v>43094</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="19">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I92" s="19"/>
       <c r="J92" s="12">
-        <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1.5</v>
       </c>
       <c r="K92" s="22">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L92" s="22"/>
       <c r="M92" s="22"/>
@@ -35690,35 +35867,35 @@
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="16">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>317</v>
+        <v>152</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="E93" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>未着手</v>
       </c>
       <c r="F93" s="4">
-        <v>43095</v>
+        <v>43103</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="19">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="I93" s="19"/>
       <c r="J93" s="12">
-        <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1.5</v>
       </c>
       <c r="K93" s="22">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="L93" s="22"/>
       <c r="M93" s="22"/>
@@ -35729,35 +35906,35 @@
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="16">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>318</v>
+        <v>154</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E94" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>未着手</v>
       </c>
       <c r="F94" s="4">
-        <v>43095</v>
+        <v>43103</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="19">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I94" s="19"/>
       <c r="J94" s="12">
-        <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1.5</v>
       </c>
       <c r="K94" s="22">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L94" s="22"/>
       <c r="M94" s="22"/>
@@ -35768,24 +35945,36 @@
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="16">
-        <v>91</v>
-      </c>
-      <c r="B95" s="17"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
+        <v>99</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>48</v>
+      </c>
       <c r="E95" s="12" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F95" s="4"/>
+        <f t="shared" si="15"/>
+        <v>未着手</v>
+      </c>
+      <c r="F95" s="4">
+        <v>43103</v>
+      </c>
       <c r="G95" s="4"/>
-      <c r="H95" s="19"/>
+      <c r="H95" s="19">
+        <v>1.5</v>
+      </c>
       <c r="I95" s="19"/>
-      <c r="J95" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="K95" s="22"/>
+      <c r="J95" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.5</v>
+      </c>
+      <c r="K95" s="22">
+        <v>1.5</v>
+      </c>
       <c r="L95" s="22"/>
       <c r="M95" s="22"/>
       <c r="N95" s="22"/>
@@ -35795,50 +35984,69 @@
     </row>
     <row r="96" spans="1:17">
       <c r="A96" s="16">
-        <v>92</v>
-      </c>
-      <c r="B96" s="73" t="s">
-        <v>103</v>
-      </c>
-      <c r="C96" s="74"/>
-      <c r="D96" s="74"/>
-      <c r="E96" s="75"/>
-      <c r="F96" s="76"/>
-      <c r="G96" s="76"/>
-      <c r="H96" s="77"/>
-      <c r="I96" s="77"/>
-      <c r="J96" s="75" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="K96" s="78"/>
-      <c r="L96" s="78"/>
-      <c r="M96" s="78"/>
-      <c r="N96" s="78"/>
-      <c r="O96" s="78"/>
-      <c r="P96" s="78"/>
-      <c r="Q96" s="78"/>
+        <v>100</v>
+      </c>
+      <c r="B96" s="88" t="s">
+        <v>219</v>
+      </c>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="K96" s="22"/>
+      <c r="L96" s="22"/>
+      <c r="M96" s="22"/>
+      <c r="N96" s="22"/>
+      <c r="O96" s="22"/>
+      <c r="P96" s="22"/>
+      <c r="Q96" s="22"/>
     </row>
     <row r="97" spans="1:17">
       <c r="A97" s="16">
-        <v>93</v>
-      </c>
-      <c r="B97" s="89" t="s">
-        <v>164</v>
-      </c>
-      <c r="C97" s="83"/>
-      <c r="D97" s="83"/>
-      <c r="E97" s="84"/>
-      <c r="F97" s="85"/>
-      <c r="G97" s="85"/>
-      <c r="H97" s="86"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="K97" s="22"/>
-      <c r="L97" s="22"/>
+        <v>101</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D97" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E97" s="12" t="str">
+        <f t="shared" ref="E97:E100" ca="1" si="16">IF(ISBLANK($B97),"",IF(ISBLANK($G97),"未着手",IF($J97=0,"完了","作業中")))</f>
+        <v>作業中</v>
+      </c>
+      <c r="F97" s="4">
+        <v>42738</v>
+      </c>
+      <c r="G97" s="4">
+        <v>43112</v>
+      </c>
+      <c r="H97" s="19">
+        <v>2</v>
+      </c>
+      <c r="I97" s="19">
+        <v>1</v>
+      </c>
+      <c r="J97" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="K97" s="22">
+        <v>2</v>
+      </c>
+      <c r="L97" s="22">
+        <v>1</v>
+      </c>
       <c r="M97" s="22"/>
       <c r="N97" s="22"/>
       <c r="O97" s="22"/>
@@ -35847,35 +36055,35 @@
     </row>
     <row r="98" spans="1:17">
       <c r="A98" s="16">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="C98" s="18" t="s">
         <v>80</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E98" s="12" t="str">
-        <f>IF(ISBLANK($B98),"",IF(ISBLANK($G98),"未着手",IF($J98=0,"完了","作業中")))</f>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F98" s="4">
-        <v>43094</v>
+        <v>42738</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="19">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="I98" s="19"/>
       <c r="J98" s="12">
-        <f t="shared" ca="1" si="15"/>
-        <v>1.5</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
       </c>
       <c r="K98" s="22">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L98" s="22"/>
       <c r="M98" s="22"/>
@@ -35886,35 +36094,35 @@
     </row>
     <row r="99" spans="1:17">
       <c r="A99" s="16">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="C99" s="18" t="s">
         <v>80</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E99" s="12" t="str">
-        <f>IF(ISBLANK($B99),"",IF(ISBLANK($G99),"未着手",IF($J99=0,"完了","作業中")))</f>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F99" s="4">
-        <v>43094</v>
+        <v>42739</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="19">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="I99" s="19"/>
       <c r="J99" s="12">
-        <f t="shared" ca="1" si="15"/>
-        <v>1.5</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
       </c>
       <c r="K99" s="22">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L99" s="22"/>
       <c r="M99" s="22"/>
@@ -35925,35 +36133,35 @@
     </row>
     <row r="100" spans="1:17">
       <c r="A100" s="16">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="C100" s="18" t="s">
         <v>80</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E100" s="12" t="str">
-        <f t="shared" ref="E100:E103" si="17">IF(ISBLANK($B100),"",IF(ISBLANK($G100),"未着手",IF($J100=0,"完了","作業中")))</f>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F100" s="4">
-        <v>43094</v>
+        <v>42739</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="19">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="I100" s="19"/>
       <c r="J100" s="12">
-        <f t="shared" ca="1" si="15"/>
-        <v>1.5</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
       </c>
       <c r="K100" s="22">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L100" s="22"/>
       <c r="M100" s="22"/>
@@ -35964,36 +36172,24 @@
     </row>
     <row r="101" spans="1:17">
       <c r="A101" s="16">
-        <v>97</v>
-      </c>
-      <c r="B101" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="C101" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D101" s="18" t="s">
-        <v>48</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B101" s="17"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
       <c r="E101" s="12" t="str">
-        <f t="shared" si="17"/>
-        <v>未着手</v>
-      </c>
-      <c r="F101" s="4">
-        <v>43103</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F101" s="4"/>
       <c r="G101" s="4"/>
-      <c r="H101" s="19">
-        <v>1.5</v>
-      </c>
+      <c r="H101" s="19"/>
       <c r="I101" s="19"/>
-      <c r="J101" s="12">
-        <f t="shared" ca="1" si="15"/>
-        <v>1.5</v>
-      </c>
-      <c r="K101" s="22">
-        <v>1.5</v>
-      </c>
+      <c r="J101" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="K101" s="22"/>
       <c r="L101" s="22"/>
       <c r="M101" s="22"/>
       <c r="N101" s="22"/>
@@ -36003,35 +36199,39 @@
     </row>
     <row r="102" spans="1:17">
       <c r="A102" s="16">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>154</v>
+        <v>333</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>80</v>
+        <v>334</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>48</v>
+        <v>335</v>
       </c>
       <c r="E102" s="12" t="str">
-        <f t="shared" si="17"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>完了</v>
       </c>
       <c r="F102" s="4">
-        <v>43103</v>
-      </c>
-      <c r="G102" s="4"/>
+        <v>43109</v>
+      </c>
+      <c r="G102" s="4">
+        <v>43109</v>
+      </c>
       <c r="H102" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="I102" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="I102" s="19">
+        <v>2</v>
+      </c>
       <c r="J102" s="12">
-        <f t="shared" ca="1" si="15"/>
-        <v>1.5</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
       </c>
       <c r="K102" s="22">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="L102" s="22"/>
       <c r="M102" s="22"/>
@@ -36042,36 +36242,24 @@
     </row>
     <row r="103" spans="1:17">
       <c r="A103" s="16">
-        <v>99</v>
-      </c>
-      <c r="B103" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="C103" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D103" s="18" t="s">
-        <v>48</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B103" s="17"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
       <c r="E103" s="12" t="str">
-        <f t="shared" si="17"/>
-        <v>未着手</v>
-      </c>
-      <c r="F103" s="4">
-        <v>43103</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F103" s="4"/>
       <c r="G103" s="4"/>
-      <c r="H103" s="19">
-        <v>1.5</v>
-      </c>
+      <c r="H103" s="19"/>
       <c r="I103" s="19"/>
-      <c r="J103" s="12">
-        <f t="shared" ca="1" si="15"/>
-        <v>1.5</v>
-      </c>
-      <c r="K103" s="22">
-        <v>1.5</v>
-      </c>
+      <c r="J103" s="12" t="str">
+        <f t="shared" ref="J103:J157" ca="1" si="17">IF(ISBLANK(K103)=FALSE,OFFSET(J103,0,COUNTA(K103:Q103)),"")</f>
+        <v/>
+      </c>
+      <c r="K103" s="22"/>
       <c r="L103" s="22"/>
       <c r="M103" s="22"/>
       <c r="N103" s="22"/>
@@ -36081,24 +36269,43 @@
     </row>
     <row r="104" spans="1:17">
       <c r="A104" s="16">
-        <v>100</v>
-      </c>
-      <c r="B104" s="88" t="s">
-        <v>219</v>
-      </c>
-      <c r="C104" s="18"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="K104" s="22"/>
-      <c r="L104" s="22"/>
+        <v>108</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="D104" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="E104" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>完了</v>
+      </c>
+      <c r="F104" s="4">
+        <v>43112</v>
+      </c>
+      <c r="G104" s="4">
+        <v>43112</v>
+      </c>
+      <c r="H104" s="19">
+        <v>2</v>
+      </c>
+      <c r="I104" s="19">
+        <v>2</v>
+      </c>
+      <c r="J104" s="12">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K104" s="22">
+        <v>2</v>
+      </c>
+      <c r="L104" s="22">
+        <v>0</v>
+      </c>
       <c r="M104" s="22"/>
       <c r="N104" s="22"/>
       <c r="O104" s="22"/>
@@ -36107,36 +36314,24 @@
     </row>
     <row r="105" spans="1:17">
       <c r="A105" s="16">
-        <v>101</v>
-      </c>
-      <c r="B105" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C105" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D105" s="18" t="s">
-        <v>48</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B105" s="17"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
       <c r="E105" s="12" t="str">
-        <f t="shared" ref="E105:E108" si="18">IF(ISBLANK($B105),"",IF(ISBLANK($G105),"未着手",IF($J105=0,"完了","作業中")))</f>
-        <v>未着手</v>
-      </c>
-      <c r="F105" s="4">
-        <v>42738</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F105" s="4"/>
       <c r="G105" s="4"/>
-      <c r="H105" s="19">
-        <v>2</v>
-      </c>
+      <c r="H105" s="19"/>
       <c r="I105" s="19"/>
-      <c r="J105" s="12">
-        <f t="shared" ca="1" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="K105" s="22">
-        <v>2</v>
-      </c>
+      <c r="J105" s="12" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="K105" s="22"/>
       <c r="L105" s="22"/>
       <c r="M105" s="22"/>
       <c r="N105" s="22"/>
@@ -36146,36 +36341,24 @@
     </row>
     <row r="106" spans="1:17">
       <c r="A106" s="16">
-        <v>102</v>
-      </c>
-      <c r="B106" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C106" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D106" s="18" t="s">
-        <v>48</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B106" s="17"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
       <c r="E106" s="12" t="str">
-        <f t="shared" si="18"/>
-        <v>未着手</v>
-      </c>
-      <c r="F106" s="4">
-        <v>42738</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F106" s="4"/>
       <c r="G106" s="4"/>
-      <c r="H106" s="19">
-        <v>2</v>
-      </c>
+      <c r="H106" s="19"/>
       <c r="I106" s="19"/>
-      <c r="J106" s="12">
-        <f t="shared" ca="1" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="K106" s="22">
-        <v>2</v>
-      </c>
+      <c r="J106" s="12" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="K106" s="22"/>
       <c r="L106" s="22"/>
       <c r="M106" s="22"/>
       <c r="N106" s="22"/>
@@ -36185,36 +36368,24 @@
     </row>
     <row r="107" spans="1:17">
       <c r="A107" s="16">
-        <v>103</v>
-      </c>
-      <c r="B107" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="C107" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D107" s="18" t="s">
-        <v>48</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B107" s="17"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
       <c r="E107" s="12" t="str">
-        <f t="shared" si="18"/>
-        <v>未着手</v>
-      </c>
-      <c r="F107" s="4">
-        <v>42739</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F107" s="4"/>
       <c r="G107" s="4"/>
-      <c r="H107" s="19">
-        <v>2</v>
-      </c>
+      <c r="H107" s="19"/>
       <c r="I107" s="19"/>
-      <c r="J107" s="12">
-        <f t="shared" ca="1" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="K107" s="22">
-        <v>2</v>
-      </c>
+      <c r="J107" s="12" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="K107" s="22"/>
       <c r="L107" s="22"/>
       <c r="M107" s="22"/>
       <c r="N107" s="22"/>
@@ -36224,36 +36395,24 @@
     </row>
     <row r="108" spans="1:17">
       <c r="A108" s="16">
-        <v>104</v>
-      </c>
-      <c r="B108" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="C108" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D108" s="18" t="s">
-        <v>48</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B108" s="17"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
       <c r="E108" s="12" t="str">
-        <f t="shared" si="18"/>
-        <v>未着手</v>
-      </c>
-      <c r="F108" s="4">
-        <v>42739</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F108" s="4"/>
       <c r="G108" s="4"/>
-      <c r="H108" s="19">
-        <v>2</v>
-      </c>
+      <c r="H108" s="19"/>
       <c r="I108" s="19"/>
-      <c r="J108" s="12">
-        <f t="shared" ca="1" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="K108" s="22">
-        <v>2</v>
-      </c>
+      <c r="J108" s="12" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="K108" s="22"/>
       <c r="L108" s="22"/>
       <c r="M108" s="22"/>
       <c r="N108" s="22"/>
@@ -36263,13 +36422,13 @@
     </row>
     <row r="109" spans="1:17">
       <c r="A109" s="16">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B109" s="17"/>
       <c r="C109" s="18"/>
       <c r="D109" s="18"/>
       <c r="E109" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F109" s="4"/>
@@ -36277,7 +36436,7 @@
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
       <c r="J109" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K109" s="22"/>
@@ -36290,40 +36449,24 @@
     </row>
     <row r="110" spans="1:17">
       <c r="A110" s="16">
-        <v>106</v>
-      </c>
-      <c r="B110" s="17" t="s">
-        <v>333</v>
-      </c>
-      <c r="C110" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="D110" s="18" t="s">
-        <v>335</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B110" s="17"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
       <c r="E110" s="12" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>完了</v>
-      </c>
-      <c r="F110" s="4">
-        <v>43109</v>
-      </c>
-      <c r="G110" s="4">
-        <v>43109</v>
-      </c>
-      <c r="H110" s="19">
-        <v>2</v>
-      </c>
-      <c r="I110" s="19">
-        <v>2</v>
-      </c>
-      <c r="J110" s="12">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K110" s="22">
-        <v>0</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="19"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="12" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="K110" s="22"/>
       <c r="L110" s="22"/>
       <c r="M110" s="22"/>
       <c r="N110" s="22"/>
@@ -36333,13 +36476,13 @@
     </row>
     <row r="111" spans="1:17">
       <c r="A111" s="16">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B111" s="17"/>
       <c r="C111" s="18"/>
       <c r="D111" s="18"/>
       <c r="E111" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F111" s="4"/>
@@ -36347,7 +36490,7 @@
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
       <c r="J111" s="12" t="str">
-        <f t="shared" ref="J104:J165" ca="1" si="19">IF(ISBLANK(K111)=FALSE,OFFSET(J111,0,COUNTA(K111:Q111)),"")</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K111" s="22"/>
@@ -36360,13 +36503,13 @@
     </row>
     <row r="112" spans="1:17">
       <c r="A112" s="16">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B112" s="17"/>
       <c r="C112" s="18"/>
       <c r="D112" s="18"/>
       <c r="E112" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F112" s="4"/>
@@ -36374,7 +36517,7 @@
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
       <c r="J112" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K112" s="22"/>
@@ -36387,13 +36530,13 @@
     </row>
     <row r="113" spans="1:17">
       <c r="A113" s="16">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B113" s="17"/>
       <c r="C113" s="18"/>
       <c r="D113" s="18"/>
       <c r="E113" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F113" s="4"/>
@@ -36401,7 +36544,7 @@
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
       <c r="J113" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K113" s="22"/>
@@ -36414,13 +36557,13 @@
     </row>
     <row r="114" spans="1:17">
       <c r="A114" s="16">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B114" s="17"/>
       <c r="C114" s="18"/>
       <c r="D114" s="18"/>
       <c r="E114" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F114" s="4"/>
@@ -36428,7 +36571,7 @@
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
       <c r="J114" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K114" s="22"/>
@@ -36441,13 +36584,13 @@
     </row>
     <row r="115" spans="1:17">
       <c r="A115" s="16">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B115" s="17"/>
       <c r="C115" s="18"/>
       <c r="D115" s="18"/>
       <c r="E115" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F115" s="4"/>
@@ -36455,7 +36598,7 @@
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
       <c r="J115" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K115" s="22"/>
@@ -36468,13 +36611,13 @@
     </row>
     <row r="116" spans="1:17">
       <c r="A116" s="16">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B116" s="17"/>
       <c r="C116" s="18"/>
       <c r="D116" s="18"/>
       <c r="E116" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F116" s="4"/>
@@ -36482,7 +36625,7 @@
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
       <c r="J116" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K116" s="22"/>
@@ -36495,13 +36638,13 @@
     </row>
     <row r="117" spans="1:17">
       <c r="A117" s="16">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B117" s="17"/>
       <c r="C117" s="18"/>
       <c r="D117" s="18"/>
       <c r="E117" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F117" s="4"/>
@@ -36509,7 +36652,7 @@
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
       <c r="J117" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K117" s="22"/>
@@ -36522,13 +36665,13 @@
     </row>
     <row r="118" spans="1:17">
       <c r="A118" s="16">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B118" s="17"/>
       <c r="C118" s="18"/>
       <c r="D118" s="18"/>
       <c r="E118" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="E118:E179" si="18">IF(ISBLANK($B118),"",IF(ISBLANK($G118),"未着手",IF($J118=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F118" s="4"/>
@@ -36536,7 +36679,7 @@
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
       <c r="J118" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K118" s="22"/>
@@ -36549,13 +36692,13 @@
     </row>
     <row r="119" spans="1:17">
       <c r="A119" s="16">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B119" s="17"/>
       <c r="C119" s="18"/>
       <c r="D119" s="18"/>
       <c r="E119" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F119" s="4"/>
@@ -36563,7 +36706,7 @@
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
       <c r="J119" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K119" s="22"/>
@@ -36576,13 +36719,13 @@
     </row>
     <row r="120" spans="1:17">
       <c r="A120" s="16">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B120" s="17"/>
       <c r="C120" s="18"/>
       <c r="D120" s="18"/>
       <c r="E120" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F120" s="4"/>
@@ -36590,7 +36733,7 @@
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
       <c r="J120" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K120" s="22"/>
@@ -36603,13 +36746,13 @@
     </row>
     <row r="121" spans="1:17">
       <c r="A121" s="16">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B121" s="17"/>
       <c r="C121" s="18"/>
       <c r="D121" s="18"/>
       <c r="E121" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F121" s="4"/>
@@ -36617,7 +36760,7 @@
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
       <c r="J121" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K121" s="22"/>
@@ -36630,13 +36773,13 @@
     </row>
     <row r="122" spans="1:17">
       <c r="A122" s="16">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B122" s="17"/>
       <c r="C122" s="18"/>
       <c r="D122" s="18"/>
       <c r="E122" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F122" s="4"/>
@@ -36644,7 +36787,7 @@
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
       <c r="J122" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K122" s="22"/>
@@ -36657,13 +36800,13 @@
     </row>
     <row r="123" spans="1:17">
       <c r="A123" s="16">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B123" s="17"/>
       <c r="C123" s="18"/>
       <c r="D123" s="18"/>
       <c r="E123" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F123" s="4"/>
@@ -36671,7 +36814,7 @@
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
       <c r="J123" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K123" s="22"/>
@@ -36684,13 +36827,13 @@
     </row>
     <row r="124" spans="1:17">
       <c r="A124" s="16">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B124" s="17"/>
       <c r="C124" s="18"/>
       <c r="D124" s="18"/>
       <c r="E124" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F124" s="4"/>
@@ -36698,7 +36841,7 @@
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
       <c r="J124" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K124" s="22"/>
@@ -36711,13 +36854,13 @@
     </row>
     <row r="125" spans="1:17">
       <c r="A125" s="16">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B125" s="17"/>
       <c r="C125" s="18"/>
       <c r="D125" s="18"/>
       <c r="E125" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F125" s="4"/>
@@ -36725,7 +36868,7 @@
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
       <c r="J125" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K125" s="22"/>
@@ -36738,13 +36881,13 @@
     </row>
     <row r="126" spans="1:17">
       <c r="A126" s="16">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B126" s="17"/>
       <c r="C126" s="18"/>
       <c r="D126" s="18"/>
       <c r="E126" s="12" t="str">
-        <f t="shared" ref="E126:E187" si="20">IF(ISBLANK($B126),"",IF(ISBLANK($G126),"未着手",IF($J126=0,"完了","作業中")))</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F126" s="4"/>
@@ -36752,7 +36895,7 @@
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
       <c r="J126" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K126" s="22"/>
@@ -36765,13 +36908,13 @@
     </row>
     <row r="127" spans="1:17">
       <c r="A127" s="16">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B127" s="17"/>
       <c r="C127" s="18"/>
       <c r="D127" s="18"/>
       <c r="E127" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F127" s="4"/>
@@ -36779,7 +36922,7 @@
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
       <c r="J127" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K127" s="22"/>
@@ -36792,13 +36935,13 @@
     </row>
     <row r="128" spans="1:17">
       <c r="A128" s="16">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B128" s="17"/>
       <c r="C128" s="18"/>
       <c r="D128" s="18"/>
       <c r="E128" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F128" s="4"/>
@@ -36806,7 +36949,7 @@
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
       <c r="J128" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K128" s="22"/>
@@ -36819,13 +36962,13 @@
     </row>
     <row r="129" spans="1:17">
       <c r="A129" s="16">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B129" s="17"/>
       <c r="C129" s="18"/>
       <c r="D129" s="18"/>
       <c r="E129" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F129" s="4"/>
@@ -36833,7 +36976,7 @@
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
       <c r="J129" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K129" s="22"/>
@@ -36846,13 +36989,13 @@
     </row>
     <row r="130" spans="1:17">
       <c r="A130" s="16">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B130" s="17"/>
       <c r="C130" s="18"/>
       <c r="D130" s="18"/>
       <c r="E130" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F130" s="4"/>
@@ -36860,7 +37003,7 @@
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
       <c r="J130" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K130" s="22"/>
@@ -36873,13 +37016,13 @@
     </row>
     <row r="131" spans="1:17">
       <c r="A131" s="16">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B131" s="17"/>
       <c r="C131" s="18"/>
       <c r="D131" s="18"/>
       <c r="E131" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F131" s="4"/>
@@ -36887,7 +37030,7 @@
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
       <c r="J131" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K131" s="22"/>
@@ -36900,13 +37043,13 @@
     </row>
     <row r="132" spans="1:17">
       <c r="A132" s="16">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B132" s="17"/>
       <c r="C132" s="18"/>
       <c r="D132" s="18"/>
       <c r="E132" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F132" s="4"/>
@@ -36914,7 +37057,7 @@
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
       <c r="J132" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K132" s="22"/>
@@ -36927,13 +37070,13 @@
     </row>
     <row r="133" spans="1:17">
       <c r="A133" s="16">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B133" s="17"/>
       <c r="C133" s="18"/>
       <c r="D133" s="18"/>
       <c r="E133" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F133" s="4"/>
@@ -36941,7 +37084,7 @@
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
       <c r="J133" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K133" s="22"/>
@@ -36954,13 +37097,13 @@
     </row>
     <row r="134" spans="1:17">
       <c r="A134" s="16">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B134" s="17"/>
       <c r="C134" s="18"/>
       <c r="D134" s="18"/>
       <c r="E134" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F134" s="4"/>
@@ -36968,7 +37111,7 @@
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
       <c r="J134" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K134" s="22"/>
@@ -36981,13 +37124,13 @@
     </row>
     <row r="135" spans="1:17">
       <c r="A135" s="16">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B135" s="17"/>
       <c r="C135" s="18"/>
       <c r="D135" s="18"/>
       <c r="E135" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F135" s="4"/>
@@ -36995,7 +37138,7 @@
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
       <c r="J135" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K135" s="22"/>
@@ -37008,13 +37151,13 @@
     </row>
     <row r="136" spans="1:17">
       <c r="A136" s="16">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B136" s="17"/>
       <c r="C136" s="18"/>
       <c r="D136" s="18"/>
       <c r="E136" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F136" s="4"/>
@@ -37022,7 +37165,7 @@
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
       <c r="J136" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K136" s="22"/>
@@ -37035,13 +37178,13 @@
     </row>
     <row r="137" spans="1:17">
       <c r="A137" s="16">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B137" s="17"/>
       <c r="C137" s="18"/>
       <c r="D137" s="18"/>
       <c r="E137" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F137" s="4"/>
@@ -37049,7 +37192,7 @@
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
       <c r="J137" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K137" s="22"/>
@@ -37062,13 +37205,13 @@
     </row>
     <row r="138" spans="1:17">
       <c r="A138" s="16">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B138" s="17"/>
       <c r="C138" s="18"/>
       <c r="D138" s="18"/>
       <c r="E138" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F138" s="4"/>
@@ -37076,7 +37219,7 @@
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
       <c r="J138" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K138" s="22"/>
@@ -37089,13 +37232,13 @@
     </row>
     <row r="139" spans="1:17">
       <c r="A139" s="16">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B139" s="17"/>
       <c r="C139" s="18"/>
       <c r="D139" s="18"/>
       <c r="E139" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F139" s="4"/>
@@ -37103,7 +37246,7 @@
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
       <c r="J139" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K139" s="22"/>
@@ -37116,13 +37259,13 @@
     </row>
     <row r="140" spans="1:17">
       <c r="A140" s="16">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B140" s="17"/>
       <c r="C140" s="18"/>
       <c r="D140" s="18"/>
       <c r="E140" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F140" s="4"/>
@@ -37130,7 +37273,7 @@
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
       <c r="J140" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K140" s="22"/>
@@ -37143,13 +37286,13 @@
     </row>
     <row r="141" spans="1:17">
       <c r="A141" s="16">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B141" s="17"/>
       <c r="C141" s="18"/>
       <c r="D141" s="18"/>
       <c r="E141" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F141" s="4"/>
@@ -37157,7 +37300,7 @@
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
       <c r="J141" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K141" s="22"/>
@@ -37170,13 +37313,13 @@
     </row>
     <row r="142" spans="1:17">
       <c r="A142" s="16">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B142" s="17"/>
       <c r="C142" s="18"/>
       <c r="D142" s="18"/>
       <c r="E142" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F142" s="4"/>
@@ -37184,7 +37327,7 @@
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
       <c r="J142" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K142" s="22"/>
@@ -37197,13 +37340,13 @@
     </row>
     <row r="143" spans="1:17">
       <c r="A143" s="16">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B143" s="17"/>
       <c r="C143" s="18"/>
       <c r="D143" s="18"/>
       <c r="E143" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F143" s="4"/>
@@ -37211,7 +37354,7 @@
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
       <c r="J143" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K143" s="22"/>
@@ -37224,13 +37367,13 @@
     </row>
     <row r="144" spans="1:17">
       <c r="A144" s="16">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B144" s="17"/>
       <c r="C144" s="18"/>
       <c r="D144" s="18"/>
       <c r="E144" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F144" s="4"/>
@@ -37238,7 +37381,7 @@
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
       <c r="J144" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K144" s="22"/>
@@ -37251,13 +37394,13 @@
     </row>
     <row r="145" spans="1:17">
       <c r="A145" s="16">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B145" s="17"/>
       <c r="C145" s="18"/>
       <c r="D145" s="18"/>
       <c r="E145" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F145" s="4"/>
@@ -37265,7 +37408,7 @@
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
       <c r="J145" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K145" s="22"/>
@@ -37278,13 +37421,13 @@
     </row>
     <row r="146" spans="1:17">
       <c r="A146" s="16">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B146" s="17"/>
       <c r="C146" s="18"/>
       <c r="D146" s="18"/>
       <c r="E146" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F146" s="4"/>
@@ -37292,7 +37435,7 @@
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
       <c r="J146" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K146" s="22"/>
@@ -37305,13 +37448,13 @@
     </row>
     <row r="147" spans="1:17">
       <c r="A147" s="16">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B147" s="17"/>
       <c r="C147" s="18"/>
       <c r="D147" s="18"/>
       <c r="E147" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F147" s="4"/>
@@ -37319,7 +37462,7 @@
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
       <c r="J147" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K147" s="22"/>
@@ -37332,13 +37475,13 @@
     </row>
     <row r="148" spans="1:17">
       <c r="A148" s="16">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B148" s="17"/>
       <c r="C148" s="18"/>
       <c r="D148" s="18"/>
       <c r="E148" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F148" s="4"/>
@@ -37346,7 +37489,7 @@
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
       <c r="J148" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K148" s="22"/>
@@ -37359,13 +37502,13 @@
     </row>
     <row r="149" spans="1:17">
       <c r="A149" s="16">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B149" s="17"/>
       <c r="C149" s="18"/>
       <c r="D149" s="18"/>
       <c r="E149" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F149" s="4"/>
@@ -37373,7 +37516,7 @@
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
       <c r="J149" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K149" s="22"/>
@@ -37386,13 +37529,13 @@
     </row>
     <row r="150" spans="1:17">
       <c r="A150" s="16">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B150" s="17"/>
       <c r="C150" s="18"/>
       <c r="D150" s="18"/>
       <c r="E150" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F150" s="4"/>
@@ -37400,7 +37543,7 @@
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
       <c r="J150" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K150" s="22"/>
@@ -37413,13 +37556,13 @@
     </row>
     <row r="151" spans="1:17">
       <c r="A151" s="16">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B151" s="17"/>
       <c r="C151" s="18"/>
       <c r="D151" s="18"/>
       <c r="E151" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F151" s="4"/>
@@ -37427,7 +37570,7 @@
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
       <c r="J151" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K151" s="22"/>
@@ -37440,13 +37583,13 @@
     </row>
     <row r="152" spans="1:17">
       <c r="A152" s="16">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B152" s="17"/>
       <c r="C152" s="18"/>
       <c r="D152" s="18"/>
       <c r="E152" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F152" s="4"/>
@@ -37454,7 +37597,7 @@
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
       <c r="J152" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K152" s="22"/>
@@ -37467,13 +37610,13 @@
     </row>
     <row r="153" spans="1:17">
       <c r="A153" s="16">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B153" s="17"/>
       <c r="C153" s="18"/>
       <c r="D153" s="18"/>
       <c r="E153" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F153" s="4"/>
@@ -37481,7 +37624,7 @@
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
       <c r="J153" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K153" s="22"/>
@@ -37494,13 +37637,13 @@
     </row>
     <row r="154" spans="1:17">
       <c r="A154" s="16">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B154" s="17"/>
       <c r="C154" s="18"/>
       <c r="D154" s="18"/>
       <c r="E154" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F154" s="4"/>
@@ -37508,7 +37651,7 @@
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
       <c r="J154" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K154" s="22"/>
@@ -37521,13 +37664,13 @@
     </row>
     <row r="155" spans="1:17">
       <c r="A155" s="16">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B155" s="17"/>
       <c r="C155" s="18"/>
       <c r="D155" s="18"/>
       <c r="E155" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F155" s="4"/>
@@ -37535,7 +37678,7 @@
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
       <c r="J155" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K155" s="22"/>
@@ -37548,13 +37691,13 @@
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="16">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B156" s="17"/>
       <c r="C156" s="18"/>
       <c r="D156" s="18"/>
       <c r="E156" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F156" s="4"/>
@@ -37562,7 +37705,7 @@
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
       <c r="J156" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K156" s="22"/>
@@ -37575,13 +37718,13 @@
     </row>
     <row r="157" spans="1:17">
       <c r="A157" s="16">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B157" s="17"/>
       <c r="C157" s="18"/>
       <c r="D157" s="18"/>
       <c r="E157" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F157" s="4"/>
@@ -37589,7 +37732,7 @@
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
       <c r="J157" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K157" s="22"/>
@@ -37602,13 +37745,13 @@
     </row>
     <row r="158" spans="1:17">
       <c r="A158" s="16">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B158" s="17"/>
       <c r="C158" s="18"/>
       <c r="D158" s="18"/>
       <c r="E158" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F158" s="4"/>
@@ -37616,7 +37759,7 @@
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
       <c r="J158" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ref="J158:J179" ca="1" si="19">IF(ISBLANK(K158)=FALSE,OFFSET(J158,0,COUNTA(K158:Q158)),"")</f>
         <v/>
       </c>
       <c r="K158" s="22"/>
@@ -37629,13 +37772,13 @@
     </row>
     <row r="159" spans="1:17">
       <c r="A159" s="16">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B159" s="17"/>
       <c r="C159" s="18"/>
       <c r="D159" s="18"/>
       <c r="E159" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F159" s="4"/>
@@ -37656,13 +37799,13 @@
     </row>
     <row r="160" spans="1:17">
       <c r="A160" s="16">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B160" s="17"/>
       <c r="C160" s="18"/>
       <c r="D160" s="18"/>
       <c r="E160" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F160" s="4"/>
@@ -37683,13 +37826,13 @@
     </row>
     <row r="161" spans="1:17">
       <c r="A161" s="16">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B161" s="17"/>
       <c r="C161" s="18"/>
       <c r="D161" s="18"/>
       <c r="E161" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F161" s="4"/>
@@ -37710,13 +37853,13 @@
     </row>
     <row r="162" spans="1:17">
       <c r="A162" s="16">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B162" s="17"/>
       <c r="C162" s="18"/>
       <c r="D162" s="18"/>
       <c r="E162" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F162" s="4"/>
@@ -37737,13 +37880,13 @@
     </row>
     <row r="163" spans="1:17">
       <c r="A163" s="16">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B163" s="17"/>
       <c r="C163" s="18"/>
       <c r="D163" s="18"/>
       <c r="E163" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F163" s="4"/>
@@ -37764,13 +37907,13 @@
     </row>
     <row r="164" spans="1:17">
       <c r="A164" s="16">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B164" s="17"/>
       <c r="C164" s="18"/>
       <c r="D164" s="18"/>
       <c r="E164" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F164" s="4"/>
@@ -37791,13 +37934,13 @@
     </row>
     <row r="165" spans="1:17">
       <c r="A165" s="16">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B165" s="17"/>
       <c r="C165" s="18"/>
       <c r="D165" s="18"/>
       <c r="E165" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F165" s="4"/>
@@ -37818,13 +37961,13 @@
     </row>
     <row r="166" spans="1:17">
       <c r="A166" s="16">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B166" s="17"/>
       <c r="C166" s="18"/>
       <c r="D166" s="18"/>
       <c r="E166" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F166" s="4"/>
@@ -37832,7 +37975,7 @@
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
       <c r="J166" s="12" t="str">
-        <f t="shared" ref="J166:J187" ca="1" si="21">IF(ISBLANK(K166)=FALSE,OFFSET(J166,0,COUNTA(K166:Q166)),"")</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K166" s="22"/>
@@ -37845,13 +37988,13 @@
     </row>
     <row r="167" spans="1:17">
       <c r="A167" s="16">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B167" s="17"/>
       <c r="C167" s="18"/>
       <c r="D167" s="18"/>
       <c r="E167" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F167" s="4"/>
@@ -37859,7 +38002,7 @@
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
       <c r="J167" s="12" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K167" s="22"/>
@@ -37872,13 +38015,13 @@
     </row>
     <row r="168" spans="1:17">
       <c r="A168" s="16">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B168" s="17"/>
       <c r="C168" s="18"/>
       <c r="D168" s="18"/>
       <c r="E168" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F168" s="4"/>
@@ -37886,7 +38029,7 @@
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
       <c r="J168" s="12" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K168" s="22"/>
@@ -37899,13 +38042,13 @@
     </row>
     <row r="169" spans="1:17">
       <c r="A169" s="16">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B169" s="17"/>
       <c r="C169" s="18"/>
       <c r="D169" s="18"/>
       <c r="E169" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F169" s="4"/>
@@ -37913,7 +38056,7 @@
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
       <c r="J169" s="12" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K169" s="22"/>
@@ -37926,13 +38069,13 @@
     </row>
     <row r="170" spans="1:17">
       <c r="A170" s="16">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B170" s="17"/>
       <c r="C170" s="18"/>
       <c r="D170" s="18"/>
       <c r="E170" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F170" s="4"/>
@@ -37940,7 +38083,7 @@
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
       <c r="J170" s="12" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K170" s="22"/>
@@ -37953,13 +38096,13 @@
     </row>
     <row r="171" spans="1:17">
       <c r="A171" s="16">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B171" s="17"/>
       <c r="C171" s="18"/>
       <c r="D171" s="18"/>
       <c r="E171" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F171" s="4"/>
@@ -37967,7 +38110,7 @@
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
       <c r="J171" s="12" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K171" s="22"/>
@@ -37980,13 +38123,13 @@
     </row>
     <row r="172" spans="1:17">
       <c r="A172" s="16">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B172" s="17"/>
       <c r="C172" s="18"/>
       <c r="D172" s="18"/>
       <c r="E172" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F172" s="4"/>
@@ -37994,7 +38137,7 @@
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
       <c r="J172" s="12" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K172" s="22"/>
@@ -38007,13 +38150,13 @@
     </row>
     <row r="173" spans="1:17">
       <c r="A173" s="16">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B173" s="17"/>
       <c r="C173" s="18"/>
       <c r="D173" s="18"/>
       <c r="E173" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F173" s="4"/>
@@ -38021,7 +38164,7 @@
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
       <c r="J173" s="12" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K173" s="22"/>
@@ -38034,13 +38177,13 @@
     </row>
     <row r="174" spans="1:17">
       <c r="A174" s="16">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B174" s="17"/>
       <c r="C174" s="18"/>
       <c r="D174" s="18"/>
       <c r="E174" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F174" s="4"/>
@@ -38048,7 +38191,7 @@
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
       <c r="J174" s="12" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K174" s="22"/>
@@ -38061,13 +38204,13 @@
     </row>
     <row r="175" spans="1:17">
       <c r="A175" s="16">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B175" s="17"/>
       <c r="C175" s="18"/>
       <c r="D175" s="18"/>
       <c r="E175" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F175" s="4"/>
@@ -38075,7 +38218,7 @@
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
       <c r="J175" s="12" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K175" s="22"/>
@@ -38088,13 +38231,13 @@
     </row>
     <row r="176" spans="1:17">
       <c r="A176" s="16">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B176" s="17"/>
       <c r="C176" s="18"/>
       <c r="D176" s="18"/>
       <c r="E176" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F176" s="4"/>
@@ -38102,7 +38245,7 @@
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
       <c r="J176" s="12" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K176" s="22"/>
@@ -38115,13 +38258,13 @@
     </row>
     <row r="177" spans="1:17">
       <c r="A177" s="16">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B177" s="17"/>
       <c r="C177" s="18"/>
       <c r="D177" s="18"/>
       <c r="E177" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F177" s="4"/>
@@ -38129,7 +38272,7 @@
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
       <c r="J177" s="12" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K177" s="22"/>
@@ -38142,13 +38285,13 @@
     </row>
     <row r="178" spans="1:17">
       <c r="A178" s="16">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B178" s="17"/>
       <c r="C178" s="18"/>
       <c r="D178" s="18"/>
       <c r="E178" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F178" s="4"/>
@@ -38156,7 +38299,7 @@
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
       <c r="J178" s="12" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K178" s="22"/>
@@ -38169,13 +38312,13 @@
     </row>
     <row r="179" spans="1:17">
       <c r="A179" s="16">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B179" s="17"/>
       <c r="C179" s="18"/>
       <c r="D179" s="18"/>
       <c r="E179" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="F179" s="4"/>
@@ -38183,7 +38326,7 @@
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
       <c r="J179" s="12" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K179" s="22"/>
@@ -38195,220 +38338,76 @@
       <c r="Q179" s="22"/>
     </row>
     <row r="180" spans="1:17">
-      <c r="A180" s="16">
-        <v>176</v>
-      </c>
-      <c r="B180" s="17"/>
-      <c r="C180" s="18"/>
-      <c r="D180" s="18"/>
-      <c r="E180" s="12" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="F180" s="4"/>
-      <c r="G180" s="4"/>
-      <c r="H180" s="19"/>
-      <c r="I180" s="19"/>
-      <c r="J180" s="12" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="K180" s="22"/>
-      <c r="L180" s="22"/>
-      <c r="M180" s="22"/>
-      <c r="N180" s="22"/>
-      <c r="O180" s="22"/>
-      <c r="P180" s="22"/>
-      <c r="Q180" s="22"/>
+      <c r="A180" s="3"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="5"/>
+      <c r="F180" s="9"/>
+      <c r="H180" s="2"/>
+      <c r="I180" s="25"/>
+      <c r="M180"/>
     </row>
     <row r="181" spans="1:17">
-      <c r="A181" s="16">
-        <v>177</v>
-      </c>
-      <c r="B181" s="17"/>
-      <c r="C181" s="18"/>
-      <c r="D181" s="18"/>
-      <c r="E181" s="12" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="F181" s="4"/>
-      <c r="G181" s="4"/>
-      <c r="H181" s="19"/>
-      <c r="I181" s="19"/>
-      <c r="J181" s="12" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="K181" s="22"/>
-      <c r="L181" s="22"/>
-      <c r="M181" s="22"/>
-      <c r="N181" s="22"/>
-      <c r="O181" s="22"/>
-      <c r="P181" s="22"/>
-      <c r="Q181" s="22"/>
+      <c r="A181" s="3"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="5"/>
+      <c r="F181" s="9"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="25"/>
+      <c r="M181"/>
     </row>
     <row r="182" spans="1:17">
-      <c r="A182" s="16">
-        <v>178</v>
-      </c>
-      <c r="B182" s="17"/>
-      <c r="C182" s="18"/>
-      <c r="D182" s="18"/>
-      <c r="E182" s="12" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="F182" s="4"/>
-      <c r="G182" s="4"/>
-      <c r="H182" s="19"/>
-      <c r="I182" s="19"/>
-      <c r="J182" s="12" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="K182" s="22"/>
-      <c r="L182" s="22"/>
-      <c r="M182" s="22"/>
-      <c r="N182" s="22"/>
-      <c r="O182" s="22"/>
-      <c r="P182" s="22"/>
-      <c r="Q182" s="22"/>
+      <c r="A182" s="3"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="5"/>
+      <c r="F182" s="9"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="25"/>
+      <c r="M182"/>
     </row>
     <row r="183" spans="1:17">
-      <c r="A183" s="16">
-        <v>179</v>
-      </c>
-      <c r="B183" s="17"/>
-      <c r="C183" s="18"/>
-      <c r="D183" s="18"/>
-      <c r="E183" s="12" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="F183" s="4"/>
-      <c r="G183" s="4"/>
-      <c r="H183" s="19"/>
-      <c r="I183" s="19"/>
-      <c r="J183" s="12" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="K183" s="22"/>
-      <c r="L183" s="22"/>
-      <c r="M183" s="22"/>
-      <c r="N183" s="22"/>
-      <c r="O183" s="22"/>
-      <c r="P183" s="22"/>
-      <c r="Q183" s="22"/>
+      <c r="A183" s="3"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="5"/>
+      <c r="F183" s="9"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="25"/>
+      <c r="M183"/>
     </row>
     <row r="184" spans="1:17">
-      <c r="A184" s="16">
-        <v>180</v>
-      </c>
-      <c r="B184" s="17"/>
-      <c r="C184" s="18"/>
-      <c r="D184" s="18"/>
-      <c r="E184" s="12" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="F184" s="4"/>
-      <c r="G184" s="4"/>
-      <c r="H184" s="19"/>
-      <c r="I184" s="19"/>
-      <c r="J184" s="12" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="K184" s="22"/>
-      <c r="L184" s="22"/>
-      <c r="M184" s="22"/>
-      <c r="N184" s="22"/>
-      <c r="O184" s="22"/>
-      <c r="P184" s="22"/>
-      <c r="Q184" s="22"/>
+      <c r="A184" s="3"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="5"/>
+      <c r="F184" s="9"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="25"/>
+      <c r="M184"/>
     </row>
     <row r="185" spans="1:17">
-      <c r="A185" s="16">
-        <v>181</v>
-      </c>
-      <c r="B185" s="17"/>
-      <c r="C185" s="18"/>
-      <c r="D185" s="18"/>
-      <c r="E185" s="12" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="F185" s="4"/>
-      <c r="G185" s="4"/>
-      <c r="H185" s="19"/>
-      <c r="I185" s="19"/>
-      <c r="J185" s="12" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="K185" s="22"/>
-      <c r="L185" s="22"/>
-      <c r="M185" s="22"/>
-      <c r="N185" s="22"/>
-      <c r="O185" s="22"/>
-      <c r="P185" s="22"/>
-      <c r="Q185" s="22"/>
+      <c r="A185" s="3"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="5"/>
+      <c r="F185" s="9"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="25"/>
+      <c r="M185"/>
     </row>
     <row r="186" spans="1:17">
-      <c r="A186" s="16">
-        <v>182</v>
-      </c>
-      <c r="B186" s="17"/>
-      <c r="C186" s="18"/>
-      <c r="D186" s="18"/>
-      <c r="E186" s="12" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="F186" s="4"/>
-      <c r="G186" s="4"/>
-      <c r="H186" s="19"/>
-      <c r="I186" s="19"/>
-      <c r="J186" s="12" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="K186" s="22"/>
-      <c r="L186" s="22"/>
-      <c r="M186" s="22"/>
-      <c r="N186" s="22"/>
-      <c r="O186" s="22"/>
-      <c r="P186" s="22"/>
-      <c r="Q186" s="22"/>
+      <c r="A186" s="3"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="5"/>
+      <c r="F186" s="9"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="25"/>
+      <c r="M186"/>
     </row>
     <row r="187" spans="1:17">
-      <c r="A187" s="16">
-        <v>183</v>
-      </c>
-      <c r="B187" s="17"/>
-      <c r="C187" s="18"/>
-      <c r="D187" s="18"/>
-      <c r="E187" s="12" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="F187" s="4"/>
-      <c r="G187" s="4"/>
-      <c r="H187" s="19"/>
-      <c r="I187" s="19"/>
-      <c r="J187" s="12" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="K187" s="22"/>
-      <c r="L187" s="22"/>
-      <c r="M187" s="22"/>
-      <c r="N187" s="22"/>
-      <c r="O187" s="22"/>
-      <c r="P187" s="22"/>
-      <c r="Q187" s="22"/>
+      <c r="A187" s="3"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="5"/>
+      <c r="F187" s="9"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="25"/>
+      <c r="M187"/>
     </row>
     <row r="188" spans="1:17">
       <c r="A188" s="3"/>
@@ -38491,103 +38490,31 @@
       <c r="I196" s="25"/>
       <c r="M196"/>
     </row>
-    <row r="197" spans="1:13">
-      <c r="A197" s="3"/>
-      <c r="C197" s="1"/>
-      <c r="D197" s="5"/>
-      <c r="F197" s="9"/>
-      <c r="H197" s="2"/>
-      <c r="I197" s="25"/>
-      <c r="M197"/>
-    </row>
-    <row r="198" spans="1:13">
-      <c r="A198" s="3"/>
-      <c r="C198" s="1"/>
-      <c r="D198" s="5"/>
-      <c r="F198" s="9"/>
-      <c r="H198" s="2"/>
-      <c r="I198" s="25"/>
-      <c r="M198"/>
-    </row>
-    <row r="199" spans="1:13">
-      <c r="A199" s="3"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="5"/>
-      <c r="F199" s="9"/>
-      <c r="H199" s="2"/>
-      <c r="I199" s="25"/>
-      <c r="M199"/>
-    </row>
-    <row r="200" spans="1:13">
-      <c r="A200" s="3"/>
-      <c r="C200" s="1"/>
-      <c r="D200" s="5"/>
-      <c r="F200" s="9"/>
-      <c r="H200" s="2"/>
-      <c r="I200" s="25"/>
-      <c r="M200"/>
-    </row>
-    <row r="201" spans="1:13">
-      <c r="A201" s="3"/>
-      <c r="C201" s="1"/>
-      <c r="D201" s="5"/>
-      <c r="F201" s="9"/>
-      <c r="H201" s="2"/>
-      <c r="I201" s="25"/>
-      <c r="M201"/>
-    </row>
-    <row r="202" spans="1:13">
-      <c r="A202" s="3"/>
-      <c r="C202" s="1"/>
-      <c r="D202" s="5"/>
-      <c r="F202" s="9"/>
-      <c r="H202" s="2"/>
-      <c r="I202" s="25"/>
-      <c r="M202"/>
-    </row>
-    <row r="203" spans="1:13">
-      <c r="A203" s="3"/>
-      <c r="C203" s="1"/>
-      <c r="D203" s="5"/>
-      <c r="F203" s="9"/>
-      <c r="H203" s="2"/>
-      <c r="I203" s="25"/>
-      <c r="M203"/>
-    </row>
-    <row r="204" spans="1:13">
-      <c r="A204" s="3"/>
-      <c r="C204" s="1"/>
-      <c r="D204" s="5"/>
-      <c r="F204" s="9"/>
-      <c r="H204" s="2"/>
-      <c r="I204" s="25"/>
-      <c r="M204"/>
-    </row>
   </sheetData>
   <autoFilter ref="C1:D49"/>
   <mergeCells count="11">
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:Q1"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:D4"/>
     <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
-  <conditionalFormatting sqref="D205:D65372 C188:C204">
+  <conditionalFormatting sqref="D197:D65364 C180:C196">
     <cfRule type="expression" dxfId="227" priority="196" stopIfTrue="1">
-      <formula>C188="未着手"</formula>
+      <formula>C180="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="226" priority="197" stopIfTrue="1">
-      <formula>C188="作業中"</formula>
+      <formula>C180="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="225" priority="198" stopIfTrue="1">
-      <formula>OR(C188="終了",C188="完了")</formula>
+      <formula>OR(C180="終了",C180="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO5:XFD5">
@@ -38601,796 +38528,796 @@
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B205:B65372 A188:A204">
+  <conditionalFormatting sqref="B197:B65364 A180:A196">
     <cfRule type="expression" dxfId="221" priority="202" stopIfTrue="1">
-      <formula>C188="未着手"</formula>
+      <formula>C180="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="220" priority="203" stopIfTrue="1">
-      <formula>C188="作業中"</formula>
+      <formula>C180="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="219" priority="204" stopIfTrue="1">
-      <formula>OR(C188="終了",C188="完了")</formula>
+      <formula>OR(C180="終了",C180="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C205:C65372 B188:B204">
+  <conditionalFormatting sqref="C197:C65364 B180:B196">
     <cfRule type="expression" dxfId="218" priority="205" stopIfTrue="1">
-      <formula>C188="未着手"</formula>
+      <formula>C180="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="217" priority="206" stopIfTrue="1">
-      <formula>C188="作業中"</formula>
+      <formula>C180="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="216" priority="207" stopIfTrue="1">
-      <formula>OR(C188="終了",C188="完了")</formula>
+      <formula>OR(C180="終了",C180="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E205:J65372">
+  <conditionalFormatting sqref="E197:J65364">
     <cfRule type="expression" dxfId="215" priority="208" stopIfTrue="1">
-      <formula>$D205="未着手"</formula>
+      <formula>$D197="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="214" priority="209" stopIfTrue="1">
-      <formula>$D205="作業中"</formula>
+      <formula>$D197="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="213" priority="210" stopIfTrue="1">
-      <formula>OR($D205="終了",$D205="完了")</formula>
+      <formula>OR($D197="終了",$D197="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:Q6 B7:Q7 D9 D11 C10 B11 E10:I10 B14:I15 A5:IN5 J8:J15 I81:J82 C80:J80 I84:J94 I104:I108 B79:J79 B83:J83 B95:I95 B111:J187 I17:J78 K8:Q187 B51:H78 A7:A187 B109:I110 J95:J110">
-    <cfRule type="expression" dxfId="2" priority="127" stopIfTrue="1">
+  <conditionalFormatting sqref="A6:Q6 B7:Q7 D9 D11 C10 B11 E10:I10 B14:I15 A5:IN5 J8:J15 I73:J74 C72:J72 I76:J86 I96:I100 B71:J71 B75:J75 B87:I87 B103:J179 B101:I102 J87:J102 K8:Q179 A7:A179 I17:J70 B51:H70">
+    <cfRule type="expression" dxfId="212" priority="127" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="128" stopIfTrue="1">
       <formula>$E5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="129" stopIfTrue="1">
       <formula>OR($E5="終了",$E5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:IN6">
-    <cfRule type="expression" dxfId="212" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="133" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="134" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="135" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9:IN10">
-    <cfRule type="expression" dxfId="209" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="136" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="137" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="138" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:IN12 R14:IN15 S13:IN13">
-    <cfRule type="expression" dxfId="206" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="139" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="140" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="141" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA19:IN19">
-    <cfRule type="expression" dxfId="203" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="142" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="143" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="144" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R22:IN23 AA21:IN21">
-    <cfRule type="expression" dxfId="200" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="145" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="146" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="147" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R24:IN24">
-    <cfRule type="expression" dxfId="197" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="151" stopIfTrue="1">
       <formula>$E7="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="152" stopIfTrue="1">
       <formula>$E7="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="153" stopIfTrue="1">
       <formula>OR($E7="終了",$E7="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R25:IN25">
-    <cfRule type="expression" dxfId="194" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="154" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="155" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="155" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="156" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R43 AC43:IN44 S44:T44">
-    <cfRule type="expression" dxfId="191" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="157" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="158" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="159" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R29:R30 Y27:IN30">
-    <cfRule type="expression" dxfId="188" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="160" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="161" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="162" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U32:IN33">
-    <cfRule type="expression" dxfId="185" priority="163" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="163" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="164" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="165" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U31:IN31">
-    <cfRule type="expression" dxfId="182" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="166" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="167" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="168" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R41:R42 Y41:IN42">
-    <cfRule type="expression" dxfId="179" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="169" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="170" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="171" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="171" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC48:IN48 S48:T48">
-    <cfRule type="expression" dxfId="176" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="172" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="173" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="174" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC50:IN50 S50:T50">
-    <cfRule type="expression" dxfId="173" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="178" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="179" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="179" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="180" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R56:IN56">
-    <cfRule type="expression" dxfId="170" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="184" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="185" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="186" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R53:IN55">
-    <cfRule type="expression" dxfId="167" priority="187" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="187" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="188" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="189" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R57:IN58">
-    <cfRule type="expression" dxfId="164" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="190" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="191" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="191" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="192" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R59:IN59">
-    <cfRule type="expression" dxfId="161" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="193" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="194" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="195" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="195" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16:IN16">
-    <cfRule type="expression" dxfId="158" priority="211" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="211" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="212" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="213" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y26:IN26">
-    <cfRule type="expression" dxfId="155" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="217" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="218" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="219" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="219" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R39 Y39:IN39">
-    <cfRule type="expression" dxfId="152" priority="226" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="226" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="227" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="227" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="228" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="228" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO56:XFD56">
-    <cfRule type="expression" dxfId="149" priority="235" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="235" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="236" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="236" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="237" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO43:XFD43">
-    <cfRule type="expression" dxfId="146" priority="253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="253" stopIfTrue="1">
       <formula>$D14="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="254" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="254" stopIfTrue="1">
       <formula>$D14="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="255" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="255" stopIfTrue="1">
       <formula>OR($D14="終了",$D14="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9 B8:E8 E11:E12 B9:C9 E9 D10 D12 B10 C11:C12 B12 H12">
-    <cfRule type="expression" dxfId="143" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="100" stopIfTrue="1">
       <formula>$E8="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="101" stopIfTrue="1">
       <formula>$E8="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="102" stopIfTrue="1">
       <formula>OR($E8="終了",$E8="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8 H11">
-    <cfRule type="expression" dxfId="140" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="97" stopIfTrue="1">
       <formula>$E8="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="98" stopIfTrue="1">
       <formula>$E8="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="99" stopIfTrue="1">
       <formula>OR($E8="終了",$E8="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:G9 F12:G12">
-    <cfRule type="expression" dxfId="137" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="94" stopIfTrue="1">
       <formula>$E9="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="95" stopIfTrue="1">
       <formula>$E9="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="96" stopIfTrue="1">
       <formula>OR($E9="終了",$E9="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:G8 F11:G11">
-    <cfRule type="expression" dxfId="134" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="91" stopIfTrue="1">
       <formula>$E8="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="92" stopIfTrue="1">
       <formula>$E8="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="93" stopIfTrue="1">
       <formula>OR($E8="終了",$E8="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:IN11 R7:IN8">
-    <cfRule type="expression" dxfId="131" priority="1252" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="1252" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="1253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="1253" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="1254" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="1254" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA20:IN20">
-    <cfRule type="expression" dxfId="128" priority="1267" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="1267" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="1268" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="1268" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="1269" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="1269" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA17:IN18">
-    <cfRule type="expression" dxfId="125" priority="1282" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="1282" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="1283" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="1283" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="1284" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="1284" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO6:XFD14">
-    <cfRule type="expression" dxfId="122" priority="1297" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="1297" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="1298" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="1298" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="1299" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="1299" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO15:XFD15">
-    <cfRule type="expression" dxfId="119" priority="1327" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="1327" stopIfTrue="1">
       <formula>$D7="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="1328" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="1328" stopIfTrue="1">
       <formula>$D7="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="1329" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="1329" stopIfTrue="1">
       <formula>OR($D7="終了",$D7="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO16:XFD16">
-    <cfRule type="expression" dxfId="116" priority="1330" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="1330" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="1331" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="1331" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="1332" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="1332" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R52:IN52 AC45:IN46 S45:T46">
-    <cfRule type="expression" dxfId="113" priority="1342" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="1342" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="1343" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="1343" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="1344" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="1344" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA51:IN51 S51:T51">
-    <cfRule type="expression" dxfId="110" priority="1351" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="1351" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="1352" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="1352" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="1353" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="1353" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40 Y40:IN40 R35:IN36">
-    <cfRule type="expression" dxfId="107" priority="1357" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="1357" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="1358" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="1358" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="1359" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="1359" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R37:R38 Y37:IN38">
-    <cfRule type="expression" dxfId="104" priority="1366" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="1366" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="1367" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="1367" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="1368" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="1368" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO20:XFD42">
-    <cfRule type="expression" dxfId="101" priority="1372" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="1372" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="1373" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="1373" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="1374" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="1374" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC47:IN47 S47:T47">
-    <cfRule type="expression" dxfId="98" priority="1375" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="1375" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="1376" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="1376" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="1377" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="1377" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S49:T49 AC49:IN49">
-    <cfRule type="expression" dxfId="95" priority="1384" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="1384" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="1385" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="1385" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="1386" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="1386" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K205:K65371 J204">
-    <cfRule type="expression" dxfId="92" priority="1411" stopIfTrue="1">
-      <formula>$D205="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="91" priority="1412" stopIfTrue="1">
-      <formula>$D205="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="1413" stopIfTrue="1">
-      <formula>OR($D205="終了",$D205="完了")</formula>
+  <conditionalFormatting sqref="K197:K65363 J196">
+    <cfRule type="expression" dxfId="89" priority="1411" stopIfTrue="1">
+      <formula>$D197="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="1412" stopIfTrue="1">
+      <formula>$D197="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="1413" stopIfTrue="1">
+      <formula>OR($D197="終了",$D197="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L205:M65370 K203:L204">
-    <cfRule type="expression" dxfId="89" priority="1501" stopIfTrue="1">
-      <formula>$D205="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="1502" stopIfTrue="1">
-      <formula>$D205="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="1503" stopIfTrue="1">
-      <formula>OR($D205="終了",$D205="完了")</formula>
+  <conditionalFormatting sqref="L197:M65362 K195:L196">
+    <cfRule type="expression" dxfId="86" priority="1501" stopIfTrue="1">
+      <formula>$D197="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="1502" stopIfTrue="1">
+      <formula>$D197="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="1503" stopIfTrue="1">
+      <formula>OR($D197="終了",$D197="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO47:XFD55">
-    <cfRule type="expression" dxfId="86" priority="1789" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="1789" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="1790" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="1790" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="1791" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="1791" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO44:XFD46">
-    <cfRule type="expression" dxfId="83" priority="1798" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="1798" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="1799" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="1799" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="1800" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="1800" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:I13 B13:E13 R13">
-    <cfRule type="expression" dxfId="80" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="76" stopIfTrue="1">
       <formula>$E13="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="77" stopIfTrue="1">
       <formula>$E13="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="78" stopIfTrue="1">
       <formula>OR($E13="終了",$E13="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="77" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="73" stopIfTrue="1">
       <formula>$E13="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="74" stopIfTrue="1">
       <formula>$E13="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="75" stopIfTrue="1">
       <formula>OR($E13="終了",$E13="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I9 I11:I12">
-    <cfRule type="expression" dxfId="74" priority="256" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="256" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="257" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="257" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="258" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="258" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R34:IN34">
-    <cfRule type="expression" dxfId="71" priority="259" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="259" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="260" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="260" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="261" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO17:XFD19">
-    <cfRule type="expression" dxfId="68" priority="262" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="262" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="263" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="263" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="264" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="264" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:J16">
-    <cfRule type="expression" dxfId="65" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="67" stopIfTrue="1">
       <formula>$E16="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="68" stopIfTrue="1">
       <formula>$E16="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="69" stopIfTrue="1">
       <formula>OR($E16="終了",$E16="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:H25">
-    <cfRule type="expression" dxfId="62" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="61" stopIfTrue="1">
       <formula>$E18="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="62" stopIfTrue="1">
       <formula>$E18="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="63" stopIfTrue="1">
       <formula>OR($E18="終了",$E18="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:H17">
-    <cfRule type="expression" dxfId="59" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="64" stopIfTrue="1">
       <formula>$E18="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="65" stopIfTrue="1">
       <formula>$E18="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="66" stopIfTrue="1">
       <formula>OR($E18="終了",$E18="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="56" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="58" stopIfTrue="1">
       <formula>$E17="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="59" stopIfTrue="1">
       <formula>$E17="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="60" stopIfTrue="1">
       <formula>OR($E17="終了",$E17="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:H31">
-    <cfRule type="expression" dxfId="53" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="55" stopIfTrue="1">
       <formula>$E26="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="56" stopIfTrue="1">
       <formula>$E26="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="57" stopIfTrue="1">
       <formula>OR($E26="終了",$E26="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:H35">
-    <cfRule type="expression" dxfId="50" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="52" stopIfTrue="1">
       <formula>$E32="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="53" stopIfTrue="1">
       <formula>$E32="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="54" stopIfTrue="1">
       <formula>OR($E32="終了",$E32="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:H39">
-    <cfRule type="expression" dxfId="47" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="49" stopIfTrue="1">
       <formula>$E36="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="50" stopIfTrue="1">
       <formula>$E36="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="51" stopIfTrue="1">
       <formula>OR($E36="終了",$E36="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:E46 H46 B40:H45 B47:H47">
-    <cfRule type="expression" dxfId="44" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="46" stopIfTrue="1">
       <formula>$E40="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="47" stopIfTrue="1">
       <formula>$E40="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="48" stopIfTrue="1">
       <formula>OR($E40="終了",$E40="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="expression" dxfId="41" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="40" stopIfTrue="1">
       <formula>$E46="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="41" stopIfTrue="1">
       <formula>$E46="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="42" stopIfTrue="1">
       <formula>OR($E46="終了",$E46="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:H50">
-    <cfRule type="expression" dxfId="38" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="37" stopIfTrue="1">
       <formula>$E50="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="38" stopIfTrue="1">
       <formula>$E50="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="39" stopIfTrue="1">
       <formula>OR($E50="終了",$E50="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:H49">
-    <cfRule type="expression" dxfId="35" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="34" stopIfTrue="1">
       <formula>$E48="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="35" stopIfTrue="1">
       <formula>$E48="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="36" stopIfTrue="1">
       <formula>OR($E48="終了",$E48="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B81:H82">
-    <cfRule type="expression" dxfId="32" priority="13" stopIfTrue="1">
-      <formula>$E81="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="14" stopIfTrue="1">
-      <formula>$E81="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="15" stopIfTrue="1">
-      <formula>OR($E81="終了",$E81="完了")</formula>
+  <conditionalFormatting sqref="B73:H74">
+    <cfRule type="expression" dxfId="29" priority="13" stopIfTrue="1">
+      <formula>$E73="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="14" stopIfTrue="1">
+      <formula>$E73="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="15" stopIfTrue="1">
+      <formula>OR($E73="終了",$E73="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B80">
-    <cfRule type="expression" dxfId="29" priority="10" stopIfTrue="1">
-      <formula>$E80="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="11" stopIfTrue="1">
-      <formula>$E80="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="12" stopIfTrue="1">
-      <formula>OR($E80="終了",$E80="完了")</formula>
+  <conditionalFormatting sqref="B72">
+    <cfRule type="expression" dxfId="26" priority="10" stopIfTrue="1">
+      <formula>$E72="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="11" stopIfTrue="1">
+      <formula>$E72="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="12" stopIfTrue="1">
+      <formula>OR($E72="終了",$E72="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B84:H94">
-    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
-      <formula>$E84="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
-      <formula>$E84="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="9" stopIfTrue="1">
-      <formula>OR($E84="終了",$E84="完了")</formula>
+  <conditionalFormatting sqref="B76:H86">
+    <cfRule type="expression" dxfId="23" priority="7" stopIfTrue="1">
+      <formula>$E76="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="8" stopIfTrue="1">
+      <formula>$E76="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="9" stopIfTrue="1">
+      <formula>OR($E76="終了",$E76="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B96:I103">
-    <cfRule type="expression" dxfId="23" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="B88:I95">
+    <cfRule type="expression" dxfId="20" priority="4" stopIfTrue="1">
+      <formula>$E88="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="5" stopIfTrue="1">
+      <formula>$E88="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="6" stopIfTrue="1">
+      <formula>OR($E88="終了",$E88="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B96:H100">
+    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
       <formula>$E96="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
       <formula>$E96="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
       <formula>OR($E96="終了",$E96="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B104:H108">
-    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
-      <formula>$E104="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
-      <formula>$E104="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
-      <formula>OR($E104="終了",$E104="完了")</formula>
+  <conditionalFormatting sqref="D180:I196">
+    <cfRule type="expression" dxfId="14" priority="4108" stopIfTrue="1">
+      <formula>$C180="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="4109" stopIfTrue="1">
+      <formula>$C180="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="4110" stopIfTrue="1">
+      <formula>OR($C180="終了",$C180="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D188:I204">
-    <cfRule type="expression" dxfId="17" priority="4108" stopIfTrue="1">
-      <formula>$C188="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="4109" stopIfTrue="1">
-      <formula>$C188="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="4110" stopIfTrue="1">
-      <formula>OR($C188="終了",$C188="完了")</formula>
+  <conditionalFormatting sqref="J180:J195">
+    <cfRule type="expression" dxfId="11" priority="4117" stopIfTrue="1">
+      <formula>$C181="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="4118" stopIfTrue="1">
+      <formula>$C181="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="4119" stopIfTrue="1">
+      <formula>OR($C181="終了",$C181="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J188:J203">
-    <cfRule type="expression" dxfId="14" priority="4117" stopIfTrue="1">
-      <formula>$C189="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="4118" stopIfTrue="1">
-      <formula>$C189="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="4119" stopIfTrue="1">
-      <formula>OR($C189="終了",$C189="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K188:L202">
-    <cfRule type="expression" dxfId="11" priority="4126" stopIfTrue="1">
-      <formula>$C190="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="4127" stopIfTrue="1">
-      <formula>$C190="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4128" stopIfTrue="1">
-      <formula>OR($C190="終了",$C190="完了")</formula>
+  <conditionalFormatting sqref="K180:L194">
+    <cfRule type="expression" dxfId="8" priority="4126" stopIfTrue="1">
+      <formula>$C182="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="4127" stopIfTrue="1">
+      <formula>$C182="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4128" stopIfTrue="1">
+      <formula>OR($C182="終了",$C182="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -40278,13 +40205,13 @@
   <autoFilter ref="B1:K51"/>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="A2:K51">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>$D2="要望"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$D2="確認済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$D2="対応"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Godlibrary/BackLog.xlsx
+++ b/Godlibrary/BackLog.xlsx
@@ -4218,6 +4218,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4225,12 +4231,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -12744,6 +12744,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -12857,6 +12858,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -13041,6 +13043,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -18946,7 +18949,7 @@
       <c r="C1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="104" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="96" t="s">
@@ -18970,8 +18973,8 @@
       <c r="K1" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="105"/>
-      <c r="M1" s="106"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="103"/>
       <c r="N1" s="71"/>
       <c r="O1" s="71"/>
       <c r="P1" s="71"/>
@@ -18986,7 +18989,7 @@
       <c r="A2" s="96"/>
       <c r="B2" s="97"/>
       <c r="C2" s="97"/>
-      <c r="D2" s="103"/>
+      <c r="D2" s="105"/>
       <c r="E2" s="96"/>
       <c r="F2" s="99"/>
       <c r="G2" s="99"/>
@@ -19007,7 +19010,7 @@
       <c r="A3" s="96"/>
       <c r="B3" s="97"/>
       <c r="C3" s="97"/>
-      <c r="D3" s="103"/>
+      <c r="D3" s="105"/>
       <c r="E3" s="96"/>
       <c r="F3" s="99"/>
       <c r="G3" s="99"/>
@@ -19031,7 +19034,7 @@
       <c r="A4" s="96"/>
       <c r="B4" s="97"/>
       <c r="C4" s="98"/>
-      <c r="D4" s="104"/>
+      <c r="D4" s="106"/>
       <c r="E4" s="96"/>
       <c r="F4" s="99"/>
       <c r="G4" s="99"/>
@@ -20782,17 +20785,17 @@
   </sheetData>
   <autoFilter ref="C1:D123"/>
   <mergeCells count="11">
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:M1"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:D4"/>
     <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D43:D65414">
@@ -21902,7 +21905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
@@ -21942,7 +21945,7 @@
       <c r="C1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="104" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="96" t="s">
@@ -21966,13 +21969,13 @@
       <c r="K1" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="106"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="103"/>
       <c r="S1" s="71"/>
       <c r="T1" s="71"/>
       <c r="U1" s="71"/>
@@ -21983,7 +21986,7 @@
       <c r="A2" s="96"/>
       <c r="B2" s="97"/>
       <c r="C2" s="97"/>
-      <c r="D2" s="103"/>
+      <c r="D2" s="105"/>
       <c r="E2" s="96"/>
       <c r="F2" s="99"/>
       <c r="G2" s="99"/>
@@ -22019,7 +22022,7 @@
       <c r="A3" s="96"/>
       <c r="B3" s="97"/>
       <c r="C3" s="97"/>
-      <c r="D3" s="103"/>
+      <c r="D3" s="105"/>
       <c r="E3" s="96"/>
       <c r="F3" s="99"/>
       <c r="G3" s="99"/>
@@ -22063,7 +22066,7 @@
       <c r="A4" s="96"/>
       <c r="B4" s="97"/>
       <c r="C4" s="98"/>
-      <c r="D4" s="104"/>
+      <c r="D4" s="106"/>
       <c r="E4" s="96"/>
       <c r="F4" s="99"/>
       <c r="G4" s="99"/>
@@ -25551,7 +25554,7 @@
       <c r="C1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="104" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="96" t="s">
@@ -25591,7 +25594,7 @@
       <c r="A2" s="96"/>
       <c r="B2" s="97"/>
       <c r="C2" s="97"/>
-      <c r="D2" s="103"/>
+      <c r="D2" s="105"/>
       <c r="E2" s="96"/>
       <c r="F2" s="99"/>
       <c r="G2" s="99"/>
@@ -25624,7 +25627,7 @@
       <c r="A3" s="96"/>
       <c r="B3" s="97"/>
       <c r="C3" s="97"/>
-      <c r="D3" s="103"/>
+      <c r="D3" s="105"/>
       <c r="E3" s="96"/>
       <c r="F3" s="99"/>
       <c r="G3" s="99"/>
@@ -25664,7 +25667,7 @@
       <c r="A4" s="96"/>
       <c r="B4" s="97"/>
       <c r="C4" s="98"/>
-      <c r="D4" s="104"/>
+      <c r="D4" s="106"/>
       <c r="E4" s="96"/>
       <c r="F4" s="99"/>
       <c r="G4" s="99"/>
@@ -25693,7 +25696,7 @@
       </c>
       <c r="P4" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="21">
         <f t="shared" si="1"/>
@@ -27550,18 +27553,18 @@
       </c>
       <c r="U43" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="V43" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="W43" s="14">
         <v>0</v>
       </c>
       <c r="X43" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -30077,20 +30080,24 @@
         <v>77</v>
       </c>
       <c r="E100" s="12" t="str">
-        <f t="shared" si="14"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>作業中</v>
       </c>
       <c r="F100" s="4">
         <v>43096</v>
       </c>
-      <c r="G100" s="4"/>
+      <c r="G100" s="4">
+        <v>43126</v>
+      </c>
       <c r="H100" s="19">
         <v>3</v>
       </c>
-      <c r="I100" s="19"/>
+      <c r="I100" s="19">
+        <v>2</v>
+      </c>
       <c r="J100" s="12">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K100" s="22">
         <v>3</v>
@@ -30107,7 +30114,9 @@
       <c r="O100" s="22">
         <v>3</v>
       </c>
-      <c r="P100" s="22"/>
+      <c r="P100" s="22">
+        <v>1</v>
+      </c>
       <c r="Q100" s="22"/>
     </row>
     <row r="101" spans="1:17">
@@ -33123,17 +33132,17 @@
   </sheetData>
   <autoFilter ref="C1:D49"/>
   <mergeCells count="11">
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:Q1"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:D4"/>
     <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D196:D65363 C179:C195">

--- a/Godlibrary/BackLog.xlsx
+++ b/Godlibrary/BackLog.xlsx
@@ -656,7 +656,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="356">
   <si>
     <t>担当者</t>
   </si>
@@ -1863,10 +1863,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>未着手</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>編成:カーソル位置の修正</t>
     <rPh sb="0" eb="2">
       <t>ヘンセイ</t>
@@ -3466,6 +3462,121 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>タイトル背景修正</t>
+    <rPh sb="4" eb="6">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>チュートリアルマップ作成</t>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>遠藤</t>
+    <rPh sb="0" eb="2">
+      <t>エンドウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アイテム交換実装</t>
+    <rPh sb="4" eb="6">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>敵が武器を持つようにする</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>齋藤</t>
+    <rPh sb="0" eb="2">
+      <t>サイトウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>土橋</t>
+    <rPh sb="0" eb="2">
+      <t>ドバシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アイテム渡す実装</t>
+    <rPh sb="4" eb="5">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>準備画面アイテム渡す</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>編成画面背景画像</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンセイガメン</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ハイケイガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>中東</t>
+    <rPh sb="0" eb="2">
+      <t>ナカヒガシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ナレーション背景画像</t>
+    <rPh sb="6" eb="10">
+      <t>ハイケイガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>水沼</t>
+    <rPh sb="0" eb="2">
+      <t>ミズヌマ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -4218,12 +4329,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4231,6 +4336,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4243,7 +4354,7 @@
     <cellStyle name="標準_チーム編成_スプリントバックログ（第４）" xfId="2"/>
     <cellStyle name="標準_バグシート" xfId="3"/>
   </cellStyles>
-  <dxfs count="735">
+  <dxfs count="729">
     <dxf>
       <font>
         <condense val="0"/>
@@ -4488,27 +4599,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="55"/>
       </font>
     </dxf>
@@ -4588,27 +4678,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -12744,7 +12813,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -12858,7 +12926,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -13043,7 +13110,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -18845,57 +18911,57 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D105:D65536">
-    <cfRule type="expression" dxfId="734" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="728" priority="1" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="733" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="727" priority="2" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="732" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="726" priority="3" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD104">
-    <cfRule type="expression" dxfId="731" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="725" priority="4" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="730" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="724" priority="5" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="729" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="723" priority="6" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="728" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="722" priority="7" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="727" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="721" priority="8" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="726" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="720" priority="9" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="725" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="719" priority="10" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="724" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="718" priority="11" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="723" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="717" priority="12" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:P65536">
-    <cfRule type="expression" dxfId="722" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="716" priority="13" stopIfTrue="1">
       <formula>$D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="721" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="715" priority="14" stopIfTrue="1">
       <formula>$D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="720" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="714" priority="15" stopIfTrue="1">
       <formula>OR($D105="終了",$D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18949,7 +19015,7 @@
       <c r="C1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="102" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="96" t="s">
@@ -18973,8 +19039,8 @@
       <c r="K1" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="102"/>
-      <c r="M1" s="103"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="106"/>
       <c r="N1" s="71"/>
       <c r="O1" s="71"/>
       <c r="P1" s="71"/>
@@ -18989,7 +19055,7 @@
       <c r="A2" s="96"/>
       <c r="B2" s="97"/>
       <c r="C2" s="97"/>
-      <c r="D2" s="105"/>
+      <c r="D2" s="103"/>
       <c r="E2" s="96"/>
       <c r="F2" s="99"/>
       <c r="G2" s="99"/>
@@ -19010,7 +19076,7 @@
       <c r="A3" s="96"/>
       <c r="B3" s="97"/>
       <c r="C3" s="97"/>
-      <c r="D3" s="105"/>
+      <c r="D3" s="103"/>
       <c r="E3" s="96"/>
       <c r="F3" s="99"/>
       <c r="G3" s="99"/>
@@ -19034,7 +19100,7 @@
       <c r="A4" s="96"/>
       <c r="B4" s="97"/>
       <c r="C4" s="98"/>
-      <c r="D4" s="106"/>
+      <c r="D4" s="104"/>
       <c r="E4" s="96"/>
       <c r="F4" s="99"/>
       <c r="G4" s="99"/>
@@ -19618,7 +19684,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>61</v>
@@ -19766,10 +19832,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>192</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>193</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>101</v>
@@ -19809,13 +19875,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>210</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>211</v>
       </c>
       <c r="E26" s="12" t="str">
         <f ca="1">IF(ISBLANK($B26),"",IF(ISBLANK($G26),"未着手",IF($J26=0,"完了","作業中")))</f>
@@ -20280,10 +20346,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>77</v>
@@ -20339,13 +20405,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C39" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D39" s="18" t="s">
         <v>197</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>198</v>
       </c>
       <c r="E39" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20404,13 +20470,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C40" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="C40" s="18" t="s">
-        <v>197</v>
-      </c>
       <c r="D40" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E40" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -20469,7 +20535,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>47</v>
@@ -20534,7 +20600,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>47</v>
@@ -20785,874 +20851,874 @@
   </sheetData>
   <autoFilter ref="C1:D123"/>
   <mergeCells count="11">
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:M1"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:D4"/>
     <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D43:D65414">
-    <cfRule type="expression" dxfId="719" priority="307" stopIfTrue="1">
+    <cfRule type="expression" dxfId="713" priority="307" stopIfTrue="1">
       <formula>D43="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="718" priority="308" stopIfTrue="1">
+    <cfRule type="expression" dxfId="712" priority="308" stopIfTrue="1">
       <formula>D43="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="717" priority="309" stopIfTrue="1">
+    <cfRule type="expression" dxfId="711" priority="309" stopIfTrue="1">
       <formula>OR(D43="終了",D43="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO5:XFD6">
-    <cfRule type="expression" dxfId="716" priority="310" stopIfTrue="1">
+    <cfRule type="expression" dxfId="710" priority="310" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="715" priority="311" stopIfTrue="1">
+    <cfRule type="expression" dxfId="709" priority="311" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="714" priority="312" stopIfTrue="1">
+    <cfRule type="expression" dxfId="708" priority="312" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:B65414">
-    <cfRule type="expression" dxfId="713" priority="313" stopIfTrue="1">
+    <cfRule type="expression" dxfId="707" priority="313" stopIfTrue="1">
       <formula>D43="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="712" priority="314" stopIfTrue="1">
+    <cfRule type="expression" dxfId="706" priority="314" stopIfTrue="1">
       <formula>D43="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="711" priority="315" stopIfTrue="1">
+    <cfRule type="expression" dxfId="705" priority="315" stopIfTrue="1">
       <formula>OR(D43="終了",D43="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C65414">
-    <cfRule type="expression" dxfId="710" priority="316" stopIfTrue="1">
+    <cfRule type="expression" dxfId="704" priority="316" stopIfTrue="1">
       <formula>D43="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="709" priority="317" stopIfTrue="1">
+    <cfRule type="expression" dxfId="703" priority="317" stopIfTrue="1">
       <formula>D43="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="708" priority="318" stopIfTrue="1">
+    <cfRule type="expression" dxfId="702" priority="318" stopIfTrue="1">
       <formula>OR(D43="終了",D43="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:M65414">
-    <cfRule type="expression" dxfId="707" priority="319" stopIfTrue="1">
+    <cfRule type="expression" dxfId="701" priority="319" stopIfTrue="1">
       <formula>$D43="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="706" priority="320" stopIfTrue="1">
+    <cfRule type="expression" dxfId="700" priority="320" stopIfTrue="1">
       <formula>$D43="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="705" priority="321" stopIfTrue="1">
+    <cfRule type="expression" dxfId="699" priority="321" stopIfTrue="1">
       <formula>OR($D43="終了",$D43="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I13 A5:IN6 B33:C33 E33 C7:M7 B14:I14 C15:I15 K20 B8:I9 K8:K15 K16:M19 B16:I20 J8:J20 B27:I31 B34:I40 B21:M26 F41:I42 L8:M14 B10:D11 F10:I11 E10:E13 B32:E32 F32:I33 A7:A42 J27:M42">
-    <cfRule type="expression" dxfId="704" priority="187" stopIfTrue="1">
+    <cfRule type="expression" dxfId="698" priority="187" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="703" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="697" priority="188" stopIfTrue="1">
       <formula>$E5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="702" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="696" priority="189" stopIfTrue="1">
       <formula>OR($E5="終了",$E5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7:IN7">
-    <cfRule type="expression" dxfId="701" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="695" priority="193" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="700" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="694" priority="194" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="699" priority="195" stopIfTrue="1">
+    <cfRule type="expression" dxfId="693" priority="195" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:IN11">
-    <cfRule type="expression" dxfId="698" priority="199" stopIfTrue="1">
+    <cfRule type="expression" dxfId="692" priority="199" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="697" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="691" priority="200" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="696" priority="201" stopIfTrue="1">
+    <cfRule type="expression" dxfId="690" priority="201" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:IN19">
-    <cfRule type="expression" dxfId="695" priority="205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="689" priority="205" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="694" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="688" priority="206" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="693" priority="207" stopIfTrue="1">
+    <cfRule type="expression" dxfId="687" priority="207" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25:N26 AA25:IN26">
-    <cfRule type="expression" dxfId="692" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="686" priority="217" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="691" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="685" priority="218" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="690" priority="219" stopIfTrue="1">
+    <cfRule type="expression" dxfId="684" priority="219" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29:IN30 N28 AA28:IN28">
-    <cfRule type="expression" dxfId="689" priority="220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="683" priority="220" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="688" priority="221" stopIfTrue="1">
+    <cfRule type="expression" dxfId="682" priority="221" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="687" priority="222" stopIfTrue="1">
+    <cfRule type="expression" dxfId="681" priority="222" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32:IN32">
-    <cfRule type="expression" dxfId="686" priority="229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="680" priority="229" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="685" priority="230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="679" priority="230" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="684" priority="231" stopIfTrue="1">
+    <cfRule type="expression" dxfId="678" priority="231" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N65:V65 AC65:IN66 S66:T66">
-    <cfRule type="expression" dxfId="683" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="677" priority="238" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="682" priority="239" stopIfTrue="1">
+    <cfRule type="expression" dxfId="676" priority="239" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="681" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="675" priority="240" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N35:N40 Y39:IN40 S35:IH37 U38:IH38">
-    <cfRule type="expression" dxfId="680" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="674" priority="241" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="679" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="673" priority="242" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="678" priority="243" stopIfTrue="1">
+    <cfRule type="expression" dxfId="672" priority="243" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N42:N47 U42:IN47 N48:IN49">
-    <cfRule type="expression" dxfId="677" priority="244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="671" priority="244" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="676" priority="245" stopIfTrue="1">
+    <cfRule type="expression" dxfId="670" priority="245" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="675" priority="246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="669" priority="246" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41 U41:IN41">
-    <cfRule type="expression" dxfId="674" priority="247" stopIfTrue="1">
+    <cfRule type="expression" dxfId="668" priority="247" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="673" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="667" priority="248" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="672" priority="249" stopIfTrue="1">
+    <cfRule type="expression" dxfId="666" priority="249" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50:IN52">
-    <cfRule type="expression" dxfId="671" priority="253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="665" priority="253" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="670" priority="254" stopIfTrue="1">
+    <cfRule type="expression" dxfId="664" priority="254" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="669" priority="255" stopIfTrue="1">
+    <cfRule type="expression" dxfId="663" priority="255" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N62:IN64">
-    <cfRule type="expression" dxfId="668" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="662" priority="265" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="667" priority="266" stopIfTrue="1">
+    <cfRule type="expression" dxfId="661" priority="266" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="666" priority="267" stopIfTrue="1">
+    <cfRule type="expression" dxfId="660" priority="267" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC69:IN69 S69:T69">
-    <cfRule type="expression" dxfId="665" priority="271" stopIfTrue="1">
+    <cfRule type="expression" dxfId="659" priority="271" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="664" priority="272" stopIfTrue="1">
+    <cfRule type="expression" dxfId="658" priority="272" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="663" priority="273" stopIfTrue="1">
+    <cfRule type="expression" dxfId="657" priority="273" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC71:IN71 S71:T71">
-    <cfRule type="expression" dxfId="662" priority="277" stopIfTrue="1">
+    <cfRule type="expression" dxfId="656" priority="277" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="661" priority="278" stopIfTrue="1">
+    <cfRule type="expression" dxfId="655" priority="278" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="660" priority="279" stopIfTrue="1">
+    <cfRule type="expression" dxfId="654" priority="279" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N73:IN73">
-    <cfRule type="expression" dxfId="659" priority="280" stopIfTrue="1">
+    <cfRule type="expression" dxfId="653" priority="280" stopIfTrue="1">
       <formula>$E13="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="658" priority="281" stopIfTrue="1">
+    <cfRule type="expression" dxfId="652" priority="281" stopIfTrue="1">
       <formula>$E13="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="657" priority="282" stopIfTrue="1">
+    <cfRule type="expression" dxfId="651" priority="282" stopIfTrue="1">
       <formula>OR($E13="終了",$E13="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q72:IN72">
-    <cfRule type="expression" dxfId="656" priority="289" stopIfTrue="1">
+    <cfRule type="expression" dxfId="650" priority="289" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="655" priority="290" stopIfTrue="1">
+    <cfRule type="expression" dxfId="649" priority="290" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="654" priority="291" stopIfTrue="1">
+    <cfRule type="expression" dxfId="648" priority="291" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N74:IN76">
-    <cfRule type="expression" dxfId="653" priority="295" stopIfTrue="1">
+    <cfRule type="expression" dxfId="647" priority="295" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="652" priority="296" stopIfTrue="1">
+    <cfRule type="expression" dxfId="646" priority="296" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="651" priority="297" stopIfTrue="1">
+    <cfRule type="expression" dxfId="645" priority="297" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N80:IN80">
-    <cfRule type="expression" dxfId="650" priority="298" stopIfTrue="1">
+    <cfRule type="expression" dxfId="644" priority="298" stopIfTrue="1">
       <formula>$E21="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="649" priority="299" stopIfTrue="1">
+    <cfRule type="expression" dxfId="643" priority="299" stopIfTrue="1">
       <formula>$E21="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="648" priority="300" stopIfTrue="1">
+    <cfRule type="expression" dxfId="642" priority="300" stopIfTrue="1">
       <formula>OR($E21="終了",$E21="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N81:IN83">
-    <cfRule type="expression" dxfId="647" priority="304" stopIfTrue="1">
+    <cfRule type="expression" dxfId="641" priority="304" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="646" priority="305" stopIfTrue="1">
+    <cfRule type="expression" dxfId="640" priority="305" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="645" priority="306" stopIfTrue="1">
+    <cfRule type="expression" dxfId="639" priority="306" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="644" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="638" priority="67" stopIfTrue="1">
       <formula>$E33="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="643" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="637" priority="68" stopIfTrue="1">
       <formula>$E33="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="642" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="636" priority="69" stopIfTrue="1">
       <formula>OR($E33="終了",$E33="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:IN12">
-    <cfRule type="expression" dxfId="641" priority="352" stopIfTrue="1">
+    <cfRule type="expression" dxfId="635" priority="352" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="640" priority="353" stopIfTrue="1">
+    <cfRule type="expression" dxfId="634" priority="353" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="639" priority="354" stopIfTrue="1">
+    <cfRule type="expression" dxfId="633" priority="354" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20:IN20">
-    <cfRule type="expression" dxfId="638" priority="379" stopIfTrue="1">
+    <cfRule type="expression" dxfId="632" priority="379" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="637" priority="380" stopIfTrue="1">
+    <cfRule type="expression" dxfId="631" priority="380" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="636" priority="381" stopIfTrue="1">
+    <cfRule type="expression" dxfId="630" priority="381" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N78:IN78">
-    <cfRule type="expression" dxfId="635" priority="523" stopIfTrue="1">
+    <cfRule type="expression" dxfId="629" priority="523" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="634" priority="524" stopIfTrue="1">
+    <cfRule type="expression" dxfId="628" priority="524" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="633" priority="525" stopIfTrue="1">
+    <cfRule type="expression" dxfId="627" priority="525" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO18:XFD18">
-    <cfRule type="expression" dxfId="632" priority="1510" stopIfTrue="1">
+    <cfRule type="expression" dxfId="626" priority="1510" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="631" priority="1511" stopIfTrue="1">
+    <cfRule type="expression" dxfId="625" priority="1511" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="630" priority="1512" stopIfTrue="1">
+    <cfRule type="expression" dxfId="624" priority="1512" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31:IN31">
-    <cfRule type="expression" dxfId="629" priority="1534" stopIfTrue="1">
+    <cfRule type="expression" dxfId="623" priority="1534" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="628" priority="1535" stopIfTrue="1">
+    <cfRule type="expression" dxfId="622" priority="1535" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="627" priority="1536" stopIfTrue="1">
+    <cfRule type="expression" dxfId="621" priority="1536" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N53:IN54">
-    <cfRule type="expression" dxfId="626" priority="1570" stopIfTrue="1">
+    <cfRule type="expression" dxfId="620" priority="1570" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="625" priority="1571" stopIfTrue="1">
+    <cfRule type="expression" dxfId="619" priority="1571" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="624" priority="1572" stopIfTrue="1">
+    <cfRule type="expression" dxfId="618" priority="1572" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO23:XFD26 IO13:XFD14">
-    <cfRule type="expression" dxfId="623" priority="1618" stopIfTrue="1">
+    <cfRule type="expression" dxfId="617" priority="1618" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="622" priority="1619" stopIfTrue="1">
+    <cfRule type="expression" dxfId="616" priority="1619" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="621" priority="1620" stopIfTrue="1">
+    <cfRule type="expression" dxfId="615" priority="1620" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO32:XFD32">
-    <cfRule type="expression" dxfId="620" priority="1801" stopIfTrue="1">
+    <cfRule type="expression" dxfId="614" priority="1801" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="619" priority="1802" stopIfTrue="1">
+    <cfRule type="expression" dxfId="613" priority="1802" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="618" priority="1803" stopIfTrue="1">
+    <cfRule type="expression" dxfId="612" priority="1803" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N60:IN60">
-    <cfRule type="expression" dxfId="617" priority="1816" stopIfTrue="1">
+    <cfRule type="expression" dxfId="611" priority="1816" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="616" priority="1817" stopIfTrue="1">
+    <cfRule type="expression" dxfId="610" priority="1817" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="615" priority="1818" stopIfTrue="1">
+    <cfRule type="expression" dxfId="609" priority="1818" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO46:XFD48">
-    <cfRule type="expression" dxfId="614" priority="1870" stopIfTrue="1">
+    <cfRule type="expression" dxfId="608" priority="1870" stopIfTrue="1">
       <formula>$D16="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="613" priority="1871" stopIfTrue="1">
+    <cfRule type="expression" dxfId="607" priority="1871" stopIfTrue="1">
       <formula>$D16="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="612" priority="1872" stopIfTrue="1">
+    <cfRule type="expression" dxfId="606" priority="1872" stopIfTrue="1">
       <formula>OR($D16="終了",$D16="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO77:XFD77 IO72:XFD72 IO20:XFD20">
-    <cfRule type="expression" dxfId="611" priority="1930" stopIfTrue="1">
+    <cfRule type="expression" dxfId="605" priority="1930" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="610" priority="1931" stopIfTrue="1">
+    <cfRule type="expression" dxfId="604" priority="1931" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="609" priority="1932" stopIfTrue="1">
+    <cfRule type="expression" dxfId="603" priority="1932" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:IN21 AA22:IN22 N22">
-    <cfRule type="expression" dxfId="608" priority="2350" stopIfTrue="1">
+    <cfRule type="expression" dxfId="602" priority="2350" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="607" priority="2351" stopIfTrue="1">
+    <cfRule type="expression" dxfId="601" priority="2351" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="606" priority="2352" stopIfTrue="1">
+    <cfRule type="expression" dxfId="600" priority="2352" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S67:T67 AC67:IN67 N61:IN61">
-    <cfRule type="expression" dxfId="605" priority="2446" stopIfTrue="1">
+    <cfRule type="expression" dxfId="599" priority="2446" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="604" priority="2447" stopIfTrue="1">
+    <cfRule type="expression" dxfId="598" priority="2447" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="603" priority="2448" stopIfTrue="1">
+    <cfRule type="expression" dxfId="597" priority="2448" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="II34:XFD34">
-    <cfRule type="expression" dxfId="602" priority="2470" stopIfTrue="1">
+    <cfRule type="expression" dxfId="596" priority="2470" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="601" priority="2471" stopIfTrue="1">
+    <cfRule type="expression" dxfId="595" priority="2471" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="600" priority="2472" stopIfTrue="1">
+    <cfRule type="expression" dxfId="594" priority="2472" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO42:XFD44">
-    <cfRule type="expression" dxfId="599" priority="2518" stopIfTrue="1">
+    <cfRule type="expression" dxfId="593" priority="2518" stopIfTrue="1">
       <formula>$D11="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="598" priority="2519" stopIfTrue="1">
+    <cfRule type="expression" dxfId="592" priority="2519" stopIfTrue="1">
       <formula>$D11="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="597" priority="2520" stopIfTrue="1">
+    <cfRule type="expression" dxfId="591" priority="2520" stopIfTrue="1">
       <formula>OR($D11="終了",$D11="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO41:XFD41">
-    <cfRule type="expression" dxfId="596" priority="2521" stopIfTrue="1">
+    <cfRule type="expression" dxfId="590" priority="2521" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="595" priority="2522" stopIfTrue="1">
+    <cfRule type="expression" dxfId="589" priority="2522" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="594" priority="2523" stopIfTrue="1">
+    <cfRule type="expression" dxfId="588" priority="2523" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:D13 F12:H13">
-    <cfRule type="expression" dxfId="593" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="587" priority="13" stopIfTrue="1">
       <formula>$E12="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="592" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="586" priority="14" stopIfTrue="1">
       <formula>$E12="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="591" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="585" priority="15" stopIfTrue="1">
       <formula>OR($E12="終了",$E12="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N55:IN59">
-    <cfRule type="expression" dxfId="590" priority="2701" stopIfTrue="1">
+    <cfRule type="expression" dxfId="584" priority="2701" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="589" priority="2702" stopIfTrue="1">
+    <cfRule type="expression" dxfId="583" priority="2702" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="588" priority="2703" stopIfTrue="1">
+    <cfRule type="expression" dxfId="582" priority="2703" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO27:XFD31">
-    <cfRule type="expression" dxfId="587" priority="2704" stopIfTrue="1">
+    <cfRule type="expression" dxfId="581" priority="2704" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="586" priority="2705" stopIfTrue="1">
+    <cfRule type="expression" dxfId="580" priority="2705" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="585" priority="2706" stopIfTrue="1">
+    <cfRule type="expression" dxfId="579" priority="2706" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO33:XFD33">
-    <cfRule type="expression" dxfId="584" priority="2746" stopIfTrue="1">
+    <cfRule type="expression" dxfId="578" priority="2746" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="583" priority="2747" stopIfTrue="1">
+    <cfRule type="expression" dxfId="577" priority="2747" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="582" priority="2748" stopIfTrue="1">
+    <cfRule type="expression" dxfId="576" priority="2748" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC70:IN70 S70:T70">
-    <cfRule type="expression" dxfId="581" priority="2773" stopIfTrue="1">
+    <cfRule type="expression" dxfId="575" priority="2773" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="580" priority="2774" stopIfTrue="1">
+    <cfRule type="expression" dxfId="574" priority="2774" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="579" priority="2775" stopIfTrue="1">
+    <cfRule type="expression" dxfId="573" priority="2775" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="II35:XFD38">
-    <cfRule type="expression" dxfId="578" priority="2797" stopIfTrue="1">
+    <cfRule type="expression" dxfId="572" priority="2797" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="577" priority="2798" stopIfTrue="1">
+    <cfRule type="expression" dxfId="571" priority="2798" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="576" priority="2799" stopIfTrue="1">
+    <cfRule type="expression" dxfId="570" priority="2799" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO39:XFD39">
-    <cfRule type="expression" dxfId="575" priority="2899" stopIfTrue="1">
+    <cfRule type="expression" dxfId="569" priority="2899" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="574" priority="2900" stopIfTrue="1">
+    <cfRule type="expression" dxfId="568" priority="2900" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="573" priority="2901" stopIfTrue="1">
+    <cfRule type="expression" dxfId="567" priority="2901" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S68:T68 AC68:IN68">
-    <cfRule type="expression" dxfId="572" priority="2929" stopIfTrue="1">
+    <cfRule type="expression" dxfId="566" priority="2929" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="571" priority="2930" stopIfTrue="1">
+    <cfRule type="expression" dxfId="565" priority="2930" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="570" priority="2931" stopIfTrue="1">
+    <cfRule type="expression" dxfId="564" priority="2931" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO40:XFD40 IO54:XFD54">
-    <cfRule type="expression" dxfId="569" priority="2938" stopIfTrue="1">
+    <cfRule type="expression" dxfId="563" priority="2938" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="568" priority="2939" stopIfTrue="1">
+    <cfRule type="expression" dxfId="562" priority="2939" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="567" priority="2940" stopIfTrue="1">
+    <cfRule type="expression" dxfId="561" priority="2940" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO55:XFD55 IO57:XFD59">
-    <cfRule type="expression" dxfId="566" priority="2980" stopIfTrue="1">
+    <cfRule type="expression" dxfId="560" priority="2980" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="565" priority="2981" stopIfTrue="1">
+    <cfRule type="expression" dxfId="559" priority="2981" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="564" priority="2982" stopIfTrue="1">
+    <cfRule type="expression" dxfId="558" priority="2982" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO65:XFD65">
-    <cfRule type="expression" dxfId="563" priority="3010" stopIfTrue="1">
+    <cfRule type="expression" dxfId="557" priority="3010" stopIfTrue="1">
       <formula>$D23="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="562" priority="3011" stopIfTrue="1">
+    <cfRule type="expression" dxfId="556" priority="3011" stopIfTrue="1">
       <formula>$D23="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="561" priority="3012" stopIfTrue="1">
+    <cfRule type="expression" dxfId="555" priority="3012" stopIfTrue="1">
       <formula>OR($D23="終了",$D23="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO61:XFD61">
-    <cfRule type="expression" dxfId="560" priority="3013" stopIfTrue="1">
+    <cfRule type="expression" dxfId="554" priority="3013" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="559" priority="3014" stopIfTrue="1">
+    <cfRule type="expression" dxfId="553" priority="3014" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="558" priority="3015" stopIfTrue="1">
+    <cfRule type="expression" dxfId="552" priority="3015" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="557" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="551" priority="10" stopIfTrue="1">
       <formula>$E7="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="556" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="550" priority="11" stopIfTrue="1">
       <formula>$E7="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="555" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="549" priority="12" stopIfTrue="1">
       <formula>OR($E7="終了",$E7="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34:IH34">
-    <cfRule type="expression" dxfId="554" priority="3127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="548" priority="3127" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="553" priority="3128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="547" priority="3128" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="552" priority="3129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="546" priority="3129" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO21:XFD21">
-    <cfRule type="expression" dxfId="551" priority="3142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="545" priority="3142" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="550" priority="3143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="544" priority="3143" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="549" priority="3144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="543" priority="3144" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO22:XFD22">
-    <cfRule type="expression" dxfId="548" priority="3145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="542" priority="3145" stopIfTrue="1">
       <formula>$D10="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="547" priority="3146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="541" priority="3146" stopIfTrue="1">
       <formula>$D10="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="546" priority="3147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="540" priority="3147" stopIfTrue="1">
       <formula>OR($D10="終了",$D10="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20:M20 L15:M15 N8:IN9">
-    <cfRule type="expression" dxfId="545" priority="3163" stopIfTrue="1">
+    <cfRule type="expression" dxfId="539" priority="3163" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="544" priority="3164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="538" priority="3164" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="543" priority="3165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="537" priority="3165" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N77:IN77">
-    <cfRule type="expression" dxfId="542" priority="3181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="536" priority="3181" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="541" priority="3182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="535" priority="3182" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="540" priority="3183" stopIfTrue="1">
+    <cfRule type="expression" dxfId="534" priority="3183" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO60:XFD60">
-    <cfRule type="expression" dxfId="539" priority="3184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="533" priority="3184" stopIfTrue="1">
       <formula>$D14="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="538" priority="3185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="532" priority="3185" stopIfTrue="1">
       <formula>$D14="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="537" priority="3186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="531" priority="3186" stopIfTrue="1">
       <formula>OR($D14="終了",$D14="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO45:XFD45">
-    <cfRule type="expression" dxfId="536" priority="3190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="530" priority="3190" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="535" priority="3191" stopIfTrue="1">
+    <cfRule type="expression" dxfId="529" priority="3191" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="534" priority="3192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="528" priority="3192" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO50:XFD50">
-    <cfRule type="expression" dxfId="533" priority="3259" stopIfTrue="1">
+    <cfRule type="expression" dxfId="527" priority="3259" stopIfTrue="1">
       <formula>$D21="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="3260" stopIfTrue="1">
+    <cfRule type="expression" dxfId="526" priority="3260" stopIfTrue="1">
       <formula>$D21="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="531" priority="3261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="525" priority="3261" stopIfTrue="1">
       <formula>OR($D21="終了",$D21="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="530" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="524" priority="4" stopIfTrue="1">
       <formula>$E15="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="529" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="523" priority="5" stopIfTrue="1">
       <formula>$E15="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="528" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="522" priority="6" stopIfTrue="1">
       <formula>OR($E15="終了",$E15="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO51:XFD52">
-    <cfRule type="expression" dxfId="527" priority="3307" stopIfTrue="1">
+    <cfRule type="expression" dxfId="521" priority="3307" stopIfTrue="1">
       <formula>$D8="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="526" priority="3308" stopIfTrue="1">
+    <cfRule type="expression" dxfId="520" priority="3308" stopIfTrue="1">
       <formula>$D8="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="525" priority="3309" stopIfTrue="1">
+    <cfRule type="expression" dxfId="519" priority="3309" stopIfTrue="1">
       <formula>OR($D8="終了",$D8="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO64:XFD64">
-    <cfRule type="expression" dxfId="524" priority="3352" stopIfTrue="1">
+    <cfRule type="expression" dxfId="518" priority="3352" stopIfTrue="1">
       <formula>$D22="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="523" priority="3353" stopIfTrue="1">
+    <cfRule type="expression" dxfId="517" priority="3353" stopIfTrue="1">
       <formula>$D22="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="522" priority="3354" stopIfTrue="1">
+    <cfRule type="expression" dxfId="516" priority="3354" stopIfTrue="1">
       <formula>OR($D22="終了",$D22="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO76:XFD76">
-    <cfRule type="expression" dxfId="521" priority="3406" stopIfTrue="1">
+    <cfRule type="expression" dxfId="515" priority="3406" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="3407" stopIfTrue="1">
+    <cfRule type="expression" dxfId="514" priority="3407" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="519" priority="3408" stopIfTrue="1">
+    <cfRule type="expression" dxfId="513" priority="3408" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO56:XFD56">
-    <cfRule type="expression" dxfId="518" priority="3445" stopIfTrue="1">
+    <cfRule type="expression" dxfId="512" priority="3445" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="517" priority="3446" stopIfTrue="1">
+    <cfRule type="expression" dxfId="511" priority="3446" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="516" priority="3447" stopIfTrue="1">
+    <cfRule type="expression" dxfId="510" priority="3447" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO73:XFD75">
-    <cfRule type="expression" dxfId="515" priority="3478" stopIfTrue="1">
+    <cfRule type="expression" dxfId="509" priority="3478" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="514" priority="3479" stopIfTrue="1">
+    <cfRule type="expression" dxfId="508" priority="3479" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="513" priority="3480" stopIfTrue="1">
+    <cfRule type="expression" dxfId="507" priority="3480" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO66:XFD71">
-    <cfRule type="expression" dxfId="512" priority="3505" stopIfTrue="1">
+    <cfRule type="expression" dxfId="506" priority="3505" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="511" priority="3506" stopIfTrue="1">
+    <cfRule type="expression" dxfId="505" priority="3506" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="510" priority="3507" stopIfTrue="1">
+    <cfRule type="expression" dxfId="504" priority="3507" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27 AA27:IN27">
-    <cfRule type="expression" dxfId="509" priority="3637" stopIfTrue="1">
+    <cfRule type="expression" dxfId="503" priority="3637" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="508" priority="3638" stopIfTrue="1">
+    <cfRule type="expression" dxfId="502" priority="3638" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="507" priority="3639" stopIfTrue="1">
+    <cfRule type="expression" dxfId="501" priority="3639" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13:IN13">
-    <cfRule type="expression" dxfId="506" priority="3643" stopIfTrue="1">
+    <cfRule type="expression" dxfId="500" priority="3643" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="505" priority="3644" stopIfTrue="1">
+    <cfRule type="expression" dxfId="499" priority="3644" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="504" priority="3645" stopIfTrue="1">
+    <cfRule type="expression" dxfId="498" priority="3645" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO7:XFD11">
-    <cfRule type="expression" dxfId="503" priority="3658" stopIfTrue="1">
+    <cfRule type="expression" dxfId="497" priority="3658" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="502" priority="3659" stopIfTrue="1">
+    <cfRule type="expression" dxfId="496" priority="3659" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="501" priority="3660" stopIfTrue="1">
+    <cfRule type="expression" dxfId="495" priority="3660" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA23:IN24 N23:N24">
-    <cfRule type="expression" dxfId="500" priority="3661" stopIfTrue="1">
+    <cfRule type="expression" dxfId="494" priority="3661" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="499" priority="3662" stopIfTrue="1">
+    <cfRule type="expression" dxfId="493" priority="3662" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="3663" stopIfTrue="1">
+    <cfRule type="expression" dxfId="492" priority="3663" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO15:XFD17">
-    <cfRule type="expression" dxfId="497" priority="3667" stopIfTrue="1">
+    <cfRule type="expression" dxfId="491" priority="3667" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="3668" stopIfTrue="1">
+    <cfRule type="expression" dxfId="490" priority="3668" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="495" priority="3669" stopIfTrue="1">
+    <cfRule type="expression" dxfId="489" priority="3669" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO62:XFD62">
-    <cfRule type="expression" dxfId="494" priority="3706" stopIfTrue="1">
+    <cfRule type="expression" dxfId="488" priority="3706" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="493" priority="3707" stopIfTrue="1">
+    <cfRule type="expression" dxfId="487" priority="3707" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="492" priority="3708" stopIfTrue="1">
+    <cfRule type="expression" dxfId="486" priority="3708" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO63:XFD63">
-    <cfRule type="expression" dxfId="491" priority="3709" stopIfTrue="1">
+    <cfRule type="expression" dxfId="485" priority="3709" stopIfTrue="1">
       <formula>$D19="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="3710" stopIfTrue="1">
+    <cfRule type="expression" dxfId="484" priority="3710" stopIfTrue="1">
       <formula>$D19="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="489" priority="3711" stopIfTrue="1">
+    <cfRule type="expression" dxfId="483" priority="3711" stopIfTrue="1">
       <formula>OR($D19="終了",$D19="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:E42">
-    <cfRule type="expression" dxfId="488" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="482" priority="1" stopIfTrue="1">
       <formula>$E41="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="487" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="481" priority="2" stopIfTrue="1">
       <formula>$E41="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="480" priority="3" stopIfTrue="1">
       <formula>OR($E41="終了",$E41="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21945,7 +22011,7 @@
       <c r="C1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="102" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="96" t="s">
@@ -21969,13 +22035,13 @@
       <c r="K1" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="103"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="106"/>
       <c r="S1" s="71"/>
       <c r="T1" s="71"/>
       <c r="U1" s="71"/>
@@ -21986,7 +22052,7 @@
       <c r="A2" s="96"/>
       <c r="B2" s="97"/>
       <c r="C2" s="97"/>
-      <c r="D2" s="105"/>
+      <c r="D2" s="103"/>
       <c r="E2" s="96"/>
       <c r="F2" s="99"/>
       <c r="G2" s="99"/>
@@ -22022,7 +22088,7 @@
       <c r="A3" s="96"/>
       <c r="B3" s="97"/>
       <c r="C3" s="97"/>
-      <c r="D3" s="105"/>
+      <c r="D3" s="103"/>
       <c r="E3" s="96"/>
       <c r="F3" s="99"/>
       <c r="G3" s="99"/>
@@ -22066,7 +22132,7 @@
       <c r="A4" s="96"/>
       <c r="B4" s="97"/>
       <c r="C4" s="98"/>
-      <c r="D4" s="106"/>
+      <c r="D4" s="104"/>
       <c r="E4" s="96"/>
       <c r="F4" s="99"/>
       <c r="G4" s="99"/>
@@ -22229,7 +22295,7 @@
         <v>78</v>
       </c>
       <c r="D8" s="63" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E8" s="12" t="str">
         <f ca="1">IF(ISBLANK($B8),"",IF(ISBLANK($G8),"未着手",IF($J8=0,"完了","作業中")))</f>
@@ -22335,7 +22401,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>61</v>
@@ -22393,7 +22459,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>61</v>
@@ -22451,7 +22517,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -22478,13 +22544,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E14" s="12" t="str">
         <f t="shared" ref="E14:E23" ca="1" si="3">IF(ISBLANK($B14),"",IF(ISBLANK($G14),"未着手",IF($J14=0,"完了","作業中")))</f>
@@ -22536,10 +22602,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>77</v>
@@ -22594,13 +22660,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E16" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -22652,10 +22718,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>77</v>
@@ -22710,13 +22776,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E18" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -22768,10 +22834,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>77</v>
@@ -22826,13 +22892,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E20" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -22884,10 +22950,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>77</v>
@@ -22942,13 +23008,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E22" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -23000,10 +23066,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>77</v>
@@ -23086,7 +23152,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="83" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -23113,10 +23179,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>50</v>
@@ -23171,13 +23237,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E27" s="12" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -23229,10 +23295,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>50</v>
@@ -23287,10 +23353,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>50</v>
@@ -23345,13 +23411,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C30" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="D30" s="18" t="s">
         <v>235</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>236</v>
       </c>
       <c r="E30" s="12" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -23403,13 +23469,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C31" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="D31" s="18" t="s">
         <v>235</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>236</v>
       </c>
       <c r="E31" s="12" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -23489,13 +23555,13 @@
         <v>29</v>
       </c>
       <c r="B33" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="D33" s="18" t="s">
         <v>240</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>241</v>
       </c>
       <c r="E33" s="12" t="str">
         <f ca="1">IF(ISBLANK($B33),"",IF(ISBLANK($G33),"未着手",IF($J33=0,"完了","作業中")))</f>
@@ -23575,7 +23641,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="83" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
@@ -23602,13 +23668,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C36" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="D36" s="18" t="s">
         <v>257</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>258</v>
       </c>
       <c r="E36" s="12" t="str">
         <f t="shared" ref="E36:E47" ca="1" si="6">IF(ISBLANK($B36),"",IF(ISBLANK($G36),"未着手",IF($J36=0,"完了","作業中")))</f>
@@ -23660,13 +23726,13 @@
         <v>33</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E37" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -23734,13 +23800,13 @@
         <v>34</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C38" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="D38" s="18" t="s">
         <v>257</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>258</v>
       </c>
       <c r="E38" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -23814,13 +23880,13 @@
         <v>35</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E39" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -23894,13 +23960,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C40" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="D40" s="18" t="s">
         <v>257</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>258</v>
       </c>
       <c r="E40" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -23974,13 +24040,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E41" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -24054,13 +24120,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C42" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="D42" s="18" t="s">
         <v>257</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>258</v>
       </c>
       <c r="E42" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -24134,13 +24200,13 @@
         <v>39</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E43" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -24214,13 +24280,13 @@
         <v>40</v>
       </c>
       <c r="B44" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="C44" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="D44" s="18" t="s">
         <v>257</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>258</v>
       </c>
       <c r="E44" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -24272,10 +24338,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>48</v>
@@ -24330,10 +24396,10 @@
         <v>42</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>48</v>
@@ -24388,13 +24454,13 @@
         <v>43</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E47" s="12" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -24474,10 +24540,10 @@
         <v>45</v>
       </c>
       <c r="B49" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="C49" s="18" t="s">
         <v>281</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>282</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>67</v>
@@ -24532,13 +24598,13 @@
         <v>46</v>
       </c>
       <c r="B50" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="D50" s="18" t="s">
         <v>283</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>284</v>
       </c>
       <c r="E50" s="12" t="str">
         <f ca="1">IF(ISBLANK($B50),"",IF(ISBLANK($G50),"未着手",IF($J50=0,"完了","作業中")))</f>
@@ -24616,750 +24682,750 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D52:D65288">
-    <cfRule type="expression" dxfId="464" priority="325" stopIfTrue="1">
+    <cfRule type="expression" dxfId="458" priority="325" stopIfTrue="1">
       <formula>D52="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="463" priority="326" stopIfTrue="1">
+    <cfRule type="expression" dxfId="457" priority="326" stopIfTrue="1">
       <formula>D52="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="462" priority="327" stopIfTrue="1">
+    <cfRule type="expression" dxfId="456" priority="327" stopIfTrue="1">
       <formula>OR(D52="終了",D52="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP5:XFD5">
-    <cfRule type="expression" dxfId="461" priority="328" stopIfTrue="1">
+    <cfRule type="expression" dxfId="455" priority="328" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="329" stopIfTrue="1">
+    <cfRule type="expression" dxfId="454" priority="329" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="459" priority="330" stopIfTrue="1">
+    <cfRule type="expression" dxfId="453" priority="330" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B65288">
-    <cfRule type="expression" dxfId="458" priority="331" stopIfTrue="1">
+    <cfRule type="expression" dxfId="452" priority="331" stopIfTrue="1">
       <formula>D52="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="457" priority="332" stopIfTrue="1">
+    <cfRule type="expression" dxfId="451" priority="332" stopIfTrue="1">
       <formula>D52="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="333" stopIfTrue="1">
+    <cfRule type="expression" dxfId="450" priority="333" stopIfTrue="1">
       <formula>OR(D52="終了",D52="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C65288">
-    <cfRule type="expression" dxfId="455" priority="334" stopIfTrue="1">
+    <cfRule type="expression" dxfId="449" priority="334" stopIfTrue="1">
       <formula>D52="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="454" priority="335" stopIfTrue="1">
+    <cfRule type="expression" dxfId="448" priority="335" stopIfTrue="1">
       <formula>D52="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="453" priority="336" stopIfTrue="1">
+    <cfRule type="expression" dxfId="447" priority="336" stopIfTrue="1">
       <formula>OR(D52="終了",D52="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52:H65288">
-    <cfRule type="expression" dxfId="452" priority="337" stopIfTrue="1">
+    <cfRule type="expression" dxfId="446" priority="337" stopIfTrue="1">
       <formula>$D52="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="451" priority="338" stopIfTrue="1">
+    <cfRule type="expression" dxfId="445" priority="338" stopIfTrue="1">
       <formula>$D52="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="339" stopIfTrue="1">
+    <cfRule type="expression" dxfId="444" priority="339" stopIfTrue="1">
       <formula>OR($D52="終了",$D52="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:IO5 G12 A6:R6 K7:R11 F7:I11 B7:D11 B13:D50 F13:I50 K13:R50 J7:J50 E7:E50 A7:A50">
-    <cfRule type="expression" dxfId="449" priority="205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="443" priority="205" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="442" priority="206" stopIfTrue="1">
       <formula>$E5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="447" priority="207" stopIfTrue="1">
+    <cfRule type="expression" dxfId="441" priority="207" stopIfTrue="1">
       <formula>OR($E5="終了",$E5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:IO6">
-    <cfRule type="expression" dxfId="446" priority="211" stopIfTrue="1">
+    <cfRule type="expression" dxfId="440" priority="211" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="445" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="439" priority="212" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="444" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="438" priority="213" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9:IO10">
-    <cfRule type="expression" dxfId="443" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="437" priority="217" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="436" priority="218" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="441" priority="219" stopIfTrue="1">
+    <cfRule type="expression" dxfId="435" priority="219" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12:IO16">
-    <cfRule type="expression" dxfId="440" priority="223" stopIfTrue="1">
+    <cfRule type="expression" dxfId="434" priority="223" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="439" priority="224" stopIfTrue="1">
+    <cfRule type="expression" dxfId="433" priority="224" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="225" stopIfTrue="1">
+    <cfRule type="expression" dxfId="432" priority="225" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB20:IO20">
-    <cfRule type="expression" dxfId="437" priority="235" stopIfTrue="1">
+    <cfRule type="expression" dxfId="431" priority="235" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="236" stopIfTrue="1">
+    <cfRule type="expression" dxfId="430" priority="236" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="435" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="429" priority="237" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB23:IO23 S24:IO24">
-    <cfRule type="expression" dxfId="434" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="428" priority="238" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="239" stopIfTrue="1">
+    <cfRule type="expression" dxfId="427" priority="239" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="426" priority="240" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26:IO26">
-    <cfRule type="expression" dxfId="431" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="425" priority="250" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="251" stopIfTrue="1">
+    <cfRule type="expression" dxfId="424" priority="251" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="429" priority="252" stopIfTrue="1">
+    <cfRule type="expression" dxfId="423" priority="252" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S44 AD44:IO45">
-    <cfRule type="expression" dxfId="428" priority="256" stopIfTrue="1">
+    <cfRule type="expression" dxfId="422" priority="256" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="427" priority="257" stopIfTrue="1">
+    <cfRule type="expression" dxfId="421" priority="257" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="258" stopIfTrue="1">
+    <cfRule type="expression" dxfId="420" priority="258" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S29:S30 Z28:IO30">
-    <cfRule type="expression" dxfId="425" priority="259" stopIfTrue="1">
+    <cfRule type="expression" dxfId="419" priority="259" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="260" stopIfTrue="1">
+    <cfRule type="expression" dxfId="418" priority="260" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="423" priority="261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="417" priority="261" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z32:IO33 V30:Y31">
-    <cfRule type="expression" dxfId="422" priority="262" stopIfTrue="1">
+    <cfRule type="expression" dxfId="416" priority="262" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="263" stopIfTrue="1">
+    <cfRule type="expression" dxfId="415" priority="263" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="264" stopIfTrue="1">
+    <cfRule type="expression" dxfId="414" priority="264" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z31:IO31 V29:Y29">
-    <cfRule type="expression" dxfId="419" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="413" priority="265" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="266" stopIfTrue="1">
+    <cfRule type="expression" dxfId="412" priority="266" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="417" priority="267" stopIfTrue="1">
+    <cfRule type="expression" dxfId="411" priority="267" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S42:S43 Z42:IO43">
-    <cfRule type="expression" dxfId="416" priority="283" stopIfTrue="1">
+    <cfRule type="expression" dxfId="410" priority="283" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="415" priority="284" stopIfTrue="1">
+    <cfRule type="expression" dxfId="409" priority="284" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="285" stopIfTrue="1">
+    <cfRule type="expression" dxfId="408" priority="285" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD49:IO49 T47:U47">
-    <cfRule type="expression" dxfId="413" priority="289" stopIfTrue="1">
+    <cfRule type="expression" dxfId="407" priority="289" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="290" stopIfTrue="1">
+    <cfRule type="expression" dxfId="406" priority="290" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="291" stopIfTrue="1">
+    <cfRule type="expression" dxfId="405" priority="291" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L51:HW51 T49:U49">
-    <cfRule type="expression" dxfId="410" priority="295" stopIfTrue="1">
+    <cfRule type="expression" dxfId="404" priority="295" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="409" priority="296" stopIfTrue="1">
+    <cfRule type="expression" dxfId="403" priority="296" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="297" stopIfTrue="1">
+    <cfRule type="expression" dxfId="402" priority="297" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S57 Z57:IO57 T55:Y55">
-    <cfRule type="expression" dxfId="407" priority="310" stopIfTrue="1">
+    <cfRule type="expression" dxfId="401" priority="310" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="311" stopIfTrue="1">
+    <cfRule type="expression" dxfId="400" priority="311" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="312" stopIfTrue="1">
+    <cfRule type="expression" dxfId="399" priority="312" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S54:S56 Z54:IO56 T52:Y54">
-    <cfRule type="expression" dxfId="404" priority="313" stopIfTrue="1">
+    <cfRule type="expression" dxfId="398" priority="313" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="314" stopIfTrue="1">
+    <cfRule type="expression" dxfId="397" priority="314" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="315" stopIfTrue="1">
+    <cfRule type="expression" dxfId="396" priority="315" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S58:S60 Z58:IO60 T56:Y58">
-    <cfRule type="expression" dxfId="401" priority="316" stopIfTrue="1">
+    <cfRule type="expression" dxfId="395" priority="316" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="317" stopIfTrue="1">
+    <cfRule type="expression" dxfId="394" priority="317" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="399" priority="318" stopIfTrue="1">
+    <cfRule type="expression" dxfId="393" priority="318" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S61 Z61:IO61 T59:Y59">
-    <cfRule type="expression" dxfId="398" priority="322" stopIfTrue="1">
+    <cfRule type="expression" dxfId="392" priority="322" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="323" stopIfTrue="1">
+    <cfRule type="expression" dxfId="391" priority="323" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="324" stopIfTrue="1">
+    <cfRule type="expression" dxfId="390" priority="324" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17:IO17">
-    <cfRule type="expression" dxfId="395" priority="646" stopIfTrue="1">
+    <cfRule type="expression" dxfId="389" priority="646" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="647" stopIfTrue="1">
+    <cfRule type="expression" dxfId="388" priority="647" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="648" stopIfTrue="1">
+    <cfRule type="expression" dxfId="387" priority="648" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z27:IO27">
-    <cfRule type="expression" dxfId="392" priority="718" stopIfTrue="1">
+    <cfRule type="expression" dxfId="386" priority="718" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="391" priority="719" stopIfTrue="1">
+    <cfRule type="expression" dxfId="385" priority="719" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="720" stopIfTrue="1">
+    <cfRule type="expression" dxfId="384" priority="720" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S40 Z40:IO40">
-    <cfRule type="expression" dxfId="389" priority="871" stopIfTrue="1">
+    <cfRule type="expression" dxfId="383" priority="871" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="872" stopIfTrue="1">
+    <cfRule type="expression" dxfId="382" priority="872" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="873" stopIfTrue="1">
+    <cfRule type="expression" dxfId="381" priority="873" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP57:XFD57">
-    <cfRule type="expression" dxfId="386" priority="952" stopIfTrue="1">
+    <cfRule type="expression" dxfId="380" priority="952" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="953" stopIfTrue="1">
+    <cfRule type="expression" dxfId="379" priority="953" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="954" stopIfTrue="1">
+    <cfRule type="expression" dxfId="378" priority="954" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52:M65288">
-    <cfRule type="expression" dxfId="383" priority="955" stopIfTrue="1">
+    <cfRule type="expression" dxfId="377" priority="955" stopIfTrue="1">
       <formula>$D52="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="956" stopIfTrue="1">
+    <cfRule type="expression" dxfId="376" priority="956" stopIfTrue="1">
       <formula>$D52="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="957" stopIfTrue="1">
+    <cfRule type="expression" dxfId="375" priority="957" stopIfTrue="1">
       <formula>OR($D52="終了",$D52="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S25:IO25">
-    <cfRule type="expression" dxfId="380" priority="1177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="374" priority="1177" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="1178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="373" priority="1178" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="1179" stopIfTrue="1">
+    <cfRule type="expression" dxfId="372" priority="1179" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP15:XFD17 IP11:XFD11">
-    <cfRule type="expression" dxfId="377" priority="1207" stopIfTrue="1">
+    <cfRule type="expression" dxfId="371" priority="1207" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="1208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="370" priority="1208" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="1209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="369" priority="1209" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD46:IO46">
-    <cfRule type="expression" dxfId="374" priority="2047" stopIfTrue="1">
+    <cfRule type="expression" dxfId="368" priority="2047" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="2048" stopIfTrue="1">
+    <cfRule type="expression" dxfId="367" priority="2048" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="2049" stopIfTrue="1">
+    <cfRule type="expression" dxfId="366" priority="2049" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP27:XFD27">
-    <cfRule type="expression" dxfId="371" priority="2071" stopIfTrue="1">
+    <cfRule type="expression" dxfId="365" priority="2071" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="2072" stopIfTrue="1">
+    <cfRule type="expression" dxfId="364" priority="2072" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="2073" stopIfTrue="1">
+    <cfRule type="expression" dxfId="363" priority="2073" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP31:XFD31">
-    <cfRule type="expression" dxfId="368" priority="2170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="362" priority="2170" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="367" priority="2171" stopIfTrue="1">
+    <cfRule type="expression" dxfId="361" priority="2171" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="2172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="360" priority="2172" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP42:XFD42">
-    <cfRule type="expression" dxfId="365" priority="2296" stopIfTrue="1">
+    <cfRule type="expression" dxfId="359" priority="2296" stopIfTrue="1">
       <formula>$D6="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="2297" stopIfTrue="1">
+    <cfRule type="expression" dxfId="358" priority="2297" stopIfTrue="1">
       <formula>$D6="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="2298" stopIfTrue="1">
+    <cfRule type="expression" dxfId="357" priority="2298" stopIfTrue="1">
       <formula>OR($D6="終了",$D6="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP40:XFD40">
-    <cfRule type="expression" dxfId="362" priority="3085" stopIfTrue="1">
+    <cfRule type="expression" dxfId="356" priority="3085" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="3086" stopIfTrue="1">
+    <cfRule type="expression" dxfId="355" priority="3086" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="3087" stopIfTrue="1">
+    <cfRule type="expression" dxfId="354" priority="3087" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="359" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="353" priority="22" stopIfTrue="1">
       <formula>$E12="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="352" priority="23" stopIfTrue="1">
       <formula>$E12="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="351" priority="24" stopIfTrue="1">
       <formula>OR($E12="終了",$E12="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:D12 F12">
-    <cfRule type="expression" dxfId="356" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="350" priority="25" stopIfTrue="1">
       <formula>$E12="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="349" priority="26" stopIfTrue="1">
       <formula>$E12="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="348" priority="27" stopIfTrue="1">
       <formula>OR($E12="終了",$E12="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP43:XFD43">
-    <cfRule type="expression" dxfId="353" priority="3760" stopIfTrue="1">
+    <cfRule type="expression" dxfId="347" priority="3760" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="3761" stopIfTrue="1">
+    <cfRule type="expression" dxfId="346" priority="3761" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="351" priority="3762" stopIfTrue="1">
+    <cfRule type="expression" dxfId="345" priority="3762" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP34:XFD34">
-    <cfRule type="expression" dxfId="350" priority="3922" stopIfTrue="1">
+    <cfRule type="expression" dxfId="344" priority="3922" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="3923" stopIfTrue="1">
+    <cfRule type="expression" dxfId="343" priority="3923" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="3924" stopIfTrue="1">
+    <cfRule type="expression" dxfId="342" priority="3924" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP37:XFD37">
-    <cfRule type="expression" dxfId="347" priority="3961" stopIfTrue="1">
+    <cfRule type="expression" dxfId="341" priority="3961" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="3962" stopIfTrue="1">
+    <cfRule type="expression" dxfId="340" priority="3962" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="3963" stopIfTrue="1">
+    <cfRule type="expression" dxfId="339" priority="3963" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S34 Z34:IO34 T32:Y32">
-    <cfRule type="expression" dxfId="344" priority="1150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="338" priority="1150" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="1151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="337" priority="1151" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="1152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="336" priority="1152" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP18:XFD20">
-    <cfRule type="expression" dxfId="341" priority="1156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="335" priority="1156" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="1157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="334" priority="1157" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="1158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="333" priority="1158" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB21:IO21">
-    <cfRule type="expression" dxfId="338" priority="4153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="332" priority="4153" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="4154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="331" priority="4154" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="4155" stopIfTrue="1">
+    <cfRule type="expression" dxfId="330" priority="4155" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:IO19">
-    <cfRule type="expression" dxfId="335" priority="4165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="329" priority="4165" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="4166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="328" priority="4166" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="4167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="327" priority="4167" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP6:XFD10">
-    <cfRule type="expression" dxfId="332" priority="4186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="326" priority="4186" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="4187" stopIfTrue="1">
+    <cfRule type="expression" dxfId="325" priority="4187" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="4188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="324" priority="4188" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP12:XFD14 IP48:XFD50 HX51:XFD51">
-    <cfRule type="expression" dxfId="329" priority="4189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="323" priority="4189" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="4190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="322" priority="4190" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="4191" stopIfTrue="1">
+    <cfRule type="expression" dxfId="321" priority="4191" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:IO8 S11:IO11">
-    <cfRule type="expression" dxfId="326" priority="4192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="320" priority="4192" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="4193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="319" priority="4193" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="4194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="318" priority="4194" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD47:IO47">
-    <cfRule type="expression" dxfId="323" priority="4222" stopIfTrue="1">
+    <cfRule type="expression" dxfId="317" priority="4222" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="4223" stopIfTrue="1">
+    <cfRule type="expression" dxfId="316" priority="4223" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="4224" stopIfTrue="1">
+    <cfRule type="expression" dxfId="315" priority="4224" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S41 Z41:IO41 S35:S39 Z35:IO39">
-    <cfRule type="expression" dxfId="320" priority="4228" stopIfTrue="1">
+    <cfRule type="expression" dxfId="314" priority="4228" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="319" priority="4229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="313" priority="4229" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="4230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="312" priority="4230" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP21:XFD22 IP24:XFD25 IP28:XFD29">
-    <cfRule type="expression" dxfId="317" priority="4240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="311" priority="4240" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="4241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="310" priority="4241" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="4242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="309" priority="4242" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD48:IO48 T48:U48">
-    <cfRule type="expression" dxfId="314" priority="4249" stopIfTrue="1">
+    <cfRule type="expression" dxfId="308" priority="4249" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="4250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="307" priority="4250" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="4251" stopIfTrue="1">
+    <cfRule type="expression" dxfId="306" priority="4251" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD50:IO50">
-    <cfRule type="expression" dxfId="311" priority="4255" stopIfTrue="1">
+    <cfRule type="expression" dxfId="305" priority="4255" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="4256" stopIfTrue="1">
+    <cfRule type="expression" dxfId="304" priority="4256" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="4257" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="4257" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP23:XFD23">
-    <cfRule type="expression" dxfId="308" priority="4258" stopIfTrue="1">
+    <cfRule type="expression" dxfId="302" priority="4258" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="4259" stopIfTrue="1">
+    <cfRule type="expression" dxfId="301" priority="4259" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="4260" stopIfTrue="1">
+    <cfRule type="expression" dxfId="300" priority="4260" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP26:XFD26">
-    <cfRule type="expression" dxfId="305" priority="4261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="4261" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="4262" stopIfTrue="1">
+    <cfRule type="expression" dxfId="298" priority="4262" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="4263" stopIfTrue="1">
+    <cfRule type="expression" dxfId="297" priority="4263" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T45:U45">
-    <cfRule type="expression" dxfId="302" priority="4264" stopIfTrue="1">
+    <cfRule type="expression" dxfId="296" priority="4264" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="4265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="4265" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="4266" stopIfTrue="1">
+    <cfRule type="expression" dxfId="294" priority="4266" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T46:U46">
-    <cfRule type="expression" dxfId="299" priority="4267" stopIfTrue="1">
+    <cfRule type="expression" dxfId="293" priority="4267" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="4268" stopIfTrue="1">
+    <cfRule type="expression" dxfId="292" priority="4268" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="4269" stopIfTrue="1">
+    <cfRule type="expression" dxfId="291" priority="4269" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T33:Y35">
-    <cfRule type="expression" dxfId="296" priority="4270" stopIfTrue="1">
+    <cfRule type="expression" dxfId="290" priority="4270" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="4271" stopIfTrue="1">
+    <cfRule type="expression" dxfId="289" priority="4271" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="4272" stopIfTrue="1">
+    <cfRule type="expression" dxfId="288" priority="4272" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB22:IO22">
-    <cfRule type="expression" dxfId="293" priority="4282" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="4282" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="4283" stopIfTrue="1">
+    <cfRule type="expression" dxfId="286" priority="4283" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="4284" stopIfTrue="1">
+    <cfRule type="expression" dxfId="285" priority="4284" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z53:IO53 S53">
-    <cfRule type="expression" dxfId="290" priority="4327" stopIfTrue="1">
+    <cfRule type="expression" dxfId="284" priority="4327" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="4328" stopIfTrue="1">
+    <cfRule type="expression" dxfId="283" priority="4328" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="4329" stopIfTrue="1">
+    <cfRule type="expression" dxfId="282" priority="4329" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP32:XFD33">
-    <cfRule type="expression" dxfId="287" priority="4333" stopIfTrue="1">
+    <cfRule type="expression" dxfId="281" priority="4333" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="4334" stopIfTrue="1">
+    <cfRule type="expression" dxfId="280" priority="4334" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="4335" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="4335" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP30:XFD30 IP36:XFD36">
-    <cfRule type="expression" dxfId="284" priority="4336" stopIfTrue="1">
+    <cfRule type="expression" dxfId="278" priority="4336" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="4337" stopIfTrue="1">
+    <cfRule type="expression" dxfId="277" priority="4337" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="4338" stopIfTrue="1">
+    <cfRule type="expression" dxfId="276" priority="4338" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:G51">
-    <cfRule type="expression" dxfId="281" priority="4339" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="4339" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="4340" stopIfTrue="1">
+    <cfRule type="expression" dxfId="274" priority="4340" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="4341" stopIfTrue="1">
+    <cfRule type="expression" dxfId="273" priority="4341" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP35:XFD35">
-    <cfRule type="expression" dxfId="278" priority="4387" stopIfTrue="1">
+    <cfRule type="expression" dxfId="272" priority="4387" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="4388" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="4388" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="4389" stopIfTrue="1">
+    <cfRule type="expression" dxfId="270" priority="4389" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP38:XFD39">
-    <cfRule type="expression" dxfId="275" priority="4390" stopIfTrue="1">
+    <cfRule type="expression" dxfId="269" priority="4390" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="4391" stopIfTrue="1">
+    <cfRule type="expression" dxfId="268" priority="4391" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="4392" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="4392" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP41:XFD41">
-    <cfRule type="expression" dxfId="272" priority="4393" stopIfTrue="1">
+    <cfRule type="expression" dxfId="266" priority="4393" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="4394" stopIfTrue="1">
+    <cfRule type="expression" dxfId="265" priority="4394" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="4395" stopIfTrue="1">
+    <cfRule type="expression" dxfId="264" priority="4395" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP44:XFD44">
-    <cfRule type="expression" dxfId="269" priority="4438" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="4438" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="4439" stopIfTrue="1">
+    <cfRule type="expression" dxfId="262" priority="4439" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="4440" stopIfTrue="1">
+    <cfRule type="expression" dxfId="261" priority="4440" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP45:XFD47">
-    <cfRule type="expression" dxfId="266" priority="4447" stopIfTrue="1">
+    <cfRule type="expression" dxfId="260" priority="4447" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="4448" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="4448" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="4449" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="4449" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IP52:XFD52">
-    <cfRule type="expression" dxfId="263" priority="4510" stopIfTrue="1">
+    <cfRule type="expression" dxfId="257" priority="4510" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="4511" stopIfTrue="1">
+    <cfRule type="expression" dxfId="256" priority="4511" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="4512" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="4512" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25554,7 +25620,7 @@
       <c r="C1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="102" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="96" t="s">
@@ -25594,7 +25660,7 @@
       <c r="A2" s="96"/>
       <c r="B2" s="97"/>
       <c r="C2" s="97"/>
-      <c r="D2" s="105"/>
+      <c r="D2" s="103"/>
       <c r="E2" s="96"/>
       <c r="F2" s="99"/>
       <c r="G2" s="99"/>
@@ -25627,7 +25693,7 @@
       <c r="A3" s="96"/>
       <c r="B3" s="97"/>
       <c r="C3" s="97"/>
-      <c r="D3" s="105"/>
+      <c r="D3" s="103"/>
       <c r="E3" s="96"/>
       <c r="F3" s="99"/>
       <c r="G3" s="99"/>
@@ -25636,38 +25702,38 @@
       <c r="J3" s="96"/>
       <c r="K3" s="20">
         <f>INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$Q$2))))</f>
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="L3" s="20">
         <f t="shared" ref="L3:Q3" si="0">INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$Q$2))))</f>
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="M3" s="20">
         <f t="shared" si="0"/>
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="N3" s="20">
         <f t="shared" si="0"/>
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="O3" s="20">
         <f t="shared" si="0"/>
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P3" s="20">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q3" s="20">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="8" customFormat="1">
       <c r="A4" s="96"/>
       <c r="B4" s="97"/>
       <c r="C4" s="98"/>
-      <c r="D4" s="106"/>
+      <c r="D4" s="104"/>
       <c r="E4" s="96"/>
       <c r="F4" s="99"/>
       <c r="G4" s="99"/>
@@ -25676,27 +25742,27 @@
       <c r="J4" s="96"/>
       <c r="K4" s="21">
         <f t="shared" ref="K4:Q4" si="1">SUM(K5:K174)</f>
-        <v>248.5</v>
+        <v>260.5</v>
       </c>
       <c r="L4" s="21">
         <f t="shared" si="1"/>
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="M4" s="21">
         <f t="shared" si="1"/>
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="N4" s="21">
         <f t="shared" si="1"/>
-        <v>140.5</v>
+        <v>152.5</v>
       </c>
       <c r="O4" s="21">
         <f t="shared" si="1"/>
-        <v>112.1</v>
+        <v>124.1</v>
       </c>
       <c r="P4" s="21">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>66.5</v>
       </c>
       <c r="Q4" s="21">
         <f t="shared" si="1"/>
@@ -25708,7 +25774,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C5" s="51"/>
       <c r="D5" s="51"/>
@@ -25794,7 +25860,9 @@
       <c r="O7" s="22">
         <v>6</v>
       </c>
-      <c r="P7" s="22"/>
+      <c r="P7" s="22">
+        <v>6</v>
+      </c>
       <c r="Q7" s="22"/>
     </row>
     <row r="8" spans="1:22">
@@ -25845,7 +25913,9 @@
       <c r="O8" s="22">
         <v>0</v>
       </c>
-      <c r="P8" s="22"/>
+      <c r="P8" s="22">
+        <v>0</v>
+      </c>
       <c r="Q8" s="22"/>
     </row>
     <row r="9" spans="1:22">
@@ -25896,7 +25966,9 @@
       <c r="O9" s="22">
         <v>0</v>
       </c>
-      <c r="P9" s="22"/>
+      <c r="P9" s="22">
+        <v>0</v>
+      </c>
       <c r="Q9" s="22"/>
     </row>
     <row r="10" spans="1:22">
@@ -25945,7 +26017,9 @@
       <c r="O10" s="22">
         <v>2</v>
       </c>
-      <c r="P10" s="22"/>
+      <c r="P10" s="22">
+        <v>2</v>
+      </c>
       <c r="Q10" s="22"/>
     </row>
     <row r="11" spans="1:22">
@@ -25962,18 +26036,24 @@
         <v>135</v>
       </c>
       <c r="E11" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>未着手</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
+      </c>
+      <c r="F11" s="4">
+        <v>43126</v>
+      </c>
+      <c r="G11" s="4">
+        <v>43126</v>
+      </c>
       <c r="H11" s="19">
         <v>4</v>
       </c>
-      <c r="I11" s="19"/>
+      <c r="I11" s="19">
+        <v>4</v>
+      </c>
       <c r="J11" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K11" s="22">
         <v>4</v>
@@ -25990,7 +26070,9 @@
       <c r="O11" s="22">
         <v>4</v>
       </c>
-      <c r="P11" s="22"/>
+      <c r="P11" s="22">
+        <v>0</v>
+      </c>
       <c r="Q11" s="22"/>
     </row>
     <row r="12" spans="1:22">
@@ -26007,18 +26089,24 @@
         <v>135</v>
       </c>
       <c r="E12" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>未着手</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
+      </c>
+      <c r="F12" s="4">
+        <v>43126</v>
+      </c>
+      <c r="G12" s="4">
+        <v>43126</v>
+      </c>
       <c r="H12" s="19">
         <v>4</v>
       </c>
-      <c r="I12" s="19"/>
+      <c r="I12" s="19">
+        <v>4</v>
+      </c>
       <c r="J12" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K12" s="22">
         <v>4</v>
@@ -26035,7 +26123,9 @@
       <c r="O12" s="22">
         <v>4</v>
       </c>
-      <c r="P12" s="22"/>
+      <c r="P12" s="22">
+        <v>0</v>
+      </c>
       <c r="Q12" s="22"/>
     </row>
     <row r="13" spans="1:22">
@@ -26046,24 +26136,30 @@
         <v>80</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>135</v>
       </c>
       <c r="E13" s="12" t="str">
-        <f>IF(ISBLANK($B13),"",IF(ISBLANK($G13),"未着手",IF($J13=0,"完了","作業中")))</f>
-        <v>未着手</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+        <f ca="1">IF(ISBLANK($B13),"",IF(ISBLANK($G13),"未着手",IF($J13=0,"完了","作業中")))</f>
+        <v>完了</v>
+      </c>
+      <c r="F13" s="4">
+        <v>43126</v>
+      </c>
+      <c r="G13" s="4">
+        <v>43126</v>
+      </c>
       <c r="H13" s="19">
         <v>2</v>
       </c>
-      <c r="I13" s="19"/>
+      <c r="I13" s="19">
+        <v>2</v>
+      </c>
       <c r="J13" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K13" s="22">
         <v>2</v>
@@ -26080,7 +26176,9 @@
       <c r="O13" s="22">
         <v>2</v>
       </c>
-      <c r="P13" s="22"/>
+      <c r="P13" s="22">
+        <v>0</v>
+      </c>
       <c r="Q13" s="22"/>
       <c r="R13" s="22"/>
     </row>
@@ -26113,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="56" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C15" s="51"/>
       <c r="D15" s="51"/>
@@ -26231,7 +26329,9 @@
       <c r="O18" s="22">
         <v>0</v>
       </c>
-      <c r="P18" s="22"/>
+      <c r="P18" s="22">
+        <v>0</v>
+      </c>
       <c r="Q18" s="22"/>
     </row>
     <row r="19" spans="1:24">
@@ -26282,7 +26382,9 @@
       <c r="O19" s="22">
         <v>0</v>
       </c>
-      <c r="P19" s="22"/>
+      <c r="P19" s="22">
+        <v>0</v>
+      </c>
       <c r="Q19" s="22"/>
     </row>
     <row r="20" spans="1:24">
@@ -26333,7 +26435,9 @@
       <c r="O20" s="22">
         <v>0</v>
       </c>
-      <c r="P20" s="22"/>
+      <c r="P20" s="22">
+        <v>0</v>
+      </c>
       <c r="Q20" s="22"/>
     </row>
     <row r="21" spans="1:24">
@@ -26384,7 +26488,9 @@
       <c r="O21" s="22">
         <v>0</v>
       </c>
-      <c r="P21" s="22"/>
+      <c r="P21" s="22">
+        <v>0</v>
+      </c>
       <c r="Q21" s="22"/>
     </row>
     <row r="22" spans="1:24">
@@ -26435,7 +26541,9 @@
       <c r="O22" s="22">
         <v>0</v>
       </c>
-      <c r="P22" s="22"/>
+      <c r="P22" s="22">
+        <v>0</v>
+      </c>
       <c r="Q22" s="22"/>
     </row>
     <row r="23" spans="1:24">
@@ -26486,7 +26594,9 @@
       <c r="O23" s="22">
         <v>0</v>
       </c>
-      <c r="P23" s="22"/>
+      <c r="P23" s="22">
+        <v>0</v>
+      </c>
       <c r="Q23" s="22"/>
     </row>
     <row r="24" spans="1:24">
@@ -26537,7 +26647,9 @@
       <c r="O24" s="22">
         <v>0</v>
       </c>
-      <c r="P24" s="22"/>
+      <c r="P24" s="22">
+        <v>0</v>
+      </c>
       <c r="Q24" s="22"/>
     </row>
     <row r="25" spans="1:24">
@@ -26588,7 +26700,9 @@
       <c r="O25" s="22">
         <v>0</v>
       </c>
-      <c r="P25" s="22"/>
+      <c r="P25" s="22">
+        <v>0</v>
+      </c>
       <c r="Q25" s="22"/>
     </row>
     <row r="26" spans="1:24">
@@ -26625,18 +26739,18 @@
       </c>
       <c r="U26" s="10">
         <f ca="1">SUMIF($C$5:$C$69,S26,$J$5:$J$69)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V26" s="10">
         <f ca="1">T26-U26</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="W26" s="14">
         <v>0</v>
       </c>
       <c r="X26" s="15">
         <f ca="1">IF(W26&gt;U26,0,U26-W26)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -26683,29 +26797,31 @@
       <c r="O27" s="22">
         <v>3</v>
       </c>
-      <c r="P27" s="22"/>
+      <c r="P27" s="22">
+        <v>3</v>
+      </c>
       <c r="Q27" s="22"/>
       <c r="S27" s="11" t="s">
         <v>61</v>
       </c>
       <c r="T27" s="10">
         <f>SUMIF($C$5:$C$50,S27,$H$5:$H$50)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="U27" s="10">
         <f ca="1">SUMIF($C$5:$C$69,S27,$J$5:$J$69)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V27" s="10">
         <f ca="1">T27-U27</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="W27" s="14">
         <v>0</v>
       </c>
       <c r="X27" s="15">
         <f ca="1">IF(W27&gt;U27,0,U27-W27)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -26752,14 +26868,16 @@
       <c r="O28" s="22">
         <v>3</v>
       </c>
-      <c r="P28" s="22"/>
+      <c r="P28" s="22">
+        <v>3</v>
+      </c>
       <c r="Q28" s="22"/>
       <c r="S28" s="11" t="s">
         <v>64</v>
       </c>
       <c r="T28" s="10">
         <f>SUMIF($C$5:$C$50,S28,$H$5:$H$50)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U28" s="10">
         <f ca="1">SUMIF($C$5:$C$69,S28,$J$5:$J$69)</f>
@@ -26767,7 +26885,7 @@
       </c>
       <c r="V28" s="10">
         <f t="shared" ref="V28" ca="1" si="5">T28-U28</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W28" s="14">
         <v>0</v>
@@ -26821,7 +26939,9 @@
       <c r="O29" s="22">
         <v>6</v>
       </c>
-      <c r="P29" s="22"/>
+      <c r="P29" s="22">
+        <v>6</v>
+      </c>
       <c r="Q29" s="22"/>
     </row>
     <row r="30" spans="1:24">
@@ -26846,29 +26966,31 @@
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30" s="19"/>
       <c r="J30" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K30" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L30" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M30" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N30" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O30" s="22">
-        <v>3</v>
-      </c>
-      <c r="P30" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="P30" s="22">
+        <v>1</v>
+      </c>
       <c r="Q30" s="22"/>
     </row>
     <row r="31" spans="1:24">
@@ -26893,29 +27015,31 @@
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31" s="19"/>
       <c r="J31" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K31" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M31" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N31" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O31" s="22">
-        <v>3</v>
-      </c>
-      <c r="P31" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="P31" s="22">
+        <v>1</v>
+      </c>
       <c r="Q31" s="22"/>
     </row>
     <row r="32" spans="1:24">
@@ -26988,7 +27112,9 @@
       <c r="O33" s="22">
         <v>4</v>
       </c>
-      <c r="P33" s="22"/>
+      <c r="P33" s="22">
+        <v>4</v>
+      </c>
       <c r="Q33" s="22"/>
     </row>
     <row r="34" spans="1:24">
@@ -27035,7 +27161,9 @@
       <c r="O34" s="22">
         <v>5</v>
       </c>
-      <c r="P34" s="22"/>
+      <c r="P34" s="22">
+        <v>5</v>
+      </c>
       <c r="Q34" s="22"/>
     </row>
     <row r="35" spans="1:24">
@@ -27082,7 +27210,9 @@
       <c r="O35" s="22">
         <v>2</v>
       </c>
-      <c r="P35" s="22"/>
+      <c r="P35" s="22">
+        <v>2</v>
+      </c>
       <c r="Q35" s="22"/>
     </row>
     <row r="36" spans="1:24">
@@ -27125,20 +27255,24 @@
         <v>77</v>
       </c>
       <c r="E37" s="12" t="str">
-        <f>IF(ISBLANK($B37),"",IF(ISBLANK($G37),"未着手",IF($J37=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($B37),"",IF(ISBLANK($G37),"未着手",IF($J37=0,"完了","作業中")))</f>
+        <v>作業中</v>
       </c>
       <c r="F37" s="4">
         <v>43096</v>
       </c>
-      <c r="G37" s="4"/>
+      <c r="G37" s="4">
+        <v>43126</v>
+      </c>
       <c r="H37" s="19">
         <v>3</v>
       </c>
-      <c r="I37" s="19"/>
+      <c r="I37" s="19">
+        <v>1</v>
+      </c>
       <c r="J37" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K37" s="22">
         <v>3</v>
@@ -27155,7 +27289,9 @@
       <c r="O37" s="22">
         <v>3</v>
       </c>
-      <c r="P37" s="22"/>
+      <c r="P37" s="22">
+        <v>2</v>
+      </c>
       <c r="Q37" s="22"/>
       <c r="S37" s="13"/>
       <c r="T37" s="13" t="s">
@@ -27188,20 +27324,24 @@
         <v>77</v>
       </c>
       <c r="E38" s="12" t="str">
-        <f>IF(ISBLANK($B38),"",IF(ISBLANK($G38),"未着手",IF($J38=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($B38),"",IF(ISBLANK($G38),"未着手",IF($J38=0,"完了","作業中")))</f>
+        <v>作業中</v>
       </c>
       <c r="F38" s="4">
         <v>43098</v>
       </c>
-      <c r="G38" s="4"/>
+      <c r="G38" s="4">
+        <v>43126</v>
+      </c>
       <c r="H38" s="19">
         <v>2</v>
       </c>
-      <c r="I38" s="19"/>
+      <c r="I38" s="19">
+        <v>1</v>
+      </c>
       <c r="J38" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K38" s="22">
         <v>2</v>
@@ -27218,29 +27358,31 @@
       <c r="O38" s="22">
         <v>2</v>
       </c>
-      <c r="P38" s="22"/>
+      <c r="P38" s="22">
+        <v>1</v>
+      </c>
       <c r="Q38" s="22"/>
       <c r="S38" s="11" t="s">
         <v>47</v>
       </c>
       <c r="T38" s="10">
         <f t="shared" ref="T38:T43" si="7">SUMIF($C$5:$C$174,S38,$H$5:$H$174)</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U38" s="10">
         <f t="shared" ref="U38:U43" ca="1" si="8">SUMIF($C$5:$C$174,S38,$J$5:$J$174)</f>
-        <v>12</v>
+        <v>4.5</v>
       </c>
       <c r="V38" s="10">
         <f ca="1">T38-U38</f>
-        <v>33</v>
+        <v>42.5</v>
       </c>
       <c r="W38" s="14">
         <v>0</v>
       </c>
       <c r="X38" s="15">
         <f ca="1">IF(W38&gt;U38,0,U38-W38)</f>
-        <v>12</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -27257,20 +27399,24 @@
         <v>81</v>
       </c>
       <c r="E39" s="12" t="str">
-        <f>IF(ISBLANK($B39),"",IF(ISBLANK($G39),"未着手",IF($J39=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($B39),"",IF(ISBLANK($G39),"未着手",IF($J39=0,"完了","作業中")))</f>
+        <v>作業中</v>
       </c>
       <c r="F39" s="4">
         <v>43094</v>
       </c>
-      <c r="G39" s="4"/>
+      <c r="G39" s="4">
+        <v>43126</v>
+      </c>
       <c r="H39" s="19">
         <v>6</v>
       </c>
-      <c r="I39" s="19"/>
+      <c r="I39" s="19">
+        <v>3</v>
+      </c>
       <c r="J39" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K39" s="22">
         <v>6</v>
@@ -27287,29 +27433,31 @@
       <c r="O39" s="22">
         <v>6</v>
       </c>
-      <c r="P39" s="22"/>
+      <c r="P39" s="22">
+        <v>3</v>
+      </c>
       <c r="Q39" s="22"/>
       <c r="S39" s="11" t="s">
         <v>92</v>
       </c>
       <c r="T39" s="10">
         <f t="shared" si="7"/>
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="U39" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>61.5</v>
+        <v>44</v>
       </c>
       <c r="V39" s="10">
         <f t="shared" ref="V39:V43" ca="1" si="9">T39-U39</f>
-        <v>21.5</v>
+        <v>36</v>
       </c>
       <c r="W39" s="14">
         <v>0</v>
       </c>
       <c r="X39" s="15">
         <f t="shared" ref="X39:X43" ca="1" si="10">IF(W39&gt;U39,0,U39-W39)</f>
-        <v>61.5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -27342,22 +27490,22 @@
       </c>
       <c r="T40" s="10">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="U40" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>11.1</v>
+        <v>8.5</v>
       </c>
       <c r="V40" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>11.9</v>
+        <v>19.5</v>
       </c>
       <c r="W40" s="14">
         <v>0</v>
       </c>
       <c r="X40" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>11.1</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -27374,13 +27522,15 @@
         <v>77</v>
       </c>
       <c r="E41" s="12" t="str">
-        <f>IF(ISBLANK($B41),"",IF(ISBLANK($G41),"未着手",IF($J41=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($B41),"",IF(ISBLANK($G41),"未着手",IF($J41=0,"完了","作業中")))</f>
+        <v>作業中</v>
       </c>
       <c r="F41" s="4">
         <v>43094</v>
       </c>
-      <c r="G41" s="4"/>
+      <c r="G41" s="4">
+        <v>43126</v>
+      </c>
       <c r="H41" s="19">
         <v>3</v>
       </c>
@@ -27404,14 +27554,16 @@
       <c r="O41" s="22">
         <v>3</v>
       </c>
-      <c r="P41" s="22"/>
+      <c r="P41" s="22">
+        <v>3</v>
+      </c>
       <c r="Q41" s="22"/>
       <c r="S41" s="11" t="s">
         <v>64</v>
       </c>
       <c r="T41" s="10">
         <f t="shared" si="7"/>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="U41" s="10">
         <f t="shared" ca="1" si="8"/>
@@ -27419,7 +27571,7 @@
       </c>
       <c r="V41" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="W41" s="14">
         <v>0</v>
@@ -27443,20 +27595,24 @@
         <v>77</v>
       </c>
       <c r="E42" s="12" t="str">
-        <f>IF(ISBLANK($B42),"",IF(ISBLANK($G42),"未着手",IF($J42=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($B42),"",IF(ISBLANK($G42),"未着手",IF($J42=0,"完了","作業中")))</f>
+        <v>作業中</v>
       </c>
       <c r="F42" s="4">
         <v>43095</v>
       </c>
-      <c r="G42" s="4"/>
+      <c r="G42" s="4">
+        <v>43126</v>
+      </c>
       <c r="H42" s="19">
         <v>3</v>
       </c>
-      <c r="I42" s="19"/>
+      <c r="I42" s="19">
+        <v>1</v>
+      </c>
       <c r="J42" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K42" s="22">
         <v>3</v>
@@ -27473,29 +27629,31 @@
       <c r="O42" s="22">
         <v>3</v>
       </c>
-      <c r="P42" s="22"/>
+      <c r="P42" s="22">
+        <v>2</v>
+      </c>
       <c r="Q42" s="22"/>
       <c r="S42" s="11" t="s">
         <v>63</v>
       </c>
       <c r="T42" s="10">
         <f t="shared" si="7"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U42" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="V42" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="W42" s="14">
         <v>0</v>
       </c>
       <c r="X42" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -27512,20 +27670,24 @@
         <v>81</v>
       </c>
       <c r="E43" s="12" t="str">
-        <f>IF(ISBLANK($B43),"",IF(ISBLANK($G43),"未着手",IF($J43=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($B43),"",IF(ISBLANK($G43),"未着手",IF($J43=0,"完了","作業中")))</f>
+        <v>作業中</v>
       </c>
       <c r="F43" s="4">
         <v>43095</v>
       </c>
-      <c r="G43" s="4"/>
+      <c r="G43" s="4">
+        <v>43126</v>
+      </c>
       <c r="H43" s="19">
         <v>3</v>
       </c>
-      <c r="I43" s="19"/>
+      <c r="I43" s="19">
+        <v>1</v>
+      </c>
       <c r="J43" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K43" s="22">
         <v>3</v>
@@ -27542,29 +27704,31 @@
       <c r="O43" s="22">
         <v>3</v>
       </c>
-      <c r="P43" s="22"/>
+      <c r="P43" s="22">
+        <v>2</v>
+      </c>
       <c r="Q43" s="22"/>
       <c r="S43" s="11" t="s">
         <v>78</v>
       </c>
       <c r="T43" s="10">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U43" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="V43" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
       <c r="W43" s="14">
         <v>0</v>
       </c>
       <c r="X43" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -27615,7 +27779,9 @@
       <c r="O44" s="22">
         <v>0</v>
       </c>
-      <c r="P44" s="22"/>
+      <c r="P44" s="22">
+        <v>0</v>
+      </c>
       <c r="Q44" s="22"/>
     </row>
     <row r="45" spans="1:24">
@@ -27631,20 +27797,25 @@
       <c r="D45" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="E45" s="12" t="s">
-        <v>180</v>
+      <c r="E45" s="12" t="str">
+        <f ca="1">IF(ISBLANK($B45),"",IF(ISBLANK($G45),"未着手",IF($J45=0,"完了","作業中")))</f>
+        <v>完了</v>
       </c>
       <c r="F45" s="4">
         <v>43094</v>
       </c>
-      <c r="G45" s="4"/>
+      <c r="G45" s="4">
+        <v>43126</v>
+      </c>
       <c r="H45" s="19">
         <v>2</v>
       </c>
-      <c r="I45" s="19"/>
+      <c r="I45" s="19">
+        <v>2</v>
+      </c>
       <c r="J45" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K45" s="22">
         <v>2</v>
@@ -27661,7 +27832,9 @@
       <c r="O45" s="22">
         <v>2</v>
       </c>
-      <c r="P45" s="22"/>
+      <c r="P45" s="22">
+        <v>0</v>
+      </c>
       <c r="Q45" s="22"/>
     </row>
     <row r="46" spans="1:24">
@@ -27672,25 +27845,30 @@
         <v>87</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E46" s="12" t="s">
-        <v>180</v>
+      <c r="E46" s="12" t="str">
+        <f t="shared" ref="E46:E47" ca="1" si="11">IF(ISBLANK($B46),"",IF(ISBLANK($G46),"未着手",IF($J46=0,"完了","作業中")))</f>
+        <v>作業中</v>
       </c>
       <c r="F46" s="4">
         <v>43094</v>
       </c>
-      <c r="G46" s="4"/>
+      <c r="G46" s="4">
+        <v>43126</v>
+      </c>
       <c r="H46" s="19">
         <v>3</v>
       </c>
-      <c r="I46" s="19"/>
+      <c r="I46" s="19">
+        <v>2</v>
+      </c>
       <c r="J46" s="12">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K46" s="22">
         <v>3</v>
@@ -27707,7 +27885,9 @@
       <c r="O46" s="22">
         <v>3</v>
       </c>
-      <c r="P46" s="22"/>
+      <c r="P46" s="22">
+        <v>1</v>
+      </c>
       <c r="Q46" s="22"/>
     </row>
     <row r="47" spans="1:24">
@@ -27724,7 +27904,7 @@
         <v>77</v>
       </c>
       <c r="E47" s="12" t="str">
-        <f ca="1">IF(ISBLANK($B47),"",IF(ISBLANK($G47),"未着手",IF($J47=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="11"/>
         <v>完了</v>
       </c>
       <c r="F47" s="4">
@@ -27758,7 +27938,9 @@
       <c r="O47" s="22">
         <v>0</v>
       </c>
-      <c r="P47" s="22"/>
+      <c r="P47" s="22">
+        <v>0</v>
+      </c>
       <c r="Q47" s="22"/>
     </row>
     <row r="48" spans="1:24">
@@ -27766,7 +27948,7 @@
         <v>44</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>178</v>
@@ -27775,7 +27957,7 @@
         <v>77</v>
       </c>
       <c r="E48" s="12" t="str">
-        <f t="shared" ref="E48:E49" ca="1" si="11">IF(ISBLANK($B48),"",IF(ISBLANK($G48),"未着手",IF($J48=0,"完了","作業中")))</f>
+        <f t="shared" ref="E48:E49" ca="1" si="12">IF(ISBLANK($B48),"",IF(ISBLANK($G48),"未着手",IF($J48=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F48" s="4">
@@ -27809,7 +27991,9 @@
       <c r="O48" s="22">
         <v>0</v>
       </c>
-      <c r="P48" s="22"/>
+      <c r="P48" s="22">
+        <v>0</v>
+      </c>
       <c r="Q48" s="22"/>
     </row>
     <row r="49" spans="1:17">
@@ -27817,16 +28001,16 @@
         <v>45</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E49" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>完了</v>
       </c>
       <c r="F49" s="4">
@@ -27860,7 +28044,9 @@
       <c r="O49" s="22">
         <v>0</v>
       </c>
-      <c r="P49" s="22"/>
+      <c r="P49" s="22">
+        <v>0</v>
+      </c>
       <c r="Q49" s="22"/>
     </row>
     <row r="50" spans="1:17">
@@ -27892,7 +28078,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="83" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
@@ -27918,7 +28104,7 @@
         <v>48</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>64</v>
@@ -27927,7 +28113,7 @@
         <v>56</v>
       </c>
       <c r="E52" s="12" t="str">
-        <f t="shared" ref="E52:E69" ca="1" si="12">IF(ISBLANK($B52),"",IF(ISBLANK($G52),"未着手",IF($J52=0,"完了","作業中")))</f>
+        <f t="shared" ref="E52:E69" ca="1" si="13">IF(ISBLANK($B52),"",IF(ISBLANK($G52),"未着手",IF($J52=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F52" s="4">
@@ -27961,7 +28147,9 @@
       <c r="O52" s="22">
         <v>0</v>
       </c>
-      <c r="P52" s="22"/>
+      <c r="P52" s="22">
+        <v>0</v>
+      </c>
       <c r="Q52" s="22"/>
     </row>
     <row r="53" spans="1:17">
@@ -27969,7 +28157,7 @@
         <v>49</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>64</v>
@@ -27978,7 +28166,7 @@
         <v>56</v>
       </c>
       <c r="E53" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>完了</v>
       </c>
       <c r="F53" s="4">
@@ -28012,7 +28200,9 @@
       <c r="O53" s="22">
         <v>0</v>
       </c>
-      <c r="P53" s="22"/>
+      <c r="P53" s="22">
+        <v>0</v>
+      </c>
       <c r="Q53" s="22"/>
     </row>
     <row r="54" spans="1:17">
@@ -28020,7 +28210,7 @@
         <v>50</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>64</v>
@@ -28029,7 +28219,7 @@
         <v>56</v>
       </c>
       <c r="E54" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>完了</v>
       </c>
       <c r="F54" s="4">
@@ -28063,7 +28253,9 @@
       <c r="O54" s="22">
         <v>0</v>
       </c>
-      <c r="P54" s="22"/>
+      <c r="P54" s="22">
+        <v>0</v>
+      </c>
       <c r="Q54" s="22"/>
     </row>
     <row r="55" spans="1:17">
@@ -28071,7 +28263,7 @@
         <v>51</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>64</v>
@@ -28080,7 +28272,7 @@
         <v>56</v>
       </c>
       <c r="E55" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>完了</v>
       </c>
       <c r="F55" s="4">
@@ -28114,7 +28306,9 @@
       <c r="O55" s="22">
         <v>0</v>
       </c>
-      <c r="P55" s="22"/>
+      <c r="P55" s="22">
+        <v>0</v>
+      </c>
       <c r="Q55" s="22"/>
     </row>
     <row r="56" spans="1:17">
@@ -28122,7 +28316,7 @@
         <v>52</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>64</v>
@@ -28131,7 +28325,7 @@
         <v>56</v>
       </c>
       <c r="E56" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>完了</v>
       </c>
       <c r="F56" s="4">
@@ -28165,7 +28359,9 @@
       <c r="O56" s="22">
         <v>0</v>
       </c>
-      <c r="P56" s="22"/>
+      <c r="P56" s="22">
+        <v>0</v>
+      </c>
       <c r="Q56" s="22"/>
     </row>
     <row r="57" spans="1:17">
@@ -28173,7 +28369,7 @@
         <v>53</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>64</v>
@@ -28182,7 +28378,7 @@
         <v>56</v>
       </c>
       <c r="E57" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>完了</v>
       </c>
       <c r="F57" s="4">
@@ -28216,7 +28412,9 @@
       <c r="O57" s="22">
         <v>0</v>
       </c>
-      <c r="P57" s="22"/>
+      <c r="P57" s="22">
+        <v>0</v>
+      </c>
       <c r="Q57" s="22"/>
     </row>
     <row r="58" spans="1:17">
@@ -28224,7 +28422,7 @@
         <v>54</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>64</v>
@@ -28233,7 +28431,7 @@
         <v>67</v>
       </c>
       <c r="E58" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>完了</v>
       </c>
       <c r="F58" s="4">
@@ -28267,7 +28465,9 @@
       <c r="O58" s="22">
         <v>0</v>
       </c>
-      <c r="P58" s="22"/>
+      <c r="P58" s="22">
+        <v>0</v>
+      </c>
       <c r="Q58" s="22"/>
     </row>
     <row r="59" spans="1:17">
@@ -28275,7 +28475,7 @@
         <v>55</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>64</v>
@@ -28284,7 +28484,7 @@
         <v>67</v>
       </c>
       <c r="E59" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>完了</v>
       </c>
       <c r="F59" s="4">
@@ -28318,7 +28518,9 @@
       <c r="O59" s="22">
         <v>0</v>
       </c>
-      <c r="P59" s="22"/>
+      <c r="P59" s="22">
+        <v>0</v>
+      </c>
       <c r="Q59" s="22"/>
     </row>
     <row r="60" spans="1:17">
@@ -28326,7 +28528,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>64</v>
@@ -28335,7 +28537,7 @@
         <v>67</v>
       </c>
       <c r="E60" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>完了</v>
       </c>
       <c r="F60" s="4">
@@ -28369,7 +28571,9 @@
       <c r="O60" s="22">
         <v>0</v>
       </c>
-      <c r="P60" s="22"/>
+      <c r="P60" s="22">
+        <v>0</v>
+      </c>
       <c r="Q60" s="22"/>
     </row>
     <row r="61" spans="1:17">
@@ -28380,7 +28584,7 @@
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
       <c r="E61" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F61" s="4"/>
@@ -28404,7 +28608,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="83" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C62" s="18"/>
       <c r="D62" s="18"/>
@@ -28430,7 +28634,7 @@
         <v>59</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C63" s="18" t="s">
         <v>64</v>
@@ -28439,7 +28643,7 @@
         <v>56</v>
       </c>
       <c r="E63" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>完了</v>
       </c>
       <c r="F63" s="4">
@@ -28473,7 +28677,9 @@
       <c r="O63" s="22">
         <v>0</v>
       </c>
-      <c r="P63" s="22"/>
+      <c r="P63" s="22">
+        <v>0</v>
+      </c>
       <c r="Q63" s="22"/>
     </row>
     <row r="64" spans="1:17">
@@ -28481,7 +28687,7 @@
         <v>60</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C64" s="18" t="s">
         <v>64</v>
@@ -28490,7 +28696,7 @@
         <v>56</v>
       </c>
       <c r="E64" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>完了</v>
       </c>
       <c r="F64" s="4">
@@ -28524,7 +28730,9 @@
       <c r="O64" s="22">
         <v>0</v>
       </c>
-      <c r="P64" s="22"/>
+      <c r="P64" s="22">
+        <v>0</v>
+      </c>
       <c r="Q64" s="22"/>
     </row>
     <row r="65" spans="1:17">
@@ -28532,7 +28740,7 @@
         <v>61</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C65" s="18" t="s">
         <v>64</v>
@@ -28541,7 +28749,7 @@
         <v>56</v>
       </c>
       <c r="E65" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>完了</v>
       </c>
       <c r="F65" s="4">
@@ -28575,7 +28783,9 @@
       <c r="O65" s="22">
         <v>0</v>
       </c>
-      <c r="P65" s="22"/>
+      <c r="P65" s="22">
+        <v>0</v>
+      </c>
       <c r="Q65" s="22"/>
     </row>
     <row r="66" spans="1:17">
@@ -28583,7 +28793,7 @@
         <v>62</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C66" s="18" t="s">
         <v>64</v>
@@ -28592,7 +28802,7 @@
         <v>56</v>
       </c>
       <c r="E66" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>完了</v>
       </c>
       <c r="F66" s="4">
@@ -28626,7 +28836,9 @@
       <c r="O66" s="22">
         <v>0</v>
       </c>
-      <c r="P66" s="22"/>
+      <c r="P66" s="22">
+        <v>0</v>
+      </c>
       <c r="Q66" s="22"/>
     </row>
     <row r="67" spans="1:17">
@@ -28634,7 +28846,7 @@
         <v>63</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C67" s="18" t="s">
         <v>64</v>
@@ -28643,7 +28855,7 @@
         <v>56</v>
       </c>
       <c r="E67" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>完了</v>
       </c>
       <c r="F67" s="4">
@@ -28677,7 +28889,9 @@
       <c r="O67" s="22">
         <v>0</v>
       </c>
-      <c r="P67" s="22"/>
+      <c r="P67" s="22">
+        <v>0</v>
+      </c>
       <c r="Q67" s="22"/>
     </row>
     <row r="68" spans="1:17">
@@ -28685,7 +28899,7 @@
         <v>64</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>64</v>
@@ -28694,7 +28908,7 @@
         <v>56</v>
       </c>
       <c r="E68" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>完了</v>
       </c>
       <c r="F68" s="4">
@@ -28728,7 +28942,9 @@
       <c r="O68" s="22">
         <v>0</v>
       </c>
-      <c r="P68" s="22"/>
+      <c r="P68" s="22">
+        <v>0</v>
+      </c>
       <c r="Q68" s="22"/>
     </row>
     <row r="69" spans="1:17">
@@ -28739,7 +28955,7 @@
       <c r="C69" s="18"/>
       <c r="D69" s="18"/>
       <c r="E69" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F69" s="4"/>
@@ -28763,7 +28979,7 @@
         <v>66</v>
       </c>
       <c r="B70" s="83" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C70" s="18"/>
       <c r="D70" s="18"/>
@@ -28773,7 +28989,7 @@
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
       <c r="J70" s="12" t="str">
-        <f t="shared" ref="J70:J103" ca="1" si="13">IF(ISBLANK(K70)=FALSE,OFFSET(J70,0,COUNTA(K70:Q70)),"")</f>
+        <f t="shared" ref="J70:J103" ca="1" si="14">IF(ISBLANK(K70)=FALSE,OFFSET(J70,0,COUNTA(K70:Q70)),"")</f>
         <v/>
       </c>
       <c r="K70" s="22"/>
@@ -28789,7 +29005,7 @@
         <v>67</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C71" s="18" t="s">
         <v>63</v>
@@ -28798,7 +29014,7 @@
         <v>48</v>
       </c>
       <c r="E71" s="12" t="str">
-        <f t="shared" ref="E71:E113" ca="1" si="14">IF(ISBLANK($B71),"",IF(ISBLANK($G71),"未着手",IF($J71=0,"完了","作業中")))</f>
+        <f t="shared" ref="E71:E113" ca="1" si="15">IF(ISBLANK($B71),"",IF(ISBLANK($G71),"未着手",IF($J71=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F71" s="4">
@@ -28814,7 +29030,7 @@
         <v>3</v>
       </c>
       <c r="J71" s="12">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="K71" s="22">
@@ -28832,7 +29048,9 @@
       <c r="O71" s="22">
         <v>0</v>
       </c>
-      <c r="P71" s="22"/>
+      <c r="P71" s="22">
+        <v>0</v>
+      </c>
       <c r="Q71" s="22"/>
     </row>
     <row r="72" spans="1:17">
@@ -28840,7 +29058,7 @@
         <v>68</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>63</v>
@@ -28849,7 +29067,7 @@
         <v>48</v>
       </c>
       <c r="E72" s="12" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>完了</v>
       </c>
       <c r="F72" s="4">
@@ -28865,7 +29083,7 @@
         <v>3</v>
       </c>
       <c r="J72" s="12">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="K72" s="22">
@@ -28883,7 +29101,9 @@
       <c r="O72" s="22">
         <v>0</v>
       </c>
-      <c r="P72" s="22"/>
+      <c r="P72" s="22">
+        <v>0</v>
+      </c>
       <c r="Q72" s="22"/>
     </row>
     <row r="73" spans="1:17">
@@ -28894,7 +29114,7 @@
       <c r="C73" s="18"/>
       <c r="D73" s="18"/>
       <c r="E73" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F73" s="4"/>
@@ -28902,7 +29122,7 @@
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
       <c r="J73" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="K73" s="22"/>
@@ -28918,7 +29138,7 @@
         <v>70</v>
       </c>
       <c r="B74" s="83" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C74" s="18"/>
       <c r="D74" s="18"/>
@@ -28928,7 +29148,7 @@
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
       <c r="J74" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="K74" s="22"/>
@@ -28944,7 +29164,7 @@
         <v>71</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C75" s="18" t="s">
         <v>63</v>
@@ -28953,7 +29173,7 @@
         <v>48</v>
       </c>
       <c r="E75" s="12" t="str">
-        <f t="shared" ref="E75:E84" ca="1" si="15">IF(ISBLANK($B75),"",IF(ISBLANK($G75),"未着手",IF($J75=0,"完了","作業中")))</f>
+        <f t="shared" ref="E75:E84" ca="1" si="16">IF(ISBLANK($B75),"",IF(ISBLANK($G75),"未着手",IF($J75=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F75" s="4">
@@ -28969,7 +29189,7 @@
         <v>3</v>
       </c>
       <c r="J75" s="12">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="K75" s="22">
@@ -28987,7 +29207,9 @@
       <c r="O75" s="22">
         <v>0</v>
       </c>
-      <c r="P75" s="22"/>
+      <c r="P75" s="22">
+        <v>0</v>
+      </c>
       <c r="Q75" s="22"/>
     </row>
     <row r="76" spans="1:17">
@@ -28995,7 +29217,7 @@
         <v>72</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>63</v>
@@ -29004,7 +29226,7 @@
         <v>48</v>
       </c>
       <c r="E76" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>完了</v>
       </c>
       <c r="F76" s="4">
@@ -29020,7 +29242,7 @@
         <v>3</v>
       </c>
       <c r="J76" s="12">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="K76" s="22">
@@ -29038,7 +29260,9 @@
       <c r="O76" s="22">
         <v>0</v>
       </c>
-      <c r="P76" s="22"/>
+      <c r="P76" s="22">
+        <v>0</v>
+      </c>
       <c r="Q76" s="22"/>
     </row>
     <row r="77" spans="1:17">
@@ -29046,7 +29270,7 @@
         <v>73</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C77" s="18" t="s">
         <v>63</v>
@@ -29055,7 +29279,7 @@
         <v>48</v>
       </c>
       <c r="E77" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>完了</v>
       </c>
       <c r="F77" s="4">
@@ -29071,7 +29295,7 @@
         <v>4</v>
       </c>
       <c r="J77" s="12">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="K77" s="22">
@@ -29089,7 +29313,9 @@
       <c r="O77" s="22">
         <v>0</v>
       </c>
-      <c r="P77" s="22"/>
+      <c r="P77" s="22">
+        <v>0</v>
+      </c>
       <c r="Q77" s="22"/>
     </row>
     <row r="78" spans="1:17">
@@ -29097,7 +29323,7 @@
         <v>74</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C78" s="18" t="s">
         <v>63</v>
@@ -29106,7 +29332,7 @@
         <v>48</v>
       </c>
       <c r="E78" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>完了</v>
       </c>
       <c r="F78" s="4">
@@ -29140,7 +29366,9 @@
       <c r="O78" s="22">
         <v>0</v>
       </c>
-      <c r="P78" s="22"/>
+      <c r="P78" s="22">
+        <v>0</v>
+      </c>
       <c r="Q78" s="22"/>
     </row>
     <row r="79" spans="1:17">
@@ -29151,7 +29379,7 @@
       <c r="C79" s="18"/>
       <c r="D79" s="18"/>
       <c r="E79" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="F79" s="4"/>
@@ -29159,7 +29387,7 @@
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
       <c r="J79" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="K79" s="22"/>
@@ -29175,7 +29403,7 @@
         <v>76</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C80" s="18" t="s">
         <v>92</v>
@@ -29184,7 +29412,7 @@
         <v>77</v>
       </c>
       <c r="E80" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>完了</v>
       </c>
       <c r="F80" s="4">
@@ -29200,7 +29428,7 @@
         <v>2</v>
       </c>
       <c r="J80" s="12">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="K80" s="22">
@@ -29218,7 +29446,9 @@
       <c r="O80" s="22">
         <v>0</v>
       </c>
-      <c r="P80" s="22"/>
+      <c r="P80" s="22">
+        <v>0</v>
+      </c>
       <c r="Q80" s="22"/>
     </row>
     <row r="81" spans="1:17">
@@ -29226,7 +29456,7 @@
         <v>77</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>92</v>
@@ -29235,8 +29465,8 @@
         <v>77</v>
       </c>
       <c r="E81" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>作業中</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>完了</v>
       </c>
       <c r="F81" s="4">
         <v>43092</v>
@@ -29251,8 +29481,8 @@
         <v>2</v>
       </c>
       <c r="J81" s="12">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
       </c>
       <c r="K81" s="22">
         <v>2</v>
@@ -29269,7 +29499,9 @@
       <c r="O81" s="22">
         <v>1</v>
       </c>
-      <c r="P81" s="22"/>
+      <c r="P81" s="22">
+        <v>0</v>
+      </c>
       <c r="Q81" s="22"/>
     </row>
     <row r="82" spans="1:17">
@@ -29277,16 +29509,16 @@
         <v>78</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C82" s="18" t="s">
         <v>92</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E82" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>完了</v>
       </c>
       <c r="F82" s="4">
@@ -29302,7 +29534,7 @@
         <v>2</v>
       </c>
       <c r="J82" s="12">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="K82" s="22">
@@ -29320,7 +29552,9 @@
       <c r="O82" s="22">
         <v>0</v>
       </c>
-      <c r="P82" s="22"/>
+      <c r="P82" s="22">
+        <v>0</v>
+      </c>
       <c r="Q82" s="22"/>
     </row>
     <row r="83" spans="1:17">
@@ -29328,7 +29562,7 @@
         <v>79</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C83" s="18" t="s">
         <v>92</v>
@@ -29337,7 +29571,7 @@
         <v>67</v>
       </c>
       <c r="E83" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>完了</v>
       </c>
       <c r="F83" s="4">
@@ -29353,7 +29587,7 @@
         <v>3</v>
       </c>
       <c r="J83" s="12">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="K83" s="22">
@@ -29371,7 +29605,9 @@
       <c r="O83" s="22">
         <v>0</v>
       </c>
-      <c r="P83" s="22"/>
+      <c r="P83" s="22">
+        <v>0</v>
+      </c>
       <c r="Q83" s="22"/>
     </row>
     <row r="84" spans="1:17">
@@ -29379,7 +29615,7 @@
         <v>80</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C84" s="18" t="s">
         <v>92</v>
@@ -29388,7 +29624,7 @@
         <v>77</v>
       </c>
       <c r="E84" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>完了</v>
       </c>
       <c r="F84" s="4">
@@ -29404,7 +29640,7 @@
         <v>2</v>
       </c>
       <c r="J84" s="12">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="K84" s="22">
@@ -29422,7 +29658,9 @@
       <c r="O84" s="22">
         <v>0</v>
       </c>
-      <c r="P84" s="22"/>
+      <c r="P84" s="22">
+        <v>0</v>
+      </c>
       <c r="Q84" s="22"/>
     </row>
     <row r="85" spans="1:17">
@@ -29433,7 +29671,7 @@
       <c r="C85" s="18"/>
       <c r="D85" s="18"/>
       <c r="E85" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F85" s="4"/>
@@ -29441,7 +29679,7 @@
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
       <c r="J85" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="K85" s="22"/>
@@ -29467,7 +29705,7 @@
       <c r="H86" s="80"/>
       <c r="I86" s="19"/>
       <c r="J86" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="K86" s="22"/>
@@ -29508,7 +29746,7 @@
         <v>1</v>
       </c>
       <c r="J87" s="12">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="K87" s="22">
@@ -29526,7 +29764,9 @@
       <c r="O87" s="22">
         <v>0</v>
       </c>
-      <c r="P87" s="22"/>
+      <c r="P87" s="22">
+        <v>0</v>
+      </c>
       <c r="Q87" s="22"/>
     </row>
     <row r="88" spans="1:17">
@@ -29559,7 +29799,7 @@
         <v>1</v>
       </c>
       <c r="J88" s="12">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="K88" s="22">
@@ -29577,7 +29817,9 @@
       <c r="O88" s="22">
         <v>0</v>
       </c>
-      <c r="P88" s="22"/>
+      <c r="P88" s="22">
+        <v>0</v>
+      </c>
       <c r="Q88" s="22"/>
     </row>
     <row r="89" spans="1:17">
@@ -29594,7 +29836,7 @@
         <v>56</v>
       </c>
       <c r="E89" s="12" t="str">
-        <f t="shared" ref="E89:E92" si="16">IF(ISBLANK($B89),"",IF(ISBLANK($G89),"未着手",IF($J89=0,"完了","作業中")))</f>
+        <f t="shared" ref="E89:E92" si="17">IF(ISBLANK($B89),"",IF(ISBLANK($G89),"未着手",IF($J89=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F89" s="4">
@@ -29606,7 +29848,7 @@
       </c>
       <c r="I89" s="19"/>
       <c r="J89" s="12">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="K89" s="22">
@@ -29641,7 +29883,7 @@
         <v>48</v>
       </c>
       <c r="E90" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>未着手</v>
       </c>
       <c r="F90" s="4">
@@ -29653,7 +29895,7 @@
       </c>
       <c r="I90" s="19"/>
       <c r="J90" s="12">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="K90" s="22">
@@ -29688,7 +29930,7 @@
         <v>48</v>
       </c>
       <c r="E91" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>未着手</v>
       </c>
       <c r="F91" s="4">
@@ -29700,7 +29942,7 @@
       </c>
       <c r="I91" s="19"/>
       <c r="J91" s="12">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="K91" s="22">
@@ -29735,7 +29977,7 @@
         <v>48</v>
       </c>
       <c r="E92" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>未着手</v>
       </c>
       <c r="F92" s="4">
@@ -29747,7 +29989,7 @@
       </c>
       <c r="I92" s="19"/>
       <c r="J92" s="12">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="K92" s="22">
@@ -29773,7 +30015,7 @@
         <v>90</v>
       </c>
       <c r="B93" s="82" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C93" s="18"/>
       <c r="D93" s="18"/>
@@ -29783,7 +30025,7 @@
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
       <c r="J93" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="K93" s="22"/>
@@ -29799,7 +30041,7 @@
         <v>91</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C94" s="18" t="s">
         <v>78</v>
@@ -29808,7 +30050,7 @@
         <v>48</v>
       </c>
       <c r="E94" s="12" t="str">
-        <f t="shared" ref="E94:E97" ca="1" si="17">IF(ISBLANK($B94),"",IF(ISBLANK($G94),"未着手",IF($J94=0,"完了","作業中")))</f>
+        <f t="shared" ref="E94:E97" ca="1" si="18">IF(ISBLANK($B94),"",IF(ISBLANK($G94),"未着手",IF($J94=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F94" s="4">
@@ -29824,7 +30066,7 @@
         <v>2</v>
       </c>
       <c r="J94" s="12">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="K94" s="22">
@@ -29842,7 +30084,9 @@
       <c r="O94" s="22">
         <v>0</v>
       </c>
-      <c r="P94" s="22"/>
+      <c r="P94" s="22">
+        <v>0</v>
+      </c>
       <c r="Q94" s="22"/>
     </row>
     <row r="95" spans="1:17">
@@ -29850,7 +30094,7 @@
         <v>92</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C95" s="18" t="s">
         <v>78</v>
@@ -29859,7 +30103,7 @@
         <v>48</v>
       </c>
       <c r="E95" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>完了</v>
       </c>
       <c r="F95" s="4">
@@ -29875,7 +30119,7 @@
         <v>2</v>
       </c>
       <c r="J95" s="12">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="K95" s="22">
@@ -29893,7 +30137,9 @@
       <c r="O95" s="22">
         <v>0</v>
       </c>
-      <c r="P95" s="22"/>
+      <c r="P95" s="22">
+        <v>0</v>
+      </c>
       <c r="Q95" s="22"/>
     </row>
     <row r="96" spans="1:17">
@@ -29901,7 +30147,7 @@
         <v>93</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C96" s="18" t="s">
         <v>78</v>
@@ -29910,7 +30156,7 @@
         <v>48</v>
       </c>
       <c r="E96" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>完了</v>
       </c>
       <c r="F96" s="4">
@@ -29926,7 +30172,7 @@
         <v>2</v>
       </c>
       <c r="J96" s="12">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="K96" s="22">
@@ -29944,7 +30190,9 @@
       <c r="O96" s="22">
         <v>0</v>
       </c>
-      <c r="P96" s="22"/>
+      <c r="P96" s="22">
+        <v>0</v>
+      </c>
       <c r="Q96" s="22"/>
     </row>
     <row r="97" spans="1:17">
@@ -29952,7 +30200,7 @@
         <v>94</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C97" s="18" t="s">
         <v>78</v>
@@ -29961,7 +30209,7 @@
         <v>48</v>
       </c>
       <c r="E97" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>完了</v>
       </c>
       <c r="F97" s="4">
@@ -29977,7 +30225,7 @@
         <v>2</v>
       </c>
       <c r="J97" s="12">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="K97" s="22">
@@ -29995,7 +30243,9 @@
       <c r="O97" s="22">
         <v>0</v>
       </c>
-      <c r="P97" s="22"/>
+      <c r="P97" s="22">
+        <v>0</v>
+      </c>
       <c r="Q97" s="22"/>
     </row>
     <row r="98" spans="1:17">
@@ -30024,16 +30274,16 @@
         <v>96</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C99" s="18" t="s">
         <v>78</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E99" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>未着手</v>
       </c>
       <c r="F99" s="4">
@@ -30045,7 +30295,7 @@
       </c>
       <c r="I99" s="19"/>
       <c r="J99" s="12">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>2</v>
       </c>
       <c r="K99" s="22">
@@ -30071,7 +30321,7 @@
         <v>97</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C100" s="18" t="s">
         <v>78</v>
@@ -30080,8 +30330,8 @@
         <v>77</v>
       </c>
       <c r="E100" s="12" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>作業中</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>完了</v>
       </c>
       <c r="F100" s="4">
         <v>43096</v>
@@ -30093,11 +30343,11 @@
         <v>3</v>
       </c>
       <c r="I100" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J100" s="12">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
       </c>
       <c r="K100" s="22">
         <v>3</v>
@@ -30115,7 +30365,7 @@
         <v>3</v>
       </c>
       <c r="P100" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="22"/>
     </row>
@@ -30145,7 +30395,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C102" s="51"/>
       <c r="D102" s="51"/>
@@ -30155,7 +30405,7 @@
       <c r="H102" s="54"/>
       <c r="I102" s="54"/>
       <c r="J102" s="52" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="K102" s="55"/>
@@ -30171,16 +30421,16 @@
         <v>100</v>
       </c>
       <c r="B103" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="C103" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="C103" s="18" t="s">
+      <c r="D103" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="D103" s="18" t="s">
-        <v>296</v>
-      </c>
       <c r="E103" s="12" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>完了</v>
       </c>
       <c r="F103" s="4">
@@ -30196,7 +30446,7 @@
         <v>2</v>
       </c>
       <c r="J103" s="12">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="K103" s="22">
@@ -30214,7 +30464,9 @@
       <c r="O103" s="22">
         <v>0</v>
       </c>
-      <c r="P103" s="22"/>
+      <c r="P103" s="22">
+        <v>0</v>
+      </c>
       <c r="Q103" s="22"/>
     </row>
     <row r="104" spans="1:17">
@@ -30222,16 +30474,16 @@
         <v>101</v>
       </c>
       <c r="B104" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="C104" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="C104" s="18" t="s">
+      <c r="D104" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="D104" s="18" t="s">
-        <v>303</v>
-      </c>
       <c r="E104" s="12" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>完了</v>
       </c>
       <c r="F104" s="4">
@@ -30247,7 +30499,7 @@
         <v>2</v>
       </c>
       <c r="J104" s="12">
-        <f t="shared" ref="J104:J166" ca="1" si="18">IF(ISBLANK(K104)=FALSE,OFFSET(J104,0,COUNTA(K104:Q104)),"")</f>
+        <f t="shared" ref="J104:J166" ca="1" si="19">IF(ISBLANK(K104)=FALSE,OFFSET(J104,0,COUNTA(K104:Q104)),"")</f>
         <v>0</v>
       </c>
       <c r="K104" s="22">
@@ -30265,7 +30517,9 @@
       <c r="O104" s="22">
         <v>0</v>
       </c>
-      <c r="P104" s="22"/>
+      <c r="P104" s="22">
+        <v>0</v>
+      </c>
       <c r="Q104" s="22"/>
     </row>
     <row r="105" spans="1:17">
@@ -30273,16 +30527,16 @@
         <v>102</v>
       </c>
       <c r="B105" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C105" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="C105" s="18" t="s">
+      <c r="D105" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D105" s="18" t="s">
-        <v>299</v>
-      </c>
       <c r="E105" s="12" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>完了</v>
       </c>
       <c r="F105" s="4">
@@ -30298,7 +30552,7 @@
         <v>2</v>
       </c>
       <c r="J105" s="12">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K105" s="22">
@@ -30316,7 +30570,9 @@
       <c r="O105" s="22">
         <v>0</v>
       </c>
-      <c r="P105" s="22"/>
+      <c r="P105" s="22">
+        <v>0</v>
+      </c>
       <c r="Q105" s="22"/>
     </row>
     <row r="106" spans="1:17">
@@ -30324,16 +30580,16 @@
         <v>103</v>
       </c>
       <c r="B106" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="C106" s="18" t="s">
         <v>304</v>
-      </c>
-      <c r="C106" s="18" t="s">
-        <v>305</v>
       </c>
       <c r="D106" s="18" t="s">
         <v>89</v>
       </c>
       <c r="E106" s="12" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>完了</v>
       </c>
       <c r="F106" s="4">
@@ -30349,7 +30605,7 @@
         <v>2</v>
       </c>
       <c r="J106" s="12">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K106" s="22">
@@ -30367,7 +30623,9 @@
       <c r="O106" s="22">
         <v>0</v>
       </c>
-      <c r="P106" s="22"/>
+      <c r="P106" s="22">
+        <v>0</v>
+      </c>
       <c r="Q106" s="22"/>
     </row>
     <row r="107" spans="1:17">
@@ -30378,7 +30636,7 @@
       <c r="C107" s="18"/>
       <c r="D107" s="18"/>
       <c r="E107" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F107" s="4"/>
@@ -30386,7 +30644,7 @@
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
       <c r="J107" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K107" s="22"/>
@@ -30411,20 +30669,24 @@
         <v>48</v>
       </c>
       <c r="E108" s="12" t="str">
-        <f t="shared" si="14"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>完了</v>
       </c>
       <c r="F108" s="4">
         <v>43097</v>
       </c>
-      <c r="G108" s="4"/>
+      <c r="G108" s="4">
+        <v>43126</v>
+      </c>
       <c r="H108" s="19">
         <v>2</v>
       </c>
-      <c r="I108" s="19"/>
+      <c r="I108" s="19">
+        <v>22</v>
+      </c>
       <c r="J108" s="12">
-        <f t="shared" ca="1" si="18"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
       <c r="K108" s="22">
         <v>2</v>
@@ -30441,7 +30703,9 @@
       <c r="O108" s="22">
         <v>2</v>
       </c>
-      <c r="P108" s="22"/>
+      <c r="P108" s="22">
+        <v>0</v>
+      </c>
       <c r="Q108" s="22"/>
     </row>
     <row r="109" spans="1:17">
@@ -30455,7 +30719,7 @@
         <v>78</v>
       </c>
       <c r="D109" s="63" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E109" s="12" t="str">
         <f>IF(ISBLANK($B109),"",IF(ISBLANK($G109),"未着手",IF($J109=0,"完了","作業中")))</f>
@@ -30470,7 +30734,7 @@
       </c>
       <c r="I109" s="19"/>
       <c r="J109" s="12">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>2</v>
       </c>
       <c r="K109" s="22">
@@ -30488,7 +30752,9 @@
       <c r="O109" s="22">
         <v>2</v>
       </c>
-      <c r="P109" s="22"/>
+      <c r="P109" s="22">
+        <v>2</v>
+      </c>
       <c r="Q109" s="22"/>
     </row>
     <row r="110" spans="1:17">
@@ -30517,7 +30783,7 @@
       </c>
       <c r="I110" s="19"/>
       <c r="J110" s="12">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>2</v>
       </c>
       <c r="K110" s="22">
@@ -30535,7 +30801,9 @@
       <c r="O110" s="22">
         <v>2</v>
       </c>
-      <c r="P110" s="22"/>
+      <c r="P110" s="22">
+        <v>2</v>
+      </c>
       <c r="Q110" s="22"/>
     </row>
     <row r="111" spans="1:17">
@@ -30564,7 +30832,7 @@
       </c>
       <c r="I111" s="19"/>
       <c r="J111" s="12">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>2</v>
       </c>
       <c r="K111" s="22">
@@ -30582,7 +30850,9 @@
       <c r="O111" s="22">
         <v>2</v>
       </c>
-      <c r="P111" s="22"/>
+      <c r="P111" s="22">
+        <v>2</v>
+      </c>
       <c r="Q111" s="22"/>
     </row>
     <row r="112" spans="1:17">
@@ -30611,7 +30881,7 @@
       </c>
       <c r="I112" s="19"/>
       <c r="J112" s="12">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1</v>
       </c>
       <c r="K112" s="22">
@@ -30629,7 +30899,9 @@
       <c r="O112" s="22">
         <v>1</v>
       </c>
-      <c r="P112" s="22"/>
+      <c r="P112" s="22">
+        <v>1</v>
+      </c>
       <c r="Q112" s="22"/>
     </row>
     <row r="113" spans="1:17">
@@ -30640,7 +30912,7 @@
       <c r="C113" s="18"/>
       <c r="D113" s="18"/>
       <c r="E113" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F113" s="4"/>
@@ -30648,7 +30920,7 @@
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
       <c r="J113" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K113" s="22"/>
@@ -30685,7 +30957,7 @@
       </c>
       <c r="I114" s="19"/>
       <c r="J114" s="12">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1</v>
       </c>
       <c r="K114" s="22">
@@ -30703,7 +30975,9 @@
       <c r="O114" s="22">
         <v>1</v>
       </c>
-      <c r="P114" s="22"/>
+      <c r="P114" s="22">
+        <v>1</v>
+      </c>
       <c r="Q114" s="22"/>
     </row>
     <row r="115" spans="1:17">
@@ -30732,7 +31006,7 @@
       </c>
       <c r="I115" s="19"/>
       <c r="J115" s="12">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1</v>
       </c>
       <c r="K115" s="22">
@@ -30750,7 +31024,9 @@
       <c r="O115" s="22">
         <v>1</v>
       </c>
-      <c r="P115" s="22"/>
+      <c r="P115" s="22">
+        <v>1</v>
+      </c>
       <c r="Q115" s="22"/>
     </row>
     <row r="116" spans="1:17">
@@ -30779,7 +31055,7 @@
       </c>
       <c r="I116" s="19"/>
       <c r="J116" s="12">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1</v>
       </c>
       <c r="K116" s="22">
@@ -30797,7 +31073,9 @@
       <c r="O116" s="22">
         <v>1</v>
       </c>
-      <c r="P116" s="22"/>
+      <c r="P116" s="22">
+        <v>1</v>
+      </c>
       <c r="Q116" s="22"/>
     </row>
     <row r="117" spans="1:17">
@@ -30830,7 +31108,7 @@
         <v>0.5</v>
       </c>
       <c r="J117" s="12">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0.5</v>
       </c>
       <c r="K117" s="22">
@@ -30848,7 +31126,9 @@
       <c r="O117" s="22">
         <v>0.5</v>
       </c>
-      <c r="P117" s="22"/>
+      <c r="P117" s="22">
+        <v>0.5</v>
+      </c>
       <c r="Q117" s="22"/>
     </row>
     <row r="118" spans="1:17">
@@ -30859,7 +31139,7 @@
       <c r="C118" s="18"/>
       <c r="D118" s="18"/>
       <c r="E118" s="12" t="str">
-        <f t="shared" ref="E118:E178" si="19">IF(ISBLANK($B118),"",IF(ISBLANK($G118),"未着手",IF($J118=0,"完了","作業中")))</f>
+        <f t="shared" ref="E118:E178" si="20">IF(ISBLANK($B118),"",IF(ISBLANK($G118),"未着手",IF($J118=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F118" s="4"/>
@@ -30867,7 +31147,7 @@
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
       <c r="J118" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K118" s="22"/>
@@ -30883,16 +31163,16 @@
         <v>116</v>
       </c>
       <c r="B119" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C119" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="C119" s="18" t="s">
+      <c r="D119" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="D119" s="18" t="s">
-        <v>308</v>
-      </c>
       <c r="E119" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>作業中</v>
       </c>
       <c r="F119" s="4">
@@ -30908,7 +31188,7 @@
         <v>1</v>
       </c>
       <c r="J119" s="12">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1</v>
       </c>
       <c r="K119" s="22">
@@ -30926,7 +31206,9 @@
       <c r="O119" s="22">
         <v>1</v>
       </c>
-      <c r="P119" s="22"/>
+      <c r="P119" s="22">
+        <v>1</v>
+      </c>
       <c r="Q119" s="22"/>
     </row>
     <row r="120" spans="1:17">
@@ -30934,16 +31216,16 @@
         <v>117</v>
       </c>
       <c r="B120" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="C120" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="C120" s="18" t="s">
+      <c r="D120" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="D120" s="18" t="s">
-        <v>311</v>
-      </c>
       <c r="E120" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>作業中</v>
       </c>
       <c r="F120" s="4">
@@ -30959,7 +31241,7 @@
         <v>2</v>
       </c>
       <c r="J120" s="12">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1</v>
       </c>
       <c r="K120" s="22">
@@ -30977,7 +31259,9 @@
       <c r="O120" s="22">
         <v>1</v>
       </c>
-      <c r="P120" s="22"/>
+      <c r="P120" s="22">
+        <v>1</v>
+      </c>
       <c r="Q120" s="22"/>
     </row>
     <row r="121" spans="1:17">
@@ -30985,16 +31269,16 @@
         <v>118</v>
       </c>
       <c r="B121" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="C121" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D121" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="C121" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="D121" s="18" t="s">
-        <v>313</v>
-      </c>
       <c r="E121" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>作業中</v>
       </c>
       <c r="F121" s="4">
@@ -31008,7 +31292,7 @@
       </c>
       <c r="I121" s="19"/>
       <c r="J121" s="12">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>3</v>
       </c>
       <c r="K121" s="22">
@@ -31026,7 +31310,9 @@
       <c r="O121" s="22">
         <v>3</v>
       </c>
-      <c r="P121" s="22"/>
+      <c r="P121" s="22">
+        <v>3</v>
+      </c>
       <c r="Q121" s="22"/>
     </row>
     <row r="122" spans="1:17">
@@ -31042,7 +31328,7 @@
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
       <c r="J122" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K122" s="22"/>
@@ -31058,7 +31344,7 @@
         <v>120</v>
       </c>
       <c r="B123" s="56" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C123" s="51"/>
       <c r="D123" s="51"/>
@@ -31068,7 +31354,7 @@
       <c r="H123" s="54"/>
       <c r="I123" s="54"/>
       <c r="J123" s="52" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K123" s="55"/>
@@ -31084,14 +31370,14 @@
         <v>121</v>
       </c>
       <c r="B124" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="C124" s="18" t="s">
         <v>315</v>
-      </c>
-      <c r="C124" s="18" t="s">
-        <v>316</v>
       </c>
       <c r="D124" s="18"/>
       <c r="E124" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F124" s="4">
@@ -31107,7 +31393,7 @@
         <v>2</v>
       </c>
       <c r="J124" s="12">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K124" s="22">
@@ -31125,7 +31411,9 @@
       <c r="O124" s="22">
         <v>0</v>
       </c>
-      <c r="P124" s="22"/>
+      <c r="P124" s="22">
+        <v>0</v>
+      </c>
       <c r="Q124" s="22"/>
     </row>
     <row r="125" spans="1:17">
@@ -31133,15 +31421,15 @@
         <v>122</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D125" s="18"/>
       <c r="E125" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v>作業中</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>完了</v>
       </c>
       <c r="F125" s="4">
         <v>43123</v>
@@ -31156,8 +31444,8 @@
         <v>1</v>
       </c>
       <c r="J125" s="12">
-        <f t="shared" ca="1" si="18"/>
-        <v>0.1</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
       <c r="K125" s="22">
         <v>1</v>
@@ -31174,7 +31462,9 @@
       <c r="O125" s="22">
         <v>0.1</v>
       </c>
-      <c r="P125" s="22"/>
+      <c r="P125" s="22">
+        <v>0</v>
+      </c>
       <c r="Q125" s="22"/>
     </row>
     <row r="126" spans="1:17">
@@ -31182,25 +31472,31 @@
         <v>123</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D126" s="18"/>
       <c r="E126" s="12" t="str">
-        <f t="shared" si="19"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>完了</v>
       </c>
       <c r="F126" s="4">
         <v>43123</v>
       </c>
-      <c r="G126" s="4"/>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
+      <c r="G126" s="4">
+        <v>43126</v>
+      </c>
+      <c r="H126" s="19">
+        <v>1</v>
+      </c>
+      <c r="I126" s="19">
+        <v>1</v>
+      </c>
       <c r="J126" s="12">
-        <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
       <c r="K126" s="22">
         <v>1</v>
@@ -31217,7 +31513,9 @@
       <c r="O126" s="22">
         <v>1</v>
       </c>
-      <c r="P126" s="22"/>
+      <c r="P126" s="22">
+        <v>0</v>
+      </c>
       <c r="Q126" s="22"/>
     </row>
     <row r="127" spans="1:17">
@@ -31225,27 +31523,31 @@
         <v>124</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C127" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D127" s="18"/>
       <c r="E127" s="12" t="str">
-        <f t="shared" si="19"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>作業中</v>
       </c>
       <c r="F127" s="4">
         <v>43126</v>
       </c>
-      <c r="G127" s="4"/>
+      <c r="G127" s="4">
+        <v>43126</v>
+      </c>
       <c r="H127" s="19">
         <v>1</v>
       </c>
-      <c r="I127" s="19"/>
+      <c r="I127" s="19">
+        <v>0.5</v>
+      </c>
       <c r="J127" s="12">
-        <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>0.5</v>
       </c>
       <c r="K127" s="22">
         <v>1</v>
@@ -31262,7 +31564,9 @@
       <c r="O127" s="22">
         <v>1</v>
       </c>
-      <c r="P127" s="22"/>
+      <c r="P127" s="22">
+        <v>0.5</v>
+      </c>
       <c r="Q127" s="22"/>
     </row>
     <row r="128" spans="1:17">
@@ -31270,14 +31574,14 @@
         <v>125</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D128" s="18"/>
       <c r="E128" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F128" s="4">
@@ -31293,7 +31597,7 @@
         <v>2</v>
       </c>
       <c r="J128" s="12">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K128" s="22">
@@ -31311,7 +31615,9 @@
       <c r="O128" s="22">
         <v>0</v>
       </c>
-      <c r="P128" s="22"/>
+      <c r="P128" s="22">
+        <v>0</v>
+      </c>
       <c r="Q128" s="22"/>
     </row>
     <row r="129" spans="1:17">
@@ -31319,14 +31625,14 @@
         <v>126</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D129" s="18"/>
       <c r="E129" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F129" s="4">
@@ -31342,7 +31648,7 @@
         <v>1</v>
       </c>
       <c r="J129" s="12">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K129" s="22">
@@ -31360,7 +31666,9 @@
       <c r="O129" s="22">
         <v>0</v>
       </c>
-      <c r="P129" s="22"/>
+      <c r="P129" s="22">
+        <v>0</v>
+      </c>
       <c r="Q129" s="22"/>
     </row>
     <row r="130" spans="1:17">
@@ -31368,14 +31676,14 @@
         <v>127</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D130" s="18"/>
       <c r="E130" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F130" s="4">
@@ -31391,7 +31699,7 @@
         <v>1</v>
       </c>
       <c r="J130" s="12">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K130" s="22">
@@ -31409,7 +31717,9 @@
       <c r="O130" s="22">
         <v>0</v>
       </c>
-      <c r="P130" s="22"/>
+      <c r="P130" s="22">
+        <v>0</v>
+      </c>
       <c r="Q130" s="22"/>
     </row>
     <row r="131" spans="1:17">
@@ -31417,32 +31727,50 @@
         <v>128</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D131" s="18"/>
       <c r="E131" s="12" t="str">
-        <f t="shared" si="19"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>完了</v>
       </c>
       <c r="F131" s="4">
         <v>43123</v>
       </c>
-      <c r="G131" s="4"/>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="K131" s="22"/>
-      <c r="L131" s="22"/>
-      <c r="M131" s="22"/>
-      <c r="N131" s="22"/>
-      <c r="O131" s="22"/>
-      <c r="P131" s="22"/>
+      <c r="G131" s="4">
+        <v>43126</v>
+      </c>
+      <c r="H131" s="19">
+        <v>1</v>
+      </c>
+      <c r="I131" s="19">
+        <v>1</v>
+      </c>
+      <c r="J131" s="12">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K131" s="22">
+        <v>1</v>
+      </c>
+      <c r="L131" s="22">
+        <v>1</v>
+      </c>
+      <c r="M131" s="22">
+        <v>1</v>
+      </c>
+      <c r="N131" s="22">
+        <v>1</v>
+      </c>
+      <c r="O131" s="22">
+        <v>1</v>
+      </c>
+      <c r="P131" s="22">
+        <v>0</v>
+      </c>
       <c r="Q131" s="22"/>
     </row>
     <row r="132" spans="1:17">
@@ -31450,14 +31778,14 @@
         <v>129</v>
       </c>
       <c r="B132" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="C132" s="18" t="s">
         <v>326</v>
-      </c>
-      <c r="C132" s="18" t="s">
-        <v>327</v>
       </c>
       <c r="D132" s="18"/>
       <c r="E132" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F132" s="4">
@@ -31473,7 +31801,7 @@
         <v>1</v>
       </c>
       <c r="J132" s="12">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K132" s="22">
@@ -31491,7 +31819,9 @@
       <c r="O132" s="22">
         <v>0</v>
       </c>
-      <c r="P132" s="22"/>
+      <c r="P132" s="22">
+        <v>0</v>
+      </c>
       <c r="Q132" s="22"/>
     </row>
     <row r="133" spans="1:17">
@@ -31499,14 +31829,14 @@
         <v>130</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D133" s="18"/>
       <c r="E133" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F133" s="4">
@@ -31522,7 +31852,7 @@
         <v>1</v>
       </c>
       <c r="J133" s="12">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K133" s="22">
@@ -31540,7 +31870,9 @@
       <c r="O133" s="22">
         <v>0</v>
       </c>
-      <c r="P133" s="22"/>
+      <c r="P133" s="22">
+        <v>0</v>
+      </c>
       <c r="Q133" s="22"/>
     </row>
     <row r="134" spans="1:17">
@@ -31548,14 +31880,14 @@
         <v>131</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D134" s="18"/>
       <c r="E134" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>作業中</v>
       </c>
       <c r="F134" s="4">
@@ -31571,7 +31903,7 @@
         <v>0.5</v>
       </c>
       <c r="J134" s="12">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0.5</v>
       </c>
       <c r="K134" s="22">
@@ -31589,7 +31921,9 @@
       <c r="O134" s="22">
         <v>0.5</v>
       </c>
-      <c r="P134" s="22"/>
+      <c r="P134" s="22">
+        <v>0.5</v>
+      </c>
       <c r="Q134" s="22"/>
     </row>
     <row r="135" spans="1:17">
@@ -31597,14 +31931,14 @@
         <v>133</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D135" s="18"/>
       <c r="E135" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>作業中</v>
       </c>
       <c r="F135" s="4">
@@ -31616,10 +31950,12 @@
       <c r="H135" s="19">
         <v>2</v>
       </c>
-      <c r="I135" s="19"/>
+      <c r="I135" s="19">
+        <v>1.5</v>
+      </c>
       <c r="J135" s="12">
-        <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>0.5</v>
       </c>
       <c r="K135" s="22">
         <v>2</v>
@@ -31636,7 +31972,9 @@
       <c r="O135" s="22">
         <v>1</v>
       </c>
-      <c r="P135" s="22"/>
+      <c r="P135" s="22">
+        <v>0.5</v>
+      </c>
       <c r="Q135" s="22"/>
     </row>
     <row r="136" spans="1:17">
@@ -31644,15 +31982,15 @@
         <v>134</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D136" s="18"/>
       <c r="E136" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v>作業中</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>完了</v>
       </c>
       <c r="F136" s="4">
         <v>43123</v>
@@ -31663,10 +32001,12 @@
       <c r="H136" s="19">
         <v>2</v>
       </c>
-      <c r="I136" s="19"/>
+      <c r="I136" s="19">
+        <v>2</v>
+      </c>
       <c r="J136" s="12">
-        <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
       <c r="K136" s="22">
         <v>2</v>
@@ -31683,7 +32023,9 @@
       <c r="O136" s="22">
         <v>1</v>
       </c>
-      <c r="P136" s="22"/>
+      <c r="P136" s="22">
+        <v>0</v>
+      </c>
       <c r="Q136" s="22"/>
     </row>
     <row r="137" spans="1:17">
@@ -31691,15 +32033,15 @@
         <v>135</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D137" s="18"/>
       <c r="E137" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v>作業中</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>完了</v>
       </c>
       <c r="F137" s="4">
         <v>43123</v>
@@ -31710,10 +32052,12 @@
       <c r="H137" s="19">
         <v>1</v>
       </c>
-      <c r="I137" s="19"/>
+      <c r="I137" s="19">
+        <v>1</v>
+      </c>
       <c r="J137" s="12">
-        <f t="shared" ca="1" si="18"/>
-        <v>0.5</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
       <c r="K137" s="22">
         <v>1</v>
@@ -31730,7 +32074,9 @@
       <c r="O137" s="22">
         <v>0.5</v>
       </c>
-      <c r="P137" s="22"/>
+      <c r="P137" s="22">
+        <v>0</v>
+      </c>
       <c r="Q137" s="22"/>
     </row>
     <row r="138" spans="1:17">
@@ -31738,34 +32084,50 @@
         <v>136</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D138" s="18"/>
       <c r="E138" s="12" t="str">
-        <f t="shared" si="19"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>作業中</v>
       </c>
       <c r="F138" s="4">
         <v>43126</v>
       </c>
-      <c r="G138" s="4"/>
+      <c r="G138" s="4">
+        <v>43126</v>
+      </c>
       <c r="H138" s="19">
         <v>1</v>
       </c>
-      <c r="I138" s="19"/>
-      <c r="J138" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="K138" s="22"/>
-      <c r="L138" s="22"/>
-      <c r="M138" s="22"/>
-      <c r="N138" s="22"/>
-      <c r="O138" s="22"/>
-      <c r="P138" s="22"/>
+      <c r="I138" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="J138" s="12">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.5</v>
+      </c>
+      <c r="K138" s="22">
+        <v>1</v>
+      </c>
+      <c r="L138" s="22">
+        <v>1</v>
+      </c>
+      <c r="M138" s="22">
+        <v>1</v>
+      </c>
+      <c r="N138" s="22">
+        <v>1</v>
+      </c>
+      <c r="O138" s="22">
+        <v>1</v>
+      </c>
+      <c r="P138" s="22">
+        <v>0.5</v>
+      </c>
       <c r="Q138" s="22"/>
     </row>
     <row r="139" spans="1:17">
@@ -31773,34 +32135,50 @@
         <v>137</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C139" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D139" s="18"/>
       <c r="E139" s="12" t="str">
-        <f t="shared" si="19"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>完了</v>
       </c>
       <c r="F139" s="4">
         <v>43126</v>
       </c>
-      <c r="G139" s="4"/>
+      <c r="G139" s="4">
+        <v>43126</v>
+      </c>
       <c r="H139" s="19">
         <v>1</v>
       </c>
-      <c r="I139" s="19"/>
-      <c r="J139" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="K139" s="22"/>
-      <c r="L139" s="22"/>
-      <c r="M139" s="22"/>
-      <c r="N139" s="22"/>
-      <c r="O139" s="22"/>
-      <c r="P139" s="22"/>
+      <c r="I139" s="19">
+        <v>1</v>
+      </c>
+      <c r="J139" s="12">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K139" s="22">
+        <v>1</v>
+      </c>
+      <c r="L139" s="22">
+        <v>1</v>
+      </c>
+      <c r="M139" s="22">
+        <v>1</v>
+      </c>
+      <c r="N139" s="22">
+        <v>1</v>
+      </c>
+      <c r="O139" s="22">
+        <v>1</v>
+      </c>
+      <c r="P139" s="22">
+        <v>0</v>
+      </c>
       <c r="Q139" s="22"/>
     </row>
     <row r="140" spans="1:17">
@@ -31808,27 +32186,31 @@
         <v>138</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C140" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D140" s="18"/>
       <c r="E140" s="12" t="str">
-        <f t="shared" si="19"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>作業中</v>
       </c>
       <c r="F140" s="4">
         <v>43126</v>
       </c>
-      <c r="G140" s="4"/>
+      <c r="G140" s="4">
+        <v>43126</v>
+      </c>
       <c r="H140" s="19">
         <v>2</v>
       </c>
-      <c r="I140" s="19"/>
+      <c r="I140" s="19">
+        <v>1</v>
+      </c>
       <c r="J140" s="12">
-        <f t="shared" ca="1" si="18"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
       </c>
       <c r="K140" s="22">
         <v>2</v>
@@ -31845,7 +32227,9 @@
       <c r="O140" s="22">
         <v>2</v>
       </c>
-      <c r="P140" s="22"/>
+      <c r="P140" s="22">
+        <v>1</v>
+      </c>
       <c r="Q140" s="22"/>
     </row>
     <row r="141" spans="1:17">
@@ -31853,15 +32237,15 @@
         <v>139</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C141" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D141" s="18"/>
       <c r="E141" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v>作業中</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>完了</v>
       </c>
       <c r="F141" s="4">
         <v>43123</v>
@@ -31872,10 +32256,12 @@
       <c r="H141" s="19">
         <v>2</v>
       </c>
-      <c r="I141" s="19"/>
+      <c r="I141" s="19">
+        <v>2</v>
+      </c>
       <c r="J141" s="12">
-        <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
       <c r="K141" s="22">
         <v>2</v>
@@ -31892,7 +32278,9 @@
       <c r="O141" s="22">
         <v>1</v>
       </c>
-      <c r="P141" s="22"/>
+      <c r="P141" s="22">
+        <v>0</v>
+      </c>
       <c r="Q141" s="22"/>
     </row>
     <row r="142" spans="1:17">
@@ -31900,14 +32288,14 @@
         <v>140</v>
       </c>
       <c r="B142" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C142" s="18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D142" s="18"/>
       <c r="E142" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>作業中</v>
       </c>
       <c r="F142" s="4">
@@ -31919,10 +32307,12 @@
       <c r="H142" s="19">
         <v>2</v>
       </c>
-      <c r="I142" s="19"/>
+      <c r="I142" s="19">
+        <v>1</v>
+      </c>
       <c r="J142" s="12">
-        <f t="shared" ca="1" si="18"/>
-        <v>1.5</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
       </c>
       <c r="K142" s="22">
         <v>2</v>
@@ -31939,7 +32329,9 @@
       <c r="O142" s="22">
         <v>1.5</v>
       </c>
-      <c r="P142" s="22"/>
+      <c r="P142" s="22">
+        <v>1</v>
+      </c>
       <c r="Q142" s="22"/>
     </row>
     <row r="143" spans="1:17">
@@ -31950,7 +32342,7 @@
       <c r="C143" s="18"/>
       <c r="D143" s="18"/>
       <c r="E143" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F143" s="4"/>
@@ -31958,7 +32350,7 @@
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
       <c r="J143" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K143" s="22"/>
@@ -31974,15 +32366,15 @@
         <v>142</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C144" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D144" s="18"/>
       <c r="E144" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v>作業中</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>完了</v>
       </c>
       <c r="F144" s="4">
         <v>43123</v>
@@ -31993,10 +32385,12 @@
       <c r="H144" s="19">
         <v>3</v>
       </c>
-      <c r="I144" s="19"/>
+      <c r="I144" s="19">
+        <v>3</v>
+      </c>
       <c r="J144" s="12">
-        <f t="shared" ca="1" si="18"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
       <c r="K144" s="22">
         <v>3</v>
@@ -32013,7 +32407,9 @@
       <c r="O144" s="22">
         <v>2</v>
       </c>
-      <c r="P144" s="22"/>
+      <c r="P144" s="22">
+        <v>0</v>
+      </c>
       <c r="Q144" s="22"/>
     </row>
     <row r="145" spans="1:17">
@@ -32021,14 +32417,14 @@
         <v>143</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C145" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D145" s="18"/>
       <c r="E145" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F145" s="4">
@@ -32044,7 +32440,7 @@
         <v>3</v>
       </c>
       <c r="J145" s="12">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K145" s="22">
@@ -32062,7 +32458,9 @@
       <c r="O145" s="22">
         <v>0</v>
       </c>
-      <c r="P145" s="22"/>
+      <c r="P145" s="22">
+        <v>0</v>
+      </c>
       <c r="Q145" s="22"/>
     </row>
     <row r="146" spans="1:17">
@@ -32070,27 +32468,31 @@
         <v>144</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C146" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D146" s="18"/>
       <c r="E146" s="12" t="str">
-        <f t="shared" si="19"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>完了</v>
       </c>
       <c r="F146" s="4">
         <v>43126</v>
       </c>
-      <c r="G146" s="4"/>
+      <c r="G146" s="4">
+        <v>43126</v>
+      </c>
       <c r="H146" s="19">
         <v>1</v>
       </c>
-      <c r="I146" s="19"/>
+      <c r="I146" s="19">
+        <v>1</v>
+      </c>
       <c r="J146" s="12">
-        <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
       <c r="K146" s="22">
         <v>1</v>
@@ -32107,7 +32509,9 @@
       <c r="O146" s="22">
         <v>1</v>
       </c>
-      <c r="P146" s="22"/>
+      <c r="P146" s="22">
+        <v>0</v>
+      </c>
       <c r="Q146" s="22"/>
     </row>
     <row r="147" spans="1:17">
@@ -32115,12 +32519,14 @@
         <v>145</v>
       </c>
       <c r="B147" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="C147" s="18"/>
+        <v>342</v>
+      </c>
+      <c r="C147" s="18" t="s">
+        <v>353</v>
+      </c>
       <c r="D147" s="18"/>
       <c r="E147" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>未着手</v>
       </c>
       <c r="F147" s="4"/>
@@ -32128,7 +32534,7 @@
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
       <c r="J147" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K147" s="22"/>
@@ -32147,7 +32553,7 @@
       <c r="C148" s="18"/>
       <c r="D148" s="18"/>
       <c r="E148" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F148" s="4"/>
@@ -32155,7 +32561,7 @@
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
       <c r="J148" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K148" s="22"/>
@@ -32170,135 +32576,255 @@
       <c r="A149" s="16">
         <v>147</v>
       </c>
-      <c r="B149" s="17"/>
-      <c r="C149" s="18"/>
+      <c r="B149" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="C149" s="18" t="s">
+        <v>355</v>
+      </c>
       <c r="D149" s="18"/>
       <c r="E149" s="12" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="K149" s="22"/>
-      <c r="L149" s="22"/>
-      <c r="M149" s="22"/>
-      <c r="N149" s="22"/>
-      <c r="O149" s="22"/>
-      <c r="P149" s="22"/>
+        <f t="shared" ca="1" si="20"/>
+        <v>完了</v>
+      </c>
+      <c r="F149" s="4">
+        <v>43126</v>
+      </c>
+      <c r="G149" s="4">
+        <v>43126</v>
+      </c>
+      <c r="H149" s="19">
+        <v>2</v>
+      </c>
+      <c r="I149" s="19">
+        <v>2</v>
+      </c>
+      <c r="J149" s="12">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K149" s="22">
+        <v>2</v>
+      </c>
+      <c r="L149" s="22">
+        <v>2</v>
+      </c>
+      <c r="M149" s="22">
+        <v>2</v>
+      </c>
+      <c r="N149" s="22">
+        <v>2</v>
+      </c>
+      <c r="O149" s="22">
+        <v>2</v>
+      </c>
+      <c r="P149" s="22">
+        <v>0</v>
+      </c>
       <c r="Q149" s="22"/>
     </row>
     <row r="150" spans="1:17">
       <c r="A150" s="16">
         <v>148</v>
       </c>
-      <c r="B150" s="17"/>
-      <c r="C150" s="18"/>
+      <c r="B150" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="C150" s="18" t="s">
+        <v>345</v>
+      </c>
       <c r="D150" s="18"/>
       <c r="E150" s="12" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="K150" s="22"/>
-      <c r="L150" s="22"/>
-      <c r="M150" s="22"/>
-      <c r="N150" s="22"/>
-      <c r="O150" s="22"/>
-      <c r="P150" s="22"/>
+        <f t="shared" ca="1" si="20"/>
+        <v>完了</v>
+      </c>
+      <c r="F150" s="4">
+        <v>43126</v>
+      </c>
+      <c r="G150" s="4">
+        <v>43126</v>
+      </c>
+      <c r="H150" s="19">
+        <v>2</v>
+      </c>
+      <c r="I150" s="19">
+        <v>2</v>
+      </c>
+      <c r="J150" s="12">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K150" s="22">
+        <v>2</v>
+      </c>
+      <c r="L150" s="22">
+        <v>2</v>
+      </c>
+      <c r="M150" s="22">
+        <v>2</v>
+      </c>
+      <c r="N150" s="22">
+        <v>2</v>
+      </c>
+      <c r="O150" s="22">
+        <v>2</v>
+      </c>
+      <c r="P150" s="22">
+        <v>0</v>
+      </c>
       <c r="Q150" s="22"/>
     </row>
     <row r="151" spans="1:17">
       <c r="A151" s="16">
         <v>149</v>
       </c>
-      <c r="B151" s="17"/>
-      <c r="C151" s="18"/>
+      <c r="B151" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="C151" s="18" t="s">
+        <v>349</v>
+      </c>
       <c r="D151" s="18"/>
       <c r="E151" s="12" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="K151" s="22"/>
-      <c r="L151" s="22"/>
-      <c r="M151" s="22"/>
-      <c r="N151" s="22"/>
-      <c r="O151" s="22"/>
-      <c r="P151" s="22"/>
+        <f t="shared" ca="1" si="20"/>
+        <v>完了</v>
+      </c>
+      <c r="F151" s="4">
+        <v>43126</v>
+      </c>
+      <c r="G151" s="4">
+        <v>43126</v>
+      </c>
+      <c r="H151" s="19">
+        <v>2</v>
+      </c>
+      <c r="I151" s="19">
+        <v>2</v>
+      </c>
+      <c r="J151" s="12">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K151" s="22">
+        <v>2</v>
+      </c>
+      <c r="L151" s="22">
+        <v>2</v>
+      </c>
+      <c r="M151" s="22">
+        <v>2</v>
+      </c>
+      <c r="N151" s="22">
+        <v>2</v>
+      </c>
+      <c r="O151" s="22">
+        <v>2</v>
+      </c>
+      <c r="P151" s="22">
+        <v>0</v>
+      </c>
       <c r="Q151" s="22"/>
     </row>
     <row r="152" spans="1:17">
       <c r="A152" s="16">
         <v>150</v>
       </c>
-      <c r="B152" s="17"/>
-      <c r="C152" s="18"/>
+      <c r="B152" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="C152" s="18" t="s">
+        <v>349</v>
+      </c>
       <c r="D152" s="18"/>
       <c r="E152" s="12" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="K152" s="22"/>
-      <c r="L152" s="22"/>
-      <c r="M152" s="22"/>
-      <c r="N152" s="22"/>
-      <c r="O152" s="22"/>
-      <c r="P152" s="22"/>
+        <f t="shared" ca="1" si="20"/>
+        <v>完了</v>
+      </c>
+      <c r="F152" s="4">
+        <v>43126</v>
+      </c>
+      <c r="G152" s="4">
+        <v>43126</v>
+      </c>
+      <c r="H152" s="19">
+        <v>2</v>
+      </c>
+      <c r="I152" s="19">
+        <v>2</v>
+      </c>
+      <c r="J152" s="12">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K152" s="22">
+        <v>2</v>
+      </c>
+      <c r="L152" s="22">
+        <v>2</v>
+      </c>
+      <c r="M152" s="22">
+        <v>2</v>
+      </c>
+      <c r="N152" s="22">
+        <v>2</v>
+      </c>
+      <c r="O152" s="22">
+        <v>2</v>
+      </c>
+      <c r="P152" s="22">
+        <v>0</v>
+      </c>
       <c r="Q152" s="22"/>
     </row>
     <row r="153" spans="1:17">
       <c r="A153" s="16">
         <v>151</v>
       </c>
-      <c r="B153" s="17"/>
-      <c r="C153" s="18"/>
+      <c r="B153" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="C153" s="18" t="s">
+        <v>348</v>
+      </c>
       <c r="D153" s="18"/>
       <c r="E153" s="12" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="K153" s="22"/>
-      <c r="L153" s="22"/>
-      <c r="M153" s="22"/>
-      <c r="N153" s="22"/>
-      <c r="O153" s="22"/>
-      <c r="P153" s="22"/>
+        <f t="shared" ca="1" si="20"/>
+        <v>完了</v>
+      </c>
+      <c r="F153" s="4">
+        <v>43126</v>
+      </c>
+      <c r="G153" s="4">
+        <v>43126</v>
+      </c>
+      <c r="H153" s="19">
+        <v>3</v>
+      </c>
+      <c r="I153" s="19">
+        <v>3</v>
+      </c>
+      <c r="J153" s="12">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K153" s="22">
+        <v>3</v>
+      </c>
+      <c r="L153" s="22">
+        <v>3</v>
+      </c>
+      <c r="M153" s="22">
+        <v>3</v>
+      </c>
+      <c r="N153" s="22">
+        <v>3</v>
+      </c>
+      <c r="O153" s="22">
+        <v>3</v>
+      </c>
+      <c r="P153" s="22">
+        <v>0</v>
+      </c>
       <c r="Q153" s="22"/>
     </row>
     <row r="154" spans="1:17">
@@ -32309,7 +32835,7 @@
       <c r="C154" s="18"/>
       <c r="D154" s="18"/>
       <c r="E154" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F154" s="4"/>
@@ -32317,7 +32843,7 @@
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
       <c r="J154" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K154" s="22"/>
@@ -32332,46 +32858,74 @@
       <c r="A155" s="16">
         <v>153</v>
       </c>
-      <c r="B155" s="17"/>
-      <c r="C155" s="18"/>
+      <c r="B155" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="C155" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="D155" s="18"/>
       <c r="E155" s="12" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-      <c r="J155" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="K155" s="22"/>
-      <c r="L155" s="22"/>
-      <c r="M155" s="22"/>
-      <c r="N155" s="22"/>
-      <c r="O155" s="22"/>
-      <c r="P155" s="22"/>
+        <f t="shared" ca="1" si="20"/>
+        <v>完了</v>
+      </c>
+      <c r="F155" s="4">
+        <v>43126</v>
+      </c>
+      <c r="G155" s="4">
+        <v>43126</v>
+      </c>
+      <c r="H155" s="19">
+        <v>2</v>
+      </c>
+      <c r="I155" s="19">
+        <v>2</v>
+      </c>
+      <c r="J155" s="12">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K155" s="22">
+        <v>2</v>
+      </c>
+      <c r="L155" s="22">
+        <v>2</v>
+      </c>
+      <c r="M155" s="22">
+        <v>2</v>
+      </c>
+      <c r="N155" s="22">
+        <v>2</v>
+      </c>
+      <c r="O155" s="22">
+        <v>2</v>
+      </c>
+      <c r="P155" s="22">
+        <v>0</v>
+      </c>
       <c r="Q155" s="22"/>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="16">
         <v>154</v>
       </c>
-      <c r="B156" s="17"/>
-      <c r="C156" s="18"/>
+      <c r="B156" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="C156" s="18" t="s">
+        <v>345</v>
+      </c>
       <c r="D156" s="18"/>
       <c r="E156" s="12" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" si="20"/>
+        <v>未着手</v>
       </c>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
       <c r="J156" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K156" s="22"/>
@@ -32386,19 +32940,23 @@
       <c r="A157" s="16">
         <v>155</v>
       </c>
-      <c r="B157" s="17"/>
-      <c r="C157" s="18"/>
+      <c r="B157" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="C157" s="18" t="s">
+        <v>345</v>
+      </c>
       <c r="D157" s="18"/>
       <c r="E157" s="12" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" si="20"/>
+        <v>未着手</v>
       </c>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
       <c r="J157" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K157" s="22"/>
@@ -32417,7 +32975,7 @@
       <c r="C158" s="18"/>
       <c r="D158" s="18"/>
       <c r="E158" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F158" s="4"/>
@@ -32425,7 +32983,7 @@
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
       <c r="J158" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K158" s="22"/>
@@ -32444,7 +33002,7 @@
       <c r="C159" s="18"/>
       <c r="D159" s="18"/>
       <c r="E159" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F159" s="4"/>
@@ -32452,7 +33010,7 @@
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
       <c r="J159" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K159" s="22"/>
@@ -32471,7 +33029,7 @@
       <c r="C160" s="18"/>
       <c r="D160" s="18"/>
       <c r="E160" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F160" s="4"/>
@@ -32479,7 +33037,7 @@
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
       <c r="J160" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K160" s="22"/>
@@ -32498,7 +33056,7 @@
       <c r="C161" s="18"/>
       <c r="D161" s="18"/>
       <c r="E161" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F161" s="4"/>
@@ -32506,7 +33064,7 @@
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
       <c r="J161" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K161" s="22"/>
@@ -32525,7 +33083,7 @@
       <c r="C162" s="18"/>
       <c r="D162" s="18"/>
       <c r="E162" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F162" s="4"/>
@@ -32533,7 +33091,7 @@
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
       <c r="J162" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K162" s="22"/>
@@ -32552,7 +33110,7 @@
       <c r="C163" s="18"/>
       <c r="D163" s="18"/>
       <c r="E163" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F163" s="4"/>
@@ -32560,7 +33118,7 @@
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
       <c r="J163" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K163" s="22"/>
@@ -32579,7 +33137,7 @@
       <c r="C164" s="18"/>
       <c r="D164" s="18"/>
       <c r="E164" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F164" s="4"/>
@@ -32587,7 +33145,7 @@
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
       <c r="J164" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K164" s="22"/>
@@ -32606,7 +33164,7 @@
       <c r="C165" s="18"/>
       <c r="D165" s="18"/>
       <c r="E165" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F165" s="4"/>
@@ -32614,7 +33172,7 @@
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
       <c r="J165" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K165" s="22"/>
@@ -32633,7 +33191,7 @@
       <c r="C166" s="18"/>
       <c r="D166" s="18"/>
       <c r="E166" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F166" s="4"/>
@@ -32641,7 +33199,7 @@
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
       <c r="J166" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K166" s="22"/>
@@ -32660,7 +33218,7 @@
       <c r="C167" s="18"/>
       <c r="D167" s="18"/>
       <c r="E167" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F167" s="4"/>
@@ -32668,7 +33226,7 @@
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
       <c r="J167" s="12" t="str">
-        <f t="shared" ref="J167:J178" ca="1" si="20">IF(ISBLANK(K167)=FALSE,OFFSET(J167,0,COUNTA(K167:Q167)),"")</f>
+        <f t="shared" ref="J167:J178" ca="1" si="21">IF(ISBLANK(K167)=FALSE,OFFSET(J167,0,COUNTA(K167:Q167)),"")</f>
         <v/>
       </c>
       <c r="K167" s="22"/>
@@ -32687,7 +33245,7 @@
       <c r="C168" s="18"/>
       <c r="D168" s="18"/>
       <c r="E168" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F168" s="4"/>
@@ -32695,7 +33253,7 @@
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
       <c r="J168" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K168" s="22"/>
@@ -32714,7 +33272,7 @@
       <c r="C169" s="18"/>
       <c r="D169" s="18"/>
       <c r="E169" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F169" s="4"/>
@@ -32722,7 +33280,7 @@
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
       <c r="J169" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K169" s="22"/>
@@ -32741,7 +33299,7 @@
       <c r="C170" s="18"/>
       <c r="D170" s="18"/>
       <c r="E170" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F170" s="4"/>
@@ -32749,7 +33307,7 @@
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
       <c r="J170" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K170" s="22"/>
@@ -32768,7 +33326,7 @@
       <c r="C171" s="18"/>
       <c r="D171" s="18"/>
       <c r="E171" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F171" s="4"/>
@@ -32776,7 +33334,7 @@
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
       <c r="J171" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K171" s="22"/>
@@ -32795,7 +33353,7 @@
       <c r="C172" s="18"/>
       <c r="D172" s="18"/>
       <c r="E172" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F172" s="4"/>
@@ -32803,7 +33361,7 @@
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
       <c r="J172" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K172" s="22"/>
@@ -32822,7 +33380,7 @@
       <c r="C173" s="18"/>
       <c r="D173" s="18"/>
       <c r="E173" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F173" s="4"/>
@@ -32830,7 +33388,7 @@
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
       <c r="J173" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K173" s="22"/>
@@ -32849,7 +33407,7 @@
       <c r="C174" s="18"/>
       <c r="D174" s="18"/>
       <c r="E174" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F174" s="4"/>
@@ -32857,7 +33415,7 @@
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
       <c r="J174" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K174" s="22"/>
@@ -32876,7 +33434,7 @@
       <c r="C175" s="18"/>
       <c r="D175" s="18"/>
       <c r="E175" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F175" s="4"/>
@@ -32884,7 +33442,7 @@
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
       <c r="J175" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K175" s="22"/>
@@ -32903,7 +33461,7 @@
       <c r="C176" s="18"/>
       <c r="D176" s="18"/>
       <c r="E176" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F176" s="4"/>
@@ -32911,7 +33469,7 @@
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
       <c r="J176" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K176" s="22"/>
@@ -32930,7 +33488,7 @@
       <c r="C177" s="18"/>
       <c r="D177" s="18"/>
       <c r="E177" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F177" s="4"/>
@@ -32938,7 +33496,7 @@
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
       <c r="J177" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K177" s="22"/>
@@ -32957,7 +33515,7 @@
       <c r="C178" s="18"/>
       <c r="D178" s="18"/>
       <c r="E178" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F178" s="4"/>
@@ -32965,7 +33523,7 @@
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
       <c r="J178" s="12" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K178" s="22"/>
@@ -33132,885 +33690,874 @@
   </sheetData>
   <autoFilter ref="C1:D49"/>
   <mergeCells count="11">
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:Q1"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:D4"/>
     <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D196:D65363 C179:C195">
-    <cfRule type="expression" dxfId="248" priority="220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="220" stopIfTrue="1">
       <formula>C179="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="221" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="221" stopIfTrue="1">
       <formula>C179="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="222" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="222" stopIfTrue="1">
       <formula>OR(C179="終了",C179="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO5:XFD5">
-    <cfRule type="expression" dxfId="245" priority="223" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="223" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="224" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="224" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="225" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="225" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B196:B65363 A179:A195">
-    <cfRule type="expression" dxfId="242" priority="226" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="226" stopIfTrue="1">
       <formula>C179="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="227" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="227" stopIfTrue="1">
       <formula>C179="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="228" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="228" stopIfTrue="1">
       <formula>OR(C179="終了",C179="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C196:C65363 B179:B195">
-    <cfRule type="expression" dxfId="239" priority="229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="229" stopIfTrue="1">
       <formula>C179="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="230" stopIfTrue="1">
       <formula>C179="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="231" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="231" stopIfTrue="1">
       <formula>OR(C179="終了",C179="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E196:J65363">
-    <cfRule type="expression" dxfId="236" priority="232" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="232" stopIfTrue="1">
       <formula>$D196="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="233" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="233" stopIfTrue="1">
       <formula>$D196="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="234" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="234" stopIfTrue="1">
       <formula>OR($D196="終了",$D196="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:Q6 B7:K7 D9 D11 C10 B11 B14:I15 A5:IN5 J8:J15 I71:J72 C70:J70 I74:J84 I93:I97 B73:J73 K8:K13 I17:J69 B98:M98 K93:M97 B51:H69 E10:H10 O117:Q117 P114:Q116 B113:I113 P108:Q112 N93:Q98 B101:Q107 J85:J97 B85:I92 I8:I11 K113:Q113 A7:A178 J108:J178 L7:Q13 K14:Q92 K118:Q178 B118:I178">
-    <cfRule type="expression" dxfId="233" priority="151" stopIfTrue="1">
+  <conditionalFormatting sqref="A6:Q6 B7:K7 D9 D11 C10 B11 B14:I15 A5:IN5 J8:J15 I71:J72 C70:J70 I74:J84 I93:I97 B73:J73 K8:K13 I17:J69 B98:M98 K93:M97 B51:H69 E10:H10 B113:I113 P108:Q108 J85:J97 B85:I92 A7:A178 J108:J178 Q109:Q117 O117:P117 K113:P113 B101:Q107 N93:Q98 L7:Q13 I8:I12 K14:Q92 K118:Q178 B118:I178">
+    <cfRule type="expression" dxfId="227" priority="151" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="152" stopIfTrue="1">
       <formula>$E5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="153" stopIfTrue="1">
       <formula>OR($E5="終了",$E5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:IN6">
-    <cfRule type="expression" dxfId="230" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="157" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="158" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="159" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9:IN10">
-    <cfRule type="expression" dxfId="227" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="160" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="161" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="162" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:IN12 R14:IN15 S13:IN13">
-    <cfRule type="expression" dxfId="224" priority="163" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="163" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="164" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="165" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA19:IN19">
-    <cfRule type="expression" dxfId="221" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="166" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="167" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="168" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R22:IN23 AA21:IN21">
-    <cfRule type="expression" dxfId="218" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="169" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="170" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="171" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="171" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R24:IN24">
-    <cfRule type="expression" dxfId="215" priority="175" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="175" stopIfTrue="1">
       <formula>$E7="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="176" stopIfTrue="1">
       <formula>$E7="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="177" stopIfTrue="1">
       <formula>OR($E7="終了",$E7="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R25:IN25">
-    <cfRule type="expression" dxfId="212" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="178" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="179" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="179" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="180" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R43 AC43:IN44 S44:T44">
-    <cfRule type="expression" dxfId="209" priority="181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="181" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="182" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="183" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="183" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R29:R30 Y27:IN30">
-    <cfRule type="expression" dxfId="206" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="184" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="185" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="186" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U32:IN33">
-    <cfRule type="expression" dxfId="203" priority="187" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="187" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="188" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="189" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U31:IN31">
-    <cfRule type="expression" dxfId="200" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="190" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="191" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="191" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="192" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R41:R42 Y41:IN42">
-    <cfRule type="expression" dxfId="197" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="193" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="194" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="195" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="195" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC48:IN48 S48:T48">
-    <cfRule type="expression" dxfId="194" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="196" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="197" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="198" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC50:IN50 S50:T50">
-    <cfRule type="expression" dxfId="191" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="202" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="203" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="203" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="204" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R56:IN56">
-    <cfRule type="expression" dxfId="188" priority="208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="208" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="209" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="210" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R53:IN55">
-    <cfRule type="expression" dxfId="185" priority="211" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="211" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="212" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="213" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R57:IN58">
-    <cfRule type="expression" dxfId="182" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="214" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="215" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="215" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="216" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="216" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R59:IN59">
-    <cfRule type="expression" dxfId="179" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="217" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="218" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="219" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="219" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16:IN16">
-    <cfRule type="expression" dxfId="176" priority="235" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="235" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="236" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="236" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="237" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y26:IN26">
-    <cfRule type="expression" dxfId="173" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="241" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="242" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="243" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="243" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R39 Y39:IN39">
-    <cfRule type="expression" dxfId="170" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="250" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="251" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="251" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="252" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="252" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO56:XFD56">
-    <cfRule type="expression" dxfId="167" priority="259" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="259" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="260" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="260" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="261" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO43:XFD43">
-    <cfRule type="expression" dxfId="164" priority="277" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="277" stopIfTrue="1">
       <formula>$D14="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="278" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="278" stopIfTrue="1">
       <formula>$D14="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="279" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="279" stopIfTrue="1">
       <formula>OR($D14="終了",$D14="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9 B8:E8 E11:E12 B9:C9 E9 D10 D12 B10 C11:C12 B12 H12">
-    <cfRule type="expression" dxfId="161" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="124" stopIfTrue="1">
       <formula>$E8="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="125" stopIfTrue="1">
       <formula>$E8="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="126" stopIfTrue="1">
       <formula>OR($E8="終了",$E8="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8 H11">
-    <cfRule type="expression" dxfId="158" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="121" stopIfTrue="1">
       <formula>$E8="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="122" stopIfTrue="1">
       <formula>$E8="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="123" stopIfTrue="1">
       <formula>OR($E8="終了",$E8="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:G12 F9:G9">
-    <cfRule type="expression" dxfId="155" priority="118" stopIfTrue="1">
+  <conditionalFormatting sqref="F9:G9">
+    <cfRule type="expression" dxfId="149" priority="118" stopIfTrue="1">
       <formula>$E9="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="119" stopIfTrue="1">
       <formula>$E9="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="120" stopIfTrue="1">
       <formula>OR($E9="終了",$E9="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:G11 F8:G8">
-    <cfRule type="expression" dxfId="152" priority="115" stopIfTrue="1">
+  <conditionalFormatting sqref="F8:G8 F11:G12">
+    <cfRule type="expression" dxfId="146" priority="115" stopIfTrue="1">
       <formula>$E8="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="116" stopIfTrue="1">
       <formula>$E8="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="117" stopIfTrue="1">
       <formula>OR($E8="終了",$E8="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:IN11 R7:IN8">
-    <cfRule type="expression" dxfId="149" priority="1276" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="1276" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="1277" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="1277" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="1278" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="1278" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA20:IN20">
-    <cfRule type="expression" dxfId="146" priority="1291" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="1291" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="1292" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="1292" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="1293" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="1293" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA17:IN18">
-    <cfRule type="expression" dxfId="143" priority="1306" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="1306" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="1307" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="1307" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="1308" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="1308" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO6:XFD14">
-    <cfRule type="expression" dxfId="140" priority="1321" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="1321" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="1322" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="1322" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="1323" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="1323" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO15:XFD15">
-    <cfRule type="expression" dxfId="137" priority="1351" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="1351" stopIfTrue="1">
       <formula>$D7="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="1352" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="1352" stopIfTrue="1">
       <formula>$D7="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="1353" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="1353" stopIfTrue="1">
       <formula>OR($D7="終了",$D7="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO16:XFD16">
-    <cfRule type="expression" dxfId="134" priority="1354" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="1354" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="1355" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="1355" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="1356" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="1356" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R52:IN52 AC45:IN46 S45:T46">
-    <cfRule type="expression" dxfId="131" priority="1366" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="1366" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="1367" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="1367" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="1368" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="1368" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA51:IN51 S51:T51">
-    <cfRule type="expression" dxfId="128" priority="1375" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="1375" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="1376" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="1376" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="1377" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="1377" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40 Y40:IN40 R35:IN36">
-    <cfRule type="expression" dxfId="125" priority="1381" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="1381" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="1382" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="1382" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="1383" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="1383" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R37:R38 Y37:IN38">
-    <cfRule type="expression" dxfId="122" priority="1390" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="1390" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="1391" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="1391" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="1392" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="1392" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO20:XFD42">
-    <cfRule type="expression" dxfId="119" priority="1396" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="1396" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="1397" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="1397" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="1398" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="1398" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC47:IN47 S47:T47">
-    <cfRule type="expression" dxfId="116" priority="1399" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="1399" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="1400" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="1400" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="1401" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="1401" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S49:T49 AC49:IN49">
-    <cfRule type="expression" dxfId="113" priority="1408" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="1408" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="1409" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="1409" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="1410" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="1410" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K196:K65362 J195">
-    <cfRule type="expression" dxfId="110" priority="1435" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="1435" stopIfTrue="1">
       <formula>$D196="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="1436" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="1436" stopIfTrue="1">
       <formula>$D196="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="1437" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="1437" stopIfTrue="1">
       <formula>OR($D196="終了",$D196="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L196:M65361 K194:L195">
-    <cfRule type="expression" dxfId="107" priority="1525" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="1525" stopIfTrue="1">
       <formula>$D196="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="1526" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="1526" stopIfTrue="1">
       <formula>$D196="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="1527" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="1527" stopIfTrue="1">
       <formula>OR($D196="終了",$D196="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO47:XFD55">
-    <cfRule type="expression" dxfId="104" priority="1813" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="1813" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="1814" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="1814" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="1815" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="1815" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO44:XFD46">
-    <cfRule type="expression" dxfId="101" priority="1822" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="1822" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="1823" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="1823" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="1824" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="1824" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:I13 B13:E13 R13">
-    <cfRule type="expression" dxfId="98" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="100" stopIfTrue="1">
       <formula>$E13="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="101" stopIfTrue="1">
       <formula>$E13="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="102" stopIfTrue="1">
       <formula>OR($E13="終了",$E13="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="95" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="97" stopIfTrue="1">
       <formula>$E13="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="98" stopIfTrue="1">
       <formula>$E13="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="99" stopIfTrue="1">
       <formula>OR($E13="終了",$E13="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="92" priority="280" stopIfTrue="1">
-      <formula>#REF!="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="91" priority="281" stopIfTrue="1">
-      <formula>#REF!="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="282" stopIfTrue="1">
-      <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R34:IN34">
-    <cfRule type="expression" dxfId="89" priority="283" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="283" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="284" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="284" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="285" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="285" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO17:XFD19">
-    <cfRule type="expression" dxfId="86" priority="286" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="286" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="287" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="287" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="288" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="288" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:J16">
-    <cfRule type="expression" dxfId="83" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="91" stopIfTrue="1">
       <formula>$E16="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="92" stopIfTrue="1">
       <formula>$E16="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="93" stopIfTrue="1">
       <formula>OR($E16="終了",$E16="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:H25">
-    <cfRule type="expression" dxfId="80" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="85" stopIfTrue="1">
       <formula>$E18="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="86" stopIfTrue="1">
       <formula>$E18="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="87" stopIfTrue="1">
       <formula>OR($E18="終了",$E18="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:H17">
-    <cfRule type="expression" dxfId="77" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="88" stopIfTrue="1">
       <formula>$E18="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="89" stopIfTrue="1">
       <formula>$E18="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="90" stopIfTrue="1">
       <formula>OR($E18="終了",$E18="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="74" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="82" stopIfTrue="1">
       <formula>$E17="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="83" stopIfTrue="1">
       <formula>$E17="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="84" stopIfTrue="1">
       <formula>OR($E17="終了",$E17="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:H31">
-    <cfRule type="expression" dxfId="71" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="79" stopIfTrue="1">
       <formula>$E26="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="80" stopIfTrue="1">
       <formula>$E26="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="81" stopIfTrue="1">
       <formula>OR($E26="終了",$E26="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:H35">
-    <cfRule type="expression" dxfId="68" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="76" stopIfTrue="1">
       <formula>$E32="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="77" stopIfTrue="1">
       <formula>$E32="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="78" stopIfTrue="1">
       <formula>OR($E32="終了",$E32="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:H39">
-    <cfRule type="expression" dxfId="65" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="73" stopIfTrue="1">
       <formula>$E36="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="74" stopIfTrue="1">
       <formula>$E36="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="75" stopIfTrue="1">
       <formula>OR($E36="終了",$E36="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46:E46 H46 B40:H45 B47:H47">
-    <cfRule type="expression" dxfId="62" priority="70" stopIfTrue="1">
+  <conditionalFormatting sqref="B40:H45 G46:H46 F47:H47 B46:E47">
+    <cfRule type="expression" dxfId="59" priority="70" stopIfTrue="1">
       <formula>$E40="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="71" stopIfTrue="1">
       <formula>$E40="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="72" stopIfTrue="1">
       <formula>OR($E40="終了",$E40="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="expression" dxfId="59" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="64" stopIfTrue="1">
       <formula>$E46="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="65" stopIfTrue="1">
       <formula>$E46="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="66" stopIfTrue="1">
       <formula>OR($E46="終了",$E46="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:H50">
-    <cfRule type="expression" dxfId="56" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="61" stopIfTrue="1">
       <formula>$E50="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="62" stopIfTrue="1">
       <formula>$E50="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="63" stopIfTrue="1">
       <formula>OR($E50="終了",$E50="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:H49">
-    <cfRule type="expression" dxfId="53" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="58" stopIfTrue="1">
       <formula>$E48="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="59" stopIfTrue="1">
       <formula>$E48="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="60" stopIfTrue="1">
       <formula>OR($E48="終了",$E48="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71:H72">
-    <cfRule type="expression" dxfId="50" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="37" stopIfTrue="1">
       <formula>$E71="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="38" stopIfTrue="1">
       <formula>$E71="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="39" stopIfTrue="1">
       <formula>OR($E71="終了",$E71="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="expression" dxfId="47" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="34" stopIfTrue="1">
       <formula>$E70="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="35" stopIfTrue="1">
       <formula>$E70="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="36" stopIfTrue="1">
       <formula>OR($E70="終了",$E70="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:H84">
-    <cfRule type="expression" dxfId="44" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="31" stopIfTrue="1">
       <formula>$E74="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="32" stopIfTrue="1">
       <formula>$E74="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="33" stopIfTrue="1">
       <formula>OR($E74="終了",$E74="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93:H97">
-    <cfRule type="expression" dxfId="41" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="25" stopIfTrue="1">
       <formula>$E93="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="26" stopIfTrue="1">
       <formula>$E93="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="27" stopIfTrue="1">
       <formula>OR($E93="終了",$E93="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D179:I195">
-    <cfRule type="expression" dxfId="38" priority="4132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="4132" stopIfTrue="1">
       <formula>$C179="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="4133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="4133" stopIfTrue="1">
       <formula>$C179="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="4134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="4134" stopIfTrue="1">
       <formula>OR($C179="終了",$C179="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J179:J194">
-    <cfRule type="expression" dxfId="35" priority="4141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="4141" stopIfTrue="1">
       <formula>$C180="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="4142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="4142" stopIfTrue="1">
       <formula>$C180="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="4143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="4143" stopIfTrue="1">
       <formula>OR($C180="終了",$C180="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K179:L193">
-    <cfRule type="expression" dxfId="32" priority="4150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="4150" stopIfTrue="1">
       <formula>$C181="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="4151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="4151" stopIfTrue="1">
       <formula>$C181="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="4152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="4152" stopIfTrue="1">
       <formula>OR($C181="終了",$C181="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M99 L100:M100 J99:J100 N99:Q100">
-    <cfRule type="expression" dxfId="29" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="16" stopIfTrue="1">
       <formula>$E99="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="17" stopIfTrue="1">
       <formula>$E99="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="18" stopIfTrue="1">
       <formula>OR($E99="終了",$E99="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:I99 K99:L99">
-    <cfRule type="expression" dxfId="26" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="13" stopIfTrue="1">
       <formula>$E99="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="14" stopIfTrue="1">
       <formula>$E99="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="15" stopIfTrue="1">
       <formula>OR($E99="終了",$E99="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B100:I100 K100">
-    <cfRule type="expression" dxfId="23" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="10" stopIfTrue="1">
       <formula>$E100="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="11" stopIfTrue="1">
       <formula>$E100="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="12" stopIfTrue="1">
       <formula>OR($E100="終了",$E100="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108:I108 K108:O108">
-    <cfRule type="expression" dxfId="20" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
       <formula>$E108="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="8" stopIfTrue="1">
       <formula>$E108="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
       <formula>OR($E108="終了",$E108="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B109:I112 K109:O112">
-    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="B109:I112 K109:P112">
+    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
       <formula>$E109="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
       <formula>$E109="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
       <formula>OR($E109="終了",$E109="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B114:I117 O114:O116 K114:N117">
-    <cfRule type="expression" dxfId="14" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="B114:I117 K114:N117 O114:P116">
+    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
       <formula>$E114="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
       <formula>$E114="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
       <formula>OR($E114="終了",$E114="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34019,45 +34566,6 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="67" stopIfTrue="1" id="{366BD057-D7C5-43DA-A138-849172A6B49D}">
-            <xm:f>'スプリントバックログ(第2)'!$E45="未着手"</xm:f>
-            <x14:dxf>
-              <font>
-                <condense val="0"/>
-                <extend val="0"/>
-                <color indexed="10"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="68" stopIfTrue="1" id="{B159C0CE-7D87-4AB8-9194-4F0D92E29390}">
-            <xm:f>'スプリントバックログ(第2)'!$E45="作業中"</xm:f>
-            <x14:dxf>
-              <font>
-                <condense val="0"/>
-                <extend val="0"/>
-                <color indexed="12"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="69" stopIfTrue="1" id="{6C6A738A-F581-4C68-8E54-D77EE568B72A}">
-            <xm:f>OR('スプリントバックログ(第2)'!$E45="終了",'スプリントバックログ(第2)'!$E45="完了")</xm:f>
-            <x14:dxf>
-              <font>
-                <condense val="0"/>
-                <extend val="0"/>
-                <color indexed="22"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G46</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -34146,13 +34654,13 @@
         <v>34</v>
       </c>
       <c r="C2" s="89" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
       <c r="F2" s="32"/>
       <c r="G2" s="89" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="32"/>
@@ -34182,7 +34690,7 @@
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
       <c r="G3" s="89" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
@@ -34212,7 +34720,7 @@
       <c r="E4" s="32"/>
       <c r="F4" s="32"/>
       <c r="G4" s="89" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
@@ -34242,7 +34750,7 @@
       <c r="E5" s="32"/>
       <c r="F5" s="32"/>
       <c r="G5" s="89" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="32"/>
@@ -34270,7 +34778,7 @@
       <c r="E6" s="32"/>
       <c r="F6" s="32"/>
       <c r="G6" s="90" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
@@ -34294,7 +34802,7 @@
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
       <c r="G7" s="89" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
@@ -34316,10 +34824,10 @@
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
       <c r="G8" s="89" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H8" s="89" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I8" s="32"/>
       <c r="J8" s="33"/>

--- a/Godlibrary/BackLog.xlsx
+++ b/Godlibrary/BackLog.xlsx
@@ -4329,6 +4329,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4336,12 +4342,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -19015,7 +19015,7 @@
       <c r="C1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="104" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="96" t="s">
@@ -19039,8 +19039,8 @@
       <c r="K1" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="105"/>
-      <c r="M1" s="106"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="103"/>
       <c r="N1" s="71"/>
       <c r="O1" s="71"/>
       <c r="P1" s="71"/>
@@ -19055,7 +19055,7 @@
       <c r="A2" s="96"/>
       <c r="B2" s="97"/>
       <c r="C2" s="97"/>
-      <c r="D2" s="103"/>
+      <c r="D2" s="105"/>
       <c r="E2" s="96"/>
       <c r="F2" s="99"/>
       <c r="G2" s="99"/>
@@ -19076,7 +19076,7 @@
       <c r="A3" s="96"/>
       <c r="B3" s="97"/>
       <c r="C3" s="97"/>
-      <c r="D3" s="103"/>
+      <c r="D3" s="105"/>
       <c r="E3" s="96"/>
       <c r="F3" s="99"/>
       <c r="G3" s="99"/>
@@ -19100,7 +19100,7 @@
       <c r="A4" s="96"/>
       <c r="B4" s="97"/>
       <c r="C4" s="98"/>
-      <c r="D4" s="104"/>
+      <c r="D4" s="106"/>
       <c r="E4" s="96"/>
       <c r="F4" s="99"/>
       <c r="G4" s="99"/>
@@ -20851,17 +20851,17 @@
   </sheetData>
   <autoFilter ref="C1:D123"/>
   <mergeCells count="11">
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:M1"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:D4"/>
     <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D43:D65414">
@@ -22011,7 +22011,7 @@
       <c r="C1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="104" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="96" t="s">
@@ -22035,13 +22035,13 @@
       <c r="K1" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="106"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="103"/>
       <c r="S1" s="71"/>
       <c r="T1" s="71"/>
       <c r="U1" s="71"/>
@@ -22052,7 +22052,7 @@
       <c r="A2" s="96"/>
       <c r="B2" s="97"/>
       <c r="C2" s="97"/>
-      <c r="D2" s="103"/>
+      <c r="D2" s="105"/>
       <c r="E2" s="96"/>
       <c r="F2" s="99"/>
       <c r="G2" s="99"/>
@@ -22088,7 +22088,7 @@
       <c r="A3" s="96"/>
       <c r="B3" s="97"/>
       <c r="C3" s="97"/>
-      <c r="D3" s="103"/>
+      <c r="D3" s="105"/>
       <c r="E3" s="96"/>
       <c r="F3" s="99"/>
       <c r="G3" s="99"/>
@@ -22132,7 +22132,7 @@
       <c r="A4" s="96"/>
       <c r="B4" s="97"/>
       <c r="C4" s="98"/>
-      <c r="D4" s="104"/>
+      <c r="D4" s="106"/>
       <c r="E4" s="96"/>
       <c r="F4" s="99"/>
       <c r="G4" s="99"/>
@@ -25620,7 +25620,7 @@
       <c r="C1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="104" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="96" t="s">
@@ -25660,7 +25660,7 @@
       <c r="A2" s="96"/>
       <c r="B2" s="97"/>
       <c r="C2" s="97"/>
-      <c r="D2" s="103"/>
+      <c r="D2" s="105"/>
       <c r="E2" s="96"/>
       <c r="F2" s="99"/>
       <c r="G2" s="99"/>
@@ -25693,7 +25693,7 @@
       <c r="A3" s="96"/>
       <c r="B3" s="97"/>
       <c r="C3" s="97"/>
-      <c r="D3" s="103"/>
+      <c r="D3" s="105"/>
       <c r="E3" s="96"/>
       <c r="F3" s="99"/>
       <c r="G3" s="99"/>
@@ -25702,11 +25702,11 @@
       <c r="J3" s="96"/>
       <c r="K3" s="20">
         <f>INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$Q$2))))</f>
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L3" s="20">
         <f t="shared" ref="L3:Q3" si="0">INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$Q$2))))</f>
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M3" s="20">
         <f t="shared" si="0"/>
@@ -25714,11 +25714,11 @@
       </c>
       <c r="N3" s="20">
         <f t="shared" si="0"/>
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O3" s="20">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P3" s="20">
         <f t="shared" si="0"/>
@@ -25733,7 +25733,7 @@
       <c r="A4" s="96"/>
       <c r="B4" s="97"/>
       <c r="C4" s="98"/>
-      <c r="D4" s="104"/>
+      <c r="D4" s="106"/>
       <c r="E4" s="96"/>
       <c r="F4" s="99"/>
       <c r="G4" s="99"/>
@@ -25742,27 +25742,27 @@
       <c r="J4" s="96"/>
       <c r="K4" s="21">
         <f t="shared" ref="K4:Q4" si="1">SUM(K5:K174)</f>
-        <v>260.5</v>
+        <v>261.5</v>
       </c>
       <c r="L4" s="21">
         <f t="shared" si="1"/>
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M4" s="21">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N4" s="21">
         <f t="shared" si="1"/>
-        <v>152.5</v>
+        <v>153.5</v>
       </c>
       <c r="O4" s="21">
         <f t="shared" si="1"/>
-        <v>124.1</v>
+        <v>125.1</v>
       </c>
       <c r="P4" s="21">
         <f t="shared" si="1"/>
-        <v>66.5</v>
+        <v>67.5</v>
       </c>
       <c r="Q4" s="21">
         <f t="shared" si="1"/>
@@ -27713,22 +27713,22 @@
       </c>
       <c r="T43" s="10">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U43" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>12.5</v>
+        <v>8.5</v>
       </c>
       <c r="V43" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>19.5</v>
+        <v>24.5</v>
       </c>
       <c r="W43" s="14">
         <v>0</v>
       </c>
       <c r="X43" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>12.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -30771,20 +30771,24 @@
         <v>50</v>
       </c>
       <c r="E110" s="12" t="str">
-        <f>IF(ISBLANK($B110),"",IF(ISBLANK($G110),"未着手",IF($J110=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($B110),"",IF(ISBLANK($G110),"未着手",IF($J110=0,"完了","作業中")))</f>
+        <v>完了</v>
       </c>
       <c r="F110" s="4">
         <v>43095</v>
       </c>
-      <c r="G110" s="4"/>
+      <c r="G110" s="4">
+        <v>43127</v>
+      </c>
       <c r="H110" s="19">
         <v>2</v>
       </c>
-      <c r="I110" s="19"/>
+      <c r="I110" s="19">
+        <v>2</v>
+      </c>
       <c r="J110" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K110" s="22">
         <v>2</v>
@@ -30804,7 +30808,9 @@
       <c r="P110" s="22">
         <v>2</v>
       </c>
-      <c r="Q110" s="22"/>
+      <c r="Q110" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:17">
       <c r="A111" s="16">
@@ -30820,20 +30826,24 @@
         <v>50</v>
       </c>
       <c r="E111" s="12" t="str">
-        <f>IF(ISBLANK($B111),"",IF(ISBLANK($G111),"未着手",IF($J111=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($B111),"",IF(ISBLANK($G111),"未着手",IF($J111=0,"完了","作業中")))</f>
+        <v>完了</v>
       </c>
       <c r="F111" s="4">
         <v>43096</v>
       </c>
-      <c r="G111" s="4"/>
+      <c r="G111" s="4">
+        <v>43127</v>
+      </c>
       <c r="H111" s="19">
         <v>2</v>
       </c>
-      <c r="I111" s="19"/>
+      <c r="I111" s="19">
+        <v>2</v>
+      </c>
       <c r="J111" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K111" s="22">
         <v>2</v>
@@ -30853,7 +30863,9 @@
       <c r="P111" s="22">
         <v>2</v>
       </c>
-      <c r="Q111" s="22"/>
+      <c r="Q111" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:17">
       <c r="A112" s="16">
@@ -32917,24 +32929,46 @@
       </c>
       <c r="D156" s="18"/>
       <c r="E156" s="12" t="str">
-        <f t="shared" si="20"/>
-        <v>未着手</v>
-      </c>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
-      <c r="J156" s="12" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>完了</v>
+      </c>
+      <c r="F156" s="4">
+        <v>43130</v>
+      </c>
+      <c r="G156" s="4">
+        <v>43130</v>
+      </c>
+      <c r="H156" s="19">
+        <v>1</v>
+      </c>
+      <c r="I156" s="19">
+        <v>1</v>
+      </c>
+      <c r="J156" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="K156" s="22"/>
-      <c r="L156" s="22"/>
-      <c r="M156" s="22"/>
-      <c r="N156" s="22"/>
-      <c r="O156" s="22"/>
-      <c r="P156" s="22"/>
-      <c r="Q156" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="K156" s="22">
+        <v>1</v>
+      </c>
+      <c r="L156" s="22">
+        <v>1</v>
+      </c>
+      <c r="M156" s="22">
+        <v>1</v>
+      </c>
+      <c r="N156" s="22">
+        <v>1</v>
+      </c>
+      <c r="O156" s="22">
+        <v>1</v>
+      </c>
+      <c r="P156" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q156" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="1:17">
       <c r="A157" s="16">
@@ -33690,17 +33724,17 @@
   </sheetData>
   <autoFilter ref="C1:D49"/>
   <mergeCells count="11">
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:Q1"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:D4"/>
     <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D196:D65363 C179:C195">

--- a/Godlibrary/BackLog.xlsx
+++ b/Godlibrary/BackLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3888" yWindow="3048" windowWidth="19236" windowHeight="12120" tabRatio="658" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="3888" yWindow="3048" windowWidth="19236" windowHeight="12120" tabRatio="658" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ(第１）" sheetId="2" r:id="rId1"/>
@@ -802,7 +802,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="407">
   <si>
     <t>担当者</t>
   </si>
@@ -3828,6 +3828,333 @@
     <t>デバッグログ修正</t>
     <rPh sb="6" eb="8">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>水沼</t>
+    <rPh sb="0" eb="2">
+      <t>ミズヌマ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>タイトル画面をいい感じにした</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>武器の反映</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>齋藤</t>
+    <rPh sb="0" eb="2">
+      <t>サイトウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>編成画面のセーブの方作り</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンセイガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>穴久保</t>
+    <rPh sb="0" eb="3">
+      <t>アナクボ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>敵の経路探索修正</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイロ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>中東</t>
+    <rPh sb="0" eb="2">
+      <t>ナカヒガシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アニメーションを滑らかにした</t>
+    <rPh sb="8" eb="9">
+      <t>ナメ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>攻撃範囲修正</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>スキルが最初から全部見えてる</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>スキルの効果が明示されてないから分かりにくい</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>初期だと何も装備してない判定になり、表示上の攻撃力が低くなる</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>編成画面でキャラのステータス開いた時の右下謎のウィンドウ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SE全面的に差し替え</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SE差し替え</t>
+    <rPh sb="2" eb="3">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ジェーコブの顔グラ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>文字が中央揃えじゃないのが多々ある</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウゾロ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タタ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>レベルの文字が消えてる</t>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>編成してないキャラの残像問題</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ザンゾウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アニメーションタイミング</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ケンがザコすぎる</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ここまで直すべき仕様系</t>
+    <rPh sb="4" eb="5">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ここまでバグ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>拳系の武器の2回攻撃技が消えてる</t>
+    <rPh sb="0" eb="1">
+      <t>コブシ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ワザ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>敵マーセナリーが強い</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ゲイリーとジェーコブだけでなんとかなる</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ここまでゲームバランス問題</t>
+    <rPh sb="11" eb="13">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ガンナーが2発で死ぬ、封印ハード/新暗黒H5くらい</t>
+    <rPh sb="6" eb="7">
+      <t>ハツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フウイン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>シンアンコク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>選択してない文字の色が暗すぎる</t>
+    <rPh sb="11" eb="12">
+      <t>クラ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>統一しよう！</t>
+    <rPh sb="0" eb="2">
+      <t>トウイツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>交換とかして所持アイテムが無くなると止まる</t>
+    <rPh sb="0" eb="2">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>というかファイターがくっそ弱い</t>
+    <rPh sb="13" eb="14">
+      <t>ヨワ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>味方HPゲージの文字がでかすぎる</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>烈火とか参考にして直すべき</t>
+    <rPh sb="0" eb="2">
+      <t>レッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>もうちょい明るくて良い</t>
+    <rPh sb="5" eb="6">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -4256,7 +4583,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4554,7 +4881,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4580,6 +4906,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4589,15 +4921,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4724,174 +5052,12 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="55"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
+        <color auto="1"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="45"/>
+          <bgColor indexed="44"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4899,27 +5065,11 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color indexed="55"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
+        <color auto="1"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor indexed="22"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4927,29 +5077,237 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color indexed="55"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
+        <color auto="1"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="9"/>
+          <bgColor indexed="43"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="45"/>
+          <bgColor indexed="44"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="9"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="45"/>
+          <bgColor indexed="44"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="9"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -13651,7 +14009,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -13765,7 +14122,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -13950,7 +14306,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -14889,7 +15244,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -15003,7 +15357,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -15188,7 +15541,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -17541,7 +17893,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>5443</xdr:colOff>
+      <xdr:colOff>5442</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -17910,53 +18262,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="F1" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="100" t="s">
+      <c r="G1" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="96" t="s">
+      <c r="I1" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="94" t="s">
+      <c r="J1" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
     </row>
     <row r="2" spans="1:16" s="8" customFormat="1">
-      <c r="A2" s="96"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="96"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="95"/>
       <c r="J2" s="23" t="s">
         <v>11</v>
       </c>
@@ -17980,15 +18332,15 @@
       </c>
     </row>
     <row r="3" spans="1:16" s="8" customFormat="1">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="96"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="95"/>
       <c r="J3" s="20">
         <f t="shared" ref="J3:P3" si="0">INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$P$2))))</f>
         <v>0</v>
@@ -18019,15 +18371,15 @@
       </c>
     </row>
     <row r="4" spans="1:16" s="8" customFormat="1">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="96"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="95"/>
       <c r="J4" s="21">
         <f>SUM(J5:J104)</f>
         <v>0</v>
@@ -21731,41 +22083,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="95" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="F1" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="96" t="s">
+      <c r="J1" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="94" t="s">
+      <c r="K1" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="105"/>
-      <c r="M1" s="106"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="102"/>
       <c r="N1" s="71"/>
       <c r="O1" s="71"/>
       <c r="P1" s="71"/>
@@ -21777,16 +22129,16 @@
       <c r="V1" s="71"/>
     </row>
     <row r="2" spans="1:22" s="8" customFormat="1">
-      <c r="A2" s="96"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="96"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="95"/>
       <c r="K2" s="23" t="s">
         <v>44</v>
       </c>
@@ -21798,16 +22150,16 @@
       </c>
     </row>
     <row r="3" spans="1:22" s="8" customFormat="1">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="96"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="95"/>
       <c r="K3" s="20">
         <f>INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$M$2))))</f>
         <v>79</v>
@@ -21822,16 +22174,16 @@
       </c>
     </row>
     <row r="4" spans="1:22" s="8" customFormat="1">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="96"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="95"/>
       <c r="K4" s="21">
         <f>SUM(K5:K42)</f>
         <v>79</v>
@@ -23576,17 +23928,17 @@
   </sheetData>
   <autoFilter ref="C1:D123"/>
   <mergeCells count="11">
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:M1"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:D4"/>
     <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D43:D65414">
@@ -24729,44 +25081,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="96"/>
-      <c r="B1" s="96" t="s">
+      <c r="A1" s="95"/>
+      <c r="B1" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="F1" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="96" t="s">
+      <c r="J1" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="94" t="s">
+      <c r="K1" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="106"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="102"/>
       <c r="S1" s="71"/>
       <c r="T1" s="71"/>
       <c r="U1" s="71"/>
@@ -24774,16 +25126,16 @@
       <c r="W1" s="71"/>
     </row>
     <row r="2" spans="1:23" s="8" customFormat="1">
-      <c r="A2" s="96"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="96"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="95"/>
       <c r="K2" s="23" t="s">
         <v>133</v>
       </c>
@@ -24810,16 +25162,16 @@
       </c>
     </row>
     <row r="3" spans="1:23" s="8" customFormat="1">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="96"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="95"/>
       <c r="K3" s="20">
         <f>INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$R$2))))</f>
         <v>78</v>
@@ -24854,16 +25206,16 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="8" customFormat="1">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="96"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="95"/>
       <c r="K4" s="21">
         <f>SUM(K5:K50)</f>
         <v>78</v>
@@ -28304,8 +28656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X191"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+    <sheetView topLeftCell="A121" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J133" sqref="J133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -28336,45 +28688,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="F1" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="96" t="s">
+      <c r="J1" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="107" t="s">
+      <c r="K1" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
       <c r="R1" s="71"/>
       <c r="S1" s="71"/>
       <c r="T1" s="71"/>
@@ -28382,16 +28734,16 @@
       <c r="V1" s="71"/>
     </row>
     <row r="2" spans="1:22" s="8" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A2" s="96"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="96"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="95"/>
       <c r="K2" s="23" t="s">
         <v>137</v>
       </c>
@@ -28415,16 +28767,16 @@
       </c>
     </row>
     <row r="3" spans="1:22" s="8" customFormat="1">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="96"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="95"/>
       <c r="K3" s="20">
         <f>INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$Q$2))))</f>
         <v>268</v>
@@ -28455,43 +28807,43 @@
       </c>
     </row>
     <row r="4" spans="1:22" s="8" customFormat="1">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="96"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="95"/>
       <c r="K4" s="21">
-        <f>SUM(K5:K170)</f>
+        <f t="shared" ref="K4:Q4" si="1">SUM(K5:K170)</f>
         <v>268.5</v>
       </c>
       <c r="L4" s="21">
-        <f>SUM(L5:L170)</f>
+        <f t="shared" si="1"/>
         <v>215</v>
       </c>
       <c r="M4" s="21">
-        <f>SUM(M5:M170)</f>
+        <f t="shared" si="1"/>
         <v>188</v>
       </c>
       <c r="N4" s="21">
-        <f>SUM(N5:N170)</f>
+        <f t="shared" si="1"/>
         <v>162.5</v>
       </c>
       <c r="O4" s="21">
-        <f>SUM(O5:O170)</f>
+        <f t="shared" si="1"/>
         <v>134.1</v>
       </c>
       <c r="P4" s="21">
-        <f>SUM(P5:P170)</f>
+        <f t="shared" si="1"/>
         <v>83.5</v>
       </c>
       <c r="Q4" s="21">
-        <f>SUM(Q5:Q170)</f>
-        <v>41</v>
+        <f t="shared" si="1"/>
+        <v>51.5</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -28557,7 +28909,7 @@
         <v>55</v>
       </c>
       <c r="E7" s="12" t="str">
-        <f t="shared" ref="E7:E12" si="1">IF(ISBLANK($B7),"",IF(ISBLANK($G7),"未着手",IF($J7=0,"完了","作業中")))</f>
+        <f t="shared" ref="E7:E12" si="2">IF(ISBLANK($B7),"",IF(ISBLANK($G7),"未着手",IF($J7=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F7" s="4"/>
@@ -28588,7 +28940,9 @@
       <c r="P7" s="22">
         <v>6</v>
       </c>
-      <c r="Q7" s="22"/>
+      <c r="Q7" s="22">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="16">
@@ -28604,7 +28958,7 @@
         <v>135</v>
       </c>
       <c r="E8" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F8" s="4">
@@ -28620,7 +28974,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="12">
-        <f t="shared" ref="J8:J69" ca="1" si="2">IF(ISBLANK(K8)=FALSE,OFFSET(J8,0,COUNTA(K8:Q8)),"")</f>
+        <f t="shared" ref="J8:J69" ca="1" si="3">IF(ISBLANK(K8)=FALSE,OFFSET(J8,0,COUNTA(K8:Q8)),"")</f>
         <v>0</v>
       </c>
       <c r="K8" s="22">
@@ -28659,7 +29013,7 @@
         <v>135</v>
       </c>
       <c r="E9" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F9" s="4">
@@ -28675,7 +29029,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="22">
@@ -28714,7 +29068,7 @@
         <v>135</v>
       </c>
       <c r="E10" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>作業中</v>
       </c>
       <c r="F10" s="4">
@@ -28728,7 +29082,7 @@
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="K10" s="22">
@@ -28749,7 +29103,9 @@
       <c r="P10" s="22">
         <v>2</v>
       </c>
-      <c r="Q10" s="22"/>
+      <c r="Q10" s="22">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="16">
@@ -28765,7 +29121,7 @@
         <v>135</v>
       </c>
       <c r="E11" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F11" s="4">
@@ -28781,7 +29137,7 @@
         <v>4</v>
       </c>
       <c r="J11" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="22">
@@ -28820,7 +29176,7 @@
         <v>135</v>
       </c>
       <c r="E12" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F12" s="4">
@@ -28836,7 +29192,7 @@
         <v>4</v>
       </c>
       <c r="J12" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K12" s="22">
@@ -28891,7 +29247,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K13" s="22">
@@ -28930,7 +29286,7 @@
       <c r="H14" s="80"/>
       <c r="I14" s="80"/>
       <c r="J14" s="78" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K14" s="22"/>
@@ -28956,7 +29312,7 @@
       <c r="H15" s="54"/>
       <c r="I15" s="54"/>
       <c r="J15" s="52" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K15" s="55"/>
@@ -29005,7 +29361,7 @@
       <c r="H17" s="80"/>
       <c r="I17" s="19"/>
       <c r="J17" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K17" s="22"/>
@@ -29030,7 +29386,7 @@
         <v>48</v>
       </c>
       <c r="E18" s="12" t="str">
-        <f t="shared" ref="E18:E25" ca="1" si="3">IF(ISBLANK($B18),"",IF(ISBLANK($G18),"未着手",IF($J18=0,"完了","作業中")))</f>
+        <f t="shared" ref="E18:E25" ca="1" si="4">IF(ISBLANK($B18),"",IF(ISBLANK($G18),"未着手",IF($J18=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F18" s="4">
@@ -29046,7 +29402,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K18" s="22">
@@ -29085,7 +29441,7 @@
         <v>48</v>
       </c>
       <c r="E19" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F19" s="4">
@@ -29101,7 +29457,7 @@
         <v>2.5</v>
       </c>
       <c r="J19" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K19" s="22">
@@ -29140,7 +29496,7 @@
         <v>48</v>
       </c>
       <c r="E20" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F20" s="4">
@@ -29156,7 +29512,7 @@
         <v>3</v>
       </c>
       <c r="J20" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K20" s="22">
@@ -29195,7 +29551,7 @@
         <v>48</v>
       </c>
       <c r="E21" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F21" s="4">
@@ -29211,7 +29567,7 @@
         <v>3</v>
       </c>
       <c r="J21" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K21" s="22">
@@ -29250,7 +29606,7 @@
         <v>48</v>
       </c>
       <c r="E22" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F22" s="4">
@@ -29266,7 +29622,7 @@
         <v>2</v>
       </c>
       <c r="J22" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K22" s="22">
@@ -29305,7 +29661,7 @@
         <v>48</v>
       </c>
       <c r="E23" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F23" s="4">
@@ -29321,7 +29677,7 @@
         <v>2</v>
       </c>
       <c r="J23" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K23" s="22">
@@ -29360,7 +29716,7 @@
         <v>48</v>
       </c>
       <c r="E24" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F24" s="4">
@@ -29376,7 +29732,7 @@
         <v>3</v>
       </c>
       <c r="J24" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K24" s="22">
@@ -29415,7 +29771,7 @@
         <v>48</v>
       </c>
       <c r="E25" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F25" s="4">
@@ -29431,7 +29787,7 @@
         <v>2</v>
       </c>
       <c r="J25" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K25" s="22">
@@ -29471,7 +29827,7 @@
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K26" s="22"/>
@@ -29530,7 +29886,7 @@
       </c>
       <c r="I27" s="19"/>
       <c r="J27" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="K27" s="22">
@@ -29603,7 +29959,7 @@
       </c>
       <c r="I28" s="19"/>
       <c r="J28" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="K28" s="22">
@@ -29639,14 +29995,14 @@
         <v>0</v>
       </c>
       <c r="V28" s="10">
-        <f t="shared" ref="V28" ca="1" si="4">T28-U28</f>
+        <f t="shared" ref="V28" ca="1" si="5">T28-U28</f>
         <v>2</v>
       </c>
       <c r="W28" s="14">
         <v>0</v>
       </c>
       <c r="X28" s="15">
-        <f t="shared" ref="X28" ca="1" si="5">IF(W28&gt;U28,0,U28-W28)</f>
+        <f t="shared" ref="X28" ca="1" si="6">IF(W28&gt;U28,0,U28-W28)</f>
         <v>0</v>
       </c>
     </row>
@@ -29676,7 +30032,7 @@
       </c>
       <c r="I29" s="19"/>
       <c r="J29" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
       <c r="K29" s="22">
@@ -29727,7 +30083,7 @@
       </c>
       <c r="I30" s="19"/>
       <c r="J30" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="K30" s="22">
@@ -29778,7 +30134,7 @@
       </c>
       <c r="I31" s="19"/>
       <c r="J31" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="K31" s="22">
@@ -29818,7 +30174,7 @@
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K32" s="22"/>
@@ -29855,7 +30211,7 @@
       </c>
       <c r="I33" s="19"/>
       <c r="J33" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
       <c r="K33" s="22">
@@ -29906,7 +30262,7 @@
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
       <c r="K34" s="22">
@@ -29957,7 +30313,7 @@
       </c>
       <c r="I35" s="19"/>
       <c r="J35" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="K35" s="22">
@@ -29997,7 +30353,7 @@
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K36" s="22"/>
@@ -30035,10 +30391,10 @@
         <v>3</v>
       </c>
       <c r="I37" s="19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J37" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="K37" s="22">
@@ -30109,7 +30465,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="K38" s="22">
@@ -30137,11 +30493,11 @@
         <v>47</v>
       </c>
       <c r="T38" s="10">
-        <f>SUMIF($C$5:$C$170,S38,$H$5:$H$170)</f>
+        <f t="shared" ref="T38:T43" si="7">SUMIF($C$5:$C$170,S38,$H$5:$H$170)</f>
         <v>54</v>
       </c>
       <c r="U38" s="10">
-        <f ca="1">SUMIF($C$5:$C$170,S38,$J$5:$J$170)</f>
+        <f t="shared" ref="U38:U43" ca="1" si="8">SUMIF($C$5:$C$170,S38,$J$5:$J$170)</f>
         <v>6</v>
       </c>
       <c r="V38" s="10">
@@ -30186,7 +30542,7 @@
         <v>5</v>
       </c>
       <c r="J39" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="K39" s="22">
@@ -30214,23 +30570,23 @@
         <v>92</v>
       </c>
       <c r="T39" s="10">
-        <f>SUMIF($C$5:$C$170,S39,$H$5:$H$170)</f>
+        <f t="shared" si="7"/>
         <v>77</v>
       </c>
       <c r="U39" s="10">
-        <f ca="1">SUMIF($C$5:$C$170,S39,$J$5:$J$170)</f>
-        <v>37</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>34.5</v>
       </c>
       <c r="V39" s="10">
-        <f t="shared" ref="V39:V43" ca="1" si="6">T39-U39</f>
-        <v>40</v>
+        <f t="shared" ref="V39:V43" ca="1" si="9">T39-U39</f>
+        <v>42.5</v>
       </c>
       <c r="W39" s="14">
         <v>0</v>
       </c>
       <c r="X39" s="15">
-        <f t="shared" ref="X39:X43" ca="1" si="7">IF(W39&gt;U39,0,U39-W39)</f>
-        <v>37</v>
+        <f t="shared" ref="X39:X43" ca="1" si="10">IF(W39&gt;U39,0,U39-W39)</f>
+        <v>34.5</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -30248,7 +30604,7 @@
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K40" s="22"/>
@@ -30262,23 +30618,23 @@
         <v>61</v>
       </c>
       <c r="T40" s="10">
-        <f>SUMIF($C$5:$C$170,S40,$H$5:$H$170)</f>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="U40" s="10">
-        <f ca="1">SUMIF($C$5:$C$170,S40,$J$5:$J$170)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>7.5</v>
       </c>
       <c r="V40" s="10">
-        <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>20.5</v>
       </c>
       <c r="W40" s="14">
         <v>0</v>
       </c>
       <c r="X40" s="15">
-        <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>7.5</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -30311,7 +30667,7 @@
         <v>2</v>
       </c>
       <c r="J41" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="K41" s="22">
@@ -30339,22 +30695,22 @@
         <v>64</v>
       </c>
       <c r="T41" s="10">
-        <f>SUMIF($C$5:$C$170,S41,$H$5:$H$170)</f>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="U41" s="10">
-        <f ca="1">SUMIF($C$5:$C$170,S41,$J$5:$J$170)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="V41" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v>35</v>
       </c>
       <c r="W41" s="14">
         <v>0</v>
       </c>
       <c r="X41" s="15">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -30388,7 +30744,7 @@
         <v>2</v>
       </c>
       <c r="J42" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="K42" s="22">
@@ -30416,22 +30772,22 @@
         <v>63</v>
       </c>
       <c r="T42" s="10">
-        <f>SUMIF($C$5:$C$170,S42,$H$5:$H$170)</f>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="U42" s="10">
-        <f ca="1">SUMIF($C$5:$C$170,S42,$J$5:$J$170)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
       <c r="V42" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v>44</v>
       </c>
       <c r="W42" s="14">
         <v>0</v>
       </c>
       <c r="X42" s="15">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>3</v>
       </c>
     </row>
@@ -30461,7 +30817,7 @@
       </c>
       <c r="I43" s="19"/>
       <c r="J43" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="K43" s="22">
@@ -30489,22 +30845,22 @@
         <v>78</v>
       </c>
       <c r="T43" s="10">
-        <f>SUMIF($C$5:$C$170,S43,$H$5:$H$170)</f>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="U43" s="10">
-        <f ca="1">SUMIF($C$5:$C$170,S43,$J$5:$J$170)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>4.5</v>
       </c>
       <c r="V43" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="9"/>
         <v>27.5</v>
       </c>
       <c r="W43" s="14">
         <v>0</v>
       </c>
       <c r="X43" s="15">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="10"/>
         <v>4.5</v>
       </c>
     </row>
@@ -30538,7 +30894,7 @@
         <v>3</v>
       </c>
       <c r="J44" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K44" s="22">
@@ -30593,7 +30949,7 @@
         <v>2</v>
       </c>
       <c r="J45" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K45" s="22">
@@ -30632,7 +30988,7 @@
         <v>56</v>
       </c>
       <c r="E46" s="12" t="str">
-        <f t="shared" ref="E46:E47" ca="1" si="8">IF(ISBLANK($B46),"",IF(ISBLANK($G46),"未着手",IF($J46=0,"完了","作業中")))</f>
+        <f t="shared" ref="E46:E47" ca="1" si="11">IF(ISBLANK($B46),"",IF(ISBLANK($G46),"未着手",IF($J46=0,"完了","作業中")))</f>
         <v>作業中</v>
       </c>
       <c r="F46" s="4">
@@ -30648,7 +31004,7 @@
         <v>2</v>
       </c>
       <c r="J46" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="K46" s="22">
@@ -30687,7 +31043,7 @@
         <v>77</v>
       </c>
       <c r="E47" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="11"/>
         <v>完了</v>
       </c>
       <c r="F47" s="4">
@@ -30703,7 +31059,7 @@
         <v>3</v>
       </c>
       <c r="J47" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K47" s="22">
@@ -30742,7 +31098,7 @@
         <v>77</v>
       </c>
       <c r="E48" s="12" t="str">
-        <f t="shared" ref="E48:E49" ca="1" si="9">IF(ISBLANK($B48),"",IF(ISBLANK($G48),"未着手",IF($J48=0,"完了","作業中")))</f>
+        <f t="shared" ref="E48:E49" ca="1" si="12">IF(ISBLANK($B48),"",IF(ISBLANK($G48),"未着手",IF($J48=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F48" s="4">
@@ -30758,7 +31114,7 @@
         <v>4</v>
       </c>
       <c r="J48" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K48" s="22">
@@ -30797,7 +31153,7 @@
         <v>184</v>
       </c>
       <c r="E49" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>完了</v>
       </c>
       <c r="F49" s="4">
@@ -30813,7 +31169,7 @@
         <v>2</v>
       </c>
       <c r="J49" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K49" s="22">
@@ -30851,7 +31207,7 @@
       <c r="H50" s="80"/>
       <c r="I50" s="80"/>
       <c r="J50" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K50" s="22"/>
@@ -30877,7 +31233,7 @@
       <c r="H51" s="19"/>
       <c r="I51" s="80"/>
       <c r="J51" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K51" s="22"/>
@@ -30902,7 +31258,7 @@
         <v>56</v>
       </c>
       <c r="E52" s="12" t="str">
-        <f t="shared" ref="E52:E69" ca="1" si="10">IF(ISBLANK($B52),"",IF(ISBLANK($G52),"未着手",IF($J52=0,"完了","作業中")))</f>
+        <f t="shared" ref="E52:E69" ca="1" si="13">IF(ISBLANK($B52),"",IF(ISBLANK($G52),"未着手",IF($J52=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F52" s="4">
@@ -30918,7 +31274,7 @@
         <v>1.5</v>
       </c>
       <c r="J52" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K52" s="22">
@@ -30957,7 +31313,7 @@
         <v>56</v>
       </c>
       <c r="E53" s="12" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v>完了</v>
       </c>
       <c r="F53" s="4">
@@ -30973,7 +31329,7 @@
         <v>1.5</v>
       </c>
       <c r="J53" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K53" s="22">
@@ -31012,7 +31368,7 @@
         <v>56</v>
       </c>
       <c r="E54" s="12" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v>完了</v>
       </c>
       <c r="F54" s="4">
@@ -31028,7 +31384,7 @@
         <v>1.5</v>
       </c>
       <c r="J54" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K54" s="22">
@@ -31067,7 +31423,7 @@
         <v>56</v>
       </c>
       <c r="E55" s="12" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v>完了</v>
       </c>
       <c r="F55" s="4">
@@ -31083,7 +31439,7 @@
         <v>1.5</v>
       </c>
       <c r="J55" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K55" s="22">
@@ -31122,7 +31478,7 @@
         <v>56</v>
       </c>
       <c r="E56" s="12" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v>完了</v>
       </c>
       <c r="F56" s="4">
@@ -31138,7 +31494,7 @@
         <v>3</v>
       </c>
       <c r="J56" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K56" s="22">
@@ -31177,7 +31533,7 @@
         <v>56</v>
       </c>
       <c r="E57" s="12" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v>完了</v>
       </c>
       <c r="F57" s="4">
@@ -31193,7 +31549,7 @@
         <v>1</v>
       </c>
       <c r="J57" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K57" s="22">
@@ -31232,7 +31588,7 @@
         <v>67</v>
       </c>
       <c r="E58" s="12" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v>完了</v>
       </c>
       <c r="F58" s="4">
@@ -31248,7 +31604,7 @@
         <v>1</v>
       </c>
       <c r="J58" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K58" s="22">
@@ -31287,7 +31643,7 @@
         <v>67</v>
       </c>
       <c r="E59" s="12" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v>完了</v>
       </c>
       <c r="F59" s="4">
@@ -31303,7 +31659,7 @@
         <v>2</v>
       </c>
       <c r="J59" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K59" s="22">
@@ -31342,7 +31698,7 @@
         <v>67</v>
       </c>
       <c r="E60" s="12" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v>完了</v>
       </c>
       <c r="F60" s="4">
@@ -31358,7 +31714,7 @@
         <v>4</v>
       </c>
       <c r="J60" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K60" s="22">
@@ -31391,7 +31747,7 @@
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
       <c r="E61" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F61" s="4"/>
@@ -31399,7 +31755,7 @@
       <c r="H61" s="19"/>
       <c r="I61" s="80"/>
       <c r="J61" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K61" s="22"/>
@@ -31425,7 +31781,7 @@
       <c r="H62" s="19"/>
       <c r="I62" s="80"/>
       <c r="J62" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K62" s="22"/>
@@ -31450,7 +31806,7 @@
         <v>56</v>
       </c>
       <c r="E63" s="12" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v>完了</v>
       </c>
       <c r="F63" s="4">
@@ -31466,7 +31822,7 @@
         <v>1</v>
       </c>
       <c r="J63" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K63" s="22">
@@ -31505,7 +31861,7 @@
         <v>56</v>
       </c>
       <c r="E64" s="12" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v>完了</v>
       </c>
       <c r="F64" s="4">
@@ -31521,7 +31877,7 @@
         <v>4</v>
       </c>
       <c r="J64" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K64" s="22">
@@ -31560,7 +31916,7 @@
         <v>56</v>
       </c>
       <c r="E65" s="12" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v>完了</v>
       </c>
       <c r="F65" s="4">
@@ -31576,7 +31932,7 @@
         <v>2</v>
       </c>
       <c r="J65" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K65" s="22">
@@ -31615,7 +31971,7 @@
         <v>56</v>
       </c>
       <c r="E66" s="12" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v>完了</v>
       </c>
       <c r="F66" s="4">
@@ -31631,7 +31987,7 @@
         <v>2</v>
       </c>
       <c r="J66" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K66" s="22">
@@ -31670,7 +32026,7 @@
         <v>56</v>
       </c>
       <c r="E67" s="12" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v>完了</v>
       </c>
       <c r="F67" s="4">
@@ -31686,7 +32042,7 @@
         <v>2</v>
       </c>
       <c r="J67" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K67" s="22">
@@ -31725,7 +32081,7 @@
         <v>56</v>
       </c>
       <c r="E68" s="12" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v>完了</v>
       </c>
       <c r="F68" s="4">
@@ -31741,7 +32097,7 @@
         <v>2</v>
       </c>
       <c r="J68" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K68" s="22">
@@ -31774,7 +32130,7 @@
       <c r="C69" s="18"/>
       <c r="D69" s="18"/>
       <c r="E69" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F69" s="4"/>
@@ -31782,7 +32138,7 @@
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
       <c r="J69" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K69" s="22"/>
@@ -31808,7 +32164,7 @@
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
       <c r="J70" s="12" t="str">
-        <f t="shared" ref="J70:J102" ca="1" si="11">IF(ISBLANK(K70)=FALSE,OFFSET(J70,0,COUNTA(K70:Q70)),"")</f>
+        <f t="shared" ref="J70:J102" ca="1" si="14">IF(ISBLANK(K70)=FALSE,OFFSET(J70,0,COUNTA(K70:Q70)),"")</f>
         <v/>
       </c>
       <c r="K70" s="22"/>
@@ -31833,7 +32189,7 @@
         <v>48</v>
       </c>
       <c r="E71" s="12" t="str">
-        <f t="shared" ref="E71:E112" ca="1" si="12">IF(ISBLANK($B71),"",IF(ISBLANK($G71),"未着手",IF($J71=0,"完了","作業中")))</f>
+        <f t="shared" ref="E71:E112" ca="1" si="15">IF(ISBLANK($B71),"",IF(ISBLANK($G71),"未着手",IF($J71=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F71" s="4">
@@ -31849,7 +32205,7 @@
         <v>3</v>
       </c>
       <c r="J71" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="K71" s="22">
@@ -31888,7 +32244,7 @@
         <v>48</v>
       </c>
       <c r="E72" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v>完了</v>
       </c>
       <c r="F72" s="4">
@@ -31904,7 +32260,7 @@
         <v>3</v>
       </c>
       <c r="J72" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="K72" s="22">
@@ -31937,7 +32293,7 @@
       <c r="C73" s="18"/>
       <c r="D73" s="18"/>
       <c r="E73" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F73" s="4"/>
@@ -31945,7 +32301,7 @@
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
       <c r="J73" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="K73" s="22"/>
@@ -31971,7 +32327,7 @@
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
       <c r="J74" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="K74" s="22"/>
@@ -31996,7 +32352,7 @@
         <v>48</v>
       </c>
       <c r="E75" s="12" t="str">
-        <f t="shared" ref="E75:E84" ca="1" si="13">IF(ISBLANK($B75),"",IF(ISBLANK($G75),"未着手",IF($J75=0,"完了","作業中")))</f>
+        <f t="shared" ref="E75:E84" ca="1" si="16">IF(ISBLANK($B75),"",IF(ISBLANK($G75),"未着手",IF($J75=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F75" s="4">
@@ -32012,7 +32368,7 @@
         <v>3</v>
       </c>
       <c r="J75" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="K75" s="22">
@@ -32051,7 +32407,7 @@
         <v>48</v>
       </c>
       <c r="E76" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>完了</v>
       </c>
       <c r="F76" s="4">
@@ -32067,7 +32423,7 @@
         <v>3</v>
       </c>
       <c r="J76" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="K76" s="22">
@@ -32106,7 +32462,7 @@
         <v>48</v>
       </c>
       <c r="E77" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>完了</v>
       </c>
       <c r="F77" s="4">
@@ -32122,7 +32478,7 @@
         <v>4</v>
       </c>
       <c r="J77" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="K77" s="22">
@@ -32161,7 +32517,7 @@
         <v>48</v>
       </c>
       <c r="E78" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>完了</v>
       </c>
       <c r="F78" s="4">
@@ -32210,7 +32566,7 @@
       <c r="C79" s="18"/>
       <c r="D79" s="18"/>
       <c r="E79" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="F79" s="4"/>
@@ -32218,7 +32574,7 @@
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
       <c r="J79" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="K79" s="22"/>
@@ -32243,7 +32599,7 @@
         <v>77</v>
       </c>
       <c r="E80" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>完了</v>
       </c>
       <c r="F80" s="4">
@@ -32259,7 +32615,7 @@
         <v>2</v>
       </c>
       <c r="J80" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="K80" s="22">
@@ -32298,7 +32654,7 @@
         <v>77</v>
       </c>
       <c r="E81" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>完了</v>
       </c>
       <c r="F81" s="4">
@@ -32314,7 +32670,7 @@
         <v>2</v>
       </c>
       <c r="J81" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="K81" s="22">
@@ -32353,7 +32709,7 @@
         <v>275</v>
       </c>
       <c r="E82" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>完了</v>
       </c>
       <c r="F82" s="4">
@@ -32369,7 +32725,7 @@
         <v>2</v>
       </c>
       <c r="J82" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="K82" s="22">
@@ -32408,7 +32764,7 @@
         <v>67</v>
       </c>
       <c r="E83" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>完了</v>
       </c>
       <c r="F83" s="4">
@@ -32424,7 +32780,7 @@
         <v>3</v>
       </c>
       <c r="J83" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="K83" s="22">
@@ -32463,7 +32819,7 @@
         <v>77</v>
       </c>
       <c r="E84" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>完了</v>
       </c>
       <c r="F84" s="4">
@@ -32479,7 +32835,7 @@
         <v>2</v>
       </c>
       <c r="J84" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="K84" s="22">
@@ -32512,7 +32868,7 @@
       <c r="C85" s="18"/>
       <c r="D85" s="18"/>
       <c r="E85" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F85" s="4"/>
@@ -32520,7 +32876,7 @@
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
       <c r="J85" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="K85" s="22"/>
@@ -32546,7 +32902,7 @@
       <c r="H86" s="80"/>
       <c r="I86" s="19"/>
       <c r="J86" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="K86" s="22"/>
@@ -32587,7 +32943,7 @@
         <v>1</v>
       </c>
       <c r="J87" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="K87" s="22">
@@ -32642,7 +32998,7 @@
         <v>1</v>
       </c>
       <c r="J88" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="K88" s="22">
@@ -32681,7 +33037,7 @@
         <v>56</v>
       </c>
       <c r="E89" s="12" t="str">
-        <f t="shared" ref="E89:E92" ca="1" si="14">IF(ISBLANK($B89),"",IF(ISBLANK($G89),"未着手",IF($J89=0,"完了","作業中")))</f>
+        <f t="shared" ref="E89:E92" ca="1" si="17">IF(ISBLANK($B89),"",IF(ISBLANK($G89),"未着手",IF($J89=0,"完了","作業中")))</f>
         <v>作業中</v>
       </c>
       <c r="F89" s="4">
@@ -32695,7 +33051,7 @@
       </c>
       <c r="I89" s="19"/>
       <c r="J89" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="K89" s="22">
@@ -32732,7 +33088,7 @@
         <v>48</v>
       </c>
       <c r="E90" s="12" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="17"/>
         <v>作業中</v>
       </c>
       <c r="F90" s="4">
@@ -32746,7 +33102,7 @@
       </c>
       <c r="I90" s="19"/>
       <c r="J90" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="K90" s="22">
@@ -32783,7 +33139,7 @@
         <v>48</v>
       </c>
       <c r="E91" s="12" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="17"/>
         <v>作業中</v>
       </c>
       <c r="F91" s="4">
@@ -32797,7 +33153,7 @@
       </c>
       <c r="I91" s="19"/>
       <c r="J91" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="K91" s="22">
@@ -32834,7 +33190,7 @@
         <v>48</v>
       </c>
       <c r="E92" s="12" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="17"/>
         <v>作業中</v>
       </c>
       <c r="F92" s="4">
@@ -32848,7 +33204,7 @@
       </c>
       <c r="I92" s="19"/>
       <c r="J92" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="K92" s="22">
@@ -32886,7 +33242,7 @@
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
       <c r="J93" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="K93" s="22"/>
@@ -32911,7 +33267,7 @@
         <v>48</v>
       </c>
       <c r="E94" s="12" t="str">
-        <f t="shared" ref="E94:E97" ca="1" si="15">IF(ISBLANK($B94),"",IF(ISBLANK($G94),"未着手",IF($J94=0,"完了","作業中")))</f>
+        <f t="shared" ref="E94:E97" ca="1" si="18">IF(ISBLANK($B94),"",IF(ISBLANK($G94),"未着手",IF($J94=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F94" s="4">
@@ -32927,7 +33283,7 @@
         <v>2</v>
       </c>
       <c r="J94" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="K94" s="22">
@@ -32966,7 +33322,7 @@
         <v>48</v>
       </c>
       <c r="E95" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="18"/>
         <v>完了</v>
       </c>
       <c r="F95" s="4">
@@ -32982,7 +33338,7 @@
         <v>2</v>
       </c>
       <c r="J95" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="K95" s="22">
@@ -33021,7 +33377,7 @@
         <v>48</v>
       </c>
       <c r="E96" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="18"/>
         <v>完了</v>
       </c>
       <c r="F96" s="4">
@@ -33037,7 +33393,7 @@
         <v>2</v>
       </c>
       <c r="J96" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="K96" s="22">
@@ -33076,7 +33432,7 @@
         <v>48</v>
       </c>
       <c r="E97" s="12" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="18"/>
         <v>完了</v>
       </c>
       <c r="F97" s="4">
@@ -33092,7 +33448,7 @@
         <v>2</v>
       </c>
       <c r="J97" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="K97" s="22">
@@ -33152,7 +33508,7 @@
         <v>77</v>
       </c>
       <c r="E99" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v>完了</v>
       </c>
       <c r="F99" s="4">
@@ -33168,7 +33524,7 @@
         <v>3</v>
       </c>
       <c r="J99" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="K99" s="22">
@@ -33229,7 +33585,7 @@
       <c r="H101" s="54"/>
       <c r="I101" s="54"/>
       <c r="J101" s="52" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="K101" s="55"/>
@@ -33254,7 +33610,7 @@
         <v>294</v>
       </c>
       <c r="E102" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v>完了</v>
       </c>
       <c r="F102" s="4">
@@ -33270,7 +33626,7 @@
         <v>2</v>
       </c>
       <c r="J102" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="K102" s="22">
@@ -33309,7 +33665,7 @@
         <v>301</v>
       </c>
       <c r="E103" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v>完了</v>
       </c>
       <c r="F103" s="4">
@@ -33325,7 +33681,7 @@
         <v>2</v>
       </c>
       <c r="J103" s="12">
-        <f t="shared" ref="J103:J162" ca="1" si="16">IF(ISBLANK(K103)=FALSE,OFFSET(J103,0,COUNTA(K103:Q103)),"")</f>
+        <f t="shared" ref="J103:J162" ca="1" si="19">IF(ISBLANK(K103)=FALSE,OFFSET(J103,0,COUNTA(K103:Q103)),"")</f>
         <v>0</v>
       </c>
       <c r="K103" s="22">
@@ -33364,7 +33720,7 @@
         <v>297</v>
       </c>
       <c r="E104" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v>完了</v>
       </c>
       <c r="F104" s="4">
@@ -33380,7 +33736,7 @@
         <v>2</v>
       </c>
       <c r="J104" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K104" s="22">
@@ -33419,7 +33775,7 @@
         <v>89</v>
       </c>
       <c r="E105" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v>完了</v>
       </c>
       <c r="F105" s="4">
@@ -33435,7 +33791,7 @@
         <v>2</v>
       </c>
       <c r="J105" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K105" s="22">
@@ -33468,7 +33824,7 @@
       <c r="C106" s="18"/>
       <c r="D106" s="18"/>
       <c r="E106" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F106" s="4"/>
@@ -33476,7 +33832,7 @@
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
       <c r="J106" s="12" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K106" s="22"/>
@@ -33501,7 +33857,7 @@
         <v>48</v>
       </c>
       <c r="E107" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v>完了</v>
       </c>
       <c r="F107" s="4">
@@ -33517,7 +33873,7 @@
         <v>2</v>
       </c>
       <c r="J107" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K107" s="22">
@@ -33572,7 +33928,7 @@
         <v>2</v>
       </c>
       <c r="J108" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K108" s="22">
@@ -33627,7 +33983,7 @@
         <v>2</v>
       </c>
       <c r="J109" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K109" s="22">
@@ -33682,7 +34038,7 @@
         <v>2</v>
       </c>
       <c r="J110" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K110" s="22">
@@ -33733,7 +34089,7 @@
       </c>
       <c r="I111" s="19"/>
       <c r="J111" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1</v>
       </c>
       <c r="K111" s="22">
@@ -33754,7 +34110,9 @@
       <c r="P111" s="22">
         <v>1</v>
       </c>
-      <c r="Q111" s="22"/>
+      <c r="Q111" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="1:17">
       <c r="A112" s="16">
@@ -33764,7 +34122,7 @@
       <c r="C112" s="18"/>
       <c r="D112" s="18"/>
       <c r="E112" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F112" s="4"/>
@@ -33772,7 +34130,7 @@
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
       <c r="J112" s="12" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K112" s="22"/>
@@ -33809,7 +34167,7 @@
       </c>
       <c r="I113" s="19"/>
       <c r="J113" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1</v>
       </c>
       <c r="K113" s="22">
@@ -33830,7 +34188,9 @@
       <c r="P113" s="22">
         <v>1</v>
       </c>
-      <c r="Q113" s="22"/>
+      <c r="Q113" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="114" spans="1:17">
       <c r="A114" s="16">
@@ -33858,7 +34218,7 @@
       </c>
       <c r="I114" s="19"/>
       <c r="J114" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1</v>
       </c>
       <c r="K114" s="22">
@@ -33879,7 +34239,9 @@
       <c r="P114" s="22">
         <v>1</v>
       </c>
-      <c r="Q114" s="22"/>
+      <c r="Q114" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="115" spans="1:17">
       <c r="A115" s="16">
@@ -33907,7 +34269,7 @@
       </c>
       <c r="I115" s="19"/>
       <c r="J115" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1</v>
       </c>
       <c r="K115" s="22">
@@ -33928,7 +34290,9 @@
       <c r="P115" s="22">
         <v>1</v>
       </c>
-      <c r="Q115" s="22"/>
+      <c r="Q115" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="116" spans="1:17">
       <c r="A116" s="16">
@@ -33960,7 +34324,7 @@
         <v>0.5</v>
       </c>
       <c r="J116" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0.5</v>
       </c>
       <c r="K116" s="22">
@@ -33981,7 +34345,9 @@
       <c r="P116" s="22">
         <v>0.5</v>
       </c>
-      <c r="Q116" s="22"/>
+      <c r="Q116" s="22">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="117" spans="1:17">
       <c r="A117" s="16">
@@ -33991,7 +34357,7 @@
       <c r="C117" s="18"/>
       <c r="D117" s="18"/>
       <c r="E117" s="12" t="str">
-        <f t="shared" ref="E117:E174" si="17">IF(ISBLANK($B117),"",IF(ISBLANK($G117),"未着手",IF($J117=0,"完了","作業中")))</f>
+        <f t="shared" ref="E117:E174" si="20">IF(ISBLANK($B117),"",IF(ISBLANK($G117),"未着手",IF($J117=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F117" s="4"/>
@@ -33999,7 +34365,7 @@
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
       <c r="J117" s="12" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K117" s="22"/>
@@ -34024,7 +34390,7 @@
         <v>306</v>
       </c>
       <c r="E118" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>作業中</v>
       </c>
       <c r="F118" s="4">
@@ -34040,7 +34406,7 @@
         <v>1</v>
       </c>
       <c r="J118" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>1</v>
       </c>
       <c r="K118" s="22">
@@ -34061,7 +34427,9 @@
       <c r="P118" s="22">
         <v>1</v>
       </c>
-      <c r="Q118" s="22"/>
+      <c r="Q118" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="119" spans="1:17">
       <c r="A119" s="16">
@@ -34077,20 +34445,24 @@
         <v>309</v>
       </c>
       <c r="E119" s="12" t="str">
-        <f t="shared" si="17"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>作業中</v>
       </c>
       <c r="F119" s="4">
         <v>43119</v>
       </c>
-      <c r="G119" s="4"/>
+      <c r="G119" s="4">
+        <v>43130</v>
+      </c>
       <c r="H119" s="19">
         <v>3</v>
       </c>
-      <c r="I119" s="19"/>
+      <c r="I119" s="19">
+        <v>2</v>
+      </c>
       <c r="J119" s="12">
-        <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
       </c>
       <c r="K119" s="22">
         <v>3</v>
@@ -34111,7 +34483,7 @@
         <v>3</v>
       </c>
       <c r="Q119" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:17">
@@ -34127,7 +34499,7 @@
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
       <c r="J120" s="12" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K120" s="22"/>
@@ -34153,7 +34525,7 @@
       <c r="H121" s="54"/>
       <c r="I121" s="54"/>
       <c r="J121" s="52" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K121" s="55"/>
@@ -34176,7 +34548,7 @@
       </c>
       <c r="D122" s="18"/>
       <c r="E122" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F122" s="4">
@@ -34192,7 +34564,7 @@
         <v>2</v>
       </c>
       <c r="J122" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K122" s="22">
@@ -34229,7 +34601,7 @@
       </c>
       <c r="D123" s="18"/>
       <c r="E123" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F123" s="4">
@@ -34245,7 +34617,7 @@
         <v>1</v>
       </c>
       <c r="J123" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K123" s="22">
@@ -34282,7 +34654,7 @@
       </c>
       <c r="D124" s="18"/>
       <c r="E124" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F124" s="4">
@@ -34298,7 +34670,7 @@
         <v>1</v>
       </c>
       <c r="J124" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K124" s="22">
@@ -34335,8 +34707,8 @@
       </c>
       <c r="D125" s="18"/>
       <c r="E125" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>作業中</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>完了</v>
       </c>
       <c r="F125" s="4">
         <v>43126</v>
@@ -34348,11 +34720,11 @@
         <v>1</v>
       </c>
       <c r="I125" s="19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J125" s="12">
-        <f t="shared" ca="1" si="16"/>
-        <v>0.5</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
       <c r="K125" s="22">
         <v>1</v>
@@ -34373,7 +34745,7 @@
         <v>0.5</v>
       </c>
       <c r="Q125" s="22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -34388,7 +34760,7 @@
       </c>
       <c r="D126" s="18"/>
       <c r="E126" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F126" s="4">
@@ -34404,7 +34776,7 @@
         <v>2</v>
       </c>
       <c r="J126" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K126" s="22">
@@ -34441,7 +34813,7 @@
       </c>
       <c r="D127" s="18"/>
       <c r="E127" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F127" s="4">
@@ -34457,7 +34829,7 @@
         <v>1</v>
       </c>
       <c r="J127" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K127" s="22">
@@ -34494,7 +34866,7 @@
       </c>
       <c r="D128" s="18"/>
       <c r="E128" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F128" s="4">
@@ -34510,7 +34882,7 @@
         <v>1</v>
       </c>
       <c r="J128" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K128" s="22">
@@ -34547,7 +34919,7 @@
       </c>
       <c r="D129" s="18"/>
       <c r="E129" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F129" s="4">
@@ -34563,7 +34935,7 @@
         <v>1</v>
       </c>
       <c r="J129" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K129" s="22">
@@ -34600,7 +34972,7 @@
       </c>
       <c r="D130" s="18"/>
       <c r="E130" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F130" s="4">
@@ -34616,7 +34988,7 @@
         <v>1</v>
       </c>
       <c r="J130" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K130" s="22">
@@ -34653,7 +35025,7 @@
       </c>
       <c r="D131" s="18"/>
       <c r="E131" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F131" s="4">
@@ -34669,7 +35041,7 @@
         <v>1</v>
       </c>
       <c r="J131" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K131" s="22">
@@ -34706,7 +35078,7 @@
       </c>
       <c r="D132" s="18"/>
       <c r="E132" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>作業中</v>
       </c>
       <c r="F132" s="4">
@@ -34722,7 +35094,7 @@
         <v>0.5</v>
       </c>
       <c r="J132" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0.5</v>
       </c>
       <c r="K132" s="22">
@@ -34759,7 +35131,7 @@
       </c>
       <c r="D133" s="18"/>
       <c r="E133" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>作業中</v>
       </c>
       <c r="F133" s="4">
@@ -34775,7 +35147,7 @@
         <v>1.5</v>
       </c>
       <c r="J133" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0.5</v>
       </c>
       <c r="K133" s="22">
@@ -34812,7 +35184,7 @@
       </c>
       <c r="D134" s="18"/>
       <c r="E134" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F134" s="4">
@@ -34828,7 +35200,7 @@
         <v>2</v>
       </c>
       <c r="J134" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K134" s="22">
@@ -34865,7 +35237,7 @@
       </c>
       <c r="D135" s="18"/>
       <c r="E135" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F135" s="4">
@@ -34881,7 +35253,7 @@
         <v>1</v>
       </c>
       <c r="J135" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K135" s="22">
@@ -34918,7 +35290,7 @@
       </c>
       <c r="D136" s="18"/>
       <c r="E136" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F136" s="4">
@@ -34934,7 +35306,7 @@
         <v>1</v>
       </c>
       <c r="J136" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K136" s="22">
@@ -34971,7 +35343,7 @@
       </c>
       <c r="D137" s="18"/>
       <c r="E137" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F137" s="4">
@@ -34987,7 +35359,7 @@
         <v>1</v>
       </c>
       <c r="J137" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K137" s="22">
@@ -35024,7 +35396,7 @@
       </c>
       <c r="D138" s="18"/>
       <c r="E138" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F138" s="4">
@@ -35040,7 +35412,7 @@
         <v>2</v>
       </c>
       <c r="J138" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K138" s="22">
@@ -35077,7 +35449,7 @@
       </c>
       <c r="D139" s="18"/>
       <c r="E139" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F139" s="4">
@@ -35093,7 +35465,7 @@
         <v>2</v>
       </c>
       <c r="J139" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K139" s="22">
@@ -35130,8 +35502,8 @@
       </c>
       <c r="D140" s="18"/>
       <c r="E140" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>作業中</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>完了</v>
       </c>
       <c r="F140" s="4">
         <v>43123</v>
@@ -35143,11 +35515,11 @@
         <v>2</v>
       </c>
       <c r="I140" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" s="12">
-        <f t="shared" ca="1" si="16"/>
-        <v>0.5</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
       <c r="K140" s="22">
         <v>2</v>
@@ -35168,7 +35540,7 @@
         <v>1</v>
       </c>
       <c r="Q140" s="22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:17">
@@ -35179,7 +35551,7 @@
       <c r="C141" s="18"/>
       <c r="D141" s="18"/>
       <c r="E141" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F141" s="4"/>
@@ -35187,7 +35559,7 @@
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
       <c r="J141" s="12" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K141" s="22"/>
@@ -35210,7 +35582,7 @@
       </c>
       <c r="D142" s="18"/>
       <c r="E142" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F142" s="4">
@@ -35226,7 +35598,7 @@
         <v>3</v>
       </c>
       <c r="J142" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K142" s="22">
@@ -35263,7 +35635,7 @@
       </c>
       <c r="D143" s="18"/>
       <c r="E143" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F143" s="4">
@@ -35279,7 +35651,7 @@
         <v>3</v>
       </c>
       <c r="J143" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K143" s="22">
@@ -35316,7 +35688,7 @@
       </c>
       <c r="D144" s="18"/>
       <c r="E144" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F144" s="4">
@@ -35332,7 +35704,7 @@
         <v>1</v>
       </c>
       <c r="J144" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K144" s="22">
@@ -35369,7 +35741,7 @@
       </c>
       <c r="D145" s="18"/>
       <c r="E145" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>未着手</v>
       </c>
       <c r="F145" s="4">
@@ -35381,7 +35753,7 @@
       </c>
       <c r="I145" s="19"/>
       <c r="J145" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>2</v>
       </c>
       <c r="K145" s="22">
@@ -35414,7 +35786,7 @@
       <c r="C146" s="18"/>
       <c r="D146" s="18"/>
       <c r="E146" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F146" s="4"/>
@@ -35422,7 +35794,7 @@
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
       <c r="J146" s="12" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K146" s="22"/>
@@ -35445,7 +35817,7 @@
       </c>
       <c r="D147" s="18"/>
       <c r="E147" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F147" s="4">
@@ -35461,7 +35833,7 @@
         <v>2</v>
       </c>
       <c r="J147" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K147" s="22">
@@ -35498,7 +35870,7 @@
       </c>
       <c r="D148" s="18"/>
       <c r="E148" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F148" s="4">
@@ -35514,7 +35886,7 @@
         <v>2</v>
       </c>
       <c r="J148" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K148" s="22">
@@ -35551,7 +35923,7 @@
       </c>
       <c r="D149" s="18"/>
       <c r="E149" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F149" s="4">
@@ -35567,7 +35939,7 @@
         <v>2</v>
       </c>
       <c r="J149" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K149" s="22">
@@ -35604,7 +35976,7 @@
       </c>
       <c r="D150" s="18"/>
       <c r="E150" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F150" s="4">
@@ -35620,7 +35992,7 @@
         <v>2</v>
       </c>
       <c r="J150" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K150" s="22">
@@ -35657,7 +36029,7 @@
       </c>
       <c r="D151" s="18"/>
       <c r="E151" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F151" s="4">
@@ -35673,7 +36045,7 @@
         <v>3</v>
       </c>
       <c r="J151" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K151" s="22">
@@ -35706,7 +36078,7 @@
       <c r="C152" s="18"/>
       <c r="D152" s="18"/>
       <c r="E152" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F152" s="4"/>
@@ -35714,7 +36086,7 @@
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
       <c r="J152" s="12" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K152" s="22"/>
@@ -35737,7 +36109,7 @@
       </c>
       <c r="D153" s="18"/>
       <c r="E153" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F153" s="4">
@@ -35753,7 +36125,7 @@
         <v>2</v>
       </c>
       <c r="J153" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K153" s="22">
@@ -35790,7 +36162,7 @@
       </c>
       <c r="D154" s="18"/>
       <c r="E154" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F154" s="4">
@@ -35806,7 +36178,7 @@
         <v>1</v>
       </c>
       <c r="J154" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K154" s="22">
@@ -35843,7 +36215,7 @@
       </c>
       <c r="D155" s="18"/>
       <c r="E155" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F155" s="4">
@@ -35859,7 +36231,7 @@
         <v>1</v>
       </c>
       <c r="J155" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K155" s="22">
@@ -35892,7 +36264,7 @@
       <c r="C156" s="18"/>
       <c r="D156" s="18"/>
       <c r="E156" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F156" s="4"/>
@@ -35900,7 +36272,7 @@
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
       <c r="J156" s="12" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K156" s="22"/>
@@ -35923,7 +36295,7 @@
       </c>
       <c r="D157" s="18"/>
       <c r="E157" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F157" s="4">
@@ -35939,7 +36311,7 @@
         <v>5</v>
       </c>
       <c r="J157" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K157" s="22">
@@ -35976,7 +36348,7 @@
       </c>
       <c r="D158" s="18"/>
       <c r="E158" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F158" s="4">
@@ -35992,7 +36364,7 @@
         <v>2</v>
       </c>
       <c r="J158" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K158" s="22">
@@ -36029,7 +36401,7 @@
       </c>
       <c r="D159" s="18"/>
       <c r="E159" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>完了</v>
       </c>
       <c r="F159" s="4">
@@ -36045,7 +36417,7 @@
         <v>2</v>
       </c>
       <c r="J159" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="K159" s="22">
@@ -36078,7 +36450,7 @@
       <c r="C160" s="18"/>
       <c r="D160" s="18"/>
       <c r="E160" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F160" s="4"/>
@@ -36086,7 +36458,7 @@
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
       <c r="J160" s="12" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K160" s="22"/>
@@ -36105,7 +36477,7 @@
       <c r="C161" s="18"/>
       <c r="D161" s="18"/>
       <c r="E161" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F161" s="4"/>
@@ -36113,7 +36485,7 @@
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
       <c r="J161" s="12" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K161" s="22"/>
@@ -36132,7 +36504,7 @@
       <c r="C162" s="18"/>
       <c r="D162" s="18"/>
       <c r="E162" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F162" s="4"/>
@@ -36140,7 +36512,7 @@
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
       <c r="J162" s="12" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K162" s="22"/>
@@ -36159,7 +36531,7 @@
       <c r="C163" s="18"/>
       <c r="D163" s="18"/>
       <c r="E163" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F163" s="4"/>
@@ -36167,7 +36539,7 @@
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
       <c r="J163" s="12" t="str">
-        <f t="shared" ref="J163:J174" ca="1" si="18">IF(ISBLANK(K163)=FALSE,OFFSET(J163,0,COUNTA(K163:Q163)),"")</f>
+        <f t="shared" ref="J163:J174" ca="1" si="21">IF(ISBLANK(K163)=FALSE,OFFSET(J163,0,COUNTA(K163:Q163)),"")</f>
         <v/>
       </c>
       <c r="K163" s="22"/>
@@ -36186,7 +36558,7 @@
       <c r="C164" s="18"/>
       <c r="D164" s="18"/>
       <c r="E164" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F164" s="4"/>
@@ -36194,7 +36566,7 @@
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
       <c r="J164" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K164" s="22"/>
@@ -36213,7 +36585,7 @@
       <c r="C165" s="18"/>
       <c r="D165" s="18"/>
       <c r="E165" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F165" s="4"/>
@@ -36221,7 +36593,7 @@
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
       <c r="J165" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K165" s="22"/>
@@ -36240,7 +36612,7 @@
       <c r="C166" s="18"/>
       <c r="D166" s="18"/>
       <c r="E166" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F166" s="4"/>
@@ -36248,7 +36620,7 @@
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
       <c r="J166" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K166" s="22"/>
@@ -36267,7 +36639,7 @@
       <c r="C167" s="18"/>
       <c r="D167" s="18"/>
       <c r="E167" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F167" s="4"/>
@@ -36275,7 +36647,7 @@
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
       <c r="J167" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K167" s="22"/>
@@ -36294,7 +36666,7 @@
       <c r="C168" s="18"/>
       <c r="D168" s="18"/>
       <c r="E168" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F168" s="4"/>
@@ -36302,7 +36674,7 @@
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
       <c r="J168" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K168" s="22"/>
@@ -36321,7 +36693,7 @@
       <c r="C169" s="18"/>
       <c r="D169" s="18"/>
       <c r="E169" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F169" s="4"/>
@@ -36329,7 +36701,7 @@
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
       <c r="J169" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K169" s="22"/>
@@ -36348,7 +36720,7 @@
       <c r="C170" s="18"/>
       <c r="D170" s="18"/>
       <c r="E170" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F170" s="4"/>
@@ -36356,7 +36728,7 @@
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
       <c r="J170" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K170" s="22"/>
@@ -36375,7 +36747,7 @@
       <c r="C171" s="18"/>
       <c r="D171" s="18"/>
       <c r="E171" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F171" s="4"/>
@@ -36383,7 +36755,7 @@
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
       <c r="J171" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K171" s="22"/>
@@ -36402,7 +36774,7 @@
       <c r="C172" s="18"/>
       <c r="D172" s="18"/>
       <c r="E172" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F172" s="4"/>
@@ -36410,7 +36782,7 @@
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
       <c r="J172" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K172" s="22"/>
@@ -36429,7 +36801,7 @@
       <c r="C173" s="18"/>
       <c r="D173" s="18"/>
       <c r="E173" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F173" s="4"/>
@@ -36437,7 +36809,7 @@
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
       <c r="J173" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K173" s="22"/>
@@ -36456,7 +36828,7 @@
       <c r="C174" s="18"/>
       <c r="D174" s="18"/>
       <c r="E174" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F174" s="4"/>
@@ -36464,7 +36836,7 @@
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
       <c r="J174" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K174" s="22"/>
@@ -36631,17 +37003,17 @@
   </sheetData>
   <autoFilter ref="C1:D49"/>
   <mergeCells count="11">
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:Q1"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:D4"/>
     <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D192:D65359 C175:C191">
@@ -36699,7 +37071,7 @@
       <formula>OR($D192="終了",$D192="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:Q6 D9 D11 C10 B11 B14:I15 A5:IN5 J8:J15 I71:J72 C70:J70 I74:J84 I93:I97 B73:J73 K8:K13 I17:J69 B98:M98 K93:M97 B51:H69 E10:H10 B112:I112 P107 J85:J97 B85:I92 O116:P116 K112:P112 B100:Q101 I8:I12 B102:P106 Q102:Q116 L7:Q13 A7:K7 J99 N93:Q99 K14:Q92 J107:J174 B117:I174 A8:A174 K117:Q174">
+  <conditionalFormatting sqref="A6:Q6 D9 D11 C10 B11 B14:I15 A5:IN5 J8:J15 I71:J72 C70:J70 I74:J84 I93:I97 B73:J73 K8:K13 I17:J69 B98:M98 K93:M97 B51:H69 E10:H10 B112:I112 P107 J85:J97 B85:I92 O116:P116 B100:Q101 I8:I12 B102:P106 Q102:Q110 A7:K7 J99 N93:Q99 K14:Q92 J107:J174 B117:I174 A8:A174 K119:Q174 K117:P118 K112:Q112 Q116:Q118 L7:Q13">
     <cfRule type="expression" dxfId="386" priority="151" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>
@@ -37469,7 +37841,7 @@
       <formula>OR($E107="終了",$E107="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B108:I111 K108:P111">
+  <conditionalFormatting sqref="B108:I111 K108:P111 Q111">
     <cfRule type="expression" dxfId="176" priority="4" stopIfTrue="1">
       <formula>$E108="未着手"</formula>
     </cfRule>
@@ -37480,7 +37852,7 @@
       <formula>OR($E108="終了",$E108="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B113:I116 K113:N116 O113:P115">
+  <conditionalFormatting sqref="B113:I116 K113:N116 O113:Q115">
     <cfRule type="expression" dxfId="173" priority="1" stopIfTrue="1">
       <formula>$E113="未着手"</formula>
     </cfRule>
@@ -37501,9 +37873,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W68"/>
+  <dimension ref="A1:W159"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
@@ -37518,13 +37890,10 @@
     <col min="7" max="7" width="7.44140625" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.44140625" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.77734375" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.77734375" style="25" customWidth="1"/>
-    <col min="13" max="13" width="5.77734375" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" style="25" customWidth="1"/>
+    <col min="11" max="12" width="4.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4.88671875" customWidth="1"/>
     <col min="24" max="24" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="8.44140625" bestFit="1" customWidth="1"/>
@@ -37535,42 +37904,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="F1" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="100" t="s">
+      <c r="G1" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="96" t="s">
+      <c r="I1" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="107" t="s">
+      <c r="J1" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
       <c r="Q1" s="71"/>
       <c r="R1" s="71"/>
       <c r="S1" s="71"/>
@@ -37578,15 +37947,15 @@
       <c r="U1" s="71"/>
     </row>
     <row r="2" spans="1:21" s="8" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A2" s="96"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="96"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="95"/>
       <c r="J2" s="23" t="s">
         <v>357</v>
       </c>
@@ -37610,80 +37979,80 @@
       </c>
     </row>
     <row r="3" spans="1:21" s="8" customFormat="1">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="96"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="95"/>
       <c r="J3" s="20">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$P$2))))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K3" s="20">
         <f t="shared" ref="K3:P3" si="0">INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$P$2))))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L3" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M3" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N3" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O3" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P3" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="8" customFormat="1">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="96"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="95"/>
       <c r="J4" s="21">
-        <f>SUM(J5:J47)</f>
-        <v>0</v>
+        <f t="shared" ref="J4:P4" si="1">SUM(J5:J47)</f>
+        <v>18</v>
       </c>
       <c r="K4" s="21">
-        <f>SUM(K5:K47)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="L4" s="21">
-        <f>SUM(L5:L47)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M4" s="21">
-        <f>SUM(M5:M47)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N4" s="21">
-        <f>SUM(N5:N47)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O4" s="21">
-        <f>SUM(O5:O47)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P4" s="21">
-        <f>SUM(P5:P47)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -37701,7 +38070,7 @@
       <c r="G5" s="54"/>
       <c r="H5" s="54"/>
       <c r="I5" s="52" t="str">
-        <f t="shared" ref="I5:I16" ca="1" si="1">IF(ISBLANK(J5)=FALSE,OFFSET(I5,0,COUNTA(J5:P5)),"")</f>
+        <f t="shared" ref="I5:I16" ca="1" si="2">IF(ISBLANK(J5)=FALSE,OFFSET(I5,0,COUNTA(J5:P5)),"")</f>
         <v/>
       </c>
       <c r="J5" s="55"/>
@@ -37748,7 +38117,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J7" s="22"/>
@@ -37782,7 +38151,7 @@
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J8" s="22"/>
@@ -37816,7 +38185,7 @@
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J9" s="22"/>
@@ -37850,7 +38219,7 @@
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J10" s="22"/>
@@ -37884,7 +38253,7 @@
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J11" s="22"/>
@@ -37918,7 +38287,7 @@
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J12" s="22"/>
@@ -37943,7 +38312,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J13" s="22"/>
@@ -37978,7 +38347,7 @@
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J14" s="22"/>
@@ -38012,7 +38381,7 @@
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J15" s="22"/>
@@ -38046,7 +38415,7 @@
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J16" s="22"/>
@@ -38072,7 +38441,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="12" t="str">
-        <f t="shared" ref="I17:I29" ca="1" si="2">IF(ISBLANK(J17)=FALSE,OFFSET(I17,0,COUNTA(J17:P17)),"")</f>
+        <f t="shared" ref="I17:I29" ca="1" si="3">IF(ISBLANK(J17)=FALSE,OFFSET(I17,0,COUNTA(J17:P17)),"")</f>
         <v/>
       </c>
       <c r="J17" s="22"/>
@@ -38097,7 +38466,7 @@
       <c r="G18" s="80"/>
       <c r="H18" s="19"/>
       <c r="I18" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J18" s="22"/>
@@ -38131,7 +38500,7 @@
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J19" s="22"/>
@@ -38165,7 +38534,7 @@
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J20" s="22"/>
@@ -38199,7 +38568,7 @@
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J21" s="22"/>
@@ -38233,7 +38602,7 @@
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J22" s="22"/>
@@ -38278,7 +38647,7 @@
       <c r="G24" s="54"/>
       <c r="H24" s="54"/>
       <c r="I24" s="52" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J24" s="55"/>
@@ -38300,7 +38669,7 @@
         <v>78</v>
       </c>
       <c r="D25" s="12" t="str">
-        <f>IF(ISBLANK($B25),"",IF(ISBLANK($F25),"未着手",IF($I25=0,"完了","作業中")))</f>
+        <f t="shared" ref="D25:D30" si="4">IF(ISBLANK($B25),"",IF(ISBLANK($F25),"未着手",IF($I25=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="E25" s="4">
@@ -38312,7 +38681,7 @@
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J25" s="22"/>
@@ -38330,7 +38699,7 @@
       <c r="B26" s="17"/>
       <c r="C26" s="18"/>
       <c r="D26" s="12" t="str">
-        <f>IF(ISBLANK($B26),"",IF(ISBLANK($F26),"未着手",IF($I26=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E26" s="4"/>
@@ -38338,7 +38707,7 @@
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
       <c r="I26" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J26" s="22"/>
@@ -38382,7 +38751,7 @@
         <v>78</v>
       </c>
       <c r="D27" s="12" t="str">
-        <f>IF(ISBLANK($B27),"",IF(ISBLANK($F27),"未着手",IF($I27=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E27" s="4">
@@ -38394,7 +38763,7 @@
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J27" s="22"/>
@@ -38438,7 +38807,7 @@
         <v>78</v>
       </c>
       <c r="D28" s="12" t="str">
-        <f>IF(ISBLANK($B28),"",IF(ISBLANK($F28),"未着手",IF($I28=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E28" s="4">
@@ -38450,7 +38819,7 @@
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J28" s="22"/>
@@ -38472,14 +38841,14 @@
         <v>0</v>
       </c>
       <c r="U28" s="10">
-        <f t="shared" ref="U28" si="3">S28-T28</f>
+        <f t="shared" ref="U28" si="5">S28-T28</f>
         <v>0</v>
       </c>
       <c r="V28" s="14">
         <v>0</v>
       </c>
       <c r="W28" s="15">
-        <f t="shared" ref="W28" si="4">IF(V28&gt;T28,0,T28-V28)</f>
+        <f t="shared" ref="W28" si="6">IF(V28&gt;T28,0,T28-V28)</f>
         <v>0</v>
       </c>
     </row>
@@ -38494,7 +38863,7 @@
         <v>78</v>
       </c>
       <c r="D29" s="12" t="str">
-        <f>IF(ISBLANK($B29),"",IF(ISBLANK($F29),"未着手",IF($I29=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E29" s="4">
@@ -38506,7 +38875,7 @@
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J29" s="22"/>
@@ -38528,7 +38897,7 @@
         <v>66</v>
       </c>
       <c r="D30" s="12" t="str">
-        <f>IF(ISBLANK($B30),"",IF(ISBLANK($F30),"未着手",IF($I30=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="E30" s="4"/>
@@ -38538,7 +38907,7 @@
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="12" t="str">
-        <f t="shared" ref="I30:I51" ca="1" si="5">IF(ISBLANK(J30)=FALSE,OFFSET(I30,0,COUNTA(J30:P30)),"")</f>
+        <f t="shared" ref="I30:I51" ca="1" si="7">IF(ISBLANK(J30)=FALSE,OFFSET(I30,0,COUNTA(J30:P30)),"")</f>
         <v/>
       </c>
       <c r="J30" s="22"/>
@@ -38602,7 +38971,7 @@
         <v>354</v>
       </c>
       <c r="D33" s="12" t="str">
-        <f>IF(ISBLANK($B33),"",IF(ISBLANK($F33),"未着手",IF($I33=0,"完了","作業中")))</f>
+        <f t="shared" ref="D33:D96" si="8">IF(ISBLANK($B33),"",IF(ISBLANK($F33),"未着手",IF($I33=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="E33" s="4"/>
@@ -38612,7 +38981,7 @@
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J33" s="22"/>
@@ -38634,7 +39003,7 @@
         <v>354</v>
       </c>
       <c r="D34" s="12" t="str">
-        <f>IF(ISBLANK($B34),"",IF(ISBLANK($F34),"未着手",IF($I34=0,"完了","作業中")))</f>
+        <f t="shared" si="8"/>
         <v>未着手</v>
       </c>
       <c r="E34" s="4"/>
@@ -38644,7 +39013,7 @@
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J34" s="22"/>
@@ -38666,7 +39035,7 @@
         <v>78</v>
       </c>
       <c r="D35" s="12" t="str">
-        <f>IF(ISBLANK($B35),"",IF(ISBLANK($F35),"未着手",IF($I35=0,"完了","作業中")))</f>
+        <f t="shared" si="8"/>
         <v>未着手</v>
       </c>
       <c r="E35" s="4"/>
@@ -38676,7 +39045,7 @@
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J35" s="22"/>
@@ -38694,7 +39063,7 @@
       <c r="B36" s="17"/>
       <c r="C36" s="18"/>
       <c r="D36" s="12" t="str">
-        <f>IF(ISBLANK($B36),"",IF(ISBLANK($F36),"未着手",IF($I36=0,"完了","作業中")))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E36" s="4"/>
@@ -38702,7 +39071,7 @@
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
       <c r="I36" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J36" s="22"/>
@@ -38724,21 +39093,31 @@
         <v>92</v>
       </c>
       <c r="D37" s="12" t="str">
-        <f>IF(ISBLANK($B37),"",IF(ISBLANK($F37),"未着手",IF($I37=0,"完了","作業中")))</f>
-        <v>未着手</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>作業中</v>
+      </c>
+      <c r="E37" s="4">
+        <v>43137</v>
+      </c>
+      <c r="F37" s="4">
+        <v>43137</v>
+      </c>
       <c r="G37" s="19">
         <v>2</v>
       </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
+      <c r="H37" s="19">
+        <v>1</v>
+      </c>
+      <c r="I37" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J37" s="22">
+        <v>2</v>
+      </c>
+      <c r="K37" s="22">
+        <v>1</v>
+      </c>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -38768,7 +39147,7 @@
       <c r="B38" s="17"/>
       <c r="C38" s="18"/>
       <c r="D38" s="12" t="str">
-        <f>IF(ISBLANK($B38),"",IF(ISBLANK($F38),"未着手",IF($I38=0,"完了","作業中")))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E38" s="4"/>
@@ -38776,7 +39155,7 @@
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
       <c r="I38" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J38" s="22"/>
@@ -38790,16 +39169,16 @@
         <v>47</v>
       </c>
       <c r="S38" s="10">
-        <f>SUMIF($C$5:$C$47,R38,$G$5:$G$47)</f>
-        <v>6</v>
+        <f t="shared" ref="S38:S43" si="9">SUMIF($C$5:$C$47,R38,$G$5:$G$47)</f>
+        <v>12</v>
       </c>
       <c r="T38" s="10">
-        <f ca="1">SUMIF($C$5:$C$47,R38,$I$5:$I$47)</f>
+        <f t="shared" ref="T38:T43" ca="1" si="10">SUMIF($C$5:$C$47,R38,$I$5:$I$47)</f>
         <v>0</v>
       </c>
       <c r="U38" s="10">
         <f ca="1">S38-T38</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="V38" s="14">
         <v>0</v>
@@ -38813,22 +39192,38 @@
       <c r="A39" s="16">
         <v>35</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
+      <c r="B39" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>371</v>
+      </c>
       <c r="D39" s="12" t="str">
-        <f>IF(ISBLANK($B39),"",IF(ISBLANK($F39),"未着手",IF($I39=0,"完了","作業中")))</f>
-        <v/>
-      </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>完了</v>
+      </c>
+      <c r="E39" s="4">
+        <v>43137</v>
+      </c>
+      <c r="F39" s="4">
+        <v>43137</v>
+      </c>
+      <c r="G39" s="19">
+        <v>3</v>
+      </c>
+      <c r="H39" s="19">
+        <v>3</v>
+      </c>
+      <c r="I39" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="22">
+        <v>3</v>
+      </c>
+      <c r="K39" s="22">
+        <v>0</v>
+      </c>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -38838,45 +39233,61 @@
         <v>92</v>
       </c>
       <c r="S39" s="10">
-        <f>SUMIF($C$5:$C$47,R39,$G$5:$G$47)</f>
-        <v>27</v>
+        <f t="shared" si="9"/>
+        <v>29</v>
       </c>
       <c r="T39" s="10">
-        <f ca="1">SUMIF($C$5:$C$47,R39,$I$5:$I$47)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
       </c>
       <c r="U39" s="10">
-        <f t="shared" ref="U39:U43" ca="1" si="6">S39-T39</f>
-        <v>27</v>
+        <f t="shared" ref="U39:U43" ca="1" si="11">S39-T39</f>
+        <v>28</v>
       </c>
       <c r="V39" s="14">
         <v>0</v>
       </c>
       <c r="W39" s="15">
-        <f t="shared" ref="W39:W43" ca="1" si="7">IF(V39&gt;T39,0,T39-V39)</f>
-        <v>0</v>
+        <f t="shared" ref="W39:W43" ca="1" si="12">IF(V39&gt;T39,0,T39-V39)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:23">
       <c r="A40" s="16">
         <v>36</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
+      <c r="B40" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>374</v>
+      </c>
       <c r="D40" s="12" t="str">
-        <f>IF(ISBLANK($B40),"",IF(ISBLANK($F40),"未着手",IF($I40=0,"完了","作業中")))</f>
-        <v/>
-      </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>完了</v>
+      </c>
+      <c r="E40" s="4">
+        <v>43137</v>
+      </c>
+      <c r="F40" s="4">
+        <v>43137</v>
+      </c>
+      <c r="G40" s="19">
+        <v>2</v>
+      </c>
+      <c r="H40" s="19">
+        <v>2</v>
+      </c>
+      <c r="I40" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="22">
+        <v>2</v>
+      </c>
+      <c r="K40" s="22">
+        <v>0</v>
+      </c>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -38886,45 +39297,61 @@
         <v>61</v>
       </c>
       <c r="S40" s="10">
-        <f>SUMIF($C$5:$C$47,R40,$G$5:$G$47)</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>5</v>
       </c>
       <c r="T40" s="10">
-        <f>SUMIF($C$5:$C$47,R40,$I$5:$I$47)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
       </c>
       <c r="U40" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
       </c>
       <c r="V40" s="14">
         <v>0</v>
       </c>
       <c r="W40" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:23">
       <c r="A41" s="16">
         <v>37</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
+      <c r="B41" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>376</v>
+      </c>
       <c r="D41" s="12" t="str">
-        <f>IF(ISBLANK($B41),"",IF(ISBLANK($F41),"未着手",IF($I41=0,"完了","作業中")))</f>
-        <v/>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>完了</v>
+      </c>
+      <c r="E41" s="4">
+        <v>43137</v>
+      </c>
+      <c r="F41" s="4">
+        <v>43137</v>
+      </c>
+      <c r="G41" s="19">
+        <v>2</v>
+      </c>
+      <c r="H41" s="19">
+        <v>2</v>
+      </c>
+      <c r="I41" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="22">
+        <v>2</v>
+      </c>
+      <c r="K41" s="22">
+        <v>0</v>
+      </c>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -38934,22 +39361,22 @@
         <v>64</v>
       </c>
       <c r="S41" s="10">
-        <f>SUMIF($C$5:$C$47,R41,$G$5:$G$47)</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
       <c r="T41" s="10">
-        <f>SUMIF($C$5:$C$47,R41,$I$5:$I$47)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="U41" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
       </c>
       <c r="V41" s="14">
         <v>0</v>
       </c>
       <c r="W41" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -38957,22 +39384,36 @@
       <c r="A42" s="16">
         <v>38</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
+      <c r="B42" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>376</v>
+      </c>
       <c r="D42" s="12" t="str">
-        <f>IF(ISBLANK($B42),"",IF(ISBLANK($F42),"未着手",IF($I42=0,"完了","作業中")))</f>
-        <v/>
-      </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="19"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>作業中</v>
+      </c>
+      <c r="E42" s="4">
+        <v>43137</v>
+      </c>
+      <c r="F42" s="4">
+        <v>43137</v>
+      </c>
+      <c r="G42" s="19">
+        <v>3</v>
+      </c>
       <c r="H42" s="19"/>
-      <c r="I42" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
+      <c r="I42" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="J42" s="22">
+        <v>3</v>
+      </c>
+      <c r="K42" s="22">
+        <v>3</v>
+      </c>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -38982,22 +39423,22 @@
         <v>63</v>
       </c>
       <c r="S42" s="10">
-        <f>SUMIF($C$5:$C$47,R42,$G$5:$G$47)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T42" s="10">
-        <f>SUMIF($C$5:$C$47,R42,$I$5:$I$47)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U42" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V42" s="14">
         <v>0</v>
       </c>
       <c r="W42" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -39005,22 +39446,38 @@
       <c r="A43" s="16">
         <v>39</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+      <c r="B43" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>378</v>
+      </c>
       <c r="D43" s="12" t="str">
-        <f>IF(ISBLANK($B43),"",IF(ISBLANK($F43),"未着手",IF($I43=0,"完了","作業中")))</f>
-        <v/>
-      </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>完了</v>
+      </c>
+      <c r="E43" s="4">
+        <v>43137</v>
+      </c>
+      <c r="F43" s="4">
+        <v>43137</v>
+      </c>
+      <c r="G43" s="19">
+        <v>3</v>
+      </c>
+      <c r="H43" s="19">
+        <v>3</v>
+      </c>
+      <c r="I43" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="22">
+        <v>3</v>
+      </c>
+      <c r="K43" s="22">
+        <v>0</v>
+      </c>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -39030,22 +39487,22 @@
         <v>78</v>
       </c>
       <c r="S43" s="10">
-        <f>SUMIF($C$5:$C$47,R43,$G$5:$G$47)</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="T43" s="10">
-        <f ca="1">SUMIF($C$5:$C$47,R43,$I$5:$I$47)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="U43" s="10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>10</v>
       </c>
       <c r="V43" s="14">
         <v>0</v>
       </c>
       <c r="W43" s="15">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -39053,22 +39510,38 @@
       <c r="A44" s="16">
         <v>40</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+      <c r="B44" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>378</v>
+      </c>
       <c r="D44" s="12" t="str">
-        <f>IF(ISBLANK($B44),"",IF(ISBLANK($F44),"未着手",IF($I44=0,"完了","作業中")))</f>
-        <v/>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>完了</v>
+      </c>
+      <c r="E44" s="4">
+        <v>43137</v>
+      </c>
+      <c r="F44" s="4">
+        <v>43137</v>
+      </c>
+      <c r="G44" s="19">
+        <v>3</v>
+      </c>
+      <c r="H44" s="19">
+        <v>3</v>
+      </c>
+      <c r="I44" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="22">
+        <v>3</v>
+      </c>
+      <c r="K44" s="22">
+        <v>0</v>
+      </c>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -39082,7 +39555,7 @@
       <c r="B45" s="17"/>
       <c r="C45" s="18"/>
       <c r="D45" s="12" t="str">
-        <f>IF(ISBLANK($B45),"",IF(ISBLANK($F45),"未着手",IF($I45=0,"完了","作業中")))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E45" s="4"/>
@@ -39090,7 +39563,7 @@
       <c r="G45" s="19"/>
       <c r="H45" s="19"/>
       <c r="I45" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J45" s="22"/>
@@ -39105,18 +39578,20 @@
       <c r="A46" s="16">
         <v>42</v>
       </c>
-      <c r="B46" s="17"/>
+      <c r="B46" s="17" t="s">
+        <v>386</v>
+      </c>
       <c r="C46" s="18"/>
       <c r="D46" s="12" t="str">
-        <f>IF(ISBLANK($B46),"",IF(ISBLANK($F46),"未着手",IF($I46=0,"完了","作業中")))</f>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>未着手</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
       <c r="I46" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J46" s="22"/>
@@ -39134,7 +39609,7 @@
       <c r="B47" s="17"/>
       <c r="C47" s="18"/>
       <c r="D47" s="12" t="str">
-        <f>IF(ISBLANK($B47),"",IF(ISBLANK($F47),"未着手",IF($I47=0,"完了","作業中")))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E47" s="4"/>
@@ -39142,7 +39617,7 @@
       <c r="G47" s="19"/>
       <c r="H47" s="19"/>
       <c r="I47" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J47" s="22"/>
@@ -39160,7 +39635,7 @@
       <c r="B48" s="17"/>
       <c r="C48" s="18"/>
       <c r="D48" s="12" t="str">
-        <f>IF(ISBLANK($B48),"",IF(ISBLANK($F48),"未着手",IF($I48=0,"完了","作業中")))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E48" s="4"/>
@@ -39168,7 +39643,7 @@
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
       <c r="I48" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J48" s="22"/>
@@ -39186,7 +39661,7 @@
       <c r="B49" s="17"/>
       <c r="C49" s="18"/>
       <c r="D49" s="12" t="str">
-        <f>IF(ISBLANK($B49),"",IF(ISBLANK($F49),"未着手",IF($I49=0,"完了","作業中")))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E49" s="4"/>
@@ -39194,7 +39669,7 @@
       <c r="G49" s="19"/>
       <c r="H49" s="19"/>
       <c r="I49" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J49" s="22"/>
@@ -39212,7 +39687,7 @@
       <c r="B50" s="17"/>
       <c r="C50" s="18"/>
       <c r="D50" s="12" t="str">
-        <f>IF(ISBLANK($B50),"",IF(ISBLANK($F50),"未着手",IF($I50=0,"完了","作業中")))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E50" s="4"/>
@@ -39220,7 +39695,7 @@
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
       <c r="I50" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J50" s="22"/>
@@ -39238,7 +39713,7 @@
       <c r="B51" s="17"/>
       <c r="C51" s="18"/>
       <c r="D51" s="12" t="str">
-        <f>IF(ISBLANK($B51),"",IF(ISBLANK($F51),"未着手",IF($I51=0,"完了","作業中")))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E51" s="4"/>
@@ -39246,7 +39721,7 @@
       <c r="G51" s="19"/>
       <c r="H51" s="19"/>
       <c r="I51" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J51" s="22"/>
@@ -39258,218 +39733,2873 @@
       <c r="P51" s="22"/>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="3"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="5"/>
-      <c r="F52" s="9"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="25"/>
-      <c r="M52"/>
+      <c r="A52" s="16">
+        <v>48</v>
+      </c>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="12" t="str">
+        <f t="shared" ref="I52:I115" ca="1" si="13">IF(ISBLANK(J52)=FALSE,OFFSET(I52,0,COUNTA(J52:P52)),"")</f>
+        <v/>
+      </c>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="3"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="5"/>
-      <c r="F53" s="9"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="25"/>
-      <c r="M53"/>
+      <c r="A53" s="16">
+        <v>49</v>
+      </c>
+      <c r="B53" s="17"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="3"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="5"/>
-      <c r="F54" s="9"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="25"/>
-      <c r="M54"/>
+      <c r="A54" s="16">
+        <v>50</v>
+      </c>
+      <c r="B54" s="17"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="3"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="5"/>
-      <c r="F55" s="9"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="25"/>
-      <c r="M55"/>
+      <c r="A55" s="16">
+        <v>51</v>
+      </c>
+      <c r="B55" s="17"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="3"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="5"/>
-      <c r="F56" s="9"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="25"/>
-      <c r="M56"/>
+      <c r="A56" s="16">
+        <v>52</v>
+      </c>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="3"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="5"/>
-      <c r="F57" s="9"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="25"/>
-      <c r="M57"/>
+      <c r="A57" s="16">
+        <v>53</v>
+      </c>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="3"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="5"/>
-      <c r="F58" s="9"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="25"/>
-      <c r="M58"/>
+      <c r="A58" s="16">
+        <v>54</v>
+      </c>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="3"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="5"/>
-      <c r="F59" s="9"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="25"/>
-      <c r="M59"/>
+      <c r="A59" s="16">
+        <v>55</v>
+      </c>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="3"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="5"/>
-      <c r="F60" s="9"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="25"/>
-      <c r="M60"/>
+      <c r="A60" s="16">
+        <v>56</v>
+      </c>
+      <c r="B60" s="17"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="22"/>
     </row>
     <row r="61" spans="1:16">
-      <c r="A61" s="3"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="5"/>
-      <c r="F61" s="9"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="25"/>
-      <c r="M61"/>
+      <c r="A61" s="16">
+        <v>57</v>
+      </c>
+      <c r="B61" s="17"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="22"/>
     </row>
     <row r="62" spans="1:16">
-      <c r="A62" s="3"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="5"/>
-      <c r="F62" s="9"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="25"/>
-      <c r="M62"/>
+      <c r="A62" s="16">
+        <v>58</v>
+      </c>
+      <c r="B62" s="17"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="22"/>
+      <c r="P62" s="22"/>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="3"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="5"/>
-      <c r="F63" s="9"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="25"/>
-      <c r="M63"/>
+      <c r="A63" s="16">
+        <v>59</v>
+      </c>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="22"/>
+      <c r="P63" s="22"/>
     </row>
     <row r="64" spans="1:16">
-      <c r="A64" s="3"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="5"/>
-      <c r="F64" s="9"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="25"/>
-      <c r="M64"/>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="A65" s="3"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="5"/>
-      <c r="F65" s="9"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="25"/>
-      <c r="M65"/>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="3"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="5"/>
-      <c r="F66" s="9"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="25"/>
-      <c r="M66"/>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="A67" s="3"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="5"/>
-      <c r="F67" s="9"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="25"/>
-      <c r="M67"/>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="A68" s="3"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="5"/>
-      <c r="F68" s="9"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="25"/>
-      <c r="M68"/>
+      <c r="A64" s="16">
+        <v>60</v>
+      </c>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="22"/>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="16">
+        <v>61</v>
+      </c>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="22"/>
+      <c r="P65" s="22"/>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" s="16">
+        <v>62</v>
+      </c>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="22"/>
+      <c r="P66" s="22"/>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="16">
+        <v>63</v>
+      </c>
+      <c r="B67" s="17"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="22"/>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="16">
+        <v>64</v>
+      </c>
+      <c r="B68" s="17"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="22"/>
+      <c r="O68" s="22"/>
+      <c r="P68" s="22"/>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" s="16">
+        <v>65</v>
+      </c>
+      <c r="B69" s="17"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="22"/>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="16">
+        <v>66</v>
+      </c>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="22"/>
+      <c r="O70" s="22"/>
+      <c r="P70" s="22"/>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="16">
+        <v>67</v>
+      </c>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="22"/>
+      <c r="P71" s="22"/>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" s="16">
+        <v>68</v>
+      </c>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="22"/>
+      <c r="P72" s="22"/>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" s="16">
+        <v>69</v>
+      </c>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="22"/>
+      <c r="P73" s="22"/>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" s="16">
+        <v>70</v>
+      </c>
+      <c r="B74" s="17"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="22"/>
+      <c r="P74" s="22"/>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" s="16">
+        <v>71</v>
+      </c>
+      <c r="B75" s="17"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J75" s="22"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="22"/>
+      <c r="M75" s="22"/>
+      <c r="N75" s="22"/>
+      <c r="O75" s="22"/>
+      <c r="P75" s="22"/>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" s="16">
+        <v>72</v>
+      </c>
+      <c r="B76" s="17"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="22"/>
+      <c r="O76" s="22"/>
+      <c r="P76" s="22"/>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" s="16">
+        <v>73</v>
+      </c>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="22"/>
+      <c r="O77" s="22"/>
+      <c r="P77" s="22"/>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" s="16">
+        <v>74</v>
+      </c>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J78" s="22"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="22"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="22"/>
+      <c r="O78" s="22"/>
+      <c r="P78" s="22"/>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" s="16">
+        <v>75</v>
+      </c>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J79" s="22"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="22"/>
+      <c r="M79" s="22"/>
+      <c r="N79" s="22"/>
+      <c r="O79" s="22"/>
+      <c r="P79" s="22"/>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" s="16">
+        <v>76</v>
+      </c>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J80" s="22"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="22"/>
+      <c r="M80" s="22"/>
+      <c r="N80" s="22"/>
+      <c r="O80" s="22"/>
+      <c r="P80" s="22"/>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" s="16">
+        <v>77</v>
+      </c>
+      <c r="B81" s="17"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J81" s="22"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="22"/>
+      <c r="O81" s="22"/>
+      <c r="P81" s="22"/>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" s="16">
+        <v>78</v>
+      </c>
+      <c r="B82" s="17"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J82" s="22"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="22"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="22"/>
+      <c r="O82" s="22"/>
+      <c r="P82" s="22"/>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" s="16">
+        <v>79</v>
+      </c>
+      <c r="B83" s="17"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="22"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="22"/>
+      <c r="O83" s="22"/>
+      <c r="P83" s="22"/>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" s="16">
+        <v>80</v>
+      </c>
+      <c r="B84" s="17"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J84" s="22"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="22"/>
+      <c r="O84" s="22"/>
+      <c r="P84" s="22"/>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" s="16">
+        <v>81</v>
+      </c>
+      <c r="B85" s="17"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J85" s="22"/>
+      <c r="K85" s="22"/>
+      <c r="L85" s="22"/>
+      <c r="M85" s="22"/>
+      <c r="N85" s="22"/>
+      <c r="O85" s="22"/>
+      <c r="P85" s="22"/>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" s="16">
+        <v>82</v>
+      </c>
+      <c r="B86" s="17"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J86" s="22"/>
+      <c r="K86" s="22"/>
+      <c r="L86" s="22"/>
+      <c r="M86" s="22"/>
+      <c r="N86" s="22"/>
+      <c r="O86" s="22"/>
+      <c r="P86" s="22"/>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87" s="16">
+        <v>83</v>
+      </c>
+      <c r="B87" s="17"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J87" s="22"/>
+      <c r="K87" s="22"/>
+      <c r="L87" s="22"/>
+      <c r="M87" s="22"/>
+      <c r="N87" s="22"/>
+      <c r="O87" s="22"/>
+      <c r="P87" s="22"/>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88" s="16">
+        <v>84</v>
+      </c>
+      <c r="B88" s="17"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J88" s="22"/>
+      <c r="K88" s="22"/>
+      <c r="L88" s="22"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="22"/>
+      <c r="O88" s="22"/>
+      <c r="P88" s="22"/>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89" s="16">
+        <v>85</v>
+      </c>
+      <c r="B89" s="17"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J89" s="22"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="22"/>
+      <c r="M89" s="22"/>
+      <c r="N89" s="22"/>
+      <c r="O89" s="22"/>
+      <c r="P89" s="22"/>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90" s="16">
+        <v>86</v>
+      </c>
+      <c r="B90" s="17"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J90" s="22"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="22"/>
+      <c r="M90" s="22"/>
+      <c r="N90" s="22"/>
+      <c r="O90" s="22"/>
+      <c r="P90" s="22"/>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91" s="16">
+        <v>87</v>
+      </c>
+      <c r="B91" s="17"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J91" s="22"/>
+      <c r="K91" s="22"/>
+      <c r="L91" s="22"/>
+      <c r="M91" s="22"/>
+      <c r="N91" s="22"/>
+      <c r="O91" s="22"/>
+      <c r="P91" s="22"/>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92" s="16">
+        <v>88</v>
+      </c>
+      <c r="B92" s="17"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J92" s="22"/>
+      <c r="K92" s="22"/>
+      <c r="L92" s="22"/>
+      <c r="M92" s="22"/>
+      <c r="N92" s="22"/>
+      <c r="O92" s="22"/>
+      <c r="P92" s="22"/>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93" s="16">
+        <v>89</v>
+      </c>
+      <c r="B93" s="17"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J93" s="22"/>
+      <c r="K93" s="22"/>
+      <c r="L93" s="22"/>
+      <c r="M93" s="22"/>
+      <c r="N93" s="22"/>
+      <c r="O93" s="22"/>
+      <c r="P93" s="22"/>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94" s="16">
+        <v>90</v>
+      </c>
+      <c r="B94" s="17"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J94" s="22"/>
+      <c r="K94" s="22"/>
+      <c r="L94" s="22"/>
+      <c r="M94" s="22"/>
+      <c r="N94" s="22"/>
+      <c r="O94" s="22"/>
+      <c r="P94" s="22"/>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95" s="16">
+        <v>91</v>
+      </c>
+      <c r="B95" s="17"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="19"/>
+      <c r="I95" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J95" s="22"/>
+      <c r="K95" s="22"/>
+      <c r="L95" s="22"/>
+      <c r="M95" s="22"/>
+      <c r="N95" s="22"/>
+      <c r="O95" s="22"/>
+      <c r="P95" s="22"/>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96" s="16">
+        <v>92</v>
+      </c>
+      <c r="B96" s="17"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J96" s="22"/>
+      <c r="K96" s="22"/>
+      <c r="L96" s="22"/>
+      <c r="M96" s="22"/>
+      <c r="N96" s="22"/>
+      <c r="O96" s="22"/>
+      <c r="P96" s="22"/>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97" s="16">
+        <v>93</v>
+      </c>
+      <c r="B97" s="17"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="12" t="str">
+        <f t="shared" ref="D97:D159" si="14">IF(ISBLANK($B97),"",IF(ISBLANK($F97),"未着手",IF($I97=0,"完了","作業中")))</f>
+        <v/>
+      </c>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19"/>
+      <c r="I97" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J97" s="22"/>
+      <c r="K97" s="22"/>
+      <c r="L97" s="22"/>
+      <c r="M97" s="22"/>
+      <c r="N97" s="22"/>
+      <c r="O97" s="22"/>
+      <c r="P97" s="22"/>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98" s="16">
+        <v>94</v>
+      </c>
+      <c r="B98" s="17"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="19"/>
+      <c r="I98" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J98" s="22"/>
+      <c r="K98" s="22"/>
+      <c r="L98" s="22"/>
+      <c r="M98" s="22"/>
+      <c r="N98" s="22"/>
+      <c r="O98" s="22"/>
+      <c r="P98" s="22"/>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99" s="16">
+        <v>95</v>
+      </c>
+      <c r="B99" s="17"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="19"/>
+      <c r="I99" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J99" s="22"/>
+      <c r="K99" s="22"/>
+      <c r="L99" s="22"/>
+      <c r="M99" s="22"/>
+      <c r="N99" s="22"/>
+      <c r="O99" s="22"/>
+      <c r="P99" s="22"/>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100" s="16">
+        <v>96</v>
+      </c>
+      <c r="B100" s="17"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="19"/>
+      <c r="I100" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J100" s="22"/>
+      <c r="K100" s="22"/>
+      <c r="L100" s="22"/>
+      <c r="M100" s="22"/>
+      <c r="N100" s="22"/>
+      <c r="O100" s="22"/>
+      <c r="P100" s="22"/>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101" s="16">
+        <v>97</v>
+      </c>
+      <c r="B101" s="17"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="19"/>
+      <c r="I101" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J101" s="22"/>
+      <c r="K101" s="22"/>
+      <c r="L101" s="22"/>
+      <c r="M101" s="22"/>
+      <c r="N101" s="22"/>
+      <c r="O101" s="22"/>
+      <c r="P101" s="22"/>
+    </row>
+    <row r="102" spans="1:16">
+      <c r="A102" s="16">
+        <v>98</v>
+      </c>
+      <c r="B102" s="17"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="19"/>
+      <c r="I102" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J102" s="22"/>
+      <c r="K102" s="22"/>
+      <c r="L102" s="22"/>
+      <c r="M102" s="22"/>
+      <c r="N102" s="22"/>
+      <c r="O102" s="22"/>
+      <c r="P102" s="22"/>
+    </row>
+    <row r="103" spans="1:16">
+      <c r="A103" s="16">
+        <v>99</v>
+      </c>
+      <c r="B103" s="17"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="19"/>
+      <c r="I103" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J103" s="22"/>
+      <c r="K103" s="22"/>
+      <c r="L103" s="22"/>
+      <c r="M103" s="22"/>
+      <c r="N103" s="22"/>
+      <c r="O103" s="22"/>
+      <c r="P103" s="22"/>
+    </row>
+    <row r="104" spans="1:16">
+      <c r="A104" s="16">
+        <v>100</v>
+      </c>
+      <c r="B104" s="17"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="19"/>
+      <c r="H104" s="19"/>
+      <c r="I104" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J104" s="22"/>
+      <c r="K104" s="22"/>
+      <c r="L104" s="22"/>
+      <c r="M104" s="22"/>
+      <c r="N104" s="22"/>
+      <c r="O104" s="22"/>
+      <c r="P104" s="22"/>
+    </row>
+    <row r="105" spans="1:16">
+      <c r="A105" s="16">
+        <v>101</v>
+      </c>
+      <c r="B105" s="17"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="19"/>
+      <c r="I105" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J105" s="22"/>
+      <c r="K105" s="22"/>
+      <c r="L105" s="22"/>
+      <c r="M105" s="22"/>
+      <c r="N105" s="22"/>
+      <c r="O105" s="22"/>
+      <c r="P105" s="22"/>
+    </row>
+    <row r="106" spans="1:16">
+      <c r="A106" s="16">
+        <v>102</v>
+      </c>
+      <c r="B106" s="17"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="19"/>
+      <c r="I106" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J106" s="22"/>
+      <c r="K106" s="22"/>
+      <c r="L106" s="22"/>
+      <c r="M106" s="22"/>
+      <c r="N106" s="22"/>
+      <c r="O106" s="22"/>
+      <c r="P106" s="22"/>
+    </row>
+    <row r="107" spans="1:16">
+      <c r="A107" s="16">
+        <v>103</v>
+      </c>
+      <c r="B107" s="17"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="19"/>
+      <c r="I107" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J107" s="22"/>
+      <c r="K107" s="22"/>
+      <c r="L107" s="22"/>
+      <c r="M107" s="22"/>
+      <c r="N107" s="22"/>
+      <c r="O107" s="22"/>
+      <c r="P107" s="22"/>
+    </row>
+    <row r="108" spans="1:16">
+      <c r="A108" s="16">
+        <v>104</v>
+      </c>
+      <c r="B108" s="17"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="19"/>
+      <c r="I108" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J108" s="22"/>
+      <c r="K108" s="22"/>
+      <c r="L108" s="22"/>
+      <c r="M108" s="22"/>
+      <c r="N108" s="22"/>
+      <c r="O108" s="22"/>
+      <c r="P108" s="22"/>
+    </row>
+    <row r="109" spans="1:16">
+      <c r="A109" s="16">
+        <v>105</v>
+      </c>
+      <c r="B109" s="17"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="19"/>
+      <c r="H109" s="19"/>
+      <c r="I109" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J109" s="22"/>
+      <c r="K109" s="22"/>
+      <c r="L109" s="22"/>
+      <c r="M109" s="22"/>
+      <c r="N109" s="22"/>
+      <c r="O109" s="22"/>
+      <c r="P109" s="22"/>
+    </row>
+    <row r="110" spans="1:16">
+      <c r="A110" s="16">
+        <v>106</v>
+      </c>
+      <c r="B110" s="17"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="19"/>
+      <c r="H110" s="19"/>
+      <c r="I110" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J110" s="22"/>
+      <c r="K110" s="22"/>
+      <c r="L110" s="22"/>
+      <c r="M110" s="22"/>
+      <c r="N110" s="22"/>
+      <c r="O110" s="22"/>
+      <c r="P110" s="22"/>
+    </row>
+    <row r="111" spans="1:16">
+      <c r="A111" s="16">
+        <v>107</v>
+      </c>
+      <c r="B111" s="17"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="19"/>
+      <c r="H111" s="19"/>
+      <c r="I111" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J111" s="22"/>
+      <c r="K111" s="22"/>
+      <c r="L111" s="22"/>
+      <c r="M111" s="22"/>
+      <c r="N111" s="22"/>
+      <c r="O111" s="22"/>
+      <c r="P111" s="22"/>
+    </row>
+    <row r="112" spans="1:16">
+      <c r="A112" s="16">
+        <v>108</v>
+      </c>
+      <c r="B112" s="17"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="19"/>
+      <c r="H112" s="19"/>
+      <c r="I112" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J112" s="22"/>
+      <c r="K112" s="22"/>
+      <c r="L112" s="22"/>
+      <c r="M112" s="22"/>
+      <c r="N112" s="22"/>
+      <c r="O112" s="22"/>
+      <c r="P112" s="22"/>
+    </row>
+    <row r="113" spans="1:16">
+      <c r="A113" s="16">
+        <v>109</v>
+      </c>
+      <c r="B113" s="17"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="19"/>
+      <c r="I113" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J113" s="22"/>
+      <c r="K113" s="22"/>
+      <c r="L113" s="22"/>
+      <c r="M113" s="22"/>
+      <c r="N113" s="22"/>
+      <c r="O113" s="22"/>
+      <c r="P113" s="22"/>
+    </row>
+    <row r="114" spans="1:16">
+      <c r="A114" s="16">
+        <v>110</v>
+      </c>
+      <c r="B114" s="17"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="19"/>
+      <c r="I114" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J114" s="22"/>
+      <c r="K114" s="22"/>
+      <c r="L114" s="22"/>
+      <c r="M114" s="22"/>
+      <c r="N114" s="22"/>
+      <c r="O114" s="22"/>
+      <c r="P114" s="22"/>
+    </row>
+    <row r="115" spans="1:16">
+      <c r="A115" s="16">
+        <v>111</v>
+      </c>
+      <c r="B115" s="17"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="19"/>
+      <c r="I115" s="12" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="J115" s="22"/>
+      <c r="K115" s="22"/>
+      <c r="L115" s="22"/>
+      <c r="M115" s="22"/>
+      <c r="N115" s="22"/>
+      <c r="O115" s="22"/>
+      <c r="P115" s="22"/>
+    </row>
+    <row r="116" spans="1:16">
+      <c r="A116" s="16">
+        <v>112</v>
+      </c>
+      <c r="B116" s="17"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="19"/>
+      <c r="H116" s="19"/>
+      <c r="I116" s="12" t="str">
+        <f t="shared" ref="I116:I159" ca="1" si="15">IF(ISBLANK(J116)=FALSE,OFFSET(I116,0,COUNTA(J116:P116)),"")</f>
+        <v/>
+      </c>
+      <c r="J116" s="22"/>
+      <c r="K116" s="22"/>
+      <c r="L116" s="22"/>
+      <c r="M116" s="22"/>
+      <c r="N116" s="22"/>
+      <c r="O116" s="22"/>
+      <c r="P116" s="22"/>
+    </row>
+    <row r="117" spans="1:16">
+      <c r="A117" s="16">
+        <v>113</v>
+      </c>
+      <c r="B117" s="17"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="19"/>
+      <c r="H117" s="19"/>
+      <c r="I117" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J117" s="22"/>
+      <c r="K117" s="22"/>
+      <c r="L117" s="22"/>
+      <c r="M117" s="22"/>
+      <c r="N117" s="22"/>
+      <c r="O117" s="22"/>
+      <c r="P117" s="22"/>
+    </row>
+    <row r="118" spans="1:16">
+      <c r="A118" s="16">
+        <v>114</v>
+      </c>
+      <c r="B118" s="17"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="19"/>
+      <c r="H118" s="19"/>
+      <c r="I118" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J118" s="22"/>
+      <c r="K118" s="22"/>
+      <c r="L118" s="22"/>
+      <c r="M118" s="22"/>
+      <c r="N118" s="22"/>
+      <c r="O118" s="22"/>
+      <c r="P118" s="22"/>
+    </row>
+    <row r="119" spans="1:16">
+      <c r="A119" s="16">
+        <v>115</v>
+      </c>
+      <c r="B119" s="17"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="19"/>
+      <c r="H119" s="19"/>
+      <c r="I119" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J119" s="22"/>
+      <c r="K119" s="22"/>
+      <c r="L119" s="22"/>
+      <c r="M119" s="22"/>
+      <c r="N119" s="22"/>
+      <c r="O119" s="22"/>
+      <c r="P119" s="22"/>
+    </row>
+    <row r="120" spans="1:16">
+      <c r="A120" s="16">
+        <v>116</v>
+      </c>
+      <c r="B120" s="17"/>
+      <c r="C120" s="18"/>
+      <c r="D120" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="19"/>
+      <c r="H120" s="19"/>
+      <c r="I120" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J120" s="22"/>
+      <c r="K120" s="22"/>
+      <c r="L120" s="22"/>
+      <c r="M120" s="22"/>
+      <c r="N120" s="22"/>
+      <c r="O120" s="22"/>
+      <c r="P120" s="22"/>
+    </row>
+    <row r="121" spans="1:16">
+      <c r="A121" s="16">
+        <v>117</v>
+      </c>
+      <c r="B121" s="17"/>
+      <c r="C121" s="18"/>
+      <c r="D121" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="19"/>
+      <c r="H121" s="19"/>
+      <c r="I121" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J121" s="22"/>
+      <c r="K121" s="22"/>
+      <c r="L121" s="22"/>
+      <c r="M121" s="22"/>
+      <c r="N121" s="22"/>
+      <c r="O121" s="22"/>
+      <c r="P121" s="22"/>
+    </row>
+    <row r="122" spans="1:16">
+      <c r="A122" s="16">
+        <v>118</v>
+      </c>
+      <c r="B122" s="17"/>
+      <c r="C122" s="18"/>
+      <c r="D122" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="19"/>
+      <c r="I122" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J122" s="22"/>
+      <c r="K122" s="22"/>
+      <c r="L122" s="22"/>
+      <c r="M122" s="22"/>
+      <c r="N122" s="22"/>
+      <c r="O122" s="22"/>
+      <c r="P122" s="22"/>
+    </row>
+    <row r="123" spans="1:16">
+      <c r="A123" s="16">
+        <v>119</v>
+      </c>
+      <c r="B123" s="17"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="19"/>
+      <c r="H123" s="19"/>
+      <c r="I123" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J123" s="22"/>
+      <c r="K123" s="22"/>
+      <c r="L123" s="22"/>
+      <c r="M123" s="22"/>
+      <c r="N123" s="22"/>
+      <c r="O123" s="22"/>
+      <c r="P123" s="22"/>
+    </row>
+    <row r="124" spans="1:16">
+      <c r="A124" s="16">
+        <v>120</v>
+      </c>
+      <c r="B124" s="17"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="19"/>
+      <c r="H124" s="19"/>
+      <c r="I124" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J124" s="22"/>
+      <c r="K124" s="22"/>
+      <c r="L124" s="22"/>
+      <c r="M124" s="22"/>
+      <c r="N124" s="22"/>
+      <c r="O124" s="22"/>
+      <c r="P124" s="22"/>
+    </row>
+    <row r="125" spans="1:16">
+      <c r="A125" s="16">
+        <v>121</v>
+      </c>
+      <c r="B125" s="17"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="19"/>
+      <c r="H125" s="19"/>
+      <c r="I125" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J125" s="22"/>
+      <c r="K125" s="22"/>
+      <c r="L125" s="22"/>
+      <c r="M125" s="22"/>
+      <c r="N125" s="22"/>
+      <c r="O125" s="22"/>
+      <c r="P125" s="22"/>
+    </row>
+    <row r="126" spans="1:16">
+      <c r="A126" s="16">
+        <v>122</v>
+      </c>
+      <c r="B126" s="17"/>
+      <c r="C126" s="18"/>
+      <c r="D126" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="19"/>
+      <c r="H126" s="19"/>
+      <c r="I126" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J126" s="22"/>
+      <c r="K126" s="22"/>
+      <c r="L126" s="22"/>
+      <c r="M126" s="22"/>
+      <c r="N126" s="22"/>
+      <c r="O126" s="22"/>
+      <c r="P126" s="22"/>
+    </row>
+    <row r="127" spans="1:16">
+      <c r="A127" s="16">
+        <v>123</v>
+      </c>
+      <c r="B127" s="17"/>
+      <c r="C127" s="18"/>
+      <c r="D127" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="19"/>
+      <c r="H127" s="19"/>
+      <c r="I127" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J127" s="22"/>
+      <c r="K127" s="22"/>
+      <c r="L127" s="22"/>
+      <c r="M127" s="22"/>
+      <c r="N127" s="22"/>
+      <c r="O127" s="22"/>
+      <c r="P127" s="22"/>
+    </row>
+    <row r="128" spans="1:16">
+      <c r="A128" s="16">
+        <v>124</v>
+      </c>
+      <c r="B128" s="17"/>
+      <c r="C128" s="18"/>
+      <c r="D128" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="19"/>
+      <c r="H128" s="19"/>
+      <c r="I128" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J128" s="22"/>
+      <c r="K128" s="22"/>
+      <c r="L128" s="22"/>
+      <c r="M128" s="22"/>
+      <c r="N128" s="22"/>
+      <c r="O128" s="22"/>
+      <c r="P128" s="22"/>
+    </row>
+    <row r="129" spans="1:16">
+      <c r="A129" s="16">
+        <v>125</v>
+      </c>
+      <c r="B129" s="17"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="19"/>
+      <c r="H129" s="19"/>
+      <c r="I129" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J129" s="22"/>
+      <c r="K129" s="22"/>
+      <c r="L129" s="22"/>
+      <c r="M129" s="22"/>
+      <c r="N129" s="22"/>
+      <c r="O129" s="22"/>
+      <c r="P129" s="22"/>
+    </row>
+    <row r="130" spans="1:16">
+      <c r="A130" s="16">
+        <v>126</v>
+      </c>
+      <c r="B130" s="17"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="19"/>
+      <c r="I130" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J130" s="22"/>
+      <c r="K130" s="22"/>
+      <c r="L130" s="22"/>
+      <c r="M130" s="22"/>
+      <c r="N130" s="22"/>
+      <c r="O130" s="22"/>
+      <c r="P130" s="22"/>
+    </row>
+    <row r="131" spans="1:16">
+      <c r="A131" s="16">
+        <v>127</v>
+      </c>
+      <c r="B131" s="17"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="19"/>
+      <c r="I131" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J131" s="22"/>
+      <c r="K131" s="22"/>
+      <c r="L131" s="22"/>
+      <c r="M131" s="22"/>
+      <c r="N131" s="22"/>
+      <c r="O131" s="22"/>
+      <c r="P131" s="22"/>
+    </row>
+    <row r="132" spans="1:16">
+      <c r="A132" s="16">
+        <v>128</v>
+      </c>
+      <c r="B132" s="17"/>
+      <c r="C132" s="18"/>
+      <c r="D132" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="19"/>
+      <c r="I132" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J132" s="22"/>
+      <c r="K132" s="22"/>
+      <c r="L132" s="22"/>
+      <c r="M132" s="22"/>
+      <c r="N132" s="22"/>
+      <c r="O132" s="22"/>
+      <c r="P132" s="22"/>
+    </row>
+    <row r="133" spans="1:16">
+      <c r="A133" s="16">
+        <v>129</v>
+      </c>
+      <c r="B133" s="17"/>
+      <c r="C133" s="18"/>
+      <c r="D133" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="19"/>
+      <c r="I133" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J133" s="22"/>
+      <c r="K133" s="22"/>
+      <c r="L133" s="22"/>
+      <c r="M133" s="22"/>
+      <c r="N133" s="22"/>
+      <c r="O133" s="22"/>
+      <c r="P133" s="22"/>
+    </row>
+    <row r="134" spans="1:16">
+      <c r="A134" s="16">
+        <v>130</v>
+      </c>
+      <c r="B134" s="17"/>
+      <c r="C134" s="18"/>
+      <c r="D134" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="19"/>
+      <c r="H134" s="19"/>
+      <c r="I134" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J134" s="22"/>
+      <c r="K134" s="22"/>
+      <c r="L134" s="22"/>
+      <c r="M134" s="22"/>
+      <c r="N134" s="22"/>
+      <c r="O134" s="22"/>
+      <c r="P134" s="22"/>
+    </row>
+    <row r="135" spans="1:16">
+      <c r="A135" s="16">
+        <v>131</v>
+      </c>
+      <c r="B135" s="17"/>
+      <c r="C135" s="18"/>
+      <c r="D135" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="19"/>
+      <c r="H135" s="19"/>
+      <c r="I135" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J135" s="22"/>
+      <c r="K135" s="22"/>
+      <c r="L135" s="22"/>
+      <c r="M135" s="22"/>
+      <c r="N135" s="22"/>
+      <c r="O135" s="22"/>
+      <c r="P135" s="22"/>
+    </row>
+    <row r="136" spans="1:16">
+      <c r="A136" s="16">
+        <v>132</v>
+      </c>
+      <c r="B136" s="17"/>
+      <c r="C136" s="18"/>
+      <c r="D136" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="19"/>
+      <c r="H136" s="19"/>
+      <c r="I136" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J136" s="22"/>
+      <c r="K136" s="22"/>
+      <c r="L136" s="22"/>
+      <c r="M136" s="22"/>
+      <c r="N136" s="22"/>
+      <c r="O136" s="22"/>
+      <c r="P136" s="22"/>
+    </row>
+    <row r="137" spans="1:16">
+      <c r="A137" s="16">
+        <v>133</v>
+      </c>
+      <c r="B137" s="17"/>
+      <c r="C137" s="18"/>
+      <c r="D137" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="19"/>
+      <c r="H137" s="19"/>
+      <c r="I137" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J137" s="22"/>
+      <c r="K137" s="22"/>
+      <c r="L137" s="22"/>
+      <c r="M137" s="22"/>
+      <c r="N137" s="22"/>
+      <c r="O137" s="22"/>
+      <c r="P137" s="22"/>
+    </row>
+    <row r="138" spans="1:16">
+      <c r="A138" s="16">
+        <v>134</v>
+      </c>
+      <c r="B138" s="17"/>
+      <c r="C138" s="18"/>
+      <c r="D138" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="19"/>
+      <c r="H138" s="19"/>
+      <c r="I138" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J138" s="22"/>
+      <c r="K138" s="22"/>
+      <c r="L138" s="22"/>
+      <c r="M138" s="22"/>
+      <c r="N138" s="22"/>
+      <c r="O138" s="22"/>
+      <c r="P138" s="22"/>
+    </row>
+    <row r="139" spans="1:16">
+      <c r="A139" s="16">
+        <v>135</v>
+      </c>
+      <c r="B139" s="17"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="19"/>
+      <c r="I139" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J139" s="22"/>
+      <c r="K139" s="22"/>
+      <c r="L139" s="22"/>
+      <c r="M139" s="22"/>
+      <c r="N139" s="22"/>
+      <c r="O139" s="22"/>
+      <c r="P139" s="22"/>
+    </row>
+    <row r="140" spans="1:16">
+      <c r="A140" s="16">
+        <v>136</v>
+      </c>
+      <c r="B140" s="17"/>
+      <c r="C140" s="18"/>
+      <c r="D140" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="19"/>
+      <c r="H140" s="19"/>
+      <c r="I140" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J140" s="22"/>
+      <c r="K140" s="22"/>
+      <c r="L140" s="22"/>
+      <c r="M140" s="22"/>
+      <c r="N140" s="22"/>
+      <c r="O140" s="22"/>
+      <c r="P140" s="22"/>
+    </row>
+    <row r="141" spans="1:16">
+      <c r="A141" s="16">
+        <v>137</v>
+      </c>
+      <c r="B141" s="17"/>
+      <c r="C141" s="18"/>
+      <c r="D141" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="19"/>
+      <c r="H141" s="19"/>
+      <c r="I141" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J141" s="22"/>
+      <c r="K141" s="22"/>
+      <c r="L141" s="22"/>
+      <c r="M141" s="22"/>
+      <c r="N141" s="22"/>
+      <c r="O141" s="22"/>
+      <c r="P141" s="22"/>
+    </row>
+    <row r="142" spans="1:16">
+      <c r="A142" s="16">
+        <v>138</v>
+      </c>
+      <c r="B142" s="17"/>
+      <c r="C142" s="18"/>
+      <c r="D142" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="19"/>
+      <c r="H142" s="19"/>
+      <c r="I142" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J142" s="22"/>
+      <c r="K142" s="22"/>
+      <c r="L142" s="22"/>
+      <c r="M142" s="22"/>
+      <c r="N142" s="22"/>
+      <c r="O142" s="22"/>
+      <c r="P142" s="22"/>
+    </row>
+    <row r="143" spans="1:16">
+      <c r="A143" s="16">
+        <v>139</v>
+      </c>
+      <c r="B143" s="17"/>
+      <c r="C143" s="18"/>
+      <c r="D143" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="19"/>
+      <c r="H143" s="19"/>
+      <c r="I143" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J143" s="22"/>
+      <c r="K143" s="22"/>
+      <c r="L143" s="22"/>
+      <c r="M143" s="22"/>
+      <c r="N143" s="22"/>
+      <c r="O143" s="22"/>
+      <c r="P143" s="22"/>
+    </row>
+    <row r="144" spans="1:16">
+      <c r="A144" s="16">
+        <v>140</v>
+      </c>
+      <c r="B144" s="17"/>
+      <c r="C144" s="18"/>
+      <c r="D144" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="19"/>
+      <c r="H144" s="19"/>
+      <c r="I144" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J144" s="22"/>
+      <c r="K144" s="22"/>
+      <c r="L144" s="22"/>
+      <c r="M144" s="22"/>
+      <c r="N144" s="22"/>
+      <c r="O144" s="22"/>
+      <c r="P144" s="22"/>
+    </row>
+    <row r="145" spans="1:16">
+      <c r="A145" s="16">
+        <v>141</v>
+      </c>
+      <c r="B145" s="17"/>
+      <c r="C145" s="18"/>
+      <c r="D145" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="19"/>
+      <c r="H145" s="19"/>
+      <c r="I145" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J145" s="22"/>
+      <c r="K145" s="22"/>
+      <c r="L145" s="22"/>
+      <c r="M145" s="22"/>
+      <c r="N145" s="22"/>
+      <c r="O145" s="22"/>
+      <c r="P145" s="22"/>
+    </row>
+    <row r="146" spans="1:16">
+      <c r="A146" s="16">
+        <v>142</v>
+      </c>
+      <c r="B146" s="17"/>
+      <c r="C146" s="18"/>
+      <c r="D146" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="19"/>
+      <c r="H146" s="19"/>
+      <c r="I146" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J146" s="22"/>
+      <c r="K146" s="22"/>
+      <c r="L146" s="22"/>
+      <c r="M146" s="22"/>
+      <c r="N146" s="22"/>
+      <c r="O146" s="22"/>
+      <c r="P146" s="22"/>
+    </row>
+    <row r="147" spans="1:16">
+      <c r="A147" s="16">
+        <v>143</v>
+      </c>
+      <c r="B147" s="17"/>
+      <c r="C147" s="18"/>
+      <c r="D147" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="19"/>
+      <c r="I147" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J147" s="22"/>
+      <c r="K147" s="22"/>
+      <c r="L147" s="22"/>
+      <c r="M147" s="22"/>
+      <c r="N147" s="22"/>
+      <c r="O147" s="22"/>
+      <c r="P147" s="22"/>
+    </row>
+    <row r="148" spans="1:16">
+      <c r="A148" s="16">
+        <v>144</v>
+      </c>
+      <c r="B148" s="17"/>
+      <c r="C148" s="18"/>
+      <c r="D148" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="19"/>
+      <c r="H148" s="19"/>
+      <c r="I148" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J148" s="22"/>
+      <c r="K148" s="22"/>
+      <c r="L148" s="22"/>
+      <c r="M148" s="22"/>
+      <c r="N148" s="22"/>
+      <c r="O148" s="22"/>
+      <c r="P148" s="22"/>
+    </row>
+    <row r="149" spans="1:16">
+      <c r="A149" s="16">
+        <v>145</v>
+      </c>
+      <c r="B149" s="17"/>
+      <c r="C149" s="18"/>
+      <c r="D149" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="19"/>
+      <c r="H149" s="19"/>
+      <c r="I149" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J149" s="22"/>
+      <c r="K149" s="22"/>
+      <c r="L149" s="22"/>
+      <c r="M149" s="22"/>
+      <c r="N149" s="22"/>
+      <c r="O149" s="22"/>
+      <c r="P149" s="22"/>
+    </row>
+    <row r="150" spans="1:16">
+      <c r="A150" s="16">
+        <v>146</v>
+      </c>
+      <c r="B150" s="17"/>
+      <c r="C150" s="18"/>
+      <c r="D150" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="19"/>
+      <c r="H150" s="19"/>
+      <c r="I150" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J150" s="22"/>
+      <c r="K150" s="22"/>
+      <c r="L150" s="22"/>
+      <c r="M150" s="22"/>
+      <c r="N150" s="22"/>
+      <c r="O150" s="22"/>
+      <c r="P150" s="22"/>
+    </row>
+    <row r="151" spans="1:16">
+      <c r="A151" s="16">
+        <v>147</v>
+      </c>
+      <c r="B151" s="17"/>
+      <c r="C151" s="18"/>
+      <c r="D151" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="19"/>
+      <c r="H151" s="19"/>
+      <c r="I151" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J151" s="22"/>
+      <c r="K151" s="22"/>
+      <c r="L151" s="22"/>
+      <c r="M151" s="22"/>
+      <c r="N151" s="22"/>
+      <c r="O151" s="22"/>
+      <c r="P151" s="22"/>
+    </row>
+    <row r="152" spans="1:16">
+      <c r="A152" s="16">
+        <v>148</v>
+      </c>
+      <c r="B152" s="17"/>
+      <c r="C152" s="18"/>
+      <c r="D152" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="19"/>
+      <c r="H152" s="19"/>
+      <c r="I152" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J152" s="22"/>
+      <c r="K152" s="22"/>
+      <c r="L152" s="22"/>
+      <c r="M152" s="22"/>
+      <c r="N152" s="22"/>
+      <c r="O152" s="22"/>
+      <c r="P152" s="22"/>
+    </row>
+    <row r="153" spans="1:16">
+      <c r="A153" s="16">
+        <v>149</v>
+      </c>
+      <c r="B153" s="17"/>
+      <c r="C153" s="18"/>
+      <c r="D153" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="19"/>
+      <c r="H153" s="19"/>
+      <c r="I153" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J153" s="22"/>
+      <c r="K153" s="22"/>
+      <c r="L153" s="22"/>
+      <c r="M153" s="22"/>
+      <c r="N153" s="22"/>
+      <c r="O153" s="22"/>
+      <c r="P153" s="22"/>
+    </row>
+    <row r="154" spans="1:16">
+      <c r="A154" s="16">
+        <v>150</v>
+      </c>
+      <c r="B154" s="17"/>
+      <c r="C154" s="18"/>
+      <c r="D154" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="19"/>
+      <c r="H154" s="19"/>
+      <c r="I154" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J154" s="22"/>
+      <c r="K154" s="22"/>
+      <c r="L154" s="22"/>
+      <c r="M154" s="22"/>
+      <c r="N154" s="22"/>
+      <c r="O154" s="22"/>
+      <c r="P154" s="22"/>
+    </row>
+    <row r="155" spans="1:16">
+      <c r="A155" s="16">
+        <v>151</v>
+      </c>
+      <c r="B155" s="17"/>
+      <c r="C155" s="18"/>
+      <c r="D155" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="19"/>
+      <c r="H155" s="19"/>
+      <c r="I155" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J155" s="22"/>
+      <c r="K155" s="22"/>
+      <c r="L155" s="22"/>
+      <c r="M155" s="22"/>
+      <c r="N155" s="22"/>
+      <c r="O155" s="22"/>
+      <c r="P155" s="22"/>
+    </row>
+    <row r="156" spans="1:16">
+      <c r="A156" s="16">
+        <v>152</v>
+      </c>
+      <c r="B156" s="17"/>
+      <c r="C156" s="18"/>
+      <c r="D156" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4"/>
+      <c r="G156" s="19"/>
+      <c r="H156" s="19"/>
+      <c r="I156" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J156" s="22"/>
+      <c r="K156" s="22"/>
+      <c r="L156" s="22"/>
+      <c r="M156" s="22"/>
+      <c r="N156" s="22"/>
+      <c r="O156" s="22"/>
+      <c r="P156" s="22"/>
+    </row>
+    <row r="157" spans="1:16">
+      <c r="A157" s="16">
+        <v>153</v>
+      </c>
+      <c r="B157" s="17"/>
+      <c r="C157" s="18"/>
+      <c r="D157" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="19"/>
+      <c r="H157" s="19"/>
+      <c r="I157" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J157" s="22"/>
+      <c r="K157" s="22"/>
+      <c r="L157" s="22"/>
+      <c r="M157" s="22"/>
+      <c r="N157" s="22"/>
+      <c r="O157" s="22"/>
+      <c r="P157" s="22"/>
+    </row>
+    <row r="158" spans="1:16">
+      <c r="A158" s="16">
+        <v>154</v>
+      </c>
+      <c r="B158" s="17"/>
+      <c r="C158" s="18"/>
+      <c r="D158" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="19"/>
+      <c r="H158" s="19"/>
+      <c r="I158" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J158" s="22"/>
+      <c r="K158" s="22"/>
+      <c r="L158" s="22"/>
+      <c r="M158" s="22"/>
+      <c r="N158" s="22"/>
+      <c r="O158" s="22"/>
+      <c r="P158" s="22"/>
+    </row>
+    <row r="159" spans="1:16">
+      <c r="A159" s="16">
+        <v>155</v>
+      </c>
+      <c r="B159" s="17"/>
+      <c r="C159" s="18"/>
+      <c r="D159" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="19"/>
+      <c r="H159" s="19"/>
+      <c r="I159" s="12" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J159" s="22"/>
+      <c r="K159" s="22"/>
+      <c r="L159" s="22"/>
+      <c r="M159" s="22"/>
+      <c r="N159" s="22"/>
+      <c r="O159" s="22"/>
+      <c r="P159" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:D16"/>
   <mergeCells count="10">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="D1:D4"/>
+    <mergeCell ref="E1:E4"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="I1:I4"/>
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="D1:D4"/>
-    <mergeCell ref="E1:E4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
-  <conditionalFormatting sqref="D69:D65236 C52:C68">
+  <conditionalFormatting sqref="D160:D65236">
     <cfRule type="expression" dxfId="170" priority="139" stopIfTrue="1">
-      <formula>C52="未着手"</formula>
+      <formula>D160="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="169" priority="140" stopIfTrue="1">
-      <formula>C52="作業中"</formula>
+      <formula>D160="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="168" priority="141" stopIfTrue="1">
-      <formula>OR(C52="終了",C52="完了")</formula>
+      <formula>OR(D160="終了",D160="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69:B65236 A52:A68">
+  <conditionalFormatting sqref="B160:B65236">
     <cfRule type="expression" dxfId="167" priority="145" stopIfTrue="1">
-      <formula>C52="未着手"</formula>
+      <formula>D160="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="166" priority="146" stopIfTrue="1">
-      <formula>C52="作業中"</formula>
+      <formula>D160="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="165" priority="147" stopIfTrue="1">
-      <formula>OR(C52="終了",C52="完了")</formula>
+      <formula>OR(D160="終了",D160="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C69:C65236 B52:B68">
+  <conditionalFormatting sqref="C160:C65236">
     <cfRule type="expression" dxfId="164" priority="148" stopIfTrue="1">
-      <formula>C52="未着手"</formula>
+      <formula>D160="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="163" priority="149" stopIfTrue="1">
-      <formula>C52="作業中"</formula>
+      <formula>D160="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="162" priority="150" stopIfTrue="1">
-      <formula>OR(C52="終了",C52="完了")</formula>
+      <formula>OR(D160="終了",D160="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69:J65236">
+  <conditionalFormatting sqref="E160:J65236">
     <cfRule type="expression" dxfId="161" priority="151" stopIfTrue="1">
-      <formula>$D69="未着手"</formula>
+      <formula>$D160="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="160" priority="152" stopIfTrue="1">
-      <formula>$D69="作業中"</formula>
+      <formula>$D160="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="159" priority="153" stopIfTrue="1">
-      <formula>OR($D69="終了",$D69="完了")</formula>
+      <formula>OR($D160="終了",$D160="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:P24 J25:O26 P25:P29 J27:M29 J30:P51 B25:I51 A5:A51">
+  <conditionalFormatting sqref="B5:P24 J25:O26 P25:P29 J27:M29 J30:P159 B25:I159 A5:A159">
     <cfRule type="expression" dxfId="158" priority="82" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
@@ -39843,26 +42973,26 @@
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K69:K65235 J68">
+  <conditionalFormatting sqref="K160:K65235">
     <cfRule type="expression" dxfId="56" priority="214" stopIfTrue="1">
-      <formula>$D69="未着手"</formula>
+      <formula>$D161="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="55" priority="215" stopIfTrue="1">
-      <formula>$D69="作業中"</formula>
+      <formula>$D161="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="54" priority="216" stopIfTrue="1">
-      <formula>OR($D69="終了",$D69="完了")</formula>
+      <formula>OR($D161="終了",$D161="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L69:M65234 K67:L68">
+  <conditionalFormatting sqref="L160:M65234">
     <cfRule type="expression" dxfId="53" priority="217" stopIfTrue="1">
-      <formula>$D69="未着手"</formula>
+      <formula>$D162="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="52" priority="218" stopIfTrue="1">
-      <formula>$D69="作業中"</formula>
+      <formula>$D162="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="51" priority="219" stopIfTrue="1">
-      <formula>OR($D69="終了",$D69="完了")</formula>
+      <formula>OR($D162="終了",$D162="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IO51:XFD55 IN47:XFD50">
@@ -39909,113 +43039,80 @@
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:I68">
-    <cfRule type="expression" dxfId="38" priority="226" stopIfTrue="1">
-      <formula>$C52="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="227" stopIfTrue="1">
-      <formula>$C52="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="228" stopIfTrue="1">
-      <formula>OR($C52="終了",$C52="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52:J67">
-    <cfRule type="expression" dxfId="35" priority="229" stopIfTrue="1">
-      <formula>$C53="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="230" stopIfTrue="1">
-      <formula>$C53="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="231" stopIfTrue="1">
-      <formula>OR($C53="終了",$C53="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K52:L66">
-    <cfRule type="expression" dxfId="32" priority="232" stopIfTrue="1">
-      <formula>$C54="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="233" stopIfTrue="1">
-      <formula>$C54="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="234" stopIfTrue="1">
-      <formula>OR($C54="終了",$C54="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N27:O29">
-    <cfRule type="expression" dxfId="29" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="1" stopIfTrue="1">
       <formula>$D27="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="2" stopIfTrue="1">
       <formula>$D27="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="3" stopIfTrue="1">
       <formula>OR($D27="終了",$D27="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="expression" dxfId="26" priority="4684" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="4684" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="4685" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="4685" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="4686" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="4686" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IN5:XFD5">
-    <cfRule type="expression" dxfId="23" priority="4714" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="4714" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="4715" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="4715" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="4716" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="4716" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5:IM5">
-    <cfRule type="expression" dxfId="20" priority="4717" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="4717" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="4718" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="4718" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="4719" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="4719" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q24:IM24">
-    <cfRule type="expression" dxfId="17" priority="4756" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="4756" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="4757" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="4757" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="4758" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="4758" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IN43:XFD43">
-    <cfRule type="expression" dxfId="14" priority="4759" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="4759" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="4760" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="4760" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="4761" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="4761" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IN15:XFD15">
-    <cfRule type="expression" dxfId="11" priority="4762" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="4762" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="4763" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="4763" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4764" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="4764" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40316,11 +43413,18 @@
     </row>
     <row r="10" spans="1:18" ht="13.8" thickBot="1">
       <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
+      <c r="B10" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="D10" s="32" t="s">
+        <v>35</v>
+      </c>
       <c r="E10" s="32"/>
       <c r="F10" s="32"/>
+      <c r="G10" s="107" t="s">
+        <v>381</v>
+      </c>
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
       <c r="J10" s="33"/>
@@ -40333,77 +43437,107 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
+      <c r="B11" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
+      <c r="D11" s="32" t="s">
+        <v>35</v>
+      </c>
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
+      <c r="G11" s="89" t="s">
+        <v>382</v>
+      </c>
+      <c r="H11" s="38"/>
       <c r="I11" s="32"/>
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" ht="26.4">
       <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
+      <c r="B12" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="38"/>
+      <c r="G12" s="90" t="s">
+        <v>383</v>
+      </c>
+      <c r="H12" s="89"/>
       <c r="I12" s="32"/>
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" ht="26.4">
       <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
+      <c r="B13" s="32" t="s">
+        <v>34</v>
+      </c>
       <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
+      <c r="D13" s="32" t="s">
+        <v>41</v>
+      </c>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
+      <c r="G13" s="90" t="s">
+        <v>384</v>
+      </c>
+      <c r="H13" s="38"/>
       <c r="I13" s="32"/>
       <c r="J13" s="33"/>
       <c r="K13" s="33"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
+      <c r="B14" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="38"/>
+      <c r="G14" s="89" t="s">
+        <v>385</v>
+      </c>
+      <c r="H14" s="90"/>
       <c r="I14" s="32"/>
       <c r="J14" s="33"/>
       <c r="K14" s="33"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
+      <c r="B15" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
+      <c r="G15" s="89" t="s">
+        <v>400</v>
+      </c>
+      <c r="H15" s="89" t="s">
+        <v>406</v>
+      </c>
       <c r="I15" s="32"/>
       <c r="J15" s="33"/>
       <c r="K15" s="33"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
+      <c r="B16" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="89"/>
+      <c r="G16" s="89" t="s">
+        <v>387</v>
+      </c>
       <c r="H16" s="89"/>
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
@@ -40411,14 +43545,22 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
+      <c r="B17" s="32" t="s">
+        <v>34</v>
+      </c>
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="32"/>
+      <c r="G17" s="89" t="s">
+        <v>404</v>
+      </c>
+      <c r="H17" s="92" t="s">
+        <v>405</v>
+      </c>
+      <c r="I17" s="89" t="s">
+        <v>393</v>
+      </c>
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
     </row>
@@ -40429,33 +43571,41 @@
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
       <c r="I18" s="32"/>
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
+      <c r="B19" s="32" t="s">
+        <v>34</v>
+      </c>
       <c r="C19" s="32"/>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
+      <c r="G19" s="89" t="s">
+        <v>388</v>
+      </c>
+      <c r="H19" s="108" t="s">
+        <v>401</v>
+      </c>
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
+      <c r="B20" s="32" t="s">
+        <v>34</v>
+      </c>
       <c r="C20" s="32"/>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="89"/>
+      <c r="G20" s="89" t="s">
+        <v>389</v>
+      </c>
       <c r="H20" s="89"/>
       <c r="I20" s="32"/>
       <c r="J20" s="32"/>
@@ -40463,12 +43613,16 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
+      <c r="B21" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="C21" s="32"/>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="89"/>
+      <c r="G21" s="92" t="s">
+        <v>390</v>
+      </c>
       <c r="H21" s="32"/>
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
@@ -40476,12 +43630,16 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
+      <c r="B22" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="C22" s="32"/>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="89"/>
+      <c r="G22" s="92" t="s">
+        <v>402</v>
+      </c>
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
       <c r="J22" s="32"/>
@@ -40489,14 +43647,19 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
+      <c r="B23" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="C23" s="32"/>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="32"/>
+      <c r="G23" s="89" t="s">
+        <v>391</v>
+      </c>
+      <c r="I23" s="89" t="s">
+        <v>394</v>
+      </c>
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
     </row>
@@ -40507,32 +43670,42 @@
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="93"/>
+      <c r="G24" s="32"/>
       <c r="I24" s="32"/>
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
+      <c r="B25" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="C25" s="32"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="32"/>
+      <c r="G25" s="89" t="s">
+        <v>392</v>
+      </c>
+      <c r="H25" s="89" t="s">
+        <v>403</v>
+      </c>
       <c r="I25" s="32"/>
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
+      <c r="B26" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="C26" s="32"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="89"/>
+      <c r="G26" s="89" t="s">
+        <v>395</v>
+      </c>
       <c r="H26" s="89"/>
       <c r="I26" s="32"/>
       <c r="J26" s="32"/>
@@ -40540,27 +43713,38 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
+      <c r="B27" s="32" t="s">
+        <v>34</v>
+      </c>
       <c r="C27" s="32"/>
       <c r="D27" s="32"/>
       <c r="E27" s="32"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
+      <c r="G27" s="89" t="s">
+        <v>396</v>
+      </c>
+      <c r="H27" s="108" t="s">
+        <v>399</v>
+      </c>
       <c r="I27" s="32"/>
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
+      <c r="B28" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="C28" s="32"/>
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
+      <c r="G28" s="89" t="s">
+        <v>397</v>
+      </c>
+      <c r="I28" s="89" t="s">
+        <v>398</v>
+      </c>
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
@@ -40623,7 +43807,6 @@
       <c r="D33" s="32"/>
       <c r="E33" s="32"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
       <c r="J33" s="32"/>
@@ -40636,7 +43819,6 @@
       <c r="D34" s="32"/>
       <c r="E34" s="32"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
       <c r="J34" s="32"/>
@@ -40649,7 +43831,6 @@
       <c r="D35" s="32"/>
       <c r="E35" s="32"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
       <c r="J35" s="32"/>
@@ -40866,41 +44047,74 @@
   </sheetData>
   <autoFilter ref="B1:K51"/>
   <phoneticPr fontId="4"/>
-  <conditionalFormatting sqref="A14:K22 A13:F13 H13:K13 A2:K9 A11:K12 A10:F10 H10:K10 A25:K51 A23:F24 I23:K24">
-    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="A2:K9 I24:K24 A36:K51 A10:F35 H25:K27 H19:K22 I10:K16 I18:K18 J17:K17 H29:K35 I28:K28 J23:K23">
+    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
       <formula>$D2="要望"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
       <formula>$D2="確認済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
       <formula>$D2="対応"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="5" priority="4546" stopIfTrue="1">
+  <conditionalFormatting sqref="G11">
+    <cfRule type="expression" dxfId="14" priority="4546" stopIfTrue="1">
       <formula>$D10="要望"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4547" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="4547" stopIfTrue="1">
       <formula>$D10="確認済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4548" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="4548" stopIfTrue="1">
       <formula>$D10="対応"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:H23">
-    <cfRule type="expression" dxfId="2" priority="4582" stopIfTrue="1">
-      <formula>$D24="要望"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4583" stopIfTrue="1">
-      <formula>$D24="確認済"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4584" stopIfTrue="1">
-      <formula>$D24="対応"</formula>
+  <conditionalFormatting sqref="I23 G20 H10:H16 I17">
+    <cfRule type="expression" dxfId="11" priority="4582" stopIfTrue="1">
+      <formula>$D11="要望"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="4583" stopIfTrue="1">
+      <formula>$D11="確認済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="4584" stopIfTrue="1">
+      <formula>$D11="対応"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:G32">
+    <cfRule type="expression" dxfId="8" priority="4792" stopIfTrue="1">
+      <formula>$D26="要望"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="4793" stopIfTrue="1">
+      <formula>$D26="確認済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4794" stopIfTrue="1">
+      <formula>$D26="対応"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:G17 G10">
+    <cfRule type="expression" dxfId="5" priority="4834" stopIfTrue="1">
+      <formula>$D12="要望"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4835" stopIfTrue="1">
+      <formula>$D12="確認済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="4836" stopIfTrue="1">
+      <formula>$D12="対応"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="expression" dxfId="2" priority="4867" stopIfTrue="1">
+      <formula>$D25="要望"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4868" stopIfTrue="1">
+      <formula>$D25="確認済"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="4869" stopIfTrue="1">
+      <formula>$D25="対応"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I16 I29:I51 I18:I22 I24:I27">
       <formula1>登録者</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B51">

--- a/Godlibrary/BackLog.xlsx
+++ b/Godlibrary/BackLog.xlsx
@@ -802,7 +802,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="412">
   <si>
     <t>担当者</t>
   </si>
@@ -4155,6 +4155,53 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>攻撃範囲最初だけ表示されない</t>
+    <rPh sb="0" eb="4">
+      <t>コウゲキハンイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>展示用データ作成</t>
+    <rPh sb="0" eb="3">
+      <t>テンジヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>水沼</t>
+    <rPh sb="0" eb="2">
+      <t>ミズヌマ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>リソース差し替え</t>
+    <rPh sb="4" eb="5">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>遠藤</t>
+    <rPh sb="0" eb="2">
+      <t>エンドウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -4882,6 +4929,8 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4906,12 +4955,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4921,11 +4964,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -16479,7 +16526,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -16593,7 +16639,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -16778,7 +16823,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -18262,53 +18306,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="95" t="s">
+      <c r="I1" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="93" t="s">
+      <c r="J1" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
     </row>
     <row r="2" spans="1:16" s="8" customFormat="1">
-      <c r="A2" s="95"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="95"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="97"/>
       <c r="J2" s="23" t="s">
         <v>11</v>
       </c>
@@ -18332,15 +18376,15 @@
       </c>
     </row>
     <row r="3" spans="1:16" s="8" customFormat="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="95"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="97"/>
       <c r="J3" s="20">
         <f t="shared" ref="J3:P3" si="0">INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$P$2))))</f>
         <v>0</v>
@@ -18371,15 +18415,15 @@
       </c>
     </row>
     <row r="4" spans="1:16" s="8" customFormat="1">
-      <c r="A4" s="95"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="95"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="97"/>
       <c r="J4" s="21">
         <f>SUM(J5:J104)</f>
         <v>0</v>
@@ -22083,41 +22127,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="97" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="97" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="98" t="s">
+      <c r="G1" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="99" t="s">
+      <c r="I1" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="95" t="s">
+      <c r="J1" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="93" t="s">
+      <c r="K1" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="101"/>
-      <c r="M1" s="102"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="107"/>
       <c r="N1" s="71"/>
       <c r="O1" s="71"/>
       <c r="P1" s="71"/>
@@ -22129,16 +22173,16 @@
       <c r="V1" s="71"/>
     </row>
     <row r="2" spans="1:22" s="8" customFormat="1">
-      <c r="A2" s="95"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
       <c r="D2" s="104"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="95"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="97"/>
       <c r="K2" s="23" t="s">
         <v>44</v>
       </c>
@@ -22150,16 +22194,16 @@
       </c>
     </row>
     <row r="3" spans="1:22" s="8" customFormat="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
       <c r="D3" s="104"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="95"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="97"/>
       <c r="K3" s="20">
         <f>INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$M$2))))</f>
         <v>79</v>
@@ -22174,16 +22218,16 @@
       </c>
     </row>
     <row r="4" spans="1:22" s="8" customFormat="1">
-      <c r="A4" s="95"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="97"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="99"/>
       <c r="D4" s="105"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="95"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="21">
         <f>SUM(K5:K42)</f>
         <v>79</v>
@@ -23928,17 +23972,17 @@
   </sheetData>
   <autoFilter ref="C1:D123"/>
   <mergeCells count="11">
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:M1"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:D4"/>
     <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D43:D65414">
@@ -25081,44 +25125,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="95"/>
-      <c r="B1" s="95" t="s">
+      <c r="A1" s="97"/>
+      <c r="B1" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="97" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="98" t="s">
+      <c r="G1" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="99" t="s">
+      <c r="I1" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="95" t="s">
+      <c r="J1" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="93" t="s">
+      <c r="K1" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="102"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="107"/>
       <c r="S1" s="71"/>
       <c r="T1" s="71"/>
       <c r="U1" s="71"/>
@@ -25126,16 +25170,16 @@
       <c r="W1" s="71"/>
     </row>
     <row r="2" spans="1:23" s="8" customFormat="1">
-      <c r="A2" s="95"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
       <c r="D2" s="104"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="95"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="97"/>
       <c r="K2" s="23" t="s">
         <v>133</v>
       </c>
@@ -25162,16 +25206,16 @@
       </c>
     </row>
     <row r="3" spans="1:23" s="8" customFormat="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
       <c r="D3" s="104"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="95"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="97"/>
       <c r="K3" s="20">
         <f>INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$R$2))))</f>
         <v>78</v>
@@ -25206,16 +25250,16 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="8" customFormat="1">
-      <c r="A4" s="95"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="97"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="99"/>
       <c r="D4" s="105"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="95"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="21">
         <f>SUM(K5:K50)</f>
         <v>78</v>
@@ -28688,45 +28732,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="97" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="98" t="s">
+      <c r="G1" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="99" t="s">
+      <c r="I1" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="95" t="s">
+      <c r="J1" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="106" t="s">
+      <c r="K1" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
       <c r="R1" s="71"/>
       <c r="S1" s="71"/>
       <c r="T1" s="71"/>
@@ -28734,16 +28778,16 @@
       <c r="V1" s="71"/>
     </row>
     <row r="2" spans="1:22" s="8" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A2" s="95"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
       <c r="D2" s="104"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="95"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="97"/>
       <c r="K2" s="23" t="s">
         <v>137</v>
       </c>
@@ -28767,16 +28811,16 @@
       </c>
     </row>
     <row r="3" spans="1:22" s="8" customFormat="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
       <c r="D3" s="104"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="95"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="97"/>
       <c r="K3" s="20">
         <f>INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$Q$2))))</f>
         <v>268</v>
@@ -28807,16 +28851,16 @@
       </c>
     </row>
     <row r="4" spans="1:22" s="8" customFormat="1">
-      <c r="A4" s="95"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="97"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="99"/>
       <c r="D4" s="105"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="95"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="97"/>
       <c r="K4" s="21">
         <f t="shared" ref="K4:Q4" si="1">SUM(K5:K170)</f>
         <v>268.5</v>
@@ -37003,17 +37047,17 @@
   </sheetData>
   <autoFilter ref="C1:D49"/>
   <mergeCells count="11">
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:Q1"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:D4"/>
     <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D192:D65359 C175:C191">
@@ -37904,42 +37948,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="95" t="s">
+      <c r="I1" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="106" t="s">
+      <c r="J1" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
       <c r="Q1" s="71"/>
       <c r="R1" s="71"/>
       <c r="S1" s="71"/>
@@ -37947,15 +37991,15 @@
       <c r="U1" s="71"/>
     </row>
     <row r="2" spans="1:21" s="8" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A2" s="95"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="95"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="97"/>
       <c r="J2" s="23" t="s">
         <v>357</v>
       </c>
@@ -37979,15 +38023,15 @@
       </c>
     </row>
     <row r="3" spans="1:21" s="8" customFormat="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="95"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="97"/>
       <c r="J3" s="20">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$P$2))))</f>
         <v>18</v>
@@ -38018,15 +38062,15 @@
       </c>
     </row>
     <row r="4" spans="1:21" s="8" customFormat="1">
-      <c r="A4" s="95"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="95"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="97"/>
       <c r="J4" s="21">
         <f t="shared" ref="J4:P4" si="1">SUM(J5:J47)</f>
         <v>18</v>
@@ -39632,22 +39676,34 @@
       <c r="A48" s="16">
         <v>44</v>
       </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="18"/>
+      <c r="B48" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>409</v>
+      </c>
       <c r="D48" s="12" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>作業中</v>
+      </c>
+      <c r="E48" s="4">
+        <v>43140</v>
+      </c>
+      <c r="F48" s="4">
+        <v>43140</v>
+      </c>
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
-      <c r="I48" s="12" t="str">
+      <c r="I48" s="12">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="J48" s="22">
+        <v>2</v>
+      </c>
+      <c r="K48" s="22">
+        <v>2</v>
+      </c>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -39658,23 +39714,37 @@
       <c r="A49" s="16">
         <v>45</v>
       </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
+      <c r="B49" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>411</v>
+      </c>
       <c r="D49" s="12" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>完了</v>
+      </c>
+      <c r="E49" s="4">
+        <v>43140</v>
+      </c>
+      <c r="F49" s="4">
+        <v>43140</v>
+      </c>
       <c r="G49" s="19"/>
       <c r="H49" s="19"/>
-      <c r="I49" s="12" t="str">
+      <c r="I49" s="12">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="22">
+        <v>2</v>
+      </c>
+      <c r="K49" s="22">
+        <v>2</v>
+      </c>
+      <c r="L49" s="22">
+        <v>0</v>
+      </c>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -42543,16 +42613,16 @@
   </sheetData>
   <autoFilter ref="C1:D16"/>
   <mergeCells count="10">
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:D4"/>
     <mergeCell ref="E1:E4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:P1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D160:D65236">
@@ -43128,7 +43198,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
@@ -43422,7 +43494,7 @@
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="107" t="s">
+      <c r="G10" s="93" t="s">
         <v>381</v>
       </c>
       <c r="H10" s="32"/>
@@ -43587,7 +43659,7 @@
       <c r="G19" s="89" t="s">
         <v>388</v>
       </c>
-      <c r="H19" s="108" t="s">
+      <c r="H19" s="94" t="s">
         <v>401</v>
       </c>
       <c r="I19" s="32"/>
@@ -43723,7 +43795,7 @@
       <c r="G27" s="89" t="s">
         <v>396</v>
       </c>
-      <c r="H27" s="108" t="s">
+      <c r="H27" s="94" t="s">
         <v>399</v>
       </c>
       <c r="I27" s="32"/>
@@ -43781,7 +43853,9 @@
       <c r="D31" s="32"/>
       <c r="E31" s="32"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
+      <c r="G31" s="89" t="s">
+        <v>407</v>
+      </c>
       <c r="H31" s="32"/>
       <c r="I31" s="32"/>
       <c r="J31" s="32"/>

--- a/Godlibrary/BackLog.xlsx
+++ b/Godlibrary/BackLog.xlsx
@@ -802,7 +802,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="415">
   <si>
     <t>担当者</t>
   </si>
@@ -4189,12 +4189,42 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>リソース差し替え</t>
+    <t>遠藤</t>
+    <rPh sb="0" eb="2">
+      <t>エンドウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>キャラが2ページ以上になった時スクロールに問題アリ</t>
+    <rPh sb="8" eb="10">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>リソース差し替え　UI</t>
     <rPh sb="4" eb="5">
       <t>サ</t>
     </rPh>
     <rPh sb="6" eb="7">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>編成画面整理</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンセイガメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイリ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -4955,6 +4985,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4962,12 +4998,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -16526,6 +16556,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -16639,6 +16670,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -16823,6 +16855,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -22136,7 +22169,7 @@
       <c r="C1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="105" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="97" t="s">
@@ -22160,8 +22193,8 @@
       <c r="K1" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="106"/>
-      <c r="M1" s="107"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="104"/>
       <c r="N1" s="71"/>
       <c r="O1" s="71"/>
       <c r="P1" s="71"/>
@@ -22176,7 +22209,7 @@
       <c r="A2" s="97"/>
       <c r="B2" s="98"/>
       <c r="C2" s="98"/>
-      <c r="D2" s="104"/>
+      <c r="D2" s="106"/>
       <c r="E2" s="97"/>
       <c r="F2" s="100"/>
       <c r="G2" s="100"/>
@@ -22197,7 +22230,7 @@
       <c r="A3" s="97"/>
       <c r="B3" s="98"/>
       <c r="C3" s="98"/>
-      <c r="D3" s="104"/>
+      <c r="D3" s="106"/>
       <c r="E3" s="97"/>
       <c r="F3" s="100"/>
       <c r="G3" s="100"/>
@@ -22221,7 +22254,7 @@
       <c r="A4" s="97"/>
       <c r="B4" s="98"/>
       <c r="C4" s="99"/>
-      <c r="D4" s="105"/>
+      <c r="D4" s="107"/>
       <c r="E4" s="97"/>
       <c r="F4" s="100"/>
       <c r="G4" s="100"/>
@@ -23972,17 +24005,17 @@
   </sheetData>
   <autoFilter ref="C1:D123"/>
   <mergeCells count="11">
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:M1"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:D4"/>
     <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D43:D65414">
@@ -25132,7 +25165,7 @@